--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>дни</t>
   </si>
@@ -84,13 +84,37 @@
   <si>
     <t>dsPIC33j128</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>1 шага</t>
+  </si>
+  <si>
+    <t xml:space="preserve">период </t>
+  </si>
+  <si>
+    <t>переполнений в сек</t>
+  </si>
+  <si>
+    <t>1 оборот в сек</t>
+  </si>
+  <si>
+    <t>10 оборотов в сек</t>
+  </si>
+  <si>
+    <t>20 оборотов в сек</t>
+  </si>
+  <si>
+    <t>тактов за шаг</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -211,23 +235,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -235,15 +277,29 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -253,6 +309,13 @@
         <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -304,673 +367,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1278,14 +674,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -1329,9 +725,9 @@
         <v>9.0540000004693866</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="4" customFormat="1"/>
+    <row r="7" spans="3:8" s="3" customFormat="1"/>
     <row r="9" spans="3:8">
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1344,61 +740,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -1419,107 +816,241 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="C8" s="9">
+      <c r="I7">
+        <f>1/I8</f>
+        <v>2.4999999999999999E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="C8" s="7">
         <v>25000000</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f>C8/D9</f>
         <v>6250000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f>D8/E9</f>
         <v>1250000</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f>E8*F9</f>
         <v>160000000</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f>F8/G9</f>
         <v>80000000</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f>G8/2</f>
         <v>40000000</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="10">
+        <f>H8/I9</f>
+        <v>40000000</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>128</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>2</v>
       </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f>C8*F9</f>
         <v>3200000000</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f>C8*F9/(D9*E9*G9)</f>
         <v>80000000</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
+        <f>32768</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f>I7</f>
+        <v>2.4999999999999999E-8</v>
+      </c>
+      <c r="E16">
+        <f>IF(D16&lt;0.000001,D16*1000000000,IF(D16&lt;0.001,D16*1000000,IF(D16&lt;1,D16*1000,D16)))</f>
+        <v>25</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE(IF(D16&lt;0.000001,"n",IF(D16&lt;0.001,"u",IF(D16&lt;1,"m",""))),G16)</f>
+        <v>ns</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f>1/(200*16)</f>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <f>IF(D17&lt;0.000001,D17*1000000000,IF(D17&lt;0.001,D17*1000000,IF(D17&lt;1,D17*1000,D17)))</f>
+        <v>312.5</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE(IF(D17&lt;0.000001,"n",IF(D17&lt;0.001,"u",IF(D17&lt;1,"m",""))),G17)</f>
+        <v>us</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <f>D17/$D$16</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f>I8/65536</f>
+        <v>610.3515625</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f>1/(10*200*16)</f>
+        <v>3.1250000000000001E-5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E18:E20" si="0">IF(D19&lt;0.000001,D19*1000000000,IF(D19&lt;0.001,D19*1000000,IF(D19&lt;1,D19*1000,D19)))</f>
+        <v>31.25</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F18:F19" si="1">CONCATENATE(IF(D19&lt;0.000001,"n",IF(D19&lt;0.001,"u",IF(D19&lt;1,"m",""))),G19)</f>
+        <v>us</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <f>D19/$D$16</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>1/(20*200*16)</f>
+        <v>1.5625E-5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20" si="2">CONCATENATE(IF(D20&lt;0.000001,"n",IF(D20&lt;0.001,"u",IF(D20&lt;1,"m",""))),G20)</f>
+        <v>us</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <f>D20/$D$16</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
       <formula>12500000</formula>
       <formula>80000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>40000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
       <formula>800000</formula>
       <formula>8000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
       <formula>25000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>100000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>200000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>100000000</formula>
       <formula>200000000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
-      <formula>200000000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
-      <formula>100000000</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D9">
       <formula1>"1,2,3,4,8"</formula1>
     </dataValidation>
@@ -1537,8 +1068,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"25000000,12800000,10000000,32768,"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
+      <formula1>"1,8,64,256"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F8" formula="1"/>
   </ignoredErrors>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>дни</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>тактов за шаг</t>
+  </si>
+  <si>
+    <t>100 тактов на прерывание</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -277,15 +283,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,14 +680,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -743,7 +749,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,12 +785,12 @@
     <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5"/>
@@ -818,7 +824,7 @@
       </c>
       <c r="I7">
         <f>1/I8</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="7" customFormat="1" ht="15.75" thickBot="1">
@@ -847,7 +853,7 @@
       </c>
       <c r="I8" s="10">
         <f>H8/I9</f>
-        <v>40000000</v>
+        <v>5000000</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -868,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
@@ -892,9 +898,12 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="3">
@@ -903,16 +912,16 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <f>I7</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="E16">
         <f>IF(D16&lt;0.000001,D16*1000000000,IF(D16&lt;0.001,D16*1000000,IF(D16&lt;1,D16*1000,D16)))</f>
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE(IF(D16&lt;0.000001,"n",IF(D16&lt;0.001,"u",IF(D16&lt;1,"m",""))),G16)</f>
@@ -922,8 +931,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="3:9">
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D17">
@@ -943,20 +952,24 @@
       </c>
       <c r="H17">
         <f>D17/$D$16</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
+        <v>1562.5</v>
+      </c>
+      <c r="I17">
+        <f>H17*I7/H8</f>
+        <v>7.8125000000000005E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18">
         <f>I8/65536</f>
-        <v>610.3515625</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="16" t="s">
+        <v>76.2939453125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D19">
@@ -964,11 +977,11 @@
         <v>3.1250000000000001E-5</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E18:E20" si="0">IF(D19&lt;0.000001,D19*1000000000,IF(D19&lt;0.001,D19*1000000,IF(D19&lt;1,D19*1000,D19)))</f>
+        <f t="shared" ref="E19:E20" si="0">IF(D19&lt;0.000001,D19*1000000000,IF(D19&lt;0.001,D19*1000000,IF(D19&lt;1,D19*1000,D19)))</f>
         <v>31.25</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F18:F19" si="1">CONCATENATE(IF(D19&lt;0.000001,"n",IF(D19&lt;0.001,"u",IF(D19&lt;1,"m",""))),G19)</f>
+        <f t="shared" ref="F19" si="1">CONCATENATE(IF(D19&lt;0.000001,"n",IF(D19&lt;0.001,"u",IF(D19&lt;1,"m",""))),G19)</f>
         <v>us</v>
       </c>
       <c r="G19" t="s">
@@ -976,11 +989,11 @@
       </c>
       <c r="H19">
         <f>D19/$D$16</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="16" t="s">
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D20">
@@ -1000,17 +1013,34 @@
       </c>
       <c r="H20">
         <f>D20/$D$16</f>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="17"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <f>100/H8</f>
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="E21">
+        <f>IF(D21&lt;0.000001,D21*1000000000,IF(D21&lt;0.001,D21*1000000,IF(D21&lt;1,D21*1000,D21)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE(IF(D21&lt;0.000001,"n",IF(D21&lt;0.001,"u",IF(D21&lt;1,"m",""))),G21)</f>
+        <v>us</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>дни</t>
   </si>
@@ -387,6 +388,72 @@
   <si>
     <t>23.11.−4713 12:0:0</t>
   </si>
+  <si>
+    <t>радиус</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Длинна дуги</t>
+  </si>
+  <si>
+    <t>разрешение датчика</t>
+  </si>
+  <si>
+    <t>количество меток</t>
+  </si>
+  <si>
+    <t>количество меток на секунду дуги</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>длинна дуги при разрешении 1 метка на секунду</t>
+  </si>
+  <si>
+    <t>длинна дуги при разрешении 4 метки в минуту</t>
+  </si>
+  <si>
+    <t>внешний радиус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">внутренний радиус </t>
+  </si>
+  <si>
+    <t>длинна дуги внешней</t>
+  </si>
+  <si>
+    <t>длинна дуги внутренней</t>
+  </si>
+  <si>
+    <t>количество меток на полный оборот</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>угол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">угол </t>
+  </si>
+  <si>
+    <t>радианы</t>
+  </si>
+  <si>
+    <t>расстояние между метками</t>
+  </si>
 </sst>
 </file>
 
@@ -395,8 +462,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy\ h:mm:ss;@"/>
-    <numFmt numFmtId="176" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ h:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -491,7 +558,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -813,32 +886,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -932,9 +1010,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3934,11 +4010,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59495936"/>
-        <c:axId val="59497472"/>
+        <c:axId val="79534720"/>
+        <c:axId val="79556992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59495936"/>
+        <c:axId val="79534720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +4032,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59497472"/>
+        <c:crossAx val="79556992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +4040,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59497472"/>
+        <c:axId val="79556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,20 +4048,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59495936"/>
+        <c:crossAx val="79534720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3995,9 +4070,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -6997,11 +7070,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59661312"/>
-        <c:axId val="59683584"/>
+        <c:axId val="79790464"/>
+        <c:axId val="79792000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59661312"/>
+        <c:axId val="79790464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7018,7 +7091,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59683584"/>
+        <c:crossAx val="79792000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7026,7 +7099,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59683584"/>
+        <c:axId val="79792000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7034,20 +7107,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59661312"/>
+        <c:crossAx val="79790464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7057,9 +7129,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10059,11 +10129,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71700864"/>
-        <c:axId val="71702400"/>
+        <c:axId val="79816192"/>
+        <c:axId val="79817728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71700864"/>
+        <c:axId val="79816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10080,7 +10150,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71702400"/>
+        <c:crossAx val="79817728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10088,7 +10158,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71702400"/>
+        <c:axId val="79817728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10096,20 +10166,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71700864"/>
+        <c:crossAx val="79816192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10211,7 +10280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10230,25 +10299,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72582656"/>
-        <c:axId val="72584192"/>
+        <c:axId val="81373824"/>
+        <c:axId val="84386176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72582656"/>
+        <c:axId val="81373824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72584192"/>
+        <c:crossAx val="84386176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72584192"/>
+        <c:axId val="84386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10256,20 +10325,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72582656"/>
+        <c:crossAx val="81373824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10357,11 +10425,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72605056"/>
-        <c:axId val="74675328"/>
+        <c:axId val="85730048"/>
+        <c:axId val="85731584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72605056"/>
+        <c:axId val="85730048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,14 +10481,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74675328"/>
+        <c:crossAx val="85731584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74675328"/>
+        <c:axId val="85731584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10456,7 +10524,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72605056"/>
+        <c:crossAx val="85730048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10470,13 +10538,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10941,14 +11008,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11046,12 +11113,12 @@
     <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5"/>
@@ -24834,7 +24901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19:M34"/>
     </sheetView>
   </sheetViews>
@@ -24849,42 +24916,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40690.648823379626</v>
-      </c>
-      <c r="M1" s="44">
+        <v>40706.917196296294</v>
+      </c>
+      <c r="M1" s="42">
         <v>36526.5</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="D2" s="33"/>
-      <c r="J2" s="45" t="s">
+      <c r="D2" s="31"/>
+      <c r="J2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40690.648823379626</v>
-      </c>
-      <c r="M2" s="46">
+        <v>40706.917196296294</v>
+      </c>
+      <c r="M2" s="44">
         <f>M1</f>
         <v>36526.5</v>
       </c>
     </row>
     <row r="3" spans="3:13">
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="34">
         <f>-4713</f>
         <v>-4713</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="34">
         <f ca="1">YEAR(L2)</f>
         <v>2011</v>
       </c>
@@ -24894,15 +24961,15 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="34">
         <v>11</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
@@ -24910,15 +24977,15 @@
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="34">
         <v>23</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -24926,15 +24993,15 @@
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="34">
         <v>12</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -24942,15 +25009,15 @@
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="34">
         <v>0</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -24958,15 +25025,15 @@
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="34">
         <v>0</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -24974,16 +25041,16 @@
       </c>
     </row>
     <row r="9" spans="3:13">
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="34">
         <f>TRUNC((1461*(K3+4800+(K4-14)/12))/4+(367*(K4-2-12*((K4-14)/12)))/12-3*((K3+4900+(K4-14)/12)/100)/4+K5-32075)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455710</v>
+        <v>2455726</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25008,18 +25075,18 @@
         <f>CONCATENATE(IF(D10&lt;0.000001,"n",IF(D10&lt;0.001,"u",IF(D10&lt;1,"m",IF(D10&gt;1000000,"M",IF(D10&gt;1000,"K",""))))),E10)</f>
         <v>mm/s2</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <f>K9+(K6-12)/24+K7/1440+K8/86400</f>
         <v>0</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455710.1488194442</v>
-      </c>
-      <c r="M10" s="47">
+        <v>2455726.4171990738</v>
+      </c>
+      <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
         <v>2451545</v>
       </c>
@@ -25028,7 +25095,7 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <f>Лист2!I7</f>
         <v>1.9999999999999999E-7</v>
       </c>
@@ -25043,19 +25110,19 @@
         <f>CONCATENATE(IF(D11&lt;0.000001,"n",IF(D11&lt;0.001,"u",IF(D11&lt;1,"m",IF(D11&gt;1000000,"M",IF(D11&gt;1000,"K",""))))),E11)</f>
         <v>ns</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51">
+      <c r="I11" s="32"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49">
         <v>2451545</v>
       </c>
     </row>
     <row r="12" spans="3:13">
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="3:13">
       <c r="E13" t="s">
@@ -25069,32 +25136,7306 @@
       </c>
     </row>
     <row r="20" spans="8:8" ht="15.75">
-      <c r="H20" s="35"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="8:8" ht="15.75">
-      <c r="H21" s="35"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="8:8" ht="15.75">
-      <c r="H22" s="35"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="8:8" ht="15.75">
-      <c r="H23" s="35"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="8:8" ht="15.75">
-      <c r="H24" s="35"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="8:8" ht="15.75">
-      <c r="H25" s="35"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="8:8" ht="15.75">
-      <c r="H26" s="35"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="8:8" ht="15.75">
-      <c r="H27" s="35"/>
+      <c r="H27" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:J312"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J234" sqref="J234"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f>PI()*E5</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="F6">
+        <f>PI()*2*F5</f>
+        <v>1.8849555921538759E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <f>E6/E7</f>
+        <v>52359.877559829882</v>
+      </c>
+      <c r="F8">
+        <f>F6/F7</f>
+        <v>628.31853071795865</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f>E8/(180*60*60)</f>
+        <v>8.0802280184922651E-2</v>
+      </c>
+      <c r="F9">
+        <f>F8/(180*60*60)</f>
+        <v>9.6962736221907204E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <f>180*60*60*E7</f>
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <f>180*60*4*E7</f>
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <f>2*PI()*E14</f>
+        <v>157.07963267948966</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <f>2*PI()*E15</f>
+        <v>125.66370614359172</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <f>360/E18</f>
+        <v>0.1717557251908397</v>
+      </c>
+      <c r="F19">
+        <f>E19*PI()/180</f>
+        <v>2.9977029137307184E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <f>E17/E18</f>
+        <v>5.995405827461437E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="E22" s="52">
+        <f>F22*180/PI()</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="52">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="53">
+        <f>100+$E$15*COS(F22)</f>
+        <v>120</v>
+      </c>
+      <c r="H22" s="53">
+        <f>100+$E$15*SIN(F22)</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="53">
+        <f>100+$E$14*COS(F22)</f>
+        <v>125</v>
+      </c>
+      <c r="J22" s="53">
+        <f>100+$E$14*SIN(F22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="E23" s="52">
+        <f>F23*180/PI()</f>
+        <v>0.34351145038167935</v>
+      </c>
+      <c r="F23" s="52">
+        <f>F22+$F$19*2</f>
+        <v>5.9954058274614367E-3</v>
+      </c>
+      <c r="G23" s="53">
+        <f>100+$E$15*COS(F23)</f>
+        <v>119.99964055216634</v>
+      </c>
+      <c r="H23" s="53">
+        <f>100+$E$15*SIN(F23)</f>
+        <v>100.11990739820315</v>
+      </c>
+      <c r="I23" s="53">
+        <f>100+$E$14*COS(F23)</f>
+        <v>124.99955069020791</v>
+      </c>
+      <c r="J23" s="53">
+        <f>100+$E$14*SIN(F23)</f>
+        <v>100.14988424775395</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="E24" s="52">
+        <f t="shared" ref="E23:E86" si="0">F24*180/PI()</f>
+        <v>0.6870229007633587</v>
+      </c>
+      <c r="F24" s="52">
+        <f t="shared" ref="F24:F37" si="1">F23+$F$19*2</f>
+        <v>1.1990811654922873E-2</v>
+      </c>
+      <c r="G24" s="53">
+        <f t="shared" ref="G24:G87" si="2">100+$E$15*COS(F24)</f>
+        <v>119.99856222158562</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" ref="H24:H37" si="3">100+$E$15*SIN(F24)</f>
+        <v>100.23981048636085</v>
+      </c>
+      <c r="I24" s="53">
+        <f t="shared" ref="I24:I37" si="4">100+$E$14*COS(F24)</f>
+        <v>124.99820277698203</v>
+      </c>
+      <c r="J24" s="53">
+        <f t="shared" ref="J24:J37" si="5">100+$E$14*SIN(F24)</f>
+        <v>100.29976310795108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="E25" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0305343511450382</v>
+      </c>
+      <c r="F25" s="52">
+        <f t="shared" si="1"/>
+        <v>1.7986217482384312E-2</v>
+      </c>
+      <c r="G25" s="53">
+        <f t="shared" si="2"/>
+        <v>119.9967650470182</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="3"/>
+        <v>100.35970495458258</v>
+      </c>
+      <c r="I25" s="53">
+        <f t="shared" si="4"/>
+        <v>124.99595630877275</v>
+      </c>
+      <c r="J25" s="53">
+        <f t="shared" si="5"/>
+        <v>100.44963119322823</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="E26" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3740458015267174</v>
+      </c>
+      <c r="F26" s="52">
+        <f t="shared" si="1"/>
+        <v>2.3981623309845747E-2</v>
+      </c>
+      <c r="G26" s="53">
+        <f t="shared" si="2"/>
+        <v>119.99424909306313</v>
+      </c>
+      <c r="H26" s="53">
+        <f t="shared" si="3"/>
+        <v>100.47958649328764</v>
+      </c>
+      <c r="I26" s="53">
+        <f t="shared" si="4"/>
+        <v>124.99281136632892</v>
+      </c>
+      <c r="J26" s="53">
+        <f t="shared" si="5"/>
+        <v>100.59948311660955</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="E27" s="52">
+        <f t="shared" si="0"/>
+        <v>1.7175572519083968</v>
+      </c>
+      <c r="F27" s="52">
+        <f t="shared" si="1"/>
+        <v>2.9977029137307182E-2</v>
+      </c>
+      <c r="G27" s="53">
+        <f t="shared" si="2"/>
+        <v>119.99101445015584</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" si="3"/>
+        <v>100.59945079336008</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="4"/>
+        <v>124.98876806269482</v>
+      </c>
+      <c r="J27" s="53">
+        <f t="shared" si="5"/>
+        <v>100.74931349170011</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="E28" s="52">
+        <f t="shared" si="0"/>
+        <v>2.061068702290076</v>
+      </c>
+      <c r="F28" s="52">
+        <f t="shared" si="1"/>
+        <v>3.5972434964768617E-2</v>
+      </c>
+      <c r="G28" s="53">
+        <f t="shared" si="2"/>
+        <v>119.98706123456488</v>
+      </c>
+      <c r="H28" s="53">
+        <f t="shared" si="3"/>
+        <v>100.71929354630362</v>
+      </c>
+      <c r="I28" s="53">
+        <f t="shared" si="4"/>
+        <v>124.98382654320609</v>
+      </c>
+      <c r="J28" s="53">
+        <f t="shared" si="5"/>
+        <v>100.89911693287952</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="E29" s="52">
+        <f t="shared" si="0"/>
+        <v>2.404580152671755</v>
+      </c>
+      <c r="F29" s="52">
+        <f t="shared" si="1"/>
+        <v>4.1967840792230052E-2</v>
+      </c>
+      <c r="G29" s="53">
+        <f t="shared" si="2"/>
+        <v>119.98238958838769</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" si="3"/>
+        <v>100.83911044439647</v>
+      </c>
+      <c r="I29" s="53">
+        <f t="shared" si="4"/>
+        <v>124.97798698548462</v>
+      </c>
+      <c r="J29" s="53">
+        <f t="shared" si="5"/>
+        <v>101.04888805549558</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="E30" s="52">
+        <f t="shared" si="0"/>
+        <v>2.7480916030534344</v>
+      </c>
+      <c r="F30" s="52">
+        <f t="shared" si="1"/>
+        <v>4.7963246619691487E-2</v>
+      </c>
+      <c r="G30" s="53">
+        <f t="shared" si="2"/>
+        <v>119.9769996795456</v>
+      </c>
+      <c r="H30" s="53">
+        <f t="shared" si="3"/>
+        <v>100.95889718084617</v>
+      </c>
+      <c r="I30" s="53">
+        <f t="shared" si="4"/>
+        <v>124.97124959943201</v>
+      </c>
+      <c r="J30" s="53">
+        <f t="shared" si="5"/>
+        <v>101.19862147605771</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="E31" s="52">
+        <f t="shared" si="0"/>
+        <v>3.0916030534351138</v>
+      </c>
+      <c r="F31" s="52">
+        <f t="shared" si="1"/>
+        <v>5.3958652447152922E-2</v>
+      </c>
+      <c r="G31" s="53">
+        <f t="shared" si="2"/>
+        <v>119.97089170177773</v>
+      </c>
+      <c r="H31" s="53">
+        <f t="shared" si="3"/>
+        <v>101.07864944994442</v>
+      </c>
+      <c r="I31" s="53">
+        <f t="shared" si="4"/>
+        <v>124.96361462722216</v>
+      </c>
+      <c r="J31" s="53">
+        <f t="shared" si="5"/>
+        <v>101.34831181243052</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="E32" s="52">
+        <f t="shared" si="0"/>
+        <v>3.4351145038167932</v>
+      </c>
+      <c r="F32" s="52">
+        <f t="shared" si="1"/>
+        <v>5.9954058274614357E-2</v>
+      </c>
+      <c r="G32" s="53">
+        <f t="shared" si="2"/>
+        <v>119.964065874634</v>
+      </c>
+      <c r="H32" s="53">
+        <f t="shared" si="3"/>
+        <v>101.19836294722188</v>
+      </c>
+      <c r="I32" s="53">
+        <f t="shared" si="4"/>
+        <v>124.9550823432925</v>
+      </c>
+      <c r="J32" s="53">
+        <f t="shared" si="5"/>
+        <v>101.49795368402735</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" s="52">
+        <f t="shared" si="0"/>
+        <v>3.7786259541984721</v>
+      </c>
+      <c r="F33" s="52">
+        <f t="shared" si="1"/>
+        <v>6.5949464102075792E-2</v>
+      </c>
+      <c r="G33" s="53">
+        <f t="shared" si="2"/>
+        <v>119.95652244346729</v>
+      </c>
+      <c r="H33" s="53">
+        <f t="shared" si="3"/>
+        <v>101.3180333696028</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="4"/>
+        <v>124.94565305433412</v>
+      </c>
+      <c r="J33" s="53">
+        <f t="shared" si="5"/>
+        <v>101.6475417120035</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10">
+      <c r="E34" s="52">
+        <f t="shared" si="0"/>
+        <v>4.122137404580152</v>
+      </c>
+      <c r="F34" s="52">
+        <f t="shared" si="1"/>
+        <v>7.1944869929537233E-2</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="2"/>
+        <v>119.94826167942459</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="3"/>
+        <v>101.43765641555979</v>
+      </c>
+      <c r="I34" s="53">
+        <f t="shared" si="4"/>
+        <v>124.93532709928074</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="5"/>
+        <v>101.79707051944973</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10">
+      <c r="E35" s="52">
+        <f t="shared" si="0"/>
+        <v>4.4656488549618318</v>
+      </c>
+      <c r="F35" s="52">
+        <f t="shared" si="1"/>
+        <v>7.7940275756998675E-2</v>
+      </c>
+      <c r="G35" s="53">
+        <f t="shared" si="2"/>
+        <v>119.9392838794373</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="3"/>
+        <v>101.55722778526835</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" si="4"/>
+        <v>124.92410484929663</v>
+      </c>
+      <c r="J35" s="53">
+        <f t="shared" si="5"/>
+        <v>101.94653473158544</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10">
+      <c r="E36" s="52">
+        <f t="shared" si="0"/>
+        <v>4.8091603053435117</v>
+      </c>
+      <c r="F36" s="52">
+        <f t="shared" si="1"/>
+        <v>8.3935681584460117E-2</v>
+      </c>
+      <c r="G36" s="53">
+        <f t="shared" si="2"/>
+        <v>119.92958936621048</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="3"/>
+        <v>101.67674318076153</v>
+      </c>
+      <c r="I36" s="53">
+        <f t="shared" si="4"/>
+        <v>124.91198670776309</v>
+      </c>
+      <c r="J36" s="53">
+        <f t="shared" si="5"/>
+        <v>102.09592897595191</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10">
+      <c r="E37" s="52">
+        <f t="shared" si="0"/>
+        <v>5.1526717557251906</v>
+      </c>
+      <c r="F37" s="52">
+        <f t="shared" si="1"/>
+        <v>8.9931087411921559E-2</v>
+      </c>
+      <c r="G37" s="53">
+        <f t="shared" si="2"/>
+        <v>119.9191784882113</v>
+      </c>
+      <c r="H37" s="53">
+        <f t="shared" si="3"/>
+        <v>101.79619830608431</v>
+      </c>
+      <c r="I37" s="53">
+        <f t="shared" si="4"/>
+        <v>124.89897311026412</v>
+      </c>
+      <c r="J37" s="53">
+        <f t="shared" si="5"/>
+        <v>102.24524788260538</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10">
+      <c r="E38" s="52">
+        <f t="shared" si="0"/>
+        <v>5.4961832061068696</v>
+      </c>
+      <c r="F38" s="52">
+        <f t="shared" ref="F38:F67" si="6">F37+$F$19*2</f>
+        <v>9.5926493239383001E-2</v>
+      </c>
+      <c r="G38" s="53">
+        <f t="shared" si="2"/>
+        <v>119.90805161965653</v>
+      </c>
+      <c r="H38" s="53">
+        <f t="shared" ref="H38:H67" si="7">100+$E$15*SIN(F38)</f>
+        <v>101.91558886744809</v>
+      </c>
+      <c r="I38" s="53">
+        <f t="shared" ref="I38:I67" si="8">100+$E$14*COS(F38)</f>
+        <v>124.88506452457065</v>
+      </c>
+      <c r="J38" s="53">
+        <f t="shared" ref="J38:J67" si="9">100+$E$14*SIN(F38)</f>
+        <v>102.39448608431012</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10">
+      <c r="E39" s="52">
+        <f t="shared" si="0"/>
+        <v>5.8396946564885504</v>
+      </c>
+      <c r="F39" s="52">
+        <f t="shared" si="6"/>
+        <v>0.10192189906684444</v>
+      </c>
+      <c r="G39" s="53">
+        <f t="shared" si="2"/>
+        <v>119.89620916049904</v>
+      </c>
+      <c r="H39" s="53">
+        <f t="shared" si="7"/>
+        <v>102.03491057338502</v>
+      </c>
+      <c r="I39" s="53">
+        <f t="shared" si="8"/>
+        <v>124.8702614506238</v>
+      </c>
+      <c r="J39" s="53">
+        <f t="shared" si="9"/>
+        <v>102.54363821673128</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10">
+      <c r="E40" s="52">
+        <f t="shared" si="0"/>
+        <v>6.1832061068702293</v>
+      </c>
+      <c r="F40" s="52">
+        <f t="shared" si="6"/>
+        <v>0.10791730489430588</v>
+      </c>
+      <c r="G40" s="53">
+        <f t="shared" si="2"/>
+        <v>119.88365153641345</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" si="7"/>
+        <v>102.15415913490222</v>
+      </c>
+      <c r="I40" s="53">
+        <f t="shared" si="8"/>
+        <v>124.85456442051682</v>
+      </c>
+      <c r="J40" s="53">
+        <f t="shared" si="9"/>
+        <v>102.69269891862778</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10">
+      <c r="E41" s="52">
+        <f t="shared" si="0"/>
+        <v>6.5267175572519092</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="6"/>
+        <v>0.11391271072176733</v>
+      </c>
+      <c r="G41" s="53">
+        <f t="shared" si="2"/>
+        <v>119.87037919878087</v>
+      </c>
+      <c r="H41" s="53">
+        <f t="shared" si="7"/>
+        <v>102.27333026563598</v>
+      </c>
+      <c r="I41" s="53">
+        <f t="shared" si="8"/>
+        <v>124.83797399847609</v>
+      </c>
+      <c r="J41" s="53">
+        <f t="shared" si="9"/>
+        <v>102.84166283204497</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10">
+      <c r="E42" s="52">
+        <f t="shared" si="0"/>
+        <v>6.870229007633589</v>
+      </c>
+      <c r="F42" s="52">
+        <f t="shared" si="6"/>
+        <v>0.11990811654922877</v>
+      </c>
+      <c r="G42" s="53">
+        <f t="shared" si="2"/>
+        <v>119.85639262467257</v>
+      </c>
+      <c r="H42" s="53">
+        <f t="shared" si="7"/>
+        <v>102.39241968200581</v>
+      </c>
+      <c r="I42" s="53">
+        <f t="shared" si="8"/>
+        <v>124.82049078084071</v>
+      </c>
+      <c r="J42" s="53">
+        <f t="shared" si="9"/>
+        <v>102.99052460250726</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10">
+      <c r="E43" s="52">
+        <f t="shared" si="0"/>
+        <v>7.213740458015268</v>
+      </c>
+      <c r="F43" s="52">
+        <f t="shared" si="6"/>
+        <v>0.1259035223766902</v>
+      </c>
+      <c r="G43" s="53">
+        <f t="shared" si="2"/>
+        <v>119.84169231683293</v>
+      </c>
+      <c r="H43" s="53">
+        <f t="shared" si="7"/>
+        <v>102.51142310336846</v>
+      </c>
+      <c r="I43" s="53">
+        <f t="shared" si="8"/>
+        <v>124.80211539604117</v>
+      </c>
+      <c r="J43" s="53">
+        <f t="shared" si="9"/>
+        <v>103.13927887921058</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10">
+      <c r="E44" s="52">
+        <f t="shared" si="0"/>
+        <v>7.5572519083969478</v>
+      </c>
+      <c r="F44" s="52">
+        <f t="shared" si="6"/>
+        <v>0.13189892820415164</v>
+      </c>
+      <c r="G44" s="53">
+        <f t="shared" si="2"/>
+        <v>119.82627880366135</v>
+      </c>
+      <c r="H44" s="53">
+        <f t="shared" si="7"/>
+        <v>102.63033625217172</v>
+      </c>
+      <c r="I44" s="53">
+        <f t="shared" si="8"/>
+        <v>124.78284850457669</v>
+      </c>
+      <c r="J44" s="53">
+        <f t="shared" si="9"/>
+        <v>103.28792031521463</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10">
+      <c r="E45" s="52">
+        <f t="shared" si="0"/>
+        <v>7.9007633587786277</v>
+      </c>
+      <c r="F45" s="52">
+        <f t="shared" si="6"/>
+        <v>0.13789433403161308</v>
+      </c>
+      <c r="G45" s="53">
+        <f t="shared" si="2"/>
+        <v>119.81015263919321</v>
+      </c>
+      <c r="H45" s="53">
+        <f t="shared" si="7"/>
+        <v>102.7491548541082</v>
+      </c>
+      <c r="I45" s="53">
+        <f t="shared" si="8"/>
+        <v>124.7626907989915</v>
+      </c>
+      <c r="J45" s="53">
+        <f t="shared" si="9"/>
+        <v>103.43644356763525</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10">
+      <c r="E46" s="52">
+        <f t="shared" si="0"/>
+        <v>8.2442748091603075</v>
+      </c>
+      <c r="F46" s="52">
+        <f t="shared" si="6"/>
+        <v>0.14388973985907452</v>
+      </c>
+      <c r="G46" s="53">
+        <f t="shared" si="2"/>
+        <v>119.79331440307998</v>
+      </c>
+      <c r="H46" s="53">
+        <f t="shared" si="7"/>
+        <v>102.86787463826902</v>
+      </c>
+      <c r="I46" s="53">
+        <f t="shared" si="8"/>
+        <v>124.74164300384997</v>
+      </c>
+      <c r="J46" s="53">
+        <f t="shared" si="9"/>
+        <v>103.58484329783627</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10">
+      <c r="E47" s="52">
+        <f t="shared" si="0"/>
+        <v>8.5877862595419874</v>
+      </c>
+      <c r="F47" s="52">
+        <f t="shared" si="6"/>
+        <v>0.14988514568653596</v>
+      </c>
+      <c r="G47" s="53">
+        <f t="shared" si="2"/>
+        <v>119.77576470056843</v>
+      </c>
+      <c r="H47" s="53">
+        <f t="shared" si="7"/>
+        <v>102.98649133729724</v>
+      </c>
+      <c r="I47" s="53">
+        <f t="shared" si="8"/>
+        <v>124.71970587571055</v>
+      </c>
+      <c r="J47" s="53">
+        <f t="shared" si="9"/>
+        <v>103.73311417162155</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10">
+      <c r="E48" s="52">
+        <f t="shared" si="0"/>
+        <v>8.9312977099236672</v>
+      </c>
+      <c r="F48" s="52">
+        <f t="shared" si="6"/>
+        <v>0.15588055151399741</v>
+      </c>
+      <c r="G48" s="53">
+        <f t="shared" si="2"/>
+        <v>119.75750416247882</v>
+      </c>
+      <c r="H48" s="53">
+        <f t="shared" si="7"/>
+        <v>103.10500068754132</v>
+      </c>
+      <c r="I48" s="53">
+        <f t="shared" si="8"/>
+        <v>124.69688020309853</v>
+      </c>
+      <c r="J48" s="53">
+        <f t="shared" si="9"/>
+        <v>103.88125085942664</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10">
+      <c r="E49" s="52">
+        <f t="shared" si="0"/>
+        <v>9.2748091603053453</v>
+      </c>
+      <c r="F49" s="52">
+        <f t="shared" si="6"/>
+        <v>0.16187595734145885</v>
+      </c>
+      <c r="G49" s="53">
+        <f t="shared" si="2"/>
+        <v>119.73853344518223</v>
+      </c>
+      <c r="H49" s="53">
+        <f t="shared" si="7"/>
+        <v>103.22339842920833</v>
+      </c>
+      <c r="I49" s="53">
+        <f t="shared" si="8"/>
+        <v>124.67316680647778</v>
+      </c>
+      <c r="J49" s="53">
+        <f t="shared" si="9"/>
+        <v>104.02924803651041</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10">
+      <c r="E50" s="52">
+        <f t="shared" si="0"/>
+        <v>9.6183206106870269</v>
+      </c>
+      <c r="F50" s="52">
+        <f t="shared" si="6"/>
+        <v>0.16787136316892029</v>
+      </c>
+      <c r="G50" s="53">
+        <f t="shared" si="2"/>
+        <v>119.71885323057697</v>
+      </c>
+      <c r="H50" s="53">
+        <f t="shared" si="7"/>
+        <v>103.34168030651709</v>
+      </c>
+      <c r="I50" s="53">
+        <f t="shared" si="8"/>
+        <v>124.64856653822122</v>
+      </c>
+      <c r="J50" s="53">
+        <f t="shared" si="9"/>
+        <v>104.17710038314637</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10">
+      <c r="E51" s="52">
+        <f t="shared" si="0"/>
+        <v>9.961832061068705</v>
+      </c>
+      <c r="F51" s="52">
+        <f t="shared" si="6"/>
+        <v>0.17386676899638173</v>
+      </c>
+      <c r="G51" s="53">
+        <f t="shared" si="2"/>
+        <v>119.6984642260641</v>
+      </c>
+      <c r="H51" s="53">
+        <f t="shared" si="7"/>
+        <v>103.45984206785116</v>
+      </c>
+      <c r="I51" s="53">
+        <f t="shared" si="8"/>
+        <v>124.62308028258013</v>
+      </c>
+      <c r="J51" s="53">
+        <f t="shared" si="9"/>
+        <v>104.32480258481395</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10">
+      <c r="E52" s="52">
+        <f t="shared" si="0"/>
+        <v>10.305343511450387</v>
+      </c>
+      <c r="F52" s="52">
+        <f t="shared" si="6"/>
+        <v>0.17986217482384317</v>
+      </c>
+      <c r="G52" s="53">
+        <f t="shared" si="2"/>
+        <v>119.67736716452198</v>
+      </c>
+      <c r="H52" s="53">
+        <f t="shared" si="7"/>
+        <v>103.57787946591162</v>
+      </c>
+      <c r="I52" s="53">
+        <f t="shared" si="8"/>
+        <v>124.59670895565247</v>
+      </c>
+      <c r="J52" s="53">
+        <f t="shared" si="9"/>
+        <v>104.47234933238953</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10">
+      <c r="E53" s="52">
+        <f t="shared" si="0"/>
+        <v>10.648854961832065</v>
+      </c>
+      <c r="F53" s="52">
+        <f t="shared" si="6"/>
+        <v>0.18585758065130462</v>
+      </c>
+      <c r="G53" s="53">
+        <f t="shared" si="2"/>
+        <v>119.65556280427991</v>
+      </c>
+      <c r="H53" s="53">
+        <f t="shared" si="7"/>
+        <v>103.69578825786976</v>
+      </c>
+      <c r="I53" s="53">
+        <f t="shared" si="8"/>
+        <v>124.56945350534988</v>
+      </c>
+      <c r="J53" s="53">
+        <f t="shared" si="9"/>
+        <v>104.61973532233721</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10">
+      <c r="E54" s="52">
+        <f t="shared" si="0"/>
+        <v>10.992366412213745</v>
+      </c>
+      <c r="F54" s="52">
+        <f t="shared" si="6"/>
+        <v>0.19185298647876606</v>
+      </c>
+      <c r="G54" s="53">
+        <f t="shared" si="2"/>
+        <v>119.6330519290909</v>
+      </c>
+      <c r="H54" s="53">
+        <f t="shared" si="7"/>
+        <v>103.81356420551961</v>
+      </c>
+      <c r="I54" s="53">
+        <f t="shared" si="8"/>
+        <v>124.54131491136361</v>
+      </c>
+      <c r="J54" s="53">
+        <f t="shared" si="9"/>
+        <v>104.76695525689952</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10">
+      <c r="E55" s="52">
+        <f t="shared" si="0"/>
+        <v>11.335877862595424</v>
+      </c>
+      <c r="F55" s="52">
+        <f t="shared" si="6"/>
+        <v>0.1978483923062275</v>
+      </c>
+      <c r="G55" s="53">
+        <f t="shared" si="2"/>
+        <v>119.60983534810346</v>
+      </c>
+      <c r="H55" s="53">
+        <f t="shared" si="7"/>
+        <v>103.93120307543025</v>
+      </c>
+      <c r="I55" s="53">
+        <f t="shared" si="8"/>
+        <v>124.51229418512932</v>
+      </c>
+      <c r="J55" s="53">
+        <f t="shared" si="9"/>
+        <v>104.91400384428781</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10">
+      <c r="E56" s="52">
+        <f t="shared" si="0"/>
+        <v>11.679389312977102</v>
+      </c>
+      <c r="F56" s="52">
+        <f t="shared" si="6"/>
+        <v>0.20384379813368894</v>
+      </c>
+      <c r="G56" s="53">
+        <f t="shared" si="2"/>
+        <v>119.58591389583259</v>
+      </c>
+      <c r="H56" s="53">
+        <f t="shared" si="7"/>
+        <v>104.04870063909794</v>
+      </c>
+      <c r="I56" s="53">
+        <f t="shared" si="8"/>
+        <v>124.48239236979073</v>
+      </c>
+      <c r="J56" s="53">
+        <f t="shared" si="9"/>
+        <v>105.06087579887244</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10">
+      <c r="E57" s="52">
+        <f t="shared" si="0"/>
+        <v>12.022900763358784</v>
+      </c>
+      <c r="F57" s="52">
+        <f t="shared" si="6"/>
+        <v>0.20983920396115038</v>
+      </c>
+      <c r="G57" s="53">
+        <f t="shared" si="2"/>
+        <v>119.56128843212969</v>
+      </c>
+      <c r="H57" s="53">
+        <f t="shared" si="7"/>
+        <v>104.16605267309828</v>
+      </c>
+      <c r="I57" s="53">
+        <f t="shared" si="8"/>
+        <v>124.45161054016211</v>
+      </c>
+      <c r="J57" s="53">
+        <f t="shared" si="9"/>
+        <v>105.20756584137284</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10">
+      <c r="E58" s="52">
+        <f t="shared" si="0"/>
+        <v>12.366412213740464</v>
+      </c>
+      <c r="F58" s="52">
+        <f t="shared" si="6"/>
+        <v>0.21583460978861183</v>
+      </c>
+      <c r="G58" s="53">
+        <f t="shared" si="2"/>
+        <v>119.53595984215173</v>
+      </c>
+      <c r="H58" s="53">
+        <f t="shared" si="7"/>
+        <v>104.28325495923777</v>
+      </c>
+      <c r="I58" s="53">
+        <f t="shared" si="8"/>
+        <v>124.41994980268967</v>
+      </c>
+      <c r="J58" s="53">
+        <f t="shared" si="9"/>
+        <v>105.3540686990472</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10">
+      <c r="E59" s="52">
+        <f t="shared" si="0"/>
+        <v>12.709923664122142</v>
+      </c>
+      <c r="F59" s="52">
+        <f t="shared" si="6"/>
+        <v>0.22183001561607327</v>
+      </c>
+      <c r="G59" s="53">
+        <f t="shared" si="2"/>
+        <v>119.5099290363294</v>
+      </c>
+      <c r="H59" s="53">
+        <f t="shared" si="7"/>
+        <v>104.40030328470564</v>
+      </c>
+      <c r="I59" s="53">
+        <f t="shared" si="8"/>
+        <v>124.38741129541174</v>
+      </c>
+      <c r="J59" s="53">
+        <f t="shared" si="9"/>
+        <v>105.50037910588206</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10">
+      <c r="E60" s="52">
+        <f t="shared" si="0"/>
+        <v>13.053435114503822</v>
+      </c>
+      <c r="F60" s="52">
+        <f t="shared" si="6"/>
+        <v>0.22782542144353471</v>
+      </c>
+      <c r="G60" s="53">
+        <f t="shared" si="2"/>
+        <v>119.48319695033435</v>
+      </c>
+      <c r="H60" s="53">
+        <f t="shared" si="7"/>
+        <v>104.51719344222521</v>
+      </c>
+      <c r="I60" s="53">
+        <f t="shared" si="8"/>
+        <v>124.35399618791793</v>
+      </c>
+      <c r="J60" s="53">
+        <f t="shared" si="9"/>
+        <v>105.64649180278151</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10">
+      <c r="E61" s="52">
+        <f t="shared" si="0"/>
+        <v>13.3969465648855</v>
+      </c>
+      <c r="F61" s="52">
+        <f t="shared" si="6"/>
+        <v>0.23382082727099615</v>
+      </c>
+      <c r="G61" s="53">
+        <f t="shared" si="2"/>
+        <v>119.45576454504564</v>
+      </c>
+      <c r="H61" s="53">
+        <f t="shared" si="7"/>
+        <v>104.63392123020508</v>
+      </c>
+      <c r="I61" s="53">
+        <f t="shared" si="8"/>
+        <v>124.31970568130704</v>
+      </c>
+      <c r="J61" s="53">
+        <f t="shared" si="9"/>
+        <v>105.79240153775635</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10">
+      <c r="E62" s="52">
+        <f t="shared" si="0"/>
+        <v>13.740458015267182</v>
+      </c>
+      <c r="F62" s="52">
+        <f t="shared" si="6"/>
+        <v>0.23981623309845759</v>
+      </c>
+      <c r="G62" s="53">
+        <f t="shared" si="2"/>
+        <v>119.42763280651512</v>
+      </c>
+      <c r="H62" s="53">
+        <f t="shared" si="7"/>
+        <v>104.75048245289018</v>
+      </c>
+      <c r="I62" s="53">
+        <f t="shared" si="8"/>
+        <v>124.2845410081439</v>
+      </c>
+      <c r="J62" s="53">
+        <f t="shared" si="9"/>
+        <v>105.93810306611272</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10">
+      <c r="E63" s="52">
+        <f t="shared" si="0"/>
+        <v>14.083969465648861</v>
+      </c>
+      <c r="F63" s="52">
+        <f t="shared" si="6"/>
+        <v>0.24581163892591903</v>
+      </c>
+      <c r="G63" s="53">
+        <f t="shared" si="2"/>
+        <v>119.39880274593204</v>
+      </c>
+      <c r="H63" s="53">
+        <f t="shared" si="7"/>
+        <v>104.86687292051262</v>
+      </c>
+      <c r="I63" s="53">
+        <f t="shared" si="8"/>
+        <v>124.24850343241506</v>
+      </c>
+      <c r="J63" s="53">
+        <f t="shared" si="9"/>
+        <v>106.08359115064079</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10">
+      <c r="E64" s="52">
+        <f t="shared" si="0"/>
+        <v>14.42748091603054</v>
+      </c>
+      <c r="F64" s="52">
+        <f t="shared" si="6"/>
+        <v>0.25180704475338045</v>
+      </c>
+      <c r="G64" s="53">
+        <f t="shared" si="2"/>
+        <v>119.36927539958671</v>
+      </c>
+      <c r="H64" s="53">
+        <f t="shared" si="7"/>
+        <v>104.98308844944228</v>
+      </c>
+      <c r="I64" s="53">
+        <f t="shared" si="8"/>
+        <v>124.2115942494834</v>
+      </c>
+      <c r="J64" s="53">
+        <f t="shared" si="9"/>
+        <v>106.22886056180283</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10">
+      <c r="E65" s="52">
+        <f t="shared" si="0"/>
+        <v>14.770992366412218</v>
+      </c>
+      <c r="F65" s="52">
+        <f t="shared" si="6"/>
+        <v>0.25780245058084189</v>
+      </c>
+      <c r="G65" s="53">
+        <f t="shared" si="2"/>
+        <v>119.33905182883316</v>
+      </c>
+      <c r="H65" s="53">
+        <f t="shared" si="7"/>
+        <v>105.09912486233711</v>
+      </c>
+      <c r="I65" s="53">
+        <f t="shared" si="8"/>
+        <v>124.17381478604146</v>
+      </c>
+      <c r="J65" s="53">
+        <f t="shared" si="9"/>
+        <v>106.37390607792139</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10">
+      <c r="E66" s="52">
+        <f t="shared" si="0"/>
+        <v>15.114503816793899</v>
+      </c>
+      <c r="F66" s="52">
+        <f t="shared" si="6"/>
+        <v>0.26379785640830333</v>
+      </c>
+      <c r="G66" s="53">
+        <f t="shared" si="2"/>
+        <v>119.30813312005112</v>
+      </c>
+      <c r="H66" s="53">
+        <f t="shared" si="7"/>
+        <v>105.21497798829341</v>
+      </c>
+      <c r="I66" s="53">
+        <f t="shared" si="8"/>
+        <v>124.13516640006391</v>
+      </c>
+      <c r="J66" s="53">
+        <f t="shared" si="9"/>
+        <v>106.51872248536677</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="E67" s="52">
+        <f t="shared" si="0"/>
+        <v>15.458015267175579</v>
+      </c>
+      <c r="F67" s="52">
+        <f t="shared" si="6"/>
+        <v>0.26979326223576477</v>
+      </c>
+      <c r="G67" s="53">
+        <f t="shared" si="2"/>
+        <v>119.27652038460687</v>
+      </c>
+      <c r="H67" s="53">
+        <f t="shared" si="7"/>
+        <v>105.33064366299566</v>
+      </c>
+      <c r="I67" s="53">
+        <f t="shared" si="8"/>
+        <v>124.09565048075859</v>
+      </c>
+      <c r="J67" s="53">
+        <f t="shared" si="9"/>
+        <v>106.66330457874457</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10">
+      <c r="E68" s="52">
+        <f t="shared" si="0"/>
+        <v>15.801526717557257</v>
+      </c>
+      <c r="F68" s="52">
+        <f t="shared" ref="F68:F125" si="10">F67+$F$19*2</f>
+        <v>0.27578866806322622</v>
+      </c>
+      <c r="G68" s="53">
+        <f t="shared" si="2"/>
+        <v>119.24421475881333</v>
+      </c>
+      <c r="H68" s="53">
+        <f t="shared" ref="H68:H125" si="11">100+$E$15*SIN(F68)</f>
+        <v>105.44611772886624</v>
+      </c>
+      <c r="I68" s="53">
+        <f t="shared" ref="I68:J125" si="12">100+$E$14*COS(F68)</f>
+        <v>124.05526844851667</v>
+      </c>
+      <c r="J68" s="53">
+        <f t="shared" ref="J68:J125" si="13">100+$E$14*SIN(F68)</f>
+        <v>106.8076471610828</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10">
+      <c r="E69" s="52">
+        <f t="shared" si="0"/>
+        <v>16.145038167938939</v>
+      </c>
+      <c r="F69" s="52">
+        <f t="shared" si="10"/>
+        <v>0.28178407389068766</v>
+      </c>
+      <c r="G69" s="53">
+        <f t="shared" si="2"/>
+        <v>119.21121740388922</v>
+      </c>
+      <c r="H69" s="53">
+        <f t="shared" si="11"/>
+        <v>105.56139603521487</v>
+      </c>
+      <c r="I69" s="53">
+        <f t="shared" si="12"/>
+        <v>124.01402175486153</v>
+      </c>
+      <c r="J69" s="53">
+        <f t="shared" si="13"/>
+        <v>106.95174504401858</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10">
+      <c r="E70" s="52">
+        <f t="shared" si="0"/>
+        <v>16.488549618320619</v>
+      </c>
+      <c r="F70" s="52">
+        <f t="shared" si="10"/>
+        <v>0.2877794797181491</v>
+      </c>
+      <c r="G70" s="53">
+        <f t="shared" si="2"/>
+        <v>119.17752950591733</v>
+      </c>
+      <c r="H70" s="53">
+        <f t="shared" si="11"/>
+        <v>105.6764744383878</v>
+      </c>
+      <c r="I70" s="53">
+        <f t="shared" si="12"/>
+        <v>123.97191188239667</v>
+      </c>
+      <c r="J70" s="53">
+        <f t="shared" si="13"/>
+        <v>107.09559304798474</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10">
+      <c r="E71" s="52">
+        <f t="shared" si="0"/>
+        <v>16.832061068702295</v>
+      </c>
+      <c r="F71" s="52">
+        <f t="shared" si="10"/>
+        <v>0.29377488554561054</v>
+      </c>
+      <c r="G71" s="53">
+        <f t="shared" si="2"/>
+        <v>119.14315227580184</v>
+      </c>
+      <c r="H71" s="53">
+        <f t="shared" si="11"/>
+        <v>105.79134880191674</v>
+      </c>
+      <c r="I71" s="53">
+        <f t="shared" si="12"/>
+        <v>123.92894034475231</v>
+      </c>
+      <c r="J71" s="53">
+        <f t="shared" si="13"/>
+        <v>107.23918600239594</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10">
+      <c r="E72" s="52">
+        <f t="shared" si="0"/>
+        <v>17.175572519083975</v>
+      </c>
+      <c r="F72" s="52">
+        <f t="shared" si="10"/>
+        <v>0.29977029137307198</v>
+      </c>
+      <c r="G72" s="53">
+        <f t="shared" si="2"/>
+        <v>119.10808694922486</v>
+      </c>
+      <c r="H72" s="53">
+        <f t="shared" si="11"/>
+        <v>105.90601499666762</v>
+      </c>
+      <c r="I72" s="53">
+        <f t="shared" si="12"/>
+        <v>123.88510868653107</v>
+      </c>
+      <c r="J72" s="53">
+        <f t="shared" si="13"/>
+        <v>107.38251874583452</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10">
+      <c r="E73" s="52">
+        <f t="shared" si="0"/>
+        <v>17.519083969465658</v>
+      </c>
+      <c r="F73" s="52">
+        <f t="shared" si="10"/>
+        <v>0.30576569720053343</v>
+      </c>
+      <c r="G73" s="53">
+        <f t="shared" si="2"/>
+        <v>119.07233478660193</v>
+      </c>
+      <c r="H73" s="53">
+        <f t="shared" si="11"/>
+        <v>106.02046890098887</v>
+      </c>
+      <c r="I73" s="53">
+        <f t="shared" si="12"/>
+        <v>123.84041848325241</v>
+      </c>
+      <c r="J73" s="53">
+        <f t="shared" si="13"/>
+        <v>107.52558612623609</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10">
+      <c r="E74" s="52">
+        <f t="shared" si="0"/>
+        <v>17.862595419847334</v>
+      </c>
+      <c r="F74" s="52">
+        <f t="shared" si="10"/>
+        <v>0.31176110302799487</v>
+      </c>
+      <c r="G74" s="53">
+        <f t="shared" si="2"/>
+        <v>119.03589707303679</v>
+      </c>
+      <c r="H74" s="53">
+        <f t="shared" si="11"/>
+        <v>106.13470640085971</v>
+      </c>
+      <c r="I74" s="53">
+        <f t="shared" si="12"/>
+        <v>123.79487134129599</v>
+      </c>
+      <c r="J74" s="53">
+        <f t="shared" si="13"/>
+        <v>107.66838300107464</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10">
+      <c r="E75" s="52">
+        <f t="shared" si="0"/>
+        <v>18.206106870229014</v>
+      </c>
+      <c r="F75" s="52">
+        <f t="shared" si="10"/>
+        <v>0.31775650885545631</v>
+      </c>
+      <c r="G75" s="53">
+        <f t="shared" si="2"/>
+        <v>118.99877511827519</v>
+      </c>
+      <c r="H75" s="53">
+        <f t="shared" si="11"/>
+        <v>106.24872339003797</v>
+      </c>
+      <c r="I75" s="53">
+        <f t="shared" si="12"/>
+        <v>123.74846889784399</v>
+      </c>
+      <c r="J75" s="53">
+        <f t="shared" si="13"/>
+        <v>107.81090423754745</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10">
+      <c r="E76" s="52">
+        <f t="shared" si="0"/>
+        <v>18.549618320610698</v>
+      </c>
+      <c r="F76" s="52">
+        <f t="shared" si="10"/>
+        <v>0.32375191468291775</v>
+      </c>
+      <c r="G76" s="53">
+        <f t="shared" si="2"/>
+        <v>118.96097025665773</v>
+      </c>
+      <c r="H76" s="53">
+        <f t="shared" si="11"/>
+        <v>106.36251577020764</v>
+      </c>
+      <c r="I76" s="53">
+        <f t="shared" si="12"/>
+        <v>123.70121282082216</v>
+      </c>
+      <c r="J76" s="53">
+        <f t="shared" si="13"/>
+        <v>107.95314471275955</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10">
+      <c r="E77" s="52">
+        <f t="shared" si="0"/>
+        <v>18.893129770992374</v>
+      </c>
+      <c r="F77" s="52">
+        <f t="shared" si="10"/>
+        <v>0.32974732051037919</v>
+      </c>
+      <c r="G77" s="53">
+        <f t="shared" si="2"/>
+        <v>118.92248384707197</v>
+      </c>
+      <c r="H77" s="53">
+        <f t="shared" si="11"/>
+        <v>106.47607945112628</v>
+      </c>
+      <c r="I77" s="53">
+        <f t="shared" si="12"/>
+        <v>123.65310480883997</v>
+      </c>
+      <c r="J77" s="53">
+        <f t="shared" si="13"/>
+        <v>108.09509931390785</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78" s="52">
+        <f t="shared" si="0"/>
+        <v>19.236641221374054</v>
+      </c>
+      <c r="F78" s="52">
+        <f t="shared" si="10"/>
+        <v>0.33574272633784064</v>
+      </c>
+      <c r="G78" s="53">
+        <f t="shared" si="2"/>
+        <v>118.88331727290358</v>
+      </c>
+      <c r="H78" s="53">
+        <f t="shared" si="11"/>
+        <v>106.589410350772</v>
+      </c>
+      <c r="I78" s="53">
+        <f t="shared" si="12"/>
+        <v>123.60414659112948</v>
+      </c>
+      <c r="J78" s="53">
+        <f t="shared" si="13"/>
+        <v>108.23676293846501</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10">
+      <c r="E79" s="52">
+        <f t="shared" si="0"/>
+        <v>19.580152671755734</v>
+      </c>
+      <c r="F79" s="52">
+        <f t="shared" si="10"/>
+        <v>0.34173813216530208</v>
+      </c>
+      <c r="G79" s="53">
+        <f t="shared" si="2"/>
+        <v>118.84347194198658</v>
+      </c>
+      <c r="H79" s="53">
+        <f t="shared" si="11"/>
+        <v>106.70250439549014</v>
+      </c>
+      <c r="I79" s="53">
+        <f t="shared" si="12"/>
+        <v>123.55433992748321</v>
+      </c>
+      <c r="J79" s="53">
+        <f t="shared" si="13"/>
+        <v>108.37813049436268</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10">
+      <c r="E80" s="52">
+        <f t="shared" si="0"/>
+        <v>19.923664122137414</v>
+      </c>
+      <c r="F80" s="52">
+        <f t="shared" si="10"/>
+        <v>0.34773353799276352</v>
+      </c>
+      <c r="G80" s="53">
+        <f t="shared" si="2"/>
+        <v>118.80294928655275</v>
+      </c>
+      <c r="H80" s="53">
+        <f t="shared" si="11"/>
+        <v>106.81535752013978</v>
+      </c>
+      <c r="I80" s="53">
+        <f t="shared" si="12"/>
+        <v>123.50368660819092</v>
+      </c>
+      <c r="J80" s="53">
+        <f t="shared" si="13"/>
+        <v>108.51919690017472</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10">
+      <c r="E81" s="52">
+        <f t="shared" si="0"/>
+        <v>20.267175572519093</v>
+      </c>
+      <c r="F81" s="52">
+        <f t="shared" si="10"/>
+        <v>0.35372894382022496</v>
+      </c>
+      <c r="G81" s="53">
+        <f t="shared" si="2"/>
+        <v>118.76175076318015</v>
+      </c>
+      <c r="H81" s="53">
+        <f t="shared" si="11"/>
+        <v>106.92796566823979</v>
+      </c>
+      <c r="I81" s="53">
+        <f t="shared" si="12"/>
+        <v>123.45218845397518</v>
+      </c>
+      <c r="J81" s="53">
+        <f t="shared" si="13"/>
+        <v>108.65995708529974</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10">
+      <c r="E82" s="52">
+        <f t="shared" si="0"/>
+        <v>20.610687022900773</v>
+      </c>
+      <c r="F82" s="52">
+        <f t="shared" si="10"/>
+        <v>0.3597243496476864</v>
+      </c>
+      <c r="G82" s="53">
+        <f t="shared" si="2"/>
+        <v>118.71987785274079</v>
+      </c>
+      <c r="H82" s="53">
+        <f t="shared" si="11"/>
+        <v>107.04032479211467</v>
+      </c>
+      <c r="I82" s="53">
+        <f t="shared" si="12"/>
+        <v>123.399847315926</v>
+      </c>
+      <c r="J82" s="53">
+        <f t="shared" si="13"/>
+        <v>108.80040599014335</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10">
+      <c r="E83" s="52">
+        <f t="shared" si="0"/>
+        <v>20.954198473282453</v>
+      </c>
+      <c r="F83" s="52">
+        <f t="shared" si="10"/>
+        <v>0.36571975547514785</v>
+      </c>
+      <c r="G83" s="53">
+        <f t="shared" si="2"/>
+        <v>118.67733206034738</v>
+      </c>
+      <c r="H83" s="53">
+        <f t="shared" si="11"/>
+        <v>107.15243085304009</v>
+      </c>
+      <c r="I83" s="53">
+        <f t="shared" si="12"/>
+        <v>123.34666507543423</v>
+      </c>
+      <c r="J83" s="53">
+        <f t="shared" si="13"/>
+        <v>108.94053856630012</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10">
+      <c r="E84" s="52">
+        <f t="shared" si="0"/>
+        <v>21.297709923664133</v>
+      </c>
+      <c r="F84" s="52">
+        <f t="shared" si="10"/>
+        <v>0.37171516130260929</v>
+      </c>
+      <c r="G84" s="53">
+        <f t="shared" si="2"/>
+        <v>118.63411491529919</v>
+      </c>
+      <c r="H84" s="53">
+        <f t="shared" si="11"/>
+        <v>107.26427982138794</v>
+      </c>
+      <c r="I84" s="53">
+        <f t="shared" si="12"/>
+        <v>123.292643644124</v>
+      </c>
+      <c r="J84" s="53">
+        <f t="shared" si="13"/>
+        <v>109.08034977673493</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10">
+      <c r="E85" s="52">
+        <f t="shared" si="0"/>
+        <v>21.641221374045813</v>
+      </c>
+      <c r="F85" s="52">
+        <f t="shared" si="10"/>
+        <v>0.37771056713007073</v>
+      </c>
+      <c r="G85" s="53">
+        <f t="shared" si="2"/>
+        <v>118.59022797102715</v>
+      </c>
+      <c r="H85" s="53">
+        <f t="shared" si="11"/>
+        <v>107.37586767677131</v>
+      </c>
+      <c r="I85" s="53">
+        <f t="shared" si="12"/>
+        <v>123.23778496378394</v>
+      </c>
+      <c r="J85" s="53">
+        <f t="shared" si="13"/>
+        <v>109.21983459596413</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10">
+      <c r="E86" s="52">
+        <f t="shared" si="0"/>
+        <v>21.984732824427493</v>
+      </c>
+      <c r="F86" s="52">
+        <f t="shared" si="10"/>
+        <v>0.38370597295753217</v>
+      </c>
+      <c r="G86" s="53">
+        <f t="shared" si="2"/>
+        <v>118.54567280503795</v>
+      </c>
+      <c r="H86" s="53">
+        <f t="shared" si="11"/>
+        <v>107.48719040818888</v>
+      </c>
+      <c r="I86" s="53">
+        <f t="shared" si="12"/>
+        <v>123.18209100629744</v>
+      </c>
+      <c r="J86" s="53">
+        <f t="shared" si="13"/>
+        <v>109.3589880102361</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10">
+      <c r="E87" s="52">
+        <f t="shared" ref="E87:E150" si="14">F87*180/PI()</f>
+        <v>22.328244274809169</v>
+      </c>
+      <c r="F87" s="52">
+        <f t="shared" si="10"/>
+        <v>0.38970137878499361</v>
+      </c>
+      <c r="G87" s="53">
+        <f t="shared" si="2"/>
+        <v>118.5004510188574</v>
+      </c>
+      <c r="H87" s="53">
+        <f t="shared" si="11"/>
+        <v>107.59824401416921</v>
+      </c>
+      <c r="I87" s="53">
+        <f t="shared" si="12"/>
+        <v>123.12556377357174</v>
+      </c>
+      <c r="J87" s="53">
+        <f t="shared" si="13"/>
+        <v>109.49780501771153</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10">
+      <c r="E88" s="52">
+        <f t="shared" si="14"/>
+        <v>22.671755725190849</v>
+      </c>
+      <c r="F88" s="52">
+        <f t="shared" si="10"/>
+        <v>0.39569678461245505</v>
+      </c>
+      <c r="G88" s="53">
+        <f t="shared" ref="G88:G151" si="15">100+$E$15*COS(F88)</f>
+        <v>118.45456423797279</v>
+      </c>
+      <c r="H88" s="53">
+        <f t="shared" si="11"/>
+        <v>107.7090245029145</v>
+      </c>
+      <c r="I88" s="53">
+        <f t="shared" si="12"/>
+        <v>123.06820529746598</v>
+      </c>
+      <c r="J88" s="53">
+        <f t="shared" si="13"/>
+        <v>109.63628062864312</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10">
+      <c r="E89" s="52">
+        <f t="shared" si="14"/>
+        <v>23.015267175572529</v>
+      </c>
+      <c r="F89" s="52">
+        <f t="shared" si="10"/>
+        <v>0.4016921904399165</v>
+      </c>
+      <c r="G89" s="53">
+        <f t="shared" si="15"/>
+        <v>118.40801411177452</v>
+      </c>
+      <c r="H89" s="53">
+        <f t="shared" si="11"/>
+        <v>107.81952789244406</v>
+      </c>
+      <c r="I89" s="53">
+        <f t="shared" si="12"/>
+        <v>123.01001763971814</v>
+      </c>
+      <c r="J89" s="53">
+        <f t="shared" si="13"/>
+        <v>109.77440986555506</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10">
+      <c r="E90" s="52">
+        <f t="shared" si="14"/>
+        <v>23.358778625954212</v>
+      </c>
+      <c r="F90" s="52">
+        <f t="shared" si="10"/>
+        <v>0.40768759626737794</v>
+      </c>
+      <c r="G90" s="53">
+        <f t="shared" si="15"/>
+        <v>118.36080231349678</v>
+      </c>
+      <c r="H90" s="53">
+        <f t="shared" si="11"/>
+        <v>107.92975021073748</v>
+      </c>
+      <c r="I90" s="53">
+        <f t="shared" si="12"/>
+        <v>122.95100289187098</v>
+      </c>
+      <c r="J90" s="53">
+        <f t="shared" si="13"/>
+        <v>109.91218776342185</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10">
+      <c r="E91" s="52">
+        <f t="shared" si="14"/>
+        <v>23.702290076335892</v>
+      </c>
+      <c r="F91" s="52">
+        <f t="shared" si="10"/>
+        <v>0.41368300209483938</v>
+      </c>
+      <c r="G91" s="53">
+        <f t="shared" si="15"/>
+        <v>118.31293054015747</v>
+      </c>
+      <c r="H91" s="53">
+        <f t="shared" si="11"/>
+        <v>108.03968749587744</v>
+      </c>
+      <c r="I91" s="53">
+        <f t="shared" si="12"/>
+        <v>122.89116317519682</v>
+      </c>
+      <c r="J91" s="53">
+        <f t="shared" si="13"/>
+        <v>110.04960936984679</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10">
+      <c r="E92" s="52">
+        <f t="shared" si="14"/>
+        <v>24.045801526717572</v>
+      </c>
+      <c r="F92" s="52">
+        <f t="shared" si="10"/>
+        <v>0.41967840792230082</v>
+      </c>
+      <c r="G92" s="53">
+        <f t="shared" si="15"/>
+        <v>118.26440051249708</v>
+      </c>
+      <c r="H92" s="53">
+        <f t="shared" si="11"/>
+        <v>108.14933579619202</v>
+      </c>
+      <c r="I92" s="53">
+        <f t="shared" si="12"/>
+        <v>122.83050064062134</v>
+      </c>
+      <c r="J92" s="53">
+        <f t="shared" si="13"/>
+        <v>110.18666974524002</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10">
+      <c r="E93" s="52">
+        <f t="shared" si="14"/>
+        <v>24.389312977099248</v>
+      </c>
+      <c r="F93" s="52">
+        <f t="shared" si="10"/>
+        <v>0.42567381374976226</v>
+      </c>
+      <c r="G93" s="53">
+        <f t="shared" si="15"/>
+        <v>118.21521397491694</v>
+      </c>
+      <c r="H93" s="53">
+        <f t="shared" si="11"/>
+        <v>108.25869117039683</v>
+      </c>
+      <c r="I93" s="53">
+        <f t="shared" si="12"/>
+        <v>122.76901746864618</v>
+      </c>
+      <c r="J93" s="53">
+        <f t="shared" si="13"/>
+        <v>110.32336396299604</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10">
+      <c r="E94" s="52">
+        <f t="shared" si="14"/>
+        <v>24.732824427480928</v>
+      </c>
+      <c r="F94" s="52">
+        <f t="shared" si="10"/>
+        <v>0.43166921957722371</v>
+      </c>
+      <c r="G94" s="53">
+        <f t="shared" si="15"/>
+        <v>118.16537269541651</v>
+      </c>
+      <c r="H94" s="53">
+        <f t="shared" si="11"/>
+        <v>108.36774968773662</v>
+      </c>
+      <c r="I94" s="53">
+        <f t="shared" si="12"/>
+        <v>122.70671586927062</v>
+      </c>
+      <c r="J94" s="53">
+        <f t="shared" si="13"/>
+        <v>110.45968710967078</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10">
+      <c r="E95" s="52">
+        <f t="shared" si="14"/>
+        <v>25.076335877862608</v>
+      </c>
+      <c r="F95" s="52">
+        <f t="shared" si="10"/>
+        <v>0.43766462540468515</v>
+      </c>
+      <c r="G95" s="53">
+        <f t="shared" si="15"/>
+        <v>118.11487846552976</v>
+      </c>
+      <c r="H95" s="53">
+        <f t="shared" si="11"/>
+        <v>108.47650742812664</v>
+      </c>
+      <c r="I95" s="53">
+        <f t="shared" si="12"/>
+        <v>122.6435980819122</v>
+      </c>
+      <c r="J95" s="53">
+        <f t="shared" si="13"/>
+        <v>110.5956342851583</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10">
+      <c r="E96" s="52">
+        <f t="shared" si="14"/>
+        <v>25.419847328244288</v>
+      </c>
+      <c r="F96" s="52">
+        <f t="shared" si="10"/>
+        <v>0.44366003123214659</v>
+      </c>
+      <c r="G96" s="53">
+        <f t="shared" si="15"/>
+        <v>118.06373310026086</v>
+      </c>
+      <c r="H96" s="53">
+        <f t="shared" si="11"/>
+        <v>108.58496048229344</v>
+      </c>
+      <c r="I96" s="53">
+        <f t="shared" si="12"/>
+        <v>122.57966637532608</v>
+      </c>
+      <c r="J96" s="53">
+        <f t="shared" si="13"/>
+        <v>110.73120060286679</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10">
+      <c r="E97" s="52">
+        <f t="shared" si="14"/>
+        <v>25.763358778625967</v>
+      </c>
+      <c r="F97" s="52">
+        <f t="shared" si="10"/>
+        <v>0.44965543705960803</v>
+      </c>
+      <c r="G97" s="53">
+        <f t="shared" si="15"/>
+        <v>118.01193843801889</v>
+      </c>
+      <c r="H97" s="53">
+        <f t="shared" si="11"/>
+        <v>108.69310495191549</v>
+      </c>
+      <c r="I97" s="53">
+        <f t="shared" si="12"/>
+        <v>122.51492304752361</v>
+      </c>
+      <c r="J97" s="53">
+        <f t="shared" si="13"/>
+        <v>110.86638118989435</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10">
+      <c r="E98" s="52">
+        <f t="shared" si="14"/>
+        <v>26.106870229007651</v>
+      </c>
+      <c r="F98" s="52">
+        <f t="shared" si="10"/>
+        <v>0.45565084288706947</v>
+      </c>
+      <c r="G98" s="53">
+        <f t="shared" si="15"/>
+        <v>117.95949634055175</v>
+      </c>
+      <c r="H98" s="53">
+        <f t="shared" si="11"/>
+        <v>108.80093694976325</v>
+      </c>
+      <c r="I98" s="53">
+        <f t="shared" si="12"/>
+        <v>122.44937042568969</v>
+      </c>
+      <c r="J98" s="53">
+        <f t="shared" si="13"/>
+        <v>111.00117118720408</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10">
+      <c r="E99" s="52">
+        <f t="shared" si="14"/>
+        <v>26.450381679389327</v>
+      </c>
+      <c r="F99" s="52">
+        <f t="shared" si="10"/>
+        <v>0.46164624871453092</v>
+      </c>
+      <c r="G99" s="53">
+        <f t="shared" si="15"/>
+        <v>117.90640869287928</v>
+      </c>
+      <c r="H99" s="53">
+        <f t="shared" si="11"/>
+        <v>108.90845259983895</v>
+      </c>
+      <c r="I99" s="53">
+        <f t="shared" si="12"/>
+        <v>122.3830108660991</v>
+      </c>
+      <c r="J99" s="53">
+        <f t="shared" si="13"/>
+        <v>111.13556574979869</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10">
+      <c r="E100" s="52">
+        <f t="shared" si="14"/>
+        <v>26.793893129771007</v>
+      </c>
+      <c r="F100" s="52">
+        <f t="shared" si="10"/>
+        <v>0.46764165454199236</v>
+      </c>
+      <c r="G100" s="53">
+        <f t="shared" si="15"/>
+        <v>117.85267740322547</v>
+      </c>
+      <c r="H100" s="53">
+        <f t="shared" si="11"/>
+        <v>109.01564803751582</v>
+      </c>
+      <c r="I100" s="53">
+        <f t="shared" si="12"/>
+        <v>122.31584675403184</v>
+      </c>
+      <c r="J100" s="53">
+        <f t="shared" si="13"/>
+        <v>111.26956004689477</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10">
+      <c r="E101" s="52">
+        <f t="shared" si="14"/>
+        <v>27.137404580152687</v>
+      </c>
+      <c r="F101" s="52">
+        <f t="shared" si="10"/>
+        <v>0.4736370603694538</v>
+      </c>
+      <c r="G101" s="53">
+        <f t="shared" si="15"/>
+        <v>117.7983044029499</v>
+      </c>
+      <c r="H101" s="53">
+        <f t="shared" si="11"/>
+        <v>109.12251940967705</v>
+      </c>
+      <c r="I101" s="53">
+        <f t="shared" si="12"/>
+        <v>122.24788050368736</v>
+      </c>
+      <c r="J101" s="53">
+        <f t="shared" si="13"/>
+        <v>111.40314926209632</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10">
+      <c r="E102" s="52">
+        <f t="shared" si="14"/>
+        <v>27.480916030534367</v>
+      </c>
+      <c r="F102" s="52">
+        <f t="shared" si="10"/>
+        <v>0.47963246619691524</v>
+      </c>
+      <c r="G102" s="53">
+        <f t="shared" si="15"/>
+        <v>117.74329164647826</v>
+      </c>
+      <c r="H102" s="53">
+        <f t="shared" si="11"/>
+        <v>109.22906287485436</v>
+      </c>
+      <c r="I102" s="53">
+        <f t="shared" si="12"/>
+        <v>122.17911455809781</v>
+      </c>
+      <c r="J102" s="53">
+        <f t="shared" si="13"/>
+        <v>111.53632859356796</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10">
+      <c r="E103" s="52">
+        <f t="shared" si="14"/>
+        <v>27.824427480916047</v>
+      </c>
+      <c r="F103" s="52">
+        <f t="shared" si="10"/>
+        <v>0.48562787202437668</v>
+      </c>
+      <c r="G103" s="53">
+        <f t="shared" si="15"/>
+        <v>117.68764111123218</v>
+      </c>
+      <c r="H103" s="53">
+        <f t="shared" si="11"/>
+        <v>109.33527460336596</v>
+      </c>
+      <c r="I103" s="53">
+        <f t="shared" si="12"/>
+        <v>122.10955138904022</v>
+      </c>
+      <c r="J103" s="53">
+        <f t="shared" si="13"/>
+        <v>111.66909325420744</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10">
+      <c r="E104" s="52">
+        <f t="shared" si="14"/>
+        <v>28.167938931297723</v>
+      </c>
+      <c r="F104" s="52">
+        <f t="shared" si="10"/>
+        <v>0.49162327785183813</v>
+      </c>
+      <c r="G104" s="53">
+        <f t="shared" si="15"/>
+        <v>117.63135479755809</v>
+      </c>
+      <c r="H104" s="53">
+        <f t="shared" si="11"/>
+        <v>109.44115077745427</v>
+      </c>
+      <c r="I104" s="53">
+        <f t="shared" si="12"/>
+        <v>122.03919349694762</v>
+      </c>
+      <c r="J104" s="53">
+        <f t="shared" si="13"/>
+        <v>111.80143847181783</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10">
+      <c r="E105" s="52">
+        <f t="shared" si="14"/>
+        <v>28.511450381679403</v>
+      </c>
+      <c r="F105" s="52">
+        <f t="shared" si="10"/>
+        <v>0.49761868367929957</v>
+      </c>
+      <c r="G105" s="53">
+        <f t="shared" si="15"/>
+        <v>117.57443472865535</v>
+      </c>
+      <c r="H105" s="53">
+        <f t="shared" si="11"/>
+        <v>109.54668759142315</v>
+      </c>
+      <c r="I105" s="53">
+        <f t="shared" si="12"/>
+        <v>121.96804341081919</v>
+      </c>
+      <c r="J105" s="53">
+        <f t="shared" si="13"/>
+        <v>111.93335948927893</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10">
+      <c r="E106" s="52">
+        <f t="shared" si="14"/>
+        <v>28.854961832061083</v>
+      </c>
+      <c r="F106" s="52">
+        <f t="shared" si="10"/>
+        <v>0.50361408950676101</v>
+      </c>
+      <c r="G106" s="53">
+        <f t="shared" si="15"/>
+        <v>117.5168829505035</v>
+      </c>
+      <c r="H106" s="53">
+        <f t="shared" si="11"/>
+        <v>109.65188125177468</v>
+      </c>
+      <c r="I106" s="53">
+        <f t="shared" si="12"/>
+        <v>121.89610368812939</v>
+      </c>
+      <c r="J106" s="53">
+        <f t="shared" si="13"/>
+        <v>112.06485156471837</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10">
+      <c r="E107" s="52">
+        <f t="shared" si="14"/>
+        <v>29.198473282442759</v>
+      </c>
+      <c r="F107" s="52">
+        <f t="shared" si="10"/>
+        <v>0.5096094953342224</v>
+      </c>
+      <c r="G107" s="53">
+        <f t="shared" si="15"/>
+        <v>117.45870153178873</v>
+      </c>
+      <c r="H107" s="53">
+        <f t="shared" si="11"/>
+        <v>109.75672797734555</v>
+      </c>
+      <c r="I107" s="53">
+        <f t="shared" si="12"/>
+        <v>121.82337691473592</v>
+      </c>
+      <c r="J107" s="53">
+        <f t="shared" si="13"/>
+        <v>112.19590997168194</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10">
+      <c r="E108" s="52">
+        <f t="shared" si="14"/>
+        <v>29.541984732824435</v>
+      </c>
+      <c r="F108" s="52">
+        <f t="shared" si="10"/>
+        <v>0.51560490116168378</v>
+      </c>
+      <c r="G108" s="53">
+        <f t="shared" si="15"/>
+        <v>117.39989256382955</v>
+      </c>
+      <c r="H108" s="53">
+        <f t="shared" si="11"/>
+        <v>109.86122399944291</v>
+      </c>
+      <c r="I108" s="53">
+        <f t="shared" si="12"/>
+        <v>121.74986570478694</v>
+      </c>
+      <c r="J108" s="53">
+        <f t="shared" si="13"/>
+        <v>112.32652999930363</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10">
+      <c r="E109" s="52">
+        <f t="shared" si="14"/>
+        <v>29.885496183206115</v>
+      </c>
+      <c r="F109" s="52">
+        <f t="shared" si="10"/>
+        <v>0.52160030698914517</v>
+      </c>
+      <c r="G109" s="53">
+        <f t="shared" si="15"/>
+        <v>117.34045816050157</v>
+      </c>
+      <c r="H109" s="53">
+        <f t="shared" si="11"/>
+        <v>109.96536556197988</v>
+      </c>
+      <c r="I109" s="53">
+        <f t="shared" si="12"/>
+        <v>121.67557270062696</v>
+      </c>
+      <c r="J109" s="53">
+        <f t="shared" si="13"/>
+        <v>112.45670695247485</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10">
+      <c r="E110" s="52">
+        <f t="shared" si="14"/>
+        <v>30.229007633587791</v>
+      </c>
+      <c r="F110" s="52">
+        <f t="shared" si="10"/>
+        <v>0.52759571281660655</v>
+      </c>
+      <c r="G110" s="53">
+        <f t="shared" si="15"/>
+        <v>117.28040045816152</v>
+      </c>
+      <c r="H110" s="53">
+        <f t="shared" si="11"/>
+        <v>110.06914892161055</v>
+      </c>
+      <c r="I110" s="53">
+        <f t="shared" si="12"/>
+        <v>121.6005005727019</v>
+      </c>
+      <c r="J110" s="53">
+        <f t="shared" si="13"/>
+        <v>112.58643615201319</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10">
+      <c r="E111" s="52">
+        <f t="shared" si="14"/>
+        <v>30.572519083969468</v>
+      </c>
+      <c r="F111" s="52">
+        <f t="shared" si="10"/>
+        <v>0.53359111864406794</v>
+      </c>
+      <c r="G111" s="53">
+        <f t="shared" si="15"/>
+        <v>117.21972161557053</v>
+      </c>
+      <c r="H111" s="53">
+        <f t="shared" si="11"/>
+        <v>110.17257034786455</v>
+      </c>
+      <c r="I111" s="53">
+        <f t="shared" si="12"/>
+        <v>121.52465201946316</v>
+      </c>
+      <c r="J111" s="53">
+        <f t="shared" si="13"/>
+        <v>112.71571293483069</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10">
+      <c r="E112" s="52">
+        <f t="shared" si="14"/>
+        <v>30.916030534351144</v>
+      </c>
+      <c r="F112" s="52">
+        <f t="shared" si="10"/>
+        <v>0.53958652447152933</v>
+      </c>
+      <c r="G112" s="53">
+        <f t="shared" si="15"/>
+        <v>117.15842381381643</v>
+      </c>
+      <c r="H112" s="53">
+        <f t="shared" si="11"/>
+        <v>110.27562612328111</v>
+      </c>
+      <c r="I112" s="53">
+        <f t="shared" si="12"/>
+        <v>121.44802976727053</v>
+      </c>
+      <c r="J112" s="53">
+        <f t="shared" si="13"/>
+        <v>112.8445326541014</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10">
+      <c r="E113" s="52">
+        <f t="shared" si="14"/>
+        <v>31.25954198473282</v>
+      </c>
+      <c r="F113" s="52">
+        <f t="shared" si="10"/>
+        <v>0.54558193029899071</v>
+      </c>
+      <c r="G113" s="53">
+        <f t="shared" si="15"/>
+        <v>117.09650925623542</v>
+      </c>
+      <c r="H113" s="53">
+        <f t="shared" si="11"/>
+        <v>110.37831254354273</v>
+      </c>
+      <c r="I113" s="53">
+        <f t="shared" si="12"/>
+        <v>121.37063657029428</v>
+      </c>
+      <c r="J113" s="53">
+        <f t="shared" si="13"/>
+        <v>112.97289067942842</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10">
+      <c r="E114" s="52">
+        <f t="shared" si="14"/>
+        <v>31.603053435114496</v>
+      </c>
+      <c r="F114" s="52">
+        <f t="shared" si="10"/>
+        <v>0.5515773361264521</v>
+      </c>
+      <c r="G114" s="53">
+        <f t="shared" si="15"/>
+        <v>117.03398016833289</v>
+      </c>
+      <c r="H114" s="53">
+        <f t="shared" si="11"/>
+        <v>110.48062591760825</v>
+      </c>
+      <c r="I114" s="53">
+        <f t="shared" si="12"/>
+        <v>121.29247521041611</v>
+      </c>
+      <c r="J114" s="53">
+        <f t="shared" si="13"/>
+        <v>113.10078239701032</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10">
+      <c r="E115" s="52">
+        <f t="shared" si="14"/>
+        <v>31.946564885496173</v>
+      </c>
+      <c r="F115" s="52">
+        <f t="shared" si="10"/>
+        <v>0.55757274195391349</v>
+      </c>
+      <c r="G115" s="53">
+        <f t="shared" si="15"/>
+        <v>116.97083879770332</v>
+      </c>
+      <c r="H115" s="53">
+        <f t="shared" si="11"/>
+        <v>110.58256256784563</v>
+      </c>
+      <c r="I115" s="53">
+        <f t="shared" si="12"/>
+        <v>121.21354849712915</v>
+      </c>
+      <c r="J115" s="53">
+        <f t="shared" si="13"/>
+        <v>113.22820320980703</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10">
+      <c r="E116" s="52">
+        <f t="shared" si="14"/>
+        <v>32.290076335877849</v>
+      </c>
+      <c r="F116" s="52">
+        <f t="shared" si="10"/>
+        <v>0.56356814778137487</v>
+      </c>
+      <c r="G116" s="53">
+        <f t="shared" si="15"/>
+        <v>116.90708741394964</v>
+      </c>
+      <c r="H116" s="53">
+        <f t="shared" si="11"/>
+        <v>110.68411883016404</v>
+      </c>
+      <c r="I116" s="53">
+        <f t="shared" si="12"/>
+        <v>121.13385926743706</v>
+      </c>
+      <c r="J116" s="53">
+        <f t="shared" si="13"/>
+        <v>113.35514853770503</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10">
+      <c r="E117" s="52">
+        <f t="shared" si="14"/>
+        <v>32.633587786259525</v>
+      </c>
+      <c r="F117" s="52">
+        <f t="shared" si="10"/>
+        <v>0.56956355360883626</v>
+      </c>
+      <c r="G117" s="53">
+        <f t="shared" si="15"/>
+        <v>116.84272830860149</v>
+      </c>
+      <c r="H117" s="53">
+        <f t="shared" si="11"/>
+        <v>110.78529105414563</v>
+      </c>
+      <c r="I117" s="53">
+        <f t="shared" si="12"/>
+        <v>121.05341038575187</v>
+      </c>
+      <c r="J117" s="53">
+        <f t="shared" si="13"/>
+        <v>113.48161381768203</v>
+      </c>
+    </row>
+    <row r="118" spans="5:10">
+      <c r="E118" s="52">
+        <f t="shared" si="14"/>
+        <v>32.977099236641202</v>
+      </c>
+      <c r="F118" s="52">
+        <f t="shared" si="10"/>
+        <v>0.57555895943629765</v>
+      </c>
+      <c r="G118" s="53">
+        <f t="shared" si="15"/>
+        <v>116.777763795033</v>
+      </c>
+      <c r="H118" s="53">
+        <f t="shared" si="11"/>
+        <v>110.88607560317674</v>
+      </c>
+      <c r="I118" s="53">
+        <f t="shared" si="12"/>
+        <v>120.97220474379125</v>
+      </c>
+      <c r="J118" s="53">
+        <f t="shared" si="13"/>
+        <v>113.60759450397092</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10">
+      <c r="E119" s="52">
+        <f t="shared" si="14"/>
+        <v>33.320610687022878</v>
+      </c>
+      <c r="F119" s="52">
+        <f t="shared" si="10"/>
+        <v>0.58155436526375903</v>
+      </c>
+      <c r="G119" s="53">
+        <f t="shared" si="15"/>
+        <v>116.71219620837952</v>
+      </c>
+      <c r="H119" s="53">
+        <f t="shared" si="11"/>
+        <v>110.98646885457858</v>
+      </c>
+      <c r="I119" s="53">
+        <f t="shared" si="12"/>
+        <v>120.8902452604744</v>
+      </c>
+      <c r="J119" s="53">
+        <f t="shared" si="13"/>
+        <v>113.73308606822322</v>
+      </c>
+    </row>
+    <row r="120" spans="5:10">
+      <c r="E120" s="52">
+        <f t="shared" si="14"/>
+        <v>33.664122137404554</v>
+      </c>
+      <c r="F120" s="52">
+        <f t="shared" si="10"/>
+        <v>0.58754977109122042</v>
+      </c>
+      <c r="G120" s="53">
+        <f t="shared" si="15"/>
+        <v>116.64602790545375</v>
+      </c>
+      <c r="H120" s="53">
+        <f t="shared" si="11"/>
+        <v>111.08646719973747</v>
+      </c>
+      <c r="I120" s="53">
+        <f t="shared" si="12"/>
+        <v>120.80753488181719</v>
+      </c>
+      <c r="J120" s="53">
+        <f t="shared" si="13"/>
+        <v>113.85808399967185</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10">
+      <c r="E121" s="52">
+        <f t="shared" si="14"/>
+        <v>34.007633587786231</v>
+      </c>
+      <c r="F121" s="52">
+        <f t="shared" si="10"/>
+        <v>0.5935451769186818</v>
+      </c>
+      <c r="G121" s="53">
+        <f t="shared" si="15"/>
+        <v>116.57926126466101</v>
+      </c>
+      <c r="H121" s="53">
+        <f t="shared" si="11"/>
+        <v>111.18606704423458</v>
+      </c>
+      <c r="I121" s="53">
+        <f t="shared" si="12"/>
+        <v>120.72407658082626</v>
+      </c>
+      <c r="J121" s="53">
+        <f t="shared" si="13"/>
+        <v>113.98258380529323</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10">
+      <c r="E122" s="52">
+        <f t="shared" si="14"/>
+        <v>34.351145038167907</v>
+      </c>
+      <c r="F122" s="52">
+        <f t="shared" si="10"/>
+        <v>0.59954058274614319</v>
+      </c>
+      <c r="G122" s="53">
+        <f t="shared" si="15"/>
+        <v>116.51189868591374</v>
+      </c>
+      <c r="H122" s="53">
+        <f t="shared" si="11"/>
+        <v>111.28526480797505</v>
+      </c>
+      <c r="I122" s="53">
+        <f t="shared" si="12"/>
+        <v>120.63987335739216</v>
+      </c>
+      <c r="J122" s="53">
+        <f t="shared" si="13"/>
+        <v>114.10658100996882</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10">
+      <c r="E123" s="52">
+        <f t="shared" si="14"/>
+        <v>34.694656488549583</v>
+      </c>
+      <c r="F123" s="52">
+        <f t="shared" si="10"/>
+        <v>0.60553598857360458</v>
+      </c>
+      <c r="G123" s="53">
+        <f t="shared" si="15"/>
+        <v>116.44394259054522</v>
+      </c>
+      <c r="H123" s="53">
+        <f t="shared" si="11"/>
+        <v>111.38405692531678</v>
+      </c>
+      <c r="I123" s="53">
+        <f t="shared" si="12"/>
+        <v>120.55492823818153</v>
+      </c>
+      <c r="J123" s="53">
+        <f t="shared" si="13"/>
+        <v>114.23007115664598</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10">
+      <c r="E124" s="52">
+        <f t="shared" si="14"/>
+        <v>35.038167938931259</v>
+      </c>
+      <c r="F124" s="52">
+        <f t="shared" si="10"/>
+        <v>0.61153139440106596</v>
+      </c>
+      <c r="G124" s="53">
+        <f t="shared" si="15"/>
+        <v>116.37539542122261</v>
+      </c>
+      <c r="H124" s="53">
+        <f t="shared" si="11"/>
+        <v>111.4824398451985</v>
+      </c>
+      <c r="I124" s="53">
+        <f t="shared" si="12"/>
+        <v>120.46924427652824</v>
+      </c>
+      <c r="J124" s="53">
+        <f t="shared" si="13"/>
+        <v>114.35304980649812</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10">
+      <c r="E125" s="52">
+        <f t="shared" si="14"/>
+        <v>35.381679389312943</v>
+      </c>
+      <c r="F125" s="52">
+        <f t="shared" si="10"/>
+        <v>0.61752680022852735</v>
+      </c>
+      <c r="G125" s="53">
+        <f t="shared" si="15"/>
+        <v>116.30625964185901</v>
+      </c>
+      <c r="H125" s="53">
+        <f t="shared" si="11"/>
+        <v>111.58041003126745</v>
+      </c>
+      <c r="I125" s="53">
+        <f t="shared" si="12"/>
+        <v>120.38282455232377</v>
+      </c>
+      <c r="J125" s="53">
+        <f t="shared" si="13"/>
+        <v>114.47551253908431</v>
+      </c>
+    </row>
+    <row r="126" spans="5:10">
+      <c r="E126" s="52">
+        <f t="shared" si="14"/>
+        <v>35.725190839694619</v>
+      </c>
+      <c r="F126" s="52">
+        <f t="shared" ref="F126:F155" si="16">F125+$F$19*2</f>
+        <v>0.62352220605598874</v>
+      </c>
+      <c r="G126" s="53">
+        <f t="shared" si="15"/>
+        <v>116.2365377375251</v>
+      </c>
+      <c r="H126" s="53">
+        <f t="shared" ref="H126:H155" si="17">100+$E$15*SIN(F126)</f>
+        <v>111.67796396200653</v>
+      </c>
+      <c r="I126" s="53">
+        <f t="shared" ref="I126:I155" si="18">100+$E$14*COS(F126)</f>
+        <v>120.29567217190638</v>
+      </c>
+      <c r="J126" s="53">
+        <f t="shared" ref="J126:J155" si="19">100+$E$14*SIN(F126)</f>
+        <v>114.59745495250817</v>
+      </c>
+    </row>
+    <row r="127" spans="5:10">
+      <c r="E127" s="52">
+        <f t="shared" si="14"/>
+        <v>36.068702290076288</v>
+      </c>
+      <c r="F127" s="52">
+        <f t="shared" si="16"/>
+        <v>0.62951761188345012</v>
+      </c>
+      <c r="G127" s="53">
+        <f t="shared" si="15"/>
+        <v>116.16623221435958</v>
+      </c>
+      <c r="H127" s="53">
+        <f t="shared" si="17"/>
+        <v>111.77509813086084</v>
+      </c>
+      <c r="I127" s="53">
+        <f t="shared" si="18"/>
+        <v>120.20779026794948</v>
+      </c>
+      <c r="J127" s="53">
+        <f t="shared" si="19"/>
+        <v>114.71887266357606</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10">
+      <c r="E128" s="52">
+        <f t="shared" si="14"/>
+        <v>36.412213740457965</v>
+      </c>
+      <c r="F128" s="52">
+        <f t="shared" si="16"/>
+        <v>0.63551301771091151</v>
+      </c>
+      <c r="G128" s="53">
+        <f t="shared" si="15"/>
+        <v>116.09534559947926</v>
+      </c>
+      <c r="H128" s="53">
+        <f t="shared" si="17"/>
+        <v>111.87180904636372</v>
+      </c>
+      <c r="I128" s="53">
+        <f t="shared" si="18"/>
+        <v>120.11918199934908</v>
+      </c>
+      <c r="J128" s="53">
+        <f t="shared" si="19"/>
+        <v>114.83976130795466</v>
+      </c>
+    </row>
+    <row r="129" spans="5:10">
+      <c r="E129" s="52">
+        <f t="shared" si="14"/>
+        <v>36.755725190839641</v>
+      </c>
+      <c r="F129" s="52">
+        <f t="shared" si="16"/>
+        <v>0.6415084235383729</v>
+      </c>
+      <c r="G129" s="53">
+        <f t="shared" si="15"/>
+        <v>116.02388044088816</v>
+      </c>
+      <c r="H129" s="53">
+        <f t="shared" si="17"/>
+        <v>111.96809323226226</v>
+      </c>
+      <c r="I129" s="53">
+        <f t="shared" si="18"/>
+        <v>120.0298505511102</v>
+      </c>
+      <c r="J129" s="53">
+        <f t="shared" si="19"/>
+        <v>114.96011654032782</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10">
+      <c r="E130" s="52">
+        <f t="shared" si="14"/>
+        <v>37.099236641221317</v>
+      </c>
+      <c r="F130" s="52">
+        <f t="shared" si="16"/>
+        <v>0.64750382936583428</v>
+      </c>
+      <c r="G130" s="53">
+        <f t="shared" si="15"/>
+        <v>115.95183930738592</v>
+      </c>
+      <c r="H130" s="53">
+        <f t="shared" si="17"/>
+        <v>112.06394722764226</v>
+      </c>
+      <c r="I130" s="53">
+        <f t="shared" si="18"/>
+        <v>119.9397991342324</v>
+      </c>
+      <c r="J130" s="53">
+        <f t="shared" si="19"/>
+        <v>115.07993403455282</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10">
+      <c r="E131" s="52">
+        <f t="shared" si="14"/>
+        <v>37.442748091602994</v>
+      </c>
+      <c r="F131" s="52">
+        <f t="shared" si="16"/>
+        <v>0.65349923519329567</v>
+      </c>
+      <c r="G131" s="53">
+        <f t="shared" si="15"/>
+        <v>115.87922478847548</v>
+      </c>
+      <c r="H131" s="53">
+        <f t="shared" si="17"/>
+        <v>112.1593675870526</v>
+      </c>
+      <c r="I131" s="53">
+        <f t="shared" si="18"/>
+        <v>119.84903098559437</v>
+      </c>
+      <c r="J131" s="53">
+        <f t="shared" si="19"/>
+        <v>115.19920948381576</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10">
+      <c r="E132" s="52">
+        <f t="shared" si="14"/>
+        <v>37.78625954198467</v>
+      </c>
+      <c r="F132" s="52">
+        <f t="shared" si="16"/>
+        <v>0.65949464102075706</v>
+      </c>
+      <c r="G132" s="53">
+        <f t="shared" si="15"/>
+        <v>115.80603949427</v>
+      </c>
+      <c r="H132" s="53">
+        <f t="shared" si="17"/>
+        <v>112.25435088062918</v>
+      </c>
+      <c r="I132" s="53">
+        <f t="shared" si="18"/>
+        <v>119.7575493678375</v>
+      </c>
+      <c r="J132" s="53">
+        <f t="shared" si="19"/>
+        <v>115.31793860078646</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10">
+      <c r="E133" s="52">
+        <f t="shared" si="14"/>
+        <v>38.129770992366353</v>
+      </c>
+      <c r="F133" s="52">
+        <f t="shared" si="16"/>
+        <v>0.66549004684821844</v>
+      </c>
+      <c r="G133" s="53">
+        <f t="shared" si="15"/>
+        <v>115.73228605539902</v>
+      </c>
+      <c r="H133" s="53">
+        <f t="shared" si="17"/>
+        <v>112.34889369421803</v>
+      </c>
+      <c r="I133" s="53">
+        <f t="shared" si="18"/>
+        <v>119.66535756924877</v>
+      </c>
+      <c r="J133" s="53">
+        <f t="shared" si="19"/>
+        <v>115.43611711777254</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10">
+      <c r="E134" s="52">
+        <f t="shared" si="14"/>
+        <v>38.47328244274803</v>
+      </c>
+      <c r="F134" s="52">
+        <f t="shared" si="16"/>
+        <v>0.67148545267567983</v>
+      </c>
+      <c r="G134" s="53">
+        <f t="shared" si="15"/>
+        <v>115.6579671229139</v>
+      </c>
+      <c r="H134" s="53">
+        <f t="shared" si="17"/>
+        <v>112.44299262949824</v>
+      </c>
+      <c r="I134" s="53">
+        <f t="shared" si="18"/>
+        <v>119.57245890364237</v>
+      </c>
+      <c r="J134" s="53">
+        <f t="shared" si="19"/>
+        <v>115.55374078687279</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10">
+      <c r="E135" s="52">
+        <f t="shared" si="14"/>
+        <v>38.816793893129706</v>
+      </c>
+      <c r="F135" s="52">
+        <f t="shared" si="16"/>
+        <v>0.67748085850314121</v>
+      </c>
+      <c r="G135" s="53">
+        <f t="shared" si="15"/>
+        <v>115.5830853681926</v>
+      </c>
+      <c r="H135" s="53">
+        <f t="shared" si="17"/>
+        <v>112.53664430410394</v>
+      </c>
+      <c r="I135" s="53">
+        <f t="shared" si="18"/>
+        <v>119.47885671024075</v>
+      </c>
+      <c r="J135" s="53">
+        <f t="shared" si="19"/>
+        <v>115.67080538012993</v>
+      </c>
+    </row>
+    <row r="136" spans="5:10">
+      <c r="E136" s="52">
+        <f t="shared" si="14"/>
+        <v>39.160305343511382</v>
+      </c>
+      <c r="F136" s="52">
+        <f t="shared" si="16"/>
+        <v>0.6834762643306026</v>
+      </c>
+      <c r="G136" s="53">
+        <f t="shared" si="15"/>
+        <v>115.50764348284355</v>
+      </c>
+      <c r="H136" s="53">
+        <f t="shared" si="17"/>
+        <v>112.629845351746</v>
+      </c>
+      <c r="I136" s="53">
+        <f t="shared" si="18"/>
+        <v>119.38455435355444</v>
+      </c>
+      <c r="J136" s="53">
+        <f t="shared" si="19"/>
+        <v>115.7873066896825</v>
+      </c>
+    </row>
+    <row r="137" spans="5:10">
+      <c r="E137" s="52">
+        <f t="shared" si="14"/>
+        <v>39.503816793893058</v>
+      </c>
+      <c r="F137" s="52">
+        <f t="shared" si="16"/>
+        <v>0.68947167015806399</v>
+      </c>
+      <c r="G137" s="53">
+        <f t="shared" si="15"/>
+        <v>115.43164417860899</v>
+      </c>
+      <c r="H137" s="53">
+        <f t="shared" si="17"/>
+        <v>112.72259242233294</v>
+      </c>
+      <c r="I137" s="53">
+        <f t="shared" si="18"/>
+        <v>119.28955522326123</v>
+      </c>
+      <c r="J137" s="53">
+        <f t="shared" si="19"/>
+        <v>115.90324052791617</v>
+      </c>
+    </row>
+    <row r="138" spans="5:10">
+      <c r="E138" s="52">
+        <f t="shared" si="14"/>
+        <v>39.847328244274735</v>
+      </c>
+      <c r="F138" s="52">
+        <f t="shared" si="16"/>
+        <v>0.69546707598552537</v>
+      </c>
+      <c r="G138" s="53">
+        <f t="shared" si="15"/>
+        <v>115.35509018726744</v>
+      </c>
+      <c r="H138" s="53">
+        <f t="shared" si="17"/>
+        <v>112.81488218209138</v>
+      </c>
+      <c r="I138" s="53">
+        <f t="shared" si="18"/>
+        <v>119.19386273408429</v>
+      </c>
+      <c r="J138" s="53">
+        <f t="shared" si="19"/>
+        <v>116.01860272761422</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10">
+      <c r="E139" s="52">
+        <f t="shared" si="14"/>
+        <v>40.190839694656404</v>
+      </c>
+      <c r="F139" s="52">
+        <f t="shared" si="16"/>
+        <v>0.70146248181298676</v>
+      </c>
+      <c r="G139" s="53">
+        <f t="shared" si="15"/>
+        <v>115.27798426053553</v>
+      </c>
+      <c r="H139" s="53">
+        <f t="shared" si="17"/>
+        <v>112.90671131368593</v>
+      </c>
+      <c r="I139" s="53">
+        <f t="shared" si="18"/>
+        <v>119.09748032566941</v>
+      </c>
+      <c r="J139" s="53">
+        <f t="shared" si="19"/>
+        <v>116.13338914210742</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10">
+      <c r="E140" s="52">
+        <f t="shared" si="14"/>
+        <v>40.53435114503808</v>
+      </c>
+      <c r="F140" s="52">
+        <f t="shared" si="16"/>
+        <v>0.70745788764044815</v>
+      </c>
+      <c r="G140" s="53">
+        <f t="shared" si="15"/>
+        <v>115.20032916996911</v>
+      </c>
+      <c r="H140" s="53">
+        <f t="shared" si="17"/>
+        <v>112.99807651633834</v>
+      </c>
+      <c r="I140" s="53">
+        <f t="shared" si="18"/>
+        <v>119.00041146246139</v>
+      </c>
+      <c r="J140" s="53">
+        <f t="shared" si="19"/>
+        <v>116.24759564542293</v>
+      </c>
+    </row>
+    <row r="141" spans="5:10">
+      <c r="E141" s="52">
+        <f t="shared" si="14"/>
+        <v>40.877862595419764</v>
+      </c>
+      <c r="F141" s="52">
+        <f t="shared" si="16"/>
+        <v>0.71345329346790953</v>
+      </c>
+      <c r="G141" s="53">
+        <f t="shared" si="15"/>
+        <v>115.12212770686357</v>
+      </c>
+      <c r="H141" s="53">
+        <f t="shared" si="17"/>
+        <v>113.08897450594618</v>
+      </c>
+      <c r="I141" s="53">
+        <f t="shared" si="18"/>
+        <v>118.90265963357946</v>
+      </c>
+      <c r="J141" s="53">
+        <f t="shared" si="19"/>
+        <v>116.36121813243273</v>
+      </c>
+    </row>
+    <row r="142" spans="5:10">
+      <c r="E142" s="52">
+        <f t="shared" si="14"/>
+        <v>41.221374045801433</v>
+      </c>
+      <c r="F142" s="52">
+        <f t="shared" si="16"/>
+        <v>0.71944869929537092</v>
+      </c>
+      <c r="G142" s="53">
+        <f t="shared" si="15"/>
+        <v>115.04338268215356</v>
+      </c>
+      <c r="H142" s="53">
+        <f t="shared" si="17"/>
+        <v>113.17940201520094</v>
+      </c>
+      <c r="I142" s="53">
+        <f t="shared" si="18"/>
+        <v>118.80422835269195</v>
+      </c>
+      <c r="J142" s="53">
+        <f t="shared" si="19"/>
+        <v>116.47425251900115</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10">
+      <c r="E143" s="52">
+        <f t="shared" si="14"/>
+        <v>41.564885496183116</v>
+      </c>
+      <c r="F143" s="52">
+        <f t="shared" si="16"/>
+        <v>0.72544410512283231</v>
+      </c>
+      <c r="G143" s="53">
+        <f t="shared" si="15"/>
+        <v>114.96409692631195</v>
+      </c>
+      <c r="H143" s="53">
+        <f t="shared" si="17"/>
+        <v>113.26935579370533</v>
+      </c>
+      <c r="I143" s="53">
+        <f t="shared" si="18"/>
+        <v>118.70512115788995</v>
+      </c>
+      <c r="J143" s="53">
+        <f t="shared" si="19"/>
+        <v>116.58669474213167</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10">
+      <c r="E144" s="52">
+        <f t="shared" si="14"/>
+        <v>41.908396946564785</v>
+      </c>
+      <c r="F144" s="52">
+        <f t="shared" si="16"/>
+        <v>0.73143951095029369</v>
+      </c>
+      <c r="G144" s="53">
+        <f t="shared" si="15"/>
+        <v>114.88427328924804</v>
+      </c>
+      <c r="H144" s="53">
+        <f t="shared" si="17"/>
+        <v>113.35883260809032</v>
+      </c>
+      <c r="I144" s="53">
+        <f t="shared" si="18"/>
+        <v>118.60534161156005</v>
+      </c>
+      <c r="J144" s="53">
+        <f t="shared" si="19"/>
+        <v>116.69854076011289</v>
+      </c>
+    </row>
+    <row r="145" spans="5:10">
+      <c r="E145" s="52">
+        <f t="shared" si="14"/>
+        <v>42.251908396946469</v>
+      </c>
+      <c r="F145" s="52">
+        <f t="shared" si="16"/>
+        <v>0.73743491677775508</v>
+      </c>
+      <c r="G145" s="53">
+        <f t="shared" si="15"/>
+        <v>114.80391464020519</v>
+      </c>
+      <c r="H145" s="53">
+        <f t="shared" si="17"/>
+        <v>113.44782924213118</v>
+      </c>
+      <c r="I145" s="53">
+        <f t="shared" si="18"/>
+        <v>118.5048933002565</v>
+      </c>
+      <c r="J145" s="53">
+        <f t="shared" si="19"/>
+        <v>116.80978655266397</v>
+      </c>
+    </row>
+    <row r="146" spans="5:10">
+      <c r="E146" s="52">
+        <f t="shared" si="14"/>
+        <v>42.595419847328145</v>
+      </c>
+      <c r="F146" s="52">
+        <f t="shared" si="16"/>
+        <v>0.74343032260521646</v>
+      </c>
+      <c r="G146" s="53">
+        <f t="shared" si="15"/>
+        <v>114.72302386765762</v>
+      </c>
+      <c r="H146" s="53">
+        <f t="shared" si="17"/>
+        <v>113.53634249686317</v>
+      </c>
+      <c r="I146" s="53">
+        <f t="shared" si="18"/>
+        <v>118.40377983457202</v>
+      </c>
+      <c r="J146" s="53">
+        <f t="shared" si="19"/>
+        <v>116.92042812107897</v>
+      </c>
+    </row>
+    <row r="147" spans="5:10">
+      <c r="E147" s="52">
+        <f t="shared" si="14"/>
+        <v>42.938931297709821</v>
+      </c>
+      <c r="F147" s="52">
+        <f t="shared" si="16"/>
+        <v>0.74942572843267785</v>
+      </c>
+      <c r="G147" s="53">
+        <f t="shared" si="15"/>
+        <v>114.64160387920663</v>
+      </c>
+      <c r="H147" s="53">
+        <f t="shared" si="17"/>
+        <v>113.62436919069656</v>
+      </c>
+      <c r="I147" s="53">
+        <f t="shared" si="18"/>
+        <v>118.30200484900828</v>
+      </c>
+      <c r="J147" s="53">
+        <f t="shared" si="19"/>
+        <v>117.03046148837069</v>
+      </c>
+    </row>
+    <row r="148" spans="5:10">
+      <c r="E148" s="52">
+        <f t="shared" si="14"/>
+        <v>43.282442748091498</v>
+      </c>
+      <c r="F148" s="52">
+        <f t="shared" si="16"/>
+        <v>0.75542113426013924</v>
+      </c>
+      <c r="G148" s="53">
+        <f t="shared" si="15"/>
+        <v>114.55965760147606</v>
+      </c>
+      <c r="H148" s="53">
+        <f t="shared" si="17"/>
+        <v>113.71190615953087</v>
+      </c>
+      <c r="I148" s="53">
+        <f t="shared" si="18"/>
+        <v>118.19957200184507</v>
+      </c>
+      <c r="J148" s="53">
+        <f t="shared" si="19"/>
+        <v>117.13988269941358</v>
+      </c>
+    </row>
+    <row r="149" spans="5:10">
+      <c r="E149" s="52">
+        <f t="shared" si="14"/>
+        <v>43.625954198473174</v>
+      </c>
+      <c r="F149" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76141654008760062</v>
+      </c>
+      <c r="G149" s="53">
+        <f t="shared" si="15"/>
+        <v>114.47718798000712</v>
+      </c>
+      <c r="H149" s="53">
+        <f t="shared" si="17"/>
+        <v>113.79895025686872</v>
+      </c>
+      <c r="I149" s="53">
+        <f t="shared" si="18"/>
+        <v>118.09648497500889</v>
+      </c>
+      <c r="J149" s="53">
+        <f t="shared" si="19"/>
+        <v>117.24868782108591</v>
+      </c>
+    </row>
+    <row r="150" spans="5:10">
+      <c r="E150" s="52">
+        <f t="shared" si="14"/>
+        <v>43.96946564885485</v>
+      </c>
+      <c r="F150" s="52">
+        <f t="shared" si="16"/>
+        <v>0.76741194591506201</v>
+      </c>
+      <c r="G150" s="53">
+        <f t="shared" si="15"/>
+        <v>114.39419797915247</v>
+      </c>
+      <c r="H150" s="53">
+        <f t="shared" si="17"/>
+        <v>113.88549835392892</v>
+      </c>
+      <c r="I150" s="53">
+        <f t="shared" si="18"/>
+        <v>117.99274747394058</v>
+      </c>
+      <c r="J150" s="53">
+        <f t="shared" si="19"/>
+        <v>117.35687294241116</v>
+      </c>
+    </row>
+    <row r="151" spans="5:10">
+      <c r="E151" s="52">
+        <f t="shared" ref="E151:E214" si="20">F151*180/PI()</f>
+        <v>44.31297709923652</v>
+      </c>
+      <c r="F151" s="52">
+        <f t="shared" si="16"/>
+        <v>0.7734073517425234</v>
+      </c>
+      <c r="G151" s="53">
+        <f t="shared" si="15"/>
+        <v>114.31069058196974</v>
+      </c>
+      <c r="H151" s="53">
+        <f t="shared" si="17"/>
+        <v>113.97154733975886</v>
+      </c>
+      <c r="I151" s="53">
+        <f t="shared" si="18"/>
+        <v>117.88836322746216</v>
+      </c>
+      <c r="J151" s="53">
+        <f t="shared" si="19"/>
+        <v>117.46443417469857</v>
+      </c>
+    </row>
+    <row r="152" spans="5:10">
+      <c r="E152" s="52">
+        <f t="shared" si="20"/>
+        <v>44.656488549618203</v>
+      </c>
+      <c r="F152" s="52">
+        <f t="shared" si="16"/>
+        <v>0.77940275756998478</v>
+      </c>
+      <c r="G152" s="53">
+        <f t="shared" ref="G152:G215" si="21">100+$E$15*COS(F152)</f>
+        <v>114.2266687901142</v>
+      </c>
+      <c r="H152" s="53">
+        <f t="shared" si="17"/>
+        <v>114.05709412134637</v>
+      </c>
+      <c r="I152" s="53">
+        <f t="shared" si="18"/>
+        <v>117.78333598764274</v>
+      </c>
+      <c r="J152" s="53">
+        <f t="shared" si="19"/>
+        <v>117.57136765168296</v>
+      </c>
+    </row>
+    <row r="153" spans="5:10">
+      <c r="E153" s="52">
+        <f t="shared" si="20"/>
+        <v>44.999999999999886</v>
+      </c>
+      <c r="F153" s="52">
+        <f t="shared" si="16"/>
+        <v>0.78539816339744617</v>
+      </c>
+      <c r="G153" s="53">
+        <f t="shared" si="21"/>
+        <v>114.14213562373098</v>
+      </c>
+      <c r="H153" s="53">
+        <f t="shared" si="17"/>
+        <v>114.14213562373092</v>
+      </c>
+      <c r="I153" s="53">
+        <f t="shared" si="18"/>
+        <v>117.67766952966372</v>
+      </c>
+      <c r="J153" s="53">
+        <f t="shared" si="19"/>
+        <v>117.67766952966365</v>
+      </c>
+    </row>
+    <row r="154" spans="5:10">
+      <c r="E154" s="52">
+        <f t="shared" si="20"/>
+        <v>45.343511450381556</v>
+      </c>
+      <c r="F154" s="52">
+        <f t="shared" ref="F154:F217" si="22">F153+$F$19*2</f>
+        <v>0.79139356922490756</v>
+      </c>
+      <c r="G154" s="53">
+        <f t="shared" si="21"/>
+        <v>114.05709412134642</v>
+      </c>
+      <c r="H154" s="53">
+        <f t="shared" ref="H154:H217" si="23">100+$E$15*SIN(F154)</f>
+        <v>114.22666879011413</v>
+      </c>
+      <c r="I154" s="53">
+        <f t="shared" ref="I154:I217" si="24">100+$E$14*COS(F154)</f>
+        <v>117.57136765168303</v>
+      </c>
+      <c r="J154" s="53">
+        <f t="shared" ref="J154:J217" si="25">100+$E$14*SIN(F154)</f>
+        <v>117.78333598764267</v>
+      </c>
+    </row>
+    <row r="155" spans="5:10">
+      <c r="E155" s="52">
+        <f t="shared" si="20"/>
+        <v>45.687022900763232</v>
+      </c>
+      <c r="F155" s="52">
+        <f t="shared" si="22"/>
+        <v>0.79738897505236894</v>
+      </c>
+      <c r="G155" s="53">
+        <f t="shared" si="21"/>
+        <v>113.97154733975893</v>
+      </c>
+      <c r="H155" s="53">
+        <f t="shared" si="23"/>
+        <v>114.31069058196967</v>
+      </c>
+      <c r="I155" s="53">
+        <f t="shared" si="24"/>
+        <v>117.46443417469865</v>
+      </c>
+      <c r="J155" s="53">
+        <f t="shared" si="25"/>
+        <v>117.88836322746209</v>
+      </c>
+    </row>
+    <row r="156" spans="5:10">
+      <c r="E156" s="52">
+        <f t="shared" si="20"/>
+        <v>46.030534351144908</v>
+      </c>
+      <c r="F156" s="52">
+        <f t="shared" si="22"/>
+        <v>0.80338438087983033</v>
+      </c>
+      <c r="G156" s="53">
+        <f t="shared" si="21"/>
+        <v>113.88549835392899</v>
+      </c>
+      <c r="H156" s="53">
+        <f t="shared" si="23"/>
+        <v>114.39419797915241</v>
+      </c>
+      <c r="I156" s="53">
+        <f t="shared" si="24"/>
+        <v>117.35687294241123</v>
+      </c>
+      <c r="J156" s="53">
+        <f t="shared" si="25"/>
+        <v>117.99274747394051</v>
+      </c>
+    </row>
+    <row r="157" spans="5:10">
+      <c r="E157" s="52">
+        <f t="shared" si="20"/>
+        <v>46.374045801526584</v>
+      </c>
+      <c r="F157" s="52">
+        <f t="shared" si="22"/>
+        <v>0.80937978670729172</v>
+      </c>
+      <c r="G157" s="53">
+        <f t="shared" si="21"/>
+        <v>113.79895025686879</v>
+      </c>
+      <c r="H157" s="53">
+        <f t="shared" si="23"/>
+        <v>114.47718798000706</v>
+      </c>
+      <c r="I157" s="53">
+        <f t="shared" si="24"/>
+        <v>117.24868782108599</v>
+      </c>
+      <c r="J157" s="53">
+        <f t="shared" si="25"/>
+        <v>118.09648497500882</v>
+      </c>
+    </row>
+    <row r="158" spans="5:10">
+      <c r="E158" s="52">
+        <f t="shared" si="20"/>
+        <v>46.717557251908261</v>
+      </c>
+      <c r="F158" s="52">
+        <f t="shared" si="22"/>
+        <v>0.8153751925347531</v>
+      </c>
+      <c r="G158" s="53">
+        <f t="shared" si="21"/>
+        <v>113.71190615953093</v>
+      </c>
+      <c r="H158" s="53">
+        <f t="shared" si="23"/>
+        <v>114.559657601476</v>
+      </c>
+      <c r="I158" s="53">
+        <f t="shared" si="24"/>
+        <v>117.13988269941366</v>
+      </c>
+      <c r="J158" s="53">
+        <f t="shared" si="25"/>
+        <v>118.199572001845</v>
+      </c>
+    </row>
+    <row r="159" spans="5:10">
+      <c r="E159" s="52">
+        <f t="shared" si="20"/>
+        <v>47.061068702289937</v>
+      </c>
+      <c r="F159" s="52">
+        <f t="shared" si="22"/>
+        <v>0.82137059836221449</v>
+      </c>
+      <c r="G159" s="53">
+        <f t="shared" si="21"/>
+        <v>113.62436919069661</v>
+      </c>
+      <c r="H159" s="53">
+        <f t="shared" si="23"/>
+        <v>114.64160387920657</v>
+      </c>
+      <c r="I159" s="53">
+        <f t="shared" si="24"/>
+        <v>117.03046148837078</v>
+      </c>
+      <c r="J159" s="53">
+        <f t="shared" si="25"/>
+        <v>118.30200484900821</v>
+      </c>
+    </row>
+    <row r="160" spans="5:10">
+      <c r="E160" s="52">
+        <f t="shared" si="20"/>
+        <v>47.404580152671613</v>
+      </c>
+      <c r="F160" s="52">
+        <f t="shared" si="22"/>
+        <v>0.82736600418967587</v>
+      </c>
+      <c r="G160" s="53">
+        <f t="shared" si="21"/>
+        <v>113.53634249686324</v>
+      </c>
+      <c r="H160" s="53">
+        <f t="shared" si="23"/>
+        <v>114.72302386765756</v>
+      </c>
+      <c r="I160" s="53">
+        <f t="shared" si="24"/>
+        <v>116.92042812107906</v>
+      </c>
+      <c r="J160" s="53">
+        <f t="shared" si="25"/>
+        <v>118.40377983457195</v>
+      </c>
+    </row>
+    <row r="161" spans="5:10">
+      <c r="E161" s="52">
+        <f t="shared" si="20"/>
+        <v>47.74809160305329</v>
+      </c>
+      <c r="F161" s="52">
+        <f t="shared" si="22"/>
+        <v>0.83336141001713726</v>
+      </c>
+      <c r="G161" s="53">
+        <f t="shared" si="21"/>
+        <v>113.44782924213123</v>
+      </c>
+      <c r="H161" s="53">
+        <f t="shared" si="23"/>
+        <v>114.80391464020514</v>
+      </c>
+      <c r="I161" s="53">
+        <f t="shared" si="24"/>
+        <v>116.80978655266405</v>
+      </c>
+      <c r="J161" s="53">
+        <f t="shared" si="25"/>
+        <v>118.50489330025641</v>
+      </c>
+    </row>
+    <row r="162" spans="5:10">
+      <c r="E162" s="52">
+        <f t="shared" si="20"/>
+        <v>48.091603053434973</v>
+      </c>
+      <c r="F162" s="52">
+        <f t="shared" si="22"/>
+        <v>0.83935681584459865</v>
+      </c>
+      <c r="G162" s="53">
+        <f t="shared" si="21"/>
+        <v>113.35883260809038</v>
+      </c>
+      <c r="H162" s="53">
+        <f t="shared" si="23"/>
+        <v>114.88427328924799</v>
+      </c>
+      <c r="I162" s="53">
+        <f t="shared" si="24"/>
+        <v>116.69854076011298</v>
+      </c>
+      <c r="J162" s="53">
+        <f t="shared" si="25"/>
+        <v>118.60534161155999</v>
+      </c>
+    </row>
+    <row r="163" spans="5:10">
+      <c r="E163" s="52">
+        <f t="shared" si="20"/>
+        <v>48.435114503816642</v>
+      </c>
+      <c r="F163" s="52">
+        <f t="shared" si="22"/>
+        <v>0.84535222167206003</v>
+      </c>
+      <c r="G163" s="53">
+        <f t="shared" si="21"/>
+        <v>113.2693557937054</v>
+      </c>
+      <c r="H163" s="53">
+        <f t="shared" si="23"/>
+        <v>114.9640969263119</v>
+      </c>
+      <c r="I163" s="53">
+        <f t="shared" si="24"/>
+        <v>116.58669474213174</v>
+      </c>
+      <c r="J163" s="53">
+        <f t="shared" si="25"/>
+        <v>118.70512115788986</v>
+      </c>
+    </row>
+    <row r="164" spans="5:10">
+      <c r="E164" s="52">
+        <f t="shared" si="20"/>
+        <v>48.778625954198326</v>
+      </c>
+      <c r="F164" s="52">
+        <f t="shared" si="22"/>
+        <v>0.85134762749952142</v>
+      </c>
+      <c r="G164" s="53">
+        <f t="shared" si="21"/>
+        <v>113.17940201520099</v>
+      </c>
+      <c r="H164" s="53">
+        <f t="shared" si="23"/>
+        <v>115.04338268215351</v>
+      </c>
+      <c r="I164" s="53">
+        <f t="shared" si="24"/>
+        <v>116.47425251900124</v>
+      </c>
+      <c r="J164" s="53">
+        <f t="shared" si="25"/>
+        <v>118.80422835269188</v>
+      </c>
+    </row>
+    <row r="165" spans="5:10">
+      <c r="E165" s="52">
+        <f t="shared" si="20"/>
+        <v>49.122137404579995</v>
+      </c>
+      <c r="F165" s="52">
+        <f t="shared" si="22"/>
+        <v>0.85734303332698281</v>
+      </c>
+      <c r="G165" s="53">
+        <f t="shared" si="21"/>
+        <v>113.08897450594625</v>
+      </c>
+      <c r="H165" s="53">
+        <f t="shared" si="23"/>
+        <v>115.12212770686351</v>
+      </c>
+      <c r="I165" s="53">
+        <f t="shared" si="24"/>
+        <v>116.36121813243281</v>
+      </c>
+      <c r="J165" s="53">
+        <f t="shared" si="25"/>
+        <v>118.90265963357939</v>
+      </c>
+    </row>
+    <row r="166" spans="5:10">
+      <c r="E166" s="52">
+        <f t="shared" si="20"/>
+        <v>49.465648854961678</v>
+      </c>
+      <c r="F166" s="52">
+        <f t="shared" si="22"/>
+        <v>0.86333843915444419</v>
+      </c>
+      <c r="G166" s="53">
+        <f t="shared" si="21"/>
+        <v>112.9980765163384</v>
+      </c>
+      <c r="H166" s="53">
+        <f t="shared" si="23"/>
+        <v>115.20032916996905</v>
+      </c>
+      <c r="I166" s="53">
+        <f t="shared" si="24"/>
+        <v>116.247595645423</v>
+      </c>
+      <c r="J166" s="53">
+        <f t="shared" si="25"/>
+        <v>119.00041146246132</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10">
+      <c r="E167" s="52">
+        <f t="shared" si="20"/>
+        <v>49.809160305343347</v>
+      </c>
+      <c r="F167" s="52">
+        <f t="shared" si="22"/>
+        <v>0.86933384498190558</v>
+      </c>
+      <c r="G167" s="53">
+        <f t="shared" si="21"/>
+        <v>112.906711313686</v>
+      </c>
+      <c r="H167" s="53">
+        <f t="shared" si="23"/>
+        <v>115.27798426053548</v>
+      </c>
+      <c r="I167" s="53">
+        <f t="shared" si="24"/>
+        <v>116.1333891421075</v>
+      </c>
+      <c r="J167" s="53">
+        <f t="shared" si="25"/>
+        <v>119.09748032566935</v>
+      </c>
+    </row>
+    <row r="168" spans="5:10">
+      <c r="E168" s="52">
+        <f t="shared" si="20"/>
+        <v>50.152671755725024</v>
+      </c>
+      <c r="F168" s="52">
+        <f t="shared" si="22"/>
+        <v>0.87532925080936697</v>
+      </c>
+      <c r="G168" s="53">
+        <f t="shared" si="21"/>
+        <v>112.81488218209145</v>
+      </c>
+      <c r="H168" s="53">
+        <f t="shared" si="23"/>
+        <v>115.35509018726738</v>
+      </c>
+      <c r="I168" s="53">
+        <f t="shared" si="24"/>
+        <v>116.01860272761431</v>
+      </c>
+      <c r="J168" s="53">
+        <f t="shared" si="25"/>
+        <v>119.19386273408423</v>
+      </c>
+    </row>
+    <row r="169" spans="5:10">
+      <c r="E169" s="52">
+        <f t="shared" si="20"/>
+        <v>50.496183206106707</v>
+      </c>
+      <c r="F169" s="52">
+        <f t="shared" si="22"/>
+        <v>0.88132465663682835</v>
+      </c>
+      <c r="G169" s="53">
+        <f t="shared" si="21"/>
+        <v>112.72259242233299</v>
+      </c>
+      <c r="H169" s="53">
+        <f t="shared" si="23"/>
+        <v>115.43164417860893</v>
+      </c>
+      <c r="I169" s="53">
+        <f t="shared" si="24"/>
+        <v>115.90324052791625</v>
+      </c>
+      <c r="J169" s="53">
+        <f t="shared" si="25"/>
+        <v>119.28955522326116</v>
+      </c>
+    </row>
+    <row r="170" spans="5:10">
+      <c r="E170" s="52">
+        <f t="shared" si="20"/>
+        <v>50.839694656488376</v>
+      </c>
+      <c r="F170" s="52">
+        <f t="shared" si="22"/>
+        <v>0.88732006246428974</v>
+      </c>
+      <c r="G170" s="53">
+        <f t="shared" si="21"/>
+        <v>112.62984535174607</v>
+      </c>
+      <c r="H170" s="53">
+        <f t="shared" si="23"/>
+        <v>115.50764348284349</v>
+      </c>
+      <c r="I170" s="53">
+        <f t="shared" si="24"/>
+        <v>115.78730668968258</v>
+      </c>
+      <c r="J170" s="53">
+        <f t="shared" si="25"/>
+        <v>119.38455435355436</v>
+      </c>
+    </row>
+    <row r="171" spans="5:10">
+      <c r="E171" s="52">
+        <f t="shared" si="20"/>
+        <v>51.18320610687006</v>
+      </c>
+      <c r="F171" s="52">
+        <f t="shared" si="22"/>
+        <v>0.89331546829175112</v>
+      </c>
+      <c r="G171" s="53">
+        <f t="shared" si="21"/>
+        <v>112.53664430410402</v>
+      </c>
+      <c r="H171" s="53">
+        <f t="shared" si="23"/>
+        <v>115.58308536819254</v>
+      </c>
+      <c r="I171" s="53">
+        <f t="shared" si="24"/>
+        <v>115.67080538013002</v>
+      </c>
+      <c r="J171" s="53">
+        <f t="shared" si="25"/>
+        <v>119.47885671024068</v>
+      </c>
+    </row>
+    <row r="172" spans="5:10">
+      <c r="E172" s="52">
+        <f t="shared" si="20"/>
+        <v>51.526717557251729</v>
+      </c>
+      <c r="F172" s="52">
+        <f t="shared" si="22"/>
+        <v>0.89931087411921251</v>
+      </c>
+      <c r="G172" s="53">
+        <f t="shared" si="21"/>
+        <v>112.44299262949831</v>
+      </c>
+      <c r="H172" s="53">
+        <f t="shared" si="23"/>
+        <v>115.65796712291385</v>
+      </c>
+      <c r="I172" s="53">
+        <f t="shared" si="24"/>
+        <v>115.55374078687288</v>
+      </c>
+      <c r="J172" s="53">
+        <f t="shared" si="25"/>
+        <v>119.57245890364231</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10">
+      <c r="E173" s="52">
+        <f t="shared" si="20"/>
+        <v>51.870229007633412</v>
+      </c>
+      <c r="F173" s="52">
+        <f t="shared" si="22"/>
+        <v>0.9053062799466739</v>
+      </c>
+      <c r="G173" s="53">
+        <f t="shared" si="21"/>
+        <v>112.34889369421809</v>
+      </c>
+      <c r="H173" s="53">
+        <f t="shared" si="23"/>
+        <v>115.73228605539896</v>
+      </c>
+      <c r="I173" s="53">
+        <f t="shared" si="24"/>
+        <v>115.43611711777262</v>
+      </c>
+      <c r="J173" s="53">
+        <f t="shared" si="25"/>
+        <v>119.6653575692487</v>
+      </c>
+    </row>
+    <row r="174" spans="5:10">
+      <c r="E174" s="52">
+        <f t="shared" si="20"/>
+        <v>52.213740458015081</v>
+      </c>
+      <c r="F174" s="52">
+        <f t="shared" si="22"/>
+        <v>0.91130168577413528</v>
+      </c>
+      <c r="G174" s="53">
+        <f t="shared" si="21"/>
+        <v>112.25435088062923</v>
+      </c>
+      <c r="H174" s="53">
+        <f t="shared" si="23"/>
+        <v>115.80603949426995</v>
+      </c>
+      <c r="I174" s="53">
+        <f t="shared" si="24"/>
+        <v>115.31793860078655</v>
+      </c>
+      <c r="J174" s="53">
+        <f t="shared" si="25"/>
+        <v>119.75754936783744</v>
+      </c>
+    </row>
+    <row r="175" spans="5:10">
+      <c r="E175" s="52">
+        <f t="shared" si="20"/>
+        <v>52.557251908396765</v>
+      </c>
+      <c r="F175" s="52">
+        <f t="shared" si="22"/>
+        <v>0.91729709160159667</v>
+      </c>
+      <c r="G175" s="53">
+        <f t="shared" si="21"/>
+        <v>112.15936758705267</v>
+      </c>
+      <c r="H175" s="53">
+        <f t="shared" si="23"/>
+        <v>115.87922478847544</v>
+      </c>
+      <c r="I175" s="53">
+        <f t="shared" si="24"/>
+        <v>115.19920948381585</v>
+      </c>
+      <c r="J175" s="53">
+        <f t="shared" si="25"/>
+        <v>119.8490309855943</v>
+      </c>
+    </row>
+    <row r="176" spans="5:10">
+      <c r="E176" s="52">
+        <f t="shared" si="20"/>
+        <v>52.900763358778434</v>
+      </c>
+      <c r="F176" s="52">
+        <f t="shared" si="22"/>
+        <v>0.92329249742905806</v>
+      </c>
+      <c r="G176" s="53">
+        <f t="shared" si="21"/>
+        <v>112.06394722764233</v>
+      </c>
+      <c r="H176" s="53">
+        <f t="shared" si="23"/>
+        <v>115.95183930738588</v>
+      </c>
+      <c r="I176" s="53">
+        <f t="shared" si="24"/>
+        <v>115.07993403455291</v>
+      </c>
+      <c r="J176" s="53">
+        <f t="shared" si="25"/>
+        <v>119.93979913423235</v>
+      </c>
+    </row>
+    <row r="177" spans="5:10">
+      <c r="E177" s="52">
+        <f t="shared" si="20"/>
+        <v>53.244274809160117</v>
+      </c>
+      <c r="F177" s="52">
+        <f t="shared" si="22"/>
+        <v>0.92928790325651944</v>
+      </c>
+      <c r="G177" s="53">
+        <f t="shared" si="21"/>
+        <v>111.96809323226233</v>
+      </c>
+      <c r="H177" s="53">
+        <f t="shared" si="23"/>
+        <v>116.02388044088812</v>
+      </c>
+      <c r="I177" s="53">
+        <f t="shared" si="24"/>
+        <v>114.96011654032792</v>
+      </c>
+      <c r="J177" s="53">
+        <f t="shared" si="25"/>
+        <v>120.02985055111014</v>
+      </c>
+    </row>
+    <row r="178" spans="5:10">
+      <c r="E178" s="52">
+        <f t="shared" si="20"/>
+        <v>53.587786259541794</v>
+      </c>
+      <c r="F178" s="52">
+        <f t="shared" si="22"/>
+        <v>0.93528330908398083</v>
+      </c>
+      <c r="G178" s="53">
+        <f t="shared" si="21"/>
+        <v>111.87180904636379</v>
+      </c>
+      <c r="H178" s="53">
+        <f t="shared" si="23"/>
+        <v>116.09534559947922</v>
+      </c>
+      <c r="I178" s="53">
+        <f t="shared" si="24"/>
+        <v>114.83976130795475</v>
+      </c>
+      <c r="J178" s="53">
+        <f t="shared" si="25"/>
+        <v>120.11918199934901</v>
+      </c>
+    </row>
+    <row r="179" spans="5:10">
+      <c r="E179" s="52">
+        <f t="shared" si="20"/>
+        <v>53.931297709923463</v>
+      </c>
+      <c r="F179" s="52">
+        <f t="shared" si="22"/>
+        <v>0.94127871491144222</v>
+      </c>
+      <c r="G179" s="53">
+        <f t="shared" si="21"/>
+        <v>111.77509813086091</v>
+      </c>
+      <c r="H179" s="53">
+        <f t="shared" si="23"/>
+        <v>116.16623221435952</v>
+      </c>
+      <c r="I179" s="53">
+        <f t="shared" si="24"/>
+        <v>114.71887266357615</v>
+      </c>
+      <c r="J179" s="53">
+        <f t="shared" si="25"/>
+        <v>120.20779026794941</v>
+      </c>
+    </row>
+    <row r="180" spans="5:10">
+      <c r="E180" s="52">
+        <f t="shared" si="20"/>
+        <v>54.274809160305146</v>
+      </c>
+      <c r="F180" s="52">
+        <f t="shared" si="22"/>
+        <v>0.9472741207389036</v>
+      </c>
+      <c r="G180" s="53">
+        <f t="shared" si="21"/>
+        <v>111.6779639620066</v>
+      </c>
+      <c r="H180" s="53">
+        <f t="shared" si="23"/>
+        <v>116.23653773752505</v>
+      </c>
+      <c r="I180" s="53">
+        <f t="shared" si="24"/>
+        <v>114.59745495250826</v>
+      </c>
+      <c r="J180" s="53">
+        <f t="shared" si="25"/>
+        <v>120.29567217190632</v>
+      </c>
+    </row>
+    <row r="181" spans="5:10">
+      <c r="E181" s="52">
+        <f t="shared" si="20"/>
+        <v>54.618320610686816</v>
+      </c>
+      <c r="F181" s="52">
+        <f t="shared" si="22"/>
+        <v>0.95326952656636499</v>
+      </c>
+      <c r="G181" s="53">
+        <f t="shared" si="21"/>
+        <v>111.58041003126752</v>
+      </c>
+      <c r="H181" s="53">
+        <f t="shared" si="23"/>
+        <v>116.30625964185897</v>
+      </c>
+      <c r="I181" s="53">
+        <f t="shared" si="24"/>
+        <v>114.47551253908441</v>
+      </c>
+      <c r="J181" s="53">
+        <f t="shared" si="25"/>
+        <v>120.38282455232371</v>
+      </c>
+    </row>
+    <row r="182" spans="5:10">
+      <c r="E182" s="52">
+        <f t="shared" si="20"/>
+        <v>54.961832061068499</v>
+      </c>
+      <c r="F182" s="52">
+        <f t="shared" si="22"/>
+        <v>0.95926493239382638</v>
+      </c>
+      <c r="G182" s="53">
+        <f t="shared" si="21"/>
+        <v>111.48243984519857</v>
+      </c>
+      <c r="H182" s="53">
+        <f t="shared" si="23"/>
+        <v>116.37539542122255</v>
+      </c>
+      <c r="I182" s="53">
+        <f t="shared" si="24"/>
+        <v>114.35304980649821</v>
+      </c>
+      <c r="J182" s="53">
+        <f t="shared" si="25"/>
+        <v>120.46924427652819</v>
+      </c>
+    </row>
+    <row r="183" spans="5:10">
+      <c r="E183" s="52">
+        <f t="shared" si="20"/>
+        <v>55.305343511450168</v>
+      </c>
+      <c r="F183" s="52">
+        <f t="shared" si="22"/>
+        <v>0.96526033822128776</v>
+      </c>
+      <c r="G183" s="53">
+        <f t="shared" si="21"/>
+        <v>111.38405692531686</v>
+      </c>
+      <c r="H183" s="53">
+        <f t="shared" si="23"/>
+        <v>116.44394259054516</v>
+      </c>
+      <c r="I183" s="53">
+        <f t="shared" si="24"/>
+        <v>114.23007115664606</v>
+      </c>
+      <c r="J183" s="53">
+        <f t="shared" si="25"/>
+        <v>120.55492823818146</v>
+      </c>
+    </row>
+    <row r="184" spans="5:10">
+      <c r="E184" s="52">
+        <f t="shared" si="20"/>
+        <v>55.648854961831852</v>
+      </c>
+      <c r="F184" s="52">
+        <f t="shared" si="22"/>
+        <v>0.97125574404874915</v>
+      </c>
+      <c r="G184" s="53">
+        <f t="shared" si="21"/>
+        <v>111.28526480797512</v>
+      </c>
+      <c r="H184" s="53">
+        <f t="shared" si="23"/>
+        <v>116.51189868591368</v>
+      </c>
+      <c r="I184" s="53">
+        <f t="shared" si="24"/>
+        <v>114.10658100996892</v>
+      </c>
+      <c r="J184" s="53">
+        <f t="shared" si="25"/>
+        <v>120.6398733573921</v>
+      </c>
+    </row>
+    <row r="185" spans="5:10">
+      <c r="E185" s="52">
+        <f t="shared" si="20"/>
+        <v>55.992366412213528</v>
+      </c>
+      <c r="F185" s="52">
+        <f t="shared" si="22"/>
+        <v>0.97725114987621053</v>
+      </c>
+      <c r="G185" s="53">
+        <f t="shared" si="21"/>
+        <v>111.18606704423465</v>
+      </c>
+      <c r="H185" s="53">
+        <f t="shared" si="23"/>
+        <v>116.57926126466097</v>
+      </c>
+      <c r="I185" s="53">
+        <f t="shared" si="24"/>
+        <v>113.98258380529332</v>
+      </c>
+      <c r="J185" s="53">
+        <f t="shared" si="25"/>
+        <v>120.72407658082621</v>
+      </c>
+    </row>
+    <row r="186" spans="5:10">
+      <c r="E186" s="52">
+        <f t="shared" si="20"/>
+        <v>56.335877862595204</v>
+      </c>
+      <c r="F186" s="52">
+        <f t="shared" si="22"/>
+        <v>0.98324655570367192</v>
+      </c>
+      <c r="G186" s="53">
+        <f t="shared" si="21"/>
+        <v>111.08646719973754</v>
+      </c>
+      <c r="H186" s="53">
+        <f t="shared" si="23"/>
+        <v>116.64602790545371</v>
+      </c>
+      <c r="I186" s="53">
+        <f t="shared" si="24"/>
+        <v>113.85808399967193</v>
+      </c>
+      <c r="J186" s="53">
+        <f t="shared" si="25"/>
+        <v>120.80753488181713</v>
+      </c>
+    </row>
+    <row r="187" spans="5:10">
+      <c r="E187" s="52">
+        <f t="shared" si="20"/>
+        <v>56.67938931297688</v>
+      </c>
+      <c r="F187" s="52">
+        <f t="shared" si="22"/>
+        <v>0.98924196153113331</v>
+      </c>
+      <c r="G187" s="53">
+        <f t="shared" si="21"/>
+        <v>110.98646885457865</v>
+      </c>
+      <c r="H187" s="53">
+        <f t="shared" si="23"/>
+        <v>116.71219620837948</v>
+      </c>
+      <c r="I187" s="53">
+        <f t="shared" si="24"/>
+        <v>113.73308606822332</v>
+      </c>
+      <c r="J187" s="53">
+        <f t="shared" si="25"/>
+        <v>120.89024526047434</v>
+      </c>
+    </row>
+    <row r="188" spans="5:10">
+      <c r="E188" s="52">
+        <f t="shared" si="20"/>
+        <v>57.022900763358557</v>
+      </c>
+      <c r="F188" s="52">
+        <f t="shared" si="22"/>
+        <v>0.99523736735859469</v>
+      </c>
+      <c r="G188" s="53">
+        <f t="shared" si="21"/>
+        <v>110.88607560317681</v>
+      </c>
+      <c r="H188" s="53">
+        <f t="shared" si="23"/>
+        <v>116.77776379503295</v>
+      </c>
+      <c r="I188" s="53">
+        <f t="shared" si="24"/>
+        <v>113.607594503971</v>
+      </c>
+      <c r="J188" s="53">
+        <f t="shared" si="25"/>
+        <v>120.9722047437912</v>
+      </c>
+    </row>
+    <row r="189" spans="5:10">
+      <c r="E189" s="52">
+        <f t="shared" si="20"/>
+        <v>57.366412213740233</v>
+      </c>
+      <c r="F189" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0012327731860562</v>
+      </c>
+      <c r="G189" s="53">
+        <f t="shared" si="21"/>
+        <v>110.78529105414569</v>
+      </c>
+      <c r="H189" s="53">
+        <f t="shared" si="23"/>
+        <v>116.84272830860145</v>
+      </c>
+      <c r="I189" s="53">
+        <f t="shared" si="24"/>
+        <v>113.48161381768212</v>
+      </c>
+      <c r="J189" s="53">
+        <f t="shared" si="25"/>
+        <v>121.05341038575182</v>
+      </c>
+    </row>
+    <row r="190" spans="5:10">
+      <c r="E190" s="52">
+        <f t="shared" si="20"/>
+        <v>57.709923664121916</v>
+      </c>
+      <c r="F190" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0072281790135176</v>
+      </c>
+      <c r="G190" s="53">
+        <f t="shared" si="21"/>
+        <v>110.6841188301641</v>
+      </c>
+      <c r="H190" s="53">
+        <f t="shared" si="23"/>
+        <v>116.9070874139496</v>
+      </c>
+      <c r="I190" s="53">
+        <f t="shared" si="24"/>
+        <v>113.35514853770513</v>
+      </c>
+      <c r="J190" s="53">
+        <f t="shared" si="25"/>
+        <v>121.133859267437</v>
+      </c>
+    </row>
+    <row r="191" spans="5:10">
+      <c r="E191" s="52">
+        <f t="shared" si="20"/>
+        <v>58.053435114503593</v>
+      </c>
+      <c r="F191" s="52">
+        <f t="shared" si="22"/>
+        <v>1.013223584840979</v>
+      </c>
+      <c r="G191" s="53">
+        <f t="shared" si="21"/>
+        <v>110.5825625678457</v>
+      </c>
+      <c r="H191" s="53">
+        <f t="shared" si="23"/>
+        <v>116.97083879770329</v>
+      </c>
+      <c r="I191" s="53">
+        <f t="shared" si="24"/>
+        <v>113.22820320980712</v>
+      </c>
+      <c r="J191" s="53">
+        <f t="shared" si="25"/>
+        <v>121.21354849712911</v>
+      </c>
+    </row>
+    <row r="192" spans="5:10">
+      <c r="E192" s="52">
+        <f t="shared" si="20"/>
+        <v>58.396946564885269</v>
+      </c>
+      <c r="F192" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0192189906684403</v>
+      </c>
+      <c r="G192" s="53">
+        <f t="shared" si="21"/>
+        <v>110.48062591760832</v>
+      </c>
+      <c r="H192" s="53">
+        <f t="shared" si="23"/>
+        <v>117.03398016833285</v>
+      </c>
+      <c r="I192" s="53">
+        <f t="shared" si="24"/>
+        <v>113.10078239701041</v>
+      </c>
+      <c r="J192" s="53">
+        <f t="shared" si="25"/>
+        <v>121.29247521041606</v>
+      </c>
+    </row>
+    <row r="193" spans="5:10">
+      <c r="E193" s="52">
+        <f t="shared" si="20"/>
+        <v>58.740458015266945</v>
+      </c>
+      <c r="F193" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0252143964959017</v>
+      </c>
+      <c r="G193" s="53">
+        <f t="shared" si="21"/>
+        <v>110.3783125435428</v>
+      </c>
+      <c r="H193" s="53">
+        <f t="shared" si="23"/>
+        <v>117.09650925623538</v>
+      </c>
+      <c r="I193" s="53">
+        <f t="shared" si="24"/>
+        <v>112.9728906794285</v>
+      </c>
+      <c r="J193" s="53">
+        <f t="shared" si="25"/>
+        <v>121.37063657029424</v>
+      </c>
+    </row>
+    <row r="194" spans="5:10">
+      <c r="E194" s="52">
+        <f t="shared" si="20"/>
+        <v>59.083969465648622</v>
+      </c>
+      <c r="F194" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0312098023233631</v>
+      </c>
+      <c r="G194" s="53">
+        <f t="shared" si="21"/>
+        <v>110.2756261232812</v>
+      </c>
+      <c r="H194" s="53">
+        <f t="shared" si="23"/>
+        <v>117.15842381381638</v>
+      </c>
+      <c r="I194" s="53">
+        <f t="shared" si="24"/>
+        <v>112.84453265410149</v>
+      </c>
+      <c r="J194" s="53">
+        <f t="shared" si="25"/>
+        <v>121.44802976727048</v>
+      </c>
+    </row>
+    <row r="195" spans="5:10">
+      <c r="E195" s="52">
+        <f t="shared" si="20"/>
+        <v>59.427480916030298</v>
+      </c>
+      <c r="F195" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0372052081508245</v>
+      </c>
+      <c r="G195" s="53">
+        <f t="shared" si="21"/>
+        <v>110.17257034786462</v>
+      </c>
+      <c r="H195" s="53">
+        <f t="shared" si="23"/>
+        <v>117.21972161557048</v>
+      </c>
+      <c r="I195" s="53">
+        <f t="shared" si="24"/>
+        <v>112.71571293483078</v>
+      </c>
+      <c r="J195" s="53">
+        <f t="shared" si="25"/>
+        <v>121.5246520194631</v>
+      </c>
+    </row>
+    <row r="196" spans="5:10">
+      <c r="E196" s="52">
+        <f t="shared" si="20"/>
+        <v>59.770992366411967</v>
+      </c>
+      <c r="F196" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0432006139782859</v>
+      </c>
+      <c r="G196" s="53">
+        <f t="shared" si="21"/>
+        <v>110.06914892161062</v>
+      </c>
+      <c r="H196" s="53">
+        <f t="shared" si="23"/>
+        <v>117.28040045816148</v>
+      </c>
+      <c r="I196" s="53">
+        <f t="shared" si="24"/>
+        <v>112.58643615201328</v>
+      </c>
+      <c r="J196" s="53">
+        <f t="shared" si="25"/>
+        <v>121.60050057270186</v>
+      </c>
+    </row>
+    <row r="197" spans="5:10">
+      <c r="E197" s="52">
+        <f t="shared" si="20"/>
+        <v>60.114503816793651</v>
+      </c>
+      <c r="F197" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0491960198057473</v>
+      </c>
+      <c r="G197" s="53">
+        <f t="shared" si="21"/>
+        <v>109.96536556197995</v>
+      </c>
+      <c r="H197" s="53">
+        <f t="shared" si="23"/>
+        <v>117.34045816050153</v>
+      </c>
+      <c r="I197" s="53">
+        <f t="shared" si="24"/>
+        <v>112.45670695247495</v>
+      </c>
+      <c r="J197" s="53">
+        <f t="shared" si="25"/>
+        <v>121.67557270062692</v>
+      </c>
+    </row>
+    <row r="198" spans="5:10">
+      <c r="E198" s="52">
+        <f t="shared" si="20"/>
+        <v>60.458015267175334</v>
+      </c>
+      <c r="F198" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0551914256332087</v>
+      </c>
+      <c r="G198" s="53">
+        <f t="shared" si="21"/>
+        <v>109.86122399944298</v>
+      </c>
+      <c r="H198" s="53">
+        <f t="shared" si="23"/>
+        <v>117.39989256382952</v>
+      </c>
+      <c r="I198" s="53">
+        <f t="shared" si="24"/>
+        <v>112.32652999930373</v>
+      </c>
+      <c r="J198" s="53">
+        <f t="shared" si="25"/>
+        <v>121.7498657047869</v>
+      </c>
+    </row>
+    <row r="199" spans="5:10">
+      <c r="E199" s="52">
+        <f t="shared" si="20"/>
+        <v>60.801526717557003</v>
+      </c>
+      <c r="F199" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0611868314606701</v>
+      </c>
+      <c r="G199" s="53">
+        <f t="shared" si="21"/>
+        <v>109.75672797734563</v>
+      </c>
+      <c r="H199" s="53">
+        <f t="shared" si="23"/>
+        <v>117.45870153178871</v>
+      </c>
+      <c r="I199" s="53">
+        <f t="shared" si="24"/>
+        <v>112.19590997168203</v>
+      </c>
+      <c r="J199" s="53">
+        <f t="shared" si="25"/>
+        <v>121.82337691473587</v>
+      </c>
+    </row>
+    <row r="200" spans="5:10">
+      <c r="E200" s="52">
+        <f t="shared" si="20"/>
+        <v>61.145038167938687</v>
+      </c>
+      <c r="F200" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0671822372881314</v>
+      </c>
+      <c r="G200" s="53">
+        <f t="shared" si="21"/>
+        <v>109.65188125177477</v>
+      </c>
+      <c r="H200" s="53">
+        <f t="shared" si="23"/>
+        <v>117.51688295050346</v>
+      </c>
+      <c r="I200" s="53">
+        <f t="shared" si="24"/>
+        <v>112.06485156471845</v>
+      </c>
+      <c r="J200" s="53">
+        <f t="shared" si="25"/>
+        <v>121.89610368812933</v>
+      </c>
+    </row>
+    <row r="201" spans="5:10">
+      <c r="E201" s="52">
+        <f t="shared" si="20"/>
+        <v>61.488549618320356</v>
+      </c>
+      <c r="F201" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0731776431155928</v>
+      </c>
+      <c r="G201" s="53">
+        <f t="shared" si="21"/>
+        <v>109.54668759142322</v>
+      </c>
+      <c r="H201" s="53">
+        <f t="shared" si="23"/>
+        <v>117.57443472865532</v>
+      </c>
+      <c r="I201" s="53">
+        <f t="shared" si="24"/>
+        <v>111.93335948927903</v>
+      </c>
+      <c r="J201" s="53">
+        <f t="shared" si="25"/>
+        <v>121.96804341081915</v>
+      </c>
+    </row>
+    <row r="202" spans="5:10">
+      <c r="E202" s="52">
+        <f t="shared" si="20"/>
+        <v>61.832061068702032</v>
+      </c>
+      <c r="F202" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0791730489430542</v>
+      </c>
+      <c r="G202" s="53">
+        <f t="shared" si="21"/>
+        <v>109.44115077745434</v>
+      </c>
+      <c r="H202" s="53">
+        <f t="shared" si="23"/>
+        <v>117.63135479755806</v>
+      </c>
+      <c r="I202" s="53">
+        <f t="shared" si="24"/>
+        <v>111.80143847181793</v>
+      </c>
+      <c r="J202" s="53">
+        <f t="shared" si="25"/>
+        <v>122.03919349694756</v>
+      </c>
+    </row>
+    <row r="203" spans="5:10">
+      <c r="E203" s="52">
+        <f t="shared" si="20"/>
+        <v>62.175572519083708</v>
+      </c>
+      <c r="F203" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0851684547705156</v>
+      </c>
+      <c r="G203" s="53">
+        <f t="shared" si="21"/>
+        <v>109.33527460336603</v>
+      </c>
+      <c r="H203" s="53">
+        <f t="shared" si="23"/>
+        <v>117.68764111123214</v>
+      </c>
+      <c r="I203" s="53">
+        <f t="shared" si="24"/>
+        <v>111.66909325420754</v>
+      </c>
+      <c r="J203" s="53">
+        <f t="shared" si="25"/>
+        <v>122.10955138904018</v>
+      </c>
+    </row>
+    <row r="204" spans="5:10">
+      <c r="E204" s="52">
+        <f t="shared" si="20"/>
+        <v>62.519083969465385</v>
+      </c>
+      <c r="F204" s="52">
+        <f t="shared" si="22"/>
+        <v>1.091163860597977</v>
+      </c>
+      <c r="G204" s="53">
+        <f t="shared" si="21"/>
+        <v>109.22906287485443</v>
+      </c>
+      <c r="H204" s="53">
+        <f t="shared" si="23"/>
+        <v>117.74329164647821</v>
+      </c>
+      <c r="I204" s="53">
+        <f t="shared" si="24"/>
+        <v>111.53632859356804</v>
+      </c>
+      <c r="J204" s="53">
+        <f t="shared" si="25"/>
+        <v>122.17911455809777</v>
+      </c>
+    </row>
+    <row r="205" spans="5:10">
+      <c r="E205" s="52">
+        <f t="shared" si="20"/>
+        <v>62.862595419847061</v>
+      </c>
+      <c r="F205" s="52">
+        <f t="shared" si="22"/>
+        <v>1.0971592664254384</v>
+      </c>
+      <c r="G205" s="53">
+        <f t="shared" si="21"/>
+        <v>109.12251940967714</v>
+      </c>
+      <c r="H205" s="53">
+        <f t="shared" si="23"/>
+        <v>117.79830440294984</v>
+      </c>
+      <c r="I205" s="53">
+        <f t="shared" si="24"/>
+        <v>111.40314926209642</v>
+      </c>
+      <c r="J205" s="53">
+        <f t="shared" si="25"/>
+        <v>122.24788050368731</v>
+      </c>
+    </row>
+    <row r="206" spans="5:10">
+      <c r="E206" s="52">
+        <f t="shared" si="20"/>
+        <v>63.206106870228737</v>
+      </c>
+      <c r="F206" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1031546722528998</v>
+      </c>
+      <c r="G206" s="53">
+        <f t="shared" si="21"/>
+        <v>109.01564803751589</v>
+      </c>
+      <c r="H206" s="53">
+        <f t="shared" si="23"/>
+        <v>117.85267740322543</v>
+      </c>
+      <c r="I206" s="53">
+        <f t="shared" si="24"/>
+        <v>111.26956004689487</v>
+      </c>
+      <c r="J206" s="53">
+        <f t="shared" si="25"/>
+        <v>122.31584675403178</v>
+      </c>
+    </row>
+    <row r="207" spans="5:10">
+      <c r="E207" s="52">
+        <f t="shared" si="20"/>
+        <v>63.549618320610421</v>
+      </c>
+      <c r="F207" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1091500780803611</v>
+      </c>
+      <c r="G207" s="53">
+        <f t="shared" si="21"/>
+        <v>108.90845259983904</v>
+      </c>
+      <c r="H207" s="53">
+        <f t="shared" si="23"/>
+        <v>117.90640869287924</v>
+      </c>
+      <c r="I207" s="53">
+        <f t="shared" si="24"/>
+        <v>111.13556574979879</v>
+      </c>
+      <c r="J207" s="53">
+        <f t="shared" si="25"/>
+        <v>122.38301086609906</v>
+      </c>
+    </row>
+    <row r="208" spans="5:10">
+      <c r="E208" s="52">
+        <f t="shared" si="20"/>
+        <v>63.89312977099209</v>
+      </c>
+      <c r="F208" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1151454839078225</v>
+      </c>
+      <c r="G208" s="53">
+        <f t="shared" si="21"/>
+        <v>108.80093694976334</v>
+      </c>
+      <c r="H208" s="53">
+        <f t="shared" si="23"/>
+        <v>117.95949634055171</v>
+      </c>
+      <c r="I208" s="53">
+        <f t="shared" si="24"/>
+        <v>111.00117118720418</v>
+      </c>
+      <c r="J208" s="53">
+        <f t="shared" si="25"/>
+        <v>122.44937042568964</v>
+      </c>
+    </row>
+    <row r="209" spans="5:10">
+      <c r="E209" s="52">
+        <f t="shared" si="20"/>
+        <v>64.236641221373773</v>
+      </c>
+      <c r="F209" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1211408897352839</v>
+      </c>
+      <c r="G209" s="53">
+        <f t="shared" si="21"/>
+        <v>108.69310495191557</v>
+      </c>
+      <c r="H209" s="53">
+        <f t="shared" si="23"/>
+        <v>118.01193843801886</v>
+      </c>
+      <c r="I209" s="53">
+        <f t="shared" si="24"/>
+        <v>110.86638118989447</v>
+      </c>
+      <c r="J209" s="53">
+        <f t="shared" si="25"/>
+        <v>122.51492304752357</v>
+      </c>
+    </row>
+    <row r="210" spans="5:10">
+      <c r="E210" s="52">
+        <f t="shared" si="20"/>
+        <v>64.580152671755442</v>
+      </c>
+      <c r="F210" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1271362955627453</v>
+      </c>
+      <c r="G210" s="53">
+        <f t="shared" si="21"/>
+        <v>108.58496048229352</v>
+      </c>
+      <c r="H210" s="53">
+        <f t="shared" si="23"/>
+        <v>118.06373310026083</v>
+      </c>
+      <c r="I210" s="53">
+        <f t="shared" si="24"/>
+        <v>110.73120060286689</v>
+      </c>
+      <c r="J210" s="53">
+        <f t="shared" si="25"/>
+        <v>122.57966637532604</v>
+      </c>
+    </row>
+    <row r="211" spans="5:10">
+      <c r="E211" s="52">
+        <f t="shared" si="20"/>
+        <v>64.923664122137126</v>
+      </c>
+      <c r="F211" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1331317013902067</v>
+      </c>
+      <c r="G211" s="53">
+        <f t="shared" si="21"/>
+        <v>108.47650742812672</v>
+      </c>
+      <c r="H211" s="53">
+        <f t="shared" si="23"/>
+        <v>118.11487846552973</v>
+      </c>
+      <c r="I211" s="53">
+        <f t="shared" si="24"/>
+        <v>110.5956342851584</v>
+      </c>
+      <c r="J211" s="53">
+        <f t="shared" si="25"/>
+        <v>122.64359808191216</v>
+      </c>
+    </row>
+    <row r="212" spans="5:10">
+      <c r="E212" s="52">
+        <f t="shared" si="20"/>
+        <v>65.267175572518795</v>
+      </c>
+      <c r="F212" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1391271072176681</v>
+      </c>
+      <c r="G212" s="53">
+        <f t="shared" si="21"/>
+        <v>108.36774968773672</v>
+      </c>
+      <c r="H212" s="53">
+        <f t="shared" si="23"/>
+        <v>118.16537269541647</v>
+      </c>
+      <c r="I212" s="53">
+        <f t="shared" si="24"/>
+        <v>110.4596871096709</v>
+      </c>
+      <c r="J212" s="53">
+        <f t="shared" si="25"/>
+        <v>122.70671586927058</v>
+      </c>
+    </row>
+    <row r="213" spans="5:10">
+      <c r="E213" s="52">
+        <f t="shared" si="20"/>
+        <v>65.610687022900478</v>
+      </c>
+      <c r="F213" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1451225130451295</v>
+      </c>
+      <c r="G213" s="53">
+        <f t="shared" si="21"/>
+        <v>108.25869117039692</v>
+      </c>
+      <c r="H213" s="53">
+        <f t="shared" si="23"/>
+        <v>118.21521397491691</v>
+      </c>
+      <c r="I213" s="53">
+        <f t="shared" si="24"/>
+        <v>110.32336396299615</v>
+      </c>
+      <c r="J213" s="53">
+        <f t="shared" si="25"/>
+        <v>122.76901746864613</v>
+      </c>
+    </row>
+    <row r="214" spans="5:10">
+      <c r="E214" s="52">
+        <f t="shared" si="20"/>
+        <v>65.954198473282162</v>
+      </c>
+      <c r="F214" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1511179188725909</v>
+      </c>
+      <c r="G214" s="53">
+        <f t="shared" si="21"/>
+        <v>108.1493357961921</v>
+      </c>
+      <c r="H214" s="53">
+        <f t="shared" si="23"/>
+        <v>118.26440051249703</v>
+      </c>
+      <c r="I214" s="53">
+        <f t="shared" si="24"/>
+        <v>110.18666974524014</v>
+      </c>
+      <c r="J214" s="53">
+        <f t="shared" si="25"/>
+        <v>122.8305006406213</v>
+      </c>
+    </row>
+    <row r="215" spans="5:10">
+      <c r="E215" s="52">
+        <f t="shared" ref="E215:E278" si="26">F215*180/PI()</f>
+        <v>66.297709923663831</v>
+      </c>
+      <c r="F215" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1571133247000522</v>
+      </c>
+      <c r="G215" s="53">
+        <f t="shared" si="21"/>
+        <v>108.03968749587753</v>
+      </c>
+      <c r="H215" s="53">
+        <f t="shared" si="23"/>
+        <v>118.31293054015742</v>
+      </c>
+      <c r="I215" s="53">
+        <f t="shared" si="24"/>
+        <v>110.04960936984691</v>
+      </c>
+      <c r="J215" s="53">
+        <f t="shared" si="25"/>
+        <v>122.89116317519678</v>
+      </c>
+    </row>
+    <row r="216" spans="5:10">
+      <c r="E216" s="52">
+        <f t="shared" si="26"/>
+        <v>66.6412213740455</v>
+      </c>
+      <c r="F216" s="52">
+        <f t="shared" si="22"/>
+        <v>1.1631087305275136</v>
+      </c>
+      <c r="G216" s="53">
+        <f t="shared" ref="G216:G279" si="27">100+$E$15*COS(F216)</f>
+        <v>107.92975021073758</v>
+      </c>
+      <c r="H216" s="53">
+        <f t="shared" si="23"/>
+        <v>118.36080231349675</v>
+      </c>
+      <c r="I216" s="53">
+        <f t="shared" si="24"/>
+        <v>109.91218776342197</v>
+      </c>
+      <c r="J216" s="53">
+        <f t="shared" si="25"/>
+        <v>122.95100289187093</v>
+      </c>
+    </row>
+    <row r="217" spans="5:10">
+      <c r="E217" s="52">
+        <f t="shared" si="26"/>
+        <v>66.984732824427184</v>
+      </c>
+      <c r="F217" s="52">
+        <f t="shared" si="22"/>
+        <v>1.169104136354975</v>
+      </c>
+      <c r="G217" s="53">
+        <f t="shared" si="27"/>
+        <v>107.81952789244414</v>
+      </c>
+      <c r="H217" s="53">
+        <f t="shared" si="23"/>
+        <v>118.40801411177446</v>
+      </c>
+      <c r="I217" s="53">
+        <f t="shared" si="24"/>
+        <v>109.77440986555519</v>
+      </c>
+      <c r="J217" s="53">
+        <f t="shared" si="25"/>
+        <v>123.01001763971809</v>
+      </c>
+    </row>
+    <row r="218" spans="5:10">
+      <c r="E218" s="52">
+        <f t="shared" si="26"/>
+        <v>67.328244274808853</v>
+      </c>
+      <c r="F218" s="52">
+        <f t="shared" ref="F218:F281" si="28">F217+$F$19*2</f>
+        <v>1.1750995421824364</v>
+      </c>
+      <c r="G218" s="53">
+        <f t="shared" si="27"/>
+        <v>107.70902450291459</v>
+      </c>
+      <c r="H218" s="53">
+        <f t="shared" ref="H218:H281" si="29">100+$E$15*SIN(F218)</f>
+        <v>118.45456423797273</v>
+      </c>
+      <c r="I218" s="53">
+        <f t="shared" ref="I218:I281" si="30">100+$E$14*COS(F218)</f>
+        <v>109.63628062864323</v>
+      </c>
+      <c r="J218" s="53">
+        <f t="shared" ref="J218:J281" si="31">100+$E$14*SIN(F218)</f>
+        <v>123.06820529746592</v>
+      </c>
+    </row>
+    <row r="219" spans="5:10">
+      <c r="E219" s="52">
+        <f t="shared" si="26"/>
+        <v>67.671755725190536</v>
+      </c>
+      <c r="F219" s="52">
+        <f t="shared" si="28"/>
+        <v>1.1810949480098978</v>
+      </c>
+      <c r="G219" s="53">
+        <f t="shared" si="27"/>
+        <v>107.59824401416931</v>
+      </c>
+      <c r="H219" s="53">
+        <f t="shared" si="29"/>
+        <v>118.50045101885735</v>
+      </c>
+      <c r="I219" s="53">
+        <f t="shared" si="30"/>
+        <v>109.49780501771164</v>
+      </c>
+      <c r="J219" s="53">
+        <f t="shared" si="31"/>
+        <v>123.1255637735717</v>
+      </c>
+    </row>
+    <row r="220" spans="5:10">
+      <c r="E220" s="52">
+        <f t="shared" si="26"/>
+        <v>68.015267175572205</v>
+      </c>
+      <c r="F220" s="52">
+        <f t="shared" si="28"/>
+        <v>1.1870903538373592</v>
+      </c>
+      <c r="G220" s="53">
+        <f t="shared" si="27"/>
+        <v>107.48719040818898</v>
+      </c>
+      <c r="H220" s="53">
+        <f t="shared" si="29"/>
+        <v>118.54567280503792</v>
+      </c>
+      <c r="I220" s="53">
+        <f t="shared" si="30"/>
+        <v>109.35898801023623</v>
+      </c>
+      <c r="J220" s="53">
+        <f t="shared" si="31"/>
+        <v>123.1820910062974</v>
+      </c>
+    </row>
+    <row r="221" spans="5:10">
+      <c r="E221" s="52">
+        <f t="shared" si="26"/>
+        <v>68.358778625953875</v>
+      </c>
+      <c r="F221" s="52">
+        <f t="shared" si="28"/>
+        <v>1.1930857596648206</v>
+      </c>
+      <c r="G221" s="53">
+        <f t="shared" si="27"/>
+        <v>107.37586767677141</v>
+      </c>
+      <c r="H221" s="53">
+        <f t="shared" si="29"/>
+        <v>118.5902279710271</v>
+      </c>
+      <c r="I221" s="53">
+        <f t="shared" si="30"/>
+        <v>109.21983459596426</v>
+      </c>
+      <c r="J221" s="53">
+        <f t="shared" si="31"/>
+        <v>123.23778496378389</v>
+      </c>
+    </row>
+    <row r="222" spans="5:10">
+      <c r="E222" s="52">
+        <f t="shared" si="26"/>
+        <v>68.702290076335558</v>
+      </c>
+      <c r="F222" s="52">
+        <f t="shared" si="28"/>
+        <v>1.1990811654922819</v>
+      </c>
+      <c r="G222" s="53">
+        <f t="shared" si="27"/>
+        <v>107.26427982138804</v>
+      </c>
+      <c r="H222" s="53">
+        <f t="shared" si="29"/>
+        <v>118.63411491529916</v>
+      </c>
+      <c r="I222" s="53">
+        <f t="shared" si="30"/>
+        <v>109.08034977673506</v>
+      </c>
+      <c r="J222" s="53">
+        <f t="shared" si="31"/>
+        <v>123.29264364412394</v>
+      </c>
+    </row>
+    <row r="223" spans="5:10">
+      <c r="E223" s="52">
+        <f t="shared" si="26"/>
+        <v>69.045801526717241</v>
+      </c>
+      <c r="F223" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2050765713197433</v>
+      </c>
+      <c r="G223" s="53">
+        <f t="shared" si="27"/>
+        <v>107.15243085304019</v>
+      </c>
+      <c r="H223" s="53">
+        <f t="shared" si="29"/>
+        <v>118.67733206034734</v>
+      </c>
+      <c r="I223" s="53">
+        <f t="shared" si="30"/>
+        <v>108.94053856630023</v>
+      </c>
+      <c r="J223" s="53">
+        <f t="shared" si="31"/>
+        <v>123.34666507543417</v>
+      </c>
+    </row>
+    <row r="224" spans="5:10">
+      <c r="E224" s="52">
+        <f t="shared" si="26"/>
+        <v>69.389312977098911</v>
+      </c>
+      <c r="F224" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2110719771472047</v>
+      </c>
+      <c r="G224" s="53">
+        <f t="shared" si="27"/>
+        <v>107.04032479211479</v>
+      </c>
+      <c r="H224" s="53">
+        <f t="shared" si="29"/>
+        <v>118.71987785274075</v>
+      </c>
+      <c r="I224" s="53">
+        <f t="shared" si="30"/>
+        <v>108.80040599014347</v>
+      </c>
+      <c r="J224" s="53">
+        <f t="shared" si="31"/>
+        <v>123.39984731592594</v>
+      </c>
+    </row>
+    <row r="225" spans="5:10">
+      <c r="E225" s="52">
+        <f t="shared" si="26"/>
+        <v>69.732824427480594</v>
+      </c>
+      <c r="F225" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2170673829746661</v>
+      </c>
+      <c r="G225" s="53">
+        <f t="shared" si="27"/>
+        <v>106.92796566823989</v>
+      </c>
+      <c r="H225" s="53">
+        <f t="shared" si="29"/>
+        <v>118.76175076318012</v>
+      </c>
+      <c r="I225" s="53">
+        <f t="shared" si="30"/>
+        <v>108.65995708529987</v>
+      </c>
+      <c r="J225" s="53">
+        <f t="shared" si="31"/>
+        <v>123.45218845397514</v>
+      </c>
+    </row>
+    <row r="226" spans="5:10">
+      <c r="E226" s="52">
+        <f t="shared" si="26"/>
+        <v>70.076335877862263</v>
+      </c>
+      <c r="F226" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2230627888021275</v>
+      </c>
+      <c r="G226" s="53">
+        <f t="shared" si="27"/>
+        <v>106.81535752013988</v>
+      </c>
+      <c r="H226" s="53">
+        <f t="shared" si="29"/>
+        <v>118.8029492865527</v>
+      </c>
+      <c r="I226" s="53">
+        <f t="shared" si="30"/>
+        <v>108.51919690017486</v>
+      </c>
+      <c r="J226" s="53">
+        <f t="shared" si="31"/>
+        <v>123.50368660819088</v>
+      </c>
+    </row>
+    <row r="227" spans="5:10">
+      <c r="E227" s="52">
+        <f t="shared" si="26"/>
+        <v>70.419847328243947</v>
+      </c>
+      <c r="F227" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2290581946295889</v>
+      </c>
+      <c r="G227" s="53">
+        <f t="shared" si="27"/>
+        <v>106.70250439549025</v>
+      </c>
+      <c r="H227" s="53">
+        <f t="shared" si="29"/>
+        <v>118.84347194198654</v>
+      </c>
+      <c r="I227" s="53">
+        <f t="shared" si="30"/>
+        <v>108.37813049436281</v>
+      </c>
+      <c r="J227" s="53">
+        <f t="shared" si="31"/>
+        <v>123.55433992748317</v>
+      </c>
+    </row>
+    <row r="228" spans="5:10">
+      <c r="E228" s="52">
+        <f t="shared" si="26"/>
+        <v>70.763358778625616</v>
+      </c>
+      <c r="F228" s="52">
+        <f t="shared" si="28"/>
+        <v>1.2350536004570503</v>
+      </c>
+      <c r="G228" s="53">
+        <f t="shared" si="27"/>
+        <v>106.58941035077211</v>
+      </c>
+      <c r="H228" s="53">
+        <f t="shared" si="29"/>
+        <v>118.88331727290355</v>
+      </c>
+      <c r="I228" s="53">
+        <f t="shared" si="30"/>
+        <v>108.23676293846513</v>
+      </c>
+      <c r="J228" s="53">
+        <f t="shared" si="31"/>
+        <v>123.60414659112944</v>
+      </c>
+    </row>
+    <row r="229" spans="5:10">
+      <c r="E229" s="54">
+        <f t="shared" si="26"/>
+        <v>71.106870229007299</v>
+      </c>
+      <c r="F229" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2410490062845116</v>
+      </c>
+      <c r="G229" s="55">
+        <f t="shared" si="27"/>
+        <v>106.4760794511264</v>
+      </c>
+      <c r="H229" s="55">
+        <f t="shared" si="29"/>
+        <v>118.92248384707193</v>
+      </c>
+      <c r="I229" s="55">
+        <f t="shared" si="30"/>
+        <v>108.09509931390799</v>
+      </c>
+      <c r="J229" s="55">
+        <f t="shared" si="31"/>
+        <v>123.65310480883993</v>
+      </c>
+    </row>
+    <row r="230" spans="5:10">
+      <c r="E230" s="54">
+        <f t="shared" si="26"/>
+        <v>71.450381679388983</v>
+      </c>
+      <c r="F230" s="54">
+        <f t="shared" si="28"/>
+        <v>1.247044412111973</v>
+      </c>
+      <c r="G230" s="55">
+        <f t="shared" si="27"/>
+        <v>106.36251577020775</v>
+      </c>
+      <c r="H230" s="55">
+        <f t="shared" si="29"/>
+        <v>118.9609702566577</v>
+      </c>
+      <c r="I230" s="55">
+        <f t="shared" si="30"/>
+        <v>107.95314471275968</v>
+      </c>
+      <c r="J230" s="55">
+        <f t="shared" si="31"/>
+        <v>123.70121282082212</v>
+      </c>
+    </row>
+    <row r="231" spans="5:10">
+      <c r="E231" s="54">
+        <f t="shared" si="26"/>
+        <v>71.793893129770652</v>
+      </c>
+      <c r="F231" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2530398179394344</v>
+      </c>
+      <c r="G231" s="55">
+        <f t="shared" si="27"/>
+        <v>106.24872339003807</v>
+      </c>
+      <c r="H231" s="55">
+        <f t="shared" si="29"/>
+        <v>118.99877511827515</v>
+      </c>
+      <c r="I231" s="55">
+        <f t="shared" si="30"/>
+        <v>107.81090423754759</v>
+      </c>
+      <c r="J231" s="55">
+        <f t="shared" si="31"/>
+        <v>123.74846889784394</v>
+      </c>
+    </row>
+    <row r="232" spans="5:10">
+      <c r="E232" s="54">
+        <f t="shared" si="26"/>
+        <v>72.137404580152335</v>
+      </c>
+      <c r="F232" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2590352237668958</v>
+      </c>
+      <c r="G232" s="55">
+        <f t="shared" si="27"/>
+        <v>106.13470640085983</v>
+      </c>
+      <c r="H232" s="55">
+        <f t="shared" si="29"/>
+        <v>119.03589707303676</v>
+      </c>
+      <c r="I232" s="55">
+        <f t="shared" si="30"/>
+        <v>107.66838300107479</v>
+      </c>
+      <c r="J232" s="55">
+        <f t="shared" si="31"/>
+        <v>123.79487134129596</v>
+      </c>
+    </row>
+    <row r="233" spans="5:10">
+      <c r="E233" s="54">
+        <f t="shared" si="26"/>
+        <v>72.480916030534004</v>
+      </c>
+      <c r="F233" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2650306295943572</v>
+      </c>
+      <c r="G233" s="55">
+        <f t="shared" si="27"/>
+        <v>106.02046890098899</v>
+      </c>
+      <c r="H233" s="55">
+        <f t="shared" si="29"/>
+        <v>119.07233478660189</v>
+      </c>
+      <c r="I233" s="55">
+        <f t="shared" si="30"/>
+        <v>107.52558612623623</v>
+      </c>
+      <c r="J233" s="55">
+        <f t="shared" si="31"/>
+        <v>123.84041848325236</v>
+      </c>
+    </row>
+    <row r="234" spans="5:10">
+      <c r="E234" s="54">
+        <f t="shared" si="26"/>
+        <v>72.824427480915688</v>
+      </c>
+      <c r="F234" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2710260354218186</v>
+      </c>
+      <c r="G234" s="55">
+        <f t="shared" si="27"/>
+        <v>105.90601499666774</v>
+      </c>
+      <c r="H234" s="55">
+        <f t="shared" si="29"/>
+        <v>119.10808694922483</v>
+      </c>
+      <c r="I234" s="55">
+        <f t="shared" si="30"/>
+        <v>107.38251874583466</v>
+      </c>
+      <c r="J234" s="55">
+        <f t="shared" si="31"/>
+        <v>123.88510868653103</v>
+      </c>
+    </row>
+    <row r="235" spans="5:10">
+      <c r="E235" s="54">
+        <f t="shared" si="26"/>
+        <v>73.167938931297357</v>
+      </c>
+      <c r="F235" s="54">
+        <f t="shared" si="28"/>
+        <v>1.27702144124928</v>
+      </c>
+      <c r="G235" s="55">
+        <f t="shared" si="27"/>
+        <v>105.79134880191687</v>
+      </c>
+      <c r="H235" s="55">
+        <f t="shared" si="29"/>
+        <v>119.14315227580181</v>
+      </c>
+      <c r="I235" s="55">
+        <f t="shared" si="30"/>
+        <v>107.23918600239608</v>
+      </c>
+      <c r="J235" s="55">
+        <f t="shared" si="31"/>
+        <v>123.92894034475226</v>
+      </c>
+    </row>
+    <row r="236" spans="5:10">
+      <c r="E236" s="54">
+        <f t="shared" si="26"/>
+        <v>73.51145038167904</v>
+      </c>
+      <c r="F236" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2830168470767414</v>
+      </c>
+      <c r="G236" s="55">
+        <f t="shared" si="27"/>
+        <v>105.67647443838791</v>
+      </c>
+      <c r="H236" s="55">
+        <f t="shared" si="29"/>
+        <v>119.17752950591731</v>
+      </c>
+      <c r="I236" s="55">
+        <f t="shared" si="30"/>
+        <v>107.09559304798489</v>
+      </c>
+      <c r="J236" s="55">
+        <f t="shared" si="31"/>
+        <v>123.97191188239663</v>
+      </c>
+    </row>
+    <row r="237" spans="5:10">
+      <c r="E237" s="54">
+        <f t="shared" si="26"/>
+        <v>73.85496183206071</v>
+      </c>
+      <c r="F237" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2890122529042027</v>
+      </c>
+      <c r="G237" s="55">
+        <f t="shared" si="27"/>
+        <v>105.56139603521498</v>
+      </c>
+      <c r="H237" s="55">
+        <f t="shared" si="29"/>
+        <v>119.21121740388919</v>
+      </c>
+      <c r="I237" s="55">
+        <f t="shared" si="30"/>
+        <v>106.95174504401874</v>
+      </c>
+      <c r="J237" s="55">
+        <f t="shared" si="31"/>
+        <v>124.01402175486149</v>
+      </c>
+    </row>
+    <row r="238" spans="5:10">
+      <c r="E238" s="54">
+        <f t="shared" si="26"/>
+        <v>74.198473282442379</v>
+      </c>
+      <c r="F238" s="54">
+        <f t="shared" si="28"/>
+        <v>1.2950076587316641</v>
+      </c>
+      <c r="G238" s="55">
+        <f t="shared" si="27"/>
+        <v>105.44611772886635</v>
+      </c>
+      <c r="H238" s="55">
+        <f t="shared" si="29"/>
+        <v>119.2442147588133</v>
+      </c>
+      <c r="I238" s="55">
+        <f t="shared" si="30"/>
+        <v>106.80764716108295</v>
+      </c>
+      <c r="J238" s="55">
+        <f t="shared" si="31"/>
+        <v>124.05526844851661</v>
+      </c>
+    </row>
+    <row r="239" spans="5:10">
+      <c r="E239" s="54">
+        <f t="shared" si="26"/>
+        <v>74.541984732824062</v>
+      </c>
+      <c r="F239" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3010030645591255</v>
+      </c>
+      <c r="G239" s="55">
+        <f t="shared" si="27"/>
+        <v>105.33064366299578</v>
+      </c>
+      <c r="H239" s="55">
+        <f t="shared" si="29"/>
+        <v>119.27652038460684</v>
+      </c>
+      <c r="I239" s="55">
+        <f t="shared" si="30"/>
+        <v>106.66330457874473</v>
+      </c>
+      <c r="J239" s="55">
+        <f t="shared" si="31"/>
+        <v>124.09565048075855</v>
+      </c>
+    </row>
+    <row r="240" spans="5:10">
+      <c r="E240" s="54">
+        <f t="shared" si="26"/>
+        <v>74.885496183205731</v>
+      </c>
+      <c r="F240" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3069984703865869</v>
+      </c>
+      <c r="G240" s="55">
+        <f t="shared" si="27"/>
+        <v>105.21497798829353</v>
+      </c>
+      <c r="H240" s="55">
+        <f t="shared" si="29"/>
+        <v>119.3081331200511</v>
+      </c>
+      <c r="I240" s="55">
+        <f t="shared" si="30"/>
+        <v>106.51872248536691</v>
+      </c>
+      <c r="J240" s="55">
+        <f t="shared" si="31"/>
+        <v>124.13516640006387</v>
+      </c>
+    </row>
+    <row r="241" spans="5:10">
+      <c r="E241" s="54">
+        <f t="shared" si="26"/>
+        <v>75.229007633587415</v>
+      </c>
+      <c r="F241" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3129938762140483</v>
+      </c>
+      <c r="G241" s="55">
+        <f t="shared" si="27"/>
+        <v>105.09912486233723</v>
+      </c>
+      <c r="H241" s="55">
+        <f t="shared" si="29"/>
+        <v>119.33905182883314</v>
+      </c>
+      <c r="I241" s="55">
+        <f t="shared" si="30"/>
+        <v>106.37390607792153</v>
+      </c>
+      <c r="J241" s="55">
+        <f t="shared" si="31"/>
+        <v>124.17381478604142</v>
+      </c>
+    </row>
+    <row r="242" spans="5:10">
+      <c r="E242" s="54">
+        <f t="shared" si="26"/>
+        <v>75.572519083969084</v>
+      </c>
+      <c r="F242" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3189892820415097</v>
+      </c>
+      <c r="G242" s="55">
+        <f t="shared" si="27"/>
+        <v>104.98308844944239</v>
+      </c>
+      <c r="H242" s="55">
+        <f t="shared" si="29"/>
+        <v>119.36927539958668</v>
+      </c>
+      <c r="I242" s="55">
+        <f t="shared" si="30"/>
+        <v>106.228860561803</v>
+      </c>
+      <c r="J242" s="55">
+        <f t="shared" si="31"/>
+        <v>124.21159424948335</v>
+      </c>
+    </row>
+    <row r="243" spans="5:10">
+      <c r="E243" s="54">
+        <f t="shared" si="26"/>
+        <v>75.916030534350767</v>
+      </c>
+      <c r="F243" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3249846878689711</v>
+      </c>
+      <c r="G243" s="55">
+        <f t="shared" si="27"/>
+        <v>104.86687292051275</v>
+      </c>
+      <c r="H243" s="55">
+        <f t="shared" si="29"/>
+        <v>119.39880274593202</v>
+      </c>
+      <c r="I243" s="55">
+        <f t="shared" si="30"/>
+        <v>106.08359115064094</v>
+      </c>
+      <c r="J243" s="55">
+        <f t="shared" si="31"/>
+        <v>124.24850343241502</v>
+      </c>
+    </row>
+    <row r="244" spans="5:10">
+      <c r="E244" s="54">
+        <f t="shared" si="26"/>
+        <v>76.259541984732437</v>
+      </c>
+      <c r="F244" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3309800936964324</v>
+      </c>
+      <c r="G244" s="55">
+        <f t="shared" si="27"/>
+        <v>104.75048245289031</v>
+      </c>
+      <c r="H244" s="55">
+        <f t="shared" si="29"/>
+        <v>119.42763280651509</v>
+      </c>
+      <c r="I244" s="55">
+        <f t="shared" si="30"/>
+        <v>105.93810306611287</v>
+      </c>
+      <c r="J244" s="55">
+        <f t="shared" si="31"/>
+        <v>124.28454100814386</v>
+      </c>
+    </row>
+    <row r="245" spans="5:10">
+      <c r="E245" s="54">
+        <f t="shared" si="26"/>
+        <v>76.60305343511412</v>
+      </c>
+      <c r="F245" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3369754995238938</v>
+      </c>
+      <c r="G245" s="55">
+        <f t="shared" si="27"/>
+        <v>104.6339212302052</v>
+      </c>
+      <c r="H245" s="55">
+        <f t="shared" si="29"/>
+        <v>119.45576454504561</v>
+      </c>
+      <c r="I245" s="55">
+        <f t="shared" si="30"/>
+        <v>105.7924015377565</v>
+      </c>
+      <c r="J245" s="55">
+        <f t="shared" si="31"/>
+        <v>124.319705681307</v>
+      </c>
+    </row>
+    <row r="246" spans="5:10">
+      <c r="E246" s="54">
+        <f t="shared" si="26"/>
+        <v>76.946564885495803</v>
+      </c>
+      <c r="F246" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3429709053513552</v>
+      </c>
+      <c r="G246" s="55">
+        <f t="shared" si="27"/>
+        <v>104.51719344222535</v>
+      </c>
+      <c r="H246" s="55">
+        <f t="shared" si="29"/>
+        <v>119.48319695033432</v>
+      </c>
+      <c r="I246" s="55">
+        <f t="shared" si="30"/>
+        <v>105.64649180278168</v>
+      </c>
+      <c r="J246" s="55">
+        <f t="shared" si="31"/>
+        <v>124.35399618791789</v>
+      </c>
+    </row>
+    <row r="247" spans="5:10">
+      <c r="E247" s="54">
+        <f t="shared" si="26"/>
+        <v>77.290076335877473</v>
+      </c>
+      <c r="F247" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3489663111788166</v>
+      </c>
+      <c r="G247" s="55">
+        <f t="shared" si="27"/>
+        <v>104.40030328470579</v>
+      </c>
+      <c r="H247" s="55">
+        <f t="shared" si="29"/>
+        <v>119.50992903632937</v>
+      </c>
+      <c r="I247" s="55">
+        <f t="shared" si="30"/>
+        <v>105.50037910588222</v>
+      </c>
+      <c r="J247" s="55">
+        <f t="shared" si="31"/>
+        <v>124.38741129541171</v>
+      </c>
+    </row>
+    <row r="248" spans="5:10">
+      <c r="E248" s="54">
+        <f t="shared" si="26"/>
+        <v>77.633587786259156</v>
+      </c>
+      <c r="F248" s="54">
+        <f t="shared" si="28"/>
+        <v>1.354961717006278</v>
+      </c>
+      <c r="G248" s="55">
+        <f t="shared" si="27"/>
+        <v>104.28325495923789</v>
+      </c>
+      <c r="H248" s="55">
+        <f t="shared" si="29"/>
+        <v>119.5359598421517</v>
+      </c>
+      <c r="I248" s="55">
+        <f t="shared" si="30"/>
+        <v>105.35406869904737</v>
+      </c>
+      <c r="J248" s="55">
+        <f t="shared" si="31"/>
+        <v>124.41994980268963</v>
+      </c>
+    </row>
+    <row r="249" spans="5:10">
+      <c r="E249" s="54">
+        <f t="shared" si="26"/>
+        <v>77.977099236640825</v>
+      </c>
+      <c r="F249" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3609571228337394</v>
+      </c>
+      <c r="G249" s="55">
+        <f t="shared" si="27"/>
+        <v>104.16605267309841</v>
+      </c>
+      <c r="H249" s="55">
+        <f t="shared" si="29"/>
+        <v>119.56128843212966</v>
+      </c>
+      <c r="I249" s="55">
+        <f t="shared" si="30"/>
+        <v>105.20756584137301</v>
+      </c>
+      <c r="J249" s="55">
+        <f t="shared" si="31"/>
+        <v>124.45161054016208</v>
+      </c>
+    </row>
+    <row r="250" spans="5:10">
+      <c r="E250" s="54">
+        <f t="shared" si="26"/>
+        <v>78.320610687022509</v>
+      </c>
+      <c r="F250" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3669525286612008</v>
+      </c>
+      <c r="G250" s="55">
+        <f t="shared" si="27"/>
+        <v>104.04870063909809</v>
+      </c>
+      <c r="H250" s="55">
+        <f t="shared" si="29"/>
+        <v>119.58591389583256</v>
+      </c>
+      <c r="I250" s="55">
+        <f t="shared" si="30"/>
+        <v>105.0608757988726</v>
+      </c>
+      <c r="J250" s="55">
+        <f t="shared" si="31"/>
+        <v>124.48239236979069</v>
+      </c>
+    </row>
+    <row r="251" spans="5:10">
+      <c r="E251" s="54">
+        <f t="shared" si="26"/>
+        <v>78.664122137404178</v>
+      </c>
+      <c r="F251" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3729479344886621</v>
+      </c>
+      <c r="G251" s="55">
+        <f t="shared" si="27"/>
+        <v>103.93120307543037</v>
+      </c>
+      <c r="H251" s="55">
+        <f t="shared" si="29"/>
+        <v>119.60983534810343</v>
+      </c>
+      <c r="I251" s="55">
+        <f t="shared" si="30"/>
+        <v>104.91400384428798</v>
+      </c>
+      <c r="J251" s="55">
+        <f t="shared" si="31"/>
+        <v>124.51229418512929</v>
+      </c>
+    </row>
+    <row r="252" spans="5:10">
+      <c r="E252" s="54">
+        <f t="shared" si="26"/>
+        <v>79.007633587785861</v>
+      </c>
+      <c r="F252" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3789433403161235</v>
+      </c>
+      <c r="G252" s="55">
+        <f t="shared" si="27"/>
+        <v>103.81356420551975</v>
+      </c>
+      <c r="H252" s="55">
+        <f t="shared" si="29"/>
+        <v>119.63305192909087</v>
+      </c>
+      <c r="I252" s="55">
+        <f t="shared" si="30"/>
+        <v>104.76695525689969</v>
+      </c>
+      <c r="J252" s="55">
+        <f t="shared" si="31"/>
+        <v>124.54131491136357</v>
+      </c>
+    </row>
+    <row r="253" spans="5:10">
+      <c r="E253" s="54">
+        <f t="shared" si="26"/>
+        <v>79.35114503816753</v>
+      </c>
+      <c r="F253" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3849387461435849</v>
+      </c>
+      <c r="G253" s="55">
+        <f t="shared" si="27"/>
+        <v>103.69578825786991</v>
+      </c>
+      <c r="H253" s="55">
+        <f t="shared" si="29"/>
+        <v>119.65556280427988</v>
+      </c>
+      <c r="I253" s="55">
+        <f t="shared" si="30"/>
+        <v>104.61973532233738</v>
+      </c>
+      <c r="J253" s="55">
+        <f t="shared" si="31"/>
+        <v>124.56945350534986</v>
+      </c>
+    </row>
+    <row r="254" spans="5:10">
+      <c r="E254" s="54">
+        <f t="shared" si="26"/>
+        <v>79.694656488549214</v>
+      </c>
+      <c r="F254" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3909341519710463</v>
+      </c>
+      <c r="G254" s="55">
+        <f t="shared" si="27"/>
+        <v>103.57787946591176</v>
+      </c>
+      <c r="H254" s="55">
+        <f t="shared" si="29"/>
+        <v>119.67736716452197</v>
+      </c>
+      <c r="I254" s="55">
+        <f t="shared" si="30"/>
+        <v>104.4723493323897</v>
+      </c>
+      <c r="J254" s="55">
+        <f t="shared" si="31"/>
+        <v>124.59670895565245</v>
+      </c>
+    </row>
+    <row r="255" spans="5:10">
+      <c r="E255" s="54">
+        <f t="shared" si="26"/>
+        <v>80.038167938930883</v>
+      </c>
+      <c r="F255" s="54">
+        <f t="shared" si="28"/>
+        <v>1.3969295577985077</v>
+      </c>
+      <c r="G255" s="55">
+        <f t="shared" si="27"/>
+        <v>103.4598420678513</v>
+      </c>
+      <c r="H255" s="55">
+        <f t="shared" si="29"/>
+        <v>119.69846422606409</v>
+      </c>
+      <c r="I255" s="55">
+        <f t="shared" si="30"/>
+        <v>104.32480258481414</v>
+      </c>
+      <c r="J255" s="55">
+        <f t="shared" si="31"/>
+        <v>124.6230802825801</v>
+      </c>
+    </row>
+    <row r="256" spans="5:10">
+      <c r="E256" s="54">
+        <f t="shared" si="26"/>
+        <v>80.381679389312566</v>
+      </c>
+      <c r="F256" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4029249636259691</v>
+      </c>
+      <c r="G256" s="55">
+        <f t="shared" si="27"/>
+        <v>103.34168030651723</v>
+      </c>
+      <c r="H256" s="55">
+        <f t="shared" si="29"/>
+        <v>119.71885323057694</v>
+      </c>
+      <c r="I256" s="55">
+        <f t="shared" si="30"/>
+        <v>104.17710038314654</v>
+      </c>
+      <c r="J256" s="55">
+        <f t="shared" si="31"/>
+        <v>124.64856653822119</v>
+      </c>
+    </row>
+    <row r="257" spans="5:10">
+      <c r="E257" s="54">
+        <f t="shared" si="26"/>
+        <v>80.725190839694235</v>
+      </c>
+      <c r="F257" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4089203694534305</v>
+      </c>
+      <c r="G257" s="55">
+        <f t="shared" si="27"/>
+        <v>103.22339842920847</v>
+      </c>
+      <c r="H257" s="55">
+        <f t="shared" si="29"/>
+        <v>119.7385334451822</v>
+      </c>
+      <c r="I257" s="55">
+        <f t="shared" si="30"/>
+        <v>104.02924803651058</v>
+      </c>
+      <c r="J257" s="55">
+        <f t="shared" si="31"/>
+        <v>124.67316680647775</v>
+      </c>
+    </row>
+    <row r="258" spans="5:10">
+      <c r="E258" s="54">
+        <f t="shared" si="26"/>
+        <v>81.068702290075919</v>
+      </c>
+      <c r="F258" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4149157752808919</v>
+      </c>
+      <c r="G258" s="55">
+        <f t="shared" si="27"/>
+        <v>103.10500068754146</v>
+      </c>
+      <c r="H258" s="55">
+        <f t="shared" si="29"/>
+        <v>119.7575041624788</v>
+      </c>
+      <c r="I258" s="55">
+        <f t="shared" si="30"/>
+        <v>103.88125085942683</v>
+      </c>
+      <c r="J258" s="55">
+        <f t="shared" si="31"/>
+        <v>124.6968802030985</v>
+      </c>
+    </row>
+    <row r="259" spans="5:10">
+      <c r="E259" s="54">
+        <f t="shared" si="26"/>
+        <v>81.412213740457588</v>
+      </c>
+      <c r="F259" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4209111811083532</v>
+      </c>
+      <c r="G259" s="55">
+        <f t="shared" si="27"/>
+        <v>102.98649133729738</v>
+      </c>
+      <c r="H259" s="55">
+        <f t="shared" si="29"/>
+        <v>119.77576470056842</v>
+      </c>
+      <c r="I259" s="55">
+        <f t="shared" si="30"/>
+        <v>103.73311417162174</v>
+      </c>
+      <c r="J259" s="55">
+        <f t="shared" si="31"/>
+        <v>124.71970587571052</v>
+      </c>
+    </row>
+    <row r="260" spans="5:10">
+      <c r="E260" s="54">
+        <f t="shared" si="26"/>
+        <v>81.755725190839271</v>
+      </c>
+      <c r="F260" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4269065869358146</v>
+      </c>
+      <c r="G260" s="55">
+        <f t="shared" si="27"/>
+        <v>102.86787463826917</v>
+      </c>
+      <c r="H260" s="55">
+        <f t="shared" si="29"/>
+        <v>119.79331440307996</v>
+      </c>
+      <c r="I260" s="55">
+        <f t="shared" si="30"/>
+        <v>103.58484329783646</v>
+      </c>
+      <c r="J260" s="55">
+        <f t="shared" si="31"/>
+        <v>124.74164300384994</v>
+      </c>
+    </row>
+    <row r="261" spans="5:10">
+      <c r="E261" s="54">
+        <f t="shared" si="26"/>
+        <v>82.099236641220941</v>
+      </c>
+      <c r="F261" s="54">
+        <f t="shared" si="28"/>
+        <v>1.432901992763276</v>
+      </c>
+      <c r="G261" s="55">
+        <f t="shared" si="27"/>
+        <v>102.74915485410835</v>
+      </c>
+      <c r="H261" s="55">
+        <f t="shared" si="29"/>
+        <v>119.81015263919318</v>
+      </c>
+      <c r="I261" s="55">
+        <f t="shared" si="30"/>
+        <v>103.43644356763544</v>
+      </c>
+      <c r="J261" s="55">
+        <f t="shared" si="31"/>
+        <v>124.76269079899147</v>
+      </c>
+    </row>
+    <row r="262" spans="5:10">
+      <c r="E262" s="54">
+        <f t="shared" si="26"/>
+        <v>82.44274809160261</v>
+      </c>
+      <c r="F262" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4388973985907374</v>
+      </c>
+      <c r="G262" s="55">
+        <f t="shared" si="27"/>
+        <v>102.63033625217186</v>
+      </c>
+      <c r="H262" s="55">
+        <f t="shared" si="29"/>
+        <v>119.82627880366132</v>
+      </c>
+      <c r="I262" s="55">
+        <f t="shared" si="30"/>
+        <v>103.28792031521483</v>
+      </c>
+      <c r="J262" s="55">
+        <f t="shared" si="31"/>
+        <v>124.78284850457666</v>
+      </c>
+    </row>
+    <row r="263" spans="5:10">
+      <c r="E263" s="54">
+        <f t="shared" si="26"/>
+        <v>82.786259541984293</v>
+      </c>
+      <c r="F263" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4448928044181988</v>
+      </c>
+      <c r="G263" s="55">
+        <f t="shared" si="27"/>
+        <v>102.51142310336861</v>
+      </c>
+      <c r="H263" s="55">
+        <f t="shared" si="29"/>
+        <v>119.84169231683292</v>
+      </c>
+      <c r="I263" s="55">
+        <f t="shared" si="30"/>
+        <v>103.13927887921076</v>
+      </c>
+      <c r="J263" s="55">
+        <f t="shared" si="31"/>
+        <v>124.80211539604115</v>
+      </c>
+    </row>
+    <row r="264" spans="5:10">
+      <c r="E264" s="54">
+        <f t="shared" si="26"/>
+        <v>83.129770992365977</v>
+      </c>
+      <c r="F264" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4508882102456602</v>
+      </c>
+      <c r="G264" s="55">
+        <f t="shared" si="27"/>
+        <v>102.39241968200596</v>
+      </c>
+      <c r="H264" s="55">
+        <f t="shared" si="29"/>
+        <v>119.85639262467255</v>
+      </c>
+      <c r="I264" s="55">
+        <f t="shared" si="30"/>
+        <v>102.99052460250746</v>
+      </c>
+      <c r="J264" s="55">
+        <f t="shared" si="31"/>
+        <v>124.82049078084069</v>
+      </c>
+    </row>
+    <row r="265" spans="5:10">
+      <c r="E265" s="54">
+        <f t="shared" si="26"/>
+        <v>83.47328244274766</v>
+      </c>
+      <c r="F265" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4568836160731216</v>
+      </c>
+      <c r="G265" s="55">
+        <f t="shared" si="27"/>
+        <v>102.27333026563613</v>
+      </c>
+      <c r="H265" s="55">
+        <f t="shared" si="29"/>
+        <v>119.87037919878085</v>
+      </c>
+      <c r="I265" s="55">
+        <f t="shared" si="30"/>
+        <v>102.84166283204516</v>
+      </c>
+      <c r="J265" s="55">
+        <f t="shared" si="31"/>
+        <v>124.83797399847606</v>
+      </c>
+    </row>
+    <row r="266" spans="5:10">
+      <c r="E266" s="54">
+        <f t="shared" si="26"/>
+        <v>83.816793893129315</v>
+      </c>
+      <c r="F266" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4628790219005829</v>
+      </c>
+      <c r="G266" s="55">
+        <f t="shared" si="27"/>
+        <v>102.15415913490237</v>
+      </c>
+      <c r="H266" s="55">
+        <f t="shared" si="29"/>
+        <v>119.88365153641344</v>
+      </c>
+      <c r="I266" s="55">
+        <f t="shared" si="30"/>
+        <v>102.69269891862797</v>
+      </c>
+      <c r="J266" s="55">
+        <f t="shared" si="31"/>
+        <v>124.85456442051679</v>
+      </c>
+    </row>
+    <row r="267" spans="5:10">
+      <c r="E267" s="54">
+        <f t="shared" si="26"/>
+        <v>84.160305343510998</v>
+      </c>
+      <c r="F267" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4688744277280443</v>
+      </c>
+      <c r="G267" s="55">
+        <f t="shared" si="27"/>
+        <v>102.03491057338518</v>
+      </c>
+      <c r="H267" s="55">
+        <f t="shared" si="29"/>
+        <v>119.89620916049901</v>
+      </c>
+      <c r="I267" s="55">
+        <f t="shared" si="30"/>
+        <v>102.54363821673148</v>
+      </c>
+      <c r="J267" s="55">
+        <f t="shared" si="31"/>
+        <v>124.87026145062377</v>
+      </c>
+    </row>
+    <row r="268" spans="5:10">
+      <c r="E268" s="54">
+        <f t="shared" si="26"/>
+        <v>84.503816793892682</v>
+      </c>
+      <c r="F268" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4748698335555057</v>
+      </c>
+      <c r="G268" s="55">
+        <f t="shared" si="27"/>
+        <v>101.91558886744825</v>
+      </c>
+      <c r="H268" s="55">
+        <f t="shared" si="29"/>
+        <v>119.9080516196565</v>
+      </c>
+      <c r="I268" s="55">
+        <f t="shared" si="30"/>
+        <v>102.39448608431032</v>
+      </c>
+      <c r="J268" s="55">
+        <f t="shared" si="31"/>
+        <v>124.88506452457064</v>
+      </c>
+    </row>
+    <row r="269" spans="5:10">
+      <c r="E269" s="54">
+        <f t="shared" si="26"/>
+        <v>84.847328244274365</v>
+      </c>
+      <c r="F269" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4808652393829671</v>
+      </c>
+      <c r="G269" s="55">
+        <f t="shared" si="27"/>
+        <v>101.79619830608448</v>
+      </c>
+      <c r="H269" s="55">
+        <f t="shared" si="29"/>
+        <v>119.91917848821129</v>
+      </c>
+      <c r="I269" s="55">
+        <f t="shared" si="30"/>
+        <v>102.24524788260558</v>
+      </c>
+      <c r="J269" s="55">
+        <f t="shared" si="31"/>
+        <v>124.89897311026411</v>
+      </c>
+    </row>
+    <row r="270" spans="5:10">
+      <c r="E270" s="54">
+        <f t="shared" si="26"/>
+        <v>85.190839694656049</v>
+      </c>
+      <c r="F270" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4868606452104285</v>
+      </c>
+      <c r="G270" s="55">
+        <f t="shared" si="27"/>
+        <v>101.67674318076169</v>
+      </c>
+      <c r="H270" s="55">
+        <f t="shared" si="29"/>
+        <v>119.92958936621046</v>
+      </c>
+      <c r="I270" s="55">
+        <f t="shared" si="30"/>
+        <v>102.09592897595211</v>
+      </c>
+      <c r="J270" s="55">
+        <f t="shared" si="31"/>
+        <v>124.91198670776308</v>
+      </c>
+    </row>
+    <row r="271" spans="5:10">
+      <c r="E271" s="54">
+        <f t="shared" si="26"/>
+        <v>85.534351145037704</v>
+      </c>
+      <c r="F271" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4928560510378899</v>
+      </c>
+      <c r="G271" s="55">
+        <f t="shared" si="27"/>
+        <v>101.55722778526851</v>
+      </c>
+      <c r="H271" s="55">
+        <f t="shared" si="29"/>
+        <v>119.93928387943728</v>
+      </c>
+      <c r="I271" s="55">
+        <f t="shared" si="30"/>
+        <v>101.94653473158564</v>
+      </c>
+      <c r="J271" s="55">
+        <f t="shared" si="31"/>
+        <v>124.92410484929661</v>
+      </c>
+    </row>
+    <row r="272" spans="5:10">
+      <c r="E272" s="54">
+        <f t="shared" si="26"/>
+        <v>85.877862595419387</v>
+      </c>
+      <c r="F272" s="54">
+        <f t="shared" si="28"/>
+        <v>1.4988514568653513</v>
+      </c>
+      <c r="G272" s="55">
+        <f t="shared" si="27"/>
+        <v>101.43765641555994</v>
+      </c>
+      <c r="H272" s="55">
+        <f t="shared" si="29"/>
+        <v>119.94826167942458</v>
+      </c>
+      <c r="I272" s="55">
+        <f t="shared" si="30"/>
+        <v>101.79707051944993</v>
+      </c>
+      <c r="J272" s="55">
+        <f t="shared" si="31"/>
+        <v>124.93532709928073</v>
+      </c>
+    </row>
+    <row r="273" spans="5:10">
+      <c r="E273" s="54">
+        <f t="shared" si="26"/>
+        <v>86.22137404580107</v>
+      </c>
+      <c r="F273" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5048468626928126</v>
+      </c>
+      <c r="G273" s="55">
+        <f t="shared" si="27"/>
+        <v>101.31803336960296</v>
+      </c>
+      <c r="H273" s="55">
+        <f t="shared" si="29"/>
+        <v>119.95652244346728</v>
+      </c>
+      <c r="I273" s="55">
+        <f t="shared" si="30"/>
+        <v>101.6475417120037</v>
+      </c>
+      <c r="J273" s="55">
+        <f t="shared" si="31"/>
+        <v>124.94565305433409</v>
+      </c>
+    </row>
+    <row r="274" spans="5:10">
+      <c r="E274" s="54">
+        <f t="shared" si="26"/>
+        <v>86.56488549618274</v>
+      </c>
+      <c r="F274" s="54">
+        <f t="shared" si="28"/>
+        <v>1.510842268520274</v>
+      </c>
+      <c r="G274" s="55">
+        <f t="shared" si="27"/>
+        <v>101.19836294722204</v>
+      </c>
+      <c r="H274" s="55">
+        <f t="shared" si="29"/>
+        <v>119.96406587463399</v>
+      </c>
+      <c r="I274" s="55">
+        <f t="shared" si="30"/>
+        <v>101.49795368402755</v>
+      </c>
+      <c r="J274" s="55">
+        <f t="shared" si="31"/>
+        <v>124.95508234329249</v>
+      </c>
+    </row>
+    <row r="275" spans="5:10">
+      <c r="E275" s="54">
+        <f t="shared" si="26"/>
+        <v>86.908396946564409</v>
+      </c>
+      <c r="F275" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5168376743477354</v>
+      </c>
+      <c r="G275" s="55">
+        <f t="shared" si="27"/>
+        <v>101.07864944994459</v>
+      </c>
+      <c r="H275" s="55">
+        <f t="shared" si="29"/>
+        <v>119.97089170177772</v>
+      </c>
+      <c r="I275" s="55">
+        <f t="shared" si="30"/>
+        <v>101.34831181243074</v>
+      </c>
+      <c r="J275" s="55">
+        <f t="shared" si="31"/>
+        <v>124.96361462722214</v>
+      </c>
+    </row>
+    <row r="276" spans="5:10">
+      <c r="E276" s="54">
+        <f t="shared" si="26"/>
+        <v>87.251908396946092</v>
+      </c>
+      <c r="F276" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5228330801751968</v>
+      </c>
+      <c r="G276" s="55">
+        <f t="shared" si="27"/>
+        <v>100.95889718084634</v>
+      </c>
+      <c r="H276" s="55">
+        <f t="shared" si="29"/>
+        <v>119.9769996795456</v>
+      </c>
+      <c r="I276" s="55">
+        <f t="shared" si="30"/>
+        <v>101.19862147605791</v>
+      </c>
+      <c r="J276" s="55">
+        <f t="shared" si="31"/>
+        <v>124.971249599432</v>
+      </c>
+    </row>
+    <row r="277" spans="5:10">
+      <c r="E277" s="54">
+        <f t="shared" si="26"/>
+        <v>87.595419847327776</v>
+      </c>
+      <c r="F277" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5288284860026582</v>
+      </c>
+      <c r="G277" s="55">
+        <f t="shared" si="27"/>
+        <v>100.83911044439664</v>
+      </c>
+      <c r="H277" s="55">
+        <f t="shared" si="29"/>
+        <v>119.98238958838769</v>
+      </c>
+      <c r="I277" s="55">
+        <f t="shared" si="30"/>
+        <v>101.04888805549579</v>
+      </c>
+      <c r="J277" s="55">
+        <f t="shared" si="31"/>
+        <v>124.97798698548461</v>
+      </c>
+    </row>
+    <row r="278" spans="5:10">
+      <c r="E278" s="54">
+        <f t="shared" si="26"/>
+        <v>87.938931297709445</v>
+      </c>
+      <c r="F278" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5348238918301196</v>
+      </c>
+      <c r="G278" s="55">
+        <f t="shared" si="27"/>
+        <v>100.71929354630379</v>
+      </c>
+      <c r="H278" s="55">
+        <f t="shared" si="29"/>
+        <v>119.98706123456486</v>
+      </c>
+      <c r="I278" s="55">
+        <f t="shared" si="30"/>
+        <v>100.89911693287974</v>
+      </c>
+      <c r="J278" s="55">
+        <f t="shared" si="31"/>
+        <v>124.98382654320608</v>
+      </c>
+    </row>
+    <row r="279" spans="5:10">
+      <c r="E279" s="54">
+        <f t="shared" ref="E279:E312" si="32">F279*180/PI()</f>
+        <v>88.282442748091128</v>
+      </c>
+      <c r="F279" s="54">
+        <f t="shared" si="28"/>
+        <v>1.540819297657581</v>
+      </c>
+      <c r="G279" s="55">
+        <f t="shared" si="27"/>
+        <v>100.59945079336025</v>
+      </c>
+      <c r="H279" s="55">
+        <f t="shared" si="29"/>
+        <v>119.99101445015584</v>
+      </c>
+      <c r="I279" s="55">
+        <f t="shared" si="30"/>
+        <v>100.74931349170032</v>
+      </c>
+      <c r="J279" s="55">
+        <f t="shared" si="31"/>
+        <v>124.9887680626948</v>
+      </c>
+    </row>
+    <row r="280" spans="5:10">
+      <c r="E280" s="54">
+        <f t="shared" si="32"/>
+        <v>88.625954198472797</v>
+      </c>
+      <c r="F280" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5468147034850424</v>
+      </c>
+      <c r="G280" s="55">
+        <f t="shared" ref="G280:G312" si="33">100+$E$15*COS(F280)</f>
+        <v>100.47958649328781</v>
+      </c>
+      <c r="H280" s="55">
+        <f t="shared" si="29"/>
+        <v>119.99424909306313</v>
+      </c>
+      <c r="I280" s="55">
+        <f t="shared" si="30"/>
+        <v>100.59948311660976</v>
+      </c>
+      <c r="J280" s="55">
+        <f t="shared" si="31"/>
+        <v>124.99281136632891</v>
+      </c>
+    </row>
+    <row r="281" spans="5:10">
+      <c r="E281" s="54">
+        <f t="shared" si="32"/>
+        <v>88.969465648854467</v>
+      </c>
+      <c r="F281" s="54">
+        <f t="shared" si="28"/>
+        <v>1.5528101093125037</v>
+      </c>
+      <c r="G281" s="55">
+        <f t="shared" si="33"/>
+        <v>100.35970495458275</v>
+      </c>
+      <c r="H281" s="55">
+        <f t="shared" si="29"/>
+        <v>119.99676504701819</v>
+      </c>
+      <c r="I281" s="55">
+        <f t="shared" si="30"/>
+        <v>100.44963119322844</v>
+      </c>
+      <c r="J281" s="55">
+        <f t="shared" si="31"/>
+        <v>124.99595630877275</v>
+      </c>
+    </row>
+    <row r="282" spans="5:10">
+      <c r="E282" s="54">
+        <f t="shared" si="32"/>
+        <v>89.31297709923615</v>
+      </c>
+      <c r="F282" s="54">
+        <f t="shared" ref="F282:F312" si="34">F281+$F$19*2</f>
+        <v>1.5588055151399651</v>
+      </c>
+      <c r="G282" s="55">
+        <f t="shared" si="33"/>
+        <v>100.23981048636104</v>
+      </c>
+      <c r="H282" s="55">
+        <f t="shared" ref="H282:H312" si="35">100+$E$15*SIN(F282)</f>
+        <v>119.99856222158562</v>
+      </c>
+      <c r="I282" s="55">
+        <f t="shared" ref="I282:I312" si="36">100+$E$14*COS(F282)</f>
+        <v>100.29976310795129</v>
+      </c>
+      <c r="J282" s="55">
+        <f t="shared" ref="J282:J312" si="37">100+$E$14*SIN(F282)</f>
+        <v>124.99820277698201</v>
+      </c>
+    </row>
+    <row r="283" spans="5:10">
+      <c r="E283" s="54">
+        <f t="shared" si="32"/>
+        <v>89.656488549617833</v>
+      </c>
+      <c r="F283" s="54">
+        <f t="shared" si="34"/>
+        <v>1.5648009209674265</v>
+      </c>
+      <c r="G283" s="55">
+        <f t="shared" si="33"/>
+        <v>100.11990739820332</v>
+      </c>
+      <c r="H283" s="55">
+        <f t="shared" si="35"/>
+        <v>119.99964055216634</v>
+      </c>
+      <c r="I283" s="55">
+        <f t="shared" si="36"/>
+        <v>100.14988424775416</v>
+      </c>
+      <c r="J283" s="55">
+        <f t="shared" si="37"/>
+        <v>124.99955069020791</v>
+      </c>
+    </row>
+    <row r="284" spans="5:10">
+      <c r="E284" s="54">
+        <f t="shared" si="32"/>
+        <v>89.999999999999503</v>
+      </c>
+      <c r="F284" s="54">
+        <f t="shared" si="34"/>
+        <v>1.5707963267948879</v>
+      </c>
+      <c r="G284" s="56">
+        <f t="shared" si="33"/>
+        <v>100.00000000000017</v>
+      </c>
+      <c r="H284" s="56">
+        <f t="shared" si="35"/>
+        <v>120</v>
+      </c>
+      <c r="I284" s="56">
+        <f t="shared" si="36"/>
+        <v>100.00000000000021</v>
+      </c>
+      <c r="J284" s="56">
+        <f t="shared" si="37"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="285" spans="5:10">
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="5:10">
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="5:10">
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="5:10">
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="5:10">
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="5:10">
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="5:10">
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="5:10">
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="5:10">
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="5:10">
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="5:10">
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="5:10">
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="5:10">
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="5:10">
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="5:10">
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="5:10">
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="5:10">
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="5:10">
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="5:10">
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="5:10">
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="5:10">
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="5:10">
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="5:10">
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="5:10">
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="5:10">
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="5:10">
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="5:10">
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="5:10">
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -906,17 +907,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4010,11 +4011,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79534720"/>
-        <c:axId val="79556992"/>
+        <c:axId val="75059584"/>
+        <c:axId val="75077504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79534720"/>
+        <c:axId val="75059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,7 +4033,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79556992"/>
+        <c:crossAx val="75077504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4040,7 +4041,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79556992"/>
+        <c:axId val="75077504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4049,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79534720"/>
+        <c:crossAx val="75059584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4060,7 +4061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7070,11 +7071,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79790464"/>
-        <c:axId val="79792000"/>
+        <c:axId val="85374848"/>
+        <c:axId val="85376384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79790464"/>
+        <c:axId val="85374848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7091,7 +7092,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79792000"/>
+        <c:crossAx val="85376384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7099,7 +7100,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79792000"/>
+        <c:axId val="85376384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7107,7 +7108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79790464"/>
+        <c:crossAx val="85374848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7119,7 +7120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10129,11 +10130,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79816192"/>
-        <c:axId val="79817728"/>
+        <c:axId val="87305216"/>
+        <c:axId val="87315200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79816192"/>
+        <c:axId val="87305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10150,7 +10151,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79817728"/>
+        <c:crossAx val="87315200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10158,7 +10159,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79817728"/>
+        <c:axId val="87315200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10166,7 +10167,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79816192"/>
+        <c:crossAx val="87305216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10178,7 +10179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10280,7 +10281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0,18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10299,25 +10300,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81373824"/>
-        <c:axId val="84386176"/>
+        <c:axId val="87372160"/>
+        <c:axId val="87373696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81373824"/>
+        <c:axId val="87372160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84386176"/>
+        <c:crossAx val="87373696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84386176"/>
+        <c:axId val="87373696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10325,7 +10326,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81373824"/>
+        <c:crossAx val="87372160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10337,7 +10338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10425,11 +10426,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85730048"/>
-        <c:axId val="85731584"/>
+        <c:axId val="87394560"/>
+        <c:axId val="87420928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85730048"/>
+        <c:axId val="87394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10481,14 +10482,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85731584"/>
+        <c:crossAx val="87420928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85731584"/>
+        <c:axId val="87420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10524,7 +10525,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85730048"/>
+        <c:crossAx val="87394560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10543,7 +10544,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11008,14 +11009,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11113,12 +11114,12 @@
     <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5"/>
@@ -24920,7 +24921,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40706.917196296294</v>
+        <v>40708.651187615738</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24936,7 +24937,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40706.917196296294</v>
+        <v>40708.651187615738</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -24985,7 +24986,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25001,7 +25002,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25017,7 +25018,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25033,7 +25034,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25050,7 +25051,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455726</v>
+        <v>2455728</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25084,7 +25085,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455726.4171990738</v>
+        <v>2455728.1511921296</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -25170,7 +25171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
@@ -25374,6839 +25375,6839 @@
       </c>
     </row>
     <row r="22" spans="3:10">
-      <c r="E22" s="52">
+      <c r="E22" s="50">
         <f>F22*180/PI()</f>
         <v>0</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="50">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="51">
         <f>100+$E$15*COS(F22)</f>
         <v>120</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="51">
         <f>100+$E$15*SIN(F22)</f>
         <v>100</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="51">
         <f>100+$E$14*COS(F22)</f>
         <v>125</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="51">
         <f>100+$E$14*SIN(F22)</f>
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="3:10">
-      <c r="E23" s="52">
+      <c r="E23" s="50">
         <f>F23*180/PI()</f>
         <v>0.34351145038167935</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="50">
         <f>F22+$F$19*2</f>
         <v>5.9954058274614367E-3</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="51">
         <f>100+$E$15*COS(F23)</f>
         <v>119.99964055216634</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="51">
         <f>100+$E$15*SIN(F23)</f>
         <v>100.11990739820315</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="51">
         <f>100+$E$14*COS(F23)</f>
         <v>124.99955069020791</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="51">
         <f>100+$E$14*SIN(F23)</f>
         <v>100.14988424775395</v>
       </c>
     </row>
     <row r="24" spans="3:10">
-      <c r="E24" s="52">
-        <f t="shared" ref="E23:E86" si="0">F24*180/PI()</f>
+      <c r="E24" s="50">
+        <f t="shared" ref="E24:E86" si="0">F24*180/PI()</f>
         <v>0.6870229007633587</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="50">
         <f t="shared" ref="F24:F37" si="1">F23+$F$19*2</f>
         <v>1.1990811654922873E-2</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="51">
         <f t="shared" ref="G24:G87" si="2">100+$E$15*COS(F24)</f>
         <v>119.99856222158562</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="51">
         <f t="shared" ref="H24:H37" si="3">100+$E$15*SIN(F24)</f>
         <v>100.23981048636085</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="51">
         <f t="shared" ref="I24:I37" si="4">100+$E$14*COS(F24)</f>
         <v>124.99820277698203</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="51">
         <f t="shared" ref="J24:J37" si="5">100+$E$14*SIN(F24)</f>
         <v>100.29976310795108</v>
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="E25" s="52">
+      <c r="E25" s="50">
         <f t="shared" si="0"/>
         <v>1.0305343511450382</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="50">
         <f t="shared" si="1"/>
         <v>1.7986217482384312E-2</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="51">
         <f t="shared" si="2"/>
         <v>119.9967650470182</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="51">
         <f t="shared" si="3"/>
         <v>100.35970495458258</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="51">
         <f t="shared" si="4"/>
         <v>124.99595630877275</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="51">
         <f t="shared" si="5"/>
         <v>100.44963119322823</v>
       </c>
     </row>
     <row r="26" spans="3:10">
-      <c r="E26" s="52">
+      <c r="E26" s="50">
         <f t="shared" si="0"/>
         <v>1.3740458015267174</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
         <v>2.3981623309845747E-2</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="51">
         <f t="shared" si="2"/>
         <v>119.99424909306313</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="51">
         <f t="shared" si="3"/>
         <v>100.47958649328764</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="51">
         <f t="shared" si="4"/>
         <v>124.99281136632892</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="51">
         <f t="shared" si="5"/>
         <v>100.59948311660955</v>
       </c>
     </row>
     <row r="27" spans="3:10">
-      <c r="E27" s="52">
+      <c r="E27" s="50">
         <f t="shared" si="0"/>
         <v>1.7175572519083968</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="50">
         <f t="shared" si="1"/>
         <v>2.9977029137307182E-2</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="51">
         <f t="shared" si="2"/>
         <v>119.99101445015584</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="51">
         <f t="shared" si="3"/>
         <v>100.59945079336008</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="51">
         <f t="shared" si="4"/>
         <v>124.98876806269482</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="51">
         <f t="shared" si="5"/>
         <v>100.74931349170011</v>
       </c>
     </row>
     <row r="28" spans="3:10">
-      <c r="E28" s="52">
+      <c r="E28" s="50">
         <f t="shared" si="0"/>
         <v>2.061068702290076</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="50">
         <f t="shared" si="1"/>
         <v>3.5972434964768617E-2</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="51">
         <f t="shared" si="2"/>
         <v>119.98706123456488</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="51">
         <f t="shared" si="3"/>
         <v>100.71929354630362</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="51">
         <f t="shared" si="4"/>
         <v>124.98382654320609</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="51">
         <f t="shared" si="5"/>
         <v>100.89911693287952</v>
       </c>
     </row>
     <row r="29" spans="3:10">
-      <c r="E29" s="52">
+      <c r="E29" s="50">
         <f t="shared" si="0"/>
         <v>2.404580152671755</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="50">
         <f t="shared" si="1"/>
         <v>4.1967840792230052E-2</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="51">
         <f t="shared" si="2"/>
         <v>119.98238958838769</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="51">
         <f t="shared" si="3"/>
         <v>100.83911044439647</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="51">
         <f t="shared" si="4"/>
         <v>124.97798698548462</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="51">
         <f t="shared" si="5"/>
         <v>101.04888805549558</v>
       </c>
     </row>
     <row r="30" spans="3:10">
-      <c r="E30" s="52">
+      <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>2.7480916030534344</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="50">
         <f t="shared" si="1"/>
         <v>4.7963246619691487E-2</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="51">
         <f t="shared" si="2"/>
         <v>119.9769996795456</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="51">
         <f t="shared" si="3"/>
         <v>100.95889718084617</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="51">
         <f t="shared" si="4"/>
         <v>124.97124959943201</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="51">
         <f t="shared" si="5"/>
         <v>101.19862147605771</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="E31" s="52">
+      <c r="E31" s="50">
         <f t="shared" si="0"/>
         <v>3.0916030534351138</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="50">
         <f t="shared" si="1"/>
         <v>5.3958652447152922E-2</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="51">
         <f t="shared" si="2"/>
         <v>119.97089170177773</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="51">
         <f t="shared" si="3"/>
         <v>101.07864944994442</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="51">
         <f t="shared" si="4"/>
         <v>124.96361462722216</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="51">
         <f t="shared" si="5"/>
         <v>101.34831181243052</v>
       </c>
     </row>
     <row r="32" spans="3:10">
-      <c r="E32" s="52">
+      <c r="E32" s="50">
         <f t="shared" si="0"/>
         <v>3.4351145038167932</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="50">
         <f t="shared" si="1"/>
         <v>5.9954058274614357E-2</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="51">
         <f t="shared" si="2"/>
         <v>119.964065874634</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="51">
         <f t="shared" si="3"/>
         <v>101.19836294722188</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="51">
         <f t="shared" si="4"/>
         <v>124.9550823432925</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="51">
         <f t="shared" si="5"/>
         <v>101.49795368402735</v>
       </c>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="52">
+      <c r="E33" s="50">
         <f t="shared" si="0"/>
         <v>3.7786259541984721</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="50">
         <f t="shared" si="1"/>
         <v>6.5949464102075792E-2</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="51">
         <f t="shared" si="2"/>
         <v>119.95652244346729</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="51">
         <f t="shared" si="3"/>
         <v>101.3180333696028</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="51">
         <f t="shared" si="4"/>
         <v>124.94565305433412</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="51">
         <f t="shared" si="5"/>
         <v>101.6475417120035</v>
       </c>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="52">
+      <c r="E34" s="50">
         <f t="shared" si="0"/>
         <v>4.122137404580152</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="50">
         <f t="shared" si="1"/>
         <v>7.1944869929537233E-2</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="51">
         <f t="shared" si="2"/>
         <v>119.94826167942459</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="51">
         <f t="shared" si="3"/>
         <v>101.43765641555979</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="51">
         <f t="shared" si="4"/>
         <v>124.93532709928074</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="51">
         <f t="shared" si="5"/>
         <v>101.79707051944973</v>
       </c>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="52">
+      <c r="E35" s="50">
         <f t="shared" si="0"/>
         <v>4.4656488549618318</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="50">
         <f t="shared" si="1"/>
         <v>7.7940275756998675E-2</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="51">
         <f t="shared" si="2"/>
         <v>119.9392838794373</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="51">
         <f t="shared" si="3"/>
         <v>101.55722778526835</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="51">
         <f t="shared" si="4"/>
         <v>124.92410484929663</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="51">
         <f t="shared" si="5"/>
         <v>101.94653473158544</v>
       </c>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="52">
+      <c r="E36" s="50">
         <f t="shared" si="0"/>
         <v>4.8091603053435117</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="50">
         <f t="shared" si="1"/>
         <v>8.3935681584460117E-2</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="51">
         <f t="shared" si="2"/>
         <v>119.92958936621048</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="51">
         <f t="shared" si="3"/>
         <v>101.67674318076153</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="51">
         <f t="shared" si="4"/>
         <v>124.91198670776309</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="51">
         <f t="shared" si="5"/>
         <v>102.09592897595191</v>
       </c>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="52">
+      <c r="E37" s="50">
         <f t="shared" si="0"/>
         <v>5.1526717557251906</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="50">
         <f t="shared" si="1"/>
         <v>8.9931087411921559E-2</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="51">
         <f t="shared" si="2"/>
         <v>119.9191784882113</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="51">
         <f t="shared" si="3"/>
         <v>101.79619830608431</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="51">
         <f t="shared" si="4"/>
         <v>124.89897311026412</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="51">
         <f t="shared" si="5"/>
         <v>102.24524788260538</v>
       </c>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="52">
+      <c r="E38" s="50">
         <f t="shared" si="0"/>
         <v>5.4961832061068696</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="50">
         <f t="shared" ref="F38:F67" si="6">F37+$F$19*2</f>
         <v>9.5926493239383001E-2</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="51">
         <f t="shared" si="2"/>
         <v>119.90805161965653</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="51">
         <f t="shared" ref="H38:H67" si="7">100+$E$15*SIN(F38)</f>
         <v>101.91558886744809</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="51">
         <f t="shared" ref="I38:I67" si="8">100+$E$14*COS(F38)</f>
         <v>124.88506452457065</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="51">
         <f t="shared" ref="J38:J67" si="9">100+$E$14*SIN(F38)</f>
         <v>102.39448608431012</v>
       </c>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="52">
+      <c r="E39" s="50">
         <f t="shared" si="0"/>
         <v>5.8396946564885504</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="50">
         <f t="shared" si="6"/>
         <v>0.10192189906684444</v>
       </c>
-      <c r="G39" s="53">
+      <c r="G39" s="51">
         <f t="shared" si="2"/>
         <v>119.89620916049904</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="51">
         <f t="shared" si="7"/>
         <v>102.03491057338502</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I39" s="51">
         <f t="shared" si="8"/>
         <v>124.8702614506238</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="51">
         <f t="shared" si="9"/>
         <v>102.54363821673128</v>
       </c>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="52">
+      <c r="E40" s="50">
         <f t="shared" si="0"/>
         <v>6.1832061068702293</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="50">
         <f t="shared" si="6"/>
         <v>0.10791730489430588</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="51">
         <f t="shared" si="2"/>
         <v>119.88365153641345</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="51">
         <f t="shared" si="7"/>
         <v>102.15415913490222</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="51">
         <f t="shared" si="8"/>
         <v>124.85456442051682</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="51">
         <f t="shared" si="9"/>
         <v>102.69269891862778</v>
       </c>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="52">
+      <c r="E41" s="50">
         <f t="shared" si="0"/>
         <v>6.5267175572519092</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="50">
         <f t="shared" si="6"/>
         <v>0.11391271072176733</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="51">
         <f t="shared" si="2"/>
         <v>119.87037919878087</v>
       </c>
-      <c r="H41" s="53">
+      <c r="H41" s="51">
         <f t="shared" si="7"/>
         <v>102.27333026563598</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="51">
         <f t="shared" si="8"/>
         <v>124.83797399847609</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="51">
         <f t="shared" si="9"/>
         <v>102.84166283204497</v>
       </c>
     </row>
     <row r="42" spans="5:10">
-      <c r="E42" s="52">
+      <c r="E42" s="50">
         <f t="shared" si="0"/>
         <v>6.870229007633589</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="50">
         <f t="shared" si="6"/>
         <v>0.11990811654922877</v>
       </c>
-      <c r="G42" s="53">
+      <c r="G42" s="51">
         <f t="shared" si="2"/>
         <v>119.85639262467257</v>
       </c>
-      <c r="H42" s="53">
+      <c r="H42" s="51">
         <f t="shared" si="7"/>
         <v>102.39241968200581</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="51">
         <f t="shared" si="8"/>
         <v>124.82049078084071</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="51">
         <f t="shared" si="9"/>
         <v>102.99052460250726</v>
       </c>
     </row>
     <row r="43" spans="5:10">
-      <c r="E43" s="52">
+      <c r="E43" s="50">
         <f t="shared" si="0"/>
         <v>7.213740458015268</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="50">
         <f t="shared" si="6"/>
         <v>0.1259035223766902</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="51">
         <f t="shared" si="2"/>
         <v>119.84169231683293</v>
       </c>
-      <c r="H43" s="53">
+      <c r="H43" s="51">
         <f t="shared" si="7"/>
         <v>102.51142310336846</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="51">
         <f t="shared" si="8"/>
         <v>124.80211539604117</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="51">
         <f t="shared" si="9"/>
         <v>103.13927887921058</v>
       </c>
     </row>
     <row r="44" spans="5:10">
-      <c r="E44" s="52">
+      <c r="E44" s="50">
         <f t="shared" si="0"/>
         <v>7.5572519083969478</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="50">
         <f t="shared" si="6"/>
         <v>0.13189892820415164</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="51">
         <f t="shared" si="2"/>
         <v>119.82627880366135</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H44" s="51">
         <f t="shared" si="7"/>
         <v>102.63033625217172</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="51">
         <f t="shared" si="8"/>
         <v>124.78284850457669</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="51">
         <f t="shared" si="9"/>
         <v>103.28792031521463</v>
       </c>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="52">
+      <c r="E45" s="50">
         <f t="shared" si="0"/>
         <v>7.9007633587786277</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="50">
         <f t="shared" si="6"/>
         <v>0.13789433403161308</v>
       </c>
-      <c r="G45" s="53">
+      <c r="G45" s="51">
         <f t="shared" si="2"/>
         <v>119.81015263919321</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H45" s="51">
         <f t="shared" si="7"/>
         <v>102.7491548541082</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="51">
         <f t="shared" si="8"/>
         <v>124.7626907989915</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="51">
         <f t="shared" si="9"/>
         <v>103.43644356763525</v>
       </c>
     </row>
     <row r="46" spans="5:10">
-      <c r="E46" s="52">
+      <c r="E46" s="50">
         <f t="shared" si="0"/>
         <v>8.2442748091603075</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="50">
         <f t="shared" si="6"/>
         <v>0.14388973985907452</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G46" s="51">
         <f t="shared" si="2"/>
         <v>119.79331440307998</v>
       </c>
-      <c r="H46" s="53">
+      <c r="H46" s="51">
         <f t="shared" si="7"/>
         <v>102.86787463826902</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="51">
         <f t="shared" si="8"/>
         <v>124.74164300384997</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="51">
         <f t="shared" si="9"/>
         <v>103.58484329783627</v>
       </c>
     </row>
     <row r="47" spans="5:10">
-      <c r="E47" s="52">
+      <c r="E47" s="50">
         <f t="shared" si="0"/>
         <v>8.5877862595419874</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="50">
         <f t="shared" si="6"/>
         <v>0.14988514568653596</v>
       </c>
-      <c r="G47" s="53">
+      <c r="G47" s="51">
         <f t="shared" si="2"/>
         <v>119.77576470056843</v>
       </c>
-      <c r="H47" s="53">
+      <c r="H47" s="51">
         <f t="shared" si="7"/>
         <v>102.98649133729724</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="51">
         <f t="shared" si="8"/>
         <v>124.71970587571055</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J47" s="51">
         <f t="shared" si="9"/>
         <v>103.73311417162155</v>
       </c>
     </row>
     <row r="48" spans="5:10">
-      <c r="E48" s="52">
+      <c r="E48" s="50">
         <f t="shared" si="0"/>
         <v>8.9312977099236672</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="50">
         <f t="shared" si="6"/>
         <v>0.15588055151399741</v>
       </c>
-      <c r="G48" s="53">
+      <c r="G48" s="51">
         <f t="shared" si="2"/>
         <v>119.75750416247882</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H48" s="51">
         <f t="shared" si="7"/>
         <v>103.10500068754132</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="51">
         <f t="shared" si="8"/>
         <v>124.69688020309853</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="51">
         <f t="shared" si="9"/>
         <v>103.88125085942664</v>
       </c>
     </row>
     <row r="49" spans="5:10">
-      <c r="E49" s="52">
+      <c r="E49" s="50">
         <f t="shared" si="0"/>
         <v>9.2748091603053453</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="50">
         <f t="shared" si="6"/>
         <v>0.16187595734145885</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="51">
         <f t="shared" si="2"/>
         <v>119.73853344518223</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="51">
         <f t="shared" si="7"/>
         <v>103.22339842920833</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="51">
         <f t="shared" si="8"/>
         <v>124.67316680647778</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="51">
         <f t="shared" si="9"/>
         <v>104.02924803651041</v>
       </c>
     </row>
     <row r="50" spans="5:10">
-      <c r="E50" s="52">
+      <c r="E50" s="50">
         <f t="shared" si="0"/>
         <v>9.6183206106870269</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="50">
         <f t="shared" si="6"/>
         <v>0.16787136316892029</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G50" s="51">
         <f t="shared" si="2"/>
         <v>119.71885323057697</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50" s="51">
         <f t="shared" si="7"/>
         <v>103.34168030651709</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="51">
         <f t="shared" si="8"/>
         <v>124.64856653822122</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="51">
         <f t="shared" si="9"/>
         <v>104.17710038314637</v>
       </c>
     </row>
     <row r="51" spans="5:10">
-      <c r="E51" s="52">
+      <c r="E51" s="50">
         <f t="shared" si="0"/>
         <v>9.961832061068705</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="50">
         <f t="shared" si="6"/>
         <v>0.17386676899638173</v>
       </c>
-      <c r="G51" s="53">
+      <c r="G51" s="51">
         <f t="shared" si="2"/>
         <v>119.6984642260641</v>
       </c>
-      <c r="H51" s="53">
+      <c r="H51" s="51">
         <f t="shared" si="7"/>
         <v>103.45984206785116</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="51">
         <f t="shared" si="8"/>
         <v>124.62308028258013</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J51" s="51">
         <f t="shared" si="9"/>
         <v>104.32480258481395</v>
       </c>
     </row>
     <row r="52" spans="5:10">
-      <c r="E52" s="52">
+      <c r="E52" s="50">
         <f t="shared" si="0"/>
         <v>10.305343511450387</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="50">
         <f t="shared" si="6"/>
         <v>0.17986217482384317</v>
       </c>
-      <c r="G52" s="53">
+      <c r="G52" s="51">
         <f t="shared" si="2"/>
         <v>119.67736716452198</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="51">
         <f t="shared" si="7"/>
         <v>103.57787946591162</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="51">
         <f t="shared" si="8"/>
         <v>124.59670895565247</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="51">
         <f t="shared" si="9"/>
         <v>104.47234933238953</v>
       </c>
     </row>
     <row r="53" spans="5:10">
-      <c r="E53" s="52">
+      <c r="E53" s="50">
         <f t="shared" si="0"/>
         <v>10.648854961832065</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="50">
         <f t="shared" si="6"/>
         <v>0.18585758065130462</v>
       </c>
-      <c r="G53" s="53">
+      <c r="G53" s="51">
         <f t="shared" si="2"/>
         <v>119.65556280427991</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="51">
         <f t="shared" si="7"/>
         <v>103.69578825786976</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="51">
         <f t="shared" si="8"/>
         <v>124.56945350534988</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="51">
         <f t="shared" si="9"/>
         <v>104.61973532233721</v>
       </c>
     </row>
     <row r="54" spans="5:10">
-      <c r="E54" s="52">
+      <c r="E54" s="50">
         <f t="shared" si="0"/>
         <v>10.992366412213745</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="50">
         <f t="shared" si="6"/>
         <v>0.19185298647876606</v>
       </c>
-      <c r="G54" s="53">
+      <c r="G54" s="51">
         <f t="shared" si="2"/>
         <v>119.6330519290909</v>
       </c>
-      <c r="H54" s="53">
+      <c r="H54" s="51">
         <f t="shared" si="7"/>
         <v>103.81356420551961</v>
       </c>
-      <c r="I54" s="53">
+      <c r="I54" s="51">
         <f t="shared" si="8"/>
         <v>124.54131491136361</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="51">
         <f t="shared" si="9"/>
         <v>104.76695525689952</v>
       </c>
     </row>
     <row r="55" spans="5:10">
-      <c r="E55" s="52">
+      <c r="E55" s="50">
         <f t="shared" si="0"/>
         <v>11.335877862595424</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="50">
         <f t="shared" si="6"/>
         <v>0.1978483923062275</v>
       </c>
-      <c r="G55" s="53">
+      <c r="G55" s="51">
         <f t="shared" si="2"/>
         <v>119.60983534810346</v>
       </c>
-      <c r="H55" s="53">
+      <c r="H55" s="51">
         <f t="shared" si="7"/>
         <v>103.93120307543025</v>
       </c>
-      <c r="I55" s="53">
+      <c r="I55" s="51">
         <f t="shared" si="8"/>
         <v>124.51229418512932</v>
       </c>
-      <c r="J55" s="53">
+      <c r="J55" s="51">
         <f t="shared" si="9"/>
         <v>104.91400384428781</v>
       </c>
     </row>
     <row r="56" spans="5:10">
-      <c r="E56" s="52">
+      <c r="E56" s="50">
         <f t="shared" si="0"/>
         <v>11.679389312977102</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="50">
         <f t="shared" si="6"/>
         <v>0.20384379813368894</v>
       </c>
-      <c r="G56" s="53">
+      <c r="G56" s="51">
         <f t="shared" si="2"/>
         <v>119.58591389583259</v>
       </c>
-      <c r="H56" s="53">
+      <c r="H56" s="51">
         <f t="shared" si="7"/>
         <v>104.04870063909794</v>
       </c>
-      <c r="I56" s="53">
+      <c r="I56" s="51">
         <f t="shared" si="8"/>
         <v>124.48239236979073</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="51">
         <f t="shared" si="9"/>
         <v>105.06087579887244</v>
       </c>
     </row>
     <row r="57" spans="5:10">
-      <c r="E57" s="52">
+      <c r="E57" s="50">
         <f t="shared" si="0"/>
         <v>12.022900763358784</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="50">
         <f t="shared" si="6"/>
         <v>0.20983920396115038</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="51">
         <f t="shared" si="2"/>
         <v>119.56128843212969</v>
       </c>
-      <c r="H57" s="53">
+      <c r="H57" s="51">
         <f t="shared" si="7"/>
         <v>104.16605267309828</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="51">
         <f t="shared" si="8"/>
         <v>124.45161054016211</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="51">
         <f t="shared" si="9"/>
         <v>105.20756584137284</v>
       </c>
     </row>
     <row r="58" spans="5:10">
-      <c r="E58" s="52">
+      <c r="E58" s="50">
         <f t="shared" si="0"/>
         <v>12.366412213740464</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="50">
         <f t="shared" si="6"/>
         <v>0.21583460978861183</v>
       </c>
-      <c r="G58" s="53">
+      <c r="G58" s="51">
         <f t="shared" si="2"/>
         <v>119.53595984215173</v>
       </c>
-      <c r="H58" s="53">
+      <c r="H58" s="51">
         <f t="shared" si="7"/>
         <v>104.28325495923777</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="51">
         <f t="shared" si="8"/>
         <v>124.41994980268967</v>
       </c>
-      <c r="J58" s="53">
+      <c r="J58" s="51">
         <f t="shared" si="9"/>
         <v>105.3540686990472</v>
       </c>
     </row>
     <row r="59" spans="5:10">
-      <c r="E59" s="52">
+      <c r="E59" s="50">
         <f t="shared" si="0"/>
         <v>12.709923664122142</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="50">
         <f t="shared" si="6"/>
         <v>0.22183001561607327</v>
       </c>
-      <c r="G59" s="53">
+      <c r="G59" s="51">
         <f t="shared" si="2"/>
         <v>119.5099290363294</v>
       </c>
-      <c r="H59" s="53">
+      <c r="H59" s="51">
         <f t="shared" si="7"/>
         <v>104.40030328470564</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="51">
         <f t="shared" si="8"/>
         <v>124.38741129541174</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="51">
         <f t="shared" si="9"/>
         <v>105.50037910588206</v>
       </c>
     </row>
     <row r="60" spans="5:10">
-      <c r="E60" s="52">
+      <c r="E60" s="50">
         <f t="shared" si="0"/>
         <v>13.053435114503822</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="50">
         <f t="shared" si="6"/>
         <v>0.22782542144353471</v>
       </c>
-      <c r="G60" s="53">
+      <c r="G60" s="51">
         <f t="shared" si="2"/>
         <v>119.48319695033435</v>
       </c>
-      <c r="H60" s="53">
+      <c r="H60" s="51">
         <f t="shared" si="7"/>
         <v>104.51719344222521</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="51">
         <f t="shared" si="8"/>
         <v>124.35399618791793</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="51">
         <f t="shared" si="9"/>
         <v>105.64649180278151</v>
       </c>
     </row>
     <row r="61" spans="5:10">
-      <c r="E61" s="52">
+      <c r="E61" s="50">
         <f t="shared" si="0"/>
         <v>13.3969465648855</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="50">
         <f t="shared" si="6"/>
         <v>0.23382082727099615</v>
       </c>
-      <c r="G61" s="53">
+      <c r="G61" s="51">
         <f t="shared" si="2"/>
         <v>119.45576454504564</v>
       </c>
-      <c r="H61" s="53">
+      <c r="H61" s="51">
         <f t="shared" si="7"/>
         <v>104.63392123020508</v>
       </c>
-      <c r="I61" s="53">
+      <c r="I61" s="51">
         <f t="shared" si="8"/>
         <v>124.31970568130704</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="51">
         <f t="shared" si="9"/>
         <v>105.79240153775635</v>
       </c>
     </row>
     <row r="62" spans="5:10">
-      <c r="E62" s="52">
+      <c r="E62" s="50">
         <f t="shared" si="0"/>
         <v>13.740458015267182</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="50">
         <f t="shared" si="6"/>
         <v>0.23981623309845759</v>
       </c>
-      <c r="G62" s="53">
+      <c r="G62" s="51">
         <f t="shared" si="2"/>
         <v>119.42763280651512</v>
       </c>
-      <c r="H62" s="53">
+      <c r="H62" s="51">
         <f t="shared" si="7"/>
         <v>104.75048245289018</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="51">
         <f t="shared" si="8"/>
         <v>124.2845410081439</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="51">
         <f t="shared" si="9"/>
         <v>105.93810306611272</v>
       </c>
     </row>
     <row r="63" spans="5:10">
-      <c r="E63" s="52">
+      <c r="E63" s="50">
         <f t="shared" si="0"/>
         <v>14.083969465648861</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="50">
         <f t="shared" si="6"/>
         <v>0.24581163892591903</v>
       </c>
-      <c r="G63" s="53">
+      <c r="G63" s="51">
         <f t="shared" si="2"/>
         <v>119.39880274593204</v>
       </c>
-      <c r="H63" s="53">
+      <c r="H63" s="51">
         <f t="shared" si="7"/>
         <v>104.86687292051262</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="51">
         <f t="shared" si="8"/>
         <v>124.24850343241506</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="51">
         <f t="shared" si="9"/>
         <v>106.08359115064079</v>
       </c>
     </row>
     <row r="64" spans="5:10">
-      <c r="E64" s="52">
+      <c r="E64" s="50">
         <f t="shared" si="0"/>
         <v>14.42748091603054</v>
       </c>
-      <c r="F64" s="52">
+      <c r="F64" s="50">
         <f t="shared" si="6"/>
         <v>0.25180704475338045</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G64" s="51">
         <f t="shared" si="2"/>
         <v>119.36927539958671</v>
       </c>
-      <c r="H64" s="53">
+      <c r="H64" s="51">
         <f t="shared" si="7"/>
         <v>104.98308844944228</v>
       </c>
-      <c r="I64" s="53">
+      <c r="I64" s="51">
         <f t="shared" si="8"/>
         <v>124.2115942494834</v>
       </c>
-      <c r="J64" s="53">
+      <c r="J64" s="51">
         <f t="shared" si="9"/>
         <v>106.22886056180283</v>
       </c>
     </row>
     <row r="65" spans="5:10">
-      <c r="E65" s="52">
+      <c r="E65" s="50">
         <f t="shared" si="0"/>
         <v>14.770992366412218</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="50">
         <f t="shared" si="6"/>
         <v>0.25780245058084189</v>
       </c>
-      <c r="G65" s="53">
+      <c r="G65" s="51">
         <f t="shared" si="2"/>
         <v>119.33905182883316</v>
       </c>
-      <c r="H65" s="53">
+      <c r="H65" s="51">
         <f t="shared" si="7"/>
         <v>105.09912486233711</v>
       </c>
-      <c r="I65" s="53">
+      <c r="I65" s="51">
         <f t="shared" si="8"/>
         <v>124.17381478604146</v>
       </c>
-      <c r="J65" s="53">
+      <c r="J65" s="51">
         <f t="shared" si="9"/>
         <v>106.37390607792139</v>
       </c>
     </row>
     <row r="66" spans="5:10">
-      <c r="E66" s="52">
+      <c r="E66" s="50">
         <f t="shared" si="0"/>
         <v>15.114503816793899</v>
       </c>
-      <c r="F66" s="52">
+      <c r="F66" s="50">
         <f t="shared" si="6"/>
         <v>0.26379785640830333</v>
       </c>
-      <c r="G66" s="53">
+      <c r="G66" s="51">
         <f t="shared" si="2"/>
         <v>119.30813312005112</v>
       </c>
-      <c r="H66" s="53">
+      <c r="H66" s="51">
         <f t="shared" si="7"/>
         <v>105.21497798829341</v>
       </c>
-      <c r="I66" s="53">
+      <c r="I66" s="51">
         <f t="shared" si="8"/>
         <v>124.13516640006391</v>
       </c>
-      <c r="J66" s="53">
+      <c r="J66" s="51">
         <f t="shared" si="9"/>
         <v>106.51872248536677</v>
       </c>
     </row>
     <row r="67" spans="5:10">
-      <c r="E67" s="52">
+      <c r="E67" s="50">
         <f t="shared" si="0"/>
         <v>15.458015267175579</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="50">
         <f t="shared" si="6"/>
         <v>0.26979326223576477</v>
       </c>
-      <c r="G67" s="53">
+      <c r="G67" s="51">
         <f t="shared" si="2"/>
         <v>119.27652038460687</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="51">
         <f t="shared" si="7"/>
         <v>105.33064366299566</v>
       </c>
-      <c r="I67" s="53">
+      <c r="I67" s="51">
         <f t="shared" si="8"/>
         <v>124.09565048075859</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="51">
         <f t="shared" si="9"/>
         <v>106.66330457874457</v>
       </c>
     </row>
     <row r="68" spans="5:10">
-      <c r="E68" s="52">
+      <c r="E68" s="50">
         <f t="shared" si="0"/>
         <v>15.801526717557257</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="50">
         <f t="shared" ref="F68:F125" si="10">F67+$F$19*2</f>
         <v>0.27578866806322622</v>
       </c>
-      <c r="G68" s="53">
+      <c r="G68" s="51">
         <f t="shared" si="2"/>
         <v>119.24421475881333</v>
       </c>
-      <c r="H68" s="53">
+      <c r="H68" s="51">
         <f t="shared" ref="H68:H125" si="11">100+$E$15*SIN(F68)</f>
         <v>105.44611772886624</v>
       </c>
-      <c r="I68" s="53">
-        <f t="shared" ref="I68:J125" si="12">100+$E$14*COS(F68)</f>
+      <c r="I68" s="51">
+        <f t="shared" ref="I68:I125" si="12">100+$E$14*COS(F68)</f>
         <v>124.05526844851667</v>
       </c>
-      <c r="J68" s="53">
+      <c r="J68" s="51">
         <f t="shared" ref="J68:J125" si="13">100+$E$14*SIN(F68)</f>
         <v>106.8076471610828</v>
       </c>
     </row>
     <row r="69" spans="5:10">
-      <c r="E69" s="52">
+      <c r="E69" s="50">
         <f t="shared" si="0"/>
         <v>16.145038167938939</v>
       </c>
-      <c r="F69" s="52">
+      <c r="F69" s="50">
         <f t="shared" si="10"/>
         <v>0.28178407389068766</v>
       </c>
-      <c r="G69" s="53">
+      <c r="G69" s="51">
         <f t="shared" si="2"/>
         <v>119.21121740388922</v>
       </c>
-      <c r="H69" s="53">
+      <c r="H69" s="51">
         <f t="shared" si="11"/>
         <v>105.56139603521487</v>
       </c>
-      <c r="I69" s="53">
+      <c r="I69" s="51">
         <f t="shared" si="12"/>
         <v>124.01402175486153</v>
       </c>
-      <c r="J69" s="53">
+      <c r="J69" s="51">
         <f t="shared" si="13"/>
         <v>106.95174504401858</v>
       </c>
     </row>
     <row r="70" spans="5:10">
-      <c r="E70" s="52">
+      <c r="E70" s="50">
         <f t="shared" si="0"/>
         <v>16.488549618320619</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="50">
         <f t="shared" si="10"/>
         <v>0.2877794797181491</v>
       </c>
-      <c r="G70" s="53">
+      <c r="G70" s="51">
         <f t="shared" si="2"/>
         <v>119.17752950591733</v>
       </c>
-      <c r="H70" s="53">
+      <c r="H70" s="51">
         <f t="shared" si="11"/>
         <v>105.6764744383878</v>
       </c>
-      <c r="I70" s="53">
+      <c r="I70" s="51">
         <f t="shared" si="12"/>
         <v>123.97191188239667</v>
       </c>
-      <c r="J70" s="53">
+      <c r="J70" s="51">
         <f t="shared" si="13"/>
         <v>107.09559304798474</v>
       </c>
     </row>
     <row r="71" spans="5:10">
-      <c r="E71" s="52">
+      <c r="E71" s="50">
         <f t="shared" si="0"/>
         <v>16.832061068702295</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F71" s="50">
         <f t="shared" si="10"/>
         <v>0.29377488554561054</v>
       </c>
-      <c r="G71" s="53">
+      <c r="G71" s="51">
         <f t="shared" si="2"/>
         <v>119.14315227580184</v>
       </c>
-      <c r="H71" s="53">
+      <c r="H71" s="51">
         <f t="shared" si="11"/>
         <v>105.79134880191674</v>
       </c>
-      <c r="I71" s="53">
+      <c r="I71" s="51">
         <f t="shared" si="12"/>
         <v>123.92894034475231</v>
       </c>
-      <c r="J71" s="53">
+      <c r="J71" s="51">
         <f t="shared" si="13"/>
         <v>107.23918600239594</v>
       </c>
     </row>
     <row r="72" spans="5:10">
-      <c r="E72" s="52">
+      <c r="E72" s="50">
         <f t="shared" si="0"/>
         <v>17.175572519083975</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F72" s="50">
         <f t="shared" si="10"/>
         <v>0.29977029137307198</v>
       </c>
-      <c r="G72" s="53">
+      <c r="G72" s="51">
         <f t="shared" si="2"/>
         <v>119.10808694922486</v>
       </c>
-      <c r="H72" s="53">
+      <c r="H72" s="51">
         <f t="shared" si="11"/>
         <v>105.90601499666762</v>
       </c>
-      <c r="I72" s="53">
+      <c r="I72" s="51">
         <f t="shared" si="12"/>
         <v>123.88510868653107</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="51">
         <f t="shared" si="13"/>
         <v>107.38251874583452</v>
       </c>
     </row>
     <row r="73" spans="5:10">
-      <c r="E73" s="52">
+      <c r="E73" s="50">
         <f t="shared" si="0"/>
         <v>17.519083969465658</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="50">
         <f t="shared" si="10"/>
         <v>0.30576569720053343</v>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="51">
         <f t="shared" si="2"/>
         <v>119.07233478660193</v>
       </c>
-      <c r="H73" s="53">
+      <c r="H73" s="51">
         <f t="shared" si="11"/>
         <v>106.02046890098887</v>
       </c>
-      <c r="I73" s="53">
+      <c r="I73" s="51">
         <f t="shared" si="12"/>
         <v>123.84041848325241</v>
       </c>
-      <c r="J73" s="53">
+      <c r="J73" s="51">
         <f t="shared" si="13"/>
         <v>107.52558612623609</v>
       </c>
     </row>
     <row r="74" spans="5:10">
-      <c r="E74" s="52">
+      <c r="E74" s="50">
         <f t="shared" si="0"/>
         <v>17.862595419847334</v>
       </c>
-      <c r="F74" s="52">
+      <c r="F74" s="50">
         <f t="shared" si="10"/>
         <v>0.31176110302799487</v>
       </c>
-      <c r="G74" s="53">
+      <c r="G74" s="51">
         <f t="shared" si="2"/>
         <v>119.03589707303679</v>
       </c>
-      <c r="H74" s="53">
+      <c r="H74" s="51">
         <f t="shared" si="11"/>
         <v>106.13470640085971</v>
       </c>
-      <c r="I74" s="53">
+      <c r="I74" s="51">
         <f t="shared" si="12"/>
         <v>123.79487134129599</v>
       </c>
-      <c r="J74" s="53">
+      <c r="J74" s="51">
         <f t="shared" si="13"/>
         <v>107.66838300107464</v>
       </c>
     </row>
     <row r="75" spans="5:10">
-      <c r="E75" s="52">
+      <c r="E75" s="50">
         <f t="shared" si="0"/>
         <v>18.206106870229014</v>
       </c>
-      <c r="F75" s="52">
+      <c r="F75" s="50">
         <f t="shared" si="10"/>
         <v>0.31775650885545631</v>
       </c>
-      <c r="G75" s="53">
+      <c r="G75" s="51">
         <f t="shared" si="2"/>
         <v>118.99877511827519</v>
       </c>
-      <c r="H75" s="53">
+      <c r="H75" s="51">
         <f t="shared" si="11"/>
         <v>106.24872339003797</v>
       </c>
-      <c r="I75" s="53">
+      <c r="I75" s="51">
         <f t="shared" si="12"/>
         <v>123.74846889784399</v>
       </c>
-      <c r="J75" s="53">
+      <c r="J75" s="51">
         <f t="shared" si="13"/>
         <v>107.81090423754745</v>
       </c>
     </row>
     <row r="76" spans="5:10">
-      <c r="E76" s="52">
+      <c r="E76" s="50">
         <f t="shared" si="0"/>
         <v>18.549618320610698</v>
       </c>
-      <c r="F76" s="52">
+      <c r="F76" s="50">
         <f t="shared" si="10"/>
         <v>0.32375191468291775</v>
       </c>
-      <c r="G76" s="53">
+      <c r="G76" s="51">
         <f t="shared" si="2"/>
         <v>118.96097025665773</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H76" s="51">
         <f t="shared" si="11"/>
         <v>106.36251577020764</v>
       </c>
-      <c r="I76" s="53">
+      <c r="I76" s="51">
         <f t="shared" si="12"/>
         <v>123.70121282082216</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="51">
         <f t="shared" si="13"/>
         <v>107.95314471275955</v>
       </c>
     </row>
     <row r="77" spans="5:10">
-      <c r="E77" s="52">
+      <c r="E77" s="50">
         <f t="shared" si="0"/>
         <v>18.893129770992374</v>
       </c>
-      <c r="F77" s="52">
+      <c r="F77" s="50">
         <f t="shared" si="10"/>
         <v>0.32974732051037919</v>
       </c>
-      <c r="G77" s="53">
+      <c r="G77" s="51">
         <f t="shared" si="2"/>
         <v>118.92248384707197</v>
       </c>
-      <c r="H77" s="53">
+      <c r="H77" s="51">
         <f t="shared" si="11"/>
         <v>106.47607945112628</v>
       </c>
-      <c r="I77" s="53">
+      <c r="I77" s="51">
         <f t="shared" si="12"/>
         <v>123.65310480883997</v>
       </c>
-      <c r="J77" s="53">
+      <c r="J77" s="51">
         <f t="shared" si="13"/>
         <v>108.09509931390785</v>
       </c>
     </row>
     <row r="78" spans="5:10">
-      <c r="E78" s="52">
+      <c r="E78" s="50">
         <f t="shared" si="0"/>
         <v>19.236641221374054</v>
       </c>
-      <c r="F78" s="52">
+      <c r="F78" s="50">
         <f t="shared" si="10"/>
         <v>0.33574272633784064</v>
       </c>
-      <c r="G78" s="53">
+      <c r="G78" s="51">
         <f t="shared" si="2"/>
         <v>118.88331727290358</v>
       </c>
-      <c r="H78" s="53">
+      <c r="H78" s="51">
         <f t="shared" si="11"/>
         <v>106.589410350772</v>
       </c>
-      <c r="I78" s="53">
+      <c r="I78" s="51">
         <f t="shared" si="12"/>
         <v>123.60414659112948</v>
       </c>
-      <c r="J78" s="53">
+      <c r="J78" s="51">
         <f t="shared" si="13"/>
         <v>108.23676293846501</v>
       </c>
     </row>
     <row r="79" spans="5:10">
-      <c r="E79" s="52">
+      <c r="E79" s="50">
         <f t="shared" si="0"/>
         <v>19.580152671755734</v>
       </c>
-      <c r="F79" s="52">
+      <c r="F79" s="50">
         <f t="shared" si="10"/>
         <v>0.34173813216530208</v>
       </c>
-      <c r="G79" s="53">
+      <c r="G79" s="51">
         <f t="shared" si="2"/>
         <v>118.84347194198658</v>
       </c>
-      <c r="H79" s="53">
+      <c r="H79" s="51">
         <f t="shared" si="11"/>
         <v>106.70250439549014</v>
       </c>
-      <c r="I79" s="53">
+      <c r="I79" s="51">
         <f t="shared" si="12"/>
         <v>123.55433992748321</v>
       </c>
-      <c r="J79" s="53">
+      <c r="J79" s="51">
         <f t="shared" si="13"/>
         <v>108.37813049436268</v>
       </c>
     </row>
     <row r="80" spans="5:10">
-      <c r="E80" s="52">
+      <c r="E80" s="50">
         <f t="shared" si="0"/>
         <v>19.923664122137414</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F80" s="50">
         <f t="shared" si="10"/>
         <v>0.34773353799276352</v>
       </c>
-      <c r="G80" s="53">
+      <c r="G80" s="51">
         <f t="shared" si="2"/>
         <v>118.80294928655275</v>
       </c>
-      <c r="H80" s="53">
+      <c r="H80" s="51">
         <f t="shared" si="11"/>
         <v>106.81535752013978</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="51">
         <f t="shared" si="12"/>
         <v>123.50368660819092</v>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="51">
         <f t="shared" si="13"/>
         <v>108.51919690017472</v>
       </c>
     </row>
     <row r="81" spans="5:10">
-      <c r="E81" s="52">
+      <c r="E81" s="50">
         <f t="shared" si="0"/>
         <v>20.267175572519093</v>
       </c>
-      <c r="F81" s="52">
+      <c r="F81" s="50">
         <f t="shared" si="10"/>
         <v>0.35372894382022496</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="51">
         <f t="shared" si="2"/>
         <v>118.76175076318015</v>
       </c>
-      <c r="H81" s="53">
+      <c r="H81" s="51">
         <f t="shared" si="11"/>
         <v>106.92796566823979</v>
       </c>
-      <c r="I81" s="53">
+      <c r="I81" s="51">
         <f t="shared" si="12"/>
         <v>123.45218845397518</v>
       </c>
-      <c r="J81" s="53">
+      <c r="J81" s="51">
         <f t="shared" si="13"/>
         <v>108.65995708529974</v>
       </c>
     </row>
     <row r="82" spans="5:10">
-      <c r="E82" s="52">
+      <c r="E82" s="50">
         <f t="shared" si="0"/>
         <v>20.610687022900773</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F82" s="50">
         <f t="shared" si="10"/>
         <v>0.3597243496476864</v>
       </c>
-      <c r="G82" s="53">
+      <c r="G82" s="51">
         <f t="shared" si="2"/>
         <v>118.71987785274079</v>
       </c>
-      <c r="H82" s="53">
+      <c r="H82" s="51">
         <f t="shared" si="11"/>
         <v>107.04032479211467</v>
       </c>
-      <c r="I82" s="53">
+      <c r="I82" s="51">
         <f t="shared" si="12"/>
         <v>123.399847315926</v>
       </c>
-      <c r="J82" s="53">
+      <c r="J82" s="51">
         <f t="shared" si="13"/>
         <v>108.80040599014335</v>
       </c>
     </row>
     <row r="83" spans="5:10">
-      <c r="E83" s="52">
+      <c r="E83" s="50">
         <f t="shared" si="0"/>
         <v>20.954198473282453</v>
       </c>
-      <c r="F83" s="52">
+      <c r="F83" s="50">
         <f t="shared" si="10"/>
         <v>0.36571975547514785</v>
       </c>
-      <c r="G83" s="53">
+      <c r="G83" s="51">
         <f t="shared" si="2"/>
         <v>118.67733206034738</v>
       </c>
-      <c r="H83" s="53">
+      <c r="H83" s="51">
         <f t="shared" si="11"/>
         <v>107.15243085304009</v>
       </c>
-      <c r="I83" s="53">
+      <c r="I83" s="51">
         <f t="shared" si="12"/>
         <v>123.34666507543423</v>
       </c>
-      <c r="J83" s="53">
+      <c r="J83" s="51">
         <f t="shared" si="13"/>
         <v>108.94053856630012</v>
       </c>
     </row>
     <row r="84" spans="5:10">
-      <c r="E84" s="52">
+      <c r="E84" s="50">
         <f t="shared" si="0"/>
         <v>21.297709923664133</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="50">
         <f t="shared" si="10"/>
         <v>0.37171516130260929</v>
       </c>
-      <c r="G84" s="53">
+      <c r="G84" s="51">
         <f t="shared" si="2"/>
         <v>118.63411491529919</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H84" s="51">
         <f t="shared" si="11"/>
         <v>107.26427982138794</v>
       </c>
-      <c r="I84" s="53">
+      <c r="I84" s="51">
         <f t="shared" si="12"/>
         <v>123.292643644124</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="51">
         <f t="shared" si="13"/>
         <v>109.08034977673493</v>
       </c>
     </row>
     <row r="85" spans="5:10">
-      <c r="E85" s="52">
+      <c r="E85" s="50">
         <f t="shared" si="0"/>
         <v>21.641221374045813</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="50">
         <f t="shared" si="10"/>
         <v>0.37771056713007073</v>
       </c>
-      <c r="G85" s="53">
+      <c r="G85" s="51">
         <f t="shared" si="2"/>
         <v>118.59022797102715</v>
       </c>
-      <c r="H85" s="53">
+      <c r="H85" s="51">
         <f t="shared" si="11"/>
         <v>107.37586767677131</v>
       </c>
-      <c r="I85" s="53">
+      <c r="I85" s="51">
         <f t="shared" si="12"/>
         <v>123.23778496378394</v>
       </c>
-      <c r="J85" s="53">
+      <c r="J85" s="51">
         <f t="shared" si="13"/>
         <v>109.21983459596413</v>
       </c>
     </row>
     <row r="86" spans="5:10">
-      <c r="E86" s="52">
+      <c r="E86" s="50">
         <f t="shared" si="0"/>
         <v>21.984732824427493</v>
       </c>
-      <c r="F86" s="52">
+      <c r="F86" s="50">
         <f t="shared" si="10"/>
         <v>0.38370597295753217</v>
       </c>
-      <c r="G86" s="53">
+      <c r="G86" s="51">
         <f t="shared" si="2"/>
         <v>118.54567280503795</v>
       </c>
-      <c r="H86" s="53">
+      <c r="H86" s="51">
         <f t="shared" si="11"/>
         <v>107.48719040818888</v>
       </c>
-      <c r="I86" s="53">
+      <c r="I86" s="51">
         <f t="shared" si="12"/>
         <v>123.18209100629744</v>
       </c>
-      <c r="J86" s="53">
+      <c r="J86" s="51">
         <f t="shared" si="13"/>
         <v>109.3589880102361</v>
       </c>
     </row>
     <row r="87" spans="5:10">
-      <c r="E87" s="52">
+      <c r="E87" s="50">
         <f t="shared" ref="E87:E150" si="14">F87*180/PI()</f>
         <v>22.328244274809169</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="50">
         <f t="shared" si="10"/>
         <v>0.38970137878499361</v>
       </c>
-      <c r="G87" s="53">
+      <c r="G87" s="51">
         <f t="shared" si="2"/>
         <v>118.5004510188574</v>
       </c>
-      <c r="H87" s="53">
+      <c r="H87" s="51">
         <f t="shared" si="11"/>
         <v>107.59824401416921</v>
       </c>
-      <c r="I87" s="53">
+      <c r="I87" s="51">
         <f t="shared" si="12"/>
         <v>123.12556377357174</v>
       </c>
-      <c r="J87" s="53">
+      <c r="J87" s="51">
         <f t="shared" si="13"/>
         <v>109.49780501771153</v>
       </c>
     </row>
     <row r="88" spans="5:10">
-      <c r="E88" s="52">
+      <c r="E88" s="50">
         <f t="shared" si="14"/>
         <v>22.671755725190849</v>
       </c>
-      <c r="F88" s="52">
+      <c r="F88" s="50">
         <f t="shared" si="10"/>
         <v>0.39569678461245505</v>
       </c>
-      <c r="G88" s="53">
+      <c r="G88" s="51">
         <f t="shared" ref="G88:G151" si="15">100+$E$15*COS(F88)</f>
         <v>118.45456423797279</v>
       </c>
-      <c r="H88" s="53">
+      <c r="H88" s="51">
         <f t="shared" si="11"/>
         <v>107.7090245029145</v>
       </c>
-      <c r="I88" s="53">
+      <c r="I88" s="51">
         <f t="shared" si="12"/>
         <v>123.06820529746598</v>
       </c>
-      <c r="J88" s="53">
+      <c r="J88" s="51">
         <f t="shared" si="13"/>
         <v>109.63628062864312</v>
       </c>
     </row>
     <row r="89" spans="5:10">
-      <c r="E89" s="52">
+      <c r="E89" s="50">
         <f t="shared" si="14"/>
         <v>23.015267175572529</v>
       </c>
-      <c r="F89" s="52">
+      <c r="F89" s="50">
         <f t="shared" si="10"/>
         <v>0.4016921904399165</v>
       </c>
-      <c r="G89" s="53">
+      <c r="G89" s="51">
         <f t="shared" si="15"/>
         <v>118.40801411177452</v>
       </c>
-      <c r="H89" s="53">
+      <c r="H89" s="51">
         <f t="shared" si="11"/>
         <v>107.81952789244406</v>
       </c>
-      <c r="I89" s="53">
+      <c r="I89" s="51">
         <f t="shared" si="12"/>
         <v>123.01001763971814</v>
       </c>
-      <c r="J89" s="53">
+      <c r="J89" s="51">
         <f t="shared" si="13"/>
         <v>109.77440986555506</v>
       </c>
     </row>
     <row r="90" spans="5:10">
-      <c r="E90" s="52">
+      <c r="E90" s="50">
         <f t="shared" si="14"/>
         <v>23.358778625954212</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="50">
         <f t="shared" si="10"/>
         <v>0.40768759626737794</v>
       </c>
-      <c r="G90" s="53">
+      <c r="G90" s="51">
         <f t="shared" si="15"/>
         <v>118.36080231349678</v>
       </c>
-      <c r="H90" s="53">
+      <c r="H90" s="51">
         <f t="shared" si="11"/>
         <v>107.92975021073748</v>
       </c>
-      <c r="I90" s="53">
+      <c r="I90" s="51">
         <f t="shared" si="12"/>
         <v>122.95100289187098</v>
       </c>
-      <c r="J90" s="53">
+      <c r="J90" s="51">
         <f t="shared" si="13"/>
         <v>109.91218776342185</v>
       </c>
     </row>
     <row r="91" spans="5:10">
-      <c r="E91" s="52">
+      <c r="E91" s="50">
         <f t="shared" si="14"/>
         <v>23.702290076335892</v>
       </c>
-      <c r="F91" s="52">
+      <c r="F91" s="50">
         <f t="shared" si="10"/>
         <v>0.41368300209483938</v>
       </c>
-      <c r="G91" s="53">
+      <c r="G91" s="51">
         <f t="shared" si="15"/>
         <v>118.31293054015747</v>
       </c>
-      <c r="H91" s="53">
+      <c r="H91" s="51">
         <f t="shared" si="11"/>
         <v>108.03968749587744</v>
       </c>
-      <c r="I91" s="53">
+      <c r="I91" s="51">
         <f t="shared" si="12"/>
         <v>122.89116317519682</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="51">
         <f t="shared" si="13"/>
         <v>110.04960936984679</v>
       </c>
     </row>
     <row r="92" spans="5:10">
-      <c r="E92" s="52">
+      <c r="E92" s="50">
         <f t="shared" si="14"/>
         <v>24.045801526717572</v>
       </c>
-      <c r="F92" s="52">
+      <c r="F92" s="50">
         <f t="shared" si="10"/>
         <v>0.41967840792230082</v>
       </c>
-      <c r="G92" s="53">
+      <c r="G92" s="51">
         <f t="shared" si="15"/>
         <v>118.26440051249708</v>
       </c>
-      <c r="H92" s="53">
+      <c r="H92" s="51">
         <f t="shared" si="11"/>
         <v>108.14933579619202</v>
       </c>
-      <c r="I92" s="53">
+      <c r="I92" s="51">
         <f t="shared" si="12"/>
         <v>122.83050064062134</v>
       </c>
-      <c r="J92" s="53">
+      <c r="J92" s="51">
         <f t="shared" si="13"/>
         <v>110.18666974524002</v>
       </c>
     </row>
     <row r="93" spans="5:10">
-      <c r="E93" s="52">
+      <c r="E93" s="50">
         <f t="shared" si="14"/>
         <v>24.389312977099248</v>
       </c>
-      <c r="F93" s="52">
+      <c r="F93" s="50">
         <f t="shared" si="10"/>
         <v>0.42567381374976226</v>
       </c>
-      <c r="G93" s="53">
+      <c r="G93" s="51">
         <f t="shared" si="15"/>
         <v>118.21521397491694</v>
       </c>
-      <c r="H93" s="53">
+      <c r="H93" s="51">
         <f t="shared" si="11"/>
         <v>108.25869117039683</v>
       </c>
-      <c r="I93" s="53">
+      <c r="I93" s="51">
         <f t="shared" si="12"/>
         <v>122.76901746864618</v>
       </c>
-      <c r="J93" s="53">
+      <c r="J93" s="51">
         <f t="shared" si="13"/>
         <v>110.32336396299604</v>
       </c>
     </row>
     <row r="94" spans="5:10">
-      <c r="E94" s="52">
+      <c r="E94" s="50">
         <f t="shared" si="14"/>
         <v>24.732824427480928</v>
       </c>
-      <c r="F94" s="52">
+      <c r="F94" s="50">
         <f t="shared" si="10"/>
         <v>0.43166921957722371</v>
       </c>
-      <c r="G94" s="53">
+      <c r="G94" s="51">
         <f t="shared" si="15"/>
         <v>118.16537269541651</v>
       </c>
-      <c r="H94" s="53">
+      <c r="H94" s="51">
         <f t="shared" si="11"/>
         <v>108.36774968773662</v>
       </c>
-      <c r="I94" s="53">
+      <c r="I94" s="51">
         <f t="shared" si="12"/>
         <v>122.70671586927062</v>
       </c>
-      <c r="J94" s="53">
+      <c r="J94" s="51">
         <f t="shared" si="13"/>
         <v>110.45968710967078</v>
       </c>
     </row>
     <row r="95" spans="5:10">
-      <c r="E95" s="52">
+      <c r="E95" s="50">
         <f t="shared" si="14"/>
         <v>25.076335877862608</v>
       </c>
-      <c r="F95" s="52">
+      <c r="F95" s="50">
         <f t="shared" si="10"/>
         <v>0.43766462540468515</v>
       </c>
-      <c r="G95" s="53">
+      <c r="G95" s="51">
         <f t="shared" si="15"/>
         <v>118.11487846552976</v>
       </c>
-      <c r="H95" s="53">
+      <c r="H95" s="51">
         <f t="shared" si="11"/>
         <v>108.47650742812664</v>
       </c>
-      <c r="I95" s="53">
+      <c r="I95" s="51">
         <f t="shared" si="12"/>
         <v>122.6435980819122</v>
       </c>
-      <c r="J95" s="53">
+      <c r="J95" s="51">
         <f t="shared" si="13"/>
         <v>110.5956342851583</v>
       </c>
     </row>
     <row r="96" spans="5:10">
-      <c r="E96" s="52">
+      <c r="E96" s="50">
         <f t="shared" si="14"/>
         <v>25.419847328244288</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="50">
         <f t="shared" si="10"/>
         <v>0.44366003123214659</v>
       </c>
-      <c r="G96" s="53">
+      <c r="G96" s="51">
         <f t="shared" si="15"/>
         <v>118.06373310026086</v>
       </c>
-      <c r="H96" s="53">
+      <c r="H96" s="51">
         <f t="shared" si="11"/>
         <v>108.58496048229344</v>
       </c>
-      <c r="I96" s="53">
+      <c r="I96" s="51">
         <f t="shared" si="12"/>
         <v>122.57966637532608</v>
       </c>
-      <c r="J96" s="53">
+      <c r="J96" s="51">
         <f t="shared" si="13"/>
         <v>110.73120060286679</v>
       </c>
     </row>
     <row r="97" spans="5:10">
-      <c r="E97" s="52">
+      <c r="E97" s="50">
         <f t="shared" si="14"/>
         <v>25.763358778625967</v>
       </c>
-      <c r="F97" s="52">
+      <c r="F97" s="50">
         <f t="shared" si="10"/>
         <v>0.44965543705960803</v>
       </c>
-      <c r="G97" s="53">
+      <c r="G97" s="51">
         <f t="shared" si="15"/>
         <v>118.01193843801889</v>
       </c>
-      <c r="H97" s="53">
+      <c r="H97" s="51">
         <f t="shared" si="11"/>
         <v>108.69310495191549</v>
       </c>
-      <c r="I97" s="53">
+      <c r="I97" s="51">
         <f t="shared" si="12"/>
         <v>122.51492304752361</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="51">
         <f t="shared" si="13"/>
         <v>110.86638118989435</v>
       </c>
     </row>
     <row r="98" spans="5:10">
-      <c r="E98" s="52">
+      <c r="E98" s="50">
         <f t="shared" si="14"/>
         <v>26.106870229007651</v>
       </c>
-      <c r="F98" s="52">
+      <c r="F98" s="50">
         <f t="shared" si="10"/>
         <v>0.45565084288706947</v>
       </c>
-      <c r="G98" s="53">
+      <c r="G98" s="51">
         <f t="shared" si="15"/>
         <v>117.95949634055175</v>
       </c>
-      <c r="H98" s="53">
+      <c r="H98" s="51">
         <f t="shared" si="11"/>
         <v>108.80093694976325</v>
       </c>
-      <c r="I98" s="53">
+      <c r="I98" s="51">
         <f t="shared" si="12"/>
         <v>122.44937042568969</v>
       </c>
-      <c r="J98" s="53">
+      <c r="J98" s="51">
         <f t="shared" si="13"/>
         <v>111.00117118720408</v>
       </c>
     </row>
     <row r="99" spans="5:10">
-      <c r="E99" s="52">
+      <c r="E99" s="50">
         <f t="shared" si="14"/>
         <v>26.450381679389327</v>
       </c>
-      <c r="F99" s="52">
+      <c r="F99" s="50">
         <f t="shared" si="10"/>
         <v>0.46164624871453092</v>
       </c>
-      <c r="G99" s="53">
+      <c r="G99" s="51">
         <f t="shared" si="15"/>
         <v>117.90640869287928</v>
       </c>
-      <c r="H99" s="53">
+      <c r="H99" s="51">
         <f t="shared" si="11"/>
         <v>108.90845259983895</v>
       </c>
-      <c r="I99" s="53">
+      <c r="I99" s="51">
         <f t="shared" si="12"/>
         <v>122.3830108660991</v>
       </c>
-      <c r="J99" s="53">
+      <c r="J99" s="51">
         <f t="shared" si="13"/>
         <v>111.13556574979869</v>
       </c>
     </row>
     <row r="100" spans="5:10">
-      <c r="E100" s="52">
+      <c r="E100" s="50">
         <f t="shared" si="14"/>
         <v>26.793893129771007</v>
       </c>
-      <c r="F100" s="52">
+      <c r="F100" s="50">
         <f t="shared" si="10"/>
         <v>0.46764165454199236</v>
       </c>
-      <c r="G100" s="53">
+      <c r="G100" s="51">
         <f t="shared" si="15"/>
         <v>117.85267740322547</v>
       </c>
-      <c r="H100" s="53">
+      <c r="H100" s="51">
         <f t="shared" si="11"/>
         <v>109.01564803751582</v>
       </c>
-      <c r="I100" s="53">
+      <c r="I100" s="51">
         <f t="shared" si="12"/>
         <v>122.31584675403184</v>
       </c>
-      <c r="J100" s="53">
+      <c r="J100" s="51">
         <f t="shared" si="13"/>
         <v>111.26956004689477</v>
       </c>
     </row>
     <row r="101" spans="5:10">
-      <c r="E101" s="52">
+      <c r="E101" s="50">
         <f t="shared" si="14"/>
         <v>27.137404580152687</v>
       </c>
-      <c r="F101" s="52">
+      <c r="F101" s="50">
         <f t="shared" si="10"/>
         <v>0.4736370603694538</v>
       </c>
-      <c r="G101" s="53">
+      <c r="G101" s="51">
         <f t="shared" si="15"/>
         <v>117.7983044029499</v>
       </c>
-      <c r="H101" s="53">
+      <c r="H101" s="51">
         <f t="shared" si="11"/>
         <v>109.12251940967705</v>
       </c>
-      <c r="I101" s="53">
+      <c r="I101" s="51">
         <f t="shared" si="12"/>
         <v>122.24788050368736</v>
       </c>
-      <c r="J101" s="53">
+      <c r="J101" s="51">
         <f t="shared" si="13"/>
         <v>111.40314926209632</v>
       </c>
     </row>
     <row r="102" spans="5:10">
-      <c r="E102" s="52">
+      <c r="E102" s="50">
         <f t="shared" si="14"/>
         <v>27.480916030534367</v>
       </c>
-      <c r="F102" s="52">
+      <c r="F102" s="50">
         <f t="shared" si="10"/>
         <v>0.47963246619691524</v>
       </c>
-      <c r="G102" s="53">
+      <c r="G102" s="51">
         <f t="shared" si="15"/>
         <v>117.74329164647826</v>
       </c>
-      <c r="H102" s="53">
+      <c r="H102" s="51">
         <f t="shared" si="11"/>
         <v>109.22906287485436</v>
       </c>
-      <c r="I102" s="53">
+      <c r="I102" s="51">
         <f t="shared" si="12"/>
         <v>122.17911455809781</v>
       </c>
-      <c r="J102" s="53">
+      <c r="J102" s="51">
         <f t="shared" si="13"/>
         <v>111.53632859356796</v>
       </c>
     </row>
     <row r="103" spans="5:10">
-      <c r="E103" s="52">
+      <c r="E103" s="50">
         <f t="shared" si="14"/>
         <v>27.824427480916047</v>
       </c>
-      <c r="F103" s="52">
+      <c r="F103" s="50">
         <f t="shared" si="10"/>
         <v>0.48562787202437668</v>
       </c>
-      <c r="G103" s="53">
+      <c r="G103" s="51">
         <f t="shared" si="15"/>
         <v>117.68764111123218</v>
       </c>
-      <c r="H103" s="53">
+      <c r="H103" s="51">
         <f t="shared" si="11"/>
         <v>109.33527460336596</v>
       </c>
-      <c r="I103" s="53">
+      <c r="I103" s="51">
         <f t="shared" si="12"/>
         <v>122.10955138904022</v>
       </c>
-      <c r="J103" s="53">
+      <c r="J103" s="51">
         <f t="shared" si="13"/>
         <v>111.66909325420744</v>
       </c>
     </row>
     <row r="104" spans="5:10">
-      <c r="E104" s="52">
+      <c r="E104" s="50">
         <f t="shared" si="14"/>
         <v>28.167938931297723</v>
       </c>
-      <c r="F104" s="52">
+      <c r="F104" s="50">
         <f t="shared" si="10"/>
         <v>0.49162327785183813</v>
       </c>
-      <c r="G104" s="53">
+      <c r="G104" s="51">
         <f t="shared" si="15"/>
         <v>117.63135479755809</v>
       </c>
-      <c r="H104" s="53">
+      <c r="H104" s="51">
         <f t="shared" si="11"/>
         <v>109.44115077745427</v>
       </c>
-      <c r="I104" s="53">
+      <c r="I104" s="51">
         <f t="shared" si="12"/>
         <v>122.03919349694762</v>
       </c>
-      <c r="J104" s="53">
+      <c r="J104" s="51">
         <f t="shared" si="13"/>
         <v>111.80143847181783</v>
       </c>
     </row>
     <row r="105" spans="5:10">
-      <c r="E105" s="52">
+      <c r="E105" s="50">
         <f t="shared" si="14"/>
         <v>28.511450381679403</v>
       </c>
-      <c r="F105" s="52">
+      <c r="F105" s="50">
         <f t="shared" si="10"/>
         <v>0.49761868367929957</v>
       </c>
-      <c r="G105" s="53">
+      <c r="G105" s="51">
         <f t="shared" si="15"/>
         <v>117.57443472865535</v>
       </c>
-      <c r="H105" s="53">
+      <c r="H105" s="51">
         <f t="shared" si="11"/>
         <v>109.54668759142315</v>
       </c>
-      <c r="I105" s="53">
+      <c r="I105" s="51">
         <f t="shared" si="12"/>
         <v>121.96804341081919</v>
       </c>
-      <c r="J105" s="53">
+      <c r="J105" s="51">
         <f t="shared" si="13"/>
         <v>111.93335948927893</v>
       </c>
     </row>
     <row r="106" spans="5:10">
-      <c r="E106" s="52">
+      <c r="E106" s="50">
         <f t="shared" si="14"/>
         <v>28.854961832061083</v>
       </c>
-      <c r="F106" s="52">
+      <c r="F106" s="50">
         <f t="shared" si="10"/>
         <v>0.50361408950676101</v>
       </c>
-      <c r="G106" s="53">
+      <c r="G106" s="51">
         <f t="shared" si="15"/>
         <v>117.5168829505035</v>
       </c>
-      <c r="H106" s="53">
+      <c r="H106" s="51">
         <f t="shared" si="11"/>
         <v>109.65188125177468</v>
       </c>
-      <c r="I106" s="53">
+      <c r="I106" s="51">
         <f t="shared" si="12"/>
         <v>121.89610368812939</v>
       </c>
-      <c r="J106" s="53">
+      <c r="J106" s="51">
         <f t="shared" si="13"/>
         <v>112.06485156471837</v>
       </c>
     </row>
     <row r="107" spans="5:10">
-      <c r="E107" s="52">
+      <c r="E107" s="50">
         <f t="shared" si="14"/>
         <v>29.198473282442759</v>
       </c>
-      <c r="F107" s="52">
+      <c r="F107" s="50">
         <f t="shared" si="10"/>
         <v>0.5096094953342224</v>
       </c>
-      <c r="G107" s="53">
+      <c r="G107" s="51">
         <f t="shared" si="15"/>
         <v>117.45870153178873</v>
       </c>
-      <c r="H107" s="53">
+      <c r="H107" s="51">
         <f t="shared" si="11"/>
         <v>109.75672797734555</v>
       </c>
-      <c r="I107" s="53">
+      <c r="I107" s="51">
         <f t="shared" si="12"/>
         <v>121.82337691473592</v>
       </c>
-      <c r="J107" s="53">
+      <c r="J107" s="51">
         <f t="shared" si="13"/>
         <v>112.19590997168194</v>
       </c>
     </row>
     <row r="108" spans="5:10">
-      <c r="E108" s="52">
+      <c r="E108" s="50">
         <f t="shared" si="14"/>
         <v>29.541984732824435</v>
       </c>
-      <c r="F108" s="52">
+      <c r="F108" s="50">
         <f t="shared" si="10"/>
         <v>0.51560490116168378</v>
       </c>
-      <c r="G108" s="53">
+      <c r="G108" s="51">
         <f t="shared" si="15"/>
         <v>117.39989256382955</v>
       </c>
-      <c r="H108" s="53">
+      <c r="H108" s="51">
         <f t="shared" si="11"/>
         <v>109.86122399944291</v>
       </c>
-      <c r="I108" s="53">
+      <c r="I108" s="51">
         <f t="shared" si="12"/>
         <v>121.74986570478694</v>
       </c>
-      <c r="J108" s="53">
+      <c r="J108" s="51">
         <f t="shared" si="13"/>
         <v>112.32652999930363</v>
       </c>
     </row>
     <row r="109" spans="5:10">
-      <c r="E109" s="52">
+      <c r="E109" s="50">
         <f t="shared" si="14"/>
         <v>29.885496183206115</v>
       </c>
-      <c r="F109" s="52">
+      <c r="F109" s="50">
         <f t="shared" si="10"/>
         <v>0.52160030698914517</v>
       </c>
-      <c r="G109" s="53">
+      <c r="G109" s="51">
         <f t="shared" si="15"/>
         <v>117.34045816050157</v>
       </c>
-      <c r="H109" s="53">
+      <c r="H109" s="51">
         <f t="shared" si="11"/>
         <v>109.96536556197988</v>
       </c>
-      <c r="I109" s="53">
+      <c r="I109" s="51">
         <f t="shared" si="12"/>
         <v>121.67557270062696</v>
       </c>
-      <c r="J109" s="53">
+      <c r="J109" s="51">
         <f t="shared" si="13"/>
         <v>112.45670695247485</v>
       </c>
     </row>
     <row r="110" spans="5:10">
-      <c r="E110" s="52">
+      <c r="E110" s="50">
         <f t="shared" si="14"/>
         <v>30.229007633587791</v>
       </c>
-      <c r="F110" s="52">
+      <c r="F110" s="50">
         <f t="shared" si="10"/>
         <v>0.52759571281660655</v>
       </c>
-      <c r="G110" s="53">
+      <c r="G110" s="51">
         <f t="shared" si="15"/>
         <v>117.28040045816152</v>
       </c>
-      <c r="H110" s="53">
+      <c r="H110" s="51">
         <f t="shared" si="11"/>
         <v>110.06914892161055</v>
       </c>
-      <c r="I110" s="53">
+      <c r="I110" s="51">
         <f t="shared" si="12"/>
         <v>121.6005005727019</v>
       </c>
-      <c r="J110" s="53">
+      <c r="J110" s="51">
         <f t="shared" si="13"/>
         <v>112.58643615201319</v>
       </c>
     </row>
     <row r="111" spans="5:10">
-      <c r="E111" s="52">
+      <c r="E111" s="50">
         <f t="shared" si="14"/>
         <v>30.572519083969468</v>
       </c>
-      <c r="F111" s="52">
+      <c r="F111" s="50">
         <f t="shared" si="10"/>
         <v>0.53359111864406794</v>
       </c>
-      <c r="G111" s="53">
+      <c r="G111" s="51">
         <f t="shared" si="15"/>
         <v>117.21972161557053</v>
       </c>
-      <c r="H111" s="53">
+      <c r="H111" s="51">
         <f t="shared" si="11"/>
         <v>110.17257034786455</v>
       </c>
-      <c r="I111" s="53">
+      <c r="I111" s="51">
         <f t="shared" si="12"/>
         <v>121.52465201946316</v>
       </c>
-      <c r="J111" s="53">
+      <c r="J111" s="51">
         <f t="shared" si="13"/>
         <v>112.71571293483069</v>
       </c>
     </row>
     <row r="112" spans="5:10">
-      <c r="E112" s="52">
+      <c r="E112" s="50">
         <f t="shared" si="14"/>
         <v>30.916030534351144</v>
       </c>
-      <c r="F112" s="52">
+      <c r="F112" s="50">
         <f t="shared" si="10"/>
         <v>0.53958652447152933</v>
       </c>
-      <c r="G112" s="53">
+      <c r="G112" s="51">
         <f t="shared" si="15"/>
         <v>117.15842381381643</v>
       </c>
-      <c r="H112" s="53">
+      <c r="H112" s="51">
         <f t="shared" si="11"/>
         <v>110.27562612328111</v>
       </c>
-      <c r="I112" s="53">
+      <c r="I112" s="51">
         <f t="shared" si="12"/>
         <v>121.44802976727053</v>
       </c>
-      <c r="J112" s="53">
+      <c r="J112" s="51">
         <f t="shared" si="13"/>
         <v>112.8445326541014</v>
       </c>
     </row>
     <row r="113" spans="5:10">
-      <c r="E113" s="52">
+      <c r="E113" s="50">
         <f t="shared" si="14"/>
         <v>31.25954198473282</v>
       </c>
-      <c r="F113" s="52">
+      <c r="F113" s="50">
         <f t="shared" si="10"/>
         <v>0.54558193029899071</v>
       </c>
-      <c r="G113" s="53">
+      <c r="G113" s="51">
         <f t="shared" si="15"/>
         <v>117.09650925623542</v>
       </c>
-      <c r="H113" s="53">
+      <c r="H113" s="51">
         <f t="shared" si="11"/>
         <v>110.37831254354273</v>
       </c>
-      <c r="I113" s="53">
+      <c r="I113" s="51">
         <f t="shared" si="12"/>
         <v>121.37063657029428</v>
       </c>
-      <c r="J113" s="53">
+      <c r="J113" s="51">
         <f t="shared" si="13"/>
         <v>112.97289067942842</v>
       </c>
     </row>
     <row r="114" spans="5:10">
-      <c r="E114" s="52">
+      <c r="E114" s="50">
         <f t="shared" si="14"/>
         <v>31.603053435114496</v>
       </c>
-      <c r="F114" s="52">
+      <c r="F114" s="50">
         <f t="shared" si="10"/>
         <v>0.5515773361264521</v>
       </c>
-      <c r="G114" s="53">
+      <c r="G114" s="51">
         <f t="shared" si="15"/>
         <v>117.03398016833289</v>
       </c>
-      <c r="H114" s="53">
+      <c r="H114" s="51">
         <f t="shared" si="11"/>
         <v>110.48062591760825</v>
       </c>
-      <c r="I114" s="53">
+      <c r="I114" s="51">
         <f t="shared" si="12"/>
         <v>121.29247521041611</v>
       </c>
-      <c r="J114" s="53">
+      <c r="J114" s="51">
         <f t="shared" si="13"/>
         <v>113.10078239701032</v>
       </c>
     </row>
     <row r="115" spans="5:10">
-      <c r="E115" s="52">
+      <c r="E115" s="50">
         <f t="shared" si="14"/>
         <v>31.946564885496173</v>
       </c>
-      <c r="F115" s="52">
+      <c r="F115" s="50">
         <f t="shared" si="10"/>
         <v>0.55757274195391349</v>
       </c>
-      <c r="G115" s="53">
+      <c r="G115" s="51">
         <f t="shared" si="15"/>
         <v>116.97083879770332</v>
       </c>
-      <c r="H115" s="53">
+      <c r="H115" s="51">
         <f t="shared" si="11"/>
         <v>110.58256256784563</v>
       </c>
-      <c r="I115" s="53">
+      <c r="I115" s="51">
         <f t="shared" si="12"/>
         <v>121.21354849712915</v>
       </c>
-      <c r="J115" s="53">
+      <c r="J115" s="51">
         <f t="shared" si="13"/>
         <v>113.22820320980703</v>
       </c>
     </row>
     <row r="116" spans="5:10">
-      <c r="E116" s="52">
+      <c r="E116" s="50">
         <f t="shared" si="14"/>
         <v>32.290076335877849</v>
       </c>
-      <c r="F116" s="52">
+      <c r="F116" s="50">
         <f t="shared" si="10"/>
         <v>0.56356814778137487</v>
       </c>
-      <c r="G116" s="53">
+      <c r="G116" s="51">
         <f t="shared" si="15"/>
         <v>116.90708741394964</v>
       </c>
-      <c r="H116" s="53">
+      <c r="H116" s="51">
         <f t="shared" si="11"/>
         <v>110.68411883016404</v>
       </c>
-      <c r="I116" s="53">
+      <c r="I116" s="51">
         <f t="shared" si="12"/>
         <v>121.13385926743706</v>
       </c>
-      <c r="J116" s="53">
+      <c r="J116" s="51">
         <f t="shared" si="13"/>
         <v>113.35514853770503</v>
       </c>
     </row>
     <row r="117" spans="5:10">
-      <c r="E117" s="52">
+      <c r="E117" s="50">
         <f t="shared" si="14"/>
         <v>32.633587786259525</v>
       </c>
-      <c r="F117" s="52">
+      <c r="F117" s="50">
         <f t="shared" si="10"/>
         <v>0.56956355360883626</v>
       </c>
-      <c r="G117" s="53">
+      <c r="G117" s="51">
         <f t="shared" si="15"/>
         <v>116.84272830860149</v>
       </c>
-      <c r="H117" s="53">
+      <c r="H117" s="51">
         <f t="shared" si="11"/>
         <v>110.78529105414563</v>
       </c>
-      <c r="I117" s="53">
+      <c r="I117" s="51">
         <f t="shared" si="12"/>
         <v>121.05341038575187</v>
       </c>
-      <c r="J117" s="53">
+      <c r="J117" s="51">
         <f t="shared" si="13"/>
         <v>113.48161381768203</v>
       </c>
     </row>
     <row r="118" spans="5:10">
-      <c r="E118" s="52">
+      <c r="E118" s="50">
         <f t="shared" si="14"/>
         <v>32.977099236641202</v>
       </c>
-      <c r="F118" s="52">
+      <c r="F118" s="50">
         <f t="shared" si="10"/>
         <v>0.57555895943629765</v>
       </c>
-      <c r="G118" s="53">
+      <c r="G118" s="51">
         <f t="shared" si="15"/>
         <v>116.777763795033</v>
       </c>
-      <c r="H118" s="53">
+      <c r="H118" s="51">
         <f t="shared" si="11"/>
         <v>110.88607560317674</v>
       </c>
-      <c r="I118" s="53">
+      <c r="I118" s="51">
         <f t="shared" si="12"/>
         <v>120.97220474379125</v>
       </c>
-      <c r="J118" s="53">
+      <c r="J118" s="51">
         <f t="shared" si="13"/>
         <v>113.60759450397092</v>
       </c>
     </row>
     <row r="119" spans="5:10">
-      <c r="E119" s="52">
+      <c r="E119" s="50">
         <f t="shared" si="14"/>
         <v>33.320610687022878</v>
       </c>
-      <c r="F119" s="52">
+      <c r="F119" s="50">
         <f t="shared" si="10"/>
         <v>0.58155436526375903</v>
       </c>
-      <c r="G119" s="53">
+      <c r="G119" s="51">
         <f t="shared" si="15"/>
         <v>116.71219620837952</v>
       </c>
-      <c r="H119" s="53">
+      <c r="H119" s="51">
         <f t="shared" si="11"/>
         <v>110.98646885457858</v>
       </c>
-      <c r="I119" s="53">
+      <c r="I119" s="51">
         <f t="shared" si="12"/>
         <v>120.8902452604744</v>
       </c>
-      <c r="J119" s="53">
+      <c r="J119" s="51">
         <f t="shared" si="13"/>
         <v>113.73308606822322</v>
       </c>
     </row>
     <row r="120" spans="5:10">
-      <c r="E120" s="52">
+      <c r="E120" s="50">
         <f t="shared" si="14"/>
         <v>33.664122137404554</v>
       </c>
-      <c r="F120" s="52">
+      <c r="F120" s="50">
         <f t="shared" si="10"/>
         <v>0.58754977109122042</v>
       </c>
-      <c r="G120" s="53">
+      <c r="G120" s="51">
         <f t="shared" si="15"/>
         <v>116.64602790545375</v>
       </c>
-      <c r="H120" s="53">
+      <c r="H120" s="51">
         <f t="shared" si="11"/>
         <v>111.08646719973747</v>
       </c>
-      <c r="I120" s="53">
+      <c r="I120" s="51">
         <f t="shared" si="12"/>
         <v>120.80753488181719</v>
       </c>
-      <c r="J120" s="53">
+      <c r="J120" s="51">
         <f t="shared" si="13"/>
         <v>113.85808399967185</v>
       </c>
     </row>
     <row r="121" spans="5:10">
-      <c r="E121" s="52">
+      <c r="E121" s="50">
         <f t="shared" si="14"/>
         <v>34.007633587786231</v>
       </c>
-      <c r="F121" s="52">
+      <c r="F121" s="50">
         <f t="shared" si="10"/>
         <v>0.5935451769186818</v>
       </c>
-      <c r="G121" s="53">
+      <c r="G121" s="51">
         <f t="shared" si="15"/>
         <v>116.57926126466101</v>
       </c>
-      <c r="H121" s="53">
+      <c r="H121" s="51">
         <f t="shared" si="11"/>
         <v>111.18606704423458</v>
       </c>
-      <c r="I121" s="53">
+      <c r="I121" s="51">
         <f t="shared" si="12"/>
         <v>120.72407658082626</v>
       </c>
-      <c r="J121" s="53">
+      <c r="J121" s="51">
         <f t="shared" si="13"/>
         <v>113.98258380529323</v>
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="52">
+      <c r="E122" s="50">
         <f t="shared" si="14"/>
         <v>34.351145038167907</v>
       </c>
-      <c r="F122" s="52">
+      <c r="F122" s="50">
         <f t="shared" si="10"/>
         <v>0.59954058274614319</v>
       </c>
-      <c r="G122" s="53">
+      <c r="G122" s="51">
         <f t="shared" si="15"/>
         <v>116.51189868591374</v>
       </c>
-      <c r="H122" s="53">
+      <c r="H122" s="51">
         <f t="shared" si="11"/>
         <v>111.28526480797505</v>
       </c>
-      <c r="I122" s="53">
+      <c r="I122" s="51">
         <f t="shared" si="12"/>
         <v>120.63987335739216</v>
       </c>
-      <c r="J122" s="53">
+      <c r="J122" s="51">
         <f t="shared" si="13"/>
         <v>114.10658100996882</v>
       </c>
     </row>
     <row r="123" spans="5:10">
-      <c r="E123" s="52">
+      <c r="E123" s="50">
         <f t="shared" si="14"/>
         <v>34.694656488549583</v>
       </c>
-      <c r="F123" s="52">
+      <c r="F123" s="50">
         <f t="shared" si="10"/>
         <v>0.60553598857360458</v>
       </c>
-      <c r="G123" s="53">
+      <c r="G123" s="51">
         <f t="shared" si="15"/>
         <v>116.44394259054522</v>
       </c>
-      <c r="H123" s="53">
+      <c r="H123" s="51">
         <f t="shared" si="11"/>
         <v>111.38405692531678</v>
       </c>
-      <c r="I123" s="53">
+      <c r="I123" s="51">
         <f t="shared" si="12"/>
         <v>120.55492823818153</v>
       </c>
-      <c r="J123" s="53">
+      <c r="J123" s="51">
         <f t="shared" si="13"/>
         <v>114.23007115664598</v>
       </c>
     </row>
     <row r="124" spans="5:10">
-      <c r="E124" s="52">
+      <c r="E124" s="50">
         <f t="shared" si="14"/>
         <v>35.038167938931259</v>
       </c>
-      <c r="F124" s="52">
+      <c r="F124" s="50">
         <f t="shared" si="10"/>
         <v>0.61153139440106596</v>
       </c>
-      <c r="G124" s="53">
+      <c r="G124" s="51">
         <f t="shared" si="15"/>
         <v>116.37539542122261</v>
       </c>
-      <c r="H124" s="53">
+      <c r="H124" s="51">
         <f t="shared" si="11"/>
         <v>111.4824398451985</v>
       </c>
-      <c r="I124" s="53">
+      <c r="I124" s="51">
         <f t="shared" si="12"/>
         <v>120.46924427652824</v>
       </c>
-      <c r="J124" s="53">
+      <c r="J124" s="51">
         <f t="shared" si="13"/>
         <v>114.35304980649812</v>
       </c>
     </row>
     <row r="125" spans="5:10">
-      <c r="E125" s="52">
+      <c r="E125" s="50">
         <f t="shared" si="14"/>
         <v>35.381679389312943</v>
       </c>
-      <c r="F125" s="52">
+      <c r="F125" s="50">
         <f t="shared" si="10"/>
         <v>0.61752680022852735</v>
       </c>
-      <c r="G125" s="53">
+      <c r="G125" s="51">
         <f t="shared" si="15"/>
         <v>116.30625964185901</v>
       </c>
-      <c r="H125" s="53">
+      <c r="H125" s="51">
         <f t="shared" si="11"/>
         <v>111.58041003126745</v>
       </c>
-      <c r="I125" s="53">
+      <c r="I125" s="51">
         <f t="shared" si="12"/>
         <v>120.38282455232377</v>
       </c>
-      <c r="J125" s="53">
+      <c r="J125" s="51">
         <f t="shared" si="13"/>
         <v>114.47551253908431</v>
       </c>
     </row>
     <row r="126" spans="5:10">
-      <c r="E126" s="52">
+      <c r="E126" s="50">
         <f t="shared" si="14"/>
         <v>35.725190839694619</v>
       </c>
-      <c r="F126" s="52">
-        <f t="shared" ref="F126:F155" si="16">F125+$F$19*2</f>
+      <c r="F126" s="50">
+        <f t="shared" ref="F126:F153" si="16">F125+$F$19*2</f>
         <v>0.62352220605598874</v>
       </c>
-      <c r="G126" s="53">
+      <c r="G126" s="51">
         <f t="shared" si="15"/>
         <v>116.2365377375251</v>
       </c>
-      <c r="H126" s="53">
-        <f t="shared" ref="H126:H155" si="17">100+$E$15*SIN(F126)</f>
+      <c r="H126" s="51">
+        <f t="shared" ref="H126:H153" si="17">100+$E$15*SIN(F126)</f>
         <v>111.67796396200653</v>
       </c>
-      <c r="I126" s="53">
-        <f t="shared" ref="I126:I155" si="18">100+$E$14*COS(F126)</f>
+      <c r="I126" s="51">
+        <f t="shared" ref="I126:I153" si="18">100+$E$14*COS(F126)</f>
         <v>120.29567217190638</v>
       </c>
-      <c r="J126" s="53">
-        <f t="shared" ref="J126:J155" si="19">100+$E$14*SIN(F126)</f>
+      <c r="J126" s="51">
+        <f t="shared" ref="J126:J153" si="19">100+$E$14*SIN(F126)</f>
         <v>114.59745495250817</v>
       </c>
     </row>
     <row r="127" spans="5:10">
-      <c r="E127" s="52">
+      <c r="E127" s="50">
         <f t="shared" si="14"/>
         <v>36.068702290076288</v>
       </c>
-      <c r="F127" s="52">
+      <c r="F127" s="50">
         <f t="shared" si="16"/>
         <v>0.62951761188345012</v>
       </c>
-      <c r="G127" s="53">
+      <c r="G127" s="51">
         <f t="shared" si="15"/>
         <v>116.16623221435958</v>
       </c>
-      <c r="H127" s="53">
+      <c r="H127" s="51">
         <f t="shared" si="17"/>
         <v>111.77509813086084</v>
       </c>
-      <c r="I127" s="53">
+      <c r="I127" s="51">
         <f t="shared" si="18"/>
         <v>120.20779026794948</v>
       </c>
-      <c r="J127" s="53">
+      <c r="J127" s="51">
         <f t="shared" si="19"/>
         <v>114.71887266357606</v>
       </c>
     </row>
     <row r="128" spans="5:10">
-      <c r="E128" s="52">
+      <c r="E128" s="50">
         <f t="shared" si="14"/>
         <v>36.412213740457965</v>
       </c>
-      <c r="F128" s="52">
+      <c r="F128" s="50">
         <f t="shared" si="16"/>
         <v>0.63551301771091151</v>
       </c>
-      <c r="G128" s="53">
+      <c r="G128" s="51">
         <f t="shared" si="15"/>
         <v>116.09534559947926</v>
       </c>
-      <c r="H128" s="53">
+      <c r="H128" s="51">
         <f t="shared" si="17"/>
         <v>111.87180904636372</v>
       </c>
-      <c r="I128" s="53">
+      <c r="I128" s="51">
         <f t="shared" si="18"/>
         <v>120.11918199934908</v>
       </c>
-      <c r="J128" s="53">
+      <c r="J128" s="51">
         <f t="shared" si="19"/>
         <v>114.83976130795466</v>
       </c>
     </row>
     <row r="129" spans="5:10">
-      <c r="E129" s="52">
+      <c r="E129" s="50">
         <f t="shared" si="14"/>
         <v>36.755725190839641</v>
       </c>
-      <c r="F129" s="52">
+      <c r="F129" s="50">
         <f t="shared" si="16"/>
         <v>0.6415084235383729</v>
       </c>
-      <c r="G129" s="53">
+      <c r="G129" s="51">
         <f t="shared" si="15"/>
         <v>116.02388044088816</v>
       </c>
-      <c r="H129" s="53">
+      <c r="H129" s="51">
         <f t="shared" si="17"/>
         <v>111.96809323226226</v>
       </c>
-      <c r="I129" s="53">
+      <c r="I129" s="51">
         <f t="shared" si="18"/>
         <v>120.0298505511102</v>
       </c>
-      <c r="J129" s="53">
+      <c r="J129" s="51">
         <f t="shared" si="19"/>
         <v>114.96011654032782</v>
       </c>
     </row>
     <row r="130" spans="5:10">
-      <c r="E130" s="52">
+      <c r="E130" s="50">
         <f t="shared" si="14"/>
         <v>37.099236641221317</v>
       </c>
-      <c r="F130" s="52">
+      <c r="F130" s="50">
         <f t="shared" si="16"/>
         <v>0.64750382936583428</v>
       </c>
-      <c r="G130" s="53">
+      <c r="G130" s="51">
         <f t="shared" si="15"/>
         <v>115.95183930738592</v>
       </c>
-      <c r="H130" s="53">
+      <c r="H130" s="51">
         <f t="shared" si="17"/>
         <v>112.06394722764226</v>
       </c>
-      <c r="I130" s="53">
+      <c r="I130" s="51">
         <f t="shared" si="18"/>
         <v>119.9397991342324</v>
       </c>
-      <c r="J130" s="53">
+      <c r="J130" s="51">
         <f t="shared" si="19"/>
         <v>115.07993403455282</v>
       </c>
     </row>
     <row r="131" spans="5:10">
-      <c r="E131" s="52">
+      <c r="E131" s="50">
         <f t="shared" si="14"/>
         <v>37.442748091602994</v>
       </c>
-      <c r="F131" s="52">
+      <c r="F131" s="50">
         <f t="shared" si="16"/>
         <v>0.65349923519329567</v>
       </c>
-      <c r="G131" s="53">
+      <c r="G131" s="51">
         <f t="shared" si="15"/>
         <v>115.87922478847548</v>
       </c>
-      <c r="H131" s="53">
+      <c r="H131" s="51">
         <f t="shared" si="17"/>
         <v>112.1593675870526</v>
       </c>
-      <c r="I131" s="53">
+      <c r="I131" s="51">
         <f t="shared" si="18"/>
         <v>119.84903098559437</v>
       </c>
-      <c r="J131" s="53">
+      <c r="J131" s="51">
         <f t="shared" si="19"/>
         <v>115.19920948381576</v>
       </c>
     </row>
     <row r="132" spans="5:10">
-      <c r="E132" s="52">
+      <c r="E132" s="50">
         <f t="shared" si="14"/>
         <v>37.78625954198467</v>
       </c>
-      <c r="F132" s="52">
+      <c r="F132" s="50">
         <f t="shared" si="16"/>
         <v>0.65949464102075706</v>
       </c>
-      <c r="G132" s="53">
+      <c r="G132" s="51">
         <f t="shared" si="15"/>
         <v>115.80603949427</v>
       </c>
-      <c r="H132" s="53">
+      <c r="H132" s="51">
         <f t="shared" si="17"/>
         <v>112.25435088062918</v>
       </c>
-      <c r="I132" s="53">
+      <c r="I132" s="51">
         <f t="shared" si="18"/>
         <v>119.7575493678375</v>
       </c>
-      <c r="J132" s="53">
+      <c r="J132" s="51">
         <f t="shared" si="19"/>
         <v>115.31793860078646</v>
       </c>
     </row>
     <row r="133" spans="5:10">
-      <c r="E133" s="52">
+      <c r="E133" s="50">
         <f t="shared" si="14"/>
         <v>38.129770992366353</v>
       </c>
-      <c r="F133" s="52">
+      <c r="F133" s="50">
         <f t="shared" si="16"/>
         <v>0.66549004684821844</v>
       </c>
-      <c r="G133" s="53">
+      <c r="G133" s="51">
         <f t="shared" si="15"/>
         <v>115.73228605539902</v>
       </c>
-      <c r="H133" s="53">
+      <c r="H133" s="51">
         <f t="shared" si="17"/>
         <v>112.34889369421803</v>
       </c>
-      <c r="I133" s="53">
+      <c r="I133" s="51">
         <f t="shared" si="18"/>
         <v>119.66535756924877</v>
       </c>
-      <c r="J133" s="53">
+      <c r="J133" s="51">
         <f t="shared" si="19"/>
         <v>115.43611711777254</v>
       </c>
     </row>
     <row r="134" spans="5:10">
-      <c r="E134" s="52">
+      <c r="E134" s="50">
         <f t="shared" si="14"/>
         <v>38.47328244274803</v>
       </c>
-      <c r="F134" s="52">
+      <c r="F134" s="50">
         <f t="shared" si="16"/>
         <v>0.67148545267567983</v>
       </c>
-      <c r="G134" s="53">
+      <c r="G134" s="51">
         <f t="shared" si="15"/>
         <v>115.6579671229139</v>
       </c>
-      <c r="H134" s="53">
+      <c r="H134" s="51">
         <f t="shared" si="17"/>
         <v>112.44299262949824</v>
       </c>
-      <c r="I134" s="53">
+      <c r="I134" s="51">
         <f t="shared" si="18"/>
         <v>119.57245890364237</v>
       </c>
-      <c r="J134" s="53">
+      <c r="J134" s="51">
         <f t="shared" si="19"/>
         <v>115.55374078687279</v>
       </c>
     </row>
     <row r="135" spans="5:10">
-      <c r="E135" s="52">
+      <c r="E135" s="50">
         <f t="shared" si="14"/>
         <v>38.816793893129706</v>
       </c>
-      <c r="F135" s="52">
+      <c r="F135" s="50">
         <f t="shared" si="16"/>
         <v>0.67748085850314121</v>
       </c>
-      <c r="G135" s="53">
+      <c r="G135" s="51">
         <f t="shared" si="15"/>
         <v>115.5830853681926</v>
       </c>
-      <c r="H135" s="53">
+      <c r="H135" s="51">
         <f t="shared" si="17"/>
         <v>112.53664430410394</v>
       </c>
-      <c r="I135" s="53">
+      <c r="I135" s="51">
         <f t="shared" si="18"/>
         <v>119.47885671024075</v>
       </c>
-      <c r="J135" s="53">
+      <c r="J135" s="51">
         <f t="shared" si="19"/>
         <v>115.67080538012993</v>
       </c>
     </row>
     <row r="136" spans="5:10">
-      <c r="E136" s="52">
+      <c r="E136" s="50">
         <f t="shared" si="14"/>
         <v>39.160305343511382</v>
       </c>
-      <c r="F136" s="52">
+      <c r="F136" s="50">
         <f t="shared" si="16"/>
         <v>0.6834762643306026</v>
       </c>
-      <c r="G136" s="53">
+      <c r="G136" s="51">
         <f t="shared" si="15"/>
         <v>115.50764348284355</v>
       </c>
-      <c r="H136" s="53">
+      <c r="H136" s="51">
         <f t="shared" si="17"/>
         <v>112.629845351746</v>
       </c>
-      <c r="I136" s="53">
+      <c r="I136" s="51">
         <f t="shared" si="18"/>
         <v>119.38455435355444</v>
       </c>
-      <c r="J136" s="53">
+      <c r="J136" s="51">
         <f t="shared" si="19"/>
         <v>115.7873066896825</v>
       </c>
     </row>
     <row r="137" spans="5:10">
-      <c r="E137" s="52">
+      <c r="E137" s="50">
         <f t="shared" si="14"/>
         <v>39.503816793893058</v>
       </c>
-      <c r="F137" s="52">
+      <c r="F137" s="50">
         <f t="shared" si="16"/>
         <v>0.68947167015806399</v>
       </c>
-      <c r="G137" s="53">
+      <c r="G137" s="51">
         <f t="shared" si="15"/>
         <v>115.43164417860899</v>
       </c>
-      <c r="H137" s="53">
+      <c r="H137" s="51">
         <f t="shared" si="17"/>
         <v>112.72259242233294</v>
       </c>
-      <c r="I137" s="53">
+      <c r="I137" s="51">
         <f t="shared" si="18"/>
         <v>119.28955522326123</v>
       </c>
-      <c r="J137" s="53">
+      <c r="J137" s="51">
         <f t="shared" si="19"/>
         <v>115.90324052791617</v>
       </c>
     </row>
     <row r="138" spans="5:10">
-      <c r="E138" s="52">
+      <c r="E138" s="50">
         <f t="shared" si="14"/>
         <v>39.847328244274735</v>
       </c>
-      <c r="F138" s="52">
+      <c r="F138" s="50">
         <f t="shared" si="16"/>
         <v>0.69546707598552537</v>
       </c>
-      <c r="G138" s="53">
+      <c r="G138" s="51">
         <f t="shared" si="15"/>
         <v>115.35509018726744</v>
       </c>
-      <c r="H138" s="53">
+      <c r="H138" s="51">
         <f t="shared" si="17"/>
         <v>112.81488218209138</v>
       </c>
-      <c r="I138" s="53">
+      <c r="I138" s="51">
         <f t="shared" si="18"/>
         <v>119.19386273408429</v>
       </c>
-      <c r="J138" s="53">
+      <c r="J138" s="51">
         <f t="shared" si="19"/>
         <v>116.01860272761422</v>
       </c>
     </row>
     <row r="139" spans="5:10">
-      <c r="E139" s="52">
+      <c r="E139" s="50">
         <f t="shared" si="14"/>
         <v>40.190839694656404</v>
       </c>
-      <c r="F139" s="52">
+      <c r="F139" s="50">
         <f t="shared" si="16"/>
         <v>0.70146248181298676</v>
       </c>
-      <c r="G139" s="53">
+      <c r="G139" s="51">
         <f t="shared" si="15"/>
         <v>115.27798426053553</v>
       </c>
-      <c r="H139" s="53">
+      <c r="H139" s="51">
         <f t="shared" si="17"/>
         <v>112.90671131368593</v>
       </c>
-      <c r="I139" s="53">
+      <c r="I139" s="51">
         <f t="shared" si="18"/>
         <v>119.09748032566941</v>
       </c>
-      <c r="J139" s="53">
+      <c r="J139" s="51">
         <f t="shared" si="19"/>
         <v>116.13338914210742</v>
       </c>
     </row>
     <row r="140" spans="5:10">
-      <c r="E140" s="52">
+      <c r="E140" s="50">
         <f t="shared" si="14"/>
         <v>40.53435114503808</v>
       </c>
-      <c r="F140" s="52">
+      <c r="F140" s="50">
         <f t="shared" si="16"/>
         <v>0.70745788764044815</v>
       </c>
-      <c r="G140" s="53">
+      <c r="G140" s="51">
         <f t="shared" si="15"/>
         <v>115.20032916996911</v>
       </c>
-      <c r="H140" s="53">
+      <c r="H140" s="51">
         <f t="shared" si="17"/>
         <v>112.99807651633834</v>
       </c>
-      <c r="I140" s="53">
+      <c r="I140" s="51">
         <f t="shared" si="18"/>
         <v>119.00041146246139</v>
       </c>
-      <c r="J140" s="53">
+      <c r="J140" s="51">
         <f t="shared" si="19"/>
         <v>116.24759564542293</v>
       </c>
     </row>
     <row r="141" spans="5:10">
-      <c r="E141" s="52">
+      <c r="E141" s="50">
         <f t="shared" si="14"/>
         <v>40.877862595419764</v>
       </c>
-      <c r="F141" s="52">
+      <c r="F141" s="50">
         <f t="shared" si="16"/>
         <v>0.71345329346790953</v>
       </c>
-      <c r="G141" s="53">
+      <c r="G141" s="51">
         <f t="shared" si="15"/>
         <v>115.12212770686357</v>
       </c>
-      <c r="H141" s="53">
+      <c r="H141" s="51">
         <f t="shared" si="17"/>
         <v>113.08897450594618</v>
       </c>
-      <c r="I141" s="53">
+      <c r="I141" s="51">
         <f t="shared" si="18"/>
         <v>118.90265963357946</v>
       </c>
-      <c r="J141" s="53">
+      <c r="J141" s="51">
         <f t="shared" si="19"/>
         <v>116.36121813243273</v>
       </c>
     </row>
     <row r="142" spans="5:10">
-      <c r="E142" s="52">
+      <c r="E142" s="50">
         <f t="shared" si="14"/>
         <v>41.221374045801433</v>
       </c>
-      <c r="F142" s="52">
+      <c r="F142" s="50">
         <f t="shared" si="16"/>
         <v>0.71944869929537092</v>
       </c>
-      <c r="G142" s="53">
+      <c r="G142" s="51">
         <f t="shared" si="15"/>
         <v>115.04338268215356</v>
       </c>
-      <c r="H142" s="53">
+      <c r="H142" s="51">
         <f t="shared" si="17"/>
         <v>113.17940201520094</v>
       </c>
-      <c r="I142" s="53">
+      <c r="I142" s="51">
         <f t="shared" si="18"/>
         <v>118.80422835269195</v>
       </c>
-      <c r="J142" s="53">
+      <c r="J142" s="51">
         <f t="shared" si="19"/>
         <v>116.47425251900115</v>
       </c>
     </row>
     <row r="143" spans="5:10">
-      <c r="E143" s="52">
+      <c r="E143" s="50">
         <f t="shared" si="14"/>
         <v>41.564885496183116</v>
       </c>
-      <c r="F143" s="52">
+      <c r="F143" s="50">
         <f t="shared" si="16"/>
         <v>0.72544410512283231</v>
       </c>
-      <c r="G143" s="53">
+      <c r="G143" s="51">
         <f t="shared" si="15"/>
         <v>114.96409692631195</v>
       </c>
-      <c r="H143" s="53">
+      <c r="H143" s="51">
         <f t="shared" si="17"/>
         <v>113.26935579370533</v>
       </c>
-      <c r="I143" s="53">
+      <c r="I143" s="51">
         <f t="shared" si="18"/>
         <v>118.70512115788995</v>
       </c>
-      <c r="J143" s="53">
+      <c r="J143" s="51">
         <f t="shared" si="19"/>
         <v>116.58669474213167</v>
       </c>
     </row>
     <row r="144" spans="5:10">
-      <c r="E144" s="52">
+      <c r="E144" s="50">
         <f t="shared" si="14"/>
         <v>41.908396946564785</v>
       </c>
-      <c r="F144" s="52">
+      <c r="F144" s="50">
         <f t="shared" si="16"/>
         <v>0.73143951095029369</v>
       </c>
-      <c r="G144" s="53">
+      <c r="G144" s="51">
         <f t="shared" si="15"/>
         <v>114.88427328924804</v>
       </c>
-      <c r="H144" s="53">
+      <c r="H144" s="51">
         <f t="shared" si="17"/>
         <v>113.35883260809032</v>
       </c>
-      <c r="I144" s="53">
+      <c r="I144" s="51">
         <f t="shared" si="18"/>
         <v>118.60534161156005</v>
       </c>
-      <c r="J144" s="53">
+      <c r="J144" s="51">
         <f t="shared" si="19"/>
         <v>116.69854076011289</v>
       </c>
     </row>
     <row r="145" spans="5:10">
-      <c r="E145" s="52">
+      <c r="E145" s="50">
         <f t="shared" si="14"/>
         <v>42.251908396946469</v>
       </c>
-      <c r="F145" s="52">
+      <c r="F145" s="50">
         <f t="shared" si="16"/>
         <v>0.73743491677775508</v>
       </c>
-      <c r="G145" s="53">
+      <c r="G145" s="51">
         <f t="shared" si="15"/>
         <v>114.80391464020519</v>
       </c>
-      <c r="H145" s="53">
+      <c r="H145" s="51">
         <f t="shared" si="17"/>
         <v>113.44782924213118</v>
       </c>
-      <c r="I145" s="53">
+      <c r="I145" s="51">
         <f t="shared" si="18"/>
         <v>118.5048933002565</v>
       </c>
-      <c r="J145" s="53">
+      <c r="J145" s="51">
         <f t="shared" si="19"/>
         <v>116.80978655266397</v>
       </c>
     </row>
     <row r="146" spans="5:10">
-      <c r="E146" s="52">
+      <c r="E146" s="50">
         <f t="shared" si="14"/>
         <v>42.595419847328145</v>
       </c>
-      <c r="F146" s="52">
+      <c r="F146" s="50">
         <f t="shared" si="16"/>
         <v>0.74343032260521646</v>
       </c>
-      <c r="G146" s="53">
+      <c r="G146" s="51">
         <f t="shared" si="15"/>
         <v>114.72302386765762</v>
       </c>
-      <c r="H146" s="53">
+      <c r="H146" s="51">
         <f t="shared" si="17"/>
         <v>113.53634249686317</v>
       </c>
-      <c r="I146" s="53">
+      <c r="I146" s="51">
         <f t="shared" si="18"/>
         <v>118.40377983457202</v>
       </c>
-      <c r="J146" s="53">
+      <c r="J146" s="51">
         <f t="shared" si="19"/>
         <v>116.92042812107897</v>
       </c>
     </row>
     <row r="147" spans="5:10">
-      <c r="E147" s="52">
+      <c r="E147" s="50">
         <f t="shared" si="14"/>
         <v>42.938931297709821</v>
       </c>
-      <c r="F147" s="52">
+      <c r="F147" s="50">
         <f t="shared" si="16"/>
         <v>0.74942572843267785</v>
       </c>
-      <c r="G147" s="53">
+      <c r="G147" s="51">
         <f t="shared" si="15"/>
         <v>114.64160387920663</v>
       </c>
-      <c r="H147" s="53">
+      <c r="H147" s="51">
         <f t="shared" si="17"/>
         <v>113.62436919069656</v>
       </c>
-      <c r="I147" s="53">
+      <c r="I147" s="51">
         <f t="shared" si="18"/>
         <v>118.30200484900828</v>
       </c>
-      <c r="J147" s="53">
+      <c r="J147" s="51">
         <f t="shared" si="19"/>
         <v>117.03046148837069</v>
       </c>
     </row>
     <row r="148" spans="5:10">
-      <c r="E148" s="52">
+      <c r="E148" s="50">
         <f t="shared" si="14"/>
         <v>43.282442748091498</v>
       </c>
-      <c r="F148" s="52">
+      <c r="F148" s="50">
         <f t="shared" si="16"/>
         <v>0.75542113426013924</v>
       </c>
-      <c r="G148" s="53">
+      <c r="G148" s="51">
         <f t="shared" si="15"/>
         <v>114.55965760147606</v>
       </c>
-      <c r="H148" s="53">
+      <c r="H148" s="51">
         <f t="shared" si="17"/>
         <v>113.71190615953087</v>
       </c>
-      <c r="I148" s="53">
+      <c r="I148" s="51">
         <f t="shared" si="18"/>
         <v>118.19957200184507</v>
       </c>
-      <c r="J148" s="53">
+      <c r="J148" s="51">
         <f t="shared" si="19"/>
         <v>117.13988269941358</v>
       </c>
     </row>
     <row r="149" spans="5:10">
-      <c r="E149" s="52">
+      <c r="E149" s="50">
         <f t="shared" si="14"/>
         <v>43.625954198473174</v>
       </c>
-      <c r="F149" s="52">
+      <c r="F149" s="50">
         <f t="shared" si="16"/>
         <v>0.76141654008760062</v>
       </c>
-      <c r="G149" s="53">
+      <c r="G149" s="51">
         <f t="shared" si="15"/>
         <v>114.47718798000712</v>
       </c>
-      <c r="H149" s="53">
+      <c r="H149" s="51">
         <f t="shared" si="17"/>
         <v>113.79895025686872</v>
       </c>
-      <c r="I149" s="53">
+      <c r="I149" s="51">
         <f t="shared" si="18"/>
         <v>118.09648497500889</v>
       </c>
-      <c r="J149" s="53">
+      <c r="J149" s="51">
         <f t="shared" si="19"/>
         <v>117.24868782108591</v>
       </c>
     </row>
     <row r="150" spans="5:10">
-      <c r="E150" s="52">
+      <c r="E150" s="50">
         <f t="shared" si="14"/>
         <v>43.96946564885485</v>
       </c>
-      <c r="F150" s="52">
+      <c r="F150" s="50">
         <f t="shared" si="16"/>
         <v>0.76741194591506201</v>
       </c>
-      <c r="G150" s="53">
+      <c r="G150" s="51">
         <f t="shared" si="15"/>
         <v>114.39419797915247</v>
       </c>
-      <c r="H150" s="53">
+      <c r="H150" s="51">
         <f t="shared" si="17"/>
         <v>113.88549835392892</v>
       </c>
-      <c r="I150" s="53">
+      <c r="I150" s="51">
         <f t="shared" si="18"/>
         <v>117.99274747394058</v>
       </c>
-      <c r="J150" s="53">
+      <c r="J150" s="51">
         <f t="shared" si="19"/>
         <v>117.35687294241116</v>
       </c>
     </row>
     <row r="151" spans="5:10">
-      <c r="E151" s="52">
+      <c r="E151" s="50">
         <f t="shared" ref="E151:E214" si="20">F151*180/PI()</f>
         <v>44.31297709923652</v>
       </c>
-      <c r="F151" s="52">
+      <c r="F151" s="50">
         <f t="shared" si="16"/>
         <v>0.7734073517425234</v>
       </c>
-      <c r="G151" s="53">
+      <c r="G151" s="51">
         <f t="shared" si="15"/>
         <v>114.31069058196974</v>
       </c>
-      <c r="H151" s="53">
+      <c r="H151" s="51">
         <f t="shared" si="17"/>
         <v>113.97154733975886</v>
       </c>
-      <c r="I151" s="53">
+      <c r="I151" s="51">
         <f t="shared" si="18"/>
         <v>117.88836322746216</v>
       </c>
-      <c r="J151" s="53">
+      <c r="J151" s="51">
         <f t="shared" si="19"/>
         <v>117.46443417469857</v>
       </c>
     </row>
     <row r="152" spans="5:10">
-      <c r="E152" s="52">
+      <c r="E152" s="50">
         <f t="shared" si="20"/>
         <v>44.656488549618203</v>
       </c>
-      <c r="F152" s="52">
+      <c r="F152" s="50">
         <f t="shared" si="16"/>
         <v>0.77940275756998478</v>
       </c>
-      <c r="G152" s="53">
+      <c r="G152" s="51">
         <f t="shared" ref="G152:G215" si="21">100+$E$15*COS(F152)</f>
         <v>114.2266687901142</v>
       </c>
-      <c r="H152" s="53">
+      <c r="H152" s="51">
         <f t="shared" si="17"/>
         <v>114.05709412134637</v>
       </c>
-      <c r="I152" s="53">
+      <c r="I152" s="51">
         <f t="shared" si="18"/>
         <v>117.78333598764274</v>
       </c>
-      <c r="J152" s="53">
+      <c r="J152" s="51">
         <f t="shared" si="19"/>
         <v>117.57136765168296</v>
       </c>
     </row>
     <row r="153" spans="5:10">
-      <c r="E153" s="52">
+      <c r="E153" s="50">
         <f t="shared" si="20"/>
         <v>44.999999999999886</v>
       </c>
-      <c r="F153" s="52">
+      <c r="F153" s="50">
         <f t="shared" si="16"/>
         <v>0.78539816339744617</v>
       </c>
-      <c r="G153" s="53">
+      <c r="G153" s="51">
         <f t="shared" si="21"/>
         <v>114.14213562373098</v>
       </c>
-      <c r="H153" s="53">
+      <c r="H153" s="51">
         <f t="shared" si="17"/>
         <v>114.14213562373092</v>
       </c>
-      <c r="I153" s="53">
+      <c r="I153" s="51">
         <f t="shared" si="18"/>
         <v>117.67766952966372</v>
       </c>
-      <c r="J153" s="53">
+      <c r="J153" s="51">
         <f t="shared" si="19"/>
         <v>117.67766952966365</v>
       </c>
     </row>
     <row r="154" spans="5:10">
-      <c r="E154" s="52">
+      <c r="E154" s="50">
         <f t="shared" si="20"/>
         <v>45.343511450381556</v>
       </c>
-      <c r="F154" s="52">
+      <c r="F154" s="50">
         <f t="shared" ref="F154:F217" si="22">F153+$F$19*2</f>
         <v>0.79139356922490756</v>
       </c>
-      <c r="G154" s="53">
+      <c r="G154" s="51">
         <f t="shared" si="21"/>
         <v>114.05709412134642</v>
       </c>
-      <c r="H154" s="53">
+      <c r="H154" s="51">
         <f t="shared" ref="H154:H217" si="23">100+$E$15*SIN(F154)</f>
         <v>114.22666879011413</v>
       </c>
-      <c r="I154" s="53">
+      <c r="I154" s="51">
         <f t="shared" ref="I154:I217" si="24">100+$E$14*COS(F154)</f>
         <v>117.57136765168303</v>
       </c>
-      <c r="J154" s="53">
+      <c r="J154" s="51">
         <f t="shared" ref="J154:J217" si="25">100+$E$14*SIN(F154)</f>
         <v>117.78333598764267</v>
       </c>
     </row>
     <row r="155" spans="5:10">
-      <c r="E155" s="52">
+      <c r="E155" s="50">
         <f t="shared" si="20"/>
         <v>45.687022900763232</v>
       </c>
-      <c r="F155" s="52">
+      <c r="F155" s="50">
         <f t="shared" si="22"/>
         <v>0.79738897505236894</v>
       </c>
-      <c r="G155" s="53">
+      <c r="G155" s="51">
         <f t="shared" si="21"/>
         <v>113.97154733975893</v>
       </c>
-      <c r="H155" s="53">
+      <c r="H155" s="51">
         <f t="shared" si="23"/>
         <v>114.31069058196967</v>
       </c>
-      <c r="I155" s="53">
+      <c r="I155" s="51">
         <f t="shared" si="24"/>
         <v>117.46443417469865</v>
       </c>
-      <c r="J155" s="53">
+      <c r="J155" s="51">
         <f t="shared" si="25"/>
         <v>117.88836322746209</v>
       </c>
     </row>
     <row r="156" spans="5:10">
-      <c r="E156" s="52">
+      <c r="E156" s="50">
         <f t="shared" si="20"/>
         <v>46.030534351144908</v>
       </c>
-      <c r="F156" s="52">
+      <c r="F156" s="50">
         <f t="shared" si="22"/>
         <v>0.80338438087983033</v>
       </c>
-      <c r="G156" s="53">
+      <c r="G156" s="51">
         <f t="shared" si="21"/>
         <v>113.88549835392899</v>
       </c>
-      <c r="H156" s="53">
+      <c r="H156" s="51">
         <f t="shared" si="23"/>
         <v>114.39419797915241</v>
       </c>
-      <c r="I156" s="53">
+      <c r="I156" s="51">
         <f t="shared" si="24"/>
         <v>117.35687294241123</v>
       </c>
-      <c r="J156" s="53">
+      <c r="J156" s="51">
         <f t="shared" si="25"/>
         <v>117.99274747394051</v>
       </c>
     </row>
     <row r="157" spans="5:10">
-      <c r="E157" s="52">
+      <c r="E157" s="50">
         <f t="shared" si="20"/>
         <v>46.374045801526584</v>
       </c>
-      <c r="F157" s="52">
+      <c r="F157" s="50">
         <f t="shared" si="22"/>
         <v>0.80937978670729172</v>
       </c>
-      <c r="G157" s="53">
+      <c r="G157" s="51">
         <f t="shared" si="21"/>
         <v>113.79895025686879</v>
       </c>
-      <c r="H157" s="53">
+      <c r="H157" s="51">
         <f t="shared" si="23"/>
         <v>114.47718798000706</v>
       </c>
-      <c r="I157" s="53">
+      <c r="I157" s="51">
         <f t="shared" si="24"/>
         <v>117.24868782108599</v>
       </c>
-      <c r="J157" s="53">
+      <c r="J157" s="51">
         <f t="shared" si="25"/>
         <v>118.09648497500882</v>
       </c>
     </row>
     <row r="158" spans="5:10">
-      <c r="E158" s="52">
+      <c r="E158" s="50">
         <f t="shared" si="20"/>
         <v>46.717557251908261</v>
       </c>
-      <c r="F158" s="52">
+      <c r="F158" s="50">
         <f t="shared" si="22"/>
         <v>0.8153751925347531</v>
       </c>
-      <c r="G158" s="53">
+      <c r="G158" s="51">
         <f t="shared" si="21"/>
         <v>113.71190615953093</v>
       </c>
-      <c r="H158" s="53">
+      <c r="H158" s="51">
         <f t="shared" si="23"/>
         <v>114.559657601476</v>
       </c>
-      <c r="I158" s="53">
+      <c r="I158" s="51">
         <f t="shared" si="24"/>
         <v>117.13988269941366</v>
       </c>
-      <c r="J158" s="53">
+      <c r="J158" s="51">
         <f t="shared" si="25"/>
         <v>118.199572001845</v>
       </c>
     </row>
     <row r="159" spans="5:10">
-      <c r="E159" s="52">
+      <c r="E159" s="50">
         <f t="shared" si="20"/>
         <v>47.061068702289937</v>
       </c>
-      <c r="F159" s="52">
+      <c r="F159" s="50">
         <f t="shared" si="22"/>
         <v>0.82137059836221449</v>
       </c>
-      <c r="G159" s="53">
+      <c r="G159" s="51">
         <f t="shared" si="21"/>
         <v>113.62436919069661</v>
       </c>
-      <c r="H159" s="53">
+      <c r="H159" s="51">
         <f t="shared" si="23"/>
         <v>114.64160387920657</v>
       </c>
-      <c r="I159" s="53">
+      <c r="I159" s="51">
         <f t="shared" si="24"/>
         <v>117.03046148837078</v>
       </c>
-      <c r="J159" s="53">
+      <c r="J159" s="51">
         <f t="shared" si="25"/>
         <v>118.30200484900821</v>
       </c>
     </row>
     <row r="160" spans="5:10">
-      <c r="E160" s="52">
+      <c r="E160" s="50">
         <f t="shared" si="20"/>
         <v>47.404580152671613</v>
       </c>
-      <c r="F160" s="52">
+      <c r="F160" s="50">
         <f t="shared" si="22"/>
         <v>0.82736600418967587</v>
       </c>
-      <c r="G160" s="53">
+      <c r="G160" s="51">
         <f t="shared" si="21"/>
         <v>113.53634249686324</v>
       </c>
-      <c r="H160" s="53">
+      <c r="H160" s="51">
         <f t="shared" si="23"/>
         <v>114.72302386765756</v>
       </c>
-      <c r="I160" s="53">
+      <c r="I160" s="51">
         <f t="shared" si="24"/>
         <v>116.92042812107906</v>
       </c>
-      <c r="J160" s="53">
+      <c r="J160" s="51">
         <f t="shared" si="25"/>
         <v>118.40377983457195</v>
       </c>
     </row>
     <row r="161" spans="5:10">
-      <c r="E161" s="52">
+      <c r="E161" s="50">
         <f t="shared" si="20"/>
         <v>47.74809160305329</v>
       </c>
-      <c r="F161" s="52">
+      <c r="F161" s="50">
         <f t="shared" si="22"/>
         <v>0.83336141001713726</v>
       </c>
-      <c r="G161" s="53">
+      <c r="G161" s="51">
         <f t="shared" si="21"/>
         <v>113.44782924213123</v>
       </c>
-      <c r="H161" s="53">
+      <c r="H161" s="51">
         <f t="shared" si="23"/>
         <v>114.80391464020514</v>
       </c>
-      <c r="I161" s="53">
+      <c r="I161" s="51">
         <f t="shared" si="24"/>
         <v>116.80978655266405</v>
       </c>
-      <c r="J161" s="53">
+      <c r="J161" s="51">
         <f t="shared" si="25"/>
         <v>118.50489330025641</v>
       </c>
     </row>
     <row r="162" spans="5:10">
-      <c r="E162" s="52">
+      <c r="E162" s="50">
         <f t="shared" si="20"/>
         <v>48.091603053434973</v>
       </c>
-      <c r="F162" s="52">
+      <c r="F162" s="50">
         <f t="shared" si="22"/>
         <v>0.83935681584459865</v>
       </c>
-      <c r="G162" s="53">
+      <c r="G162" s="51">
         <f t="shared" si="21"/>
         <v>113.35883260809038</v>
       </c>
-      <c r="H162" s="53">
+      <c r="H162" s="51">
         <f t="shared" si="23"/>
         <v>114.88427328924799</v>
       </c>
-      <c r="I162" s="53">
+      <c r="I162" s="51">
         <f t="shared" si="24"/>
         <v>116.69854076011298</v>
       </c>
-      <c r="J162" s="53">
+      <c r="J162" s="51">
         <f t="shared" si="25"/>
         <v>118.60534161155999</v>
       </c>
     </row>
     <row r="163" spans="5:10">
-      <c r="E163" s="52">
+      <c r="E163" s="50">
         <f t="shared" si="20"/>
         <v>48.435114503816642</v>
       </c>
-      <c r="F163" s="52">
+      <c r="F163" s="50">
         <f t="shared" si="22"/>
         <v>0.84535222167206003</v>
       </c>
-      <c r="G163" s="53">
+      <c r="G163" s="51">
         <f t="shared" si="21"/>
         <v>113.2693557937054</v>
       </c>
-      <c r="H163" s="53">
+      <c r="H163" s="51">
         <f t="shared" si="23"/>
         <v>114.9640969263119</v>
       </c>
-      <c r="I163" s="53">
+      <c r="I163" s="51">
         <f t="shared" si="24"/>
         <v>116.58669474213174</v>
       </c>
-      <c r="J163" s="53">
+      <c r="J163" s="51">
         <f t="shared" si="25"/>
         <v>118.70512115788986</v>
       </c>
     </row>
     <row r="164" spans="5:10">
-      <c r="E164" s="52">
+      <c r="E164" s="50">
         <f t="shared" si="20"/>
         <v>48.778625954198326</v>
       </c>
-      <c r="F164" s="52">
+      <c r="F164" s="50">
         <f t="shared" si="22"/>
         <v>0.85134762749952142</v>
       </c>
-      <c r="G164" s="53">
+      <c r="G164" s="51">
         <f t="shared" si="21"/>
         <v>113.17940201520099</v>
       </c>
-      <c r="H164" s="53">
+      <c r="H164" s="51">
         <f t="shared" si="23"/>
         <v>115.04338268215351</v>
       </c>
-      <c r="I164" s="53">
+      <c r="I164" s="51">
         <f t="shared" si="24"/>
         <v>116.47425251900124</v>
       </c>
-      <c r="J164" s="53">
+      <c r="J164" s="51">
         <f t="shared" si="25"/>
         <v>118.80422835269188</v>
       </c>
     </row>
     <row r="165" spans="5:10">
-      <c r="E165" s="52">
+      <c r="E165" s="50">
         <f t="shared" si="20"/>
         <v>49.122137404579995</v>
       </c>
-      <c r="F165" s="52">
+      <c r="F165" s="50">
         <f t="shared" si="22"/>
         <v>0.85734303332698281</v>
       </c>
-      <c r="G165" s="53">
+      <c r="G165" s="51">
         <f t="shared" si="21"/>
         <v>113.08897450594625</v>
       </c>
-      <c r="H165" s="53">
+      <c r="H165" s="51">
         <f t="shared" si="23"/>
         <v>115.12212770686351</v>
       </c>
-      <c r="I165" s="53">
+      <c r="I165" s="51">
         <f t="shared" si="24"/>
         <v>116.36121813243281</v>
       </c>
-      <c r="J165" s="53">
+      <c r="J165" s="51">
         <f t="shared" si="25"/>
         <v>118.90265963357939</v>
       </c>
     </row>
     <row r="166" spans="5:10">
-      <c r="E166" s="52">
+      <c r="E166" s="50">
         <f t="shared" si="20"/>
         <v>49.465648854961678</v>
       </c>
-      <c r="F166" s="52">
+      <c r="F166" s="50">
         <f t="shared" si="22"/>
         <v>0.86333843915444419</v>
       </c>
-      <c r="G166" s="53">
+      <c r="G166" s="51">
         <f t="shared" si="21"/>
         <v>112.9980765163384</v>
       </c>
-      <c r="H166" s="53">
+      <c r="H166" s="51">
         <f t="shared" si="23"/>
         <v>115.20032916996905</v>
       </c>
-      <c r="I166" s="53">
+      <c r="I166" s="51">
         <f t="shared" si="24"/>
         <v>116.247595645423</v>
       </c>
-      <c r="J166" s="53">
+      <c r="J166" s="51">
         <f t="shared" si="25"/>
         <v>119.00041146246132</v>
       </c>
     </row>
     <row r="167" spans="5:10">
-      <c r="E167" s="52">
+      <c r="E167" s="50">
         <f t="shared" si="20"/>
         <v>49.809160305343347</v>
       </c>
-      <c r="F167" s="52">
+      <c r="F167" s="50">
         <f t="shared" si="22"/>
         <v>0.86933384498190558</v>
       </c>
-      <c r="G167" s="53">
+      <c r="G167" s="51">
         <f t="shared" si="21"/>
         <v>112.906711313686</v>
       </c>
-      <c r="H167" s="53">
+      <c r="H167" s="51">
         <f t="shared" si="23"/>
         <v>115.27798426053548</v>
       </c>
-      <c r="I167" s="53">
+      <c r="I167" s="51">
         <f t="shared" si="24"/>
         <v>116.1333891421075</v>
       </c>
-      <c r="J167" s="53">
+      <c r="J167" s="51">
         <f t="shared" si="25"/>
         <v>119.09748032566935</v>
       </c>
     </row>
     <row r="168" spans="5:10">
-      <c r="E168" s="52">
+      <c r="E168" s="50">
         <f t="shared" si="20"/>
         <v>50.152671755725024</v>
       </c>
-      <c r="F168" s="52">
+      <c r="F168" s="50">
         <f t="shared" si="22"/>
         <v>0.87532925080936697</v>
       </c>
-      <c r="G168" s="53">
+      <c r="G168" s="51">
         <f t="shared" si="21"/>
         <v>112.81488218209145</v>
       </c>
-      <c r="H168" s="53">
+      <c r="H168" s="51">
         <f t="shared" si="23"/>
         <v>115.35509018726738</v>
       </c>
-      <c r="I168" s="53">
+      <c r="I168" s="51">
         <f t="shared" si="24"/>
         <v>116.01860272761431</v>
       </c>
-      <c r="J168" s="53">
+      <c r="J168" s="51">
         <f t="shared" si="25"/>
         <v>119.19386273408423</v>
       </c>
     </row>
     <row r="169" spans="5:10">
-      <c r="E169" s="52">
+      <c r="E169" s="50">
         <f t="shared" si="20"/>
         <v>50.496183206106707</v>
       </c>
-      <c r="F169" s="52">
+      <c r="F169" s="50">
         <f t="shared" si="22"/>
         <v>0.88132465663682835</v>
       </c>
-      <c r="G169" s="53">
+      <c r="G169" s="51">
         <f t="shared" si="21"/>
         <v>112.72259242233299</v>
       </c>
-      <c r="H169" s="53">
+      <c r="H169" s="51">
         <f t="shared" si="23"/>
         <v>115.43164417860893</v>
       </c>
-      <c r="I169" s="53">
+      <c r="I169" s="51">
         <f t="shared" si="24"/>
         <v>115.90324052791625</v>
       </c>
-      <c r="J169" s="53">
+      <c r="J169" s="51">
         <f t="shared" si="25"/>
         <v>119.28955522326116</v>
       </c>
     </row>
     <row r="170" spans="5:10">
-      <c r="E170" s="52">
+      <c r="E170" s="50">
         <f t="shared" si="20"/>
         <v>50.839694656488376</v>
       </c>
-      <c r="F170" s="52">
+      <c r="F170" s="50">
         <f t="shared" si="22"/>
         <v>0.88732006246428974</v>
       </c>
-      <c r="G170" s="53">
+      <c r="G170" s="51">
         <f t="shared" si="21"/>
         <v>112.62984535174607</v>
       </c>
-      <c r="H170" s="53">
+      <c r="H170" s="51">
         <f t="shared" si="23"/>
         <v>115.50764348284349</v>
       </c>
-      <c r="I170" s="53">
+      <c r="I170" s="51">
         <f t="shared" si="24"/>
         <v>115.78730668968258</v>
       </c>
-      <c r="J170" s="53">
+      <c r="J170" s="51">
         <f t="shared" si="25"/>
         <v>119.38455435355436</v>
       </c>
     </row>
     <row r="171" spans="5:10">
-      <c r="E171" s="52">
+      <c r="E171" s="50">
         <f t="shared" si="20"/>
         <v>51.18320610687006</v>
       </c>
-      <c r="F171" s="52">
+      <c r="F171" s="50">
         <f t="shared" si="22"/>
         <v>0.89331546829175112</v>
       </c>
-      <c r="G171" s="53">
+      <c r="G171" s="51">
         <f t="shared" si="21"/>
         <v>112.53664430410402</v>
       </c>
-      <c r="H171" s="53">
+      <c r="H171" s="51">
         <f t="shared" si="23"/>
         <v>115.58308536819254</v>
       </c>
-      <c r="I171" s="53">
+      <c r="I171" s="51">
         <f t="shared" si="24"/>
         <v>115.67080538013002</v>
       </c>
-      <c r="J171" s="53">
+      <c r="J171" s="51">
         <f t="shared" si="25"/>
         <v>119.47885671024068</v>
       </c>
     </row>
     <row r="172" spans="5:10">
-      <c r="E172" s="52">
+      <c r="E172" s="50">
         <f t="shared" si="20"/>
         <v>51.526717557251729</v>
       </c>
-      <c r="F172" s="52">
+      <c r="F172" s="50">
         <f t="shared" si="22"/>
         <v>0.89931087411921251</v>
       </c>
-      <c r="G172" s="53">
+      <c r="G172" s="51">
         <f t="shared" si="21"/>
         <v>112.44299262949831</v>
       </c>
-      <c r="H172" s="53">
+      <c r="H172" s="51">
         <f t="shared" si="23"/>
         <v>115.65796712291385</v>
       </c>
-      <c r="I172" s="53">
+      <c r="I172" s="51">
         <f t="shared" si="24"/>
         <v>115.55374078687288</v>
       </c>
-      <c r="J172" s="53">
+      <c r="J172" s="51">
         <f t="shared" si="25"/>
         <v>119.57245890364231</v>
       </c>
     </row>
     <row r="173" spans="5:10">
-      <c r="E173" s="52">
+      <c r="E173" s="50">
         <f t="shared" si="20"/>
         <v>51.870229007633412</v>
       </c>
-      <c r="F173" s="52">
+      <c r="F173" s="50">
         <f t="shared" si="22"/>
         <v>0.9053062799466739</v>
       </c>
-      <c r="G173" s="53">
+      <c r="G173" s="51">
         <f t="shared" si="21"/>
         <v>112.34889369421809</v>
       </c>
-      <c r="H173" s="53">
+      <c r="H173" s="51">
         <f t="shared" si="23"/>
         <v>115.73228605539896</v>
       </c>
-      <c r="I173" s="53">
+      <c r="I173" s="51">
         <f t="shared" si="24"/>
         <v>115.43611711777262</v>
       </c>
-      <c r="J173" s="53">
+      <c r="J173" s="51">
         <f t="shared" si="25"/>
         <v>119.6653575692487</v>
       </c>
     </row>
     <row r="174" spans="5:10">
-      <c r="E174" s="52">
+      <c r="E174" s="50">
         <f t="shared" si="20"/>
         <v>52.213740458015081</v>
       </c>
-      <c r="F174" s="52">
+      <c r="F174" s="50">
         <f t="shared" si="22"/>
         <v>0.91130168577413528</v>
       </c>
-      <c r="G174" s="53">
+      <c r="G174" s="51">
         <f t="shared" si="21"/>
         <v>112.25435088062923</v>
       </c>
-      <c r="H174" s="53">
+      <c r="H174" s="51">
         <f t="shared" si="23"/>
         <v>115.80603949426995</v>
       </c>
-      <c r="I174" s="53">
+      <c r="I174" s="51">
         <f t="shared" si="24"/>
         <v>115.31793860078655</v>
       </c>
-      <c r="J174" s="53">
+      <c r="J174" s="51">
         <f t="shared" si="25"/>
         <v>119.75754936783744</v>
       </c>
     </row>
     <row r="175" spans="5:10">
-      <c r="E175" s="52">
+      <c r="E175" s="50">
         <f t="shared" si="20"/>
         <v>52.557251908396765</v>
       </c>
-      <c r="F175" s="52">
+      <c r="F175" s="50">
         <f t="shared" si="22"/>
         <v>0.91729709160159667</v>
       </c>
-      <c r="G175" s="53">
+      <c r="G175" s="51">
         <f t="shared" si="21"/>
         <v>112.15936758705267</v>
       </c>
-      <c r="H175" s="53">
+      <c r="H175" s="51">
         <f t="shared" si="23"/>
         <v>115.87922478847544</v>
       </c>
-      <c r="I175" s="53">
+      <c r="I175" s="51">
         <f t="shared" si="24"/>
         <v>115.19920948381585</v>
       </c>
-      <c r="J175" s="53">
+      <c r="J175" s="51">
         <f t="shared" si="25"/>
         <v>119.8490309855943</v>
       </c>
     </row>
     <row r="176" spans="5:10">
-      <c r="E176" s="52">
+      <c r="E176" s="50">
         <f t="shared" si="20"/>
         <v>52.900763358778434</v>
       </c>
-      <c r="F176" s="52">
+      <c r="F176" s="50">
         <f t="shared" si="22"/>
         <v>0.92329249742905806</v>
       </c>
-      <c r="G176" s="53">
+      <c r="G176" s="51">
         <f t="shared" si="21"/>
         <v>112.06394722764233</v>
       </c>
-      <c r="H176" s="53">
+      <c r="H176" s="51">
         <f t="shared" si="23"/>
         <v>115.95183930738588</v>
       </c>
-      <c r="I176" s="53">
+      <c r="I176" s="51">
         <f t="shared" si="24"/>
         <v>115.07993403455291</v>
       </c>
-      <c r="J176" s="53">
+      <c r="J176" s="51">
         <f t="shared" si="25"/>
         <v>119.93979913423235</v>
       </c>
     </row>
     <row r="177" spans="5:10">
-      <c r="E177" s="52">
+      <c r="E177" s="50">
         <f t="shared" si="20"/>
         <v>53.244274809160117</v>
       </c>
-      <c r="F177" s="52">
+      <c r="F177" s="50">
         <f t="shared" si="22"/>
         <v>0.92928790325651944</v>
       </c>
-      <c r="G177" s="53">
+      <c r="G177" s="51">
         <f t="shared" si="21"/>
         <v>111.96809323226233</v>
       </c>
-      <c r="H177" s="53">
+      <c r="H177" s="51">
         <f t="shared" si="23"/>
         <v>116.02388044088812</v>
       </c>
-      <c r="I177" s="53">
+      <c r="I177" s="51">
         <f t="shared" si="24"/>
         <v>114.96011654032792</v>
       </c>
-      <c r="J177" s="53">
+      <c r="J177" s="51">
         <f t="shared" si="25"/>
         <v>120.02985055111014</v>
       </c>
     </row>
     <row r="178" spans="5:10">
-      <c r="E178" s="52">
+      <c r="E178" s="50">
         <f t="shared" si="20"/>
         <v>53.587786259541794</v>
       </c>
-      <c r="F178" s="52">
+      <c r="F178" s="50">
         <f t="shared" si="22"/>
         <v>0.93528330908398083</v>
       </c>
-      <c r="G178" s="53">
+      <c r="G178" s="51">
         <f t="shared" si="21"/>
         <v>111.87180904636379</v>
       </c>
-      <c r="H178" s="53">
+      <c r="H178" s="51">
         <f t="shared" si="23"/>
         <v>116.09534559947922</v>
       </c>
-      <c r="I178" s="53">
+      <c r="I178" s="51">
         <f t="shared" si="24"/>
         <v>114.83976130795475</v>
       </c>
-      <c r="J178" s="53">
+      <c r="J178" s="51">
         <f t="shared" si="25"/>
         <v>120.11918199934901</v>
       </c>
     </row>
     <row r="179" spans="5:10">
-      <c r="E179" s="52">
+      <c r="E179" s="50">
         <f t="shared" si="20"/>
         <v>53.931297709923463</v>
       </c>
-      <c r="F179" s="52">
+      <c r="F179" s="50">
         <f t="shared" si="22"/>
         <v>0.94127871491144222</v>
       </c>
-      <c r="G179" s="53">
+      <c r="G179" s="51">
         <f t="shared" si="21"/>
         <v>111.77509813086091</v>
       </c>
-      <c r="H179" s="53">
+      <c r="H179" s="51">
         <f t="shared" si="23"/>
         <v>116.16623221435952</v>
       </c>
-      <c r="I179" s="53">
+      <c r="I179" s="51">
         <f t="shared" si="24"/>
         <v>114.71887266357615</v>
       </c>
-      <c r="J179" s="53">
+      <c r="J179" s="51">
         <f t="shared" si="25"/>
         <v>120.20779026794941</v>
       </c>
     </row>
     <row r="180" spans="5:10">
-      <c r="E180" s="52">
+      <c r="E180" s="50">
         <f t="shared" si="20"/>
         <v>54.274809160305146</v>
       </c>
-      <c r="F180" s="52">
+      <c r="F180" s="50">
         <f t="shared" si="22"/>
         <v>0.9472741207389036</v>
       </c>
-      <c r="G180" s="53">
+      <c r="G180" s="51">
         <f t="shared" si="21"/>
         <v>111.6779639620066</v>
       </c>
-      <c r="H180" s="53">
+      <c r="H180" s="51">
         <f t="shared" si="23"/>
         <v>116.23653773752505</v>
       </c>
-      <c r="I180" s="53">
+      <c r="I180" s="51">
         <f t="shared" si="24"/>
         <v>114.59745495250826</v>
       </c>
-      <c r="J180" s="53">
+      <c r="J180" s="51">
         <f t="shared" si="25"/>
         <v>120.29567217190632</v>
       </c>
     </row>
     <row r="181" spans="5:10">
-      <c r="E181" s="52">
+      <c r="E181" s="50">
         <f t="shared" si="20"/>
         <v>54.618320610686816</v>
       </c>
-      <c r="F181" s="52">
+      <c r="F181" s="50">
         <f t="shared" si="22"/>
         <v>0.95326952656636499</v>
       </c>
-      <c r="G181" s="53">
+      <c r="G181" s="51">
         <f t="shared" si="21"/>
         <v>111.58041003126752</v>
       </c>
-      <c r="H181" s="53">
+      <c r="H181" s="51">
         <f t="shared" si="23"/>
         <v>116.30625964185897</v>
       </c>
-      <c r="I181" s="53">
+      <c r="I181" s="51">
         <f t="shared" si="24"/>
         <v>114.47551253908441</v>
       </c>
-      <c r="J181" s="53">
+      <c r="J181" s="51">
         <f t="shared" si="25"/>
         <v>120.38282455232371</v>
       </c>
     </row>
     <row r="182" spans="5:10">
-      <c r="E182" s="52">
+      <c r="E182" s="50">
         <f t="shared" si="20"/>
         <v>54.961832061068499</v>
       </c>
-      <c r="F182" s="52">
+      <c r="F182" s="50">
         <f t="shared" si="22"/>
         <v>0.95926493239382638</v>
       </c>
-      <c r="G182" s="53">
+      <c r="G182" s="51">
         <f t="shared" si="21"/>
         <v>111.48243984519857</v>
       </c>
-      <c r="H182" s="53">
+      <c r="H182" s="51">
         <f t="shared" si="23"/>
         <v>116.37539542122255</v>
       </c>
-      <c r="I182" s="53">
+      <c r="I182" s="51">
         <f t="shared" si="24"/>
         <v>114.35304980649821</v>
       </c>
-      <c r="J182" s="53">
+      <c r="J182" s="51">
         <f t="shared" si="25"/>
         <v>120.46924427652819</v>
       </c>
     </row>
     <row r="183" spans="5:10">
-      <c r="E183" s="52">
+      <c r="E183" s="50">
         <f t="shared" si="20"/>
         <v>55.305343511450168</v>
       </c>
-      <c r="F183" s="52">
+      <c r="F183" s="50">
         <f t="shared" si="22"/>
         <v>0.96526033822128776</v>
       </c>
-      <c r="G183" s="53">
+      <c r="G183" s="51">
         <f t="shared" si="21"/>
         <v>111.38405692531686</v>
       </c>
-      <c r="H183" s="53">
+      <c r="H183" s="51">
         <f t="shared" si="23"/>
         <v>116.44394259054516</v>
       </c>
-      <c r="I183" s="53">
+      <c r="I183" s="51">
         <f t="shared" si="24"/>
         <v>114.23007115664606</v>
       </c>
-      <c r="J183" s="53">
+      <c r="J183" s="51">
         <f t="shared" si="25"/>
         <v>120.55492823818146</v>
       </c>
     </row>
     <row r="184" spans="5:10">
-      <c r="E184" s="52">
+      <c r="E184" s="50">
         <f t="shared" si="20"/>
         <v>55.648854961831852</v>
       </c>
-      <c r="F184" s="52">
+      <c r="F184" s="50">
         <f t="shared" si="22"/>
         <v>0.97125574404874915</v>
       </c>
-      <c r="G184" s="53">
+      <c r="G184" s="51">
         <f t="shared" si="21"/>
         <v>111.28526480797512</v>
       </c>
-      <c r="H184" s="53">
+      <c r="H184" s="51">
         <f t="shared" si="23"/>
         <v>116.51189868591368</v>
       </c>
-      <c r="I184" s="53">
+      <c r="I184" s="51">
         <f t="shared" si="24"/>
         <v>114.10658100996892</v>
       </c>
-      <c r="J184" s="53">
+      <c r="J184" s="51">
         <f t="shared" si="25"/>
         <v>120.6398733573921</v>
       </c>
     </row>
     <row r="185" spans="5:10">
-      <c r="E185" s="52">
+      <c r="E185" s="50">
         <f t="shared" si="20"/>
         <v>55.992366412213528</v>
       </c>
-      <c r="F185" s="52">
+      <c r="F185" s="50">
         <f t="shared" si="22"/>
         <v>0.97725114987621053</v>
       </c>
-      <c r="G185" s="53">
+      <c r="G185" s="51">
         <f t="shared" si="21"/>
         <v>111.18606704423465</v>
       </c>
-      <c r="H185" s="53">
+      <c r="H185" s="51">
         <f t="shared" si="23"/>
         <v>116.57926126466097</v>
       </c>
-      <c r="I185" s="53">
+      <c r="I185" s="51">
         <f t="shared" si="24"/>
         <v>113.98258380529332</v>
       </c>
-      <c r="J185" s="53">
+      <c r="J185" s="51">
         <f t="shared" si="25"/>
         <v>120.72407658082621</v>
       </c>
     </row>
     <row r="186" spans="5:10">
-      <c r="E186" s="52">
+      <c r="E186" s="50">
         <f t="shared" si="20"/>
         <v>56.335877862595204</v>
       </c>
-      <c r="F186" s="52">
+      <c r="F186" s="50">
         <f t="shared" si="22"/>
         <v>0.98324655570367192</v>
       </c>
-      <c r="G186" s="53">
+      <c r="G186" s="51">
         <f t="shared" si="21"/>
         <v>111.08646719973754</v>
       </c>
-      <c r="H186" s="53">
+      <c r="H186" s="51">
         <f t="shared" si="23"/>
         <v>116.64602790545371</v>
       </c>
-      <c r="I186" s="53">
+      <c r="I186" s="51">
         <f t="shared" si="24"/>
         <v>113.85808399967193</v>
       </c>
-      <c r="J186" s="53">
+      <c r="J186" s="51">
         <f t="shared" si="25"/>
         <v>120.80753488181713</v>
       </c>
     </row>
     <row r="187" spans="5:10">
-      <c r="E187" s="52">
+      <c r="E187" s="50">
         <f t="shared" si="20"/>
         <v>56.67938931297688</v>
       </c>
-      <c r="F187" s="52">
+      <c r="F187" s="50">
         <f t="shared" si="22"/>
         <v>0.98924196153113331</v>
       </c>
-      <c r="G187" s="53">
+      <c r="G187" s="51">
         <f t="shared" si="21"/>
         <v>110.98646885457865</v>
       </c>
-      <c r="H187" s="53">
+      <c r="H187" s="51">
         <f t="shared" si="23"/>
         <v>116.71219620837948</v>
       </c>
-      <c r="I187" s="53">
+      <c r="I187" s="51">
         <f t="shared" si="24"/>
         <v>113.73308606822332</v>
       </c>
-      <c r="J187" s="53">
+      <c r="J187" s="51">
         <f t="shared" si="25"/>
         <v>120.89024526047434</v>
       </c>
     </row>
     <row r="188" spans="5:10">
-      <c r="E188" s="52">
+      <c r="E188" s="50">
         <f t="shared" si="20"/>
         <v>57.022900763358557</v>
       </c>
-      <c r="F188" s="52">
+      <c r="F188" s="50">
         <f t="shared" si="22"/>
         <v>0.99523736735859469</v>
       </c>
-      <c r="G188" s="53">
+      <c r="G188" s="51">
         <f t="shared" si="21"/>
         <v>110.88607560317681</v>
       </c>
-      <c r="H188" s="53">
+      <c r="H188" s="51">
         <f t="shared" si="23"/>
         <v>116.77776379503295</v>
       </c>
-      <c r="I188" s="53">
+      <c r="I188" s="51">
         <f t="shared" si="24"/>
         <v>113.607594503971</v>
       </c>
-      <c r="J188" s="53">
+      <c r="J188" s="51">
         <f t="shared" si="25"/>
         <v>120.9722047437912</v>
       </c>
     </row>
     <row r="189" spans="5:10">
-      <c r="E189" s="52">
+      <c r="E189" s="50">
         <f t="shared" si="20"/>
         <v>57.366412213740233</v>
       </c>
-      <c r="F189" s="52">
+      <c r="F189" s="50">
         <f t="shared" si="22"/>
         <v>1.0012327731860562</v>
       </c>
-      <c r="G189" s="53">
+      <c r="G189" s="51">
         <f t="shared" si="21"/>
         <v>110.78529105414569</v>
       </c>
-      <c r="H189" s="53">
+      <c r="H189" s="51">
         <f t="shared" si="23"/>
         <v>116.84272830860145</v>
       </c>
-      <c r="I189" s="53">
+      <c r="I189" s="51">
         <f t="shared" si="24"/>
         <v>113.48161381768212</v>
       </c>
-      <c r="J189" s="53">
+      <c r="J189" s="51">
         <f t="shared" si="25"/>
         <v>121.05341038575182</v>
       </c>
     </row>
     <row r="190" spans="5:10">
-      <c r="E190" s="52">
+      <c r="E190" s="50">
         <f t="shared" si="20"/>
         <v>57.709923664121916</v>
       </c>
-      <c r="F190" s="52">
+      <c r="F190" s="50">
         <f t="shared" si="22"/>
         <v>1.0072281790135176</v>
       </c>
-      <c r="G190" s="53">
+      <c r="G190" s="51">
         <f t="shared" si="21"/>
         <v>110.6841188301641</v>
       </c>
-      <c r="H190" s="53">
+      <c r="H190" s="51">
         <f t="shared" si="23"/>
         <v>116.9070874139496</v>
       </c>
-      <c r="I190" s="53">
+      <c r="I190" s="51">
         <f t="shared" si="24"/>
         <v>113.35514853770513</v>
       </c>
-      <c r="J190" s="53">
+      <c r="J190" s="51">
         <f t="shared" si="25"/>
         <v>121.133859267437</v>
       </c>
     </row>
     <row r="191" spans="5:10">
-      <c r="E191" s="52">
+      <c r="E191" s="50">
         <f t="shared" si="20"/>
         <v>58.053435114503593</v>
       </c>
-      <c r="F191" s="52">
+      <c r="F191" s="50">
         <f t="shared" si="22"/>
         <v>1.013223584840979</v>
       </c>
-      <c r="G191" s="53">
+      <c r="G191" s="51">
         <f t="shared" si="21"/>
         <v>110.5825625678457</v>
       </c>
-      <c r="H191" s="53">
+      <c r="H191" s="51">
         <f t="shared" si="23"/>
         <v>116.97083879770329</v>
       </c>
-      <c r="I191" s="53">
+      <c r="I191" s="51">
         <f t="shared" si="24"/>
         <v>113.22820320980712</v>
       </c>
-      <c r="J191" s="53">
+      <c r="J191" s="51">
         <f t="shared" si="25"/>
         <v>121.21354849712911</v>
       </c>
     </row>
     <row r="192" spans="5:10">
-      <c r="E192" s="52">
+      <c r="E192" s="50">
         <f t="shared" si="20"/>
         <v>58.396946564885269</v>
       </c>
-      <c r="F192" s="52">
+      <c r="F192" s="50">
         <f t="shared" si="22"/>
         <v>1.0192189906684403</v>
       </c>
-      <c r="G192" s="53">
+      <c r="G192" s="51">
         <f t="shared" si="21"/>
         <v>110.48062591760832</v>
       </c>
-      <c r="H192" s="53">
+      <c r="H192" s="51">
         <f t="shared" si="23"/>
         <v>117.03398016833285</v>
       </c>
-      <c r="I192" s="53">
+      <c r="I192" s="51">
         <f t="shared" si="24"/>
         <v>113.10078239701041</v>
       </c>
-      <c r="J192" s="53">
+      <c r="J192" s="51">
         <f t="shared" si="25"/>
         <v>121.29247521041606</v>
       </c>
     </row>
     <row r="193" spans="5:10">
-      <c r="E193" s="52">
+      <c r="E193" s="50">
         <f t="shared" si="20"/>
         <v>58.740458015266945</v>
       </c>
-      <c r="F193" s="52">
+      <c r="F193" s="50">
         <f t="shared" si="22"/>
         <v>1.0252143964959017</v>
       </c>
-      <c r="G193" s="53">
+      <c r="G193" s="51">
         <f t="shared" si="21"/>
         <v>110.3783125435428</v>
       </c>
-      <c r="H193" s="53">
+      <c r="H193" s="51">
         <f t="shared" si="23"/>
         <v>117.09650925623538</v>
       </c>
-      <c r="I193" s="53">
+      <c r="I193" s="51">
         <f t="shared" si="24"/>
         <v>112.9728906794285</v>
       </c>
-      <c r="J193" s="53">
+      <c r="J193" s="51">
         <f t="shared" si="25"/>
         <v>121.37063657029424</v>
       </c>
     </row>
     <row r="194" spans="5:10">
-      <c r="E194" s="52">
+      <c r="E194" s="50">
         <f t="shared" si="20"/>
         <v>59.083969465648622</v>
       </c>
-      <c r="F194" s="52">
+      <c r="F194" s="50">
         <f t="shared" si="22"/>
         <v>1.0312098023233631</v>
       </c>
-      <c r="G194" s="53">
+      <c r="G194" s="51">
         <f t="shared" si="21"/>
         <v>110.2756261232812</v>
       </c>
-      <c r="H194" s="53">
+      <c r="H194" s="51">
         <f t="shared" si="23"/>
         <v>117.15842381381638</v>
       </c>
-      <c r="I194" s="53">
+      <c r="I194" s="51">
         <f t="shared" si="24"/>
         <v>112.84453265410149</v>
       </c>
-      <c r="J194" s="53">
+      <c r="J194" s="51">
         <f t="shared" si="25"/>
         <v>121.44802976727048</v>
       </c>
     </row>
     <row r="195" spans="5:10">
-      <c r="E195" s="52">
+      <c r="E195" s="50">
         <f t="shared" si="20"/>
         <v>59.427480916030298</v>
       </c>
-      <c r="F195" s="52">
+      <c r="F195" s="50">
         <f t="shared" si="22"/>
         <v>1.0372052081508245</v>
       </c>
-      <c r="G195" s="53">
+      <c r="G195" s="51">
         <f t="shared" si="21"/>
         <v>110.17257034786462</v>
       </c>
-      <c r="H195" s="53">
+      <c r="H195" s="51">
         <f t="shared" si="23"/>
         <v>117.21972161557048</v>
       </c>
-      <c r="I195" s="53">
+      <c r="I195" s="51">
         <f t="shared" si="24"/>
         <v>112.71571293483078</v>
       </c>
-      <c r="J195" s="53">
+      <c r="J195" s="51">
         <f t="shared" si="25"/>
         <v>121.5246520194631</v>
       </c>
     </row>
     <row r="196" spans="5:10">
-      <c r="E196" s="52">
+      <c r="E196" s="50">
         <f t="shared" si="20"/>
         <v>59.770992366411967</v>
       </c>
-      <c r="F196" s="52">
+      <c r="F196" s="50">
         <f t="shared" si="22"/>
         <v>1.0432006139782859</v>
       </c>
-      <c r="G196" s="53">
+      <c r="G196" s="51">
         <f t="shared" si="21"/>
         <v>110.06914892161062</v>
       </c>
-      <c r="H196" s="53">
+      <c r="H196" s="51">
         <f t="shared" si="23"/>
         <v>117.28040045816148</v>
       </c>
-      <c r="I196" s="53">
+      <c r="I196" s="51">
         <f t="shared" si="24"/>
         <v>112.58643615201328</v>
       </c>
-      <c r="J196" s="53">
+      <c r="J196" s="51">
         <f t="shared" si="25"/>
         <v>121.60050057270186</v>
       </c>
     </row>
     <row r="197" spans="5:10">
-      <c r="E197" s="52">
+      <c r="E197" s="50">
         <f t="shared" si="20"/>
         <v>60.114503816793651</v>
       </c>
-      <c r="F197" s="52">
+      <c r="F197" s="50">
         <f t="shared" si="22"/>
         <v>1.0491960198057473</v>
       </c>
-      <c r="G197" s="53">
+      <c r="G197" s="51">
         <f t="shared" si="21"/>
         <v>109.96536556197995</v>
       </c>
-      <c r="H197" s="53">
+      <c r="H197" s="51">
         <f t="shared" si="23"/>
         <v>117.34045816050153</v>
       </c>
-      <c r="I197" s="53">
+      <c r="I197" s="51">
         <f t="shared" si="24"/>
         <v>112.45670695247495</v>
       </c>
-      <c r="J197" s="53">
+      <c r="J197" s="51">
         <f t="shared" si="25"/>
         <v>121.67557270062692</v>
       </c>
     </row>
     <row r="198" spans="5:10">
-      <c r="E198" s="52">
+      <c r="E198" s="50">
         <f t="shared" si="20"/>
         <v>60.458015267175334</v>
       </c>
-      <c r="F198" s="52">
+      <c r="F198" s="50">
         <f t="shared" si="22"/>
         <v>1.0551914256332087</v>
       </c>
-      <c r="G198" s="53">
+      <c r="G198" s="51">
         <f t="shared" si="21"/>
         <v>109.86122399944298</v>
       </c>
-      <c r="H198" s="53">
+      <c r="H198" s="51">
         <f t="shared" si="23"/>
         <v>117.39989256382952</v>
       </c>
-      <c r="I198" s="53">
+      <c r="I198" s="51">
         <f t="shared" si="24"/>
         <v>112.32652999930373</v>
       </c>
-      <c r="J198" s="53">
+      <c r="J198" s="51">
         <f t="shared" si="25"/>
         <v>121.7498657047869</v>
       </c>
     </row>
     <row r="199" spans="5:10">
-      <c r="E199" s="52">
+      <c r="E199" s="50">
         <f t="shared" si="20"/>
         <v>60.801526717557003</v>
       </c>
-      <c r="F199" s="52">
+      <c r="F199" s="50">
         <f t="shared" si="22"/>
         <v>1.0611868314606701</v>
       </c>
-      <c r="G199" s="53">
+      <c r="G199" s="51">
         <f t="shared" si="21"/>
         <v>109.75672797734563</v>
       </c>
-      <c r="H199" s="53">
+      <c r="H199" s="51">
         <f t="shared" si="23"/>
         <v>117.45870153178871</v>
       </c>
-      <c r="I199" s="53">
+      <c r="I199" s="51">
         <f t="shared" si="24"/>
         <v>112.19590997168203</v>
       </c>
-      <c r="J199" s="53">
+      <c r="J199" s="51">
         <f t="shared" si="25"/>
         <v>121.82337691473587</v>
       </c>
     </row>
     <row r="200" spans="5:10">
-      <c r="E200" s="52">
+      <c r="E200" s="50">
         <f t="shared" si="20"/>
         <v>61.145038167938687</v>
       </c>
-      <c r="F200" s="52">
+      <c r="F200" s="50">
         <f t="shared" si="22"/>
         <v>1.0671822372881314</v>
       </c>
-      <c r="G200" s="53">
+      <c r="G200" s="51">
         <f t="shared" si="21"/>
         <v>109.65188125177477</v>
       </c>
-      <c r="H200" s="53">
+      <c r="H200" s="51">
         <f t="shared" si="23"/>
         <v>117.51688295050346</v>
       </c>
-      <c r="I200" s="53">
+      <c r="I200" s="51">
         <f t="shared" si="24"/>
         <v>112.06485156471845</v>
       </c>
-      <c r="J200" s="53">
+      <c r="J200" s="51">
         <f t="shared" si="25"/>
         <v>121.89610368812933</v>
       </c>
     </row>
     <row r="201" spans="5:10">
-      <c r="E201" s="52">
+      <c r="E201" s="50">
         <f t="shared" si="20"/>
         <v>61.488549618320356</v>
       </c>
-      <c r="F201" s="52">
+      <c r="F201" s="50">
         <f t="shared" si="22"/>
         <v>1.0731776431155928</v>
       </c>
-      <c r="G201" s="53">
+      <c r="G201" s="51">
         <f t="shared" si="21"/>
         <v>109.54668759142322</v>
       </c>
-      <c r="H201" s="53">
+      <c r="H201" s="51">
         <f t="shared" si="23"/>
         <v>117.57443472865532</v>
       </c>
-      <c r="I201" s="53">
+      <c r="I201" s="51">
         <f t="shared" si="24"/>
         <v>111.93335948927903</v>
       </c>
-      <c r="J201" s="53">
+      <c r="J201" s="51">
         <f t="shared" si="25"/>
         <v>121.96804341081915</v>
       </c>
     </row>
     <row r="202" spans="5:10">
-      <c r="E202" s="52">
+      <c r="E202" s="50">
         <f t="shared" si="20"/>
         <v>61.832061068702032</v>
       </c>
-      <c r="F202" s="52">
+      <c r="F202" s="50">
         <f t="shared" si="22"/>
         <v>1.0791730489430542</v>
       </c>
-      <c r="G202" s="53">
+      <c r="G202" s="51">
         <f t="shared" si="21"/>
         <v>109.44115077745434</v>
       </c>
-      <c r="H202" s="53">
+      <c r="H202" s="51">
         <f t="shared" si="23"/>
         <v>117.63135479755806</v>
       </c>
-      <c r="I202" s="53">
+      <c r="I202" s="51">
         <f t="shared" si="24"/>
         <v>111.80143847181793</v>
       </c>
-      <c r="J202" s="53">
+      <c r="J202" s="51">
         <f t="shared" si="25"/>
         <v>122.03919349694756</v>
       </c>
     </row>
     <row r="203" spans="5:10">
-      <c r="E203" s="52">
+      <c r="E203" s="50">
         <f t="shared" si="20"/>
         <v>62.175572519083708</v>
       </c>
-      <c r="F203" s="52">
+      <c r="F203" s="50">
         <f t="shared" si="22"/>
         <v>1.0851684547705156</v>
       </c>
-      <c r="G203" s="53">
+      <c r="G203" s="51">
         <f t="shared" si="21"/>
         <v>109.33527460336603</v>
       </c>
-      <c r="H203" s="53">
+      <c r="H203" s="51">
         <f t="shared" si="23"/>
         <v>117.68764111123214</v>
       </c>
-      <c r="I203" s="53">
+      <c r="I203" s="51">
         <f t="shared" si="24"/>
         <v>111.66909325420754</v>
       </c>
-      <c r="J203" s="53">
+      <c r="J203" s="51">
         <f t="shared" si="25"/>
         <v>122.10955138904018</v>
       </c>
     </row>
     <row r="204" spans="5:10">
-      <c r="E204" s="52">
+      <c r="E204" s="50">
         <f t="shared" si="20"/>
         <v>62.519083969465385</v>
       </c>
-      <c r="F204" s="52">
+      <c r="F204" s="50">
         <f t="shared" si="22"/>
         <v>1.091163860597977</v>
       </c>
-      <c r="G204" s="53">
+      <c r="G204" s="51">
         <f t="shared" si="21"/>
         <v>109.22906287485443</v>
       </c>
-      <c r="H204" s="53">
+      <c r="H204" s="51">
         <f t="shared" si="23"/>
         <v>117.74329164647821</v>
       </c>
-      <c r="I204" s="53">
+      <c r="I204" s="51">
         <f t="shared" si="24"/>
         <v>111.53632859356804</v>
       </c>
-      <c r="J204" s="53">
+      <c r="J204" s="51">
         <f t="shared" si="25"/>
         <v>122.17911455809777</v>
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="52">
+      <c r="E205" s="50">
         <f t="shared" si="20"/>
         <v>62.862595419847061</v>
       </c>
-      <c r="F205" s="52">
+      <c r="F205" s="50">
         <f t="shared" si="22"/>
         <v>1.0971592664254384</v>
       </c>
-      <c r="G205" s="53">
+      <c r="G205" s="51">
         <f t="shared" si="21"/>
         <v>109.12251940967714</v>
       </c>
-      <c r="H205" s="53">
+      <c r="H205" s="51">
         <f t="shared" si="23"/>
         <v>117.79830440294984</v>
       </c>
-      <c r="I205" s="53">
+      <c r="I205" s="51">
         <f t="shared" si="24"/>
         <v>111.40314926209642</v>
       </c>
-      <c r="J205" s="53">
+      <c r="J205" s="51">
         <f t="shared" si="25"/>
         <v>122.24788050368731</v>
       </c>
     </row>
     <row r="206" spans="5:10">
-      <c r="E206" s="52">
+      <c r="E206" s="50">
         <f t="shared" si="20"/>
         <v>63.206106870228737</v>
       </c>
-      <c r="F206" s="52">
+      <c r="F206" s="50">
         <f t="shared" si="22"/>
         <v>1.1031546722528998</v>
       </c>
-      <c r="G206" s="53">
+      <c r="G206" s="51">
         <f t="shared" si="21"/>
         <v>109.01564803751589</v>
       </c>
-      <c r="H206" s="53">
+      <c r="H206" s="51">
         <f t="shared" si="23"/>
         <v>117.85267740322543</v>
       </c>
-      <c r="I206" s="53">
+      <c r="I206" s="51">
         <f t="shared" si="24"/>
         <v>111.26956004689487</v>
       </c>
-      <c r="J206" s="53">
+      <c r="J206" s="51">
         <f t="shared" si="25"/>
         <v>122.31584675403178</v>
       </c>
     </row>
     <row r="207" spans="5:10">
-      <c r="E207" s="52">
+      <c r="E207" s="50">
         <f t="shared" si="20"/>
         <v>63.549618320610421</v>
       </c>
-      <c r="F207" s="52">
+      <c r="F207" s="50">
         <f t="shared" si="22"/>
         <v>1.1091500780803611</v>
       </c>
-      <c r="G207" s="53">
+      <c r="G207" s="51">
         <f t="shared" si="21"/>
         <v>108.90845259983904</v>
       </c>
-      <c r="H207" s="53">
+      <c r="H207" s="51">
         <f t="shared" si="23"/>
         <v>117.90640869287924</v>
       </c>
-      <c r="I207" s="53">
+      <c r="I207" s="51">
         <f t="shared" si="24"/>
         <v>111.13556574979879</v>
       </c>
-      <c r="J207" s="53">
+      <c r="J207" s="51">
         <f t="shared" si="25"/>
         <v>122.38301086609906</v>
       </c>
     </row>
     <row r="208" spans="5:10">
-      <c r="E208" s="52">
+      <c r="E208" s="50">
         <f t="shared" si="20"/>
         <v>63.89312977099209</v>
       </c>
-      <c r="F208" s="52">
+      <c r="F208" s="50">
         <f t="shared" si="22"/>
         <v>1.1151454839078225</v>
       </c>
-      <c r="G208" s="53">
+      <c r="G208" s="51">
         <f t="shared" si="21"/>
         <v>108.80093694976334</v>
       </c>
-      <c r="H208" s="53">
+      <c r="H208" s="51">
         <f t="shared" si="23"/>
         <v>117.95949634055171</v>
       </c>
-      <c r="I208" s="53">
+      <c r="I208" s="51">
         <f t="shared" si="24"/>
         <v>111.00117118720418</v>
       </c>
-      <c r="J208" s="53">
+      <c r="J208" s="51">
         <f t="shared" si="25"/>
         <v>122.44937042568964</v>
       </c>
     </row>
     <row r="209" spans="5:10">
-      <c r="E209" s="52">
+      <c r="E209" s="50">
         <f t="shared" si="20"/>
         <v>64.236641221373773</v>
       </c>
-      <c r="F209" s="52">
+      <c r="F209" s="50">
         <f t="shared" si="22"/>
         <v>1.1211408897352839</v>
       </c>
-      <c r="G209" s="53">
+      <c r="G209" s="51">
         <f t="shared" si="21"/>
         <v>108.69310495191557</v>
       </c>
-      <c r="H209" s="53">
+      <c r="H209" s="51">
         <f t="shared" si="23"/>
         <v>118.01193843801886</v>
       </c>
-      <c r="I209" s="53">
+      <c r="I209" s="51">
         <f t="shared" si="24"/>
         <v>110.86638118989447</v>
       </c>
-      <c r="J209" s="53">
+      <c r="J209" s="51">
         <f t="shared" si="25"/>
         <v>122.51492304752357</v>
       </c>
     </row>
     <row r="210" spans="5:10">
-      <c r="E210" s="52">
+      <c r="E210" s="50">
         <f t="shared" si="20"/>
         <v>64.580152671755442</v>
       </c>
-      <c r="F210" s="52">
+      <c r="F210" s="50">
         <f t="shared" si="22"/>
         <v>1.1271362955627453</v>
       </c>
-      <c r="G210" s="53">
+      <c r="G210" s="51">
         <f t="shared" si="21"/>
         <v>108.58496048229352</v>
       </c>
-      <c r="H210" s="53">
+      <c r="H210" s="51">
         <f t="shared" si="23"/>
         <v>118.06373310026083</v>
       </c>
-      <c r="I210" s="53">
+      <c r="I210" s="51">
         <f t="shared" si="24"/>
         <v>110.73120060286689</v>
       </c>
-      <c r="J210" s="53">
+      <c r="J210" s="51">
         <f t="shared" si="25"/>
         <v>122.57966637532604</v>
       </c>
     </row>
     <row r="211" spans="5:10">
-      <c r="E211" s="52">
+      <c r="E211" s="50">
         <f t="shared" si="20"/>
         <v>64.923664122137126</v>
       </c>
-      <c r="F211" s="52">
+      <c r="F211" s="50">
         <f t="shared" si="22"/>
         <v>1.1331317013902067</v>
       </c>
-      <c r="G211" s="53">
+      <c r="G211" s="51">
         <f t="shared" si="21"/>
         <v>108.47650742812672</v>
       </c>
-      <c r="H211" s="53">
+      <c r="H211" s="51">
         <f t="shared" si="23"/>
         <v>118.11487846552973</v>
       </c>
-      <c r="I211" s="53">
+      <c r="I211" s="51">
         <f t="shared" si="24"/>
         <v>110.5956342851584</v>
       </c>
-      <c r="J211" s="53">
+      <c r="J211" s="51">
         <f t="shared" si="25"/>
         <v>122.64359808191216</v>
       </c>
     </row>
     <row r="212" spans="5:10">
-      <c r="E212" s="52">
+      <c r="E212" s="50">
         <f t="shared" si="20"/>
         <v>65.267175572518795</v>
       </c>
-      <c r="F212" s="52">
+      <c r="F212" s="50">
         <f t="shared" si="22"/>
         <v>1.1391271072176681</v>
       </c>
-      <c r="G212" s="53">
+      <c r="G212" s="51">
         <f t="shared" si="21"/>
         <v>108.36774968773672</v>
       </c>
-      <c r="H212" s="53">
+      <c r="H212" s="51">
         <f t="shared" si="23"/>
         <v>118.16537269541647</v>
       </c>
-      <c r="I212" s="53">
+      <c r="I212" s="51">
         <f t="shared" si="24"/>
         <v>110.4596871096709</v>
       </c>
-      <c r="J212" s="53">
+      <c r="J212" s="51">
         <f t="shared" si="25"/>
         <v>122.70671586927058</v>
       </c>
     </row>
     <row r="213" spans="5:10">
-      <c r="E213" s="52">
+      <c r="E213" s="50">
         <f t="shared" si="20"/>
         <v>65.610687022900478</v>
       </c>
-      <c r="F213" s="52">
+      <c r="F213" s="50">
         <f t="shared" si="22"/>
         <v>1.1451225130451295</v>
       </c>
-      <c r="G213" s="53">
+      <c r="G213" s="51">
         <f t="shared" si="21"/>
         <v>108.25869117039692</v>
       </c>
-      <c r="H213" s="53">
+      <c r="H213" s="51">
         <f t="shared" si="23"/>
         <v>118.21521397491691</v>
       </c>
-      <c r="I213" s="53">
+      <c r="I213" s="51">
         <f t="shared" si="24"/>
         <v>110.32336396299615</v>
       </c>
-      <c r="J213" s="53">
+      <c r="J213" s="51">
         <f t="shared" si="25"/>
         <v>122.76901746864613</v>
       </c>
     </row>
     <row r="214" spans="5:10">
-      <c r="E214" s="52">
+      <c r="E214" s="50">
         <f t="shared" si="20"/>
         <v>65.954198473282162</v>
       </c>
-      <c r="F214" s="52">
+      <c r="F214" s="50">
         <f t="shared" si="22"/>
         <v>1.1511179188725909</v>
       </c>
-      <c r="G214" s="53">
+      <c r="G214" s="51">
         <f t="shared" si="21"/>
         <v>108.1493357961921</v>
       </c>
-      <c r="H214" s="53">
+      <c r="H214" s="51">
         <f t="shared" si="23"/>
         <v>118.26440051249703</v>
       </c>
-      <c r="I214" s="53">
+      <c r="I214" s="51">
         <f t="shared" si="24"/>
         <v>110.18666974524014</v>
       </c>
-      <c r="J214" s="53">
+      <c r="J214" s="51">
         <f t="shared" si="25"/>
         <v>122.8305006406213</v>
       </c>
     </row>
     <row r="215" spans="5:10">
-      <c r="E215" s="52">
+      <c r="E215" s="50">
         <f t="shared" ref="E215:E278" si="26">F215*180/PI()</f>
         <v>66.297709923663831</v>
       </c>
-      <c r="F215" s="52">
+      <c r="F215" s="50">
         <f t="shared" si="22"/>
         <v>1.1571133247000522</v>
       </c>
-      <c r="G215" s="53">
+      <c r="G215" s="51">
         <f t="shared" si="21"/>
         <v>108.03968749587753</v>
       </c>
-      <c r="H215" s="53">
+      <c r="H215" s="51">
         <f t="shared" si="23"/>
         <v>118.31293054015742</v>
       </c>
-      <c r="I215" s="53">
+      <c r="I215" s="51">
         <f t="shared" si="24"/>
         <v>110.04960936984691</v>
       </c>
-      <c r="J215" s="53">
+      <c r="J215" s="51">
         <f t="shared" si="25"/>
         <v>122.89116317519678</v>
       </c>
     </row>
     <row r="216" spans="5:10">
-      <c r="E216" s="52">
+      <c r="E216" s="50">
         <f t="shared" si="26"/>
         <v>66.6412213740455</v>
       </c>
-      <c r="F216" s="52">
+      <c r="F216" s="50">
         <f t="shared" si="22"/>
         <v>1.1631087305275136</v>
       </c>
-      <c r="G216" s="53">
+      <c r="G216" s="51">
         <f t="shared" ref="G216:G279" si="27">100+$E$15*COS(F216)</f>
         <v>107.92975021073758</v>
       </c>
-      <c r="H216" s="53">
+      <c r="H216" s="51">
         <f t="shared" si="23"/>
         <v>118.36080231349675</v>
       </c>
-      <c r="I216" s="53">
+      <c r="I216" s="51">
         <f t="shared" si="24"/>
         <v>109.91218776342197</v>
       </c>
-      <c r="J216" s="53">
+      <c r="J216" s="51">
         <f t="shared" si="25"/>
         <v>122.95100289187093</v>
       </c>
     </row>
     <row r="217" spans="5:10">
-      <c r="E217" s="52">
+      <c r="E217" s="50">
         <f t="shared" si="26"/>
         <v>66.984732824427184</v>
       </c>
-      <c r="F217" s="52">
+      <c r="F217" s="50">
         <f t="shared" si="22"/>
         <v>1.169104136354975</v>
       </c>
-      <c r="G217" s="53">
+      <c r="G217" s="51">
         <f t="shared" si="27"/>
         <v>107.81952789244414</v>
       </c>
-      <c r="H217" s="53">
+      <c r="H217" s="51">
         <f t="shared" si="23"/>
         <v>118.40801411177446</v>
       </c>
-      <c r="I217" s="53">
+      <c r="I217" s="51">
         <f t="shared" si="24"/>
         <v>109.77440986555519</v>
       </c>
-      <c r="J217" s="53">
+      <c r="J217" s="51">
         <f t="shared" si="25"/>
         <v>123.01001763971809</v>
       </c>
     </row>
     <row r="218" spans="5:10">
-      <c r="E218" s="52">
+      <c r="E218" s="50">
         <f t="shared" si="26"/>
         <v>67.328244274808853</v>
       </c>
-      <c r="F218" s="52">
+      <c r="F218" s="50">
         <f t="shared" ref="F218:F281" si="28">F217+$F$19*2</f>
         <v>1.1750995421824364</v>
       </c>
-      <c r="G218" s="53">
+      <c r="G218" s="51">
         <f t="shared" si="27"/>
         <v>107.70902450291459</v>
       </c>
-      <c r="H218" s="53">
+      <c r="H218" s="51">
         <f t="shared" ref="H218:H281" si="29">100+$E$15*SIN(F218)</f>
         <v>118.45456423797273</v>
       </c>
-      <c r="I218" s="53">
+      <c r="I218" s="51">
         <f t="shared" ref="I218:I281" si="30">100+$E$14*COS(F218)</f>
         <v>109.63628062864323</v>
       </c>
-      <c r="J218" s="53">
+      <c r="J218" s="51">
         <f t="shared" ref="J218:J281" si="31">100+$E$14*SIN(F218)</f>
         <v>123.06820529746592</v>
       </c>
     </row>
     <row r="219" spans="5:10">
-      <c r="E219" s="52">
+      <c r="E219" s="50">
         <f t="shared" si="26"/>
         <v>67.671755725190536</v>
       </c>
-      <c r="F219" s="52">
+      <c r="F219" s="50">
         <f t="shared" si="28"/>
         <v>1.1810949480098978</v>
       </c>
-      <c r="G219" s="53">
+      <c r="G219" s="51">
         <f t="shared" si="27"/>
         <v>107.59824401416931</v>
       </c>
-      <c r="H219" s="53">
+      <c r="H219" s="51">
         <f t="shared" si="29"/>
         <v>118.50045101885735</v>
       </c>
-      <c r="I219" s="53">
+      <c r="I219" s="51">
         <f t="shared" si="30"/>
         <v>109.49780501771164</v>
       </c>
-      <c r="J219" s="53">
+      <c r="J219" s="51">
         <f t="shared" si="31"/>
         <v>123.1255637735717</v>
       </c>
     </row>
     <row r="220" spans="5:10">
-      <c r="E220" s="52">
+      <c r="E220" s="50">
         <f t="shared" si="26"/>
         <v>68.015267175572205</v>
       </c>
-      <c r="F220" s="52">
+      <c r="F220" s="50">
         <f t="shared" si="28"/>
         <v>1.1870903538373592</v>
       </c>
-      <c r="G220" s="53">
+      <c r="G220" s="51">
         <f t="shared" si="27"/>
         <v>107.48719040818898</v>
       </c>
-      <c r="H220" s="53">
+      <c r="H220" s="51">
         <f t="shared" si="29"/>
         <v>118.54567280503792</v>
       </c>
-      <c r="I220" s="53">
+      <c r="I220" s="51">
         <f t="shared" si="30"/>
         <v>109.35898801023623</v>
       </c>
-      <c r="J220" s="53">
+      <c r="J220" s="51">
         <f t="shared" si="31"/>
         <v>123.1820910062974</v>
       </c>
     </row>
     <row r="221" spans="5:10">
-      <c r="E221" s="52">
+      <c r="E221" s="50">
         <f t="shared" si="26"/>
         <v>68.358778625953875</v>
       </c>
-      <c r="F221" s="52">
+      <c r="F221" s="50">
         <f t="shared" si="28"/>
         <v>1.1930857596648206</v>
       </c>
-      <c r="G221" s="53">
+      <c r="G221" s="51">
         <f t="shared" si="27"/>
         <v>107.37586767677141</v>
       </c>
-      <c r="H221" s="53">
+      <c r="H221" s="51">
         <f t="shared" si="29"/>
         <v>118.5902279710271</v>
       </c>
-      <c r="I221" s="53">
+      <c r="I221" s="51">
         <f t="shared" si="30"/>
         <v>109.21983459596426</v>
       </c>
-      <c r="J221" s="53">
+      <c r="J221" s="51">
         <f t="shared" si="31"/>
         <v>123.23778496378389</v>
       </c>
     </row>
     <row r="222" spans="5:10">
-      <c r="E222" s="52">
+      <c r="E222" s="50">
         <f t="shared" si="26"/>
         <v>68.702290076335558</v>
       </c>
-      <c r="F222" s="52">
+      <c r="F222" s="50">
         <f t="shared" si="28"/>
         <v>1.1990811654922819</v>
       </c>
-      <c r="G222" s="53">
+      <c r="G222" s="51">
         <f t="shared" si="27"/>
         <v>107.26427982138804</v>
       </c>
-      <c r="H222" s="53">
+      <c r="H222" s="51">
         <f t="shared" si="29"/>
         <v>118.63411491529916</v>
       </c>
-      <c r="I222" s="53">
+      <c r="I222" s="51">
         <f t="shared" si="30"/>
         <v>109.08034977673506</v>
       </c>
-      <c r="J222" s="53">
+      <c r="J222" s="51">
         <f t="shared" si="31"/>
         <v>123.29264364412394</v>
       </c>
     </row>
     <row r="223" spans="5:10">
-      <c r="E223" s="52">
+      <c r="E223" s="50">
         <f t="shared" si="26"/>
         <v>69.045801526717241</v>
       </c>
-      <c r="F223" s="52">
+      <c r="F223" s="50">
         <f t="shared" si="28"/>
         <v>1.2050765713197433</v>
       </c>
-      <c r="G223" s="53">
+      <c r="G223" s="51">
         <f t="shared" si="27"/>
         <v>107.15243085304019</v>
       </c>
-      <c r="H223" s="53">
+      <c r="H223" s="51">
         <f t="shared" si="29"/>
         <v>118.67733206034734</v>
       </c>
-      <c r="I223" s="53">
+      <c r="I223" s="51">
         <f t="shared" si="30"/>
         <v>108.94053856630023</v>
       </c>
-      <c r="J223" s="53">
+      <c r="J223" s="51">
         <f t="shared" si="31"/>
         <v>123.34666507543417</v>
       </c>
     </row>
     <row r="224" spans="5:10">
-      <c r="E224" s="52">
+      <c r="E224" s="50">
         <f t="shared" si="26"/>
         <v>69.389312977098911</v>
       </c>
-      <c r="F224" s="52">
+      <c r="F224" s="50">
         <f t="shared" si="28"/>
         <v>1.2110719771472047</v>
       </c>
-      <c r="G224" s="53">
+      <c r="G224" s="51">
         <f t="shared" si="27"/>
         <v>107.04032479211479</v>
       </c>
-      <c r="H224" s="53">
+      <c r="H224" s="51">
         <f t="shared" si="29"/>
         <v>118.71987785274075</v>
       </c>
-      <c r="I224" s="53">
+      <c r="I224" s="51">
         <f t="shared" si="30"/>
         <v>108.80040599014347</v>
       </c>
-      <c r="J224" s="53">
+      <c r="J224" s="51">
         <f t="shared" si="31"/>
         <v>123.39984731592594</v>
       </c>
     </row>
     <row r="225" spans="5:10">
-      <c r="E225" s="52">
+      <c r="E225" s="50">
         <f t="shared" si="26"/>
         <v>69.732824427480594</v>
       </c>
-      <c r="F225" s="52">
+      <c r="F225" s="50">
         <f t="shared" si="28"/>
         <v>1.2170673829746661</v>
       </c>
-      <c r="G225" s="53">
+      <c r="G225" s="51">
         <f t="shared" si="27"/>
         <v>106.92796566823989</v>
       </c>
-      <c r="H225" s="53">
+      <c r="H225" s="51">
         <f t="shared" si="29"/>
         <v>118.76175076318012</v>
       </c>
-      <c r="I225" s="53">
+      <c r="I225" s="51">
         <f t="shared" si="30"/>
         <v>108.65995708529987</v>
       </c>
-      <c r="J225" s="53">
+      <c r="J225" s="51">
         <f t="shared" si="31"/>
         <v>123.45218845397514</v>
       </c>
     </row>
     <row r="226" spans="5:10">
-      <c r="E226" s="52">
+      <c r="E226" s="50">
         <f t="shared" si="26"/>
         <v>70.076335877862263</v>
       </c>
-      <c r="F226" s="52">
+      <c r="F226" s="50">
         <f t="shared" si="28"/>
         <v>1.2230627888021275</v>
       </c>
-      <c r="G226" s="53">
+      <c r="G226" s="51">
         <f t="shared" si="27"/>
         <v>106.81535752013988</v>
       </c>
-      <c r="H226" s="53">
+      <c r="H226" s="51">
         <f t="shared" si="29"/>
         <v>118.8029492865527</v>
       </c>
-      <c r="I226" s="53">
+      <c r="I226" s="51">
         <f t="shared" si="30"/>
         <v>108.51919690017486</v>
       </c>
-      <c r="J226" s="53">
+      <c r="J226" s="51">
         <f t="shared" si="31"/>
         <v>123.50368660819088</v>
       </c>
     </row>
     <row r="227" spans="5:10">
-      <c r="E227" s="52">
+      <c r="E227" s="50">
         <f t="shared" si="26"/>
         <v>70.419847328243947</v>
       </c>
-      <c r="F227" s="52">
+      <c r="F227" s="50">
         <f t="shared" si="28"/>
         <v>1.2290581946295889</v>
       </c>
-      <c r="G227" s="53">
+      <c r="G227" s="51">
         <f t="shared" si="27"/>
         <v>106.70250439549025</v>
       </c>
-      <c r="H227" s="53">
+      <c r="H227" s="51">
         <f t="shared" si="29"/>
         <v>118.84347194198654</v>
       </c>
-      <c r="I227" s="53">
+      <c r="I227" s="51">
         <f t="shared" si="30"/>
         <v>108.37813049436281</v>
       </c>
-      <c r="J227" s="53">
+      <c r="J227" s="51">
         <f t="shared" si="31"/>
         <v>123.55433992748317</v>
       </c>
     </row>
     <row r="228" spans="5:10">
-      <c r="E228" s="52">
+      <c r="E228" s="50">
         <f t="shared" si="26"/>
         <v>70.763358778625616</v>
       </c>
-      <c r="F228" s="52">
+      <c r="F228" s="50">
         <f t="shared" si="28"/>
         <v>1.2350536004570503</v>
       </c>
-      <c r="G228" s="53">
+      <c r="G228" s="51">
         <f t="shared" si="27"/>
         <v>106.58941035077211</v>
       </c>
-      <c r="H228" s="53">
+      <c r="H228" s="51">
         <f t="shared" si="29"/>
         <v>118.88331727290355</v>
       </c>
-      <c r="I228" s="53">
+      <c r="I228" s="51">
         <f t="shared" si="30"/>
         <v>108.23676293846513</v>
       </c>
-      <c r="J228" s="53">
+      <c r="J228" s="51">
         <f t="shared" si="31"/>
         <v>123.60414659112944</v>
       </c>
     </row>
     <row r="229" spans="5:10">
-      <c r="E229" s="54">
+      <c r="E229" s="52">
         <f t="shared" si="26"/>
         <v>71.106870229007299</v>
       </c>
-      <c r="F229" s="54">
+      <c r="F229" s="52">
         <f t="shared" si="28"/>
         <v>1.2410490062845116</v>
       </c>
-      <c r="G229" s="55">
+      <c r="G229" s="53">
         <f t="shared" si="27"/>
         <v>106.4760794511264</v>
       </c>
-      <c r="H229" s="55">
+      <c r="H229" s="53">
         <f t="shared" si="29"/>
         <v>118.92248384707193</v>
       </c>
-      <c r="I229" s="55">
+      <c r="I229" s="53">
         <f t="shared" si="30"/>
         <v>108.09509931390799</v>
       </c>
-      <c r="J229" s="55">
+      <c r="J229" s="53">
         <f t="shared" si="31"/>
         <v>123.65310480883993</v>
       </c>
     </row>
     <row r="230" spans="5:10">
-      <c r="E230" s="54">
+      <c r="E230" s="52">
         <f t="shared" si="26"/>
         <v>71.450381679388983</v>
       </c>
-      <c r="F230" s="54">
+      <c r="F230" s="52">
         <f t="shared" si="28"/>
         <v>1.247044412111973</v>
       </c>
-      <c r="G230" s="55">
+      <c r="G230" s="53">
         <f t="shared" si="27"/>
         <v>106.36251577020775</v>
       </c>
-      <c r="H230" s="55">
+      <c r="H230" s="53">
         <f t="shared" si="29"/>
         <v>118.9609702566577</v>
       </c>
-      <c r="I230" s="55">
+      <c r="I230" s="53">
         <f t="shared" si="30"/>
         <v>107.95314471275968</v>
       </c>
-      <c r="J230" s="55">
+      <c r="J230" s="53">
         <f t="shared" si="31"/>
         <v>123.70121282082212</v>
       </c>
     </row>
     <row r="231" spans="5:10">
-      <c r="E231" s="54">
+      <c r="E231" s="52">
         <f t="shared" si="26"/>
         <v>71.793893129770652</v>
       </c>
-      <c r="F231" s="54">
+      <c r="F231" s="52">
         <f t="shared" si="28"/>
         <v>1.2530398179394344</v>
       </c>
-      <c r="G231" s="55">
+      <c r="G231" s="53">
         <f t="shared" si="27"/>
         <v>106.24872339003807</v>
       </c>
-      <c r="H231" s="55">
+      <c r="H231" s="53">
         <f t="shared" si="29"/>
         <v>118.99877511827515</v>
       </c>
-      <c r="I231" s="55">
+      <c r="I231" s="53">
         <f t="shared" si="30"/>
         <v>107.81090423754759</v>
       </c>
-      <c r="J231" s="55">
+      <c r="J231" s="53">
         <f t="shared" si="31"/>
         <v>123.74846889784394</v>
       </c>
     </row>
     <row r="232" spans="5:10">
-      <c r="E232" s="54">
+      <c r="E232" s="52">
         <f t="shared" si="26"/>
         <v>72.137404580152335</v>
       </c>
-      <c r="F232" s="54">
+      <c r="F232" s="52">
         <f t="shared" si="28"/>
         <v>1.2590352237668958</v>
       </c>
-      <c r="G232" s="55">
+      <c r="G232" s="53">
         <f t="shared" si="27"/>
         <v>106.13470640085983</v>
       </c>
-      <c r="H232" s="55">
+      <c r="H232" s="53">
         <f t="shared" si="29"/>
         <v>119.03589707303676</v>
       </c>
-      <c r="I232" s="55">
+      <c r="I232" s="53">
         <f t="shared" si="30"/>
         <v>107.66838300107479</v>
       </c>
-      <c r="J232" s="55">
+      <c r="J232" s="53">
         <f t="shared" si="31"/>
         <v>123.79487134129596</v>
       </c>
     </row>
     <row r="233" spans="5:10">
-      <c r="E233" s="54">
+      <c r="E233" s="52">
         <f t="shared" si="26"/>
         <v>72.480916030534004</v>
       </c>
-      <c r="F233" s="54">
+      <c r="F233" s="52">
         <f t="shared" si="28"/>
         <v>1.2650306295943572</v>
       </c>
-      <c r="G233" s="55">
+      <c r="G233" s="53">
         <f t="shared" si="27"/>
         <v>106.02046890098899</v>
       </c>
-      <c r="H233" s="55">
+      <c r="H233" s="53">
         <f t="shared" si="29"/>
         <v>119.07233478660189</v>
       </c>
-      <c r="I233" s="55">
+      <c r="I233" s="53">
         <f t="shared" si="30"/>
         <v>107.52558612623623</v>
       </c>
-      <c r="J233" s="55">
+      <c r="J233" s="53">
         <f t="shared" si="31"/>
         <v>123.84041848325236</v>
       </c>
     </row>
     <row r="234" spans="5:10">
-      <c r="E234" s="54">
+      <c r="E234" s="52">
         <f t="shared" si="26"/>
         <v>72.824427480915688</v>
       </c>
-      <c r="F234" s="54">
+      <c r="F234" s="52">
         <f t="shared" si="28"/>
         <v>1.2710260354218186</v>
       </c>
-      <c r="G234" s="55">
+      <c r="G234" s="53">
         <f t="shared" si="27"/>
         <v>105.90601499666774</v>
       </c>
-      <c r="H234" s="55">
+      <c r="H234" s="53">
         <f t="shared" si="29"/>
         <v>119.10808694922483</v>
       </c>
-      <c r="I234" s="55">
+      <c r="I234" s="53">
         <f t="shared" si="30"/>
         <v>107.38251874583466</v>
       </c>
-      <c r="J234" s="55">
+      <c r="J234" s="53">
         <f t="shared" si="31"/>
         <v>123.88510868653103</v>
       </c>
     </row>
     <row r="235" spans="5:10">
-      <c r="E235" s="54">
+      <c r="E235" s="52">
         <f t="shared" si="26"/>
         <v>73.167938931297357</v>
       </c>
-      <c r="F235" s="54">
+      <c r="F235" s="52">
         <f t="shared" si="28"/>
         <v>1.27702144124928</v>
       </c>
-      <c r="G235" s="55">
+      <c r="G235" s="53">
         <f t="shared" si="27"/>
         <v>105.79134880191687</v>
       </c>
-      <c r="H235" s="55">
+      <c r="H235" s="53">
         <f t="shared" si="29"/>
         <v>119.14315227580181</v>
       </c>
-      <c r="I235" s="55">
+      <c r="I235" s="53">
         <f t="shared" si="30"/>
         <v>107.23918600239608</v>
       </c>
-      <c r="J235" s="55">
+      <c r="J235" s="53">
         <f t="shared" si="31"/>
         <v>123.92894034475226</v>
       </c>
     </row>
     <row r="236" spans="5:10">
-      <c r="E236" s="54">
+      <c r="E236" s="52">
         <f t="shared" si="26"/>
         <v>73.51145038167904</v>
       </c>
-      <c r="F236" s="54">
+      <c r="F236" s="52">
         <f t="shared" si="28"/>
         <v>1.2830168470767414</v>
       </c>
-      <c r="G236" s="55">
+      <c r="G236" s="53">
         <f t="shared" si="27"/>
         <v>105.67647443838791</v>
       </c>
-      <c r="H236" s="55">
+      <c r="H236" s="53">
         <f t="shared" si="29"/>
         <v>119.17752950591731</v>
       </c>
-      <c r="I236" s="55">
+      <c r="I236" s="53">
         <f t="shared" si="30"/>
         <v>107.09559304798489</v>
       </c>
-      <c r="J236" s="55">
+      <c r="J236" s="53">
         <f t="shared" si="31"/>
         <v>123.97191188239663</v>
       </c>
     </row>
     <row r="237" spans="5:10">
-      <c r="E237" s="54">
+      <c r="E237" s="52">
         <f t="shared" si="26"/>
         <v>73.85496183206071</v>
       </c>
-      <c r="F237" s="54">
+      <c r="F237" s="52">
         <f t="shared" si="28"/>
         <v>1.2890122529042027</v>
       </c>
-      <c r="G237" s="55">
+      <c r="G237" s="53">
         <f t="shared" si="27"/>
         <v>105.56139603521498</v>
       </c>
-      <c r="H237" s="55">
+      <c r="H237" s="53">
         <f t="shared" si="29"/>
         <v>119.21121740388919</v>
       </c>
-      <c r="I237" s="55">
+      <c r="I237" s="53">
         <f t="shared" si="30"/>
         <v>106.95174504401874</v>
       </c>
-      <c r="J237" s="55">
+      <c r="J237" s="53">
         <f t="shared" si="31"/>
         <v>124.01402175486149</v>
       </c>
     </row>
     <row r="238" spans="5:10">
-      <c r="E238" s="54">
+      <c r="E238" s="52">
         <f t="shared" si="26"/>
         <v>74.198473282442379</v>
       </c>
-      <c r="F238" s="54">
+      <c r="F238" s="52">
         <f t="shared" si="28"/>
         <v>1.2950076587316641</v>
       </c>
-      <c r="G238" s="55">
+      <c r="G238" s="53">
         <f t="shared" si="27"/>
         <v>105.44611772886635</v>
       </c>
-      <c r="H238" s="55">
+      <c r="H238" s="53">
         <f t="shared" si="29"/>
         <v>119.2442147588133</v>
       </c>
-      <c r="I238" s="55">
+      <c r="I238" s="53">
         <f t="shared" si="30"/>
         <v>106.80764716108295</v>
       </c>
-      <c r="J238" s="55">
+      <c r="J238" s="53">
         <f t="shared" si="31"/>
         <v>124.05526844851661</v>
       </c>
     </row>
     <row r="239" spans="5:10">
-      <c r="E239" s="54">
+      <c r="E239" s="52">
         <f t="shared" si="26"/>
         <v>74.541984732824062</v>
       </c>
-      <c r="F239" s="54">
+      <c r="F239" s="52">
         <f t="shared" si="28"/>
         <v>1.3010030645591255</v>
       </c>
-      <c r="G239" s="55">
+      <c r="G239" s="53">
         <f t="shared" si="27"/>
         <v>105.33064366299578</v>
       </c>
-      <c r="H239" s="55">
+      <c r="H239" s="53">
         <f t="shared" si="29"/>
         <v>119.27652038460684</v>
       </c>
-      <c r="I239" s="55">
+      <c r="I239" s="53">
         <f t="shared" si="30"/>
         <v>106.66330457874473</v>
       </c>
-      <c r="J239" s="55">
+      <c r="J239" s="53">
         <f t="shared" si="31"/>
         <v>124.09565048075855</v>
       </c>
     </row>
     <row r="240" spans="5:10">
-      <c r="E240" s="54">
+      <c r="E240" s="52">
         <f t="shared" si="26"/>
         <v>74.885496183205731</v>
       </c>
-      <c r="F240" s="54">
+      <c r="F240" s="52">
         <f t="shared" si="28"/>
         <v>1.3069984703865869</v>
       </c>
-      <c r="G240" s="55">
+      <c r="G240" s="53">
         <f t="shared" si="27"/>
         <v>105.21497798829353</v>
       </c>
-      <c r="H240" s="55">
+      <c r="H240" s="53">
         <f t="shared" si="29"/>
         <v>119.3081331200511</v>
       </c>
-      <c r="I240" s="55">
+      <c r="I240" s="53">
         <f t="shared" si="30"/>
         <v>106.51872248536691</v>
       </c>
-      <c r="J240" s="55">
+      <c r="J240" s="53">
         <f t="shared" si="31"/>
         <v>124.13516640006387</v>
       </c>
     </row>
     <row r="241" spans="5:10">
-      <c r="E241" s="54">
+      <c r="E241" s="52">
         <f t="shared" si="26"/>
         <v>75.229007633587415</v>
       </c>
-      <c r="F241" s="54">
+      <c r="F241" s="52">
         <f t="shared" si="28"/>
         <v>1.3129938762140483</v>
       </c>
-      <c r="G241" s="55">
+      <c r="G241" s="53">
         <f t="shared" si="27"/>
         <v>105.09912486233723</v>
       </c>
-      <c r="H241" s="55">
+      <c r="H241" s="53">
         <f t="shared" si="29"/>
         <v>119.33905182883314</v>
       </c>
-      <c r="I241" s="55">
+      <c r="I241" s="53">
         <f t="shared" si="30"/>
         <v>106.37390607792153</v>
       </c>
-      <c r="J241" s="55">
+      <c r="J241" s="53">
         <f t="shared" si="31"/>
         <v>124.17381478604142</v>
       </c>
     </row>
     <row r="242" spans="5:10">
-      <c r="E242" s="54">
+      <c r="E242" s="52">
         <f t="shared" si="26"/>
         <v>75.572519083969084</v>
       </c>
-      <c r="F242" s="54">
+      <c r="F242" s="52">
         <f t="shared" si="28"/>
         <v>1.3189892820415097</v>
       </c>
-      <c r="G242" s="55">
+      <c r="G242" s="53">
         <f t="shared" si="27"/>
         <v>104.98308844944239</v>
       </c>
-      <c r="H242" s="55">
+      <c r="H242" s="53">
         <f t="shared" si="29"/>
         <v>119.36927539958668</v>
       </c>
-      <c r="I242" s="55">
+      <c r="I242" s="53">
         <f t="shared" si="30"/>
         <v>106.228860561803</v>
       </c>
-      <c r="J242" s="55">
+      <c r="J242" s="53">
         <f t="shared" si="31"/>
         <v>124.21159424948335</v>
       </c>
     </row>
     <row r="243" spans="5:10">
-      <c r="E243" s="54">
+      <c r="E243" s="52">
         <f t="shared" si="26"/>
         <v>75.916030534350767</v>
       </c>
-      <c r="F243" s="54">
+      <c r="F243" s="52">
         <f t="shared" si="28"/>
         <v>1.3249846878689711</v>
       </c>
-      <c r="G243" s="55">
+      <c r="G243" s="53">
         <f t="shared" si="27"/>
         <v>104.86687292051275</v>
       </c>
-      <c r="H243" s="55">
+      <c r="H243" s="53">
         <f t="shared" si="29"/>
         <v>119.39880274593202</v>
       </c>
-      <c r="I243" s="55">
+      <c r="I243" s="53">
         <f t="shared" si="30"/>
         <v>106.08359115064094</v>
       </c>
-      <c r="J243" s="55">
+      <c r="J243" s="53">
         <f t="shared" si="31"/>
         <v>124.24850343241502</v>
       </c>
     </row>
     <row r="244" spans="5:10">
-      <c r="E244" s="54">
+      <c r="E244" s="52">
         <f t="shared" si="26"/>
         <v>76.259541984732437</v>
       </c>
-      <c r="F244" s="54">
+      <c r="F244" s="52">
         <f t="shared" si="28"/>
         <v>1.3309800936964324</v>
       </c>
-      <c r="G244" s="55">
+      <c r="G244" s="53">
         <f t="shared" si="27"/>
         <v>104.75048245289031</v>
       </c>
-      <c r="H244" s="55">
+      <c r="H244" s="53">
         <f t="shared" si="29"/>
         <v>119.42763280651509</v>
       </c>
-      <c r="I244" s="55">
+      <c r="I244" s="53">
         <f t="shared" si="30"/>
         <v>105.93810306611287</v>
       </c>
-      <c r="J244" s="55">
+      <c r="J244" s="53">
         <f t="shared" si="31"/>
         <v>124.28454100814386</v>
       </c>
     </row>
     <row r="245" spans="5:10">
-      <c r="E245" s="54">
+      <c r="E245" s="52">
         <f t="shared" si="26"/>
         <v>76.60305343511412</v>
       </c>
-      <c r="F245" s="54">
+      <c r="F245" s="52">
         <f t="shared" si="28"/>
         <v>1.3369754995238938</v>
       </c>
-      <c r="G245" s="55">
+      <c r="G245" s="53">
         <f t="shared" si="27"/>
         <v>104.6339212302052</v>
       </c>
-      <c r="H245" s="55">
+      <c r="H245" s="53">
         <f t="shared" si="29"/>
         <v>119.45576454504561</v>
       </c>
-      <c r="I245" s="55">
+      <c r="I245" s="53">
         <f t="shared" si="30"/>
         <v>105.7924015377565</v>
       </c>
-      <c r="J245" s="55">
+      <c r="J245" s="53">
         <f t="shared" si="31"/>
         <v>124.319705681307</v>
       </c>
     </row>
     <row r="246" spans="5:10">
-      <c r="E246" s="54">
+      <c r="E246" s="52">
         <f t="shared" si="26"/>
         <v>76.946564885495803</v>
       </c>
-      <c r="F246" s="54">
+      <c r="F246" s="52">
         <f t="shared" si="28"/>
         <v>1.3429709053513552</v>
       </c>
-      <c r="G246" s="55">
+      <c r="G246" s="53">
         <f t="shared" si="27"/>
         <v>104.51719344222535</v>
       </c>
-      <c r="H246" s="55">
+      <c r="H246" s="53">
         <f t="shared" si="29"/>
         <v>119.48319695033432</v>
       </c>
-      <c r="I246" s="55">
+      <c r="I246" s="53">
         <f t="shared" si="30"/>
         <v>105.64649180278168</v>
       </c>
-      <c r="J246" s="55">
+      <c r="J246" s="53">
         <f t="shared" si="31"/>
         <v>124.35399618791789</v>
       </c>
     </row>
     <row r="247" spans="5:10">
-      <c r="E247" s="54">
+      <c r="E247" s="52">
         <f t="shared" si="26"/>
         <v>77.290076335877473</v>
       </c>
-      <c r="F247" s="54">
+      <c r="F247" s="52">
         <f t="shared" si="28"/>
         <v>1.3489663111788166</v>
       </c>
-      <c r="G247" s="55">
+      <c r="G247" s="53">
         <f t="shared" si="27"/>
         <v>104.40030328470579</v>
       </c>
-      <c r="H247" s="55">
+      <c r="H247" s="53">
         <f t="shared" si="29"/>
         <v>119.50992903632937</v>
       </c>
-      <c r="I247" s="55">
+      <c r="I247" s="53">
         <f t="shared" si="30"/>
         <v>105.50037910588222</v>
       </c>
-      <c r="J247" s="55">
+      <c r="J247" s="53">
         <f t="shared" si="31"/>
         <v>124.38741129541171</v>
       </c>
     </row>
     <row r="248" spans="5:10">
-      <c r="E248" s="54">
+      <c r="E248" s="52">
         <f t="shared" si="26"/>
         <v>77.633587786259156</v>
       </c>
-      <c r="F248" s="54">
+      <c r="F248" s="52">
         <f t="shared" si="28"/>
         <v>1.354961717006278</v>
       </c>
-      <c r="G248" s="55">
+      <c r="G248" s="53">
         <f t="shared" si="27"/>
         <v>104.28325495923789</v>
       </c>
-      <c r="H248" s="55">
+      <c r="H248" s="53">
         <f t="shared" si="29"/>
         <v>119.5359598421517</v>
       </c>
-      <c r="I248" s="55">
+      <c r="I248" s="53">
         <f t="shared" si="30"/>
         <v>105.35406869904737</v>
       </c>
-      <c r="J248" s="55">
+      <c r="J248" s="53">
         <f t="shared" si="31"/>
         <v>124.41994980268963</v>
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="54">
+      <c r="E249" s="52">
         <f t="shared" si="26"/>
         <v>77.977099236640825</v>
       </c>
-      <c r="F249" s="54">
+      <c r="F249" s="52">
         <f t="shared" si="28"/>
         <v>1.3609571228337394</v>
       </c>
-      <c r="G249" s="55">
+      <c r="G249" s="53">
         <f t="shared" si="27"/>
         <v>104.16605267309841</v>
       </c>
-      <c r="H249" s="55">
+      <c r="H249" s="53">
         <f t="shared" si="29"/>
         <v>119.56128843212966</v>
       </c>
-      <c r="I249" s="55">
+      <c r="I249" s="53">
         <f t="shared" si="30"/>
         <v>105.20756584137301</v>
       </c>
-      <c r="J249" s="55">
+      <c r="J249" s="53">
         <f t="shared" si="31"/>
         <v>124.45161054016208</v>
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="54">
+      <c r="E250" s="52">
         <f t="shared" si="26"/>
         <v>78.320610687022509</v>
       </c>
-      <c r="F250" s="54">
+      <c r="F250" s="52">
         <f t="shared" si="28"/>
         <v>1.3669525286612008</v>
       </c>
-      <c r="G250" s="55">
+      <c r="G250" s="53">
         <f t="shared" si="27"/>
         <v>104.04870063909809</v>
       </c>
-      <c r="H250" s="55">
+      <c r="H250" s="53">
         <f t="shared" si="29"/>
         <v>119.58591389583256</v>
       </c>
-      <c r="I250" s="55">
+      <c r="I250" s="53">
         <f t="shared" si="30"/>
         <v>105.0608757988726</v>
       </c>
-      <c r="J250" s="55">
+      <c r="J250" s="53">
         <f t="shared" si="31"/>
         <v>124.48239236979069</v>
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="54">
+      <c r="E251" s="52">
         <f t="shared" si="26"/>
         <v>78.664122137404178</v>
       </c>
-      <c r="F251" s="54">
+      <c r="F251" s="52">
         <f t="shared" si="28"/>
         <v>1.3729479344886621</v>
       </c>
-      <c r="G251" s="55">
+      <c r="G251" s="53">
         <f t="shared" si="27"/>
         <v>103.93120307543037</v>
       </c>
-      <c r="H251" s="55">
+      <c r="H251" s="53">
         <f t="shared" si="29"/>
         <v>119.60983534810343</v>
       </c>
-      <c r="I251" s="55">
+      <c r="I251" s="53">
         <f t="shared" si="30"/>
         <v>104.91400384428798</v>
       </c>
-      <c r="J251" s="55">
+      <c r="J251" s="53">
         <f t="shared" si="31"/>
         <v>124.51229418512929</v>
       </c>
     </row>
     <row r="252" spans="5:10">
-      <c r="E252" s="54">
+      <c r="E252" s="52">
         <f t="shared" si="26"/>
         <v>79.007633587785861</v>
       </c>
-      <c r="F252" s="54">
+      <c r="F252" s="52">
         <f t="shared" si="28"/>
         <v>1.3789433403161235</v>
       </c>
-      <c r="G252" s="55">
+      <c r="G252" s="53">
         <f t="shared" si="27"/>
         <v>103.81356420551975</v>
       </c>
-      <c r="H252" s="55">
+      <c r="H252" s="53">
         <f t="shared" si="29"/>
         <v>119.63305192909087</v>
       </c>
-      <c r="I252" s="55">
+      <c r="I252" s="53">
         <f t="shared" si="30"/>
         <v>104.76695525689969</v>
       </c>
-      <c r="J252" s="55">
+      <c r="J252" s="53">
         <f t="shared" si="31"/>
         <v>124.54131491136357</v>
       </c>
     </row>
     <row r="253" spans="5:10">
-      <c r="E253" s="54">
+      <c r="E253" s="52">
         <f t="shared" si="26"/>
         <v>79.35114503816753</v>
       </c>
-      <c r="F253" s="54">
+      <c r="F253" s="52">
         <f t="shared" si="28"/>
         <v>1.3849387461435849</v>
       </c>
-      <c r="G253" s="55">
+      <c r="G253" s="53">
         <f t="shared" si="27"/>
         <v>103.69578825786991</v>
       </c>
-      <c r="H253" s="55">
+      <c r="H253" s="53">
         <f t="shared" si="29"/>
         <v>119.65556280427988</v>
       </c>
-      <c r="I253" s="55">
+      <c r="I253" s="53">
         <f t="shared" si="30"/>
         <v>104.61973532233738</v>
       </c>
-      <c r="J253" s="55">
+      <c r="J253" s="53">
         <f t="shared" si="31"/>
         <v>124.56945350534986</v>
       </c>
     </row>
     <row r="254" spans="5:10">
-      <c r="E254" s="54">
+      <c r="E254" s="52">
         <f t="shared" si="26"/>
         <v>79.694656488549214</v>
       </c>
-      <c r="F254" s="54">
+      <c r="F254" s="52">
         <f t="shared" si="28"/>
         <v>1.3909341519710463</v>
       </c>
-      <c r="G254" s="55">
+      <c r="G254" s="53">
         <f t="shared" si="27"/>
         <v>103.57787946591176</v>
       </c>
-      <c r="H254" s="55">
+      <c r="H254" s="53">
         <f t="shared" si="29"/>
         <v>119.67736716452197</v>
       </c>
-      <c r="I254" s="55">
+      <c r="I254" s="53">
         <f t="shared" si="30"/>
         <v>104.4723493323897</v>
       </c>
-      <c r="J254" s="55">
+      <c r="J254" s="53">
         <f t="shared" si="31"/>
         <v>124.59670895565245</v>
       </c>
     </row>
     <row r="255" spans="5:10">
-      <c r="E255" s="54">
+      <c r="E255" s="52">
         <f t="shared" si="26"/>
         <v>80.038167938930883</v>
       </c>
-      <c r="F255" s="54">
+      <c r="F255" s="52">
         <f t="shared" si="28"/>
         <v>1.3969295577985077</v>
       </c>
-      <c r="G255" s="55">
+      <c r="G255" s="53">
         <f t="shared" si="27"/>
         <v>103.4598420678513</v>
       </c>
-      <c r="H255" s="55">
+      <c r="H255" s="53">
         <f t="shared" si="29"/>
         <v>119.69846422606409</v>
       </c>
-      <c r="I255" s="55">
+      <c r="I255" s="53">
         <f t="shared" si="30"/>
         <v>104.32480258481414</v>
       </c>
-      <c r="J255" s="55">
+      <c r="J255" s="53">
         <f t="shared" si="31"/>
         <v>124.6230802825801</v>
       </c>
     </row>
     <row r="256" spans="5:10">
-      <c r="E256" s="54">
+      <c r="E256" s="52">
         <f t="shared" si="26"/>
         <v>80.381679389312566</v>
       </c>
-      <c r="F256" s="54">
+      <c r="F256" s="52">
         <f t="shared" si="28"/>
         <v>1.4029249636259691</v>
       </c>
-      <c r="G256" s="55">
+      <c r="G256" s="53">
         <f t="shared" si="27"/>
         <v>103.34168030651723</v>
       </c>
-      <c r="H256" s="55">
+      <c r="H256" s="53">
         <f t="shared" si="29"/>
         <v>119.71885323057694</v>
       </c>
-      <c r="I256" s="55">
+      <c r="I256" s="53">
         <f t="shared" si="30"/>
         <v>104.17710038314654</v>
       </c>
-      <c r="J256" s="55">
+      <c r="J256" s="53">
         <f t="shared" si="31"/>
         <v>124.64856653822119</v>
       </c>
     </row>
     <row r="257" spans="5:10">
-      <c r="E257" s="54">
+      <c r="E257" s="52">
         <f t="shared" si="26"/>
         <v>80.725190839694235</v>
       </c>
-      <c r="F257" s="54">
+      <c r="F257" s="52">
         <f t="shared" si="28"/>
         <v>1.4089203694534305</v>
       </c>
-      <c r="G257" s="55">
+      <c r="G257" s="53">
         <f t="shared" si="27"/>
         <v>103.22339842920847</v>
       </c>
-      <c r="H257" s="55">
+      <c r="H257" s="53">
         <f t="shared" si="29"/>
         <v>119.7385334451822</v>
       </c>
-      <c r="I257" s="55">
+      <c r="I257" s="53">
         <f t="shared" si="30"/>
         <v>104.02924803651058</v>
       </c>
-      <c r="J257" s="55">
+      <c r="J257" s="53">
         <f t="shared" si="31"/>
         <v>124.67316680647775</v>
       </c>
     </row>
     <row r="258" spans="5:10">
-      <c r="E258" s="54">
+      <c r="E258" s="52">
         <f t="shared" si="26"/>
         <v>81.068702290075919</v>
       </c>
-      <c r="F258" s="54">
+      <c r="F258" s="52">
         <f t="shared" si="28"/>
         <v>1.4149157752808919</v>
       </c>
-      <c r="G258" s="55">
+      <c r="G258" s="53">
         <f t="shared" si="27"/>
         <v>103.10500068754146</v>
       </c>
-      <c r="H258" s="55">
+      <c r="H258" s="53">
         <f t="shared" si="29"/>
         <v>119.7575041624788</v>
       </c>
-      <c r="I258" s="55">
+      <c r="I258" s="53">
         <f t="shared" si="30"/>
         <v>103.88125085942683</v>
       </c>
-      <c r="J258" s="55">
+      <c r="J258" s="53">
         <f t="shared" si="31"/>
         <v>124.6968802030985</v>
       </c>
     </row>
     <row r="259" spans="5:10">
-      <c r="E259" s="54">
+      <c r="E259" s="52">
         <f t="shared" si="26"/>
         <v>81.412213740457588</v>
       </c>
-      <c r="F259" s="54">
+      <c r="F259" s="52">
         <f t="shared" si="28"/>
         <v>1.4209111811083532</v>
       </c>
-      <c r="G259" s="55">
+      <c r="G259" s="53">
         <f t="shared" si="27"/>
         <v>102.98649133729738</v>
       </c>
-      <c r="H259" s="55">
+      <c r="H259" s="53">
         <f t="shared" si="29"/>
         <v>119.77576470056842</v>
       </c>
-      <c r="I259" s="55">
+      <c r="I259" s="53">
         <f t="shared" si="30"/>
         <v>103.73311417162174</v>
       </c>
-      <c r="J259" s="55">
+      <c r="J259" s="53">
         <f t="shared" si="31"/>
         <v>124.71970587571052</v>
       </c>
     </row>
     <row r="260" spans="5:10">
-      <c r="E260" s="54">
+      <c r="E260" s="52">
         <f t="shared" si="26"/>
         <v>81.755725190839271</v>
       </c>
-      <c r="F260" s="54">
+      <c r="F260" s="52">
         <f t="shared" si="28"/>
         <v>1.4269065869358146</v>
       </c>
-      <c r="G260" s="55">
+      <c r="G260" s="53">
         <f t="shared" si="27"/>
         <v>102.86787463826917</v>
       </c>
-      <c r="H260" s="55">
+      <c r="H260" s="53">
         <f t="shared" si="29"/>
         <v>119.79331440307996</v>
       </c>
-      <c r="I260" s="55">
+      <c r="I260" s="53">
         <f t="shared" si="30"/>
         <v>103.58484329783646</v>
       </c>
-      <c r="J260" s="55">
+      <c r="J260" s="53">
         <f t="shared" si="31"/>
         <v>124.74164300384994</v>
       </c>
     </row>
     <row r="261" spans="5:10">
-      <c r="E261" s="54">
+      <c r="E261" s="52">
         <f t="shared" si="26"/>
         <v>82.099236641220941</v>
       </c>
-      <c r="F261" s="54">
+      <c r="F261" s="52">
         <f t="shared" si="28"/>
         <v>1.432901992763276</v>
       </c>
-      <c r="G261" s="55">
+      <c r="G261" s="53">
         <f t="shared" si="27"/>
         <v>102.74915485410835</v>
       </c>
-      <c r="H261" s="55">
+      <c r="H261" s="53">
         <f t="shared" si="29"/>
         <v>119.81015263919318</v>
       </c>
-      <c r="I261" s="55">
+      <c r="I261" s="53">
         <f t="shared" si="30"/>
         <v>103.43644356763544</v>
       </c>
-      <c r="J261" s="55">
+      <c r="J261" s="53">
         <f t="shared" si="31"/>
         <v>124.76269079899147</v>
       </c>
     </row>
     <row r="262" spans="5:10">
-      <c r="E262" s="54">
+      <c r="E262" s="52">
         <f t="shared" si="26"/>
         <v>82.44274809160261</v>
       </c>
-      <c r="F262" s="54">
+      <c r="F262" s="52">
         <f t="shared" si="28"/>
         <v>1.4388973985907374</v>
       </c>
-      <c r="G262" s="55">
+      <c r="G262" s="53">
         <f t="shared" si="27"/>
         <v>102.63033625217186</v>
       </c>
-      <c r="H262" s="55">
+      <c r="H262" s="53">
         <f t="shared" si="29"/>
         <v>119.82627880366132</v>
       </c>
-      <c r="I262" s="55">
+      <c r="I262" s="53">
         <f t="shared" si="30"/>
         <v>103.28792031521483</v>
       </c>
-      <c r="J262" s="55">
+      <c r="J262" s="53">
         <f t="shared" si="31"/>
         <v>124.78284850457666</v>
       </c>
     </row>
     <row r="263" spans="5:10">
-      <c r="E263" s="54">
+      <c r="E263" s="52">
         <f t="shared" si="26"/>
         <v>82.786259541984293</v>
       </c>
-      <c r="F263" s="54">
+      <c r="F263" s="52">
         <f t="shared" si="28"/>
         <v>1.4448928044181988</v>
       </c>
-      <c r="G263" s="55">
+      <c r="G263" s="53">
         <f t="shared" si="27"/>
         <v>102.51142310336861</v>
       </c>
-      <c r="H263" s="55">
+      <c r="H263" s="53">
         <f t="shared" si="29"/>
         <v>119.84169231683292</v>
       </c>
-      <c r="I263" s="55">
+      <c r="I263" s="53">
         <f t="shared" si="30"/>
         <v>103.13927887921076</v>
       </c>
-      <c r="J263" s="55">
+      <c r="J263" s="53">
         <f t="shared" si="31"/>
         <v>124.80211539604115</v>
       </c>
     </row>
     <row r="264" spans="5:10">
-      <c r="E264" s="54">
+      <c r="E264" s="52">
         <f t="shared" si="26"/>
         <v>83.129770992365977</v>
       </c>
-      <c r="F264" s="54">
+      <c r="F264" s="52">
         <f t="shared" si="28"/>
         <v>1.4508882102456602</v>
       </c>
-      <c r="G264" s="55">
+      <c r="G264" s="53">
         <f t="shared" si="27"/>
         <v>102.39241968200596</v>
       </c>
-      <c r="H264" s="55">
+      <c r="H264" s="53">
         <f t="shared" si="29"/>
         <v>119.85639262467255</v>
       </c>
-      <c r="I264" s="55">
+      <c r="I264" s="53">
         <f t="shared" si="30"/>
         <v>102.99052460250746</v>
       </c>
-      <c r="J264" s="55">
+      <c r="J264" s="53">
         <f t="shared" si="31"/>
         <v>124.82049078084069</v>
       </c>
     </row>
     <row r="265" spans="5:10">
-      <c r="E265" s="54">
+      <c r="E265" s="52">
         <f t="shared" si="26"/>
         <v>83.47328244274766</v>
       </c>
-      <c r="F265" s="54">
+      <c r="F265" s="52">
         <f t="shared" si="28"/>
         <v>1.4568836160731216</v>
       </c>
-      <c r="G265" s="55">
+      <c r="G265" s="53">
         <f t="shared" si="27"/>
         <v>102.27333026563613</v>
       </c>
-      <c r="H265" s="55">
+      <c r="H265" s="53">
         <f t="shared" si="29"/>
         <v>119.87037919878085</v>
       </c>
-      <c r="I265" s="55">
+      <c r="I265" s="53">
         <f t="shared" si="30"/>
         <v>102.84166283204516</v>
       </c>
-      <c r="J265" s="55">
+      <c r="J265" s="53">
         <f t="shared" si="31"/>
         <v>124.83797399847606</v>
       </c>
     </row>
     <row r="266" spans="5:10">
-      <c r="E266" s="54">
+      <c r="E266" s="52">
         <f t="shared" si="26"/>
         <v>83.816793893129315</v>
       </c>
-      <c r="F266" s="54">
+      <c r="F266" s="52">
         <f t="shared" si="28"/>
         <v>1.4628790219005829</v>
       </c>
-      <c r="G266" s="55">
+      <c r="G266" s="53">
         <f t="shared" si="27"/>
         <v>102.15415913490237</v>
       </c>
-      <c r="H266" s="55">
+      <c r="H266" s="53">
         <f t="shared" si="29"/>
         <v>119.88365153641344</v>
       </c>
-      <c r="I266" s="55">
+      <c r="I266" s="53">
         <f t="shared" si="30"/>
         <v>102.69269891862797</v>
       </c>
-      <c r="J266" s="55">
+      <c r="J266" s="53">
         <f t="shared" si="31"/>
         <v>124.85456442051679</v>
       </c>
     </row>
     <row r="267" spans="5:10">
-      <c r="E267" s="54">
+      <c r="E267" s="52">
         <f t="shared" si="26"/>
         <v>84.160305343510998</v>
       </c>
-      <c r="F267" s="54">
+      <c r="F267" s="52">
         <f t="shared" si="28"/>
         <v>1.4688744277280443</v>
       </c>
-      <c r="G267" s="55">
+      <c r="G267" s="53">
         <f t="shared" si="27"/>
         <v>102.03491057338518</v>
       </c>
-      <c r="H267" s="55">
+      <c r="H267" s="53">
         <f t="shared" si="29"/>
         <v>119.89620916049901</v>
       </c>
-      <c r="I267" s="55">
+      <c r="I267" s="53">
         <f t="shared" si="30"/>
         <v>102.54363821673148</v>
       </c>
-      <c r="J267" s="55">
+      <c r="J267" s="53">
         <f t="shared" si="31"/>
         <v>124.87026145062377</v>
       </c>
     </row>
     <row r="268" spans="5:10">
-      <c r="E268" s="54">
+      <c r="E268" s="52">
         <f t="shared" si="26"/>
         <v>84.503816793892682</v>
       </c>
-      <c r="F268" s="54">
+      <c r="F268" s="52">
         <f t="shared" si="28"/>
         <v>1.4748698335555057</v>
       </c>
-      <c r="G268" s="55">
+      <c r="G268" s="53">
         <f t="shared" si="27"/>
         <v>101.91558886744825</v>
       </c>
-      <c r="H268" s="55">
+      <c r="H268" s="53">
         <f t="shared" si="29"/>
         <v>119.9080516196565</v>
       </c>
-      <c r="I268" s="55">
+      <c r="I268" s="53">
         <f t="shared" si="30"/>
         <v>102.39448608431032</v>
       </c>
-      <c r="J268" s="55">
+      <c r="J268" s="53">
         <f t="shared" si="31"/>
         <v>124.88506452457064</v>
       </c>
     </row>
     <row r="269" spans="5:10">
-      <c r="E269" s="54">
+      <c r="E269" s="52">
         <f t="shared" si="26"/>
         <v>84.847328244274365</v>
       </c>
-      <c r="F269" s="54">
+      <c r="F269" s="52">
         <f t="shared" si="28"/>
         <v>1.4808652393829671</v>
       </c>
-      <c r="G269" s="55">
+      <c r="G269" s="53">
         <f t="shared" si="27"/>
         <v>101.79619830608448</v>
       </c>
-      <c r="H269" s="55">
+      <c r="H269" s="53">
         <f t="shared" si="29"/>
         <v>119.91917848821129</v>
       </c>
-      <c r="I269" s="55">
+      <c r="I269" s="53">
         <f t="shared" si="30"/>
         <v>102.24524788260558</v>
       </c>
-      <c r="J269" s="55">
+      <c r="J269" s="53">
         <f t="shared" si="31"/>
         <v>124.89897311026411</v>
       </c>
     </row>
     <row r="270" spans="5:10">
-      <c r="E270" s="54">
+      <c r="E270" s="52">
         <f t="shared" si="26"/>
         <v>85.190839694656049</v>
       </c>
-      <c r="F270" s="54">
+      <c r="F270" s="52">
         <f t="shared" si="28"/>
         <v>1.4868606452104285</v>
       </c>
-      <c r="G270" s="55">
+      <c r="G270" s="53">
         <f t="shared" si="27"/>
         <v>101.67674318076169</v>
       </c>
-      <c r="H270" s="55">
+      <c r="H270" s="53">
         <f t="shared" si="29"/>
         <v>119.92958936621046</v>
       </c>
-      <c r="I270" s="55">
+      <c r="I270" s="53">
         <f t="shared" si="30"/>
         <v>102.09592897595211</v>
       </c>
-      <c r="J270" s="55">
+      <c r="J270" s="53">
         <f t="shared" si="31"/>
         <v>124.91198670776308</v>
       </c>
     </row>
     <row r="271" spans="5:10">
-      <c r="E271" s="54">
+      <c r="E271" s="52">
         <f t="shared" si="26"/>
         <v>85.534351145037704</v>
       </c>
-      <c r="F271" s="54">
+      <c r="F271" s="52">
         <f t="shared" si="28"/>
         <v>1.4928560510378899</v>
       </c>
-      <c r="G271" s="55">
+      <c r="G271" s="53">
         <f t="shared" si="27"/>
         <v>101.55722778526851</v>
       </c>
-      <c r="H271" s="55">
+      <c r="H271" s="53">
         <f t="shared" si="29"/>
         <v>119.93928387943728</v>
       </c>
-      <c r="I271" s="55">
+      <c r="I271" s="53">
         <f t="shared" si="30"/>
         <v>101.94653473158564</v>
       </c>
-      <c r="J271" s="55">
+      <c r="J271" s="53">
         <f t="shared" si="31"/>
         <v>124.92410484929661</v>
       </c>
     </row>
     <row r="272" spans="5:10">
-      <c r="E272" s="54">
+      <c r="E272" s="52">
         <f t="shared" si="26"/>
         <v>85.877862595419387</v>
       </c>
-      <c r="F272" s="54">
+      <c r="F272" s="52">
         <f t="shared" si="28"/>
         <v>1.4988514568653513</v>
       </c>
-      <c r="G272" s="55">
+      <c r="G272" s="53">
         <f t="shared" si="27"/>
         <v>101.43765641555994</v>
       </c>
-      <c r="H272" s="55">
+      <c r="H272" s="53">
         <f t="shared" si="29"/>
         <v>119.94826167942458</v>
       </c>
-      <c r="I272" s="55">
+      <c r="I272" s="53">
         <f t="shared" si="30"/>
         <v>101.79707051944993</v>
       </c>
-      <c r="J272" s="55">
+      <c r="J272" s="53">
         <f t="shared" si="31"/>
         <v>124.93532709928073</v>
       </c>
     </row>
     <row r="273" spans="5:10">
-      <c r="E273" s="54">
+      <c r="E273" s="52">
         <f t="shared" si="26"/>
         <v>86.22137404580107</v>
       </c>
-      <c r="F273" s="54">
+      <c r="F273" s="52">
         <f t="shared" si="28"/>
         <v>1.5048468626928126</v>
       </c>
-      <c r="G273" s="55">
+      <c r="G273" s="53">
         <f t="shared" si="27"/>
         <v>101.31803336960296</v>
       </c>
-      <c r="H273" s="55">
+      <c r="H273" s="53">
         <f t="shared" si="29"/>
         <v>119.95652244346728</v>
       </c>
-      <c r="I273" s="55">
+      <c r="I273" s="53">
         <f t="shared" si="30"/>
         <v>101.6475417120037</v>
       </c>
-      <c r="J273" s="55">
+      <c r="J273" s="53">
         <f t="shared" si="31"/>
         <v>124.94565305433409</v>
       </c>
     </row>
     <row r="274" spans="5:10">
-      <c r="E274" s="54">
+      <c r="E274" s="52">
         <f t="shared" si="26"/>
         <v>86.56488549618274</v>
       </c>
-      <c r="F274" s="54">
+      <c r="F274" s="52">
         <f t="shared" si="28"/>
         <v>1.510842268520274</v>
       </c>
-      <c r="G274" s="55">
+      <c r="G274" s="53">
         <f t="shared" si="27"/>
         <v>101.19836294722204</v>
       </c>
-      <c r="H274" s="55">
+      <c r="H274" s="53">
         <f t="shared" si="29"/>
         <v>119.96406587463399</v>
       </c>
-      <c r="I274" s="55">
+      <c r="I274" s="53">
         <f t="shared" si="30"/>
         <v>101.49795368402755</v>
       </c>
-      <c r="J274" s="55">
+      <c r="J274" s="53">
         <f t="shared" si="31"/>
         <v>124.95508234329249</v>
       </c>
     </row>
     <row r="275" spans="5:10">
-      <c r="E275" s="54">
+      <c r="E275" s="52">
         <f t="shared" si="26"/>
         <v>86.908396946564409</v>
       </c>
-      <c r="F275" s="54">
+      <c r="F275" s="52">
         <f t="shared" si="28"/>
         <v>1.5168376743477354</v>
       </c>
-      <c r="G275" s="55">
+      <c r="G275" s="53">
         <f t="shared" si="27"/>
         <v>101.07864944994459</v>
       </c>
-      <c r="H275" s="55">
+      <c r="H275" s="53">
         <f t="shared" si="29"/>
         <v>119.97089170177772</v>
       </c>
-      <c r="I275" s="55">
+      <c r="I275" s="53">
         <f t="shared" si="30"/>
         <v>101.34831181243074</v>
       </c>
-      <c r="J275" s="55">
+      <c r="J275" s="53">
         <f t="shared" si="31"/>
         <v>124.96361462722214</v>
       </c>
     </row>
     <row r="276" spans="5:10">
-      <c r="E276" s="54">
+      <c r="E276" s="52">
         <f t="shared" si="26"/>
         <v>87.251908396946092</v>
       </c>
-      <c r="F276" s="54">
+      <c r="F276" s="52">
         <f t="shared" si="28"/>
         <v>1.5228330801751968</v>
       </c>
-      <c r="G276" s="55">
+      <c r="G276" s="53">
         <f t="shared" si="27"/>
         <v>100.95889718084634</v>
       </c>
-      <c r="H276" s="55">
+      <c r="H276" s="53">
         <f t="shared" si="29"/>
         <v>119.9769996795456</v>
       </c>
-      <c r="I276" s="55">
+      <c r="I276" s="53">
         <f t="shared" si="30"/>
         <v>101.19862147605791</v>
       </c>
-      <c r="J276" s="55">
+      <c r="J276" s="53">
         <f t="shared" si="31"/>
         <v>124.971249599432</v>
       </c>
     </row>
     <row r="277" spans="5:10">
-      <c r="E277" s="54">
+      <c r="E277" s="52">
         <f t="shared" si="26"/>
         <v>87.595419847327776</v>
       </c>
-      <c r="F277" s="54">
+      <c r="F277" s="52">
         <f t="shared" si="28"/>
         <v>1.5288284860026582</v>
       </c>
-      <c r="G277" s="55">
+      <c r="G277" s="53">
         <f t="shared" si="27"/>
         <v>100.83911044439664</v>
       </c>
-      <c r="H277" s="55">
+      <c r="H277" s="53">
         <f t="shared" si="29"/>
         <v>119.98238958838769</v>
       </c>
-      <c r="I277" s="55">
+      <c r="I277" s="53">
         <f t="shared" si="30"/>
         <v>101.04888805549579</v>
       </c>
-      <c r="J277" s="55">
+      <c r="J277" s="53">
         <f t="shared" si="31"/>
         <v>124.97798698548461</v>
       </c>
     </row>
     <row r="278" spans="5:10">
-      <c r="E278" s="54">
+      <c r="E278" s="52">
         <f t="shared" si="26"/>
         <v>87.938931297709445</v>
       </c>
-      <c r="F278" s="54">
+      <c r="F278" s="52">
         <f t="shared" si="28"/>
         <v>1.5348238918301196</v>
       </c>
-      <c r="G278" s="55">
+      <c r="G278" s="53">
         <f t="shared" si="27"/>
         <v>100.71929354630379</v>
       </c>
-      <c r="H278" s="55">
+      <c r="H278" s="53">
         <f t="shared" si="29"/>
         <v>119.98706123456486</v>
       </c>
-      <c r="I278" s="55">
+      <c r="I278" s="53">
         <f t="shared" si="30"/>
         <v>100.89911693287974</v>
       </c>
-      <c r="J278" s="55">
+      <c r="J278" s="53">
         <f t="shared" si="31"/>
         <v>124.98382654320608</v>
       </c>
     </row>
     <row r="279" spans="5:10">
-      <c r="E279" s="54">
-        <f t="shared" ref="E279:E312" si="32">F279*180/PI()</f>
+      <c r="E279" s="52">
+        <f t="shared" ref="E279:E284" si="32">F279*180/PI()</f>
         <v>88.282442748091128</v>
       </c>
-      <c r="F279" s="54">
+      <c r="F279" s="52">
         <f t="shared" si="28"/>
         <v>1.540819297657581</v>
       </c>
-      <c r="G279" s="55">
+      <c r="G279" s="53">
         <f t="shared" si="27"/>
         <v>100.59945079336025</v>
       </c>
-      <c r="H279" s="55">
+      <c r="H279" s="53">
         <f t="shared" si="29"/>
         <v>119.99101445015584</v>
       </c>
-      <c r="I279" s="55">
+      <c r="I279" s="53">
         <f t="shared" si="30"/>
         <v>100.74931349170032</v>
       </c>
-      <c r="J279" s="55">
+      <c r="J279" s="53">
         <f t="shared" si="31"/>
         <v>124.9887680626948</v>
       </c>
     </row>
     <row r="280" spans="5:10">
-      <c r="E280" s="54">
+      <c r="E280" s="52">
         <f t="shared" si="32"/>
         <v>88.625954198472797</v>
       </c>
-      <c r="F280" s="54">
+      <c r="F280" s="52">
         <f t="shared" si="28"/>
         <v>1.5468147034850424</v>
       </c>
-      <c r="G280" s="55">
-        <f t="shared" ref="G280:G312" si="33">100+$E$15*COS(F280)</f>
+      <c r="G280" s="53">
+        <f t="shared" ref="G280:G284" si="33">100+$E$15*COS(F280)</f>
         <v>100.47958649328781</v>
       </c>
-      <c r="H280" s="55">
+      <c r="H280" s="53">
         <f t="shared" si="29"/>
         <v>119.99424909306313</v>
       </c>
-      <c r="I280" s="55">
+      <c r="I280" s="53">
         <f t="shared" si="30"/>
         <v>100.59948311660976</v>
       </c>
-      <c r="J280" s="55">
+      <c r="J280" s="53">
         <f t="shared" si="31"/>
         <v>124.99281136632891</v>
       </c>
     </row>
     <row r="281" spans="5:10">
-      <c r="E281" s="54">
+      <c r="E281" s="52">
         <f t="shared" si="32"/>
         <v>88.969465648854467</v>
       </c>
-      <c r="F281" s="54">
+      <c r="F281" s="52">
         <f t="shared" si="28"/>
         <v>1.5528101093125037</v>
       </c>
-      <c r="G281" s="55">
+      <c r="G281" s="53">
         <f t="shared" si="33"/>
         <v>100.35970495458275</v>
       </c>
-      <c r="H281" s="55">
+      <c r="H281" s="53">
         <f t="shared" si="29"/>
         <v>119.99676504701819</v>
       </c>
-      <c r="I281" s="55">
+      <c r="I281" s="53">
         <f t="shared" si="30"/>
         <v>100.44963119322844</v>
       </c>
-      <c r="J281" s="55">
+      <c r="J281" s="53">
         <f t="shared" si="31"/>
         <v>124.99595630877275</v>
       </c>
     </row>
     <row r="282" spans="5:10">
-      <c r="E282" s="54">
+      <c r="E282" s="52">
         <f t="shared" si="32"/>
         <v>89.31297709923615</v>
       </c>
-      <c r="F282" s="54">
-        <f t="shared" ref="F282:F312" si="34">F281+$F$19*2</f>
+      <c r="F282" s="52">
+        <f t="shared" ref="F282:F284" si="34">F281+$F$19*2</f>
         <v>1.5588055151399651</v>
       </c>
-      <c r="G282" s="55">
+      <c r="G282" s="53">
         <f t="shared" si="33"/>
         <v>100.23981048636104</v>
       </c>
-      <c r="H282" s="55">
-        <f t="shared" ref="H282:H312" si="35">100+$E$15*SIN(F282)</f>
+      <c r="H282" s="53">
+        <f t="shared" ref="H282:H284" si="35">100+$E$15*SIN(F282)</f>
         <v>119.99856222158562</v>
       </c>
-      <c r="I282" s="55">
-        <f t="shared" ref="I282:I312" si="36">100+$E$14*COS(F282)</f>
+      <c r="I282" s="53">
+        <f t="shared" ref="I282:I284" si="36">100+$E$14*COS(F282)</f>
         <v>100.29976310795129</v>
       </c>
-      <c r="J282" s="55">
-        <f t="shared" ref="J282:J312" si="37">100+$E$14*SIN(F282)</f>
+      <c r="J282" s="53">
+        <f t="shared" ref="J282:J284" si="37">100+$E$14*SIN(F282)</f>
         <v>124.99820277698201</v>
       </c>
     </row>
     <row r="283" spans="5:10">
-      <c r="E283" s="54">
+      <c r="E283" s="52">
         <f t="shared" si="32"/>
         <v>89.656488549617833</v>
       </c>
-      <c r="F283" s="54">
+      <c r="F283" s="52">
         <f t="shared" si="34"/>
         <v>1.5648009209674265</v>
       </c>
-      <c r="G283" s="55">
+      <c r="G283" s="53">
         <f t="shared" si="33"/>
         <v>100.11990739820332</v>
       </c>
-      <c r="H283" s="55">
+      <c r="H283" s="53">
         <f t="shared" si="35"/>
         <v>119.99964055216634</v>
       </c>
-      <c r="I283" s="55">
+      <c r="I283" s="53">
         <f t="shared" si="36"/>
         <v>100.14988424775416</v>
       </c>
-      <c r="J283" s="55">
+      <c r="J283" s="53">
         <f t="shared" si="37"/>
         <v>124.99955069020791</v>
       </c>
     </row>
     <row r="284" spans="5:10">
-      <c r="E284" s="54">
+      <c r="E284" s="52">
         <f t="shared" si="32"/>
         <v>89.999999999999503</v>
       </c>
-      <c r="F284" s="54">
+      <c r="F284" s="52">
         <f t="shared" si="34"/>
         <v>1.5707963267948879</v>
       </c>
-      <c r="G284" s="56">
+      <c r="G284" s="54">
         <f t="shared" si="33"/>
         <v>100.00000000000017</v>
       </c>
-      <c r="H284" s="56">
+      <c r="H284" s="54">
         <f t="shared" si="35"/>
         <v>120</v>
       </c>
-      <c r="I284" s="56">
+      <c r="I284" s="54">
         <f t="shared" si="36"/>
         <v>100.00000000000021</v>
       </c>
-      <c r="J284" s="56">
+      <c r="J284" s="54">
         <f t="shared" si="37"/>
         <v>125</v>
       </c>
@@ -32438,4 +32439,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5">
+      <c r="C5" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="D5">
+        <f>C5/D6</f>
+        <v>2500000</v>
+      </c>
+      <c r="E5">
+        <f>D5/E6</f>
+        <v>312500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="E8" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+      <formula1>"1,4,16,64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4011,11 +4011,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75059584"/>
-        <c:axId val="75077504"/>
+        <c:axId val="86372352"/>
+        <c:axId val="86373888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75059584"/>
+        <c:axId val="86372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4033,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75077504"/>
+        <c:crossAx val="86373888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +4041,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75077504"/>
+        <c:axId val="86373888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4049,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75059584"/>
+        <c:crossAx val="86372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4061,7 +4061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7071,11 +7071,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85374848"/>
-        <c:axId val="85376384"/>
+        <c:axId val="86808064"/>
+        <c:axId val="86809600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85374848"/>
+        <c:axId val="86808064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +7092,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85376384"/>
+        <c:crossAx val="86809600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7100,7 +7100,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85376384"/>
+        <c:axId val="86809600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85374848"/>
+        <c:crossAx val="86808064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7120,7 +7120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10130,11 +10130,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87305216"/>
-        <c:axId val="87315200"/>
+        <c:axId val="89262720"/>
+        <c:axId val="89264512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87305216"/>
+        <c:axId val="89262720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10151,7 +10151,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87315200"/>
+        <c:crossAx val="89264512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10159,7 +10159,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87315200"/>
+        <c:axId val="89264512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10167,7 +10167,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87305216"/>
+        <c:crossAx val="89262720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10179,7 +10179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10281,7 +10281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10300,25 +10300,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87372160"/>
-        <c:axId val="87373696"/>
+        <c:axId val="89370624"/>
+        <c:axId val="89372160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87372160"/>
+        <c:axId val="89370624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87373696"/>
+        <c:crossAx val="89372160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87373696"/>
+        <c:axId val="89372160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10326,7 +10326,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87372160"/>
+        <c:crossAx val="89370624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10338,7 +10338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10426,11 +10426,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87394560"/>
-        <c:axId val="87420928"/>
+        <c:axId val="89409408"/>
+        <c:axId val="89410944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87394560"/>
+        <c:axId val="89409408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10482,14 +10482,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87420928"/>
+        <c:crossAx val="89410944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87420928"/>
+        <c:axId val="89410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10525,7 +10525,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87394560"/>
+        <c:crossAx val="89409408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10544,7 +10544,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11077,8 +11077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11087,7 +11087,7 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -24921,7 +24921,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40708.651187615738</v>
+        <v>40712.473573263887</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24937,7 +24937,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40708.651187615738</v>
+        <v>40712.473573263887</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -24986,7 +24986,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25002,7 +25002,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25034,7 +25034,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455728</v>
+        <v>2455732</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455728.1511921296</v>
+        <v>2455731.9735763893</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -32445,7 +32445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
-    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист1 (2)" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -460,11 +460,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ h:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -856,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -918,6 +919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4011,11 +4013,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86372352"/>
-        <c:axId val="86373888"/>
+        <c:axId val="96937856"/>
+        <c:axId val="96939392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86372352"/>
+        <c:axId val="96937856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4035,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86373888"/>
+        <c:crossAx val="96939392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +4043,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86373888"/>
+        <c:axId val="96939392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4051,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86372352"/>
+        <c:crossAx val="96937856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4061,7 +4063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7071,11 +7073,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86808064"/>
-        <c:axId val="86809600"/>
+        <c:axId val="96972160"/>
+        <c:axId val="96978048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86808064"/>
+        <c:axId val="96972160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +7094,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86809600"/>
+        <c:crossAx val="96978048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7100,7 +7102,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86809600"/>
+        <c:axId val="96978048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7110,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86808064"/>
+        <c:crossAx val="96972160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7120,7 +7122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10130,11 +10132,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89262720"/>
-        <c:axId val="89264512"/>
+        <c:axId val="107479808"/>
+        <c:axId val="107481344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89262720"/>
+        <c:axId val="107479808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10151,7 +10153,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89264512"/>
+        <c:crossAx val="107481344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10159,7 +10161,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89264512"/>
+        <c:axId val="107481344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10167,7 +10169,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89262720"/>
+        <c:crossAx val="107479808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10179,7 +10181,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10281,7 +10283,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0,18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10300,25 +10302,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89370624"/>
-        <c:axId val="89372160"/>
+        <c:axId val="107689856"/>
+        <c:axId val="107691392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89370624"/>
+        <c:axId val="107689856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89372160"/>
+        <c:crossAx val="107691392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89372160"/>
+        <c:axId val="107691392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10326,7 +10328,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89370624"/>
+        <c:crossAx val="107689856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10338,7 +10340,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10426,11 +10428,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89409408"/>
-        <c:axId val="89410944"/>
+        <c:axId val="107544576"/>
+        <c:axId val="107546112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89409408"/>
+        <c:axId val="107544576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10482,14 +10484,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89410944"/>
+        <c:crossAx val="107546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89410944"/>
+        <c:axId val="107546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10525,7 +10527,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89409408"/>
+        <c:crossAx val="107544576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10544,7 +10546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11077,7 +11079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -24903,7 +24905,7 @@
   <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:M34"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24921,7 +24923,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40712.473573263887</v>
+        <v>40731.787664583331</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24937,7 +24939,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40712.473573263887</v>
+        <v>40731.787664583331</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -24970,7 +24972,7 @@
       </c>
       <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
@@ -24986,7 +24988,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25002,7 +25004,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25018,7 +25020,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25034,7 +25036,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25051,7 +25053,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455732</v>
+        <v>2455751</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25085,7 +25087,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455731.9735763893</v>
+        <v>2455751.2876620372</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -32443,52 +32445,419 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:E8"/>
+  <dimension ref="B4:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5">
-      <c r="C5" s="7">
+    <row r="4" spans="2:11">
+      <c r="B4" s="57">
         <v>40000000</v>
       </c>
-      <c r="D5">
-        <f>C5/D6</f>
+      <c r="E4" s="57">
+        <f>B4/4</f>
+        <v>10000000</v>
+      </c>
+      <c r="J4" s="57">
+        <f>B4</f>
+        <v>40000000</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="57">
+        <f>J$4/$B5</f>
+        <v>20000000</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="57">
+        <f>J$4/$B6</f>
+        <v>13333333.333333334</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="57">
+        <f>J$13/$B7</f>
+        <v>625000</v>
+      </c>
+      <c r="E7" s="57">
+        <f>E$4/$B7</f>
         <v>2500000</v>
       </c>
-      <c r="E5">
-        <f>D5/E6</f>
+      <c r="J7" s="57">
+        <f>J$4/$B7</f>
+        <v>10000000</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="57">
+        <f>J$4/$B8</f>
+        <v>8000000</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="J9" s="57">
+        <f>J$4/$B9</f>
+        <v>6666666.666666667</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="J10" s="57">
+        <f>J$4/$B10</f>
+        <v>5714285.7142857146</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="57">
+        <f>J$13/$B11</f>
         <v>312500</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="D6">
+      <c r="E11" s="57">
+        <f>E$4/$B11</f>
+        <v>1250000</v>
+      </c>
+      <c r="F11" s="57">
+        <f>J$4/$B11</f>
+        <v>5000000</v>
+      </c>
+      <c r="J11" s="57">
+        <f>E$4/$B5</f>
+        <v>5000000</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="J12" s="57">
+        <f>E$4/$B6</f>
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="J13" s="57">
+        <f>B4/16</f>
+        <v>2500000</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1">
+      <c r="F14">
+        <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="57">
+        <f>E$4/$B8</f>
+        <v>2000000</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B15">
+        <v>40000000</v>
+      </c>
+      <c r="C15">
+        <f>FLOOR(B15/B17,1)+1</f>
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>C15/64</f>
+        <v>0.796875</v>
+      </c>
+      <c r="E15">
+        <f>FLOOR(D15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>$F$14/1</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <f>IF(AND((E18&gt;=1),(E18&lt;=8)),1,IF(AND((E17&gt;=1),(E17&lt;=8)),4,IF(AND((E16&gt;=1),(E16&lt;=8)),16,IF(AND((E15&gt;=1),(E15&lt;=8)),64,0))))</f>
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="E8" s="7"/>
+      <c r="H15">
+        <f>B15/(G15*F14)</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="J15" s="57">
+        <f>E$4/$B9</f>
+        <v>1666666.6666666667</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1">
+      <c r="D16">
+        <f>C15/16</f>
+        <v>3.1875</v>
+      </c>
+      <c r="E16">
+        <f>FLOOR(D16,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>$F$14/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="4">
+        <f>IF((F22&gt;=1),8,IF((F21&gt;=1),7,IF((F20&gt;=1),6,IF((F19&gt;=1),5,IF((F18&gt;=1),4,IF((F17&gt;=1),3,IF((F16&gt;=1),2,1)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="57">
+        <f>E$4/$B10</f>
+        <v>1428571.4285714286</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>800000</v>
+      </c>
+      <c r="D17">
+        <f>C15/4</f>
+        <v>12.75</v>
+      </c>
+      <c r="E17">
+        <f>FLOOR(D17,1)</f>
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f>$F$14/3</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="57">
+        <f>J$13/$B5</f>
+        <v>1250000</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="D18">
+        <f>C15/1</f>
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <f>FLOOR(D18,1)</f>
+        <v>51</v>
+      </c>
+      <c r="F18">
+        <f>$F$14/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="57">
+        <f>J$13/$B6</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="F19">
+        <f>$F$14/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="57">
+        <f>B4/64</f>
+        <v>625000</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="F20">
+        <f>$F$14/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="57">
+        <f>J$13/$B8</f>
+        <v>500000</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="F21">
+        <f>$F$14/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J21" s="57">
+        <f>J$13/$B9</f>
+        <v>416666.66666666669</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="F22">
+        <f>$F$14/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="J22" s="57">
+        <f>J$13/$B10</f>
+        <v>357142.85714285716</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="57">
+        <f>J$19/$B5</f>
+        <v>312500</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="J24" s="57">
+        <f>J$19/$B6</f>
+        <v>208333.33333333334</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="J25" s="57">
+        <f>J$19/$B7</f>
+        <v>156250</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="J26" s="57">
+        <f>J$19/$B8</f>
+        <v>125000</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="J27" s="57">
+        <f>J$19/$B9</f>
+        <v>104166.66666666667</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="J28" s="57">
+        <f>J$19/$B10</f>
+        <v>89285.71428571429</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="J29" s="57">
+        <f>J$19/$B11</f>
+        <v>78125</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"1,4,16,64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"1,2,3,4,5,6,7,8"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>дни</t>
   </si>
@@ -454,6 +454,36 @@
   </si>
   <si>
     <t>расстояние между метками</t>
+  </si>
+  <si>
+    <t>CLKDIV</t>
+  </si>
+  <si>
+    <t>PLLFBD</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>1:8</t>
   </si>
 </sst>
 </file>
@@ -913,13 +943,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4013,11 +4043,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96937856"/>
-        <c:axId val="96939392"/>
+        <c:axId val="61069952"/>
+        <c:axId val="59183488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96937856"/>
+        <c:axId val="61069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4065,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96939392"/>
+        <c:crossAx val="59183488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4043,7 +4073,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96939392"/>
+        <c:axId val="59183488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4081,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96937856"/>
+        <c:crossAx val="61069952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4063,7 +4093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7073,11 +7103,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96972160"/>
-        <c:axId val="96978048"/>
+        <c:axId val="59240832"/>
+        <c:axId val="59242368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96972160"/>
+        <c:axId val="59240832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7124,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96978048"/>
+        <c:crossAx val="59242368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7102,7 +7132,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96978048"/>
+        <c:axId val="59242368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7110,7 +7140,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96972160"/>
+        <c:crossAx val="59240832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7122,7 +7152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10132,11 +10162,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107479808"/>
-        <c:axId val="107481344"/>
+        <c:axId val="62273024"/>
+        <c:axId val="62274560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107479808"/>
+        <c:axId val="62273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10153,7 +10183,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107481344"/>
+        <c:crossAx val="62274560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10161,7 +10191,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107481344"/>
+        <c:axId val="62274560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10169,7 +10199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107479808"/>
+        <c:crossAx val="62273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10181,7 +10211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10302,25 +10332,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107689856"/>
-        <c:axId val="107691392"/>
+        <c:axId val="71809664"/>
+        <c:axId val="71815552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107689856"/>
+        <c:axId val="71809664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107691392"/>
+        <c:crossAx val="71815552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107691392"/>
+        <c:axId val="71815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10328,7 +10358,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107689856"/>
+        <c:crossAx val="71809664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10340,7 +10370,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10428,11 +10458,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="107544576"/>
-        <c:axId val="107546112"/>
+        <c:axId val="75473664"/>
+        <c:axId val="75475200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107544576"/>
+        <c:axId val="75473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10484,14 +10514,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107546112"/>
+        <c:crossAx val="75475200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107546112"/>
+        <c:axId val="75475200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10527,7 +10557,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107544576"/>
+        <c:crossAx val="75473664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10546,7 +10576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11011,14 +11041,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11079,7 +11109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -11116,12 +11146,12 @@
     <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5"/>
@@ -11208,22 +11238,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D12" s="11">
-        <f>C8*F9</f>
-        <v>3200000000</v>
-      </c>
-      <c r="E12" s="7">
-        <f>C8*F9/(D9*E9*G9)</f>
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+    <row r="10" spans="2:10">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="str">
+        <f>DEC2HEX(E9-1)</f>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>DEC2HEX(F9-1)</f>
+        <v>7F</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="11">
+        <f>C8*F9</f>
+        <v>3200000000</v>
+      </c>
+      <c r="F13" s="7">
+        <f>C8*F9/(D9*E9*G9)</f>
+        <v>80000000</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -24923,7 +24971,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40731.787664583331</v>
+        <v>40732.426993287037</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24939,7 +24987,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40731.787664583331</v>
+        <v>40732.426993287037</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -24988,7 +25036,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25004,7 +25052,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25020,7 +25068,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25036,7 +25084,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25053,7 +25101,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455751</v>
+        <v>2455752</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25087,7 +25135,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455751.2876620372</v>
+        <v>2455751.9269907405</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -32445,10 +32493,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:K29"/>
+  <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32459,17 +32507,18 @@
     <col min="5" max="6" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11">
-      <c r="B4" s="57">
+    <row r="4" spans="2:15">
+      <c r="B4" s="55">
         <v>40000000</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <f>B4/4</f>
         <v>10000000</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="55">
         <f>B4</f>
         <v>40000000</v>
       </c>
@@ -32477,142 +32526,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:15">
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="57">
-        <f>J$4/$B5</f>
+      <c r="J5" s="55">
+        <f t="shared" ref="J5:J10" si="0">J$4/$B5</f>
         <v>20000000</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:15">
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="J6" s="57">
-        <f>J$4/$B6</f>
+      <c r="J6" s="55">
+        <f t="shared" si="0"/>
         <v>13333333.333333334</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:15">
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="55">
         <f>J$13/$B7</f>
         <v>625000</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="55">
         <f>E$4/$B7</f>
         <v>2500000</v>
       </c>
-      <c r="J7" s="57">
-        <f>J$4/$B7</f>
+      <c r="J7" s="55">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:15">
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="57">
-        <f>J$4/$B8</f>
+      <c r="J8" s="55">
+        <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:15">
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="J9" s="57">
-        <f>J$4/$B9</f>
+      <c r="J9" s="55">
+        <f t="shared" si="0"/>
         <v>6666666.666666667</v>
       </c>
       <c r="K9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="N9">
+        <v>111</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="J10" s="57">
-        <f>J$4/$B10</f>
+      <c r="J10" s="55">
+        <f t="shared" si="0"/>
         <v>5714285.7142857146</v>
       </c>
       <c r="K10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="N10">
+        <v>110</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="55">
         <f>J$13/$B11</f>
         <v>312500</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="55">
         <f>E$4/$B11</f>
         <v>1250000</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="55">
         <f>J$4/$B11</f>
         <v>5000000</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="55">
         <f>E$4/$B5</f>
         <v>5000000</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="J12" s="57">
+      <c r="N11">
+        <v>101</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="J12" s="55">
         <f>E$4/$B6</f>
         <v>3333333.3333333335</v>
       </c>
       <c r="K12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="J13" s="57">
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="J13" s="55">
         <f>B4/16</f>
         <v>2500000</v>
       </c>
       <c r="K13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1">
       <c r="F14">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
         <v>3</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="55">
         <f>E$4/$B8</f>
         <v>2000000</v>
       </c>
       <c r="K14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1">
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15">
         <v>40000000</v>
       </c>
@@ -32640,15 +32725,21 @@
         <f>B15/(G15*F14)</f>
         <v>833333.33333333337</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="55">
         <f>E$4/$B9</f>
         <v>1666666.6666666667</v>
       </c>
       <c r="K15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="D16">
         <f>C15/16</f>
         <v>3.1875</v>
@@ -32665,12 +32756,18 @@
         <f>IF((F22&gt;=1),8,IF((F21&gt;=1),7,IF((F20&gt;=1),6,IF((F19&gt;=1),5,IF((F18&gt;=1),4,IF((F17&gt;=1),3,IF((F16&gt;=1),2,1)))))))</f>
         <v>3</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="55">
         <f>E$4/$B10</f>
         <v>1428571.4285714286</v>
       </c>
       <c r="K16">
         <v>13</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -32689,7 +32786,7 @@
         <f>$F$14/3</f>
         <v>1</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="55">
         <f>J$13/$B5</f>
         <v>1250000</v>
       </c>
@@ -32710,7 +32807,7 @@
         <f>$F$14/4</f>
         <v>0.75</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="55">
         <f>J$13/$B6</f>
         <v>833333.33333333337</v>
       </c>
@@ -32723,7 +32820,7 @@
         <f>$F$14/5</f>
         <v>0.6</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="55">
         <f>B4/64</f>
         <v>625000</v>
       </c>
@@ -32736,7 +32833,7 @@
         <f>$F$14/6</f>
         <v>0.5</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="55">
         <f>J$13/$B8</f>
         <v>500000</v>
       </c>
@@ -32749,7 +32846,7 @@
         <f>$F$14/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="55">
         <f>J$13/$B9</f>
         <v>416666.66666666669</v>
       </c>
@@ -32762,7 +32859,7 @@
         <f>$F$14/8</f>
         <v>0.375</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="55">
         <f>J$13/$B10</f>
         <v>357142.85714285716</v>
       </c>
@@ -32777,8 +32874,8 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="J23" s="57">
-        <f>J$19/$B5</f>
+      <c r="J23" s="55">
+        <f t="shared" ref="J23:J29" si="1">J$19/$B5</f>
         <v>312500</v>
       </c>
       <c r="K23">
@@ -32792,8 +32889,8 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="J24" s="57">
-        <f>J$19/$B6</f>
+      <c r="J24" s="55">
+        <f t="shared" si="1"/>
         <v>208333.33333333334</v>
       </c>
       <c r="K24">
@@ -32807,8 +32904,8 @@
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="J25" s="57">
-        <f>J$19/$B7</f>
+      <c r="J25" s="55">
+        <f t="shared" si="1"/>
         <v>156250</v>
       </c>
       <c r="K25">
@@ -32822,8 +32919,8 @@
       <c r="C26">
         <v>7</v>
       </c>
-      <c r="J26" s="57">
-        <f>J$19/$B8</f>
+      <c r="J26" s="55">
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="K26">
@@ -32831,8 +32928,8 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="J27" s="57">
-        <f>J$19/$B9</f>
+      <c r="J27" s="55">
+        <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
       <c r="K27">
@@ -32840,8 +32937,8 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="J28" s="57">
-        <f>J$19/$B10</f>
+      <c r="J28" s="55">
+        <f t="shared" si="1"/>
         <v>89285.71428571429</v>
       </c>
       <c r="K28">
@@ -32849,8 +32946,8 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="J29" s="57">
-        <f>J$19/$B11</f>
+      <c r="J29" s="55">
+        <f t="shared" si="1"/>
         <v>78125</v>
       </c>
       <c r="K29">

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4043,11 +4043,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61069952"/>
-        <c:axId val="59183488"/>
+        <c:axId val="53676672"/>
+        <c:axId val="53690752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61069952"/>
+        <c:axId val="53676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4065,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59183488"/>
+        <c:crossAx val="53690752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4073,7 +4073,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59183488"/>
+        <c:axId val="53690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4081,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61069952"/>
+        <c:crossAx val="53676672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4093,7 +4093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7103,11 +7103,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59240832"/>
-        <c:axId val="59242368"/>
+        <c:axId val="53731712"/>
+        <c:axId val="53733248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59240832"/>
+        <c:axId val="53731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7124,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59242368"/>
+        <c:crossAx val="53733248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,7 +7132,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59242368"/>
+        <c:axId val="53733248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7140,7 +7140,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59240832"/>
+        <c:crossAx val="53731712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7152,7 +7152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10162,11 +10162,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62273024"/>
-        <c:axId val="62274560"/>
+        <c:axId val="55981568"/>
+        <c:axId val="55983104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62273024"/>
+        <c:axId val="55981568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10183,7 +10183,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62274560"/>
+        <c:crossAx val="55983104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10191,7 +10191,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62274560"/>
+        <c:axId val="55983104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10199,7 +10199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62273024"/>
+        <c:crossAx val="55981568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10211,7 +10211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10332,25 +10332,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71809664"/>
-        <c:axId val="71815552"/>
+        <c:axId val="72157824"/>
+        <c:axId val="72159616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71809664"/>
+        <c:axId val="72157824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71815552"/>
+        <c:crossAx val="72159616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71815552"/>
+        <c:axId val="72159616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10358,7 +10358,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71809664"/>
+        <c:crossAx val="72157824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10370,7 +10370,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10458,11 +10458,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75473664"/>
-        <c:axId val="75475200"/>
+        <c:axId val="72196864"/>
+        <c:axId val="72198400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75473664"/>
+        <c:axId val="72196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10514,14 +10514,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75475200"/>
+        <c:crossAx val="72198400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75475200"/>
+        <c:axId val="72198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10557,7 +10557,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75473664"/>
+        <c:crossAx val="72196864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10576,7 +10576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24971,7 +24971,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40732.426993287037</v>
+        <v>40738.531985300928</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40732.426993287037</v>
+        <v>40738.531985300928</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25036,7 +25036,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25052,7 +25052,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25068,7 +25068,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25084,7 +25084,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25101,7 +25101,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455752</v>
+        <v>2455758</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25135,7 +25135,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455751.9269907405</v>
+        <v>2455758.0319907409</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -32496,7 +32496,7 @@
   <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="C15">
         <f>FLOOR(B15/B17,1)+1</f>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <f>C15/64</f>
-        <v>0.796875</v>
+        <v>0.21875</v>
       </c>
       <c r="E15">
         <f>FLOOR(D15,1)</f>
@@ -32719,11 +32719,11 @@
       </c>
       <c r="G15" s="4">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),1,IF(AND((E17&gt;=1),(E17&lt;=8)),4,IF(AND((E16&gt;=1),(E16&lt;=8)),16,IF(AND((E15&gt;=1),(E15&lt;=8)),64,0))))</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f>B15/(G15*F14)</f>
-        <v>833333.33333333337</v>
+        <v>3333333.3333333335</v>
       </c>
       <c r="J15" s="55">
         <f>E$4/$B9</f>
@@ -32742,11 +32742,11 @@
     <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="D16">
         <f>C15/16</f>
-        <v>3.1875</v>
+        <v>0.875</v>
       </c>
       <c r="E16">
         <f>FLOOR(D16,1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>$F$14/2</f>
@@ -32772,15 +32772,15 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17">
-        <v>800000</v>
+        <v>3000000</v>
       </c>
       <c r="D17">
         <f>C15/4</f>
-        <v>12.75</v>
+        <v>3.5</v>
       </c>
       <c r="E17">
         <f>FLOOR(D17,1)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f>$F$14/3</f>
@@ -32797,11 +32797,11 @@
     <row r="18" spans="2:11">
       <c r="D18">
         <f>C15/1</f>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <f>FLOOR(D18,1)</f>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <f>$F$14/4</f>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -887,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -940,10 +940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4043,11 +4041,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53676672"/>
-        <c:axId val="53690752"/>
+        <c:axId val="77671040"/>
+        <c:axId val="77676928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53676672"/>
+        <c:axId val="77671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53690752"/>
+        <c:crossAx val="77676928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4073,7 +4071,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53690752"/>
+        <c:axId val="77676928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4079,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53676672"/>
+        <c:crossAx val="77671040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4093,7 +4091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7103,11 +7101,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53731712"/>
-        <c:axId val="53733248"/>
+        <c:axId val="77717888"/>
+        <c:axId val="77719424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53731712"/>
+        <c:axId val="77717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53733248"/>
+        <c:crossAx val="77719424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,7 +7130,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53733248"/>
+        <c:axId val="77719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7140,7 +7138,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53731712"/>
+        <c:crossAx val="77717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7152,7 +7150,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10162,11 +10160,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55981568"/>
-        <c:axId val="55983104"/>
+        <c:axId val="82720256"/>
+        <c:axId val="82721792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55981568"/>
+        <c:axId val="82720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10183,7 +10181,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55983104"/>
+        <c:crossAx val="82721792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10191,7 +10189,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55983104"/>
+        <c:axId val="82721792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10199,7 +10197,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55981568"/>
+        <c:crossAx val="82720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10211,7 +10209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10313,7 +10311,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10332,25 +10330,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72157824"/>
-        <c:axId val="72159616"/>
+        <c:axId val="88541824"/>
+        <c:axId val="88543616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72157824"/>
+        <c:axId val="88541824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72159616"/>
+        <c:crossAx val="88543616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72159616"/>
+        <c:axId val="88543616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10358,7 +10356,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72157824"/>
+        <c:crossAx val="88541824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10370,7 +10368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10458,11 +10456,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72196864"/>
-        <c:axId val="72198400"/>
+        <c:axId val="88584960"/>
+        <c:axId val="88586496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72196864"/>
+        <c:axId val="88584960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10514,14 +10512,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72198400"/>
+        <c:crossAx val="88586496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72198400"/>
+        <c:axId val="88586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10557,7 +10555,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72196864"/>
+        <c:crossAx val="88584960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10576,7 +10574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11041,14 +11039,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11146,12 +11144,12 @@
     <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5"/>
@@ -11867,7 +11865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -24971,7 +24969,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40738.531985300928</v>
+        <v>40746.702408564815</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24987,7 +24985,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40738.531985300928</v>
+        <v>40746.702408564815</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25036,7 +25034,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25052,7 +25050,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25068,7 +25066,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25084,7 +25082,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25101,7 +25099,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455758</v>
+        <v>2455766</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25135,7 +25133,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455758.0319907409</v>
+        <v>2455766.2024074076</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -25221,8 +25219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:J312"/>
   <sheetViews>
-    <sheetView topLeftCell="D229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J234" sqref="J234"/>
+    <sheetView topLeftCell="D265" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E275" sqref="E275:J284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25425,6 +25423,9 @@
       </c>
     </row>
     <row r="22" spans="3:10">
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" s="50">
         <f>F22*180/PI()</f>
         <v>0</v>
@@ -25451,6 +25452,9 @@
       </c>
     </row>
     <row r="23" spans="3:10">
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="E23" s="50">
         <f>F23*180/PI()</f>
         <v>0.34351145038167935</v>
@@ -25477,6 +25481,9 @@
       </c>
     </row>
     <row r="24" spans="3:10">
+      <c r="D24">
+        <v>3</v>
+      </c>
       <c r="E24" s="50">
         <f t="shared" ref="E24:E86" si="0">F24*180/PI()</f>
         <v>0.6870229007633587</v>
@@ -25503,6 +25510,9 @@
       </c>
     </row>
     <row r="25" spans="3:10">
+      <c r="D25">
+        <v>4</v>
+      </c>
       <c r="E25" s="50">
         <f t="shared" si="0"/>
         <v>1.0305343511450382</v>
@@ -25529,6 +25539,9 @@
       </c>
     </row>
     <row r="26" spans="3:10">
+      <c r="D26">
+        <v>5</v>
+      </c>
       <c r="E26" s="50">
         <f t="shared" si="0"/>
         <v>1.3740458015267174</v>
@@ -25555,6 +25568,9 @@
       </c>
     </row>
     <row r="27" spans="3:10">
+      <c r="D27">
+        <v>6</v>
+      </c>
       <c r="E27" s="50">
         <f t="shared" si="0"/>
         <v>1.7175572519083968</v>
@@ -25581,6 +25597,9 @@
       </c>
     </row>
     <row r="28" spans="3:10">
+      <c r="D28">
+        <v>7</v>
+      </c>
       <c r="E28" s="50">
         <f t="shared" si="0"/>
         <v>2.061068702290076</v>
@@ -25607,6 +25626,9 @@
       </c>
     </row>
     <row r="29" spans="3:10">
+      <c r="D29">
+        <v>8</v>
+      </c>
       <c r="E29" s="50">
         <f t="shared" si="0"/>
         <v>2.404580152671755</v>
@@ -25633,6 +25655,9 @@
       </c>
     </row>
     <row r="30" spans="3:10">
+      <c r="D30">
+        <v>9</v>
+      </c>
       <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>2.7480916030534344</v>
@@ -25659,6 +25684,9 @@
       </c>
     </row>
     <row r="31" spans="3:10">
+      <c r="D31">
+        <v>10</v>
+      </c>
       <c r="E31" s="50">
         <f t="shared" si="0"/>
         <v>3.0916030534351138</v>
@@ -25685,6 +25713,9 @@
       </c>
     </row>
     <row r="32" spans="3:10">
+      <c r="D32">
+        <v>11</v>
+      </c>
       <c r="E32" s="50">
         <f t="shared" si="0"/>
         <v>3.4351145038167932</v>
@@ -25710,7 +25741,10 @@
         <v>101.49795368402735</v>
       </c>
     </row>
-    <row r="33" spans="5:10">
+    <row r="33" spans="4:10">
+      <c r="D33">
+        <v>12</v>
+      </c>
       <c r="E33" s="50">
         <f t="shared" si="0"/>
         <v>3.7786259541984721</v>
@@ -25736,7 +25770,10 @@
         <v>101.6475417120035</v>
       </c>
     </row>
-    <row r="34" spans="5:10">
+    <row r="34" spans="4:10">
+      <c r="D34">
+        <v>13</v>
+      </c>
       <c r="E34" s="50">
         <f t="shared" si="0"/>
         <v>4.122137404580152</v>
@@ -25762,7 +25799,10 @@
         <v>101.79707051944973</v>
       </c>
     </row>
-    <row r="35" spans="5:10">
+    <row r="35" spans="4:10">
+      <c r="D35">
+        <v>14</v>
+      </c>
       <c r="E35" s="50">
         <f t="shared" si="0"/>
         <v>4.4656488549618318</v>
@@ -25788,7 +25828,10 @@
         <v>101.94653473158544</v>
       </c>
     </row>
-    <row r="36" spans="5:10">
+    <row r="36" spans="4:10">
+      <c r="D36">
+        <v>15</v>
+      </c>
       <c r="E36" s="50">
         <f t="shared" si="0"/>
         <v>4.8091603053435117</v>
@@ -25814,7 +25857,10 @@
         <v>102.09592897595191</v>
       </c>
     </row>
-    <row r="37" spans="5:10">
+    <row r="37" spans="4:10">
+      <c r="D37">
+        <v>16</v>
+      </c>
       <c r="E37" s="50">
         <f t="shared" si="0"/>
         <v>5.1526717557251906</v>
@@ -25840,7 +25886,10 @@
         <v>102.24524788260538</v>
       </c>
     </row>
-    <row r="38" spans="5:10">
+    <row r="38" spans="4:10">
+      <c r="D38">
+        <v>17</v>
+      </c>
       <c r="E38" s="50">
         <f t="shared" si="0"/>
         <v>5.4961832061068696</v>
@@ -25866,7 +25915,10 @@
         <v>102.39448608431012</v>
       </c>
     </row>
-    <row r="39" spans="5:10">
+    <row r="39" spans="4:10">
+      <c r="D39">
+        <v>18</v>
+      </c>
       <c r="E39" s="50">
         <f t="shared" si="0"/>
         <v>5.8396946564885504</v>
@@ -25892,7 +25944,10 @@
         <v>102.54363821673128</v>
       </c>
     </row>
-    <row r="40" spans="5:10">
+    <row r="40" spans="4:10">
+      <c r="D40">
+        <v>19</v>
+      </c>
       <c r="E40" s="50">
         <f t="shared" si="0"/>
         <v>6.1832061068702293</v>
@@ -25918,7 +25973,10 @@
         <v>102.69269891862778</v>
       </c>
     </row>
-    <row r="41" spans="5:10">
+    <row r="41" spans="4:10">
+      <c r="D41">
+        <v>20</v>
+      </c>
       <c r="E41" s="50">
         <f t="shared" si="0"/>
         <v>6.5267175572519092</v>
@@ -25944,7 +26002,10 @@
         <v>102.84166283204497</v>
       </c>
     </row>
-    <row r="42" spans="5:10">
+    <row r="42" spans="4:10">
+      <c r="D42">
+        <v>21</v>
+      </c>
       <c r="E42" s="50">
         <f t="shared" si="0"/>
         <v>6.870229007633589</v>
@@ -25970,7 +26031,10 @@
         <v>102.99052460250726</v>
       </c>
     </row>
-    <row r="43" spans="5:10">
+    <row r="43" spans="4:10">
+      <c r="D43">
+        <v>22</v>
+      </c>
       <c r="E43" s="50">
         <f t="shared" si="0"/>
         <v>7.213740458015268</v>
@@ -25996,7 +26060,10 @@
         <v>103.13927887921058</v>
       </c>
     </row>
-    <row r="44" spans="5:10">
+    <row r="44" spans="4:10">
+      <c r="D44">
+        <v>23</v>
+      </c>
       <c r="E44" s="50">
         <f t="shared" si="0"/>
         <v>7.5572519083969478</v>
@@ -26022,7 +26089,10 @@
         <v>103.28792031521463</v>
       </c>
     </row>
-    <row r="45" spans="5:10">
+    <row r="45" spans="4:10">
+      <c r="D45">
+        <v>24</v>
+      </c>
       <c r="E45" s="50">
         <f t="shared" si="0"/>
         <v>7.9007633587786277</v>
@@ -26048,7 +26118,10 @@
         <v>103.43644356763525</v>
       </c>
     </row>
-    <row r="46" spans="5:10">
+    <row r="46" spans="4:10">
+      <c r="D46">
+        <v>25</v>
+      </c>
       <c r="E46" s="50">
         <f t="shared" si="0"/>
         <v>8.2442748091603075</v>
@@ -26074,7 +26147,10 @@
         <v>103.58484329783627</v>
       </c>
     </row>
-    <row r="47" spans="5:10">
+    <row r="47" spans="4:10">
+      <c r="D47">
+        <v>26</v>
+      </c>
       <c r="E47" s="50">
         <f t="shared" si="0"/>
         <v>8.5877862595419874</v>
@@ -26100,7 +26176,10 @@
         <v>103.73311417162155</v>
       </c>
     </row>
-    <row r="48" spans="5:10">
+    <row r="48" spans="4:10">
+      <c r="D48">
+        <v>27</v>
+      </c>
       <c r="E48" s="50">
         <f t="shared" si="0"/>
         <v>8.9312977099236672</v>
@@ -26126,7 +26205,10 @@
         <v>103.88125085942664</v>
       </c>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="4:10">
+      <c r="D49">
+        <v>28</v>
+      </c>
       <c r="E49" s="50">
         <f t="shared" si="0"/>
         <v>9.2748091603053453</v>
@@ -26152,7 +26234,10 @@
         <v>104.02924803651041</v>
       </c>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="4:10">
+      <c r="D50">
+        <v>29</v>
+      </c>
       <c r="E50" s="50">
         <f t="shared" si="0"/>
         <v>9.6183206106870269</v>
@@ -26178,7 +26263,10 @@
         <v>104.17710038314637</v>
       </c>
     </row>
-    <row r="51" spans="5:10">
+    <row r="51" spans="4:10">
+      <c r="D51">
+        <v>30</v>
+      </c>
       <c r="E51" s="50">
         <f t="shared" si="0"/>
         <v>9.961832061068705</v>
@@ -26204,7 +26292,10 @@
         <v>104.32480258481395</v>
       </c>
     </row>
-    <row r="52" spans="5:10">
+    <row r="52" spans="4:10">
+      <c r="D52">
+        <v>31</v>
+      </c>
       <c r="E52" s="50">
         <f t="shared" si="0"/>
         <v>10.305343511450387</v>
@@ -26230,7 +26321,10 @@
         <v>104.47234933238953</v>
       </c>
     </row>
-    <row r="53" spans="5:10">
+    <row r="53" spans="4:10">
+      <c r="D53">
+        <v>32</v>
+      </c>
       <c r="E53" s="50">
         <f t="shared" si="0"/>
         <v>10.648854961832065</v>
@@ -26256,7 +26350,10 @@
         <v>104.61973532233721</v>
       </c>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="4:10">
+      <c r="D54">
+        <v>33</v>
+      </c>
       <c r="E54" s="50">
         <f t="shared" si="0"/>
         <v>10.992366412213745</v>
@@ -26282,7 +26379,10 @@
         <v>104.76695525689952</v>
       </c>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="4:10">
+      <c r="D55">
+        <v>34</v>
+      </c>
       <c r="E55" s="50">
         <f t="shared" si="0"/>
         <v>11.335877862595424</v>
@@ -26308,7 +26408,10 @@
         <v>104.91400384428781</v>
       </c>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="4:10">
+      <c r="D56">
+        <v>35</v>
+      </c>
       <c r="E56" s="50">
         <f t="shared" si="0"/>
         <v>11.679389312977102</v>
@@ -26334,7 +26437,10 @@
         <v>105.06087579887244</v>
       </c>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="4:10">
+      <c r="D57">
+        <v>36</v>
+      </c>
       <c r="E57" s="50">
         <f t="shared" si="0"/>
         <v>12.022900763358784</v>
@@ -26360,7 +26466,10 @@
         <v>105.20756584137284</v>
       </c>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="4:10">
+      <c r="D58">
+        <v>37</v>
+      </c>
       <c r="E58" s="50">
         <f t="shared" si="0"/>
         <v>12.366412213740464</v>
@@ -26386,7 +26495,10 @@
         <v>105.3540686990472</v>
       </c>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="4:10">
+      <c r="D59">
+        <v>38</v>
+      </c>
       <c r="E59" s="50">
         <f t="shared" si="0"/>
         <v>12.709923664122142</v>
@@ -26412,7 +26524,10 @@
         <v>105.50037910588206</v>
       </c>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="4:10">
+      <c r="D60">
+        <v>39</v>
+      </c>
       <c r="E60" s="50">
         <f t="shared" si="0"/>
         <v>13.053435114503822</v>
@@ -26438,7 +26553,10 @@
         <v>105.64649180278151</v>
       </c>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="4:10">
+      <c r="D61">
+        <v>40</v>
+      </c>
       <c r="E61" s="50">
         <f t="shared" si="0"/>
         <v>13.3969465648855</v>
@@ -26464,7 +26582,10 @@
         <v>105.79240153775635</v>
       </c>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="4:10">
+      <c r="D62">
+        <v>41</v>
+      </c>
       <c r="E62" s="50">
         <f t="shared" si="0"/>
         <v>13.740458015267182</v>
@@ -26490,7 +26611,10 @@
         <v>105.93810306611272</v>
       </c>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="4:10">
+      <c r="D63">
+        <v>42</v>
+      </c>
       <c r="E63" s="50">
         <f t="shared" si="0"/>
         <v>14.083969465648861</v>
@@ -26516,7 +26640,10 @@
         <v>106.08359115064079</v>
       </c>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="4:10">
+      <c r="D64">
+        <v>43</v>
+      </c>
       <c r="E64" s="50">
         <f t="shared" si="0"/>
         <v>14.42748091603054</v>
@@ -26542,7 +26669,10 @@
         <v>106.22886056180283</v>
       </c>
     </row>
-    <row r="65" spans="5:10">
+    <row r="65" spans="4:10">
+      <c r="D65">
+        <v>44</v>
+      </c>
       <c r="E65" s="50">
         <f t="shared" si="0"/>
         <v>14.770992366412218</v>
@@ -26568,7 +26698,10 @@
         <v>106.37390607792139</v>
       </c>
     </row>
-    <row r="66" spans="5:10">
+    <row r="66" spans="4:10">
+      <c r="D66">
+        <v>45</v>
+      </c>
       <c r="E66" s="50">
         <f t="shared" si="0"/>
         <v>15.114503816793899</v>
@@ -26594,7 +26727,10 @@
         <v>106.51872248536677</v>
       </c>
     </row>
-    <row r="67" spans="5:10">
+    <row r="67" spans="4:10">
+      <c r="D67">
+        <v>46</v>
+      </c>
       <c r="E67" s="50">
         <f t="shared" si="0"/>
         <v>15.458015267175579</v>
@@ -26620,7 +26756,10 @@
         <v>106.66330457874457</v>
       </c>
     </row>
-    <row r="68" spans="5:10">
+    <row r="68" spans="4:10">
+      <c r="D68">
+        <v>47</v>
+      </c>
       <c r="E68" s="50">
         <f t="shared" si="0"/>
         <v>15.801526717557257</v>
@@ -26646,7 +26785,10 @@
         <v>106.8076471610828</v>
       </c>
     </row>
-    <row r="69" spans="5:10">
+    <row r="69" spans="4:10">
+      <c r="D69">
+        <v>48</v>
+      </c>
       <c r="E69" s="50">
         <f t="shared" si="0"/>
         <v>16.145038167938939</v>
@@ -26672,7 +26814,10 @@
         <v>106.95174504401858</v>
       </c>
     </row>
-    <row r="70" spans="5:10">
+    <row r="70" spans="4:10">
+      <c r="D70">
+        <v>49</v>
+      </c>
       <c r="E70" s="50">
         <f t="shared" si="0"/>
         <v>16.488549618320619</v>
@@ -26698,7 +26843,10 @@
         <v>107.09559304798474</v>
       </c>
     </row>
-    <row r="71" spans="5:10">
+    <row r="71" spans="4:10">
+      <c r="D71">
+        <v>50</v>
+      </c>
       <c r="E71" s="50">
         <f t="shared" si="0"/>
         <v>16.832061068702295</v>
@@ -26724,7 +26872,10 @@
         <v>107.23918600239594</v>
       </c>
     </row>
-    <row r="72" spans="5:10">
+    <row r="72" spans="4:10">
+      <c r="D72">
+        <v>51</v>
+      </c>
       <c r="E72" s="50">
         <f t="shared" si="0"/>
         <v>17.175572519083975</v>
@@ -26750,7 +26901,10 @@
         <v>107.38251874583452</v>
       </c>
     </row>
-    <row r="73" spans="5:10">
+    <row r="73" spans="4:10">
+      <c r="D73">
+        <v>52</v>
+      </c>
       <c r="E73" s="50">
         <f t="shared" si="0"/>
         <v>17.519083969465658</v>
@@ -26776,7 +26930,10 @@
         <v>107.52558612623609</v>
       </c>
     </row>
-    <row r="74" spans="5:10">
+    <row r="74" spans="4:10">
+      <c r="D74">
+        <v>53</v>
+      </c>
       <c r="E74" s="50">
         <f t="shared" si="0"/>
         <v>17.862595419847334</v>
@@ -26802,7 +26959,10 @@
         <v>107.66838300107464</v>
       </c>
     </row>
-    <row r="75" spans="5:10">
+    <row r="75" spans="4:10">
+      <c r="D75">
+        <v>54</v>
+      </c>
       <c r="E75" s="50">
         <f t="shared" si="0"/>
         <v>18.206106870229014</v>
@@ -26828,7 +26988,10 @@
         <v>107.81090423754745</v>
       </c>
     </row>
-    <row r="76" spans="5:10">
+    <row r="76" spans="4:10">
+      <c r="D76">
+        <v>55</v>
+      </c>
       <c r="E76" s="50">
         <f t="shared" si="0"/>
         <v>18.549618320610698</v>
@@ -26854,7 +27017,10 @@
         <v>107.95314471275955</v>
       </c>
     </row>
-    <row r="77" spans="5:10">
+    <row r="77" spans="4:10">
+      <c r="D77">
+        <v>56</v>
+      </c>
       <c r="E77" s="50">
         <f t="shared" si="0"/>
         <v>18.893129770992374</v>
@@ -26880,7 +27046,10 @@
         <v>108.09509931390785</v>
       </c>
     </row>
-    <row r="78" spans="5:10">
+    <row r="78" spans="4:10">
+      <c r="D78">
+        <v>57</v>
+      </c>
       <c r="E78" s="50">
         <f t="shared" si="0"/>
         <v>19.236641221374054</v>
@@ -26906,7 +27075,10 @@
         <v>108.23676293846501</v>
       </c>
     </row>
-    <row r="79" spans="5:10">
+    <row r="79" spans="4:10">
+      <c r="D79">
+        <v>58</v>
+      </c>
       <c r="E79" s="50">
         <f t="shared" si="0"/>
         <v>19.580152671755734</v>
@@ -26932,7 +27104,10 @@
         <v>108.37813049436268</v>
       </c>
     </row>
-    <row r="80" spans="5:10">
+    <row r="80" spans="4:10">
+      <c r="D80">
+        <v>59</v>
+      </c>
       <c r="E80" s="50">
         <f t="shared" si="0"/>
         <v>19.923664122137414</v>
@@ -26958,7 +27133,10 @@
         <v>108.51919690017472</v>
       </c>
     </row>
-    <row r="81" spans="5:10">
+    <row r="81" spans="4:10">
+      <c r="D81">
+        <v>60</v>
+      </c>
       <c r="E81" s="50">
         <f t="shared" si="0"/>
         <v>20.267175572519093</v>
@@ -26984,7 +27162,10 @@
         <v>108.65995708529974</v>
       </c>
     </row>
-    <row r="82" spans="5:10">
+    <row r="82" spans="4:10">
+      <c r="D82">
+        <v>61</v>
+      </c>
       <c r="E82" s="50">
         <f t="shared" si="0"/>
         <v>20.610687022900773</v>
@@ -27010,7 +27191,10 @@
         <v>108.80040599014335</v>
       </c>
     </row>
-    <row r="83" spans="5:10">
+    <row r="83" spans="4:10">
+      <c r="D83">
+        <v>62</v>
+      </c>
       <c r="E83" s="50">
         <f t="shared" si="0"/>
         <v>20.954198473282453</v>
@@ -27036,7 +27220,10 @@
         <v>108.94053856630012</v>
       </c>
     </row>
-    <row r="84" spans="5:10">
+    <row r="84" spans="4:10">
+      <c r="D84">
+        <v>63</v>
+      </c>
       <c r="E84" s="50">
         <f t="shared" si="0"/>
         <v>21.297709923664133</v>
@@ -27062,7 +27249,10 @@
         <v>109.08034977673493</v>
       </c>
     </row>
-    <row r="85" spans="5:10">
+    <row r="85" spans="4:10">
+      <c r="D85">
+        <v>64</v>
+      </c>
       <c r="E85" s="50">
         <f t="shared" si="0"/>
         <v>21.641221374045813</v>
@@ -27088,7 +27278,10 @@
         <v>109.21983459596413</v>
       </c>
     </row>
-    <row r="86" spans="5:10">
+    <row r="86" spans="4:10">
+      <c r="D86">
+        <v>65</v>
+      </c>
       <c r="E86" s="50">
         <f t="shared" si="0"/>
         <v>21.984732824427493</v>
@@ -27114,7 +27307,10 @@
         <v>109.3589880102361</v>
       </c>
     </row>
-    <row r="87" spans="5:10">
+    <row r="87" spans="4:10">
+      <c r="D87">
+        <v>66</v>
+      </c>
       <c r="E87" s="50">
         <f t="shared" ref="E87:E150" si="14">F87*180/PI()</f>
         <v>22.328244274809169</v>
@@ -27140,7 +27336,10 @@
         <v>109.49780501771153</v>
       </c>
     </row>
-    <row r="88" spans="5:10">
+    <row r="88" spans="4:10">
+      <c r="D88">
+        <v>67</v>
+      </c>
       <c r="E88" s="50">
         <f t="shared" si="14"/>
         <v>22.671755725190849</v>
@@ -27166,7 +27365,10 @@
         <v>109.63628062864312</v>
       </c>
     </row>
-    <row r="89" spans="5:10">
+    <row r="89" spans="4:10">
+      <c r="D89">
+        <v>68</v>
+      </c>
       <c r="E89" s="50">
         <f t="shared" si="14"/>
         <v>23.015267175572529</v>
@@ -27192,7 +27394,10 @@
         <v>109.77440986555506</v>
       </c>
     </row>
-    <row r="90" spans="5:10">
+    <row r="90" spans="4:10">
+      <c r="D90">
+        <v>69</v>
+      </c>
       <c r="E90" s="50">
         <f t="shared" si="14"/>
         <v>23.358778625954212</v>
@@ -27218,7 +27423,10 @@
         <v>109.91218776342185</v>
       </c>
     </row>
-    <row r="91" spans="5:10">
+    <row r="91" spans="4:10">
+      <c r="D91">
+        <v>70</v>
+      </c>
       <c r="E91" s="50">
         <f t="shared" si="14"/>
         <v>23.702290076335892</v>
@@ -27244,7 +27452,10 @@
         <v>110.04960936984679</v>
       </c>
     </row>
-    <row r="92" spans="5:10">
+    <row r="92" spans="4:10">
+      <c r="D92">
+        <v>71</v>
+      </c>
       <c r="E92" s="50">
         <f t="shared" si="14"/>
         <v>24.045801526717572</v>
@@ -27270,7 +27481,10 @@
         <v>110.18666974524002</v>
       </c>
     </row>
-    <row r="93" spans="5:10">
+    <row r="93" spans="4:10">
+      <c r="D93">
+        <v>72</v>
+      </c>
       <c r="E93" s="50">
         <f t="shared" si="14"/>
         <v>24.389312977099248</v>
@@ -27296,7 +27510,10 @@
         <v>110.32336396299604</v>
       </c>
     </row>
-    <row r="94" spans="5:10">
+    <row r="94" spans="4:10">
+      <c r="D94">
+        <v>73</v>
+      </c>
       <c r="E94" s="50">
         <f t="shared" si="14"/>
         <v>24.732824427480928</v>
@@ -27322,7 +27539,10 @@
         <v>110.45968710967078</v>
       </c>
     </row>
-    <row r="95" spans="5:10">
+    <row r="95" spans="4:10">
+      <c r="D95">
+        <v>74</v>
+      </c>
       <c r="E95" s="50">
         <f t="shared" si="14"/>
         <v>25.076335877862608</v>
@@ -27348,7 +27568,10 @@
         <v>110.5956342851583</v>
       </c>
     </row>
-    <row r="96" spans="5:10">
+    <row r="96" spans="4:10">
+      <c r="D96">
+        <v>75</v>
+      </c>
       <c r="E96" s="50">
         <f t="shared" si="14"/>
         <v>25.419847328244288</v>
@@ -27374,7 +27597,10 @@
         <v>110.73120060286679</v>
       </c>
     </row>
-    <row r="97" spans="5:10">
+    <row r="97" spans="4:10">
+      <c r="D97">
+        <v>76</v>
+      </c>
       <c r="E97" s="50">
         <f t="shared" si="14"/>
         <v>25.763358778625967</v>
@@ -27400,7 +27626,10 @@
         <v>110.86638118989435</v>
       </c>
     </row>
-    <row r="98" spans="5:10">
+    <row r="98" spans="4:10">
+      <c r="D98">
+        <v>77</v>
+      </c>
       <c r="E98" s="50">
         <f t="shared" si="14"/>
         <v>26.106870229007651</v>
@@ -27426,7 +27655,10 @@
         <v>111.00117118720408</v>
       </c>
     </row>
-    <row r="99" spans="5:10">
+    <row r="99" spans="4:10">
+      <c r="D99">
+        <v>78</v>
+      </c>
       <c r="E99" s="50">
         <f t="shared" si="14"/>
         <v>26.450381679389327</v>
@@ -27452,7 +27684,10 @@
         <v>111.13556574979869</v>
       </c>
     </row>
-    <row r="100" spans="5:10">
+    <row r="100" spans="4:10">
+      <c r="D100">
+        <v>79</v>
+      </c>
       <c r="E100" s="50">
         <f t="shared" si="14"/>
         <v>26.793893129771007</v>
@@ -27478,7 +27713,10 @@
         <v>111.26956004689477</v>
       </c>
     </row>
-    <row r="101" spans="5:10">
+    <row r="101" spans="4:10">
+      <c r="D101">
+        <v>80</v>
+      </c>
       <c r="E101" s="50">
         <f t="shared" si="14"/>
         <v>27.137404580152687</v>
@@ -27504,7 +27742,10 @@
         <v>111.40314926209632</v>
       </c>
     </row>
-    <row r="102" spans="5:10">
+    <row r="102" spans="4:10">
+      <c r="D102">
+        <v>81</v>
+      </c>
       <c r="E102" s="50">
         <f t="shared" si="14"/>
         <v>27.480916030534367</v>
@@ -27530,7 +27771,10 @@
         <v>111.53632859356796</v>
       </c>
     </row>
-    <row r="103" spans="5:10">
+    <row r="103" spans="4:10">
+      <c r="D103">
+        <v>82</v>
+      </c>
       <c r="E103" s="50">
         <f t="shared" si="14"/>
         <v>27.824427480916047</v>
@@ -27556,7 +27800,10 @@
         <v>111.66909325420744</v>
       </c>
     </row>
-    <row r="104" spans="5:10">
+    <row r="104" spans="4:10">
+      <c r="D104">
+        <v>83</v>
+      </c>
       <c r="E104" s="50">
         <f t="shared" si="14"/>
         <v>28.167938931297723</v>
@@ -27582,7 +27829,10 @@
         <v>111.80143847181783</v>
       </c>
     </row>
-    <row r="105" spans="5:10">
+    <row r="105" spans="4:10">
+      <c r="D105">
+        <v>84</v>
+      </c>
       <c r="E105" s="50">
         <f t="shared" si="14"/>
         <v>28.511450381679403</v>
@@ -27608,7 +27858,10 @@
         <v>111.93335948927893</v>
       </c>
     </row>
-    <row r="106" spans="5:10">
+    <row r="106" spans="4:10">
+      <c r="D106">
+        <v>85</v>
+      </c>
       <c r="E106" s="50">
         <f t="shared" si="14"/>
         <v>28.854961832061083</v>
@@ -27634,7 +27887,10 @@
         <v>112.06485156471837</v>
       </c>
     </row>
-    <row r="107" spans="5:10">
+    <row r="107" spans="4:10">
+      <c r="D107">
+        <v>86</v>
+      </c>
       <c r="E107" s="50">
         <f t="shared" si="14"/>
         <v>29.198473282442759</v>
@@ -27660,7 +27916,10 @@
         <v>112.19590997168194</v>
       </c>
     </row>
-    <row r="108" spans="5:10">
+    <row r="108" spans="4:10">
+      <c r="D108">
+        <v>87</v>
+      </c>
       <c r="E108" s="50">
         <f t="shared" si="14"/>
         <v>29.541984732824435</v>
@@ -27686,7 +27945,10 @@
         <v>112.32652999930363</v>
       </c>
     </row>
-    <row r="109" spans="5:10">
+    <row r="109" spans="4:10">
+      <c r="D109">
+        <v>88</v>
+      </c>
       <c r="E109" s="50">
         <f t="shared" si="14"/>
         <v>29.885496183206115</v>
@@ -27712,7 +27974,10 @@
         <v>112.45670695247485</v>
       </c>
     </row>
-    <row r="110" spans="5:10">
+    <row r="110" spans="4:10">
+      <c r="D110">
+        <v>89</v>
+      </c>
       <c r="E110" s="50">
         <f t="shared" si="14"/>
         <v>30.229007633587791</v>
@@ -27738,7 +28003,10 @@
         <v>112.58643615201319</v>
       </c>
     </row>
-    <row r="111" spans="5:10">
+    <row r="111" spans="4:10">
+      <c r="D111">
+        <v>90</v>
+      </c>
       <c r="E111" s="50">
         <f t="shared" si="14"/>
         <v>30.572519083969468</v>
@@ -27764,7 +28032,10 @@
         <v>112.71571293483069</v>
       </c>
     </row>
-    <row r="112" spans="5:10">
+    <row r="112" spans="4:10">
+      <c r="D112">
+        <v>91</v>
+      </c>
       <c r="E112" s="50">
         <f t="shared" si="14"/>
         <v>30.916030534351144</v>
@@ -27790,7 +28061,10 @@
         <v>112.8445326541014</v>
       </c>
     </row>
-    <row r="113" spans="5:10">
+    <row r="113" spans="4:10">
+      <c r="D113">
+        <v>92</v>
+      </c>
       <c r="E113" s="50">
         <f t="shared" si="14"/>
         <v>31.25954198473282</v>
@@ -27816,7 +28090,10 @@
         <v>112.97289067942842</v>
       </c>
     </row>
-    <row r="114" spans="5:10">
+    <row r="114" spans="4:10">
+      <c r="D114">
+        <v>93</v>
+      </c>
       <c r="E114" s="50">
         <f t="shared" si="14"/>
         <v>31.603053435114496</v>
@@ -27842,7 +28119,10 @@
         <v>113.10078239701032</v>
       </c>
     </row>
-    <row r="115" spans="5:10">
+    <row r="115" spans="4:10">
+      <c r="D115">
+        <v>94</v>
+      </c>
       <c r="E115" s="50">
         <f t="shared" si="14"/>
         <v>31.946564885496173</v>
@@ -27868,7 +28148,10 @@
         <v>113.22820320980703</v>
       </c>
     </row>
-    <row r="116" spans="5:10">
+    <row r="116" spans="4:10">
+      <c r="D116">
+        <v>95</v>
+      </c>
       <c r="E116" s="50">
         <f t="shared" si="14"/>
         <v>32.290076335877849</v>
@@ -27894,7 +28177,10 @@
         <v>113.35514853770503</v>
       </c>
     </row>
-    <row r="117" spans="5:10">
+    <row r="117" spans="4:10">
+      <c r="D117">
+        <v>96</v>
+      </c>
       <c r="E117" s="50">
         <f t="shared" si="14"/>
         <v>32.633587786259525</v>
@@ -27920,7 +28206,10 @@
         <v>113.48161381768203</v>
       </c>
     </row>
-    <row r="118" spans="5:10">
+    <row r="118" spans="4:10">
+      <c r="D118">
+        <v>97</v>
+      </c>
       <c r="E118" s="50">
         <f t="shared" si="14"/>
         <v>32.977099236641202</v>
@@ -27946,7 +28235,10 @@
         <v>113.60759450397092</v>
       </c>
     </row>
-    <row r="119" spans="5:10">
+    <row r="119" spans="4:10">
+      <c r="D119">
+        <v>98</v>
+      </c>
       <c r="E119" s="50">
         <f t="shared" si="14"/>
         <v>33.320610687022878</v>
@@ -27972,7 +28264,10 @@
         <v>113.73308606822322</v>
       </c>
     </row>
-    <row r="120" spans="5:10">
+    <row r="120" spans="4:10">
+      <c r="D120">
+        <v>99</v>
+      </c>
       <c r="E120" s="50">
         <f t="shared" si="14"/>
         <v>33.664122137404554</v>
@@ -27998,7 +28293,10 @@
         <v>113.85808399967185</v>
       </c>
     </row>
-    <row r="121" spans="5:10">
+    <row r="121" spans="4:10">
+      <c r="D121">
+        <v>100</v>
+      </c>
       <c r="E121" s="50">
         <f t="shared" si="14"/>
         <v>34.007633587786231</v>
@@ -28024,7 +28322,10 @@
         <v>113.98258380529323</v>
       </c>
     </row>
-    <row r="122" spans="5:10">
+    <row r="122" spans="4:10">
+      <c r="D122">
+        <v>101</v>
+      </c>
       <c r="E122" s="50">
         <f t="shared" si="14"/>
         <v>34.351145038167907</v>
@@ -28050,7 +28351,10 @@
         <v>114.10658100996882</v>
       </c>
     </row>
-    <row r="123" spans="5:10">
+    <row r="123" spans="4:10">
+      <c r="D123">
+        <v>102</v>
+      </c>
       <c r="E123" s="50">
         <f t="shared" si="14"/>
         <v>34.694656488549583</v>
@@ -28076,7 +28380,10 @@
         <v>114.23007115664598</v>
       </c>
     </row>
-    <row r="124" spans="5:10">
+    <row r="124" spans="4:10">
+      <c r="D124">
+        <v>103</v>
+      </c>
       <c r="E124" s="50">
         <f t="shared" si="14"/>
         <v>35.038167938931259</v>
@@ -28102,7 +28409,10 @@
         <v>114.35304980649812</v>
       </c>
     </row>
-    <row r="125" spans="5:10">
+    <row r="125" spans="4:10">
+      <c r="D125">
+        <v>104</v>
+      </c>
       <c r="E125" s="50">
         <f t="shared" si="14"/>
         <v>35.381679389312943</v>
@@ -28128,7 +28438,10 @@
         <v>114.47551253908431</v>
       </c>
     </row>
-    <row r="126" spans="5:10">
+    <row r="126" spans="4:10">
+      <c r="D126">
+        <v>105</v>
+      </c>
       <c r="E126" s="50">
         <f t="shared" si="14"/>
         <v>35.725190839694619</v>
@@ -28154,7 +28467,10 @@
         <v>114.59745495250817</v>
       </c>
     </row>
-    <row r="127" spans="5:10">
+    <row r="127" spans="4:10">
+      <c r="D127">
+        <v>106</v>
+      </c>
       <c r="E127" s="50">
         <f t="shared" si="14"/>
         <v>36.068702290076288</v>
@@ -28180,7 +28496,10 @@
         <v>114.71887266357606</v>
       </c>
     </row>
-    <row r="128" spans="5:10">
+    <row r="128" spans="4:10">
+      <c r="D128">
+        <v>107</v>
+      </c>
       <c r="E128" s="50">
         <f t="shared" si="14"/>
         <v>36.412213740457965</v>
@@ -28206,7 +28525,10 @@
         <v>114.83976130795466</v>
       </c>
     </row>
-    <row r="129" spans="5:10">
+    <row r="129" spans="4:10">
+      <c r="D129">
+        <v>108</v>
+      </c>
       <c r="E129" s="50">
         <f t="shared" si="14"/>
         <v>36.755725190839641</v>
@@ -28232,7 +28554,10 @@
         <v>114.96011654032782</v>
       </c>
     </row>
-    <row r="130" spans="5:10">
+    <row r="130" spans="4:10">
+      <c r="D130">
+        <v>109</v>
+      </c>
       <c r="E130" s="50">
         <f t="shared" si="14"/>
         <v>37.099236641221317</v>
@@ -28258,7 +28583,10 @@
         <v>115.07993403455282</v>
       </c>
     </row>
-    <row r="131" spans="5:10">
+    <row r="131" spans="4:10">
+      <c r="D131">
+        <v>110</v>
+      </c>
       <c r="E131" s="50">
         <f t="shared" si="14"/>
         <v>37.442748091602994</v>
@@ -28284,7 +28612,10 @@
         <v>115.19920948381576</v>
       </c>
     </row>
-    <row r="132" spans="5:10">
+    <row r="132" spans="4:10">
+      <c r="D132">
+        <v>111</v>
+      </c>
       <c r="E132" s="50">
         <f t="shared" si="14"/>
         <v>37.78625954198467</v>
@@ -28310,7 +28641,10 @@
         <v>115.31793860078646</v>
       </c>
     </row>
-    <row r="133" spans="5:10">
+    <row r="133" spans="4:10">
+      <c r="D133">
+        <v>112</v>
+      </c>
       <c r="E133" s="50">
         <f t="shared" si="14"/>
         <v>38.129770992366353</v>
@@ -28336,7 +28670,10 @@
         <v>115.43611711777254</v>
       </c>
     </row>
-    <row r="134" spans="5:10">
+    <row r="134" spans="4:10">
+      <c r="D134">
+        <v>113</v>
+      </c>
       <c r="E134" s="50">
         <f t="shared" si="14"/>
         <v>38.47328244274803</v>
@@ -28362,7 +28699,10 @@
         <v>115.55374078687279</v>
       </c>
     </row>
-    <row r="135" spans="5:10">
+    <row r="135" spans="4:10">
+      <c r="D135">
+        <v>114</v>
+      </c>
       <c r="E135" s="50">
         <f t="shared" si="14"/>
         <v>38.816793893129706</v>
@@ -28388,7 +28728,10 @@
         <v>115.67080538012993</v>
       </c>
     </row>
-    <row r="136" spans="5:10">
+    <row r="136" spans="4:10">
+      <c r="D136">
+        <v>115</v>
+      </c>
       <c r="E136" s="50">
         <f t="shared" si="14"/>
         <v>39.160305343511382</v>
@@ -28414,7 +28757,10 @@
         <v>115.7873066896825</v>
       </c>
     </row>
-    <row r="137" spans="5:10">
+    <row r="137" spans="4:10">
+      <c r="D137">
+        <v>116</v>
+      </c>
       <c r="E137" s="50">
         <f t="shared" si="14"/>
         <v>39.503816793893058</v>
@@ -28440,7 +28786,10 @@
         <v>115.90324052791617</v>
       </c>
     </row>
-    <row r="138" spans="5:10">
+    <row r="138" spans="4:10">
+      <c r="D138">
+        <v>117</v>
+      </c>
       <c r="E138" s="50">
         <f t="shared" si="14"/>
         <v>39.847328244274735</v>
@@ -28466,7 +28815,10 @@
         <v>116.01860272761422</v>
       </c>
     </row>
-    <row r="139" spans="5:10">
+    <row r="139" spans="4:10">
+      <c r="D139">
+        <v>118</v>
+      </c>
       <c r="E139" s="50">
         <f t="shared" si="14"/>
         <v>40.190839694656404</v>
@@ -28492,7 +28844,10 @@
         <v>116.13338914210742</v>
       </c>
     </row>
-    <row r="140" spans="5:10">
+    <row r="140" spans="4:10">
+      <c r="D140">
+        <v>119</v>
+      </c>
       <c r="E140" s="50">
         <f t="shared" si="14"/>
         <v>40.53435114503808</v>
@@ -28518,7 +28873,10 @@
         <v>116.24759564542293</v>
       </c>
     </row>
-    <row r="141" spans="5:10">
+    <row r="141" spans="4:10">
+      <c r="D141">
+        <v>120</v>
+      </c>
       <c r="E141" s="50">
         <f t="shared" si="14"/>
         <v>40.877862595419764</v>
@@ -28544,7 +28902,10 @@
         <v>116.36121813243273</v>
       </c>
     </row>
-    <row r="142" spans="5:10">
+    <row r="142" spans="4:10">
+      <c r="D142">
+        <v>121</v>
+      </c>
       <c r="E142" s="50">
         <f t="shared" si="14"/>
         <v>41.221374045801433</v>
@@ -28570,7 +28931,10 @@
         <v>116.47425251900115</v>
       </c>
     </row>
-    <row r="143" spans="5:10">
+    <row r="143" spans="4:10">
+      <c r="D143">
+        <v>122</v>
+      </c>
       <c r="E143" s="50">
         <f t="shared" si="14"/>
         <v>41.564885496183116</v>
@@ -28596,7 +28960,10 @@
         <v>116.58669474213167</v>
       </c>
     </row>
-    <row r="144" spans="5:10">
+    <row r="144" spans="4:10">
+      <c r="D144">
+        <v>123</v>
+      </c>
       <c r="E144" s="50">
         <f t="shared" si="14"/>
         <v>41.908396946564785</v>
@@ -28622,7 +28989,10 @@
         <v>116.69854076011289</v>
       </c>
     </row>
-    <row r="145" spans="5:10">
+    <row r="145" spans="4:10">
+      <c r="D145">
+        <v>124</v>
+      </c>
       <c r="E145" s="50">
         <f t="shared" si="14"/>
         <v>42.251908396946469</v>
@@ -28648,7 +29018,10 @@
         <v>116.80978655266397</v>
       </c>
     </row>
-    <row r="146" spans="5:10">
+    <row r="146" spans="4:10">
+      <c r="D146">
+        <v>125</v>
+      </c>
       <c r="E146" s="50">
         <f t="shared" si="14"/>
         <v>42.595419847328145</v>
@@ -28674,7 +29047,10 @@
         <v>116.92042812107897</v>
       </c>
     </row>
-    <row r="147" spans="5:10">
+    <row r="147" spans="4:10">
+      <c r="D147">
+        <v>126</v>
+      </c>
       <c r="E147" s="50">
         <f t="shared" si="14"/>
         <v>42.938931297709821</v>
@@ -28700,7 +29076,10 @@
         <v>117.03046148837069</v>
       </c>
     </row>
-    <row r="148" spans="5:10">
+    <row r="148" spans="4:10">
+      <c r="D148">
+        <v>127</v>
+      </c>
       <c r="E148" s="50">
         <f t="shared" si="14"/>
         <v>43.282442748091498</v>
@@ -28726,7 +29105,10 @@
         <v>117.13988269941358</v>
       </c>
     </row>
-    <row r="149" spans="5:10">
+    <row r="149" spans="4:10">
+      <c r="D149">
+        <v>128</v>
+      </c>
       <c r="E149" s="50">
         <f t="shared" si="14"/>
         <v>43.625954198473174</v>
@@ -28752,7 +29134,10 @@
         <v>117.24868782108591</v>
       </c>
     </row>
-    <row r="150" spans="5:10">
+    <row r="150" spans="4:10">
+      <c r="D150">
+        <v>129</v>
+      </c>
       <c r="E150" s="50">
         <f t="shared" si="14"/>
         <v>43.96946564885485</v>
@@ -28778,7 +29163,10 @@
         <v>117.35687294241116</v>
       </c>
     </row>
-    <row r="151" spans="5:10">
+    <row r="151" spans="4:10">
+      <c r="D151">
+        <v>130</v>
+      </c>
       <c r="E151" s="50">
         <f t="shared" ref="E151:E214" si="20">F151*180/PI()</f>
         <v>44.31297709923652</v>
@@ -28804,7 +29192,10 @@
         <v>117.46443417469857</v>
       </c>
     </row>
-    <row r="152" spans="5:10">
+    <row r="152" spans="4:10">
+      <c r="D152">
+        <v>131</v>
+      </c>
       <c r="E152" s="50">
         <f t="shared" si="20"/>
         <v>44.656488549618203</v>
@@ -28830,7 +29221,10 @@
         <v>117.57136765168296</v>
       </c>
     </row>
-    <row r="153" spans="5:10">
+    <row r="153" spans="4:10">
+      <c r="D153">
+        <v>132</v>
+      </c>
       <c r="E153" s="50">
         <f t="shared" si="20"/>
         <v>44.999999999999886</v>
@@ -28856,7 +29250,10 @@
         <v>117.67766952966365</v>
       </c>
     </row>
-    <row r="154" spans="5:10">
+    <row r="154" spans="4:10">
+      <c r="D154">
+        <v>133</v>
+      </c>
       <c r="E154" s="50">
         <f t="shared" si="20"/>
         <v>45.343511450381556</v>
@@ -28882,7 +29279,10 @@
         <v>117.78333598764267</v>
       </c>
     </row>
-    <row r="155" spans="5:10">
+    <row r="155" spans="4:10">
+      <c r="D155">
+        <v>134</v>
+      </c>
       <c r="E155" s="50">
         <f t="shared" si="20"/>
         <v>45.687022900763232</v>
@@ -28908,7 +29308,10 @@
         <v>117.88836322746209</v>
       </c>
     </row>
-    <row r="156" spans="5:10">
+    <row r="156" spans="4:10">
+      <c r="D156">
+        <v>135</v>
+      </c>
       <c r="E156" s="50">
         <f t="shared" si="20"/>
         <v>46.030534351144908</v>
@@ -28934,7 +29337,10 @@
         <v>117.99274747394051</v>
       </c>
     </row>
-    <row r="157" spans="5:10">
+    <row r="157" spans="4:10">
+      <c r="D157">
+        <v>136</v>
+      </c>
       <c r="E157" s="50">
         <f t="shared" si="20"/>
         <v>46.374045801526584</v>
@@ -28960,7 +29366,10 @@
         <v>118.09648497500882</v>
       </c>
     </row>
-    <row r="158" spans="5:10">
+    <row r="158" spans="4:10">
+      <c r="D158">
+        <v>137</v>
+      </c>
       <c r="E158" s="50">
         <f t="shared" si="20"/>
         <v>46.717557251908261</v>
@@ -28986,7 +29395,10 @@
         <v>118.199572001845</v>
       </c>
     </row>
-    <row r="159" spans="5:10">
+    <row r="159" spans="4:10">
+      <c r="D159">
+        <v>138</v>
+      </c>
       <c r="E159" s="50">
         <f t="shared" si="20"/>
         <v>47.061068702289937</v>
@@ -29012,7 +29424,10 @@
         <v>118.30200484900821</v>
       </c>
     </row>
-    <row r="160" spans="5:10">
+    <row r="160" spans="4:10">
+      <c r="D160">
+        <v>139</v>
+      </c>
       <c r="E160" s="50">
         <f t="shared" si="20"/>
         <v>47.404580152671613</v>
@@ -29038,7 +29453,10 @@
         <v>118.40377983457195</v>
       </c>
     </row>
-    <row r="161" spans="5:10">
+    <row r="161" spans="4:10">
+      <c r="D161">
+        <v>140</v>
+      </c>
       <c r="E161" s="50">
         <f t="shared" si="20"/>
         <v>47.74809160305329</v>
@@ -29064,7 +29482,10 @@
         <v>118.50489330025641</v>
       </c>
     </row>
-    <row r="162" spans="5:10">
+    <row r="162" spans="4:10">
+      <c r="D162">
+        <v>141</v>
+      </c>
       <c r="E162" s="50">
         <f t="shared" si="20"/>
         <v>48.091603053434973</v>
@@ -29090,7 +29511,10 @@
         <v>118.60534161155999</v>
       </c>
     </row>
-    <row r="163" spans="5:10">
+    <row r="163" spans="4:10">
+      <c r="D163">
+        <v>142</v>
+      </c>
       <c r="E163" s="50">
         <f t="shared" si="20"/>
         <v>48.435114503816642</v>
@@ -29116,7 +29540,10 @@
         <v>118.70512115788986</v>
       </c>
     </row>
-    <row r="164" spans="5:10">
+    <row r="164" spans="4:10">
+      <c r="D164">
+        <v>143</v>
+      </c>
       <c r="E164" s="50">
         <f t="shared" si="20"/>
         <v>48.778625954198326</v>
@@ -29142,7 +29569,10 @@
         <v>118.80422835269188</v>
       </c>
     </row>
-    <row r="165" spans="5:10">
+    <row r="165" spans="4:10">
+      <c r="D165">
+        <v>144</v>
+      </c>
       <c r="E165" s="50">
         <f t="shared" si="20"/>
         <v>49.122137404579995</v>
@@ -29168,7 +29598,10 @@
         <v>118.90265963357939</v>
       </c>
     </row>
-    <row r="166" spans="5:10">
+    <row r="166" spans="4:10">
+      <c r="D166">
+        <v>145</v>
+      </c>
       <c r="E166" s="50">
         <f t="shared" si="20"/>
         <v>49.465648854961678</v>
@@ -29194,7 +29627,10 @@
         <v>119.00041146246132</v>
       </c>
     </row>
-    <row r="167" spans="5:10">
+    <row r="167" spans="4:10">
+      <c r="D167">
+        <v>146</v>
+      </c>
       <c r="E167" s="50">
         <f t="shared" si="20"/>
         <v>49.809160305343347</v>
@@ -29220,7 +29656,10 @@
         <v>119.09748032566935</v>
       </c>
     </row>
-    <row r="168" spans="5:10">
+    <row r="168" spans="4:10">
+      <c r="D168">
+        <v>147</v>
+      </c>
       <c r="E168" s="50">
         <f t="shared" si="20"/>
         <v>50.152671755725024</v>
@@ -29246,7 +29685,10 @@
         <v>119.19386273408423</v>
       </c>
     </row>
-    <row r="169" spans="5:10">
+    <row r="169" spans="4:10">
+      <c r="D169">
+        <v>148</v>
+      </c>
       <c r="E169" s="50">
         <f t="shared" si="20"/>
         <v>50.496183206106707</v>
@@ -29272,7 +29714,10 @@
         <v>119.28955522326116</v>
       </c>
     </row>
-    <row r="170" spans="5:10">
+    <row r="170" spans="4:10">
+      <c r="D170">
+        <v>149</v>
+      </c>
       <c r="E170" s="50">
         <f t="shared" si="20"/>
         <v>50.839694656488376</v>
@@ -29298,7 +29743,10 @@
         <v>119.38455435355436</v>
       </c>
     </row>
-    <row r="171" spans="5:10">
+    <row r="171" spans="4:10">
+      <c r="D171">
+        <v>150</v>
+      </c>
       <c r="E171" s="50">
         <f t="shared" si="20"/>
         <v>51.18320610687006</v>
@@ -29324,7 +29772,10 @@
         <v>119.47885671024068</v>
       </c>
     </row>
-    <row r="172" spans="5:10">
+    <row r="172" spans="4:10">
+      <c r="D172">
+        <v>151</v>
+      </c>
       <c r="E172" s="50">
         <f t="shared" si="20"/>
         <v>51.526717557251729</v>
@@ -29350,7 +29801,10 @@
         <v>119.57245890364231</v>
       </c>
     </row>
-    <row r="173" spans="5:10">
+    <row r="173" spans="4:10">
+      <c r="D173">
+        <v>152</v>
+      </c>
       <c r="E173" s="50">
         <f t="shared" si="20"/>
         <v>51.870229007633412</v>
@@ -29376,7 +29830,10 @@
         <v>119.6653575692487</v>
       </c>
     </row>
-    <row r="174" spans="5:10">
+    <row r="174" spans="4:10">
+      <c r="D174">
+        <v>153</v>
+      </c>
       <c r="E174" s="50">
         <f t="shared" si="20"/>
         <v>52.213740458015081</v>
@@ -29402,7 +29859,10 @@
         <v>119.75754936783744</v>
       </c>
     </row>
-    <row r="175" spans="5:10">
+    <row r="175" spans="4:10">
+      <c r="D175">
+        <v>154</v>
+      </c>
       <c r="E175" s="50">
         <f t="shared" si="20"/>
         <v>52.557251908396765</v>
@@ -29428,7 +29888,10 @@
         <v>119.8490309855943</v>
       </c>
     </row>
-    <row r="176" spans="5:10">
+    <row r="176" spans="4:10">
+      <c r="D176">
+        <v>155</v>
+      </c>
       <c r="E176" s="50">
         <f t="shared" si="20"/>
         <v>52.900763358778434</v>
@@ -29454,7 +29917,10 @@
         <v>119.93979913423235</v>
       </c>
     </row>
-    <row r="177" spans="5:10">
+    <row r="177" spans="4:10">
+      <c r="D177">
+        <v>156</v>
+      </c>
       <c r="E177" s="50">
         <f t="shared" si="20"/>
         <v>53.244274809160117</v>
@@ -29480,7 +29946,10 @@
         <v>120.02985055111014</v>
       </c>
     </row>
-    <row r="178" spans="5:10">
+    <row r="178" spans="4:10">
+      <c r="D178">
+        <v>157</v>
+      </c>
       <c r="E178" s="50">
         <f t="shared" si="20"/>
         <v>53.587786259541794</v>
@@ -29506,7 +29975,10 @@
         <v>120.11918199934901</v>
       </c>
     </row>
-    <row r="179" spans="5:10">
+    <row r="179" spans="4:10">
+      <c r="D179">
+        <v>158</v>
+      </c>
       <c r="E179" s="50">
         <f t="shared" si="20"/>
         <v>53.931297709923463</v>
@@ -29532,7 +30004,10 @@
         <v>120.20779026794941</v>
       </c>
     </row>
-    <row r="180" spans="5:10">
+    <row r="180" spans="4:10">
+      <c r="D180">
+        <v>159</v>
+      </c>
       <c r="E180" s="50">
         <f t="shared" si="20"/>
         <v>54.274809160305146</v>
@@ -29558,7 +30033,10 @@
         <v>120.29567217190632</v>
       </c>
     </row>
-    <row r="181" spans="5:10">
+    <row r="181" spans="4:10">
+      <c r="D181">
+        <v>160</v>
+      </c>
       <c r="E181" s="50">
         <f t="shared" si="20"/>
         <v>54.618320610686816</v>
@@ -29584,7 +30062,10 @@
         <v>120.38282455232371</v>
       </c>
     </row>
-    <row r="182" spans="5:10">
+    <row r="182" spans="4:10">
+      <c r="D182">
+        <v>161</v>
+      </c>
       <c r="E182" s="50">
         <f t="shared" si="20"/>
         <v>54.961832061068499</v>
@@ -29610,7 +30091,10 @@
         <v>120.46924427652819</v>
       </c>
     </row>
-    <row r="183" spans="5:10">
+    <row r="183" spans="4:10">
+      <c r="D183">
+        <v>162</v>
+      </c>
       <c r="E183" s="50">
         <f t="shared" si="20"/>
         <v>55.305343511450168</v>
@@ -29636,7 +30120,10 @@
         <v>120.55492823818146</v>
       </c>
     </row>
-    <row r="184" spans="5:10">
+    <row r="184" spans="4:10">
+      <c r="D184">
+        <v>163</v>
+      </c>
       <c r="E184" s="50">
         <f t="shared" si="20"/>
         <v>55.648854961831852</v>
@@ -29662,7 +30149,10 @@
         <v>120.6398733573921</v>
       </c>
     </row>
-    <row r="185" spans="5:10">
+    <row r="185" spans="4:10">
+      <c r="D185">
+        <v>164</v>
+      </c>
       <c r="E185" s="50">
         <f t="shared" si="20"/>
         <v>55.992366412213528</v>
@@ -29688,7 +30178,10 @@
         <v>120.72407658082621</v>
       </c>
     </row>
-    <row r="186" spans="5:10">
+    <row r="186" spans="4:10">
+      <c r="D186">
+        <v>165</v>
+      </c>
       <c r="E186" s="50">
         <f t="shared" si="20"/>
         <v>56.335877862595204</v>
@@ -29714,7 +30207,10 @@
         <v>120.80753488181713</v>
       </c>
     </row>
-    <row r="187" spans="5:10">
+    <row r="187" spans="4:10">
+      <c r="D187">
+        <v>166</v>
+      </c>
       <c r="E187" s="50">
         <f t="shared" si="20"/>
         <v>56.67938931297688</v>
@@ -29740,7 +30236,10 @@
         <v>120.89024526047434</v>
       </c>
     </row>
-    <row r="188" spans="5:10">
+    <row r="188" spans="4:10">
+      <c r="D188">
+        <v>167</v>
+      </c>
       <c r="E188" s="50">
         <f t="shared" si="20"/>
         <v>57.022900763358557</v>
@@ -29766,7 +30265,10 @@
         <v>120.9722047437912</v>
       </c>
     </row>
-    <row r="189" spans="5:10">
+    <row r="189" spans="4:10">
+      <c r="D189">
+        <v>168</v>
+      </c>
       <c r="E189" s="50">
         <f t="shared" si="20"/>
         <v>57.366412213740233</v>
@@ -29792,7 +30294,10 @@
         <v>121.05341038575182</v>
       </c>
     </row>
-    <row r="190" spans="5:10">
+    <row r="190" spans="4:10">
+      <c r="D190">
+        <v>169</v>
+      </c>
       <c r="E190" s="50">
         <f t="shared" si="20"/>
         <v>57.709923664121916</v>
@@ -29818,7 +30323,10 @@
         <v>121.133859267437</v>
       </c>
     </row>
-    <row r="191" spans="5:10">
+    <row r="191" spans="4:10">
+      <c r="D191">
+        <v>170</v>
+      </c>
       <c r="E191" s="50">
         <f t="shared" si="20"/>
         <v>58.053435114503593</v>
@@ -29844,7 +30352,10 @@
         <v>121.21354849712911</v>
       </c>
     </row>
-    <row r="192" spans="5:10">
+    <row r="192" spans="4:10">
+      <c r="D192">
+        <v>171</v>
+      </c>
       <c r="E192" s="50">
         <f t="shared" si="20"/>
         <v>58.396946564885269</v>
@@ -29870,7 +30381,10 @@
         <v>121.29247521041606</v>
       </c>
     </row>
-    <row r="193" spans="5:10">
+    <row r="193" spans="4:10">
+      <c r="D193">
+        <v>172</v>
+      </c>
       <c r="E193" s="50">
         <f t="shared" si="20"/>
         <v>58.740458015266945</v>
@@ -29896,7 +30410,10 @@
         <v>121.37063657029424</v>
       </c>
     </row>
-    <row r="194" spans="5:10">
+    <row r="194" spans="4:10">
+      <c r="D194">
+        <v>173</v>
+      </c>
       <c r="E194" s="50">
         <f t="shared" si="20"/>
         <v>59.083969465648622</v>
@@ -29922,7 +30439,10 @@
         <v>121.44802976727048</v>
       </c>
     </row>
-    <row r="195" spans="5:10">
+    <row r="195" spans="4:10">
+      <c r="D195">
+        <v>174</v>
+      </c>
       <c r="E195" s="50">
         <f t="shared" si="20"/>
         <v>59.427480916030298</v>
@@ -29948,7 +30468,10 @@
         <v>121.5246520194631</v>
       </c>
     </row>
-    <row r="196" spans="5:10">
+    <row r="196" spans="4:10">
+      <c r="D196">
+        <v>175</v>
+      </c>
       <c r="E196" s="50">
         <f t="shared" si="20"/>
         <v>59.770992366411967</v>
@@ -29974,7 +30497,10 @@
         <v>121.60050057270186</v>
       </c>
     </row>
-    <row r="197" spans="5:10">
+    <row r="197" spans="4:10">
+      <c r="D197">
+        <v>176</v>
+      </c>
       <c r="E197" s="50">
         <f t="shared" si="20"/>
         <v>60.114503816793651</v>
@@ -30000,7 +30526,10 @@
         <v>121.67557270062692</v>
       </c>
     </row>
-    <row r="198" spans="5:10">
+    <row r="198" spans="4:10">
+      <c r="D198">
+        <v>177</v>
+      </c>
       <c r="E198" s="50">
         <f t="shared" si="20"/>
         <v>60.458015267175334</v>
@@ -30026,7 +30555,10 @@
         <v>121.7498657047869</v>
       </c>
     </row>
-    <row r="199" spans="5:10">
+    <row r="199" spans="4:10">
+      <c r="D199">
+        <v>178</v>
+      </c>
       <c r="E199" s="50">
         <f t="shared" si="20"/>
         <v>60.801526717557003</v>
@@ -30052,7 +30584,10 @@
         <v>121.82337691473587</v>
       </c>
     </row>
-    <row r="200" spans="5:10">
+    <row r="200" spans="4:10">
+      <c r="D200">
+        <v>179</v>
+      </c>
       <c r="E200" s="50">
         <f t="shared" si="20"/>
         <v>61.145038167938687</v>
@@ -30078,7 +30613,10 @@
         <v>121.89610368812933</v>
       </c>
     </row>
-    <row r="201" spans="5:10">
+    <row r="201" spans="4:10">
+      <c r="D201">
+        <v>180</v>
+      </c>
       <c r="E201" s="50">
         <f t="shared" si="20"/>
         <v>61.488549618320356</v>
@@ -30104,7 +30642,10 @@
         <v>121.96804341081915</v>
       </c>
     </row>
-    <row r="202" spans="5:10">
+    <row r="202" spans="4:10">
+      <c r="D202">
+        <v>181</v>
+      </c>
       <c r="E202" s="50">
         <f t="shared" si="20"/>
         <v>61.832061068702032</v>
@@ -30130,7 +30671,10 @@
         <v>122.03919349694756</v>
       </c>
     </row>
-    <row r="203" spans="5:10">
+    <row r="203" spans="4:10">
+      <c r="D203">
+        <v>182</v>
+      </c>
       <c r="E203" s="50">
         <f t="shared" si="20"/>
         <v>62.175572519083708</v>
@@ -30156,7 +30700,10 @@
         <v>122.10955138904018</v>
       </c>
     </row>
-    <row r="204" spans="5:10">
+    <row r="204" spans="4:10">
+      <c r="D204">
+        <v>183</v>
+      </c>
       <c r="E204" s="50">
         <f t="shared" si="20"/>
         <v>62.519083969465385</v>
@@ -30182,7 +30729,10 @@
         <v>122.17911455809777</v>
       </c>
     </row>
-    <row r="205" spans="5:10">
+    <row r="205" spans="4:10">
+      <c r="D205">
+        <v>184</v>
+      </c>
       <c r="E205" s="50">
         <f t="shared" si="20"/>
         <v>62.862595419847061</v>
@@ -30208,7 +30758,10 @@
         <v>122.24788050368731</v>
       </c>
     </row>
-    <row r="206" spans="5:10">
+    <row r="206" spans="4:10">
+      <c r="D206">
+        <v>185</v>
+      </c>
       <c r="E206" s="50">
         <f t="shared" si="20"/>
         <v>63.206106870228737</v>
@@ -30234,7 +30787,10 @@
         <v>122.31584675403178</v>
       </c>
     </row>
-    <row r="207" spans="5:10">
+    <row r="207" spans="4:10">
+      <c r="D207">
+        <v>186</v>
+      </c>
       <c r="E207" s="50">
         <f t="shared" si="20"/>
         <v>63.549618320610421</v>
@@ -30260,7 +30816,10 @@
         <v>122.38301086609906</v>
       </c>
     </row>
-    <row r="208" spans="5:10">
+    <row r="208" spans="4:10">
+      <c r="D208">
+        <v>187</v>
+      </c>
       <c r="E208" s="50">
         <f t="shared" si="20"/>
         <v>63.89312977099209</v>
@@ -30286,7 +30845,10 @@
         <v>122.44937042568964</v>
       </c>
     </row>
-    <row r="209" spans="5:10">
+    <row r="209" spans="4:10">
+      <c r="D209">
+        <v>188</v>
+      </c>
       <c r="E209" s="50">
         <f t="shared" si="20"/>
         <v>64.236641221373773</v>
@@ -30312,7 +30874,10 @@
         <v>122.51492304752357</v>
       </c>
     </row>
-    <row r="210" spans="5:10">
+    <row r="210" spans="4:10">
+      <c r="D210">
+        <v>189</v>
+      </c>
       <c r="E210" s="50">
         <f t="shared" si="20"/>
         <v>64.580152671755442</v>
@@ -30338,7 +30903,10 @@
         <v>122.57966637532604</v>
       </c>
     </row>
-    <row r="211" spans="5:10">
+    <row r="211" spans="4:10">
+      <c r="D211">
+        <v>190</v>
+      </c>
       <c r="E211" s="50">
         <f t="shared" si="20"/>
         <v>64.923664122137126</v>
@@ -30364,7 +30932,10 @@
         <v>122.64359808191216</v>
       </c>
     </row>
-    <row r="212" spans="5:10">
+    <row r="212" spans="4:10">
+      <c r="D212">
+        <v>191</v>
+      </c>
       <c r="E212" s="50">
         <f t="shared" si="20"/>
         <v>65.267175572518795</v>
@@ -30390,7 +30961,10 @@
         <v>122.70671586927058</v>
       </c>
     </row>
-    <row r="213" spans="5:10">
+    <row r="213" spans="4:10">
+      <c r="D213">
+        <v>192</v>
+      </c>
       <c r="E213" s="50">
         <f t="shared" si="20"/>
         <v>65.610687022900478</v>
@@ -30416,7 +30990,10 @@
         <v>122.76901746864613</v>
       </c>
     </row>
-    <row r="214" spans="5:10">
+    <row r="214" spans="4:10">
+      <c r="D214">
+        <v>193</v>
+      </c>
       <c r="E214" s="50">
         <f t="shared" si="20"/>
         <v>65.954198473282162</v>
@@ -30442,7 +31019,10 @@
         <v>122.8305006406213</v>
       </c>
     </row>
-    <row r="215" spans="5:10">
+    <row r="215" spans="4:10">
+      <c r="D215">
+        <v>194</v>
+      </c>
       <c r="E215" s="50">
         <f t="shared" ref="E215:E278" si="26">F215*180/PI()</f>
         <v>66.297709923663831</v>
@@ -30468,7 +31048,10 @@
         <v>122.89116317519678</v>
       </c>
     </row>
-    <row r="216" spans="5:10">
+    <row r="216" spans="4:10">
+      <c r="D216">
+        <v>195</v>
+      </c>
       <c r="E216" s="50">
         <f t="shared" si="26"/>
         <v>66.6412213740455</v>
@@ -30494,7 +31077,10 @@
         <v>122.95100289187093</v>
       </c>
     </row>
-    <row r="217" spans="5:10">
+    <row r="217" spans="4:10">
+      <c r="D217">
+        <v>196</v>
+      </c>
       <c r="E217" s="50">
         <f t="shared" si="26"/>
         <v>66.984732824427184</v>
@@ -30520,7 +31106,10 @@
         <v>123.01001763971809</v>
       </c>
     </row>
-    <row r="218" spans="5:10">
+    <row r="218" spans="4:10">
+      <c r="D218">
+        <v>197</v>
+      </c>
       <c r="E218" s="50">
         <f t="shared" si="26"/>
         <v>67.328244274808853</v>
@@ -30546,7 +31135,10 @@
         <v>123.06820529746592</v>
       </c>
     </row>
-    <row r="219" spans="5:10">
+    <row r="219" spans="4:10">
+      <c r="D219">
+        <v>198</v>
+      </c>
       <c r="E219" s="50">
         <f t="shared" si="26"/>
         <v>67.671755725190536</v>
@@ -30572,7 +31164,10 @@
         <v>123.1255637735717</v>
       </c>
     </row>
-    <row r="220" spans="5:10">
+    <row r="220" spans="4:10">
+      <c r="D220">
+        <v>199</v>
+      </c>
       <c r="E220" s="50">
         <f t="shared" si="26"/>
         <v>68.015267175572205</v>
@@ -30598,7 +31193,10 @@
         <v>123.1820910062974</v>
       </c>
     </row>
-    <row r="221" spans="5:10">
+    <row r="221" spans="4:10">
+      <c r="D221">
+        <v>200</v>
+      </c>
       <c r="E221" s="50">
         <f t="shared" si="26"/>
         <v>68.358778625953875</v>
@@ -30624,7 +31222,10 @@
         <v>123.23778496378389</v>
       </c>
     </row>
-    <row r="222" spans="5:10">
+    <row r="222" spans="4:10">
+      <c r="D222">
+        <v>201</v>
+      </c>
       <c r="E222" s="50">
         <f t="shared" si="26"/>
         <v>68.702290076335558</v>
@@ -30650,7 +31251,10 @@
         <v>123.29264364412394</v>
       </c>
     </row>
-    <row r="223" spans="5:10">
+    <row r="223" spans="4:10">
+      <c r="D223">
+        <v>202</v>
+      </c>
       <c r="E223" s="50">
         <f t="shared" si="26"/>
         <v>69.045801526717241</v>
@@ -30676,7 +31280,10 @@
         <v>123.34666507543417</v>
       </c>
     </row>
-    <row r="224" spans="5:10">
+    <row r="224" spans="4:10">
+      <c r="D224">
+        <v>203</v>
+      </c>
       <c r="E224" s="50">
         <f t="shared" si="26"/>
         <v>69.389312977098911</v>
@@ -30702,7 +31309,10 @@
         <v>123.39984731592594</v>
       </c>
     </row>
-    <row r="225" spans="5:10">
+    <row r="225" spans="4:10">
+      <c r="D225">
+        <v>204</v>
+      </c>
       <c r="E225" s="50">
         <f t="shared" si="26"/>
         <v>69.732824427480594</v>
@@ -30728,7 +31338,10 @@
         <v>123.45218845397514</v>
       </c>
     </row>
-    <row r="226" spans="5:10">
+    <row r="226" spans="4:10">
+      <c r="D226">
+        <v>205</v>
+      </c>
       <c r="E226" s="50">
         <f t="shared" si="26"/>
         <v>70.076335877862263</v>
@@ -30754,7 +31367,10 @@
         <v>123.50368660819088</v>
       </c>
     </row>
-    <row r="227" spans="5:10">
+    <row r="227" spans="4:10">
+      <c r="D227">
+        <v>206</v>
+      </c>
       <c r="E227" s="50">
         <f t="shared" si="26"/>
         <v>70.419847328243947</v>
@@ -30780,7 +31396,10 @@
         <v>123.55433992748317</v>
       </c>
     </row>
-    <row r="228" spans="5:10">
+    <row r="228" spans="4:10">
+      <c r="D228">
+        <v>207</v>
+      </c>
       <c r="E228" s="50">
         <f t="shared" si="26"/>
         <v>70.763358778625616</v>
@@ -30806,1463 +31425,1628 @@
         <v>123.60414659112944</v>
       </c>
     </row>
-    <row r="229" spans="5:10">
-      <c r="E229" s="52">
+    <row r="229" spans="4:10">
+      <c r="D229">
+        <v>208</v>
+      </c>
+      <c r="E229" s="50">
         <f t="shared" si="26"/>
         <v>71.106870229007299</v>
       </c>
-      <c r="F229" s="52">
+      <c r="F229" s="50">
         <f t="shared" si="28"/>
         <v>1.2410490062845116</v>
       </c>
-      <c r="G229" s="53">
+      <c r="G229" s="51">
         <f t="shared" si="27"/>
         <v>106.4760794511264</v>
       </c>
-      <c r="H229" s="53">
+      <c r="H229" s="51">
         <f t="shared" si="29"/>
         <v>118.92248384707193</v>
       </c>
-      <c r="I229" s="53">
+      <c r="I229" s="51">
         <f t="shared" si="30"/>
         <v>108.09509931390799</v>
       </c>
-      <c r="J229" s="53">
+      <c r="J229" s="51">
         <f t="shared" si="31"/>
         <v>123.65310480883993</v>
       </c>
     </row>
-    <row r="230" spans="5:10">
-      <c r="E230" s="52">
+    <row r="230" spans="4:10">
+      <c r="D230">
+        <v>209</v>
+      </c>
+      <c r="E230" s="50">
         <f t="shared" si="26"/>
         <v>71.450381679388983</v>
       </c>
-      <c r="F230" s="52">
+      <c r="F230" s="50">
         <f t="shared" si="28"/>
         <v>1.247044412111973</v>
       </c>
-      <c r="G230" s="53">
+      <c r="G230" s="51">
         <f t="shared" si="27"/>
         <v>106.36251577020775</v>
       </c>
-      <c r="H230" s="53">
+      <c r="H230" s="51">
         <f t="shared" si="29"/>
         <v>118.9609702566577</v>
       </c>
-      <c r="I230" s="53">
+      <c r="I230" s="51">
         <f t="shared" si="30"/>
         <v>107.95314471275968</v>
       </c>
-      <c r="J230" s="53">
+      <c r="J230" s="51">
         <f t="shared" si="31"/>
         <v>123.70121282082212</v>
       </c>
     </row>
-    <row r="231" spans="5:10">
-      <c r="E231" s="52">
+    <row r="231" spans="4:10">
+      <c r="D231">
+        <v>210</v>
+      </c>
+      <c r="E231" s="50">
         <f t="shared" si="26"/>
         <v>71.793893129770652</v>
       </c>
-      <c r="F231" s="52">
+      <c r="F231" s="50">
         <f t="shared" si="28"/>
         <v>1.2530398179394344</v>
       </c>
-      <c r="G231" s="53">
+      <c r="G231" s="51">
         <f t="shared" si="27"/>
         <v>106.24872339003807</v>
       </c>
-      <c r="H231" s="53">
+      <c r="H231" s="51">
         <f t="shared" si="29"/>
         <v>118.99877511827515</v>
       </c>
-      <c r="I231" s="53">
+      <c r="I231" s="51">
         <f t="shared" si="30"/>
         <v>107.81090423754759</v>
       </c>
-      <c r="J231" s="53">
+      <c r="J231" s="51">
         <f t="shared" si="31"/>
         <v>123.74846889784394</v>
       </c>
     </row>
-    <row r="232" spans="5:10">
-      <c r="E232" s="52">
+    <row r="232" spans="4:10">
+      <c r="D232">
+        <v>211</v>
+      </c>
+      <c r="E232" s="50">
         <f t="shared" si="26"/>
         <v>72.137404580152335</v>
       </c>
-      <c r="F232" s="52">
+      <c r="F232" s="50">
         <f t="shared" si="28"/>
         <v>1.2590352237668958</v>
       </c>
-      <c r="G232" s="53">
+      <c r="G232" s="51">
         <f t="shared" si="27"/>
         <v>106.13470640085983</v>
       </c>
-      <c r="H232" s="53">
+      <c r="H232" s="51">
         <f t="shared" si="29"/>
         <v>119.03589707303676</v>
       </c>
-      <c r="I232" s="53">
+      <c r="I232" s="51">
         <f t="shared" si="30"/>
         <v>107.66838300107479</v>
       </c>
-      <c r="J232" s="53">
+      <c r="J232" s="51">
         <f t="shared" si="31"/>
         <v>123.79487134129596</v>
       </c>
     </row>
-    <row r="233" spans="5:10">
-      <c r="E233" s="52">
+    <row r="233" spans="4:10">
+      <c r="D233">
+        <v>212</v>
+      </c>
+      <c r="E233" s="50">
         <f t="shared" si="26"/>
         <v>72.480916030534004</v>
       </c>
-      <c r="F233" s="52">
+      <c r="F233" s="50">
         <f t="shared" si="28"/>
         <v>1.2650306295943572</v>
       </c>
-      <c r="G233" s="53">
+      <c r="G233" s="51">
         <f t="shared" si="27"/>
         <v>106.02046890098899</v>
       </c>
-      <c r="H233" s="53">
+      <c r="H233" s="51">
         <f t="shared" si="29"/>
         <v>119.07233478660189</v>
       </c>
-      <c r="I233" s="53">
+      <c r="I233" s="51">
         <f t="shared" si="30"/>
         <v>107.52558612623623</v>
       </c>
-      <c r="J233" s="53">
+      <c r="J233" s="51">
         <f t="shared" si="31"/>
         <v>123.84041848325236</v>
       </c>
     </row>
-    <row r="234" spans="5:10">
-      <c r="E234" s="52">
+    <row r="234" spans="4:10">
+      <c r="D234">
+        <v>213</v>
+      </c>
+      <c r="E234" s="50">
         <f t="shared" si="26"/>
         <v>72.824427480915688</v>
       </c>
-      <c r="F234" s="52">
+      <c r="F234" s="50">
         <f t="shared" si="28"/>
         <v>1.2710260354218186</v>
       </c>
-      <c r="G234" s="53">
+      <c r="G234" s="51">
         <f t="shared" si="27"/>
         <v>105.90601499666774</v>
       </c>
-      <c r="H234" s="53">
+      <c r="H234" s="51">
         <f t="shared" si="29"/>
         <v>119.10808694922483</v>
       </c>
-      <c r="I234" s="53">
+      <c r="I234" s="51">
         <f t="shared" si="30"/>
         <v>107.38251874583466</v>
       </c>
-      <c r="J234" s="53">
+      <c r="J234" s="51">
         <f t="shared" si="31"/>
         <v>123.88510868653103</v>
       </c>
     </row>
-    <row r="235" spans="5:10">
-      <c r="E235" s="52">
+    <row r="235" spans="4:10">
+      <c r="D235">
+        <v>214</v>
+      </c>
+      <c r="E235" s="50">
         <f t="shared" si="26"/>
         <v>73.167938931297357</v>
       </c>
-      <c r="F235" s="52">
+      <c r="F235" s="50">
         <f t="shared" si="28"/>
         <v>1.27702144124928</v>
       </c>
-      <c r="G235" s="53">
+      <c r="G235" s="51">
         <f t="shared" si="27"/>
         <v>105.79134880191687</v>
       </c>
-      <c r="H235" s="53">
+      <c r="H235" s="51">
         <f t="shared" si="29"/>
         <v>119.14315227580181</v>
       </c>
-      <c r="I235" s="53">
+      <c r="I235" s="51">
         <f t="shared" si="30"/>
         <v>107.23918600239608</v>
       </c>
-      <c r="J235" s="53">
+      <c r="J235" s="51">
         <f t="shared" si="31"/>
         <v>123.92894034475226</v>
       </c>
     </row>
-    <row r="236" spans="5:10">
-      <c r="E236" s="52">
+    <row r="236" spans="4:10">
+      <c r="D236">
+        <v>215</v>
+      </c>
+      <c r="E236" s="50">
         <f t="shared" si="26"/>
         <v>73.51145038167904</v>
       </c>
-      <c r="F236" s="52">
+      <c r="F236" s="50">
         <f t="shared" si="28"/>
         <v>1.2830168470767414</v>
       </c>
-      <c r="G236" s="53">
+      <c r="G236" s="51">
         <f t="shared" si="27"/>
         <v>105.67647443838791</v>
       </c>
-      <c r="H236" s="53">
+      <c r="H236" s="51">
         <f t="shared" si="29"/>
         <v>119.17752950591731</v>
       </c>
-      <c r="I236" s="53">
+      <c r="I236" s="51">
         <f t="shared" si="30"/>
         <v>107.09559304798489</v>
       </c>
-      <c r="J236" s="53">
+      <c r="J236" s="51">
         <f t="shared" si="31"/>
         <v>123.97191188239663</v>
       </c>
     </row>
-    <row r="237" spans="5:10">
-      <c r="E237" s="52">
+    <row r="237" spans="4:10">
+      <c r="D237">
+        <v>216</v>
+      </c>
+      <c r="E237" s="50">
         <f t="shared" si="26"/>
         <v>73.85496183206071</v>
       </c>
-      <c r="F237" s="52">
+      <c r="F237" s="50">
         <f t="shared" si="28"/>
         <v>1.2890122529042027</v>
       </c>
-      <c r="G237" s="53">
+      <c r="G237" s="51">
         <f t="shared" si="27"/>
         <v>105.56139603521498</v>
       </c>
-      <c r="H237" s="53">
+      <c r="H237" s="51">
         <f t="shared" si="29"/>
         <v>119.21121740388919</v>
       </c>
-      <c r="I237" s="53">
+      <c r="I237" s="51">
         <f t="shared" si="30"/>
         <v>106.95174504401874</v>
       </c>
-      <c r="J237" s="53">
+      <c r="J237" s="51">
         <f t="shared" si="31"/>
         <v>124.01402175486149</v>
       </c>
     </row>
-    <row r="238" spans="5:10">
-      <c r="E238" s="52">
+    <row r="238" spans="4:10">
+      <c r="D238">
+        <v>217</v>
+      </c>
+      <c r="E238" s="50">
         <f t="shared" si="26"/>
         <v>74.198473282442379</v>
       </c>
-      <c r="F238" s="52">
+      <c r="F238" s="50">
         <f t="shared" si="28"/>
         <v>1.2950076587316641</v>
       </c>
-      <c r="G238" s="53">
+      <c r="G238" s="51">
         <f t="shared" si="27"/>
         <v>105.44611772886635</v>
       </c>
-      <c r="H238" s="53">
+      <c r="H238" s="51">
         <f t="shared" si="29"/>
         <v>119.2442147588133</v>
       </c>
-      <c r="I238" s="53">
+      <c r="I238" s="51">
         <f t="shared" si="30"/>
         <v>106.80764716108295</v>
       </c>
-      <c r="J238" s="53">
+      <c r="J238" s="51">
         <f t="shared" si="31"/>
         <v>124.05526844851661</v>
       </c>
     </row>
-    <row r="239" spans="5:10">
-      <c r="E239" s="52">
+    <row r="239" spans="4:10">
+      <c r="D239">
+        <v>218</v>
+      </c>
+      <c r="E239" s="50">
         <f t="shared" si="26"/>
         <v>74.541984732824062</v>
       </c>
-      <c r="F239" s="52">
+      <c r="F239" s="50">
         <f t="shared" si="28"/>
         <v>1.3010030645591255</v>
       </c>
-      <c r="G239" s="53">
+      <c r="G239" s="51">
         <f t="shared" si="27"/>
         <v>105.33064366299578</v>
       </c>
-      <c r="H239" s="53">
+      <c r="H239" s="51">
         <f t="shared" si="29"/>
         <v>119.27652038460684</v>
       </c>
-      <c r="I239" s="53">
+      <c r="I239" s="51">
         <f t="shared" si="30"/>
         <v>106.66330457874473</v>
       </c>
-      <c r="J239" s="53">
+      <c r="J239" s="51">
         <f t="shared" si="31"/>
         <v>124.09565048075855</v>
       </c>
     </row>
-    <row r="240" spans="5:10">
-      <c r="E240" s="52">
+    <row r="240" spans="4:10">
+      <c r="D240">
+        <v>219</v>
+      </c>
+      <c r="E240" s="50">
         <f t="shared" si="26"/>
         <v>74.885496183205731</v>
       </c>
-      <c r="F240" s="52">
+      <c r="F240" s="50">
         <f t="shared" si="28"/>
         <v>1.3069984703865869</v>
       </c>
-      <c r="G240" s="53">
+      <c r="G240" s="51">
         <f t="shared" si="27"/>
         <v>105.21497798829353</v>
       </c>
-      <c r="H240" s="53">
+      <c r="H240" s="51">
         <f t="shared" si="29"/>
         <v>119.3081331200511</v>
       </c>
-      <c r="I240" s="53">
+      <c r="I240" s="51">
         <f t="shared" si="30"/>
         <v>106.51872248536691</v>
       </c>
-      <c r="J240" s="53">
+      <c r="J240" s="51">
         <f t="shared" si="31"/>
         <v>124.13516640006387</v>
       </c>
     </row>
-    <row r="241" spans="5:10">
-      <c r="E241" s="52">
+    <row r="241" spans="4:10">
+      <c r="D241">
+        <v>220</v>
+      </c>
+      <c r="E241" s="50">
         <f t="shared" si="26"/>
         <v>75.229007633587415</v>
       </c>
-      <c r="F241" s="52">
+      <c r="F241" s="50">
         <f t="shared" si="28"/>
         <v>1.3129938762140483</v>
       </c>
-      <c r="G241" s="53">
+      <c r="G241" s="51">
         <f t="shared" si="27"/>
         <v>105.09912486233723</v>
       </c>
-      <c r="H241" s="53">
+      <c r="H241" s="51">
         <f t="shared" si="29"/>
         <v>119.33905182883314</v>
       </c>
-      <c r="I241" s="53">
+      <c r="I241" s="51">
         <f t="shared" si="30"/>
         <v>106.37390607792153</v>
       </c>
-      <c r="J241" s="53">
+      <c r="J241" s="51">
         <f t="shared" si="31"/>
         <v>124.17381478604142</v>
       </c>
     </row>
-    <row r="242" spans="5:10">
-      <c r="E242" s="52">
+    <row r="242" spans="4:10">
+      <c r="D242">
+        <v>221</v>
+      </c>
+      <c r="E242" s="50">
         <f t="shared" si="26"/>
         <v>75.572519083969084</v>
       </c>
-      <c r="F242" s="52">
+      <c r="F242" s="50">
         <f t="shared" si="28"/>
         <v>1.3189892820415097</v>
       </c>
-      <c r="G242" s="53">
+      <c r="G242" s="51">
         <f t="shared" si="27"/>
         <v>104.98308844944239</v>
       </c>
-      <c r="H242" s="53">
+      <c r="H242" s="51">
         <f t="shared" si="29"/>
         <v>119.36927539958668</v>
       </c>
-      <c r="I242" s="53">
+      <c r="I242" s="51">
         <f t="shared" si="30"/>
         <v>106.228860561803</v>
       </c>
-      <c r="J242" s="53">
+      <c r="J242" s="51">
         <f t="shared" si="31"/>
         <v>124.21159424948335</v>
       </c>
     </row>
-    <row r="243" spans="5:10">
-      <c r="E243" s="52">
+    <row r="243" spans="4:10">
+      <c r="D243">
+        <v>222</v>
+      </c>
+      <c r="E243" s="50">
         <f t="shared" si="26"/>
         <v>75.916030534350767</v>
       </c>
-      <c r="F243" s="52">
+      <c r="F243" s="50">
         <f t="shared" si="28"/>
         <v>1.3249846878689711</v>
       </c>
-      <c r="G243" s="53">
+      <c r="G243" s="51">
         <f t="shared" si="27"/>
         <v>104.86687292051275</v>
       </c>
-      <c r="H243" s="53">
+      <c r="H243" s="51">
         <f t="shared" si="29"/>
         <v>119.39880274593202</v>
       </c>
-      <c r="I243" s="53">
+      <c r="I243" s="51">
         <f t="shared" si="30"/>
         <v>106.08359115064094</v>
       </c>
-      <c r="J243" s="53">
+      <c r="J243" s="51">
         <f t="shared" si="31"/>
         <v>124.24850343241502</v>
       </c>
     </row>
-    <row r="244" spans="5:10">
-      <c r="E244" s="52">
+    <row r="244" spans="4:10">
+      <c r="D244">
+        <v>223</v>
+      </c>
+      <c r="E244" s="50">
         <f t="shared" si="26"/>
         <v>76.259541984732437</v>
       </c>
-      <c r="F244" s="52">
+      <c r="F244" s="50">
         <f t="shared" si="28"/>
         <v>1.3309800936964324</v>
       </c>
-      <c r="G244" s="53">
+      <c r="G244" s="51">
         <f t="shared" si="27"/>
         <v>104.75048245289031</v>
       </c>
-      <c r="H244" s="53">
+      <c r="H244" s="51">
         <f t="shared" si="29"/>
         <v>119.42763280651509</v>
       </c>
-      <c r="I244" s="53">
+      <c r="I244" s="51">
         <f t="shared" si="30"/>
         <v>105.93810306611287</v>
       </c>
-      <c r="J244" s="53">
+      <c r="J244" s="51">
         <f t="shared" si="31"/>
         <v>124.28454100814386</v>
       </c>
     </row>
-    <row r="245" spans="5:10">
-      <c r="E245" s="52">
+    <row r="245" spans="4:10">
+      <c r="D245">
+        <v>224</v>
+      </c>
+      <c r="E245" s="50">
         <f t="shared" si="26"/>
         <v>76.60305343511412</v>
       </c>
-      <c r="F245" s="52">
+      <c r="F245" s="50">
         <f t="shared" si="28"/>
         <v>1.3369754995238938</v>
       </c>
-      <c r="G245" s="53">
+      <c r="G245" s="51">
         <f t="shared" si="27"/>
         <v>104.6339212302052</v>
       </c>
-      <c r="H245" s="53">
+      <c r="H245" s="51">
         <f t="shared" si="29"/>
         <v>119.45576454504561</v>
       </c>
-      <c r="I245" s="53">
+      <c r="I245" s="51">
         <f t="shared" si="30"/>
         <v>105.7924015377565</v>
       </c>
-      <c r="J245" s="53">
+      <c r="J245" s="51">
         <f t="shared" si="31"/>
         <v>124.319705681307</v>
       </c>
     </row>
-    <row r="246" spans="5:10">
-      <c r="E246" s="52">
+    <row r="246" spans="4:10">
+      <c r="D246">
+        <v>225</v>
+      </c>
+      <c r="E246" s="50">
         <f t="shared" si="26"/>
         <v>76.946564885495803</v>
       </c>
-      <c r="F246" s="52">
+      <c r="F246" s="50">
         <f t="shared" si="28"/>
         <v>1.3429709053513552</v>
       </c>
-      <c r="G246" s="53">
+      <c r="G246" s="51">
         <f t="shared" si="27"/>
         <v>104.51719344222535</v>
       </c>
-      <c r="H246" s="53">
+      <c r="H246" s="51">
         <f t="shared" si="29"/>
         <v>119.48319695033432</v>
       </c>
-      <c r="I246" s="53">
+      <c r="I246" s="51">
         <f t="shared" si="30"/>
         <v>105.64649180278168</v>
       </c>
-      <c r="J246" s="53">
+      <c r="J246" s="51">
         <f t="shared" si="31"/>
         <v>124.35399618791789</v>
       </c>
     </row>
-    <row r="247" spans="5:10">
-      <c r="E247" s="52">
+    <row r="247" spans="4:10">
+      <c r="D247">
+        <v>226</v>
+      </c>
+      <c r="E247" s="50">
         <f t="shared" si="26"/>
         <v>77.290076335877473</v>
       </c>
-      <c r="F247" s="52">
+      <c r="F247" s="50">
         <f t="shared" si="28"/>
         <v>1.3489663111788166</v>
       </c>
-      <c r="G247" s="53">
+      <c r="G247" s="51">
         <f t="shared" si="27"/>
         <v>104.40030328470579</v>
       </c>
-      <c r="H247" s="53">
+      <c r="H247" s="51">
         <f t="shared" si="29"/>
         <v>119.50992903632937</v>
       </c>
-      <c r="I247" s="53">
+      <c r="I247" s="51">
         <f t="shared" si="30"/>
         <v>105.50037910588222</v>
       </c>
-      <c r="J247" s="53">
+      <c r="J247" s="51">
         <f t="shared" si="31"/>
         <v>124.38741129541171</v>
       </c>
     </row>
-    <row r="248" spans="5:10">
-      <c r="E248" s="52">
+    <row r="248" spans="4:10">
+      <c r="D248">
+        <v>227</v>
+      </c>
+      <c r="E248" s="50">
         <f t="shared" si="26"/>
         <v>77.633587786259156</v>
       </c>
-      <c r="F248" s="52">
+      <c r="F248" s="50">
         <f t="shared" si="28"/>
         <v>1.354961717006278</v>
       </c>
-      <c r="G248" s="53">
+      <c r="G248" s="51">
         <f t="shared" si="27"/>
         <v>104.28325495923789</v>
       </c>
-      <c r="H248" s="53">
+      <c r="H248" s="51">
         <f t="shared" si="29"/>
         <v>119.5359598421517</v>
       </c>
-      <c r="I248" s="53">
+      <c r="I248" s="51">
         <f t="shared" si="30"/>
         <v>105.35406869904737</v>
       </c>
-      <c r="J248" s="53">
+      <c r="J248" s="51">
         <f t="shared" si="31"/>
         <v>124.41994980268963</v>
       </c>
     </row>
-    <row r="249" spans="5:10">
-      <c r="E249" s="52">
+    <row r="249" spans="4:10">
+      <c r="D249">
+        <v>228</v>
+      </c>
+      <c r="E249" s="50">
         <f t="shared" si="26"/>
         <v>77.977099236640825</v>
       </c>
-      <c r="F249" s="52">
+      <c r="F249" s="50">
         <f t="shared" si="28"/>
         <v>1.3609571228337394</v>
       </c>
-      <c r="G249" s="53">
+      <c r="G249" s="51">
         <f t="shared" si="27"/>
         <v>104.16605267309841</v>
       </c>
-      <c r="H249" s="53">
+      <c r="H249" s="51">
         <f t="shared" si="29"/>
         <v>119.56128843212966</v>
       </c>
-      <c r="I249" s="53">
+      <c r="I249" s="51">
         <f t="shared" si="30"/>
         <v>105.20756584137301</v>
       </c>
-      <c r="J249" s="53">
+      <c r="J249" s="51">
         <f t="shared" si="31"/>
         <v>124.45161054016208</v>
       </c>
     </row>
-    <row r="250" spans="5:10">
-      <c r="E250" s="52">
+    <row r="250" spans="4:10">
+      <c r="D250">
+        <v>229</v>
+      </c>
+      <c r="E250" s="50">
         <f t="shared" si="26"/>
         <v>78.320610687022509</v>
       </c>
-      <c r="F250" s="52">
+      <c r="F250" s="50">
         <f t="shared" si="28"/>
         <v>1.3669525286612008</v>
       </c>
-      <c r="G250" s="53">
+      <c r="G250" s="51">
         <f t="shared" si="27"/>
         <v>104.04870063909809</v>
       </c>
-      <c r="H250" s="53">
+      <c r="H250" s="51">
         <f t="shared" si="29"/>
         <v>119.58591389583256</v>
       </c>
-      <c r="I250" s="53">
+      <c r="I250" s="51">
         <f t="shared" si="30"/>
         <v>105.0608757988726</v>
       </c>
-      <c r="J250" s="53">
+      <c r="J250" s="51">
         <f t="shared" si="31"/>
         <v>124.48239236979069</v>
       </c>
     </row>
-    <row r="251" spans="5:10">
-      <c r="E251" s="52">
+    <row r="251" spans="4:10">
+      <c r="D251">
+        <v>230</v>
+      </c>
+      <c r="E251" s="50">
         <f t="shared" si="26"/>
         <v>78.664122137404178</v>
       </c>
-      <c r="F251" s="52">
+      <c r="F251" s="50">
         <f t="shared" si="28"/>
         <v>1.3729479344886621</v>
       </c>
-      <c r="G251" s="53">
+      <c r="G251" s="51">
         <f t="shared" si="27"/>
         <v>103.93120307543037</v>
       </c>
-      <c r="H251" s="53">
+      <c r="H251" s="51">
         <f t="shared" si="29"/>
         <v>119.60983534810343</v>
       </c>
-      <c r="I251" s="53">
+      <c r="I251" s="51">
         <f t="shared" si="30"/>
         <v>104.91400384428798</v>
       </c>
-      <c r="J251" s="53">
+      <c r="J251" s="51">
         <f t="shared" si="31"/>
         <v>124.51229418512929</v>
       </c>
     </row>
-    <row r="252" spans="5:10">
-      <c r="E252" s="52">
+    <row r="252" spans="4:10">
+      <c r="D252">
+        <v>231</v>
+      </c>
+      <c r="E252" s="50">
         <f t="shared" si="26"/>
         <v>79.007633587785861</v>
       </c>
-      <c r="F252" s="52">
+      <c r="F252" s="50">
         <f t="shared" si="28"/>
         <v>1.3789433403161235</v>
       </c>
-      <c r="G252" s="53">
+      <c r="G252" s="51">
         <f t="shared" si="27"/>
         <v>103.81356420551975</v>
       </c>
-      <c r="H252" s="53">
+      <c r="H252" s="51">
         <f t="shared" si="29"/>
         <v>119.63305192909087</v>
       </c>
-      <c r="I252" s="53">
+      <c r="I252" s="51">
         <f t="shared" si="30"/>
         <v>104.76695525689969</v>
       </c>
-      <c r="J252" s="53">
+      <c r="J252" s="51">
         <f t="shared" si="31"/>
         <v>124.54131491136357</v>
       </c>
     </row>
-    <row r="253" spans="5:10">
-      <c r="E253" s="52">
+    <row r="253" spans="4:10">
+      <c r="D253">
+        <v>232</v>
+      </c>
+      <c r="E253" s="50">
         <f t="shared" si="26"/>
         <v>79.35114503816753</v>
       </c>
-      <c r="F253" s="52">
+      <c r="F253" s="50">
         <f t="shared" si="28"/>
         <v>1.3849387461435849</v>
       </c>
-      <c r="G253" s="53">
+      <c r="G253" s="51">
         <f t="shared" si="27"/>
         <v>103.69578825786991</v>
       </c>
-      <c r="H253" s="53">
+      <c r="H253" s="51">
         <f t="shared" si="29"/>
         <v>119.65556280427988</v>
       </c>
-      <c r="I253" s="53">
+      <c r="I253" s="51">
         <f t="shared" si="30"/>
         <v>104.61973532233738</v>
       </c>
-      <c r="J253" s="53">
+      <c r="J253" s="51">
         <f t="shared" si="31"/>
         <v>124.56945350534986</v>
       </c>
     </row>
-    <row r="254" spans="5:10">
-      <c r="E254" s="52">
+    <row r="254" spans="4:10">
+      <c r="D254">
+        <v>233</v>
+      </c>
+      <c r="E254" s="50">
         <f t="shared" si="26"/>
         <v>79.694656488549214</v>
       </c>
-      <c r="F254" s="52">
+      <c r="F254" s="50">
         <f t="shared" si="28"/>
         <v>1.3909341519710463</v>
       </c>
-      <c r="G254" s="53">
+      <c r="G254" s="51">
         <f t="shared" si="27"/>
         <v>103.57787946591176</v>
       </c>
-      <c r="H254" s="53">
+      <c r="H254" s="51">
         <f t="shared" si="29"/>
         <v>119.67736716452197</v>
       </c>
-      <c r="I254" s="53">
+      <c r="I254" s="51">
         <f t="shared" si="30"/>
         <v>104.4723493323897</v>
       </c>
-      <c r="J254" s="53">
+      <c r="J254" s="51">
         <f t="shared" si="31"/>
         <v>124.59670895565245</v>
       </c>
     </row>
-    <row r="255" spans="5:10">
-      <c r="E255" s="52">
+    <row r="255" spans="4:10">
+      <c r="D255">
+        <v>234</v>
+      </c>
+      <c r="E255" s="50">
         <f t="shared" si="26"/>
         <v>80.038167938930883</v>
       </c>
-      <c r="F255" s="52">
+      <c r="F255" s="50">
         <f t="shared" si="28"/>
         <v>1.3969295577985077</v>
       </c>
-      <c r="G255" s="53">
+      <c r="G255" s="51">
         <f t="shared" si="27"/>
         <v>103.4598420678513</v>
       </c>
-      <c r="H255" s="53">
+      <c r="H255" s="51">
         <f t="shared" si="29"/>
         <v>119.69846422606409</v>
       </c>
-      <c r="I255" s="53">
+      <c r="I255" s="51">
         <f t="shared" si="30"/>
         <v>104.32480258481414</v>
       </c>
-      <c r="J255" s="53">
+      <c r="J255" s="51">
         <f t="shared" si="31"/>
         <v>124.6230802825801</v>
       </c>
     </row>
-    <row r="256" spans="5:10">
-      <c r="E256" s="52">
+    <row r="256" spans="4:10">
+      <c r="D256">
+        <v>235</v>
+      </c>
+      <c r="E256" s="50">
         <f t="shared" si="26"/>
         <v>80.381679389312566</v>
       </c>
-      <c r="F256" s="52">
+      <c r="F256" s="50">
         <f t="shared" si="28"/>
         <v>1.4029249636259691</v>
       </c>
-      <c r="G256" s="53">
+      <c r="G256" s="51">
         <f t="shared" si="27"/>
         <v>103.34168030651723</v>
       </c>
-      <c r="H256" s="53">
+      <c r="H256" s="51">
         <f t="shared" si="29"/>
         <v>119.71885323057694</v>
       </c>
-      <c r="I256" s="53">
+      <c r="I256" s="51">
         <f t="shared" si="30"/>
         <v>104.17710038314654</v>
       </c>
-      <c r="J256" s="53">
+      <c r="J256" s="51">
         <f t="shared" si="31"/>
         <v>124.64856653822119</v>
       </c>
     </row>
-    <row r="257" spans="5:10">
-      <c r="E257" s="52">
+    <row r="257" spans="4:10">
+      <c r="D257">
+        <v>236</v>
+      </c>
+      <c r="E257" s="50">
         <f t="shared" si="26"/>
         <v>80.725190839694235</v>
       </c>
-      <c r="F257" s="52">
+      <c r="F257" s="50">
         <f t="shared" si="28"/>
         <v>1.4089203694534305</v>
       </c>
-      <c r="G257" s="53">
+      <c r="G257" s="51">
         <f t="shared" si="27"/>
         <v>103.22339842920847</v>
       </c>
-      <c r="H257" s="53">
+      <c r="H257" s="51">
         <f t="shared" si="29"/>
         <v>119.7385334451822</v>
       </c>
-      <c r="I257" s="53">
+      <c r="I257" s="51">
         <f t="shared" si="30"/>
         <v>104.02924803651058</v>
       </c>
-      <c r="J257" s="53">
+      <c r="J257" s="51">
         <f t="shared" si="31"/>
         <v>124.67316680647775</v>
       </c>
     </row>
-    <row r="258" spans="5:10">
-      <c r="E258" s="52">
+    <row r="258" spans="4:10">
+      <c r="D258">
+        <v>237</v>
+      </c>
+      <c r="E258" s="50">
         <f t="shared" si="26"/>
         <v>81.068702290075919</v>
       </c>
-      <c r="F258" s="52">
+      <c r="F258" s="50">
         <f t="shared" si="28"/>
         <v>1.4149157752808919</v>
       </c>
-      <c r="G258" s="53">
+      <c r="G258" s="51">
         <f t="shared" si="27"/>
         <v>103.10500068754146</v>
       </c>
-      <c r="H258" s="53">
+      <c r="H258" s="51">
         <f t="shared" si="29"/>
         <v>119.7575041624788</v>
       </c>
-      <c r="I258" s="53">
+      <c r="I258" s="51">
         <f t="shared" si="30"/>
         <v>103.88125085942683</v>
       </c>
-      <c r="J258" s="53">
+      <c r="J258" s="51">
         <f t="shared" si="31"/>
         <v>124.6968802030985</v>
       </c>
     </row>
-    <row r="259" spans="5:10">
-      <c r="E259" s="52">
+    <row r="259" spans="4:10">
+      <c r="D259">
+        <v>238</v>
+      </c>
+      <c r="E259" s="50">
         <f t="shared" si="26"/>
         <v>81.412213740457588</v>
       </c>
-      <c r="F259" s="52">
+      <c r="F259" s="50">
         <f t="shared" si="28"/>
         <v>1.4209111811083532</v>
       </c>
-      <c r="G259" s="53">
+      <c r="G259" s="51">
         <f t="shared" si="27"/>
         <v>102.98649133729738</v>
       </c>
-      <c r="H259" s="53">
+      <c r="H259" s="51">
         <f t="shared" si="29"/>
         <v>119.77576470056842</v>
       </c>
-      <c r="I259" s="53">
+      <c r="I259" s="51">
         <f t="shared" si="30"/>
         <v>103.73311417162174</v>
       </c>
-      <c r="J259" s="53">
+      <c r="J259" s="51">
         <f t="shared" si="31"/>
         <v>124.71970587571052</v>
       </c>
     </row>
-    <row r="260" spans="5:10">
-      <c r="E260" s="52">
+    <row r="260" spans="4:10">
+      <c r="D260">
+        <v>239</v>
+      </c>
+      <c r="E260" s="50">
         <f t="shared" si="26"/>
         <v>81.755725190839271</v>
       </c>
-      <c r="F260" s="52">
+      <c r="F260" s="50">
         <f t="shared" si="28"/>
         <v>1.4269065869358146</v>
       </c>
-      <c r="G260" s="53">
+      <c r="G260" s="51">
         <f t="shared" si="27"/>
         <v>102.86787463826917</v>
       </c>
-      <c r="H260" s="53">
+      <c r="H260" s="51">
         <f t="shared" si="29"/>
         <v>119.79331440307996</v>
       </c>
-      <c r="I260" s="53">
+      <c r="I260" s="51">
         <f t="shared" si="30"/>
         <v>103.58484329783646</v>
       </c>
-      <c r="J260" s="53">
+      <c r="J260" s="51">
         <f t="shared" si="31"/>
         <v>124.74164300384994</v>
       </c>
     </row>
-    <row r="261" spans="5:10">
-      <c r="E261" s="52">
+    <row r="261" spans="4:10">
+      <c r="D261">
+        <v>240</v>
+      </c>
+      <c r="E261" s="50">
         <f t="shared" si="26"/>
         <v>82.099236641220941</v>
       </c>
-      <c r="F261" s="52">
+      <c r="F261" s="50">
         <f t="shared" si="28"/>
         <v>1.432901992763276</v>
       </c>
-      <c r="G261" s="53">
+      <c r="G261" s="51">
         <f t="shared" si="27"/>
         <v>102.74915485410835</v>
       </c>
-      <c r="H261" s="53">
+      <c r="H261" s="51">
         <f t="shared" si="29"/>
         <v>119.81015263919318</v>
       </c>
-      <c r="I261" s="53">
+      <c r="I261" s="51">
         <f t="shared" si="30"/>
         <v>103.43644356763544</v>
       </c>
-      <c r="J261" s="53">
+      <c r="J261" s="51">
         <f t="shared" si="31"/>
         <v>124.76269079899147</v>
       </c>
     </row>
-    <row r="262" spans="5:10">
-      <c r="E262" s="52">
+    <row r="262" spans="4:10">
+      <c r="D262">
+        <v>241</v>
+      </c>
+      <c r="E262" s="50">
         <f t="shared" si="26"/>
         <v>82.44274809160261</v>
       </c>
-      <c r="F262" s="52">
+      <c r="F262" s="50">
         <f t="shared" si="28"/>
         <v>1.4388973985907374</v>
       </c>
-      <c r="G262" s="53">
+      <c r="G262" s="51">
         <f t="shared" si="27"/>
         <v>102.63033625217186</v>
       </c>
-      <c r="H262" s="53">
+      <c r="H262" s="51">
         <f t="shared" si="29"/>
         <v>119.82627880366132</v>
       </c>
-      <c r="I262" s="53">
+      <c r="I262" s="51">
         <f t="shared" si="30"/>
         <v>103.28792031521483</v>
       </c>
-      <c r="J262" s="53">
+      <c r="J262" s="51">
         <f t="shared" si="31"/>
         <v>124.78284850457666</v>
       </c>
     </row>
-    <row r="263" spans="5:10">
-      <c r="E263" s="52">
+    <row r="263" spans="4:10">
+      <c r="D263">
+        <v>242</v>
+      </c>
+      <c r="E263" s="50">
         <f t="shared" si="26"/>
         <v>82.786259541984293</v>
       </c>
-      <c r="F263" s="52">
+      <c r="F263" s="50">
         <f t="shared" si="28"/>
         <v>1.4448928044181988</v>
       </c>
-      <c r="G263" s="53">
+      <c r="G263" s="51">
         <f t="shared" si="27"/>
         <v>102.51142310336861</v>
       </c>
-      <c r="H263" s="53">
+      <c r="H263" s="51">
         <f t="shared" si="29"/>
         <v>119.84169231683292</v>
       </c>
-      <c r="I263" s="53">
+      <c r="I263" s="51">
         <f t="shared" si="30"/>
         <v>103.13927887921076</v>
       </c>
-      <c r="J263" s="53">
+      <c r="J263" s="51">
         <f t="shared" si="31"/>
         <v>124.80211539604115</v>
       </c>
     </row>
-    <row r="264" spans="5:10">
-      <c r="E264" s="52">
+    <row r="264" spans="4:10">
+      <c r="D264">
+        <v>243</v>
+      </c>
+      <c r="E264" s="50">
         <f t="shared" si="26"/>
         <v>83.129770992365977</v>
       </c>
-      <c r="F264" s="52">
+      <c r="F264" s="50">
         <f t="shared" si="28"/>
         <v>1.4508882102456602</v>
       </c>
-      <c r="G264" s="53">
+      <c r="G264" s="51">
         <f t="shared" si="27"/>
         <v>102.39241968200596</v>
       </c>
-      <c r="H264" s="53">
+      <c r="H264" s="51">
         <f t="shared" si="29"/>
         <v>119.85639262467255</v>
       </c>
-      <c r="I264" s="53">
+      <c r="I264" s="51">
         <f t="shared" si="30"/>
         <v>102.99052460250746</v>
       </c>
-      <c r="J264" s="53">
+      <c r="J264" s="51">
         <f t="shared" si="31"/>
         <v>124.82049078084069</v>
       </c>
     </row>
-    <row r="265" spans="5:10">
-      <c r="E265" s="52">
+    <row r="265" spans="4:10">
+      <c r="D265">
+        <v>244</v>
+      </c>
+      <c r="E265" s="50">
         <f t="shared" si="26"/>
         <v>83.47328244274766</v>
       </c>
-      <c r="F265" s="52">
+      <c r="F265" s="50">
         <f t="shared" si="28"/>
         <v>1.4568836160731216</v>
       </c>
-      <c r="G265" s="53">
+      <c r="G265" s="51">
         <f t="shared" si="27"/>
         <v>102.27333026563613</v>
       </c>
-      <c r="H265" s="53">
+      <c r="H265" s="51">
         <f t="shared" si="29"/>
         <v>119.87037919878085</v>
       </c>
-      <c r="I265" s="53">
+      <c r="I265" s="51">
         <f t="shared" si="30"/>
         <v>102.84166283204516</v>
       </c>
-      <c r="J265" s="53">
+      <c r="J265" s="51">
         <f t="shared" si="31"/>
         <v>124.83797399847606</v>
       </c>
     </row>
-    <row r="266" spans="5:10">
-      <c r="E266" s="52">
+    <row r="266" spans="4:10">
+      <c r="D266">
+        <v>245</v>
+      </c>
+      <c r="E266" s="50">
         <f t="shared" si="26"/>
         <v>83.816793893129315</v>
       </c>
-      <c r="F266" s="52">
+      <c r="F266" s="50">
         <f t="shared" si="28"/>
         <v>1.4628790219005829</v>
       </c>
-      <c r="G266" s="53">
+      <c r="G266" s="51">
         <f t="shared" si="27"/>
         <v>102.15415913490237</v>
       </c>
-      <c r="H266" s="53">
+      <c r="H266" s="51">
         <f t="shared" si="29"/>
         <v>119.88365153641344</v>
       </c>
-      <c r="I266" s="53">
+      <c r="I266" s="51">
         <f t="shared" si="30"/>
         <v>102.69269891862797</v>
       </c>
-      <c r="J266" s="53">
+      <c r="J266" s="51">
         <f t="shared" si="31"/>
         <v>124.85456442051679</v>
       </c>
     </row>
-    <row r="267" spans="5:10">
-      <c r="E267" s="52">
+    <row r="267" spans="4:10">
+      <c r="D267">
+        <v>246</v>
+      </c>
+      <c r="E267" s="50">
         <f t="shared" si="26"/>
         <v>84.160305343510998</v>
       </c>
-      <c r="F267" s="52">
+      <c r="F267" s="50">
         <f t="shared" si="28"/>
         <v>1.4688744277280443</v>
       </c>
-      <c r="G267" s="53">
+      <c r="G267" s="51">
         <f t="shared" si="27"/>
         <v>102.03491057338518</v>
       </c>
-      <c r="H267" s="53">
+      <c r="H267" s="51">
         <f t="shared" si="29"/>
         <v>119.89620916049901</v>
       </c>
-      <c r="I267" s="53">
+      <c r="I267" s="51">
         <f t="shared" si="30"/>
         <v>102.54363821673148</v>
       </c>
-      <c r="J267" s="53">
+      <c r="J267" s="51">
         <f t="shared" si="31"/>
         <v>124.87026145062377</v>
       </c>
     </row>
-    <row r="268" spans="5:10">
-      <c r="E268" s="52">
+    <row r="268" spans="4:10">
+      <c r="D268">
+        <v>247</v>
+      </c>
+      <c r="E268" s="50">
         <f t="shared" si="26"/>
         <v>84.503816793892682</v>
       </c>
-      <c r="F268" s="52">
+      <c r="F268" s="50">
         <f t="shared" si="28"/>
         <v>1.4748698335555057</v>
       </c>
-      <c r="G268" s="53">
+      <c r="G268" s="51">
         <f t="shared" si="27"/>
         <v>101.91558886744825</v>
       </c>
-      <c r="H268" s="53">
+      <c r="H268" s="51">
         <f t="shared" si="29"/>
         <v>119.9080516196565</v>
       </c>
-      <c r="I268" s="53">
+      <c r="I268" s="51">
         <f t="shared" si="30"/>
         <v>102.39448608431032</v>
       </c>
-      <c r="J268" s="53">
+      <c r="J268" s="51">
         <f t="shared" si="31"/>
         <v>124.88506452457064</v>
       </c>
     </row>
-    <row r="269" spans="5:10">
-      <c r="E269" s="52">
+    <row r="269" spans="4:10">
+      <c r="D269">
+        <v>248</v>
+      </c>
+      <c r="E269" s="50">
         <f t="shared" si="26"/>
         <v>84.847328244274365</v>
       </c>
-      <c r="F269" s="52">
+      <c r="F269" s="50">
         <f t="shared" si="28"/>
         <v>1.4808652393829671</v>
       </c>
-      <c r="G269" s="53">
+      <c r="G269" s="51">
         <f t="shared" si="27"/>
         <v>101.79619830608448</v>
       </c>
-      <c r="H269" s="53">
+      <c r="H269" s="51">
         <f t="shared" si="29"/>
         <v>119.91917848821129</v>
       </c>
-      <c r="I269" s="53">
+      <c r="I269" s="51">
         <f t="shared" si="30"/>
         <v>102.24524788260558</v>
       </c>
-      <c r="J269" s="53">
+      <c r="J269" s="51">
         <f t="shared" si="31"/>
         <v>124.89897311026411</v>
       </c>
     </row>
-    <row r="270" spans="5:10">
-      <c r="E270" s="52">
+    <row r="270" spans="4:10">
+      <c r="D270">
+        <v>249</v>
+      </c>
+      <c r="E270" s="50">
         <f t="shared" si="26"/>
         <v>85.190839694656049</v>
       </c>
-      <c r="F270" s="52">
+      <c r="F270" s="50">
         <f t="shared" si="28"/>
         <v>1.4868606452104285</v>
       </c>
-      <c r="G270" s="53">
+      <c r="G270" s="51">
         <f t="shared" si="27"/>
         <v>101.67674318076169</v>
       </c>
-      <c r="H270" s="53">
+      <c r="H270" s="51">
         <f t="shared" si="29"/>
         <v>119.92958936621046</v>
       </c>
-      <c r="I270" s="53">
+      <c r="I270" s="51">
         <f t="shared" si="30"/>
         <v>102.09592897595211</v>
       </c>
-      <c r="J270" s="53">
+      <c r="J270" s="51">
         <f t="shared" si="31"/>
         <v>124.91198670776308</v>
       </c>
     </row>
-    <row r="271" spans="5:10">
-      <c r="E271" s="52">
+    <row r="271" spans="4:10">
+      <c r="D271">
+        <v>250</v>
+      </c>
+      <c r="E271" s="50">
         <f t="shared" si="26"/>
         <v>85.534351145037704</v>
       </c>
-      <c r="F271" s="52">
+      <c r="F271" s="50">
         <f t="shared" si="28"/>
         <v>1.4928560510378899</v>
       </c>
-      <c r="G271" s="53">
+      <c r="G271" s="51">
         <f t="shared" si="27"/>
         <v>101.55722778526851</v>
       </c>
-      <c r="H271" s="53">
+      <c r="H271" s="51">
         <f t="shared" si="29"/>
         <v>119.93928387943728</v>
       </c>
-      <c r="I271" s="53">
+      <c r="I271" s="51">
         <f t="shared" si="30"/>
         <v>101.94653473158564</v>
       </c>
-      <c r="J271" s="53">
+      <c r="J271" s="51">
         <f t="shared" si="31"/>
         <v>124.92410484929661</v>
       </c>
     </row>
-    <row r="272" spans="5:10">
-      <c r="E272" s="52">
+    <row r="272" spans="4:10">
+      <c r="D272">
+        <v>251</v>
+      </c>
+      <c r="E272" s="50">
         <f t="shared" si="26"/>
         <v>85.877862595419387</v>
       </c>
-      <c r="F272" s="52">
+      <c r="F272" s="50">
         <f t="shared" si="28"/>
         <v>1.4988514568653513</v>
       </c>
-      <c r="G272" s="53">
+      <c r="G272" s="51">
         <f t="shared" si="27"/>
         <v>101.43765641555994</v>
       </c>
-      <c r="H272" s="53">
+      <c r="H272" s="51">
         <f t="shared" si="29"/>
         <v>119.94826167942458</v>
       </c>
-      <c r="I272" s="53">
+      <c r="I272" s="51">
         <f t="shared" si="30"/>
         <v>101.79707051944993</v>
       </c>
-      <c r="J272" s="53">
+      <c r="J272" s="51">
         <f t="shared" si="31"/>
         <v>124.93532709928073</v>
       </c>
     </row>
-    <row r="273" spans="5:10">
-      <c r="E273" s="52">
+    <row r="273" spans="4:10">
+      <c r="D273">
+        <v>252</v>
+      </c>
+      <c r="E273" s="50">
         <f t="shared" si="26"/>
         <v>86.22137404580107</v>
       </c>
-      <c r="F273" s="52">
+      <c r="F273" s="50">
         <f t="shared" si="28"/>
         <v>1.5048468626928126</v>
       </c>
-      <c r="G273" s="53">
+      <c r="G273" s="51">
         <f t="shared" si="27"/>
         <v>101.31803336960296</v>
       </c>
-      <c r="H273" s="53">
+      <c r="H273" s="51">
         <f t="shared" si="29"/>
         <v>119.95652244346728</v>
       </c>
-      <c r="I273" s="53">
+      <c r="I273" s="51">
         <f t="shared" si="30"/>
         <v>101.6475417120037</v>
       </c>
-      <c r="J273" s="53">
+      <c r="J273" s="51">
         <f t="shared" si="31"/>
         <v>124.94565305433409</v>
       </c>
     </row>
-    <row r="274" spans="5:10">
-      <c r="E274" s="52">
+    <row r="274" spans="4:10">
+      <c r="D274">
+        <v>253</v>
+      </c>
+      <c r="E274" s="50">
         <f t="shared" si="26"/>
         <v>86.56488549618274</v>
       </c>
-      <c r="F274" s="52">
+      <c r="F274" s="50">
         <f t="shared" si="28"/>
         <v>1.510842268520274</v>
       </c>
-      <c r="G274" s="53">
+      <c r="G274" s="51">
         <f t="shared" si="27"/>
         <v>101.19836294722204</v>
       </c>
-      <c r="H274" s="53">
+      <c r="H274" s="51">
         <f t="shared" si="29"/>
         <v>119.96406587463399</v>
       </c>
-      <c r="I274" s="53">
+      <c r="I274" s="51">
         <f t="shared" si="30"/>
         <v>101.49795368402755</v>
       </c>
-      <c r="J274" s="53">
+      <c r="J274" s="51">
         <f t="shared" si="31"/>
         <v>124.95508234329249</v>
       </c>
     </row>
-    <row r="275" spans="5:10">
-      <c r="E275" s="52">
+    <row r="275" spans="4:10">
+      <c r="D275">
+        <v>254</v>
+      </c>
+      <c r="E275" s="50">
         <f t="shared" si="26"/>
         <v>86.908396946564409</v>
       </c>
-      <c r="F275" s="52">
+      <c r="F275" s="50">
         <f t="shared" si="28"/>
         <v>1.5168376743477354</v>
       </c>
-      <c r="G275" s="53">
+      <c r="G275" s="51">
         <f t="shared" si="27"/>
         <v>101.07864944994459</v>
       </c>
-      <c r="H275" s="53">
+      <c r="H275" s="51">
         <f t="shared" si="29"/>
         <v>119.97089170177772</v>
       </c>
-      <c r="I275" s="53">
+      <c r="I275" s="51">
         <f t="shared" si="30"/>
         <v>101.34831181243074</v>
       </c>
-      <c r="J275" s="53">
+      <c r="J275" s="51">
         <f t="shared" si="31"/>
         <v>124.96361462722214</v>
       </c>
     </row>
-    <row r="276" spans="5:10">
-      <c r="E276" s="52">
+    <row r="276" spans="4:10">
+      <c r="D276">
+        <v>255</v>
+      </c>
+      <c r="E276" s="50">
         <f t="shared" si="26"/>
         <v>87.251908396946092</v>
       </c>
-      <c r="F276" s="52">
+      <c r="F276" s="50">
         <f t="shared" si="28"/>
         <v>1.5228330801751968</v>
       </c>
-      <c r="G276" s="53">
+      <c r="G276" s="51">
         <f t="shared" si="27"/>
         <v>100.95889718084634</v>
       </c>
-      <c r="H276" s="53">
+      <c r="H276" s="51">
         <f t="shared" si="29"/>
         <v>119.9769996795456</v>
       </c>
-      <c r="I276" s="53">
+      <c r="I276" s="51">
         <f t="shared" si="30"/>
         <v>101.19862147605791</v>
       </c>
-      <c r="J276" s="53">
+      <c r="J276" s="51">
         <f t="shared" si="31"/>
         <v>124.971249599432</v>
       </c>
     </row>
-    <row r="277" spans="5:10">
-      <c r="E277" s="52">
+    <row r="277" spans="4:10">
+      <c r="D277">
+        <v>256</v>
+      </c>
+      <c r="E277" s="50">
         <f t="shared" si="26"/>
         <v>87.595419847327776</v>
       </c>
-      <c r="F277" s="52">
+      <c r="F277" s="50">
         <f t="shared" si="28"/>
         <v>1.5288284860026582</v>
       </c>
-      <c r="G277" s="53">
+      <c r="G277" s="51">
         <f t="shared" si="27"/>
         <v>100.83911044439664</v>
       </c>
-      <c r="H277" s="53">
+      <c r="H277" s="51">
         <f t="shared" si="29"/>
         <v>119.98238958838769</v>
       </c>
-      <c r="I277" s="53">
+      <c r="I277" s="51">
         <f t="shared" si="30"/>
         <v>101.04888805549579</v>
       </c>
-      <c r="J277" s="53">
+      <c r="J277" s="51">
         <f t="shared" si="31"/>
         <v>124.97798698548461</v>
       </c>
     </row>
-    <row r="278" spans="5:10">
-      <c r="E278" s="52">
+    <row r="278" spans="4:10">
+      <c r="D278">
+        <v>257</v>
+      </c>
+      <c r="E278" s="50">
         <f t="shared" si="26"/>
         <v>87.938931297709445</v>
       </c>
-      <c r="F278" s="52">
+      <c r="F278" s="50">
         <f t="shared" si="28"/>
         <v>1.5348238918301196</v>
       </c>
-      <c r="G278" s="53">
+      <c r="G278" s="51">
         <f t="shared" si="27"/>
         <v>100.71929354630379</v>
       </c>
-      <c r="H278" s="53">
+      <c r="H278" s="51">
         <f t="shared" si="29"/>
         <v>119.98706123456486</v>
       </c>
-      <c r="I278" s="53">
+      <c r="I278" s="51">
         <f t="shared" si="30"/>
         <v>100.89911693287974</v>
       </c>
-      <c r="J278" s="53">
+      <c r="J278" s="51">
         <f t="shared" si="31"/>
         <v>124.98382654320608</v>
       </c>
     </row>
-    <row r="279" spans="5:10">
-      <c r="E279" s="52">
+    <row r="279" spans="4:10">
+      <c r="D279">
+        <v>258</v>
+      </c>
+      <c r="E279" s="50">
         <f t="shared" ref="E279:E284" si="32">F279*180/PI()</f>
         <v>88.282442748091128</v>
       </c>
-      <c r="F279" s="52">
+      <c r="F279" s="50">
         <f t="shared" si="28"/>
         <v>1.540819297657581</v>
       </c>
-      <c r="G279" s="53">
+      <c r="G279" s="51">
         <f t="shared" si="27"/>
         <v>100.59945079336025</v>
       </c>
-      <c r="H279" s="53">
+      <c r="H279" s="51">
         <f t="shared" si="29"/>
         <v>119.99101445015584</v>
       </c>
-      <c r="I279" s="53">
+      <c r="I279" s="51">
         <f t="shared" si="30"/>
         <v>100.74931349170032</v>
       </c>
-      <c r="J279" s="53">
+      <c r="J279" s="51">
         <f t="shared" si="31"/>
         <v>124.9887680626948</v>
       </c>
     </row>
-    <row r="280" spans="5:10">
-      <c r="E280" s="52">
+    <row r="280" spans="4:10">
+      <c r="D280">
+        <v>259</v>
+      </c>
+      <c r="E280" s="50">
         <f t="shared" si="32"/>
         <v>88.625954198472797</v>
       </c>
-      <c r="F280" s="52">
+      <c r="F280" s="50">
         <f t="shared" si="28"/>
         <v>1.5468147034850424</v>
       </c>
-      <c r="G280" s="53">
+      <c r="G280" s="51">
         <f t="shared" ref="G280:G284" si="33">100+$E$15*COS(F280)</f>
         <v>100.47958649328781</v>
       </c>
-      <c r="H280" s="53">
+      <c r="H280" s="51">
         <f t="shared" si="29"/>
         <v>119.99424909306313</v>
       </c>
-      <c r="I280" s="53">
+      <c r="I280" s="51">
         <f t="shared" si="30"/>
         <v>100.59948311660976</v>
       </c>
-      <c r="J280" s="53">
+      <c r="J280" s="51">
         <f t="shared" si="31"/>
         <v>124.99281136632891</v>
       </c>
     </row>
-    <row r="281" spans="5:10">
-      <c r="E281" s="52">
+    <row r="281" spans="4:10">
+      <c r="D281">
+        <v>260</v>
+      </c>
+      <c r="E281" s="50">
         <f t="shared" si="32"/>
         <v>88.969465648854467</v>
       </c>
-      <c r="F281" s="52">
+      <c r="F281" s="50">
         <f t="shared" si="28"/>
         <v>1.5528101093125037</v>
       </c>
-      <c r="G281" s="53">
+      <c r="G281" s="51">
         <f t="shared" si="33"/>
         <v>100.35970495458275</v>
       </c>
-      <c r="H281" s="53">
+      <c r="H281" s="51">
         <f t="shared" si="29"/>
         <v>119.99676504701819</v>
       </c>
-      <c r="I281" s="53">
+      <c r="I281" s="51">
         <f t="shared" si="30"/>
         <v>100.44963119322844</v>
       </c>
-      <c r="J281" s="53">
+      <c r="J281" s="51">
         <f t="shared" si="31"/>
         <v>124.99595630877275</v>
       </c>
     </row>
-    <row r="282" spans="5:10">
-      <c r="E282" s="52">
+    <row r="282" spans="4:10">
+      <c r="D282">
+        <v>261</v>
+      </c>
+      <c r="E282" s="50">
         <f t="shared" si="32"/>
         <v>89.31297709923615</v>
       </c>
-      <c r="F282" s="52">
+      <c r="F282" s="50">
         <f t="shared" ref="F282:F284" si="34">F281+$F$19*2</f>
         <v>1.5588055151399651</v>
       </c>
-      <c r="G282" s="53">
+      <c r="G282" s="51">
         <f t="shared" si="33"/>
         <v>100.23981048636104</v>
       </c>
-      <c r="H282" s="53">
+      <c r="H282" s="51">
         <f t="shared" ref="H282:H284" si="35">100+$E$15*SIN(F282)</f>
         <v>119.99856222158562</v>
       </c>
-      <c r="I282" s="53">
+      <c r="I282" s="51">
         <f t="shared" ref="I282:I284" si="36">100+$E$14*COS(F282)</f>
         <v>100.29976310795129</v>
       </c>
-      <c r="J282" s="53">
+      <c r="J282" s="51">
         <f t="shared" ref="J282:J284" si="37">100+$E$14*SIN(F282)</f>
         <v>124.99820277698201</v>
       </c>
     </row>
-    <row r="283" spans="5:10">
-      <c r="E283" s="52">
+    <row r="283" spans="4:10">
+      <c r="D283">
+        <v>262</v>
+      </c>
+      <c r="E283" s="50">
         <f t="shared" si="32"/>
         <v>89.656488549617833</v>
       </c>
-      <c r="F283" s="52">
+      <c r="F283" s="50">
         <f t="shared" si="34"/>
         <v>1.5648009209674265</v>
       </c>
-      <c r="G283" s="53">
+      <c r="G283" s="51">
         <f t="shared" si="33"/>
         <v>100.11990739820332</v>
       </c>
-      <c r="H283" s="53">
+      <c r="H283" s="51">
         <f t="shared" si="35"/>
         <v>119.99964055216634</v>
       </c>
-      <c r="I283" s="53">
+      <c r="I283" s="51">
         <f t="shared" si="36"/>
         <v>100.14988424775416</v>
       </c>
-      <c r="J283" s="53">
+      <c r="J283" s="51">
         <f t="shared" si="37"/>
         <v>124.99955069020791</v>
       </c>
     </row>
-    <row r="284" spans="5:10">
-      <c r="E284" s="52">
+    <row r="284" spans="4:10">
+      <c r="E284" s="50">
         <f t="shared" si="32"/>
         <v>89.999999999999503</v>
       </c>
-      <c r="F284" s="52">
+      <c r="F284" s="50">
         <f t="shared" si="34"/>
         <v>1.5707963267948879</v>
       </c>
-      <c r="G284" s="54">
+      <c r="G284" s="53">
         <f t="shared" si="33"/>
         <v>100.00000000000017</v>
       </c>
-      <c r="H284" s="54">
+      <c r="H284" s="53">
         <f t="shared" si="35"/>
         <v>120</v>
       </c>
-      <c r="I284" s="54">
+      <c r="I284" s="53">
         <f t="shared" si="36"/>
         <v>100.00000000000021</v>
       </c>
-      <c r="J284" s="54">
+      <c r="J284" s="53">
         <f t="shared" si="37"/>
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="5:10">
+    <row r="285" spans="4:10">
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -32270,7 +33054,7 @@
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="5:10">
+    <row r="286" spans="4:10">
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -32278,7 +33062,7 @@
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="5:10">
+    <row r="287" spans="4:10">
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -32286,7 +33070,7 @@
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="5:10">
+    <row r="288" spans="4:10">
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -32488,6 +33272,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32496,7 +33281,7 @@
   <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32511,14 +33296,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15">
-      <c r="B4" s="55">
+      <c r="B4" s="52">
         <v>40000000</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="52">
         <f>B4/4</f>
         <v>10000000</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="52">
         <f>B4</f>
         <v>40000000</v>
       </c>
@@ -32530,7 +33315,7 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="52">
         <f t="shared" ref="J5:J10" si="0">J$4/$B5</f>
         <v>20000000</v>
       </c>
@@ -32542,7 +33327,7 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="52">
         <f t="shared" si="0"/>
         <v>13333333.333333334</v>
       </c>
@@ -32554,15 +33339,15 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="52">
         <f>J$13/$B7</f>
         <v>625000</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <f>E$4/$B7</f>
         <v>2500000</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="52">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
@@ -32574,7 +33359,7 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="52">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
@@ -32586,7 +33371,7 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="52">
         <f t="shared" si="0"/>
         <v>6666666.666666667</v>
       </c>
@@ -32604,7 +33389,7 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="52">
         <f t="shared" si="0"/>
         <v>5714285.7142857146</v>
       </c>
@@ -32622,19 +33407,19 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="52">
         <f>J$13/$B11</f>
         <v>312500</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <f>E$4/$B11</f>
         <v>1250000</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="52">
         <f>J$4/$B11</f>
         <v>5000000</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="52">
         <f>E$4/$B5</f>
         <v>5000000</v>
       </c>
@@ -32649,7 +33434,7 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="J12" s="55">
+      <c r="J12" s="52">
         <f>E$4/$B6</f>
         <v>3333333.3333333335</v>
       </c>
@@ -32664,7 +33449,7 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="J13" s="55">
+      <c r="J13" s="52">
         <f>B4/16</f>
         <v>2500000</v>
       </c>
@@ -32681,9 +33466,9 @@
     <row r="14" spans="2:15" ht="15.75" thickBot="1">
       <c r="F14">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="55">
+        <v>2</v>
+      </c>
+      <c r="J14" s="52">
         <f>E$4/$B8</f>
         <v>2000000</v>
       </c>
@@ -32702,12 +33487,12 @@
         <v>40000000</v>
       </c>
       <c r="C15">
-        <f>FLOOR(B15/B17,1)+1</f>
-        <v>14</v>
+        <f>CEILING(B15/B17,1)</f>
+        <v>10</v>
       </c>
       <c r="D15">
         <f>C15/64</f>
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="E15">
         <f>FLOOR(D15,1)</f>
@@ -32715,7 +33500,7 @@
       </c>
       <c r="F15">
         <f>$F$14/1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),1,IF(AND((E17&gt;=1),(E17&lt;=8)),4,IF(AND((E16&gt;=1),(E16&lt;=8)),16,IF(AND((E15&gt;=1),(E15&lt;=8)),64,0))))</f>
@@ -32723,9 +33508,9 @@
       </c>
       <c r="H15">
         <f>B15/(G15*F14)</f>
-        <v>3333333.3333333335</v>
-      </c>
-      <c r="J15" s="55">
+        <v>5000000</v>
+      </c>
+      <c r="J15" s="52">
         <f>E$4/$B9</f>
         <v>1666666.6666666667</v>
       </c>
@@ -32742,7 +33527,7 @@
     <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="D16">
         <f>C15/16</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E16">
         <f>FLOOR(D16,1)</f>
@@ -32750,13 +33535,13 @@
       </c>
       <c r="F16">
         <f>$F$14/2</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <f>IF((F22&gt;=1),8,IF((F21&gt;=1),7,IF((F20&gt;=1),6,IF((F19&gt;=1),5,IF((F18&gt;=1),4,IF((F17&gt;=1),3,IF((F16&gt;=1),2,1)))))))</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="55">
+        <v>2</v>
+      </c>
+      <c r="J16" s="52">
         <f>E$4/$B10</f>
         <v>1428571.4285714286</v>
       </c>
@@ -32772,21 +33557,21 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="D17">
         <f>C15/4</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E17">
         <f>FLOOR(D17,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f>$F$14/3</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J17" s="52">
         <f>J$13/$B5</f>
         <v>1250000</v>
       </c>
@@ -32797,17 +33582,17 @@
     <row r="18" spans="2:11">
       <c r="D18">
         <f>C15/1</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <f>FLOOR(D18,1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <f>$F$14/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="52">
         <f>J$13/$B6</f>
         <v>833333.33333333337</v>
       </c>
@@ -32818,9 +33603,9 @@
     <row r="19" spans="2:11">
       <c r="F19">
         <f>$F$14/5</f>
-        <v>0.6</v>
-      </c>
-      <c r="J19" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="52">
         <f>B4/64</f>
         <v>625000</v>
       </c>
@@ -32831,9 +33616,9 @@
     <row r="20" spans="2:11">
       <c r="F20">
         <f>$F$14/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="55">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J20" s="52">
         <f>J$13/$B8</f>
         <v>500000</v>
       </c>
@@ -32844,9 +33629,9 @@
     <row r="21" spans="2:11">
       <c r="F21">
         <f>$F$14/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="J21" s="55">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J21" s="52">
         <f>J$13/$B9</f>
         <v>416666.66666666669</v>
       </c>
@@ -32857,9 +33642,9 @@
     <row r="22" spans="2:11">
       <c r="F22">
         <f>$F$14/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="J22" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="52">
         <f>J$13/$B10</f>
         <v>357142.85714285716</v>
       </c>
@@ -32874,7 +33659,7 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="52">
         <f t="shared" ref="J23:J29" si="1">J$19/$B5</f>
         <v>312500</v>
       </c>
@@ -32889,7 +33674,7 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="52">
         <f t="shared" si="1"/>
         <v>208333.33333333334</v>
       </c>
@@ -32904,7 +33689,7 @@
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="52">
         <f t="shared" si="1"/>
         <v>156250</v>
       </c>
@@ -32919,7 +33704,7 @@
       <c r="C26">
         <v>7</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="52">
         <f t="shared" si="1"/>
         <v>125000</v>
       </c>
@@ -32928,7 +33713,7 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="J27" s="55">
+      <c r="J27" s="52">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
@@ -32937,7 +33722,7 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="J28" s="55">
+      <c r="J28" s="52">
         <f t="shared" si="1"/>
         <v>89285.71428571429</v>
       </c>
@@ -32946,7 +33731,7 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="J29" s="55">
+      <c r="J29" s="52">
         <f t="shared" si="1"/>
         <v>78125</v>
       </c>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
     <sheet name="Лист1 (2)" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>дни</t>
   </si>
@@ -484,6 +485,42 @@
   </si>
   <si>
     <t>1:8</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sec10</t>
+  </si>
+  <si>
+    <t>min10</t>
+  </si>
+  <si>
+    <t>hour10</t>
+  </si>
+  <si>
+    <t>date10</t>
+  </si>
+  <si>
+    <t>year10</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>month10</t>
   </si>
 </sst>
 </file>
@@ -4041,11 +4078,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77671040"/>
-        <c:axId val="77676928"/>
+        <c:axId val="70221184"/>
+        <c:axId val="70227840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77671040"/>
+        <c:axId val="70221184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77676928"/>
+        <c:crossAx val="70227840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4108,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77676928"/>
+        <c:axId val="70227840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,7 +4116,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77671040"/>
+        <c:crossAx val="70221184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4091,7 +4128,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7101,11 +7138,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77717888"/>
-        <c:axId val="77719424"/>
+        <c:axId val="91871104"/>
+        <c:axId val="91872640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77717888"/>
+        <c:axId val="91871104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,7 +7159,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77719424"/>
+        <c:crossAx val="91872640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7130,7 +7167,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77719424"/>
+        <c:axId val="91872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,7 +7175,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77717888"/>
+        <c:crossAx val="91871104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7150,7 +7187,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10160,11 +10197,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82720256"/>
-        <c:axId val="82721792"/>
+        <c:axId val="92298240"/>
+        <c:axId val="92300032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82720256"/>
+        <c:axId val="92298240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10181,7 +10218,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82721792"/>
+        <c:crossAx val="92300032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10189,7 +10226,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82721792"/>
+        <c:axId val="92300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10197,7 +10234,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82720256"/>
+        <c:crossAx val="92298240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10209,7 +10246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10330,25 +10367,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88541824"/>
-        <c:axId val="88543616"/>
+        <c:axId val="95314304"/>
+        <c:axId val="95315840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88541824"/>
+        <c:axId val="95314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88543616"/>
+        <c:crossAx val="95315840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88543616"/>
+        <c:axId val="95315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10356,7 +10393,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88541824"/>
+        <c:crossAx val="95314304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10368,7 +10405,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10456,11 +10493,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88584960"/>
-        <c:axId val="88586496"/>
+        <c:axId val="95328512"/>
+        <c:axId val="95350784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88584960"/>
+        <c:axId val="95328512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10512,14 +10549,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88586496"/>
+        <c:crossAx val="95350784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88586496"/>
+        <c:axId val="95350784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10555,7 +10592,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88584960"/>
+        <c:crossAx val="95328512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10574,7 +10611,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24969,7 +25006,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40746.702408564815</v>
+        <v>40750.670837962964</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -24985,7 +25022,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40746.702408564815</v>
+        <v>40750.670837962964</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25034,7 +25071,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25066,7 +25103,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25082,7 +25119,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25099,7 +25136,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455766</v>
+        <v>2455770</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25133,7 +25170,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455766.2024074076</v>
+        <v>2455770.1708333334</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -33280,7 +33317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -33743,4 +33780,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C8:Q48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:17">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12">
+        <f>C11*10*365*24*3600</f>
+        <v>1261440000</v>
+      </c>
+      <c r="D12">
+        <f>D11*365*24*3600</f>
+        <v>31536000</v>
+      </c>
+      <c r="E12">
+        <f>E11*10*30*24*3600</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>(F11-1)*30*24*3600</f>
+        <v>15552000</v>
+      </c>
+      <c r="G12">
+        <f>G11*10*24*3600</f>
+        <v>1728000</v>
+      </c>
+      <c r="H12">
+        <f>H11*24*3600</f>
+        <v>518400</v>
+      </c>
+      <c r="I12">
+        <f>I11*10*60*60</f>
+        <v>36000</v>
+      </c>
+      <c r="J12">
+        <f>J11*60*60</f>
+        <v>18000</v>
+      </c>
+      <c r="K12">
+        <f>K11*10*60</f>
+        <v>2400</v>
+      </c>
+      <c r="L12">
+        <f>L11*60</f>
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <f>M11*10</f>
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <f>N11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="D13">
+        <f>D12+C12</f>
+        <v>1292976000</v>
+      </c>
+      <c r="F13">
+        <f>F12+E12</f>
+        <v>15552000</v>
+      </c>
+      <c r="H13">
+        <f>H12+G12</f>
+        <v>2246400</v>
+      </c>
+      <c r="J13">
+        <f>J12+I12</f>
+        <v>54000</v>
+      </c>
+      <c r="L13">
+        <f>L12+K12</f>
+        <v>2460</v>
+      </c>
+      <c r="N13">
+        <f>N12+M12</f>
+        <v>59</v>
+      </c>
+      <c r="O13" s="3">
+        <f>SUM(C13:N13)</f>
+        <v>1310830919</v>
+      </c>
+      <c r="P13" s="7">
+        <f>O13*128</f>
+        <v>167786357632</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>O13*32768</f>
+        <v>42953307553792</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="O14" t="str">
+        <f>DEC2HEX(O13)</f>
+        <v>4E21B147</v>
+      </c>
+      <c r="P14" t="str">
+        <f>DEC2HEX(P13)</f>
+        <v>2710D8A380</v>
+      </c>
+      <c r="Q14" t="e">
+        <f>DEC2HEX(Q13)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>1970</v>
+      </c>
+      <c r="D17">
+        <f>IF(MOD(C17,4)=0,366,365)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>1971</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D47" si="0">IF(MOD(C18,4)=0,366,365)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>1972</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <v>1973</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>1974</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <v>1975</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>1976</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <v>1977</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>1978</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>1979</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>1980</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <v>1981</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <v>1982</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <v>1983</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <v>1984</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <v>1985</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <v>1986</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <v>1987</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35">
+        <v>1988</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36">
+        <v>1989</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37">
+        <v>1990</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38">
+        <v>1991</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39">
+        <v>1992</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40">
+        <v>1993</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41">
+        <v>1994</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42">
+        <v>1995</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43">
+        <v>1996</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44">
+        <v>1997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45">
+        <v>1998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46">
+        <v>1999</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47">
+        <v>2000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48">
+        <f>SUM(D17:D47)</f>
+        <v>11323</v>
+      </c>
+      <c r="E48">
+        <f>D48*24*3600</f>
+        <v>978307200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Лист7" sheetId="9" r:id="rId8"/>
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t>дни</t>
   </si>
@@ -527,19 +527,16 @@
     <t>переполнений таймера за шаг</t>
   </si>
   <si>
-    <t>время в количестве тактов от 0 часов</t>
+    <t>Масса телескопа</t>
   </si>
   <si>
-    <t>количество шагов в 360˚</t>
+    <t>Тяга двигателя</t>
   </si>
   <si>
-    <t>часов в 360˚</t>
+    <t>частота Гц</t>
   </si>
   <si>
-    <t>градусов в 1 часе</t>
-  </si>
-  <si>
-    <t>период шага (часовое ведение)</t>
+    <t>тяга двигателя Нм</t>
   </si>
 </sst>
 </file>
@@ -998,15 +995,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,9 +1098,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4103,11 +4098,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72034944"/>
-        <c:axId val="72036736"/>
+        <c:axId val="85070208"/>
+        <c:axId val="85071744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72034944"/>
+        <c:axId val="85070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4120,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72036736"/>
+        <c:crossAx val="85071744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4133,7 +4128,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72036736"/>
+        <c:axId val="85071744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,20 +4136,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72034944"/>
+        <c:crossAx val="85070208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4164,9 +4158,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7166,11 +7158,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72085888"/>
-        <c:axId val="72087424"/>
+        <c:axId val="85112704"/>
+        <c:axId val="85114240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72085888"/>
+        <c:axId val="85112704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7187,7 +7179,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72087424"/>
+        <c:crossAx val="85114240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7195,7 +7187,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72087424"/>
+        <c:axId val="85114240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,20 +7195,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72085888"/>
+        <c:crossAx val="85112704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7226,9 +7217,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10228,11 +10217,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72365568"/>
-        <c:axId val="72367104"/>
+        <c:axId val="87899136"/>
+        <c:axId val="87900928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72365568"/>
+        <c:axId val="87899136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10249,7 +10238,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72367104"/>
+        <c:crossAx val="87900928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10257,7 +10246,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72367104"/>
+        <c:axId val="87900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10265,20 +10254,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72365568"/>
+        <c:crossAx val="87899136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10399,25 +10387,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73599616"/>
-        <c:axId val="73609600"/>
+        <c:axId val="92262784"/>
+        <c:axId val="92264320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73599616"/>
+        <c:axId val="92262784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73609600"/>
+        <c:crossAx val="92264320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73609600"/>
+        <c:axId val="92264320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10425,20 +10413,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73599616"/>
+        <c:crossAx val="92262784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10526,11 +10513,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73650944"/>
-        <c:axId val="73652480"/>
+        <c:axId val="92547328"/>
+        <c:axId val="92565504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73650944"/>
+        <c:axId val="92547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10582,14 +10569,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73652480"/>
+        <c:crossAx val="92565504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73652480"/>
+        <c:axId val="92565504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10625,7 +10612,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73650944"/>
+        <c:crossAx val="92547328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10639,13 +10626,162 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>тяга двигателя Нм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист8!$J$5:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист8!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="51243264"/>
+        <c:axId val="50204672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="51243264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln cap="rnd"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50204672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50204672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51243264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10803,6 +10939,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11110,14 +11281,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11178,7 +11349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -11218,12 +11389,12 @@
     <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="5"/>
@@ -12523,7 +12694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -12541,28 +12712,28 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="56">
+      <c r="D1" s="54">
         <v>40</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <v>0</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>0</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="54"/>
       <c r="G3" s="1">
         <f>Лист2!I7</f>
         <v>2.4999999999999999E-8</v>
@@ -12572,10 +12743,10 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>3</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <v>3</v>
       </c>
     </row>
@@ -12589,10 +12760,10 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>10</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="54" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="1">
@@ -25632,7 +25803,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40760.809991087961</v>
+        <v>40802.049099305557</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -25648,7 +25819,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40760.809991087961</v>
+        <v>40802.049099305557</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25681,7 +25852,7 @@
       </c>
       <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
@@ -25697,7 +25868,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25713,7 +25884,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25729,7 +25900,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25745,7 +25916,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25762,7 +25933,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455780</v>
+        <v>2455821</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25796,7 +25967,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455780.3099884256</v>
+        <v>2455820.5490972223</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -34909,65 +35080,109 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:E13"/>
+  <dimension ref="C4:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" ht="18.75">
+    <row r="4" spans="3:10">
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="I5">
+        <v>0.67</v>
+      </c>
+      <c r="J5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="18.75">
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" ht="15" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="I7">
+        <v>0.53</v>
+      </c>
+      <c r="J7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="I8">
+        <v>0.46</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15" customHeight="1">
+      <c r="C9" s="55" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="3:5">
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="D10">
-        <f>16*200*360</f>
-        <v>1152000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12">
-        <f>360/D11</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="18">
-        <f>24*60*60/D10</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="I10">
+        <v>0.33</v>
+      </c>
+      <c r="J10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="I11">
+        <v>0.22</v>
+      </c>
+      <c r="J11">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="5"/>
+      <c r="D13" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="8"/>
@@ -17,7 +17,7 @@
     <sheet name="Лист7" sheetId="9" r:id="rId8"/>
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>дни</t>
   </si>
@@ -530,13 +530,43 @@
     <t>Масса телескопа</t>
   </si>
   <si>
-    <t>Тяга двигателя</t>
-  </si>
-  <si>
     <t>частота Гц</t>
   </si>
   <si>
     <t>тяга двигателя Нм</t>
+  </si>
+  <si>
+    <t>a=2M/(m*R*R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тяга </t>
+  </si>
+  <si>
+    <t>через редуктор</t>
+  </si>
+  <si>
+    <t>ускорение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m = </t>
+  </si>
+  <si>
+    <t>R =</t>
+  </si>
+  <si>
+    <t>в градусах в сек</t>
+  </si>
+  <si>
+    <t>ускорение рад/сек*сек</t>
+  </si>
+  <si>
+    <t>скорость двигателя об/сек</t>
+  </si>
+  <si>
+    <t>скорость об/сек</t>
+  </si>
+  <si>
+    <t>скорость град/сек</t>
   </si>
 </sst>
 </file>
@@ -4098,11 +4128,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85070208"/>
-        <c:axId val="85071744"/>
+        <c:axId val="82660352"/>
+        <c:axId val="82666240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85070208"/>
+        <c:axId val="82660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4150,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85071744"/>
+        <c:crossAx val="82666240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4128,7 +4158,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85071744"/>
+        <c:axId val="82666240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +4166,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85070208"/>
+        <c:crossAx val="82660352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4148,7 +4178,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7158,11 +7188,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85112704"/>
-        <c:axId val="85114240"/>
+        <c:axId val="46994176"/>
+        <c:axId val="46995712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85112704"/>
+        <c:axId val="46994176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7209,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85114240"/>
+        <c:crossAx val="46995712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7187,7 +7217,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85114240"/>
+        <c:axId val="46995712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7195,7 +7225,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85112704"/>
+        <c:crossAx val="46994176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7207,7 +7237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10217,11 +10247,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87899136"/>
-        <c:axId val="87900928"/>
+        <c:axId val="47011712"/>
+        <c:axId val="47013248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87899136"/>
+        <c:axId val="47011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10238,7 +10268,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87900928"/>
+        <c:crossAx val="47013248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10246,7 +10276,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87900928"/>
+        <c:axId val="47013248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10254,7 +10284,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87899136"/>
+        <c:crossAx val="47011712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10266,7 +10296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10387,25 +10417,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92262784"/>
-        <c:axId val="92264320"/>
+        <c:axId val="47205376"/>
+        <c:axId val="47207168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92262784"/>
+        <c:axId val="47205376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92264320"/>
+        <c:crossAx val="47207168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92264320"/>
+        <c:axId val="47207168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10443,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92262784"/>
+        <c:crossAx val="47205376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10425,7 +10455,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10513,11 +10543,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92547328"/>
-        <c:axId val="92565504"/>
+        <c:axId val="47248512"/>
+        <c:axId val="47250048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92547328"/>
+        <c:axId val="47248512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10569,14 +10599,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92565504"/>
+        <c:crossAx val="47250048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92565504"/>
+        <c:axId val="47250048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10612,7 +10642,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92547328"/>
+        <c:crossAx val="47248512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10631,7 +10661,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10665,7 +10695,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист8!$J$5:$J$12</c:f>
+              <c:f>Лист8!$J$7:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10698,7 +10728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист8!$I$5:$I$12</c:f>
+              <c:f>Лист8!$I$7:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10731,11 +10761,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51243264"/>
-        <c:axId val="50204672"/>
+        <c:axId val="47307008"/>
+        <c:axId val="47308800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51243264"/>
+        <c:axId val="47307008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10757,14 +10787,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50204672"/>
+        <c:crossAx val="47308800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50204672"/>
+        <c:axId val="47308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,7 +10802,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51243264"/>
+        <c:crossAx val="47307008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10781,7 +10811,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10951,16 +10981,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25803,7 +25833,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40802.049099305557</v>
+        <v>40805.420043518519</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -25819,7 +25849,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40802.049099305557</v>
+        <v>40805.420043518519</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25868,7 +25898,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25884,7 +25914,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25900,7 +25930,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25916,7 +25946,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25933,7 +25963,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455821</v>
+        <v>2455824</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -25967,7 +25997,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455820.5490972223</v>
+        <v>2455823.920046296</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -35080,108 +35110,413 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:J13"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10">
+    <row r="1" spans="2:11">
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="C2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.75">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">F5*180/PI()</f>
+        <v>43.450663649313945</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="1">G5*360</f>
+        <v>4.1666666666666562E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="2">2*H5/($F$2*$F$1*$F$1)</f>
+        <v>0.75835714285714317</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="3">K5/360</f>
+        <v>1.1574074074074045E-5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="4">360*I5</f>
+        <v>303.34285714285727</v>
+      </c>
       <c r="I5">
+        <v>0.84261904761904804</v>
+      </c>
+      <c r="J5">
+        <f>13.3333333333333/16</f>
+        <v>0.83333333333333126</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K6" si="5">J5/200</f>
+        <v>4.1666666666666562E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>39.429727694199393</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.6881785714285712</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>275.27142857142849</v>
+      </c>
+      <c r="I6">
+        <v>0.76464285714285696</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="D7">
+        <f>F7*180/PI()</f>
+        <v>34.549355046388648</v>
+      </c>
+      <c r="E7">
+        <f>G7*360</f>
+        <v>1.25</v>
+      </c>
+      <c r="F7">
+        <f>2*H7/($F$2*$F$1*$F$1)</f>
+        <v>0.60300000000000009</v>
+      </c>
+      <c r="G7">
+        <f>K7/360</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H7">
+        <f>360*I7</f>
+        <v>241.20000000000002</v>
+      </c>
+      <c r="I7">
         <v>0.67</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="I6">
+      <c r="K7">
+        <f>J7/200</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="D8">
+        <f t="shared" ref="D8:D14" si="6">F8*180/PI()</f>
+        <v>30.939720937064454</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E14" si="7">G8*360</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F14" si="8">2*H8/($F$2*$F$1*$F$1)</f>
+        <v>0.54</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G14" si="9">K8/360</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H14" si="10">360*I8</f>
+        <v>216</v>
+      </c>
+      <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" ht="18.75">
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
+      <c r="K8">
+        <f t="shared" ref="K8:K14" si="11">J8/200</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1">
+      <c r="D9">
+        <f t="shared" si="6"/>
+        <v>27.330086827740267</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="10"/>
+        <v>190.8</v>
+      </c>
+      <c r="I9">
         <v>0.53</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>750</v>
       </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="I8">
+      <c r="K9">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>23.72045271841608</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="10"/>
+        <v>165.6</v>
+      </c>
+      <c r="I10">
         <v>0.46</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" ht="15" customHeight="1">
-      <c r="C9" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9">
+      <c r="K10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>20.626480624709636</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="8"/>
+        <v>0.36</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="I11">
         <v>0.4</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>1250</v>
       </c>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10">
+      <c r="K11">
+        <f t="shared" si="11"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>17.016846515385453</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="10"/>
+        <v>118.80000000000001</v>
+      </c>
+      <c r="I12">
         <v>0.33</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="I11">
+      <c r="K12">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="5"/>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>11.344564343590299</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>8.75</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="10"/>
+        <v>79.2</v>
+      </c>
+      <c r="I13">
         <v>0.22</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>1750</v>
       </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="I12">
+      <c r="K13">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>5.156620156177409</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="5"/>
-      <c r="D13" s="38"/>
+      <c r="K14">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="8"/>
@@ -17,7 +17,7 @@
     <sheet name="Лист7" sheetId="9" r:id="rId8"/>
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
   <si>
     <t>дни</t>
   </si>
@@ -527,9 +527,6 @@
     <t>переполнений таймера за шаг</t>
   </si>
   <si>
-    <t>Масса телескопа</t>
-  </si>
-  <si>
     <t>частота Гц</t>
   </si>
   <si>
@@ -567,6 +564,30 @@
   </si>
   <si>
     <t>скорость град/сек</t>
+  </si>
+  <si>
+    <t>Масса</t>
+  </si>
+  <si>
+    <t>частота полушагов</t>
+  </si>
+  <si>
+    <t>по  200 нс</t>
+  </si>
+  <si>
+    <t>1 1/16 шага =</t>
+  </si>
+  <si>
+    <t>период полушагов сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в секундах дуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в минутах дуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в градусах дуги</t>
   </si>
 </sst>
 </file>
@@ -1027,13 +1048,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4128,11 +4149,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82660352"/>
-        <c:axId val="82666240"/>
+        <c:axId val="94730880"/>
+        <c:axId val="94736768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82660352"/>
+        <c:axId val="94730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4171,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82666240"/>
+        <c:crossAx val="94736768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4179,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82666240"/>
+        <c:axId val="94736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4187,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82660352"/>
+        <c:crossAx val="94730880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4178,7 +4199,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7188,11 +7209,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46994176"/>
-        <c:axId val="46995712"/>
+        <c:axId val="95048064"/>
+        <c:axId val="95049600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46994176"/>
+        <c:axId val="95048064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7209,7 +7230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46995712"/>
+        <c:crossAx val="95049600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7217,7 +7238,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46995712"/>
+        <c:axId val="95049600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7225,7 +7246,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46994176"/>
+        <c:crossAx val="95048064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7237,7 +7258,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10247,11 +10268,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47011712"/>
-        <c:axId val="47013248"/>
+        <c:axId val="95061504"/>
+        <c:axId val="95063040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47011712"/>
+        <c:axId val="95061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10268,7 +10289,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47013248"/>
+        <c:crossAx val="95063040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10276,7 +10297,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47013248"/>
+        <c:axId val="95063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10284,7 +10305,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47011712"/>
+        <c:crossAx val="95061504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10296,7 +10317,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10417,25 +10438,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47205376"/>
-        <c:axId val="47207168"/>
+        <c:axId val="95111808"/>
+        <c:axId val="103231872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47205376"/>
+        <c:axId val="95111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47207168"/>
+        <c:crossAx val="103231872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47207168"/>
+        <c:axId val="103231872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10443,7 +10464,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47205376"/>
+        <c:crossAx val="95111808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10455,7 +10476,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10543,11 +10564,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47248512"/>
-        <c:axId val="47250048"/>
+        <c:axId val="103277312"/>
+        <c:axId val="103278848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47248512"/>
+        <c:axId val="103277312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10599,14 +10620,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47250048"/>
+        <c:crossAx val="103278848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47250048"/>
+        <c:axId val="103278848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10642,7 +10663,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47248512"/>
+        <c:crossAx val="103277312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10661,7 +10682,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10761,11 +10782,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47307008"/>
-        <c:axId val="47308800"/>
+        <c:axId val="106424192"/>
+        <c:axId val="106425728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47307008"/>
+        <c:axId val="106424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10787,14 +10808,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47308800"/>
+        <c:crossAx val="106425728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47308800"/>
+        <c:axId val="106425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10802,7 +10823,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47307008"/>
+        <c:crossAx val="106424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10811,7 +10832,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11311,14 +11332,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11419,12 +11440,12 @@
     <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="5"/>
@@ -25833,7 +25854,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40805.420043518519</v>
+        <v>40805.924151157407</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -25849,7 +25870,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40805.420043518519</v>
+        <v>40805.924151157407</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25914,7 +25935,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25930,7 +25951,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25946,7 +25967,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25997,7 +26018,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455823.920046296</v>
+        <v>2455824.4241550923</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -35110,90 +35131,117 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="C2" s="55" t="s">
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2">
+        <f>0.0000002</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="G3" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="2:11" ht="18.75">
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <f>B5/$A$2</f>
+        <v>375000.00000000099</v>
+      </c>
+      <c r="B5" s="1">
+        <f>1/C5</f>
+        <v>7.5000000000000192E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>G5*360*200*16</f>
+        <v>13.3333333333333</v>
+      </c>
       <c r="D5">
         <f t="shared" ref="D5:D6" si="0">F5*180/PI()</f>
-        <v>43.450663649313945</v>
+        <v>17.380265459725578</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E6" si="1">G5*360</f>
@@ -35201,9 +35249,9 @@
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F6" si="2">2*H5/($F$2*$F$1*$F$1)</f>
-        <v>0.75835714285714317</v>
-      </c>
-      <c r="G5">
+        <v>0.30334285714285725</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G6" si="3">K5/360</f>
         <v>1.1574074074074045E-5</v>
       </c>
@@ -35223,10 +35271,22 @@
         <v>4.1666666666666562E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <f t="shared" ref="A6:A14" si="6">B6/$A$2</f>
+        <v>3125</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B14" si="7">1/C6</f>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C14" si="8">G6*360*200*16</f>
+        <v>1600</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>39.429727694199393</v>
+        <v>15.771891077679758</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -35234,9 +35294,9 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.6881785714285712</v>
-      </c>
-      <c r="G6">
+        <v>0.2752714285714285</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>1.3888888888888889E-3</v>
       </c>
@@ -35255,10 +35315,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <f t="shared" si="6"/>
+        <v>1250</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
       <c r="D7">
         <f>F7*180/PI()</f>
-        <v>34.549355046388648</v>
+        <v>13.819742018555457</v>
       </c>
       <c r="E7">
         <f>G7*360</f>
@@ -35266,9 +35338,9 @@
       </c>
       <c r="F7">
         <f>2*H7/($F$2*$F$1*$F$1)</f>
-        <v>0.60300000000000009</v>
-      </c>
-      <c r="G7">
+        <v>0.24120000000000003</v>
+      </c>
+      <c r="G7" s="1">
         <f>K7/360</f>
         <v>3.472222222222222E-3</v>
       </c>
@@ -35287,25 +35359,37 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.25E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
       <c r="D8">
-        <f t="shared" ref="D8:D14" si="6">F8*180/PI()</f>
-        <v>30.939720937064454</v>
+        <f t="shared" ref="D8:D14" si="9">F8*180/PI()</f>
+        <v>12.375888374825783</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E14" si="7">G8*360</f>
+        <f t="shared" ref="E8:E14" si="10">G8*360</f>
         <v>2.5</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F14" si="8">2*H8/($F$2*$F$1*$F$1)</f>
-        <v>0.54</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G14" si="9">K8/360</f>
+        <f t="shared" ref="F8:F14" si="11">2*H8/($F$2*$F$1*$F$1)</f>
+        <v>0.216</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G14" si="12">K8/360</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H14" si="10">360*I8</f>
+        <f t="shared" ref="H8:H14" si="13">360*I8</f>
         <v>216</v>
       </c>
       <c r="I8">
@@ -35315,29 +35399,41 @@
         <v>500</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K14" si="11">J8/200</f>
+        <f t="shared" ref="K8:K14" si="14">J8/200</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9">
+        <f t="shared" si="6"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="8"/>
+        <v>12000</v>
+      </c>
       <c r="D9">
-        <f t="shared" si="6"/>
-        <v>27.330086827740267</v>
+        <f t="shared" si="9"/>
+        <v>10.932034731096108</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.75</v>
       </c>
       <c r="F9">
-        <f t="shared" si="8"/>
-        <v>0.47700000000000004</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>0.19080000000000003</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="12"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>190.8</v>
       </c>
       <c r="I9">
@@ -35347,29 +35443,41 @@
         <v>750</v>
       </c>
       <c r="K9">
+        <f t="shared" si="14"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <f t="shared" si="6"/>
+        <v>312.5</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="8"/>
+        <v>16000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>9.4881810873664332</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="11"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="D10">
-        <f t="shared" si="6"/>
-        <v>23.72045271841608</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="8"/>
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="9"/>
+        <v>0.1656</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="12"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>165.6</v>
       </c>
       <c r="I10">
@@ -35379,29 +35487,41 @@
         <v>1000</v>
       </c>
       <c r="K10">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <f t="shared" si="6"/>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>8.2505922498838533</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="D11">
-        <f t="shared" si="6"/>
-        <v>20.626480624709636</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="7"/>
-        <v>6.25</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="8"/>
-        <v>0.36</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="9"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="12"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
       <c r="I11">
@@ -35411,29 +35531,41 @@
         <v>1250</v>
       </c>
       <c r="K11">
+        <f t="shared" si="14"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f t="shared" si="6"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666665E-5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="8"/>
+        <v>24000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="9"/>
+        <v>6.8067386061541812</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="11"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="D12">
-        <f t="shared" si="6"/>
-        <v>17.016846515385453</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="7"/>
-        <v>7.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="8"/>
-        <v>0.29700000000000004</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="9"/>
+        <v>0.11880000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="12"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>118.80000000000001</v>
       </c>
       <c r="I12">
@@ -35443,30 +35575,41 @@
         <v>1500</v>
       </c>
       <c r="K12">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <f t="shared" si="6"/>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285717E-5</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="8"/>
+        <v>28000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="9"/>
+        <v>4.5378257374361208</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="10"/>
+        <v>8.75</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="11"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="C13" s="5"/>
-      <c r="D13">
-        <f t="shared" si="6"/>
-        <v>11.344564343590299</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="7"/>
-        <v>8.75</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="8"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="9"/>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="12"/>
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>79.2</v>
       </c>
       <c r="I13">
@@ -35476,29 +35619,41 @@
         <v>1750</v>
       </c>
       <c r="K13">
+        <f t="shared" si="14"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <f t="shared" si="6"/>
+        <v>156.25</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1250000000000001E-5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="8"/>
+        <v>32000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="9"/>
+        <v>2.0626480624709633</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="11"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="D14">
-        <f t="shared" si="6"/>
-        <v>5.156620156177409</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="8"/>
-        <v>0.09</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="12"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="I14">
@@ -35508,8 +35663,36 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1">
+        <f>1/(200*16)</f>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17*60</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <f>C17*60</f>
+        <v>1.125</v>
       </c>
     </row>
   </sheetData>
@@ -35518,6 +35701,7 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1047,14 +1047,14 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4149,11 +4149,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94730880"/>
-        <c:axId val="94736768"/>
+        <c:axId val="73146752"/>
+        <c:axId val="73148288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94730880"/>
+        <c:axId val="73146752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4171,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94736768"/>
+        <c:crossAx val="73148288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4179,7 +4179,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94736768"/>
+        <c:axId val="73148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4187,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94730880"/>
+        <c:crossAx val="73146752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4199,7 +4199,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7209,11 +7209,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95048064"/>
-        <c:axId val="95049600"/>
+        <c:axId val="73193344"/>
+        <c:axId val="73194880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95048064"/>
+        <c:axId val="73193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95049600"/>
+        <c:crossAx val="73194880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7238,7 +7238,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95049600"/>
+        <c:axId val="73194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7246,7 +7246,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95048064"/>
+        <c:crossAx val="73193344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7258,7 +7258,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10268,11 +10268,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95061504"/>
-        <c:axId val="95063040"/>
+        <c:axId val="74529792"/>
+        <c:axId val="74531584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95061504"/>
+        <c:axId val="74529792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10289,7 +10289,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95063040"/>
+        <c:crossAx val="74531584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10297,7 +10297,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95063040"/>
+        <c:axId val="74531584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10305,7 +10305,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95061504"/>
+        <c:crossAx val="74529792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10317,7 +10317,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10438,25 +10438,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95111808"/>
-        <c:axId val="103231872"/>
+        <c:axId val="75088256"/>
+        <c:axId val="75089792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95111808"/>
+        <c:axId val="75088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103231872"/>
+        <c:crossAx val="75089792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103231872"/>
+        <c:axId val="75089792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10464,7 +10464,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95111808"/>
+        <c:crossAx val="75088256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10476,7 +10476,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10564,11 +10564,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103277312"/>
-        <c:axId val="103278848"/>
+        <c:axId val="76638464"/>
+        <c:axId val="76648448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103277312"/>
+        <c:axId val="76638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,14 +10620,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103278848"/>
+        <c:crossAx val="76648448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103278848"/>
+        <c:axId val="76648448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10663,7 +10663,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103277312"/>
+        <c:crossAx val="76638464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10682,7 +10682,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10782,11 +10782,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106424192"/>
-        <c:axId val="106425728"/>
+        <c:axId val="77118848"/>
+        <c:axId val="77120640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106424192"/>
+        <c:axId val="77118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10808,14 +10808,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106425728"/>
+        <c:crossAx val="77120640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106425728"/>
+        <c:axId val="77120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10823,7 +10823,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106424192"/>
+        <c:crossAx val="77118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10832,7 +10832,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11332,14 +11332,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -11440,12 +11440,12 @@
     <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="5"/>
@@ -25854,7 +25854,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40805.924151157407</v>
+        <v>40806.953738657408</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -25870,7 +25870,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40805.924151157407</v>
+        <v>40806.953738657408</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25967,7 +25967,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25984,7 +25984,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455824</v>
+        <v>2455825</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -26018,7 +26018,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455824.4241550923</v>
+        <v>2455825.4537384259</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -35168,7 +35168,7 @@
         <f>0.0000002</f>
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>117</v>
       </c>
       <c r="E2" t="s">
@@ -35182,14 +35182,14 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Лист1 (2)" sheetId="8" r:id="rId7"/>
     <sheet name="Лист7" sheetId="9" r:id="rId8"/>
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
+    <sheet name="Лист9" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1149,7 +1150,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4149,11 +4152,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73146752"/>
-        <c:axId val="73148288"/>
+        <c:axId val="68100480"/>
+        <c:axId val="68102016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73146752"/>
+        <c:axId val="68100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4174,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73148288"/>
+        <c:crossAx val="68102016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4179,7 +4182,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73148288"/>
+        <c:axId val="68102016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,19 +4190,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73146752"/>
+        <c:crossAx val="68100480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4209,7 +4213,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7209,11 +7215,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73193344"/>
-        <c:axId val="73194880"/>
+        <c:axId val="68147072"/>
+        <c:axId val="68148608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73193344"/>
+        <c:axId val="68147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7236,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73194880"/>
+        <c:crossAx val="68148608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7238,7 +7244,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73194880"/>
+        <c:axId val="68148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7246,19 +7252,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73193344"/>
+        <c:crossAx val="68147072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7268,7 +7275,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10268,11 +10277,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74529792"/>
-        <c:axId val="74531584"/>
+        <c:axId val="85416960"/>
+        <c:axId val="85418752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74529792"/>
+        <c:axId val="85416960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10289,7 +10298,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74531584"/>
+        <c:crossAx val="85418752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10297,7 +10306,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74531584"/>
+        <c:axId val="85418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10305,19 +10314,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74529792"/>
+        <c:crossAx val="85416960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10438,25 +10448,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75088256"/>
-        <c:axId val="75089792"/>
+        <c:axId val="87675264"/>
+        <c:axId val="87676800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75088256"/>
+        <c:axId val="87675264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75089792"/>
+        <c:crossAx val="87676800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75089792"/>
+        <c:axId val="87676800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10464,19 +10474,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75088256"/>
+        <c:crossAx val="87675264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10564,11 +10575,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76638464"/>
-        <c:axId val="76648448"/>
+        <c:axId val="87709952"/>
+        <c:axId val="87728128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76638464"/>
+        <c:axId val="87709952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,14 +10631,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76648448"/>
+        <c:crossAx val="87728128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76648448"/>
+        <c:axId val="87728128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10663,7 +10674,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76638464"/>
+        <c:crossAx val="87709952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10677,12 +10688,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10782,11 +10794,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77118848"/>
-        <c:axId val="77120640"/>
+        <c:axId val="93375872"/>
+        <c:axId val="93377664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77118848"/>
+        <c:axId val="93375872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10808,14 +10820,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77120640"/>
+        <c:crossAx val="93377664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77120640"/>
+        <c:axId val="93377664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10823,7 +10835,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77118848"/>
+        <c:crossAx val="93375872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10832,7 +10844,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11318,10 +11330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:H9"/>
+  <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11385,7 +11397,26 @@
     </row>
     <row r="7" spans="3:8" s="3" customFormat="1"/>
     <row r="9" spans="3:8">
-      <c r="D9" s="3"/>
+      <c r="C9">
+        <v>32768</v>
+      </c>
+      <c r="D9" s="3">
+        <f>1/C9</f>
+        <v>3.0517578125E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10">
+        <f>1/D10</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <f>D10/D9</f>
+        <v>2457.6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11396,12 +11427,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11479,7 +11522,7 @@
       </c>
       <c r="I7">
         <f>1/I8</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="J7">
         <f>1/J8</f>
@@ -11512,7 +11555,7 @@
       </c>
       <c r="I8" s="10">
         <f>H8/I9</f>
-        <v>40000000</v>
+        <v>5000000</v>
       </c>
       <c r="J8" s="10">
         <f>$H$8/J9</f>
@@ -11536,7 +11579,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="12">
         <v>64</v>
@@ -11566,7 +11609,7 @@
     <row r="12" spans="2:13">
       <c r="H12">
         <f>0.000001/I7</f>
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1">
@@ -11794,18 +11837,18 @@
       </c>
       <c r="D21">
         <f>D20/$I$7</f>
-        <v>3000000</v>
+        <v>375000</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>Mtact</v>
+        <v>Ktact</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>24</v>
@@ -11832,14 +11875,14 @@
       </c>
       <c r="D22">
         <f>D21/65536</f>
-        <v>45.7763671875</v>
+        <v>5.7220458984375</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ref="F22" si="4">IF(D22&lt;0.000001,D22*1000000000,IF(D22&lt;0.001,D22*1000000,IF(D22&lt;1,D22*1000,IF(D22&gt;1000000,D22/1000000,IF(D22&gt;1000,D22/1000,D22)))))</f>
-        <v>45.7763671875</v>
+        <v>5.7220458984375</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ref="G22" si="5">CONCATENATE(IF(D22&lt;0.000001,"n",IF(D22&lt;0.001,"u",IF(D22&lt;1,"m",IF(D22&gt;1000000,"M",IF(D22&gt;1000,"K",""))))),E22)</f>
@@ -11908,14 +11951,14 @@
       </c>
       <c r="D24">
         <f>$I$7</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -11946,11 +11989,11 @@
       </c>
       <c r="D25">
         <f>65536/D21</f>
-        <v>2.1845333333333335E-2</v>
+        <v>0.17476266666666668</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>21.845333333333336</v>
+        <v>174.76266666666669</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -12181,18 +12224,18 @@
       </c>
       <c r="D32">
         <f>D31/$I$7</f>
-        <v>2500</v>
+        <v>312.5</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>312.5</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="7"/>
-        <v>Ktact</v>
+        <v>tact</v>
       </c>
       <c r="I32" s="27" t="s">
         <v>24</v>
@@ -12219,14 +12262,14 @@
       </c>
       <c r="D33">
         <f>D32/65536</f>
-        <v>3.814697265625E-2</v>
+        <v>4.76837158203125E-3</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="6"/>
-        <v>38.14697265625</v>
+        <v>4.76837158203125</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="7"/>
@@ -12295,11 +12338,11 @@
       </c>
       <c r="D35">
         <f>65536/D32</f>
-        <v>26.214400000000001</v>
+        <v>209.71520000000001</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>26.214400000000001</v>
+        <v>209.71520000000001</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="7"/>
@@ -12533,18 +12576,18 @@
       </c>
       <c r="D43">
         <f>D42/$I$7</f>
-        <v>1250</v>
+        <v>156.25</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="10"/>
-        <v>1.25</v>
+        <v>156.25</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="11"/>
-        <v>Ktact</v>
+        <v>tact</v>
       </c>
       <c r="I43" s="27" t="s">
         <v>24</v>
@@ -12571,14 +12614,14 @@
       </c>
       <c r="D44">
         <f>D43/65536</f>
-        <v>1.9073486328125E-2</v>
+        <v>2.384185791015625E-3</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="10"/>
-        <v>19.073486328125</v>
+        <v>2.384185791015625</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="11"/>
@@ -12647,11 +12690,11 @@
       </c>
       <c r="D46">
         <f>65536/D43</f>
-        <v>52.428800000000003</v>
+        <v>419.43040000000002</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="10"/>
-        <v>52.428800000000003</v>
+        <v>419.43040000000002</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="11"/>
@@ -12787,7 +12830,7 @@
       <c r="E3" s="54"/>
       <c r="G3" s="1">
         <f>Лист2!I7</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12872,7 +12915,7 @@
       </c>
       <c r="G8" s="1">
         <f>F8/$G$3</f>
-        <v>66666666.666666664</v>
+        <v>8333333.333333333</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12898,7 +12941,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G72" si="2">F9/$G$3</f>
-        <v>33333333.333333332</v>
+        <v>4166666.6666666665</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12924,7 +12967,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>22222222.222222216</v>
+        <v>2777777.7777777771</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12950,7 +12993,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>16666666.666666666</v>
+        <v>2083333.3333333333</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12976,7 +13019,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>13333333.333333336</v>
+        <v>1666666.666666667</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13002,7 +13045,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>11111111.111111106</v>
+        <v>1388888.8888888883</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13028,7 +13071,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>9523809.5238095261</v>
+        <v>1190476.1904761908</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13054,7 +13097,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>8333333.333333333</v>
+        <v>1041666.6666666666</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13080,7 +13123,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>7407407.4074074095</v>
+        <v>925925.92592592619</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -13106,7 +13149,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>6666666.6666666679</v>
+        <v>833333.33333333349</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -13132,7 +13175,7 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>6060606.0606060578</v>
+        <v>757575.75757575722</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -13158,7 +13201,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>5555555.555555555</v>
+        <v>694444.44444444438</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -13184,7 +13227,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>5128205.1282051289</v>
+        <v>641025.64102564112</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -13210,7 +13253,7 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>4761904.7619047575</v>
+        <v>595238.09523809468</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -13236,7 +13279,7 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>4444444.444444444</v>
+        <v>555555.5555555555</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -13262,7 +13305,7 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>4166666.6666666642</v>
+        <v>520833.33333333302</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -13288,7 +13331,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>3921568.627450977</v>
+        <v>490196.07843137212</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -13314,7 +13357,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
-        <v>3703703.7037036996</v>
+        <v>462962.96296296245</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -13340,7 +13383,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="2"/>
-        <v>3508771.9298245632</v>
+        <v>438596.4912280704</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -13366,7 +13409,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="2"/>
-        <v>3333333.3333333307</v>
+        <v>416666.66666666634</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -13392,7 +13435,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>3174603.174603174</v>
+        <v>396825.39682539675</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -13418,7 +13461,7 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="2"/>
-        <v>3030303.0303030265</v>
+        <v>378787.87878787832</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -13444,7 +13487,7 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>2898550.7246376793</v>
+        <v>362318.84057970991</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -13470,7 +13513,7 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="2"/>
-        <v>2777777.7777777775</v>
+        <v>347222.22222222219</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -13496,7 +13539,7 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="2"/>
-        <v>2666666.6666666674</v>
+        <v>333333.33333333343</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -13522,7 +13565,7 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="2"/>
-        <v>2564102.5641025663</v>
+        <v>320512.82051282079</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -13548,7 +13591,7 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" si="2"/>
-        <v>2469135.802469132</v>
+        <v>308641.9753086415</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -13574,7 +13617,7 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" si="2"/>
-        <v>2380952.3809523787</v>
+        <v>297619.04761904734</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -13600,7 +13643,7 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="2"/>
-        <v>2298850.574712642</v>
+        <v>287356.32183908025</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -13626,7 +13669,7 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" si="2"/>
-        <v>2222222.222222222</v>
+        <v>277777.77777777775</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -13652,7 +13695,7 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" si="2"/>
-        <v>2150537.6344086025</v>
+        <v>268817.20430107531</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -13678,7 +13721,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="2"/>
-        <v>2083333.33333333</v>
+        <v>260416.66666666625</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -13704,7 +13747,7 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
-        <v>2020202.0202020179</v>
+        <v>252525.25252525223</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -13730,7 +13773,7 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" si="2"/>
-        <v>1960784.3137254885</v>
+        <v>245098.03921568606</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -13756,7 +13799,7 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
-        <v>1904761.9047619039</v>
+        <v>238095.23809523799</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -13782,7 +13825,7 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="2"/>
-        <v>1851851.8518518514</v>
+        <v>231481.48148148143</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -13808,7 +13851,7 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" si="2"/>
-        <v>1801801.8018018021</v>
+        <v>225225.22522522527</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -13834,7 +13877,7 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" si="2"/>
-        <v>1754385.9649122816</v>
+        <v>219298.2456140352</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -13860,7 +13903,7 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" si="2"/>
-        <v>1709401.7094017107</v>
+        <v>213675.21367521383</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -13886,7 +13929,7 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
-        <v>1666666.6666666684</v>
+        <v>208333.33333333355</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -13912,7 +13955,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
-        <v>1626016.260162598</v>
+        <v>203252.03252032475</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -13938,7 +13981,7 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
-        <v>1587301.5873015842</v>
+        <v>198412.69841269802</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -13964,7 +14007,7 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" si="2"/>
-        <v>1550387.5968992223</v>
+        <v>193798.44961240279</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -13990,7 +14033,7 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" si="2"/>
-        <v>1515151.5151515133</v>
+        <v>189393.93939393916</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -14016,7 +14059,7 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" si="2"/>
-        <v>1481481.4814814802</v>
+        <v>185185.18518518502</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -14042,7 +14085,7 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" si="2"/>
-        <v>1449275.3623188396</v>
+        <v>181159.42028985496</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -14068,7 +14111,7 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" si="2"/>
-        <v>1418439.7163120562</v>
+        <v>177304.96453900702</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -14094,7 +14137,7 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" si="2"/>
-        <v>1388888.8888888888</v>
+        <v>173611.11111111109</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -14120,7 +14163,7 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" si="2"/>
-        <v>1360544.217687075</v>
+        <v>170068.02721088438</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -14146,7 +14189,7 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" si="2"/>
-        <v>1333333.3333333337</v>
+        <v>166666.66666666672</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -14172,7 +14215,7 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" si="2"/>
-        <v>1307189.5424836571</v>
+        <v>163398.69281045714</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -14198,7 +14241,7 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" si="2"/>
-        <v>1282051.2820512832</v>
+        <v>160256.4102564104</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -14224,7 +14267,7 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" si="2"/>
-        <v>1257861.6352201237</v>
+        <v>157232.70440251546</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -14250,7 +14293,7 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" si="2"/>
-        <v>1234567.9012345695</v>
+        <v>154320.98765432119</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -14276,7 +14319,7 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" si="2"/>
-        <v>1212121.2121212108</v>
+        <v>151515.15151515134</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -14302,7 +14345,7 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" si="2"/>
-        <v>1190476.1904761924</v>
+        <v>148809.52380952405</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -14328,7 +14371,7 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" si="2"/>
-        <v>1169590.643274853</v>
+        <v>146198.83040935663</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -14354,7 +14397,7 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" si="2"/>
-        <v>1149425.2873563182</v>
+        <v>143678.16091953978</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -14380,7 +14423,7 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" si="2"/>
-        <v>1129943.5028248583</v>
+        <v>141242.93785310729</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -14406,7 +14449,7 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" si="2"/>
-        <v>1111111.1111111082</v>
+        <v>138888.88888888853</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -14432,7 +14475,7 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
-        <v>1092896.1748633881</v>
+        <v>136612.02185792351</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -14458,7 +14501,7 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" si="2"/>
-        <v>1075268.8172042987</v>
+        <v>134408.60215053734</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -14484,7 +14527,7 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" si="2"/>
-        <v>1058201.0582010585</v>
+        <v>132275.13227513232</v>
       </c>
     </row>
     <row r="71" spans="2:7">
@@ -14510,7 +14553,7 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" si="2"/>
-        <v>1041666.666666665</v>
+        <v>130208.33333333312</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -14536,7 +14579,7 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" si="2"/>
-        <v>1025641.0256410264</v>
+        <v>128205.12820512831</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -14562,7 +14605,7 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" ref="G73:G136" si="10">F73/$G$3</f>
-        <v>1010101.0101010089</v>
+        <v>126262.62626262612</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -14588,7 +14631,7 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" si="10"/>
-        <v>995024.87562189158</v>
+        <v>124378.10945273645</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -14614,7 +14657,7 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" si="10"/>
-        <v>980392.15686274425</v>
+        <v>122549.01960784303</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -14640,7 +14683,7 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" si="10"/>
-        <v>966183.57487922849</v>
+        <v>120772.94685990356</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -14666,7 +14709,7 @@
       </c>
       <c r="G77" s="1">
         <f t="shared" si="10"/>
-        <v>952380.95238095196</v>
+        <v>119047.61904761899</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -14692,7 +14735,7 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" si="10"/>
-        <v>938967.13615023252</v>
+        <v>117370.89201877906</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -14718,7 +14761,7 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" si="10"/>
-        <v>925925.925925922</v>
+        <v>115740.74074074025</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -14744,7 +14787,7 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" si="10"/>
-        <v>913242.00913241832</v>
+        <v>114155.25114155229</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -14770,7 +14813,7 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" si="10"/>
-        <v>900900.90090090106</v>
+        <v>112612.61261261263</v>
       </c>
     </row>
     <row r="82" spans="2:7">
@@ -14796,7 +14839,7 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" si="10"/>
-        <v>888888.88888889086</v>
+        <v>111111.11111111136</v>
       </c>
     </row>
     <row r="83" spans="2:7">
@@ -14822,7 +14865,7 @@
       </c>
       <c r="G83" s="1">
         <f t="shared" si="10"/>
-        <v>877192.98245613743</v>
+        <v>109649.12280701718</v>
       </c>
     </row>
     <row r="84" spans="2:7">
@@ -14848,7 +14891,7 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" si="10"/>
-        <v>865800.86580086465</v>
+        <v>108225.10822510808</v>
       </c>
     </row>
     <row r="85" spans="2:7">
@@ -14874,7 +14917,7 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" si="10"/>
-        <v>854700.85470085533</v>
+        <v>106837.60683760692</v>
       </c>
     </row>
     <row r="86" spans="2:7">
@@ -14900,7 +14943,7 @@
       </c>
       <c r="G86" s="1">
         <f t="shared" si="10"/>
-        <v>843881.8565400868</v>
+        <v>105485.23206751085</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -14926,7 +14969,7 @@
       </c>
       <c r="G87" s="1">
         <f t="shared" si="10"/>
-        <v>833333.33333333128</v>
+        <v>104166.66666666641</v>
       </c>
     </row>
     <row r="88" spans="2:7">
@@ -14952,7 +14995,7 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" si="10"/>
-        <v>823045.2674897114</v>
+        <v>102880.65843621393</v>
       </c>
     </row>
     <row r="89" spans="2:7">
@@ -14978,7 +15021,7 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" si="10"/>
-        <v>813008.1300813019</v>
+        <v>101626.01626016274</v>
       </c>
     </row>
     <row r="90" spans="2:7">
@@ -15004,7 +15047,7 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" si="10"/>
-        <v>803212.85140561941</v>
+        <v>100401.60642570243</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -15030,7 +15073,7 @@
       </c>
       <c r="G91" s="1">
         <f t="shared" si="10"/>
-        <v>793650.7936507921</v>
+        <v>99206.349206349012</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -15056,7 +15099,7 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" si="10"/>
-        <v>784313.72549019614</v>
+        <v>98039.215686274518</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -15082,7 +15125,7 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" si="10"/>
-        <v>775193.79844961385</v>
+        <v>96899.224806201732</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -15108,7 +15151,7 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" si="10"/>
-        <v>766283.52490421222</v>
+        <v>95785.440613026527</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -15134,7 +15177,7 @@
       </c>
       <c r="G95" s="1">
         <f t="shared" si="10"/>
-        <v>757575.75757575664</v>
+        <v>94696.96969696958</v>
       </c>
     </row>
     <row r="96" spans="2:7">
@@ -15160,7 +15203,7 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" si="10"/>
-        <v>749063.67041198537</v>
+        <v>93632.958801498171</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -15186,7 +15229,7 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" si="10"/>
-        <v>740740.74074074242</v>
+        <v>92592.592592592802</v>
       </c>
     </row>
     <row r="98" spans="2:7">
@@ -15212,7 +15255,7 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" si="10"/>
-        <v>732600.73260073084</v>
+        <v>91575.091575091355</v>
       </c>
     </row>
     <row r="99" spans="2:7">
@@ -15238,7 +15281,7 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" si="10"/>
-        <v>724637.68115941982</v>
+        <v>90579.710144927478</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -15264,7 +15307,7 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" si="10"/>
-        <v>716845.87813620141</v>
+        <v>89605.734767025177</v>
       </c>
     </row>
     <row r="101" spans="2:7">
@@ -15290,7 +15333,7 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" si="10"/>
-        <v>709219.85815602599</v>
+        <v>88652.482269503249</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -15316,7 +15359,7 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" si="10"/>
-        <v>701754.38596491108</v>
+        <v>87719.298245613885</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -15342,7 +15385,7 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" si="10"/>
-        <v>694444.44444444438</v>
+        <v>86805.555555555547</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -15368,7 +15411,7 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="10"/>
-        <v>687285.22336769861</v>
+        <v>85910.652920962326</v>
       </c>
     </row>
     <row r="105" spans="2:7">
@@ -15394,7 +15437,7 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" si="10"/>
-        <v>680272.10884353542</v>
+        <v>85034.013605441927</v>
       </c>
     </row>
     <row r="106" spans="2:7">
@@ -15420,7 +15463,7 @@
       </c>
       <c r="G106" s="1">
         <f t="shared" si="10"/>
-        <v>673400.67340067262</v>
+        <v>84175.084175084077</v>
       </c>
     </row>
     <row r="107" spans="2:7">
@@ -15446,7 +15489,7 @@
       </c>
       <c r="G107" s="1">
         <f t="shared" si="10"/>
-        <v>666666.66666666686</v>
+        <v>83333.333333333358</v>
       </c>
     </row>
     <row r="108" spans="2:7">
@@ -15472,7 +15515,7 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" si="10"/>
-        <v>660066.00660066132</v>
+        <v>82508.250825082665</v>
       </c>
     </row>
     <row r="109" spans="2:7">
@@ -15498,7 +15541,7 @@
       </c>
       <c r="G109" s="1">
         <f t="shared" si="10"/>
-        <v>653594.77124183241</v>
+        <v>81699.346405229051</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -15524,7 +15567,7 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" si="10"/>
-        <v>647249.19093851093</v>
+        <v>80906.148867313867</v>
       </c>
     </row>
     <row r="111" spans="2:7">
@@ -15550,7 +15593,7 @@
       </c>
       <c r="G111" s="1">
         <f t="shared" si="10"/>
-        <v>641025.64102564158</v>
+        <v>80128.205128205198</v>
       </c>
     </row>
     <row r="112" spans="2:7">
@@ -15576,7 +15619,7 @@
       </c>
       <c r="G112" s="1">
         <f t="shared" si="10"/>
-        <v>634920.63492063631</v>
+        <v>79365.079365079539</v>
       </c>
     </row>
     <row r="113" spans="2:7">
@@ -15602,7 +15645,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="10"/>
-        <v>628930.81761006534</v>
+        <v>78616.352201258167</v>
       </c>
     </row>
     <row r="114" spans="2:7">
@@ -15628,7 +15671,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="10"/>
-        <v>623052.95950155414</v>
+        <v>77881.619937694268</v>
       </c>
     </row>
     <row r="115" spans="2:7">
@@ -15654,7 +15697,7 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="10"/>
-        <v>617283.95061728137</v>
+        <v>77160.493827160171</v>
       </c>
     </row>
     <row r="116" spans="2:7">
@@ -15680,7 +15723,7 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" si="10"/>
-        <v>611620.79510703194</v>
+        <v>76452.599388378992</v>
       </c>
     </row>
     <row r="117" spans="2:7">
@@ -15706,7 +15749,7 @@
       </c>
       <c r="G117" s="1">
         <f t="shared" si="10"/>
-        <v>606060.60606060538</v>
+        <v>75757.575757575672</v>
       </c>
     </row>
     <row r="118" spans="2:7">
@@ -15732,7 +15775,7 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" si="10"/>
-        <v>600600.60060060071</v>
+        <v>75075.075075075089</v>
       </c>
     </row>
     <row r="119" spans="2:7">
@@ -15758,7 +15801,7 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" si="10"/>
-        <v>595238.0952380962</v>
+        <v>74404.761904762025</v>
       </c>
     </row>
     <row r="120" spans="2:7">
@@ -15784,7 +15827,7 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" si="10"/>
-        <v>589970.50147492799</v>
+        <v>73746.312684365999</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -15810,7 +15853,7 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" si="10"/>
-        <v>584795.32163742941</v>
+        <v>73099.415204678677</v>
       </c>
     </row>
     <row r="122" spans="2:7">
@@ -15836,7 +15879,7 @@
       </c>
       <c r="G122" s="1">
         <f t="shared" si="10"/>
-        <v>579710.14492753358</v>
+        <v>72463.768115941697</v>
       </c>
     </row>
     <row r="123" spans="2:7">
@@ -15862,7 +15905,7 @@
       </c>
       <c r="G123" s="1">
         <f t="shared" si="10"/>
-        <v>574712.6436781591</v>
+        <v>71839.080459769888</v>
       </c>
     </row>
     <row r="124" spans="2:7">
@@ -15888,7 +15931,7 @@
       </c>
       <c r="G124" s="1">
         <f t="shared" si="10"/>
-        <v>569800.56980056886</v>
+        <v>71225.071225071108</v>
       </c>
     </row>
     <row r="125" spans="2:7">
@@ -15914,7 +15957,7 @@
       </c>
       <c r="G125" s="1">
         <f t="shared" si="10"/>
-        <v>564971.75141242915</v>
+        <v>70621.468926553644</v>
       </c>
     </row>
     <row r="126" spans="2:7">
@@ -15940,7 +15983,7 @@
       </c>
       <c r="G126" s="1">
         <f t="shared" si="10"/>
-        <v>560224.08963585482</v>
+        <v>70028.011204481852</v>
       </c>
     </row>
     <row r="127" spans="2:7">
@@ -15966,7 +16009,7 @@
       </c>
       <c r="G127" s="1">
         <f t="shared" si="10"/>
-        <v>555555.55555555678</v>
+        <v>69444.444444444598</v>
       </c>
     </row>
     <row r="128" spans="2:7">
@@ -15992,7 +16035,7 @@
       </c>
       <c r="G128" s="1">
         <f t="shared" si="10"/>
-        <v>550964.18732782558</v>
+        <v>68870.523415978198</v>
       </c>
     </row>
     <row r="129" spans="2:7">
@@ -16018,7 +16061,7 @@
       </c>
       <c r="G129" s="1">
         <f t="shared" si="10"/>
-        <v>546448.08743169147</v>
+        <v>68306.010928961434</v>
       </c>
     </row>
     <row r="130" spans="2:7">
@@ -16044,7 +16087,7 @@
       </c>
       <c r="G130" s="1">
         <f t="shared" si="10"/>
-        <v>542005.42005419871</v>
+        <v>67750.677506774839</v>
       </c>
     </row>
     <row r="131" spans="2:7">
@@ -16070,7 +16113,7 @@
       </c>
       <c r="G131" s="1">
         <f t="shared" si="10"/>
-        <v>537634.40860214934</v>
+        <v>67204.301075268668</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -16096,7 +16139,7 @@
       </c>
       <c r="G132" s="1">
         <f t="shared" si="10"/>
-        <v>533333.33333333291</v>
+        <v>66666.666666666613</v>
       </c>
     </row>
     <row r="133" spans="2:7">
@@ -16122,7 +16165,7 @@
       </c>
       <c r="G133" s="1">
         <f t="shared" si="10"/>
-        <v>529100.52910052927</v>
+        <v>66137.566137566158</v>
       </c>
     </row>
     <row r="134" spans="2:7">
@@ -16148,7 +16191,7 @@
       </c>
       <c r="G134" s="1">
         <f t="shared" si="10"/>
-        <v>524934.38320210064</v>
+        <v>65616.79790026258</v>
       </c>
     </row>
     <row r="135" spans="2:7">
@@ -16174,7 +16217,7 @@
       </c>
       <c r="G135" s="1">
         <f t="shared" si="10"/>
-        <v>520833.33333333483</v>
+        <v>65104.166666666853</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -16200,7 +16243,7 @@
       </c>
       <c r="G136" s="1">
         <f t="shared" si="10"/>
-        <v>516795.86563307245</v>
+        <v>64599.483204134056</v>
       </c>
     </row>
     <row r="137" spans="2:7">
@@ -16226,7 +16269,7 @@
       </c>
       <c r="G137" s="1">
         <f t="shared" ref="G137:G200" si="16">F137/$G$3</f>
-        <v>512820.51282051095</v>
+        <v>64102.564102563869</v>
       </c>
     </row>
     <row r="138" spans="2:7">
@@ -16252,7 +16295,7 @@
       </c>
       <c r="G138" s="1">
         <f t="shared" si="16"/>
-        <v>508905.85241730156</v>
+        <v>63613.231552162695</v>
       </c>
     </row>
     <row r="139" spans="2:7">
@@ -16278,7 +16321,7 @@
       </c>
       <c r="G139" s="1">
         <f t="shared" si="16"/>
-        <v>505050.50505050446</v>
+        <v>63131.313131313058</v>
       </c>
     </row>
     <row r="140" spans="2:7">
@@ -16304,7 +16347,7 @@
       </c>
       <c r="G140" s="1">
         <f t="shared" si="16"/>
-        <v>501253.13283208018</v>
+        <v>62656.641604010023</v>
       </c>
     </row>
     <row r="141" spans="2:7">
@@ -16330,7 +16373,7 @@
       </c>
       <c r="G141" s="1">
         <f t="shared" si="16"/>
-        <v>497512.43781094579</v>
+        <v>62189.054726368224</v>
       </c>
     </row>
     <row r="142" spans="2:7">
@@ -16356,7 +16399,7 @@
       </c>
       <c r="G142" s="1">
         <f t="shared" si="16"/>
-        <v>493827.16049382824</v>
+        <v>61728.39506172853</v>
       </c>
     </row>
     <row r="143" spans="2:7">
@@ -16382,7 +16425,7 @@
       </c>
       <c r="G143" s="1">
         <f t="shared" si="16"/>
-        <v>490196.07843137422</v>
+        <v>61274.509803921777</v>
       </c>
     </row>
     <row r="144" spans="2:7">
@@ -16408,7 +16451,7 @@
       </c>
       <c r="G144" s="1">
         <f t="shared" si="16"/>
-        <v>486618.00486617815</v>
+        <v>60827.250608272268</v>
       </c>
     </row>
     <row r="145" spans="2:7">
@@ -16434,7 +16477,7 @@
       </c>
       <c r="G145" s="1">
         <f t="shared" si="16"/>
-        <v>483091.78743961221</v>
+        <v>60386.473429951526</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -16460,7 +16503,7 @@
       </c>
       <c r="G146" s="1">
         <f t="shared" si="16"/>
-        <v>479616.30695443565</v>
+        <v>59952.038369304457</v>
       </c>
     </row>
     <row r="147" spans="2:7">
@@ -16486,7 +16529,7 @@
       </c>
       <c r="G147" s="1">
         <f t="shared" si="16"/>
-        <v>476190.47619047598</v>
+        <v>59523.809523809497</v>
       </c>
     </row>
     <row r="148" spans="2:7">
@@ -16512,7 +16555,7 @@
       </c>
       <c r="G148" s="1">
         <f t="shared" si="16"/>
-        <v>472813.23877068586</v>
+        <v>59101.654846335732</v>
       </c>
     </row>
     <row r="149" spans="2:7">
@@ -16538,7 +16581,7 @@
       </c>
       <c r="G149" s="1">
         <f t="shared" si="16"/>
-        <v>469483.56807511818</v>
+        <v>58685.446009389772</v>
       </c>
     </row>
     <row r="150" spans="2:7">
@@ -16564,7 +16607,7 @@
       </c>
       <c r="G150" s="1">
         <f t="shared" si="16"/>
-        <v>466200.46620046749</v>
+        <v>58275.058275058436</v>
       </c>
     </row>
     <row r="151" spans="2:7">
@@ -16590,7 +16633,7 @@
       </c>
       <c r="G151" s="1">
         <f t="shared" si="16"/>
-        <v>462962.96296296478</v>
+        <v>57870.370370370598</v>
       </c>
     </row>
     <row r="152" spans="2:7">
@@ -16616,7 +16659,7 @@
       </c>
       <c r="G152" s="1">
         <f t="shared" si="16"/>
-        <v>459770.11494253098</v>
+        <v>57471.264367816373</v>
       </c>
     </row>
     <row r="153" spans="2:7">
@@ -16642,7 +16685,7 @@
       </c>
       <c r="G153" s="1">
         <f t="shared" si="16"/>
-        <v>456621.00456620916</v>
+        <v>57077.625570776145</v>
       </c>
     </row>
     <row r="154" spans="2:7">
@@ -16668,7 +16711,7 @@
       </c>
       <c r="G154" s="1">
         <f t="shared" si="16"/>
-        <v>453514.73922902805</v>
+        <v>56689.342403628507</v>
       </c>
     </row>
     <row r="155" spans="2:7">
@@ -16694,7 +16737,7 @@
       </c>
       <c r="G155" s="1">
         <f t="shared" si="16"/>
-        <v>450450.45045045053</v>
+        <v>56306.306306306316</v>
       </c>
     </row>
     <row r="156" spans="2:7">
@@ -16720,7 +16763,7 @@
       </c>
       <c r="G156" s="1">
         <f t="shared" si="16"/>
-        <v>447427.29306487401</v>
+        <v>55928.411633109252</v>
       </c>
     </row>
     <row r="157" spans="2:7">
@@ -16746,7 +16789,7 @@
       </c>
       <c r="G157" s="1">
         <f t="shared" si="16"/>
-        <v>444444.44444444543</v>
+        <v>55555.555555555678</v>
       </c>
     </row>
     <row r="158" spans="2:7">
@@ -16772,7 +16815,7 @@
       </c>
       <c r="G158" s="1">
         <f t="shared" si="16"/>
-        <v>441501.10375275742</v>
+        <v>55187.637969094678</v>
       </c>
     </row>
     <row r="159" spans="2:7">
@@ -16798,7 +16841,7 @@
       </c>
       <c r="G159" s="1">
         <f t="shared" si="16"/>
-        <v>438596.49122807203</v>
+        <v>54824.561403509004</v>
       </c>
     </row>
     <row r="160" spans="2:7">
@@ -16824,7 +16867,7 @@
       </c>
       <c r="G160" s="1">
         <f t="shared" si="16"/>
-        <v>435729.84749455238</v>
+        <v>54466.230936819047</v>
       </c>
     </row>
     <row r="161" spans="2:7">
@@ -16850,7 +16893,7 @@
       </c>
       <c r="G161" s="1">
         <f t="shared" si="16"/>
-        <v>432900.43290043558</v>
+        <v>54112.554112554448</v>
       </c>
     </row>
     <row r="162" spans="2:7">
@@ -16876,7 +16919,7 @@
       </c>
       <c r="G162" s="1">
         <f t="shared" si="16"/>
-        <v>430107.52688172035</v>
+        <v>53763.440860215043</v>
       </c>
     </row>
     <row r="163" spans="2:7">
@@ -16902,7 +16945,7 @@
       </c>
       <c r="G163" s="1">
         <f t="shared" si="16"/>
-        <v>427350.42735042452</v>
+        <v>53418.803418803065</v>
       </c>
     </row>
     <row r="164" spans="2:7">
@@ -16928,7 +16971,7 @@
       </c>
       <c r="G164" s="1">
         <f t="shared" si="16"/>
-        <v>424628.45010615786</v>
+        <v>53078.556263269733</v>
       </c>
     </row>
     <row r="165" spans="2:7">
@@ -16954,7 +16997,7 @@
       </c>
       <c r="G165" s="1">
         <f t="shared" si="16"/>
-        <v>421940.92827004025</v>
+        <v>52742.616033755032</v>
       </c>
     </row>
     <row r="166" spans="2:7">
@@ -16980,7 +17023,7 @@
       </c>
       <c r="G166" s="1">
         <f t="shared" si="16"/>
-        <v>419287.21174004348</v>
+        <v>52410.901467505435</v>
       </c>
     </row>
     <row r="167" spans="2:7">
@@ -17006,7 +17049,7 @@
       </c>
       <c r="G167" s="1">
         <f t="shared" si="16"/>
-        <v>416666.66666666564</v>
+        <v>52083.333333333205</v>
       </c>
     </row>
     <row r="168" spans="2:7">
@@ -17032,7 +17075,7 @@
       </c>
       <c r="G168" s="1">
         <f t="shared" si="16"/>
-        <v>414078.67494824249</v>
+        <v>51759.834368530312</v>
       </c>
     </row>
     <row r="169" spans="2:7">
@@ -17058,7 +17101,7 @@
       </c>
       <c r="G169" s="1">
         <f t="shared" si="16"/>
-        <v>411522.6337448557</v>
+        <v>51440.329218106963</v>
       </c>
     </row>
     <row r="170" spans="2:7">
@@ -17084,7 +17127,7 @@
       </c>
       <c r="G170" s="1">
         <f t="shared" si="16"/>
-        <v>408997.95501022221</v>
+        <v>51124.744376277777</v>
       </c>
     </row>
     <row r="171" spans="2:7">
@@ -17110,7 +17153,7 @@
       </c>
       <c r="G171" s="1">
         <f t="shared" si="16"/>
-        <v>406504.06504065095</v>
+        <v>50813.008130081369</v>
       </c>
     </row>
     <row r="172" spans="2:7">
@@ -17136,7 +17179,7 @@
       </c>
       <c r="G172" s="1">
         <f t="shared" si="16"/>
-        <v>404040.40404040215</v>
+        <v>50505.050505050269</v>
       </c>
     </row>
     <row r="173" spans="2:7">
@@ -17162,7 +17205,7 @@
       </c>
       <c r="G173" s="1">
         <f t="shared" si="16"/>
-        <v>401606.4257028125</v>
+        <v>50200.803212851562</v>
       </c>
     </row>
     <row r="174" spans="2:7">
@@ -17188,7 +17231,7 @@
       </c>
       <c r="G174" s="1">
         <f t="shared" si="16"/>
-        <v>399201.59680638614</v>
+        <v>49900.199600798267</v>
       </c>
     </row>
     <row r="175" spans="2:7">
@@ -17214,7 +17257,7 @@
       </c>
       <c r="G175" s="1">
         <f t="shared" si="16"/>
-        <v>396825.39682539884</v>
+        <v>49603.174603174855</v>
       </c>
     </row>
     <row r="176" spans="2:7">
@@ -17240,7 +17283,7 @@
       </c>
       <c r="G176" s="1">
         <f t="shared" si="16"/>
-        <v>394477.31755424023</v>
+        <v>49309.664694280029</v>
       </c>
     </row>
     <row r="177" spans="2:7">
@@ -17266,7 +17309,7 @@
       </c>
       <c r="G177" s="1">
         <f t="shared" si="16"/>
-        <v>392156.86274509534</v>
+        <v>49019.607843136917</v>
       </c>
     </row>
     <row r="178" spans="2:7">
@@ -17292,7 +17335,7 @@
       </c>
       <c r="G178" s="1">
         <f t="shared" si="16"/>
-        <v>389863.54775828496</v>
+        <v>48732.94346978562</v>
       </c>
     </row>
     <row r="179" spans="2:7">
@@ -17318,7 +17361,7 @@
       </c>
       <c r="G179" s="1">
         <f t="shared" si="16"/>
-        <v>387596.89922480425</v>
+        <v>48449.612403100531</v>
       </c>
     </row>
     <row r="180" spans="2:7">
@@ -17344,7 +17387,7 @@
       </c>
       <c r="G180" s="1">
         <f t="shared" si="16"/>
-        <v>385356.45472061762</v>
+        <v>48169.556840077203</v>
       </c>
     </row>
     <row r="181" spans="2:7">
@@ -17370,7 +17413,7 @@
       </c>
       <c r="G181" s="1">
         <f t="shared" si="16"/>
-        <v>383141.76245210611</v>
+        <v>47892.720306513263</v>
       </c>
     </row>
     <row r="182" spans="2:7">
@@ -17396,7 +17439,7 @@
       </c>
       <c r="G182" s="1">
         <f t="shared" si="16"/>
-        <v>380952.38095238269</v>
+        <v>47619.047619047837</v>
       </c>
     </row>
     <row r="183" spans="2:7">
@@ -17422,7 +17465,7 @@
       </c>
       <c r="G183" s="1">
         <f t="shared" si="16"/>
-        <v>378787.87878787832</v>
+        <v>47348.48484848479</v>
       </c>
     </row>
     <row r="184" spans="2:7">
@@ -17448,7 +17491,7 @@
       </c>
       <c r="G184" s="1">
         <f t="shared" si="16"/>
-        <v>376647.83427495032</v>
+        <v>47080.97928436879</v>
       </c>
     </row>
     <row r="185" spans="2:7">
@@ -17474,7 +17517,7 @@
       </c>
       <c r="G185" s="1">
         <f t="shared" si="16"/>
-        <v>374531.83520599268</v>
+        <v>46816.479400749085</v>
       </c>
     </row>
     <row r="186" spans="2:7">
@@ -17500,7 +17543,7 @@
       </c>
       <c r="G186" s="1">
         <f t="shared" si="16"/>
-        <v>372439.47858472809</v>
+        <v>46554.934823091011</v>
       </c>
     </row>
     <row r="187" spans="2:7">
@@ -17526,7 +17569,7 @@
       </c>
       <c r="G187" s="1">
         <f t="shared" si="16"/>
-        <v>370370.37037037121</v>
+        <v>46296.296296296401</v>
       </c>
     </row>
     <row r="188" spans="2:7">
@@ -17552,7 +17595,7 @@
       </c>
       <c r="G188" s="1">
         <f t="shared" si="16"/>
-        <v>368324.1252302014</v>
+        <v>46040.515653775175</v>
       </c>
     </row>
     <row r="189" spans="2:7">
@@ -17578,7 +17621,7 @@
       </c>
       <c r="G189" s="1">
         <f t="shared" si="16"/>
-        <v>366300.36630036775</v>
+        <v>45787.545787545969</v>
       </c>
     </row>
     <row r="190" spans="2:7">
@@ -17604,7 +17647,7 @@
       </c>
       <c r="G190" s="1">
         <f t="shared" si="16"/>
-        <v>364298.72495446209</v>
+        <v>45537.340619307761</v>
       </c>
     </row>
     <row r="191" spans="2:7">
@@ -17630,7 +17673,7 @@
       </c>
       <c r="G191" s="1">
         <f t="shared" si="16"/>
-        <v>362318.84057971218</v>
+        <v>45289.855072464023</v>
       </c>
     </row>
     <row r="192" spans="2:7">
@@ -17656,7 +17699,7 @@
       </c>
       <c r="G192" s="1">
         <f t="shared" si="16"/>
-        <v>360360.36036036047</v>
+        <v>45045.045045045059</v>
       </c>
     </row>
     <row r="193" spans="2:7">
@@ -17682,7 +17725,7 @@
       </c>
       <c r="G193" s="1">
         <f t="shared" si="16"/>
-        <v>358422.93906809849</v>
+        <v>44802.867383512312</v>
       </c>
     </row>
     <row r="194" spans="2:7">
@@ -17708,7 +17751,7 @@
       </c>
       <c r="G194" s="1">
         <f t="shared" si="16"/>
-        <v>356506.23885918071</v>
+        <v>44563.279857397589</v>
       </c>
     </row>
     <row r="195" spans="2:7">
@@ -17734,7 +17777,7 @@
       </c>
       <c r="G195" s="1">
         <f t="shared" si="16"/>
-        <v>354609.929078013</v>
+        <v>44326.241134751624</v>
       </c>
     </row>
     <row r="196" spans="2:7">
@@ -17760,7 +17803,7 @@
       </c>
       <c r="G196" s="1">
         <f t="shared" si="16"/>
-        <v>352733.68606702064</v>
+        <v>44091.71075837758</v>
       </c>
     </row>
     <row r="197" spans="2:7">
@@ -17786,7 +17829,7 @@
       </c>
       <c r="G197" s="1">
         <f t="shared" si="16"/>
-        <v>350877.19298245554</v>
+        <v>43859.649122806943</v>
       </c>
     </row>
     <row r="198" spans="2:7">
@@ -17812,7 +17855,7 @@
       </c>
       <c r="G198" s="1">
         <f t="shared" si="16"/>
-        <v>349040.13961605757</v>
+        <v>43630.017452007196</v>
       </c>
     </row>
     <row r="199" spans="2:7">
@@ -17838,7 +17881,7 @@
       </c>
       <c r="G199" s="1">
         <f t="shared" si="16"/>
-        <v>347222.22222222219</v>
+        <v>43402.777777777774</v>
       </c>
     </row>
     <row r="200" spans="2:7">
@@ -17864,7 +17907,7 @@
       </c>
       <c r="G200" s="1">
         <f t="shared" si="16"/>
-        <v>345423.14335060265</v>
+        <v>43177.892918825331</v>
       </c>
     </row>
     <row r="201" spans="2:7">
@@ -17890,7 +17933,7 @@
       </c>
       <c r="G201" s="1">
         <f t="shared" ref="G201:G264" si="22">F201/$G$3</f>
-        <v>343642.6116838493</v>
+        <v>42955.326460481163</v>
       </c>
     </row>
     <row r="202" spans="2:7">
@@ -17916,7 +17959,7 @@
       </c>
       <c r="G202" s="1">
         <f t="shared" si="22"/>
-        <v>341880.34188034059</v>
+        <v>42735.042735042574</v>
       </c>
     </row>
     <row r="203" spans="2:7">
@@ -17942,7 +17985,7 @@
       </c>
       <c r="G203" s="1">
         <f t="shared" si="22"/>
-        <v>340136.05442176975</v>
+        <v>42517.006802721218</v>
       </c>
     </row>
     <row r="204" spans="2:7">
@@ -17968,7 +18011,7 @@
       </c>
       <c r="G204" s="1">
         <f t="shared" si="22"/>
-        <v>338409.47546531237</v>
+        <v>42301.184433164046</v>
       </c>
     </row>
     <row r="205" spans="2:7">
@@ -17994,7 +18037,7 @@
       </c>
       <c r="G205" s="1">
         <f t="shared" si="22"/>
-        <v>336700.33670033823</v>
+        <v>42087.542087542279</v>
       </c>
     </row>
     <row r="206" spans="2:7">
@@ -18020,7 +18063,7 @@
       </c>
       <c r="G206" s="1">
         <f t="shared" si="22"/>
-        <v>335008.37520938006</v>
+        <v>41876.046901172507</v>
       </c>
     </row>
     <row r="207" spans="2:7">
@@ -18046,7 +18089,7 @@
       </c>
       <c r="G207" s="1">
         <f t="shared" si="22"/>
-        <v>333333.33333333157</v>
+        <v>41666.666666666446</v>
       </c>
     </row>
     <row r="208" spans="2:7">
@@ -18072,7 +18115,7 @@
       </c>
       <c r="G208" s="1">
         <f t="shared" si="22"/>
-        <v>331674.95854063059</v>
+        <v>41459.369817578823</v>
       </c>
     </row>
     <row r="209" spans="2:7">
@@ -18098,7 +18141,7 @@
       </c>
       <c r="G209" s="1">
         <f t="shared" si="22"/>
-        <v>330033.0033003288</v>
+        <v>41254.1254125411</v>
       </c>
     </row>
     <row r="210" spans="2:7">
@@ -18124,7 +18167,7 @@
       </c>
       <c r="G210" s="1">
         <f t="shared" si="22"/>
-        <v>328407.22495894996</v>
+        <v>41050.903119868744</v>
       </c>
     </row>
     <row r="211" spans="2:7">
@@ -18150,7 +18193,7 @@
       </c>
       <c r="G211" s="1">
         <f t="shared" si="22"/>
-        <v>326797.38562091801</v>
+        <v>40849.673202614751</v>
       </c>
     </row>
     <row r="212" spans="2:7">
@@ -18176,7 +18219,7 @@
       </c>
       <c r="G212" s="1">
         <f t="shared" si="22"/>
-        <v>325203.25203251804</v>
+        <v>40650.406504064755</v>
       </c>
     </row>
     <row r="213" spans="2:7">
@@ -18202,7 +18245,7 @@
       </c>
       <c r="G213" s="1">
         <f t="shared" si="22"/>
-        <v>323624.59546925907</v>
+        <v>40453.074433657384</v>
       </c>
     </row>
     <row r="214" spans="2:7">
@@ -18228,7 +18271,7 @@
       </c>
       <c r="G214" s="1">
         <f t="shared" si="22"/>
-        <v>322061.19162641081</v>
+        <v>40257.648953301352</v>
       </c>
     </row>
     <row r="215" spans="2:7">
@@ -18254,7 +18297,7 @@
       </c>
       <c r="G215" s="1">
         <f t="shared" si="22"/>
-        <v>320512.82051282079</v>
+        <v>40064.102564102599</v>
       </c>
     </row>
     <row r="216" spans="2:7">
@@ -18280,7 +18323,7 @@
       </c>
       <c r="G216" s="1">
         <f t="shared" si="22"/>
-        <v>318979.26634768612</v>
+        <v>39872.408293460765</v>
       </c>
     </row>
     <row r="217" spans="2:7">
@@ -18306,7 +18349,7 @@
       </c>
       <c r="G217" s="1">
         <f t="shared" si="22"/>
-        <v>317460.31746031466</v>
+        <v>39682.539682539333</v>
       </c>
     </row>
     <row r="218" spans="2:7">
@@ -18332,7 +18375,7 @@
       </c>
       <c r="G218" s="1">
         <f t="shared" si="22"/>
-        <v>315955.7661927357</v>
+        <v>39494.470774091962</v>
       </c>
     </row>
     <row r="219" spans="2:7">
@@ -18358,7 +18401,7 @@
       </c>
       <c r="G219" s="1">
         <f t="shared" si="22"/>
-        <v>314465.40880503267</v>
+        <v>39308.176100629084</v>
       </c>
     </row>
     <row r="220" spans="2:7">
@@ -18384,7 +18427,7 @@
       </c>
       <c r="G220" s="1">
         <f t="shared" si="22"/>
-        <v>312989.04538341123</v>
+        <v>39123.630672926403</v>
       </c>
     </row>
     <row r="221" spans="2:7">
@@ -18410,7 +18453,7 @@
       </c>
       <c r="G221" s="1">
         <f t="shared" si="22"/>
-        <v>311526.47975077707</v>
+        <v>38940.809968847134</v>
       </c>
     </row>
     <row r="222" spans="2:7">
@@ -18436,7 +18479,7 @@
       </c>
       <c r="G222" s="1">
         <f t="shared" si="22"/>
-        <v>310077.5193798418</v>
+        <v>38759.689922480226</v>
       </c>
     </row>
     <row r="223" spans="2:7">
@@ -18462,7 +18505,7 @@
       </c>
       <c r="G223" s="1">
         <f t="shared" si="22"/>
-        <v>308641.975308644</v>
+        <v>38580.2469135805</v>
       </c>
     </row>
     <row r="224" spans="2:7">
@@ -18488,7 +18531,7 @@
       </c>
       <c r="G224" s="1">
         <f t="shared" si="22"/>
-        <v>307219.66205837228</v>
+        <v>38402.457757296535</v>
       </c>
     </row>
     <row r="225" spans="2:7">
@@ -18514,7 +18557,7 @@
       </c>
       <c r="G225" s="1">
         <f t="shared" si="22"/>
-        <v>305810.39755351597</v>
+        <v>38226.299694189496</v>
       </c>
     </row>
     <row r="226" spans="2:7">
@@ -18540,7 +18583,7 @@
       </c>
       <c r="G226" s="1">
         <f t="shared" si="22"/>
-        <v>304414.00304413785</v>
+        <v>38051.750380517231</v>
       </c>
     </row>
     <row r="227" spans="2:7">
@@ -18566,7 +18609,7 @@
       </c>
       <c r="G227" s="1">
         <f t="shared" si="22"/>
-        <v>303030.30303030583</v>
+        <v>37878.787878788229</v>
       </c>
     </row>
     <row r="228" spans="2:7">
@@ -18592,7 +18635,7 @@
       </c>
       <c r="G228" s="1">
         <f t="shared" si="22"/>
-        <v>301659.12518853834</v>
+        <v>37707.390648567292</v>
       </c>
     </row>
     <row r="229" spans="2:7">
@@ -18618,7 +18661,7 @@
       </c>
       <c r="G229" s="1">
         <f t="shared" si="22"/>
-        <v>300300.30030030035</v>
+        <v>37537.537537537544</v>
       </c>
     </row>
     <row r="230" spans="2:7">
@@ -18644,7 +18687,7 @@
       </c>
       <c r="G230" s="1">
         <f t="shared" si="22"/>
-        <v>298953.66218236042</v>
+        <v>37369.207772795053</v>
       </c>
     </row>
     <row r="231" spans="2:7">
@@ -18670,7 +18713,7 @@
       </c>
       <c r="G231" s="1">
         <f t="shared" si="22"/>
-        <v>297619.04761904501</v>
+        <v>37202.380952380627</v>
       </c>
     </row>
     <row r="232" spans="2:7">
@@ -18696,7 +18739,7 @@
       </c>
       <c r="G232" s="1">
         <f t="shared" si="22"/>
-        <v>296296.29629629845</v>
+        <v>37037.037037037306</v>
       </c>
     </row>
     <row r="233" spans="2:7">
@@ -18722,7 +18765,7 @@
       </c>
       <c r="G233" s="1">
         <f t="shared" si="22"/>
-        <v>294985.250737464</v>
+        <v>36873.156342183</v>
       </c>
     </row>
     <row r="234" spans="2:7">
@@ -18748,7 +18791,7 @@
       </c>
       <c r="G234" s="1">
         <f t="shared" si="22"/>
-        <v>293685.75624082185</v>
+        <v>36710.719530102731</v>
       </c>
     </row>
     <row r="235" spans="2:7">
@@ -18774,7 +18817,7 @@
       </c>
       <c r="G235" s="1">
         <f t="shared" si="22"/>
-        <v>292397.66081871174</v>
+        <v>36549.707602338967</v>
       </c>
     </row>
     <row r="236" spans="2:7">
@@ -18800,7 +18843,7 @@
       </c>
       <c r="G236" s="1">
         <f t="shared" si="22"/>
-        <v>291120.8151382794</v>
+        <v>36390.101892284925</v>
       </c>
     </row>
     <row r="237" spans="2:7">
@@ -18826,7 +18869,7 @@
       </c>
       <c r="G237" s="1">
         <f t="shared" si="22"/>
-        <v>289855.07246376976</v>
+        <v>36231.88405797122</v>
       </c>
     </row>
     <row r="238" spans="2:7">
@@ -18852,7 +18895,7 @@
       </c>
       <c r="G238" s="1">
         <f t="shared" si="22"/>
-        <v>288600.28860028897</v>
+        <v>36075.036075036121</v>
       </c>
     </row>
     <row r="239" spans="2:7">
@@ -18878,7 +18921,7 @@
       </c>
       <c r="G239" s="1">
         <f t="shared" si="22"/>
-        <v>287356.32183907955</v>
+        <v>35919.540229884944</v>
       </c>
     </row>
     <row r="240" spans="2:7">
@@ -18904,7 +18947,7 @@
       </c>
       <c r="G240" s="1">
         <f t="shared" si="22"/>
-        <v>286123.0329041467</v>
+        <v>35765.379113018338</v>
       </c>
     </row>
     <row r="241" spans="2:7">
@@ -18930,7 +18973,7 @@
       </c>
       <c r="G241" s="1">
         <f t="shared" si="22"/>
-        <v>284900.28490028722</v>
+        <v>35612.535612535903</v>
       </c>
     </row>
     <row r="242" spans="2:7">
@@ -18956,7 +18999,7 @@
       </c>
       <c r="G242" s="1">
         <f t="shared" si="22"/>
-        <v>283687.94326241245</v>
+        <v>35460.992907801556</v>
       </c>
     </row>
     <row r="243" spans="2:7">
@@ -18982,7 +19025,7 @@
       </c>
       <c r="G243" s="1">
         <f t="shared" si="22"/>
-        <v>282485.87570621457</v>
+        <v>35310.734463276822</v>
       </c>
     </row>
     <row r="244" spans="2:7">
@@ -19008,7 +19051,7 @@
       </c>
       <c r="G244" s="1">
         <f t="shared" si="22"/>
-        <v>281293.95218002686</v>
+        <v>35161.744022503357</v>
       </c>
     </row>
     <row r="245" spans="2:7">
@@ -19034,7 +19077,7 @@
       </c>
       <c r="G245" s="1">
         <f t="shared" si="22"/>
-        <v>280112.04481792473</v>
+        <v>35014.005602240592</v>
       </c>
     </row>
     <row r="246" spans="2:7">
@@ -19060,7 +19103,7 @@
       </c>
       <c r="G246" s="1">
         <f t="shared" si="22"/>
-        <v>278940.0278940046</v>
+        <v>34867.503486750575</v>
       </c>
     </row>
     <row r="247" spans="2:7">
@@ -19086,7 +19129,7 @@
       </c>
       <c r="G247" s="1">
         <f t="shared" si="22"/>
-        <v>277777.77777777839</v>
+        <v>34722.222222222299</v>
       </c>
     </row>
     <row r="248" spans="2:7">
@@ -19112,7 +19155,7 @@
       </c>
       <c r="G248" s="1">
         <f t="shared" si="22"/>
-        <v>276625.17289073253</v>
+        <v>34578.146611341566</v>
       </c>
     </row>
     <row r="249" spans="2:7">
@@ -19138,7 +19181,7 @@
       </c>
       <c r="G249" s="1">
         <f t="shared" si="22"/>
-        <v>275482.09366391023</v>
+        <v>34435.261707988779</v>
       </c>
     </row>
     <row r="250" spans="2:7">
@@ -19164,7 +19207,7 @@
       </c>
       <c r="G250" s="1">
         <f t="shared" si="22"/>
-        <v>274348.42249656789</v>
+        <v>34293.552812070986</v>
       </c>
     </row>
     <row r="251" spans="2:7">
@@ -19190,7 +19233,7 @@
       </c>
       <c r="G251" s="1">
         <f t="shared" si="22"/>
-        <v>273224.0437158483</v>
+        <v>34153.005464481037</v>
       </c>
     </row>
     <row r="252" spans="2:7">
@@ -19216,7 +19259,7 @@
       </c>
       <c r="G252" s="1">
         <f t="shared" si="22"/>
-        <v>272108.84353741514</v>
+        <v>34013.605442176893</v>
       </c>
     </row>
     <row r="253" spans="2:7">
@@ -19242,7 +19285,7 @@
       </c>
       <c r="G253" s="1">
         <f t="shared" si="22"/>
-        <v>271002.71002709935</v>
+        <v>33875.338753387419</v>
       </c>
     </row>
     <row r="254" spans="2:7">
@@ -19268,7 +19311,7 @@
       </c>
       <c r="G254" s="1">
         <f t="shared" si="22"/>
-        <v>269905.5330634258</v>
+        <v>33738.191632928225</v>
       </c>
     </row>
     <row r="255" spans="2:7">
@@ -19294,7 +19337,7 @@
       </c>
       <c r="G255" s="1">
         <f t="shared" si="22"/>
-        <v>268817.20430107723</v>
+        <v>33602.150537634654</v>
       </c>
     </row>
     <row r="256" spans="2:7">
@@ -19320,7 +19363,7 @@
       </c>
       <c r="G256" s="1">
         <f t="shared" si="22"/>
-        <v>267737.61713520833</v>
+        <v>33467.202141901042</v>
       </c>
     </row>
     <row r="257" spans="2:7">
@@ -19346,7 +19389,7 @@
       </c>
       <c r="G257" s="1">
         <f t="shared" si="22"/>
-        <v>266666.66666666645</v>
+        <v>33333.333333333307</v>
       </c>
     </row>
     <row r="258" spans="2:7">
@@ -19372,7 +19415,7 @@
       </c>
       <c r="G258" s="1">
         <f t="shared" si="22"/>
-        <v>265604.2496679934</v>
+        <v>33200.531208499175</v>
       </c>
     </row>
     <row r="259" spans="2:7">
@@ -19398,7 +19441,7 @@
       </c>
       <c r="G259" s="1">
         <f t="shared" si="22"/>
-        <v>264550.26455026225</v>
+        <v>33068.783068782781</v>
       </c>
     </row>
     <row r="260" spans="2:7">
@@ -19424,7 +19467,7 @@
       </c>
       <c r="G260" s="1">
         <f t="shared" si="22"/>
-        <v>263504.61133069976</v>
+        <v>32938.07641633747</v>
       </c>
     </row>
     <row r="261" spans="2:7">
@@ -19450,7 +19493,7 @@
       </c>
       <c r="G261" s="1">
         <f t="shared" si="22"/>
-        <v>262467.19160105032</v>
+        <v>32808.39895013129</v>
       </c>
     </row>
     <row r="262" spans="2:7">
@@ -19476,7 +19519,7 @@
       </c>
       <c r="G262" s="1">
         <f t="shared" si="22"/>
-        <v>261437.90849673143</v>
+        <v>32679.738562091428</v>
       </c>
     </row>
     <row r="263" spans="2:7">
@@ -19502,7 +19545,7 @@
       </c>
       <c r="G263" s="1">
         <f t="shared" si="22"/>
-        <v>260416.66666666506</v>
+        <v>32552.083333333132</v>
       </c>
     </row>
     <row r="264" spans="2:7">
@@ -19528,7 +19571,7 @@
       </c>
       <c r="G264" s="1">
         <f t="shared" si="22"/>
-        <v>259403.37224384124</v>
+        <v>32425.421530480155</v>
       </c>
     </row>
     <row r="265" spans="2:7">
@@ -19554,7 +19597,7 @@
       </c>
       <c r="G265" s="1">
         <f t="shared" ref="G265:G328" si="28">F265/$G$3</f>
-        <v>258397.93281653849</v>
+        <v>32299.741602067312</v>
       </c>
     </row>
     <row r="266" spans="2:7">
@@ -19580,7 +19623,7 @@
       </c>
       <c r="G266" s="1">
         <f t="shared" si="28"/>
-        <v>257400.25740025743</v>
+        <v>32175.032175032178</v>
       </c>
     </row>
     <row r="267" spans="2:7">
@@ -19606,7 +19649,7 @@
       </c>
       <c r="G267" s="1">
         <f t="shared" si="28"/>
-        <v>256410.25641025548</v>
+        <v>32051.282051281934</v>
       </c>
     </row>
     <row r="268" spans="2:7">
@@ -19632,7 +19675,7 @@
       </c>
       <c r="G268" s="1">
         <f t="shared" si="28"/>
-        <v>255427.84163473628</v>
+        <v>31928.480204342035</v>
       </c>
     </row>
     <row r="269" spans="2:7">
@@ -19658,7 +19701,7 @@
       </c>
       <c r="G269" s="1">
         <f t="shared" si="28"/>
-        <v>254452.92620865302</v>
+        <v>31806.615776081628</v>
       </c>
     </row>
     <row r="270" spans="2:7">
@@ -19684,7 +19727,7 @@
       </c>
       <c r="G270" s="1">
         <f t="shared" si="28"/>
-        <v>253485.42458808684</v>
+        <v>31685.678073510855</v>
       </c>
     </row>
     <row r="271" spans="2:7">
@@ -19710,7 +19753,7 @@
       </c>
       <c r="G271" s="1">
         <f t="shared" si="28"/>
-        <v>252525.25252525223</v>
+        <v>31565.656565656529</v>
       </c>
     </row>
     <row r="272" spans="2:7">
@@ -19736,7 +19779,7 @@
       </c>
       <c r="G272" s="1">
         <f t="shared" si="28"/>
-        <v>251572.3270440239</v>
+        <v>31446.540880502987</v>
       </c>
     </row>
     <row r="273" spans="2:7">
@@ -19762,7 +19805,7 @@
       </c>
       <c r="G273" s="1">
         <f t="shared" si="28"/>
-        <v>250626.56641603791</v>
+        <v>31328.320802004739</v>
       </c>
     </row>
     <row r="274" spans="2:7">
@@ -19788,7 +19831,7 @@
       </c>
       <c r="G274" s="1">
         <f t="shared" si="28"/>
-        <v>249687.89013732955</v>
+        <v>31210.986267166194</v>
       </c>
     </row>
     <row r="275" spans="2:7">
@@ -19814,7 +19857,7 @@
       </c>
       <c r="G275" s="1">
         <f t="shared" si="28"/>
-        <v>248756.2189054729</v>
+        <v>31094.527363184112</v>
       </c>
     </row>
     <row r="276" spans="2:7">
@@ -19840,7 +19883,7 @@
       </c>
       <c r="G276" s="1">
         <f t="shared" si="28"/>
-        <v>247831.47459727322</v>
+        <v>30978.934324659152</v>
       </c>
     </row>
     <row r="277" spans="2:7">
@@ -19866,7 +19909,7 @@
       </c>
       <c r="G277" s="1">
         <f t="shared" si="28"/>
-        <v>246913.58024691202</v>
+        <v>30864.197530864003</v>
       </c>
     </row>
     <row r="278" spans="2:7">
@@ -19892,7 +19935,7 @@
       </c>
       <c r="G278" s="1">
         <f t="shared" si="28"/>
-        <v>246002.46002460198</v>
+        <v>30750.307503075248</v>
       </c>
     </row>
     <row r="279" spans="2:7">
@@ -19918,7 +19961,7 @@
       </c>
       <c r="G279" s="1">
         <f t="shared" si="28"/>
-        <v>245098.03921568711</v>
+        <v>30637.254901960889</v>
       </c>
     </row>
     <row r="280" spans="2:7">
@@ -19944,7 +19987,7 @@
       </c>
       <c r="G280" s="1">
         <f t="shared" si="28"/>
-        <v>244200.24420024414</v>
+        <v>30525.030525030517</v>
       </c>
     </row>
     <row r="281" spans="2:7">
@@ -19970,7 +20013,7 @@
       </c>
       <c r="G281" s="1">
         <f t="shared" si="28"/>
-        <v>243309.00243308907</v>
+        <v>30413.625304136134</v>
       </c>
     </row>
     <row r="282" spans="2:7">
@@ -19996,7 +20039,7 @@
       </c>
       <c r="G282" s="1">
         <f t="shared" si="28"/>
-        <v>242424.2424242406</v>
+        <v>30303.030303030075</v>
       </c>
     </row>
     <row r="283" spans="2:7">
@@ -20022,7 +20065,7 @@
       </c>
       <c r="G283" s="1">
         <f t="shared" si="28"/>
-        <v>241545.89371980811</v>
+        <v>30193.236714976014</v>
       </c>
     </row>
     <row r="284" spans="2:7">
@@ -20048,7 +20091,7 @@
       </c>
       <c r="G284" s="1">
         <f t="shared" si="28"/>
-        <v>240673.88688327363</v>
+        <v>30084.235860409204</v>
       </c>
     </row>
     <row r="285" spans="2:7">
@@ -20074,7 +20117,7 @@
       </c>
       <c r="G285" s="1">
         <f t="shared" si="28"/>
-        <v>239808.15347721783</v>
+        <v>29976.019184652228</v>
       </c>
     </row>
     <row r="286" spans="2:7">
@@ -20100,7 +20143,7 @@
       </c>
       <c r="G286" s="1">
         <f t="shared" si="28"/>
-        <v>238948.62604539903</v>
+        <v>29868.578255674878</v>
       </c>
     </row>
     <row r="287" spans="2:7">
@@ -20126,7 +20169,7 @@
       </c>
       <c r="G287" s="1">
         <f t="shared" si="28"/>
-        <v>238095.23809523601</v>
+        <v>29761.904761904501</v>
       </c>
     </row>
     <row r="288" spans="2:7">
@@ -20152,7 +20195,7 @@
       </c>
       <c r="G288" s="1">
         <f t="shared" si="28"/>
-        <v>237247.92408066528</v>
+        <v>29655.99051008316</v>
       </c>
     </row>
     <row r="289" spans="2:7">
@@ -20178,7 +20221,7 @@
       </c>
       <c r="G289" s="1">
         <f t="shared" si="28"/>
-        <v>236406.61938534293</v>
+        <v>29550.827423167866</v>
       </c>
     </row>
     <row r="290" spans="2:7">
@@ -20204,7 +20247,7 @@
       </c>
       <c r="G290" s="1">
         <f t="shared" si="28"/>
-        <v>235571.26030624195</v>
+        <v>29446.407538280244</v>
       </c>
     </row>
     <row r="291" spans="2:7">
@@ -20230,7 +20273,7 @@
       </c>
       <c r="G291" s="1">
         <f t="shared" si="28"/>
-        <v>234741.7840375572</v>
+        <v>29342.72300469465</v>
       </c>
     </row>
     <row r="292" spans="2:7">
@@ -20256,7 +20299,7 @@
       </c>
       <c r="G292" s="1">
         <f t="shared" si="28"/>
-        <v>233918.12865497224</v>
+        <v>29239.76608187153</v>
       </c>
     </row>
     <row r="293" spans="2:7">
@@ -20282,7 +20325,7 @@
       </c>
       <c r="G293" s="1">
         <f t="shared" si="28"/>
-        <v>233100.23310023375</v>
+        <v>29137.529137529218</v>
       </c>
     </row>
     <row r="294" spans="2:7">
@@ -20308,7 +20351,7 @@
       </c>
       <c r="G294" s="1">
         <f t="shared" si="28"/>
-        <v>232288.03716608579</v>
+        <v>29036.004645760724</v>
       </c>
     </row>
     <row r="295" spans="2:7">
@@ -20334,7 +20377,7 @@
       </c>
       <c r="G295" s="1">
         <f t="shared" si="28"/>
-        <v>231481.4814814805</v>
+        <v>28935.185185185062</v>
       </c>
     </row>
     <row r="296" spans="2:7">
@@ -20360,7 +20403,7 @@
       </c>
       <c r="G296" s="1">
         <f t="shared" si="28"/>
-        <v>230680.50749711474</v>
+        <v>28835.063437139343</v>
       </c>
     </row>
     <row r="297" spans="2:7">
@@ -20386,7 +20429,7 @@
       </c>
       <c r="G297" s="1">
         <f t="shared" si="28"/>
-        <v>229885.05747126185</v>
+        <v>28735.632183907732</v>
       </c>
     </row>
     <row r="298" spans="2:7">
@@ -20412,7 +20455,7 @@
       </c>
       <c r="G298" s="1">
         <f t="shared" si="28"/>
-        <v>229095.0744558959</v>
+        <v>28636.884306986987</v>
       </c>
     </row>
     <row r="299" spans="2:7">
@@ -20438,7 +20481,7 @@
       </c>
       <c r="G299" s="1">
         <f t="shared" si="28"/>
-        <v>228310.50228310819</v>
+        <v>28538.812785388523</v>
       </c>
     </row>
     <row r="300" spans="2:7">
@@ -20464,7 +20507,7 @@
       </c>
       <c r="G300" s="1">
         <f t="shared" si="28"/>
-        <v>227531.28555176573</v>
+        <v>28441.410693970716</v>
       </c>
     </row>
     <row r="301" spans="2:7">
@@ -20490,7 +20533,7 @@
       </c>
       <c r="G301" s="1">
         <f t="shared" si="28"/>
-        <v>226757.36961451403</v>
+        <v>28344.671201814253</v>
       </c>
     </row>
     <row r="302" spans="2:7">
@@ -20516,7 +20559,7 @@
       </c>
       <c r="G302" s="1">
         <f t="shared" si="28"/>
-        <v>225988.70056497256</v>
+        <v>28248.58757062157</v>
       </c>
     </row>
     <row r="303" spans="2:7">
@@ -20542,7 +20585,7 @@
       </c>
       <c r="G303" s="1">
         <f t="shared" si="28"/>
-        <v>225225.22522522527</v>
+        <v>28153.153153153158</v>
       </c>
     </row>
     <row r="304" spans="2:7">
@@ -20568,7 +20611,7 @@
       </c>
       <c r="G304" s="1">
         <f t="shared" si="28"/>
-        <v>224466.8911335571</v>
+        <v>28058.361391694638</v>
       </c>
     </row>
     <row r="305" spans="2:7">
@@ -20594,7 +20637,7 @@
       </c>
       <c r="G305" s="1">
         <f t="shared" si="28"/>
-        <v>223713.64653243701</v>
+        <v>27964.205816554626</v>
       </c>
     </row>
     <row r="306" spans="2:7">
@@ -20620,7 +20663,7 @@
       </c>
       <c r="G306" s="1">
         <f t="shared" si="28"/>
-        <v>222965.4403567425</v>
+        <v>27870.680044592813</v>
       </c>
     </row>
     <row r="307" spans="2:7">
@@ -20646,7 +20689,7 @@
       </c>
       <c r="G307" s="1">
         <f t="shared" si="28"/>
-        <v>222222.22222221928</v>
+        <v>27777.77777777741</v>
       </c>
     </row>
     <row r="308" spans="2:7">
@@ -20672,7 +20715,7 @@
       </c>
       <c r="G308" s="1">
         <f t="shared" si="28"/>
-        <v>221483.94241417816</v>
+        <v>27685.49280177227</v>
       </c>
     </row>
     <row r="309" spans="2:7">
@@ -20698,7 +20741,7 @@
       </c>
       <c r="G309" s="1">
         <f t="shared" si="28"/>
-        <v>220750.55187638212</v>
+        <v>27593.818984547765</v>
       </c>
     </row>
     <row r="310" spans="2:7">
@@ -20724,7 +20767,7 @@
       </c>
       <c r="G310" s="1">
         <f t="shared" si="28"/>
-        <v>220022.0022002217</v>
+        <v>27502.750275027713</v>
       </c>
     </row>
     <row r="311" spans="2:7">
@@ -20750,7 +20793,7 @@
       </c>
       <c r="G311" s="1">
         <f t="shared" si="28"/>
-        <v>219298.24561403602</v>
+        <v>27412.280701754502</v>
       </c>
     </row>
     <row r="312" spans="2:7">
@@ -20776,7 +20819,7 @@
       </c>
       <c r="G312" s="1">
         <f t="shared" si="28"/>
-        <v>218579.2349726778</v>
+        <v>27322.404371584726</v>
       </c>
     </row>
     <row r="313" spans="2:7">
@@ -20802,7 +20845,7 @@
       </c>
       <c r="G313" s="1">
         <f t="shared" si="28"/>
-        <v>217864.92374727619</v>
+        <v>27233.115468409524</v>
       </c>
     </row>
     <row r="314" spans="2:7">
@@ -20828,7 +20871,7 @@
       </c>
       <c r="G314" s="1">
         <f t="shared" si="28"/>
-        <v>217155.26601519965</v>
+        <v>27144.408251899957</v>
       </c>
     </row>
     <row r="315" spans="2:7">
@@ -20854,7 +20897,7 @@
       </c>
       <c r="G315" s="1">
         <f t="shared" si="28"/>
-        <v>216450.21645021453</v>
+        <v>27056.277056276816</v>
       </c>
     </row>
     <row r="316" spans="2:7">
@@ -20880,7 +20923,7 @@
       </c>
       <c r="G316" s="1">
         <f t="shared" si="28"/>
-        <v>215749.73031283452</v>
+        <v>26968.716289104315</v>
       </c>
     </row>
     <row r="317" spans="2:7">
@@ -20906,7 +20949,7 @@
       </c>
       <c r="G317" s="1">
         <f t="shared" si="28"/>
-        <v>215053.76344085694</v>
+        <v>26881.720430107118</v>
       </c>
     </row>
     <row r="318" spans="2:7">
@@ -20932,7 +20975,7 @@
       </c>
       <c r="G318" s="1">
         <f t="shared" si="28"/>
-        <v>214362.27224008818</v>
+        <v>26795.284030011022</v>
       </c>
     </row>
     <row r="319" spans="2:7">
@@ -20958,7 +21001,7 @@
       </c>
       <c r="G319" s="1">
         <f t="shared" si="28"/>
-        <v>213675.21367521543</v>
+        <v>26709.401709401929</v>
       </c>
     </row>
     <row r="320" spans="2:7">
@@ -20984,7 +21027,7 @@
       </c>
       <c r="G320" s="1">
         <f t="shared" si="28"/>
-        <v>212992.54526091693</v>
+        <v>26624.068157614616</v>
       </c>
     </row>
     <row r="321" spans="2:7">
@@ -21010,7 +21053,7 @@
       </c>
       <c r="G321" s="1">
         <f t="shared" si="28"/>
-        <v>212314.22505307893</v>
+        <v>26539.278131634866</v>
       </c>
     </row>
     <row r="322" spans="2:7">
@@ -21036,7 +21079,7 @@
       </c>
       <c r="G322" s="1">
         <f t="shared" si="28"/>
-        <v>211640.21164021132</v>
+        <v>26455.026455026415</v>
       </c>
     </row>
     <row r="323" spans="2:7">
@@ -21062,7 +21105,7 @@
       </c>
       <c r="G323" s="1">
         <f t="shared" si="28"/>
-        <v>210970.46413502013</v>
+        <v>26371.308016877516</v>
       </c>
     </row>
     <row r="324" spans="2:7">
@@ -21088,7 +21131,7 @@
       </c>
       <c r="G324" s="1">
         <f t="shared" si="28"/>
-        <v>210304.94216613928</v>
+        <v>26288.117770767411</v>
       </c>
     </row>
     <row r="325" spans="2:7">
@@ -21114,7 +21157,7 @@
       </c>
       <c r="G325" s="1">
         <f t="shared" si="28"/>
-        <v>209643.60587001868</v>
+        <v>26205.450733752336</v>
       </c>
     </row>
     <row r="326" spans="2:7">
@@ -21140,7 +21183,7 @@
       </c>
       <c r="G326" s="1">
         <f t="shared" si="28"/>
-        <v>208986.41588296471</v>
+        <v>26123.301985370588</v>
       </c>
     </row>
     <row r="327" spans="2:7">
@@ -21166,7 +21209,7 @@
       </c>
       <c r="G327" s="1">
         <f t="shared" si="28"/>
-        <v>208333.33333333582</v>
+        <v>26041.666666666977</v>
       </c>
     </row>
     <row r="328" spans="2:7">
@@ -21192,7 +21235,7 @@
       </c>
       <c r="G328" s="1">
         <f t="shared" si="28"/>
-        <v>207684.31983385436</v>
+        <v>25960.539979231795</v>
       </c>
     </row>
     <row r="329" spans="2:7">
@@ -21218,7 +21261,7 @@
       </c>
       <c r="G329" s="1">
         <f t="shared" ref="G329:G392" si="34">F329/$G$3</f>
-        <v>207039.33747412125</v>
+        <v>25879.917184265156</v>
       </c>
     </row>
     <row r="330" spans="2:7">
@@ -21244,7 +21287,7 @@
       </c>
       <c r="G330" s="1">
         <f t="shared" si="34"/>
-        <v>206398.34881321003</v>
+        <v>25799.793601651254</v>
       </c>
     </row>
     <row r="331" spans="2:7">
@@ -21270,7 +21313,7 @@
       </c>
       <c r="G331" s="1">
         <f t="shared" si="34"/>
-        <v>205761.31687242785</v>
+        <v>25720.164609053481</v>
       </c>
     </row>
     <row r="332" spans="2:7">
@@ -21296,7 +21339,7 @@
       </c>
       <c r="G332" s="1">
         <f t="shared" si="34"/>
-        <v>205128.20512820437</v>
+        <v>25641.025641025546</v>
       </c>
     </row>
     <row r="333" spans="2:7">
@@ -21322,7 +21365,7 @@
       </c>
       <c r="G333" s="1">
         <f t="shared" si="34"/>
-        <v>204498.97750511111</v>
+        <v>25562.372188138888</v>
       </c>
     </row>
     <row r="334" spans="2:7">
@@ -21348,7 +21391,7 @@
       </c>
       <c r="G334" s="1">
         <f t="shared" si="34"/>
-        <v>203873.59836900921</v>
+        <v>25484.199796126151</v>
       </c>
     </row>
     <row r="335" spans="2:7">
@@ -21374,7 +21417,7 @@
       </c>
       <c r="G335" s="1">
         <f t="shared" si="34"/>
-        <v>203252.03252032259</v>
+        <v>25406.504065040324</v>
       </c>
     </row>
     <row r="336" spans="2:7">
@@ -21400,7 +21443,7 @@
       </c>
       <c r="G336" s="1">
         <f t="shared" si="34"/>
-        <v>202634.2451874392</v>
+        <v>25329.2806484299</v>
       </c>
     </row>
     <row r="337" spans="2:7">
@@ -21426,7 +21469,7 @@
       </c>
       <c r="G337" s="1">
         <f t="shared" si="34"/>
-        <v>202020.2020202039</v>
+        <v>25252.525252525487</v>
       </c>
     </row>
     <row r="338" spans="2:7">
@@ -21452,7 +21495,7 @@
       </c>
       <c r="G338" s="1">
         <f t="shared" si="34"/>
-        <v>201409.86908358635</v>
+        <v>25176.233635448294</v>
       </c>
     </row>
     <row r="339" spans="2:7">
@@ -21478,7 +21521,7 @@
       </c>
       <c r="G339" s="1">
         <f t="shared" si="34"/>
-        <v>200803.21285140625</v>
+        <v>25100.401606425781</v>
       </c>
     </row>
     <row r="340" spans="2:7">
@@ -21504,7 +21547,7 @@
       </c>
       <c r="G340" s="1">
         <f t="shared" si="34"/>
-        <v>200200.20020020026</v>
+        <v>25025.025025025032</v>
       </c>
     </row>
     <row r="341" spans="2:7">
@@ -21530,7 +21573,7 @@
       </c>
       <c r="G341" s="1">
         <f t="shared" si="34"/>
-        <v>199600.79840319307</v>
+        <v>24950.099800399134</v>
       </c>
     </row>
     <row r="342" spans="2:7">
@@ -21556,7 +21599,7 @@
       </c>
       <c r="G342" s="1">
         <f t="shared" si="34"/>
-        <v>199004.97512437697</v>
+        <v>24875.621890547121</v>
       </c>
     </row>
     <row r="343" spans="2:7">
@@ -21582,7 +21625,7 @@
       </c>
       <c r="G343" s="1">
         <f t="shared" si="34"/>
-        <v>198412.69841269669</v>
+        <v>24801.587301587086</v>
       </c>
     </row>
     <row r="344" spans="2:7">
@@ -21608,7 +21651,7 @@
       </c>
       <c r="G344" s="1">
         <f t="shared" si="34"/>
-        <v>197823.93669633797</v>
+        <v>24727.992087042247</v>
       </c>
     </row>
     <row r="345" spans="2:7">
@@ -21634,7 +21677,7 @@
       </c>
       <c r="G345" s="1">
         <f t="shared" si="34"/>
-        <v>197238.65877712282</v>
+        <v>24654.832347140353</v>
       </c>
     </row>
     <row r="346" spans="2:7">
@@ -21660,7 +21703,7 @@
       </c>
       <c r="G346" s="1">
         <f t="shared" si="34"/>
-        <v>196656.83382497737</v>
+        <v>24582.104228122171</v>
       </c>
     </row>
     <row r="347" spans="2:7">
@@ -21686,7 +21729,7 @@
       </c>
       <c r="G347" s="1">
         <f t="shared" si="34"/>
-        <v>196078.43137255035</v>
+        <v>24509.803921568793</v>
       </c>
     </row>
     <row r="348" spans="2:7">
@@ -21712,7 +21755,7 @@
       </c>
       <c r="G348" s="1">
         <f t="shared" si="34"/>
-        <v>195503.42130987367</v>
+        <v>24437.927663734208</v>
       </c>
     </row>
     <row r="349" spans="2:7">
@@ -21738,7 +21781,7 @@
       </c>
       <c r="G349" s="1">
         <f t="shared" si="34"/>
-        <v>194931.77387914248</v>
+        <v>24366.47173489281</v>
       </c>
     </row>
     <row r="350" spans="2:7">
@@ -21764,7 +21807,7 @@
       </c>
       <c r="G350" s="1">
         <f t="shared" si="34"/>
-        <v>194363.4596695817</v>
+        <v>24295.432458697713</v>
       </c>
     </row>
     <row r="351" spans="2:7">
@@ -21790,7 +21833,7 @@
       </c>
       <c r="G351" s="1">
         <f t="shared" si="34"/>
-        <v>193798.44961240212</v>
+        <v>24224.806201550266</v>
       </c>
     </row>
     <row r="352" spans="2:7">
@@ -21816,7 +21859,7 @@
       </c>
       <c r="G352" s="1">
         <f t="shared" si="34"/>
-        <v>193236.7149758439</v>
+        <v>24154.589371980488</v>
       </c>
     </row>
     <row r="353" spans="2:7">
@@ -21842,7 +21885,7 @@
       </c>
       <c r="G353" s="1">
         <f t="shared" si="34"/>
-        <v>192678.22736030622</v>
+        <v>24084.778420038278</v>
       </c>
     </row>
     <row r="354" spans="2:7">
@@ -21868,7 +21911,7 @@
       </c>
       <c r="G354" s="1">
         <f t="shared" si="34"/>
-        <v>192122.95869356126</v>
+        <v>24015.369836695158</v>
       </c>
     </row>
     <row r="355" spans="2:7">
@@ -21894,7 +21937,7 @@
       </c>
       <c r="G355" s="1">
         <f t="shared" si="34"/>
-        <v>191570.88122605562</v>
+        <v>23946.360153256952</v>
       </c>
     </row>
     <row r="356" spans="2:7">
@@ -21920,7 +21963,7 @@
       </c>
       <c r="G356" s="1">
         <f t="shared" si="34"/>
-        <v>191021.96752626693</v>
+        <v>23877.745940783367</v>
       </c>
     </row>
     <row r="357" spans="2:7">
@@ -21946,7 +21989,7 @@
       </c>
       <c r="G357" s="1">
         <f t="shared" si="34"/>
-        <v>190476.19047619135</v>
+        <v>23809.523809523918</v>
       </c>
     </row>
     <row r="358" spans="2:7">
@@ -21972,7 +22015,7 @@
       </c>
       <c r="G358" s="1">
         <f t="shared" si="34"/>
-        <v>189933.52326685691</v>
+        <v>23741.690408357113</v>
       </c>
     </row>
     <row r="359" spans="2:7">
@@ -21998,7 +22041,7 @@
       </c>
       <c r="G359" s="1">
         <f t="shared" si="34"/>
-        <v>189393.93939393916</v>
+        <v>23674.242424242395</v>
       </c>
     </row>
     <row r="360" spans="2:7">
@@ -22024,7 +22067,7 @@
       </c>
       <c r="G360" s="1">
         <f t="shared" si="34"/>
-        <v>188857.41265344588</v>
+        <v>23607.176581680735</v>
       </c>
     </row>
     <row r="361" spans="2:7">
@@ -22050,7 +22093,7 @@
       </c>
       <c r="G361" s="1">
         <f t="shared" si="34"/>
-        <v>188323.91713747516</v>
+        <v>23540.489642184395</v>
       </c>
     </row>
     <row r="362" spans="2:7">
@@ -22076,7 +22119,7 @@
       </c>
       <c r="G362" s="1">
         <f t="shared" si="34"/>
-        <v>187793.42723004511</v>
+        <v>23474.178403755639</v>
       </c>
     </row>
     <row r="363" spans="2:7">
@@ -22102,7 +22145,7 @@
       </c>
       <c r="G363" s="1">
         <f t="shared" si="34"/>
-        <v>187265.9176029939</v>
+        <v>23408.239700374237</v>
       </c>
     </row>
     <row r="364" spans="2:7">
@@ -22128,7 +22171,7 @@
       </c>
       <c r="G364" s="1">
         <f t="shared" si="34"/>
-        <v>186741.36321195343</v>
+        <v>23342.670401494179</v>
       </c>
     </row>
     <row r="365" spans="2:7">
@@ -22154,7 +22197,7 @@
       </c>
       <c r="G365" s="1">
         <f t="shared" si="34"/>
-        <v>186219.73929236646</v>
+        <v>23277.467411545807</v>
       </c>
     </row>
     <row r="366" spans="2:7">
@@ -22180,7 +22223,7 @@
       </c>
       <c r="G366" s="1">
         <f t="shared" si="34"/>
-        <v>185701.02135561837</v>
+        <v>23212.627669452297</v>
       </c>
     </row>
     <row r="367" spans="2:7">
@@ -22206,7 +22249,7 @@
       </c>
       <c r="G367" s="1">
         <f t="shared" si="34"/>
-        <v>185185.1851851856</v>
+        <v>23148.148148148201</v>
       </c>
     </row>
     <row r="368" spans="2:7">
@@ -22232,7 +22275,7 @@
       </c>
       <c r="G368" s="1">
         <f t="shared" si="34"/>
-        <v>184672.20683287157</v>
+        <v>23084.025854108946</v>
       </c>
     </row>
     <row r="369" spans="2:7">
@@ -22258,7 +22301,7 @@
       </c>
       <c r="G369" s="1">
         <f t="shared" si="34"/>
-        <v>184162.0626151007</v>
+        <v>23020.257826887588</v>
       </c>
     </row>
     <row r="370" spans="2:7">
@@ -22284,7 +22327,7 @@
       </c>
       <c r="G370" s="1">
         <f t="shared" si="34"/>
-        <v>183654.72910927347</v>
+        <v>22956.841138659183</v>
       </c>
     </row>
     <row r="371" spans="2:7">
@@ -22310,7 +22353,7 @@
       </c>
       <c r="G371" s="1">
         <f t="shared" si="34"/>
-        <v>183150.18315018155</v>
+        <v>22893.772893772693</v>
       </c>
     </row>
     <row r="372" spans="2:7">
@@ -22336,7 +22379,7 @@
       </c>
       <c r="G372" s="1">
         <f t="shared" si="34"/>
-        <v>182648.40182648195</v>
+        <v>22831.050228310243</v>
       </c>
     </row>
     <row r="373" spans="2:7">
@@ -22362,7 +22405,7 @@
       </c>
       <c r="G373" s="1">
         <f t="shared" si="34"/>
-        <v>182149.36247723337</v>
+        <v>22768.670309654171</v>
       </c>
     </row>
     <row r="374" spans="2:7">
@@ -22388,7 +22431,7 @@
       </c>
       <c r="G374" s="1">
         <f t="shared" si="34"/>
-        <v>181653.04268846655</v>
+        <v>22706.630336058319</v>
       </c>
     </row>
     <row r="375" spans="2:7">
@@ -22414,7 +22457,7 @@
       </c>
       <c r="G375" s="1">
         <f t="shared" si="34"/>
-        <v>181159.42028985609</v>
+        <v>22644.927536232011</v>
       </c>
     </row>
     <row r="376" spans="2:7">
@@ -22440,7 +22483,7 @@
       </c>
       <c r="G376" s="1">
         <f t="shared" si="34"/>
-        <v>180668.47335140069</v>
+        <v>22583.559168925087</v>
       </c>
     </row>
     <row r="377" spans="2:7">
@@ -22466,7 +22509,7 @@
       </c>
       <c r="G377" s="1">
         <f t="shared" si="34"/>
-        <v>180180.18018018024</v>
+        <v>22522.522522522529</v>
       </c>
     </row>
     <row r="378" spans="2:7">
@@ -22492,7 +22535,7 @@
       </c>
       <c r="G378" s="1">
         <f t="shared" si="34"/>
-        <v>179694.51931716036</v>
+        <v>22461.814914645045</v>
       </c>
     </row>
     <row r="379" spans="2:7">
@@ -22518,7 +22561,7 @@
       </c>
       <c r="G379" s="1">
         <f t="shared" si="34"/>
-        <v>179211.46953404925</v>
+        <v>22401.433691756156</v>
       </c>
     </row>
     <row r="380" spans="2:7">
@@ -22544,7 +22587,7 @@
       </c>
       <c r="G380" s="1">
         <f t="shared" si="34"/>
-        <v>178731.00983020413</v>
+        <v>22341.376228775516</v>
       </c>
     </row>
     <row r="381" spans="2:7">
@@ -22570,7 +22613,7 @@
       </c>
       <c r="G381" s="1">
         <f t="shared" si="34"/>
-        <v>178253.11942958817</v>
+        <v>22281.639928698522</v>
       </c>
     </row>
     <row r="382" spans="2:7">
@@ -22596,7 +22639,7 @@
       </c>
       <c r="G382" s="1">
         <f t="shared" si="34"/>
-        <v>177777.77777777982</v>
+        <v>22222.222222222477</v>
       </c>
     </row>
     <row r="383" spans="2:7">
@@ -22622,7 +22665,7 @@
       </c>
       <c r="G383" s="1">
         <f t="shared" si="34"/>
-        <v>177304.96453900865</v>
+        <v>22163.120567376081</v>
       </c>
     </row>
     <row r="384" spans="2:7">
@@ -22648,7 +22691,7 @@
       </c>
       <c r="G384" s="1">
         <f t="shared" si="34"/>
-        <v>176834.65959328137</v>
+        <v>22104.332449160171</v>
       </c>
     </row>
     <row r="385" spans="2:7">
@@ -22674,7 +22717,7 @@
       </c>
       <c r="G385" s="1">
         <f t="shared" si="34"/>
-        <v>176366.84303351032</v>
+        <v>22045.85537918879</v>
       </c>
     </row>
     <row r="386" spans="2:7">
@@ -22700,7 +22743,7 @@
       </c>
       <c r="G386" s="1">
         <f t="shared" si="34"/>
-        <v>175901.49516270903</v>
+        <v>21987.686895338629</v>
       </c>
     </row>
     <row r="387" spans="2:7">
@@ -22726,7 +22769,7 @@
       </c>
       <c r="G387" s="1">
         <f t="shared" si="34"/>
-        <v>175438.59649122777</v>
+        <v>21929.824561403471</v>
       </c>
     </row>
     <row r="388" spans="2:7">
@@ -22752,7 +22795,7 @@
       </c>
       <c r="G388" s="1">
         <f t="shared" si="34"/>
-        <v>174978.12773403246</v>
+        <v>21872.265966754057</v>
       </c>
     </row>
     <row r="389" spans="2:7">
@@ -22778,7 +22821,7 @@
       </c>
       <c r="G389" s="1">
         <f t="shared" si="34"/>
-        <v>174520.06980802669</v>
+        <v>21815.008726003336</v>
       </c>
     </row>
     <row r="390" spans="2:7">
@@ -22804,7 +22847,7 @@
       </c>
       <c r="G390" s="1">
         <f t="shared" si="34"/>
-        <v>174064.40382941521</v>
+        <v>21758.050478676902</v>
       </c>
     </row>
     <row r="391" spans="2:7">
@@ -22830,7 +22873,7 @@
       </c>
       <c r="G391" s="1">
         <f t="shared" si="34"/>
-        <v>173611.111111109</v>
+        <v>21701.388888888625</v>
       </c>
     </row>
     <row r="392" spans="2:7">
@@ -22856,7 +22899,7 @@
       </c>
       <c r="G392" s="1">
         <f t="shared" si="34"/>
-        <v>173160.17316017477</v>
+        <v>21645.021645021847</v>
       </c>
     </row>
     <row r="393" spans="2:7">
@@ -22882,7 +22925,7 @@
       </c>
       <c r="G393" s="1">
         <f t="shared" ref="G393:G456" si="40">F393/$G$3</f>
-        <v>172711.57167530339</v>
+        <v>21588.946459412924</v>
       </c>
     </row>
     <row r="394" spans="2:7">
@@ -22908,7 +22951,7 @@
       </c>
       <c r="G394" s="1">
         <f t="shared" si="40"/>
-        <v>172265.28854435903</v>
+        <v>21533.161068044879</v>
       </c>
     </row>
     <row r="395" spans="2:7">
@@ -22934,7 +22977,7 @@
       </c>
       <c r="G395" s="1">
         <f t="shared" si="40"/>
-        <v>171821.30584192465</v>
+        <v>21477.663230240581</v>
       </c>
     </row>
     <row r="396" spans="2:7">
@@ -22960,7 +23003,7 @@
       </c>
       <c r="G396" s="1">
         <f t="shared" si="40"/>
-        <v>171379.60582690639</v>
+        <v>21422.450728363299</v>
       </c>
     </row>
     <row r="397" spans="2:7">
@@ -22986,7 +23029,7 @@
       </c>
       <c r="G397" s="1">
         <f t="shared" si="40"/>
-        <v>170940.1709401703</v>
+        <v>21367.521367521287</v>
       </c>
     </row>
     <row r="398" spans="2:7">
@@ -23012,7 +23055,7 @@
       </c>
       <c r="G398" s="1">
         <f t="shared" si="40"/>
-        <v>170502.98380221549</v>
+        <v>21312.872975276936</v>
       </c>
     </row>
     <row r="399" spans="2:7">
@@ -23038,7 +23081,7 @@
       </c>
       <c r="G399" s="1">
         <f t="shared" si="40"/>
-        <v>170068.02721088284</v>
+        <v>21258.503401360354</v>
       </c>
     </row>
     <row r="400" spans="2:7">
@@ -23064,7 +23107,7 @@
       </c>
       <c r="G400" s="1">
         <f t="shared" si="40"/>
-        <v>169635.28413909904</v>
+        <v>21204.41051738738</v>
       </c>
     </row>
     <row r="401" spans="2:7">
@@ -23090,7 +23133,7 @@
       </c>
       <c r="G401" s="1">
         <f t="shared" si="40"/>
-        <v>169204.73773265816</v>
+        <v>21150.59221658227</v>
       </c>
     </row>
     <row r="402" spans="2:7">
@@ -23116,7 +23159,7 @@
       </c>
       <c r="G402" s="1">
         <f t="shared" si="40"/>
-        <v>168776.37130801808</v>
+        <v>21097.046413502259</v>
       </c>
     </row>
     <row r="403" spans="2:7">
@@ -23142,7 +23185,7 @@
       </c>
       <c r="G403" s="1">
         <f t="shared" si="40"/>
-        <v>168350.16835016912</v>
+        <v>21043.771043771139</v>
       </c>
     </row>
     <row r="404" spans="2:7">
@@ -23168,7 +23211,7 @@
       </c>
       <c r="G404" s="1">
         <f t="shared" si="40"/>
-        <v>167926.11251049573</v>
+        <v>20990.764063811966</v>
       </c>
     </row>
     <row r="405" spans="2:7">
@@ -23194,7 +23237,7 @@
       </c>
       <c r="G405" s="1">
         <f t="shared" si="40"/>
-        <v>167504.18760469003</v>
+        <v>20938.023450586254</v>
       </c>
     </row>
     <row r="406" spans="2:7">
@@ -23220,7 +23263,7 @@
       </c>
       <c r="G406" s="1">
         <f t="shared" si="40"/>
-        <v>167084.3776106929</v>
+        <v>20885.547201336612</v>
       </c>
     </row>
     <row r="407" spans="2:7">
@@ -23246,7 +23289,7 @@
       </c>
       <c r="G407" s="1">
         <f t="shared" si="40"/>
-        <v>166666.66666666578</v>
+        <v>20833.333333333223</v>
       </c>
     </row>
     <row r="408" spans="2:7">
@@ -23272,7 +23315,7 @@
       </c>
       <c r="G408" s="1">
         <f t="shared" si="40"/>
-        <v>166251.03906899289</v>
+        <v>20781.379883624111</v>
       </c>
     </row>
     <row r="409" spans="2:7">
@@ -23298,7 +23341,7 @@
       </c>
       <c r="G409" s="1">
         <f t="shared" si="40"/>
-        <v>165837.47927031337</v>
+        <v>20729.684908789171</v>
       </c>
     </row>
     <row r="410" spans="2:7">
@@ -23324,7 +23367,7 @@
       </c>
       <c r="G410" s="1">
         <f t="shared" si="40"/>
-        <v>165425.97187758645</v>
+        <v>20678.246484698306</v>
       </c>
     </row>
     <row r="411" spans="2:7">
@@ -23350,7 +23393,7 @@
       </c>
       <c r="G411" s="1">
         <f t="shared" si="40"/>
-        <v>165016.50165016626</v>
+        <v>20627.062706270783</v>
       </c>
     </row>
     <row r="412" spans="2:7">
@@ -23376,7 +23419,7 @@
       </c>
       <c r="G412" s="1">
         <f t="shared" si="40"/>
-        <v>164609.05349794324</v>
+        <v>20576.131687242905</v>
       </c>
     </row>
     <row r="413" spans="2:7">
@@ -23402,7 +23445,7 @@
       </c>
       <c r="G413" s="1">
         <f t="shared" si="40"/>
-        <v>164203.61247947498</v>
+        <v>20525.451559934372</v>
       </c>
     </row>
     <row r="414" spans="2:7">
@@ -23428,7 +23471,7 @@
       </c>
       <c r="G414" s="1">
         <f t="shared" si="40"/>
-        <v>163800.16380016383</v>
+        <v>20475.020475020479</v>
       </c>
     </row>
     <row r="415" spans="2:7">
@@ -23454,7 +23497,7 @@
       </c>
       <c r="G415" s="1">
         <f t="shared" si="40"/>
-        <v>163398.69281045714</v>
+        <v>20424.836601307143</v>
       </c>
     </row>
     <row r="416" spans="2:7">
@@ -23480,7 +23523,7 @@
       </c>
       <c r="G416" s="1">
         <f t="shared" si="40"/>
-        <v>162999.18500407788</v>
+        <v>20374.898125509735</v>
       </c>
     </row>
     <row r="417" spans="2:7">
@@ -23506,7 +23549,7 @@
       </c>
       <c r="G417" s="1">
         <f t="shared" si="40"/>
-        <v>162601.62601625902</v>
+        <v>20325.203252032377</v>
       </c>
     </row>
     <row r="418" spans="2:7">
@@ -23532,7 +23575,7 @@
       </c>
       <c r="G418" s="1">
         <f t="shared" si="40"/>
-        <v>162206.00162206212</v>
+        <v>20275.750202757765</v>
       </c>
     </row>
     <row r="419" spans="2:7">
@@ -23558,7 +23601,7 @@
       </c>
       <c r="G419" s="1">
         <f t="shared" si="40"/>
-        <v>161812.29773462587</v>
+        <v>20226.537216828234</v>
       </c>
     </row>
     <row r="420" spans="2:7">
@@ -23584,7 +23627,7 @@
       </c>
       <c r="G420" s="1">
         <f t="shared" si="40"/>
-        <v>161420.50040355255</v>
+        <v>20177.562550444069</v>
       </c>
     </row>
     <row r="421" spans="2:7">
@@ -23610,7 +23653,7 @@
       </c>
       <c r="G421" s="1">
         <f t="shared" si="40"/>
-        <v>161030.59581320183</v>
+        <v>20128.824476650228</v>
       </c>
     </row>
     <row r="422" spans="2:7">
@@ -23636,7 +23679,7 @@
       </c>
       <c r="G422" s="1">
         <f t="shared" si="40"/>
-        <v>160642.57028112502</v>
+        <v>20080.321285140628</v>
       </c>
     </row>
     <row r="423" spans="2:7">
@@ -23662,7 +23705,7 @@
       </c>
       <c r="G423" s="1">
         <f t="shared" si="40"/>
-        <v>160256.41025640682</v>
+        <v>20032.051282050852</v>
       </c>
     </row>
     <row r="424" spans="2:7">
@@ -23688,7 +23731,7 @@
       </c>
       <c r="G424" s="1">
         <f t="shared" si="40"/>
-        <v>159872.10231814522</v>
+        <v>19984.012789768152</v>
       </c>
     </row>
     <row r="425" spans="2:7">
@@ -23714,7 +23757,7 @@
       </c>
       <c r="G425" s="1">
         <f t="shared" si="40"/>
-        <v>159489.63317384658</v>
+        <v>19936.204146730823</v>
       </c>
     </row>
     <row r="426" spans="2:7">
@@ -23740,7 +23783,7 @@
       </c>
       <c r="G426" s="1">
         <f t="shared" si="40"/>
-        <v>159108.98965791464</v>
+        <v>19888.623707239331</v>
       </c>
     </row>
     <row r="427" spans="2:7">
@@ -23766,7 +23809,7 @@
       </c>
       <c r="G427" s="1">
         <f t="shared" si="40"/>
-        <v>158730.15873016085</v>
+        <v>19841.269841270107</v>
       </c>
     </row>
     <row r="428" spans="2:7">
@@ -23792,7 +23835,7 @@
       </c>
       <c r="G428" s="1">
         <f t="shared" si="40"/>
-        <v>158353.12747426587</v>
+        <v>19794.140934283234</v>
       </c>
     </row>
     <row r="429" spans="2:7">
@@ -23818,7 +23861,7 @@
       </c>
       <c r="G429" s="1">
         <f t="shared" si="40"/>
-        <v>157977.88309636785</v>
+        <v>19747.235387045981</v>
       </c>
     </row>
     <row r="430" spans="2:7">
@@ -23844,7 +23887,7 @@
       </c>
       <c r="G430" s="1">
         <f t="shared" si="40"/>
-        <v>157604.4129235594</v>
+        <v>19700.551615444925</v>
       </c>
     </row>
     <row r="431" spans="2:7">
@@ -23870,7 +23913,7 @@
       </c>
       <c r="G431" s="1">
         <f t="shared" si="40"/>
-        <v>157232.70440251633</v>
+        <v>19654.088050314542</v>
       </c>
     </row>
     <row r="432" spans="2:7">
@@ -23896,7 +23939,7 @@
       </c>
       <c r="G432" s="1">
         <f t="shared" si="40"/>
-        <v>156862.74509803602</v>
+        <v>19607.843137254502</v>
       </c>
     </row>
     <row r="433" spans="2:7">
@@ -23922,7 +23965,7 @@
       </c>
       <c r="G433" s="1">
         <f t="shared" si="40"/>
-        <v>156494.52269170561</v>
+        <v>19561.815336463202</v>
       </c>
     </row>
     <row r="434" spans="2:7">
@@ -23948,7 +23991,7 @@
       </c>
       <c r="G434" s="1">
         <f t="shared" si="40"/>
-        <v>156128.02498048687</v>
+        <v>19516.003122560858</v>
       </c>
     </row>
     <row r="435" spans="2:7">
@@ -23974,7 +24017,7 @@
       </c>
       <c r="G435" s="1">
         <f t="shared" si="40"/>
-        <v>155763.23987538854</v>
+        <v>19470.404984423567</v>
       </c>
     </row>
     <row r="436" spans="2:7">
@@ -24000,7 +24043,7 @@
       </c>
       <c r="G436" s="1">
         <f t="shared" si="40"/>
-        <v>155400.1554001575</v>
+        <v>19425.019425019687</v>
       </c>
     </row>
     <row r="437" spans="2:7">
@@ -24026,7 +24069,7 @@
       </c>
       <c r="G437" s="1">
         <f t="shared" si="40"/>
-        <v>155038.7596899209</v>
+        <v>19379.844961240113</v>
       </c>
     </row>
     <row r="438" spans="2:7">
@@ -24052,7 +24095,7 @@
       </c>
       <c r="G438" s="1">
         <f t="shared" si="40"/>
-        <v>154679.04098994724</v>
+        <v>19334.880123743405</v>
       </c>
     </row>
     <row r="439" spans="2:7">
@@ -24078,7 +24121,7 @@
       </c>
       <c r="G439" s="1">
         <f t="shared" si="40"/>
-        <v>154320.98765431868</v>
+        <v>19290.123456789835</v>
       </c>
     </row>
     <row r="440" spans="2:7">
@@ -24104,7 +24147,7 @@
       </c>
       <c r="G440" s="1">
         <f t="shared" si="40"/>
-        <v>153964.58814472737</v>
+        <v>19245.573518090921</v>
       </c>
     </row>
     <row r="441" spans="2:7">
@@ -24130,7 +24173,7 @@
       </c>
       <c r="G441" s="1">
         <f t="shared" si="40"/>
-        <v>153609.83102918288</v>
+        <v>19201.22887864786</v>
       </c>
     </row>
     <row r="442" spans="2:7">
@@ -24156,7 +24199,7 @@
       </c>
       <c r="G442" s="1">
         <f t="shared" si="40"/>
-        <v>153256.70498084286</v>
+        <v>19157.088122605357</v>
       </c>
     </row>
     <row r="443" spans="2:7">
@@ -24182,7 +24225,7 @@
       </c>
       <c r="G443" s="1">
         <f t="shared" si="40"/>
-        <v>152905.19877676124</v>
+        <v>19113.149847095156</v>
       </c>
     </row>
     <row r="444" spans="2:7">
@@ -24208,7 +24251,7 @@
       </c>
       <c r="G444" s="1">
         <f t="shared" si="40"/>
-        <v>152555.30129671929</v>
+        <v>19069.412662089911</v>
       </c>
     </row>
     <row r="445" spans="2:7">
@@ -24234,7 +24277,7 @@
       </c>
       <c r="G445" s="1">
         <f t="shared" si="40"/>
-        <v>152207.00152207213</v>
+        <v>19025.875190259016</v>
       </c>
     </row>
     <row r="446" spans="2:7">
@@ -24260,7 +24303,7 @@
       </c>
       <c r="G446" s="1">
         <f t="shared" si="40"/>
-        <v>151860.28853454677</v>
+        <v>18982.536066818346</v>
       </c>
     </row>
     <row r="447" spans="2:7">
@@ -24286,7 +24329,7 @@
       </c>
       <c r="G447" s="1">
         <f t="shared" si="40"/>
-        <v>151515.15151515292</v>
+        <v>18939.393939394115</v>
       </c>
     </row>
     <row r="448" spans="2:7">
@@ -24312,7 +24355,7 @@
       </c>
       <c r="G448" s="1">
         <f t="shared" si="40"/>
-        <v>151171.57974300618</v>
+        <v>18896.447467875772</v>
       </c>
     </row>
     <row r="449" spans="2:7">
@@ -24338,7 +24381,7 @@
       </c>
       <c r="G449" s="1">
         <f t="shared" si="40"/>
-        <v>150829.56259426917</v>
+        <v>18853.695324283646</v>
       </c>
     </row>
     <row r="450" spans="2:7">
@@ -24364,7 +24407,7 @@
       </c>
       <c r="G450" s="1">
         <f t="shared" si="40"/>
-        <v>150489.08954100549</v>
+        <v>18811.136192625687</v>
       </c>
     </row>
     <row r="451" spans="2:7">
@@ -24390,7 +24433,7 @@
       </c>
       <c r="G451" s="1">
         <f t="shared" si="40"/>
-        <v>150150.15015015018</v>
+        <v>18768.768768768772</v>
       </c>
     </row>
     <row r="452" spans="2:7">
@@ -24416,7 +24459,7 @@
       </c>
       <c r="G452" s="1">
         <f t="shared" si="40"/>
-        <v>149812.73408239981</v>
+        <v>18726.591760299976</v>
       </c>
     </row>
     <row r="453" spans="2:7">
@@ -24442,7 +24485,7 @@
       </c>
       <c r="G453" s="1">
         <f t="shared" si="40"/>
-        <v>149476.83109118021</v>
+        <v>18684.603886397526</v>
       </c>
     </row>
     <row r="454" spans="2:7">
@@ -24468,7 +24511,7 @@
       </c>
       <c r="G454" s="1">
         <f t="shared" si="40"/>
-        <v>149142.43102162777</v>
+        <v>18642.803877703471</v>
       </c>
     </row>
     <row r="455" spans="2:7">
@@ -24494,7 +24537,7 @@
       </c>
       <c r="G455" s="1">
         <f t="shared" si="40"/>
-        <v>148809.52380952251</v>
+        <v>18601.190476190313</v>
       </c>
     </row>
     <row r="456" spans="2:7">
@@ -24520,7 +24563,7 @@
       </c>
       <c r="G456" s="1">
         <f t="shared" si="40"/>
-        <v>148478.09948032809</v>
+        <v>18559.762435041011</v>
       </c>
     </row>
     <row r="457" spans="2:7">
@@ -24546,7 +24589,7 @@
       </c>
       <c r="G457" s="1">
         <f t="shared" ref="G457:G499" si="46">F457/$G$3</f>
-        <v>148148.1481481462</v>
+        <v>18518.518518518275</v>
       </c>
     </row>
     <row r="458" spans="2:7">
@@ -24572,7 +24615,7 @@
       </c>
       <c r="G458" s="1">
         <f t="shared" si="46"/>
-        <v>147819.66001478274</v>
+        <v>18477.457501847843</v>
       </c>
     </row>
     <row r="459" spans="2:7">
@@ -24598,7 +24641,7 @@
       </c>
       <c r="G459" s="1">
         <f t="shared" si="46"/>
-        <v>147492.62536872897</v>
+        <v>18436.578171091121</v>
       </c>
     </row>
     <row r="460" spans="2:7">
@@ -24624,7 +24667,7 @@
       </c>
       <c r="G460" s="1">
         <f t="shared" si="46"/>
-        <v>147167.03458425324</v>
+        <v>18395.879323031655</v>
       </c>
     </row>
     <row r="461" spans="2:7">
@@ -24650,7 +24693,7 @@
       </c>
       <c r="G461" s="1">
         <f t="shared" si="46"/>
-        <v>146842.87812041395</v>
+        <v>18355.359765051744</v>
       </c>
     </row>
     <row r="462" spans="2:7">
@@ -24676,7 +24719,7 @@
       </c>
       <c r="G462" s="1">
         <f t="shared" si="46"/>
-        <v>146520.14652014599</v>
+        <v>18315.018315018249</v>
       </c>
     </row>
     <row r="463" spans="2:7">
@@ -24702,7 +24745,7 @@
       </c>
       <c r="G463" s="1">
         <f t="shared" si="46"/>
-        <v>146198.83040935884</v>
+        <v>18274.853801169855</v>
       </c>
     </row>
     <row r="464" spans="2:7">
@@ -24728,7 +24771,7 @@
       </c>
       <c r="G464" s="1">
         <f t="shared" si="46"/>
-        <v>145878.92049598717</v>
+        <v>18234.865061998396</v>
       </c>
     </row>
     <row r="465" spans="2:7">
@@ -24754,7 +24797,7 @@
       </c>
       <c r="G465" s="1">
         <f t="shared" si="46"/>
-        <v>145560.40756914267</v>
+        <v>18195.050946142834</v>
       </c>
     </row>
     <row r="466" spans="2:7">
@@ -24780,7 +24823,7 @@
       </c>
       <c r="G466" s="1">
         <f t="shared" si="46"/>
-        <v>145243.28249818267</v>
+        <v>18155.410312272834</v>
       </c>
     </row>
     <row r="467" spans="2:7">
@@ -24806,7 +24849,7 @@
       </c>
       <c r="G467" s="1">
         <f t="shared" si="46"/>
-        <v>144927.53623188488</v>
+        <v>18115.94202898561</v>
       </c>
     </row>
     <row r="468" spans="2:7">
@@ -24832,7 +24875,7 @@
       </c>
       <c r="G468" s="1">
         <f t="shared" si="46"/>
-        <v>144613.15979753918</v>
+        <v>18076.644974692397</v>
       </c>
     </row>
     <row r="469" spans="2:7">
@@ -24858,7 +24901,7 @@
       </c>
       <c r="G469" s="1">
         <f t="shared" si="46"/>
-        <v>144300.14430014449</v>
+        <v>18037.518037518061</v>
       </c>
     </row>
     <row r="470" spans="2:7">
@@ -24884,7 +24927,7 @@
       </c>
       <c r="G470" s="1">
         <f t="shared" si="46"/>
-        <v>143988.48092152903</v>
+        <v>17998.560115191129</v>
       </c>
     </row>
     <row r="471" spans="2:7">
@@ -24910,7 +24953,7 @@
       </c>
       <c r="G471" s="1">
         <f t="shared" si="46"/>
-        <v>143678.16091953978</v>
+        <v>17959.770114942472</v>
       </c>
     </row>
     <row r="472" spans="2:7">
@@ -24936,7 +24979,7 @@
       </c>
       <c r="G472" s="1">
         <f t="shared" si="46"/>
-        <v>143369.17562724225</v>
+        <v>17921.146953405281</v>
       </c>
     </row>
     <row r="473" spans="2:7">
@@ -24962,7 +25005,7 @@
       </c>
       <c r="G473" s="1">
         <f t="shared" si="46"/>
-        <v>143061.51645207335</v>
+        <v>17882.689556509169</v>
       </c>
     </row>
     <row r="474" spans="2:7">
@@ -24988,7 +25031,7 @@
       </c>
       <c r="G474" s="1">
         <f t="shared" si="46"/>
-        <v>142755.17487509071</v>
+        <v>17844.396859386339</v>
       </c>
     </row>
     <row r="475" spans="2:7">
@@ -25014,7 +25057,7 @@
       </c>
       <c r="G475" s="1">
         <f t="shared" si="46"/>
-        <v>142450.14245014079</v>
+        <v>17806.267806267599</v>
       </c>
     </row>
     <row r="476" spans="2:7">
@@ -25040,7 +25083,7 @@
       </c>
       <c r="G476" s="1">
         <f t="shared" si="46"/>
-        <v>142146.41080312806</v>
+        <v>17768.301350391008</v>
       </c>
     </row>
     <row r="477" spans="2:7">
@@ -25066,7 +25109,7 @@
       </c>
       <c r="G477" s="1">
         <f t="shared" si="46"/>
-        <v>141843.97163120343</v>
+        <v>17730.496453900429</v>
       </c>
     </row>
     <row r="478" spans="2:7">
@@ -25092,7 +25135,7 @@
       </c>
       <c r="G478" s="1">
         <f t="shared" si="46"/>
-        <v>141542.81670205263</v>
+        <v>17692.852087756579</v>
       </c>
     </row>
     <row r="479" spans="2:7">
@@ -25118,7 +25161,7 @@
       </c>
       <c r="G479" s="1">
         <f t="shared" si="46"/>
-        <v>141242.93785310452</v>
+        <v>17655.367231638065</v>
       </c>
     </row>
     <row r="480" spans="2:7">
@@ -25144,7 +25187,7 @@
       </c>
       <c r="G480" s="1">
         <f t="shared" si="46"/>
-        <v>140944.32699083828</v>
+        <v>17618.040873854785</v>
       </c>
     </row>
     <row r="481" spans="2:7">
@@ -25170,7 +25213,7 @@
       </c>
       <c r="G481" s="1">
         <f t="shared" si="46"/>
-        <v>140646.97609001616</v>
+        <v>17580.87201125202</v>
       </c>
     </row>
     <row r="482" spans="2:7">
@@ -25196,7 +25239,7 @@
       </c>
       <c r="G482" s="1">
         <f t="shared" si="46"/>
-        <v>140350.87719298154</v>
+        <v>17543.859649122693</v>
       </c>
     </row>
     <row r="483" spans="2:7">
@@ -25222,7 +25265,7 @@
       </c>
       <c r="G483" s="1">
         <f t="shared" si="46"/>
-        <v>140056.0224089651</v>
+        <v>17507.002801120638</v>
       </c>
     </row>
     <row r="484" spans="2:7">
@@ -25248,7 +25291,7 @@
       </c>
       <c r="G484" s="1">
         <f t="shared" si="46"/>
-        <v>139762.4039133458</v>
+        <v>17470.300489168225</v>
       </c>
     </row>
     <row r="485" spans="2:7">
@@ -25274,7 +25317,7 @@
       </c>
       <c r="G485" s="1">
         <f t="shared" si="46"/>
-        <v>139470.0139470023</v>
+        <v>17433.751743375287</v>
       </c>
     </row>
     <row r="486" spans="2:7">
@@ -25300,7 +25343,7 @@
       </c>
       <c r="G486" s="1">
         <f t="shared" si="46"/>
-        <v>139178.84481558594</v>
+        <v>17397.355601948242</v>
       </c>
     </row>
     <row r="487" spans="2:7">
@@ -25326,7 +25369,7 @@
       </c>
       <c r="G487" s="1">
         <f t="shared" si="46"/>
-        <v>138888.8888888892</v>
+        <v>17361.11111111115</v>
       </c>
     </row>
     <row r="488" spans="2:7">
@@ -25352,7 +25395,7 @@
       </c>
       <c r="G488" s="1">
         <f t="shared" si="46"/>
-        <v>138600.13860013598</v>
+        <v>17325.017325016997</v>
       </c>
     </row>
     <row r="489" spans="2:7">
@@ -25378,7 +25421,7 @@
       </c>
       <c r="G489" s="1">
         <f t="shared" si="46"/>
-        <v>138312.58644536627</v>
+        <v>17289.073305670783</v>
       </c>
     </row>
     <row r="490" spans="2:7">
@@ -25404,7 +25447,7 @@
       </c>
       <c r="G490" s="1">
         <f t="shared" si="46"/>
-        <v>138026.22498274883</v>
+        <v>17253.278122843603</v>
       </c>
     </row>
     <row r="491" spans="2:7">
@@ -25430,7 +25473,7 @@
       </c>
       <c r="G491" s="1">
         <f t="shared" si="46"/>
-        <v>137741.04683195511</v>
+        <v>17217.630853994389</v>
       </c>
     </row>
     <row r="492" spans="2:7">
@@ -25456,7 +25499,7 @@
       </c>
       <c r="G492" s="1">
         <f t="shared" si="46"/>
-        <v>137457.04467354104</v>
+        <v>17182.13058419263</v>
       </c>
     </row>
     <row r="493" spans="2:7">
@@ -25482,7 +25525,7 @@
       </c>
       <c r="G493" s="1">
         <f t="shared" si="46"/>
-        <v>137174.21124828394</v>
+        <v>17146.776406035493</v>
       </c>
     </row>
     <row r="494" spans="2:7">
@@ -25508,7 +25551,7 @@
       </c>
       <c r="G494" s="1">
         <f t="shared" si="46"/>
-        <v>136892.53935660599</v>
+        <v>17111.567419575749</v>
       </c>
     </row>
     <row r="495" spans="2:7">
@@ -25534,7 +25577,7 @@
       </c>
       <c r="G495" s="1">
         <f t="shared" si="46"/>
-        <v>136612.02185792156</v>
+        <v>17076.502732240195</v>
       </c>
     </row>
     <row r="496" spans="2:7">
@@ -25560,7 +25603,7 @@
       </c>
       <c r="G496" s="1">
         <f t="shared" si="46"/>
-        <v>136332.65167007534</v>
+        <v>17041.581458759418</v>
       </c>
     </row>
     <row r="497" spans="2:7">
@@ -25586,7 +25629,7 @@
       </c>
       <c r="G497" s="1">
         <f t="shared" si="46"/>
-        <v>136054.42176870501</v>
+        <v>17006.802721088126</v>
       </c>
     </row>
     <row r="498" spans="2:7">
@@ -25612,7 +25655,7 @@
       </c>
       <c r="G498" s="1">
         <f t="shared" si="46"/>
-        <v>135777.32518669363</v>
+        <v>16972.165648336704</v>
       </c>
     </row>
     <row r="499" spans="2:7">
@@ -25638,7 +25681,7 @@
       </c>
       <c r="G499" s="1">
         <f t="shared" si="46"/>
-        <v>135501.35501355224</v>
+        <v>16937.66937669403</v>
       </c>
     </row>
     <row r="500" spans="2:7">
@@ -25854,7 +25897,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40806.953738657408</v>
+        <v>40818.90985034722</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -25870,7 +25913,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40806.953738657408</v>
+        <v>40818.90985034722</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -25903,7 +25946,7 @@
       </c>
       <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
@@ -25919,7 +25962,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -25935,7 +25978,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -25951,7 +25994,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -25967,7 +26010,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -25984,7 +26027,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455825</v>
+        <v>2455838</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -26018,7 +26061,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455825.4537384259</v>
+        <v>2455838.4098495366</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -26031,14 +26074,14 @@
       </c>
       <c r="D11" s="30">
         <f>Лист2!I7</f>
-        <v>2.4999999999999999E-8</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3">
         <f>IF(D11&lt;0.000001,D11*1000000000,IF(D11&lt;0.001,D11*1000000,IF(D11&lt;1,D11*1000,IF(D11&gt;1000000,D11/1000000,IF(D11&gt;1000,D11/1000,D11)))))</f>
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G11" t="str">
         <f>CONCATENATE(IF(D11&lt;0.000001,"n",IF(D11&lt;0.001,"u",IF(D11&lt;1,"m",IF(D11&gt;1000000,"M",IF(D11&gt;1000,"K",""))))),E11)</f>
@@ -35133,7 +35176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>дни</t>
   </si>
@@ -642,6 +642,55 @@
   <si>
     <t xml:space="preserve"> -t(x)</t>
   </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>max V</t>
+  </si>
+  <si>
+    <t>max A</t>
+  </si>
+  <si>
+    <t>градусы</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1047,11 +1096,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1115,6 +1255,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9807,11 +9963,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="125715200"/>
-        <c:axId val="125672064"/>
+        <c:axId val="87816064"/>
+        <c:axId val="87817600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125715200"/>
+        <c:axId val="87816064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9819,12 +9975,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125672064"/>
+        <c:crossAx val="87817600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125672064"/>
+        <c:axId val="87817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9832,7 +9988,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125715200"/>
+        <c:crossAx val="87816064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9845,7 +10001,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14733,23 +14889,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135300992"/>
-        <c:axId val="135678592"/>
+        <c:axId val="88235392"/>
+        <c:axId val="88253568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135300992"/>
+        <c:axId val="88235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135678592"/>
+        <c:crossAx val="88253568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135678592"/>
+        <c:axId val="88253568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14757,7 +14913,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135300992"/>
+        <c:crossAx val="88235392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14770,7 +14926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14891,25 +15047,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102238464"/>
-        <c:axId val="102252544"/>
+        <c:axId val="98866688"/>
+        <c:axId val="98868224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102238464"/>
+        <c:axId val="98866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102252544"/>
+        <c:crossAx val="98868224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102252544"/>
+        <c:axId val="98868224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14917,19 +15073,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102238464"/>
+        <c:crossAx val="98866688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15017,11 +15174,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102293888"/>
-        <c:axId val="102295424"/>
+        <c:axId val="96705920"/>
+        <c:axId val="96711808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102293888"/>
+        <c:axId val="96705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15073,14 +15230,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102295424"/>
+        <c:crossAx val="96711808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102295424"/>
+        <c:axId val="96711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15116,7 +15273,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102293888"/>
+        <c:crossAx val="96705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15130,12 +15287,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15235,11 +15393,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104171008"/>
-        <c:axId val="104172544"/>
+        <c:axId val="103187200"/>
+        <c:axId val="103188736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104171008"/>
+        <c:axId val="103187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15261,14 +15419,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104172544"/>
+        <c:crossAx val="103188736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104172544"/>
+        <c:axId val="103188736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15276,7 +15434,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104171008"/>
+        <c:crossAx val="103187200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15285,7 +15443,215 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.689032620922385E-2"/>
+          <c:y val="0.10794049215463787"/>
+          <c:w val="0.88197300337457818"/>
+          <c:h val="0.75905832731607237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист9!$A$8:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1666666666666562E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист9!$B$8:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.380265459725582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.771891077679758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.819742018555457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.375888374825783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.932034731096108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4881810873664332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2505922498838551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8067386061541812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5378257374361199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0626480624709638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="48029056"/>
+        <c:axId val="48027520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="48029056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max V</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90812710911136107"/>
+              <c:y val="0.92953409208128457"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48027520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48027520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9444444444444441E-3"/>
+              <c:y val="4.466756065972103E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48029056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15439,6 +15805,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15840,13 +16241,217 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="K2">
+        <f>LINEST(C8:C17,A8:A17,1)</f>
+        <v>-24.007348514801848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="C3" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A7" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="61">
+        <v>4.1666666666666562E-3</v>
+      </c>
+      <c r="B8" s="62">
+        <f>360*C8/($E$5*$E$4*$E$4*PI())</f>
+        <v>17.380265459725582</v>
+      </c>
+      <c r="C8" s="64">
+        <v>303.34285714285727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="62">
+        <f t="shared" ref="B9:B17" si="0">360*C9/($E$5*$E$4*$E$4*PI())</f>
+        <v>15.771891077679758</v>
+      </c>
+      <c r="C9" s="65">
+        <v>275.27142857142849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="62">
+        <v>1.25</v>
+      </c>
+      <c r="B10" s="62">
+        <f t="shared" si="0"/>
+        <v>13.819742018555457</v>
+      </c>
+      <c r="C10" s="65">
+        <v>241.20000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="62">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="62">
+        <f t="shared" si="0"/>
+        <v>12.375888374825783</v>
+      </c>
+      <c r="C11" s="65">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="62">
+        <v>3.75</v>
+      </c>
+      <c r="B12" s="62">
+        <f t="shared" si="0"/>
+        <v>10.932034731096108</v>
+      </c>
+      <c r="C12" s="65">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="62">
+        <v>5</v>
+      </c>
+      <c r="B13" s="62">
+        <f t="shared" si="0"/>
+        <v>9.4881810873664332</v>
+      </c>
+      <c r="C13" s="65">
+        <v>165.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="62">
+        <v>6.25</v>
+      </c>
+      <c r="B14" s="62">
+        <f t="shared" si="0"/>
+        <v>8.2505922498838551</v>
+      </c>
+      <c r="C14" s="65">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="B15" s="62">
+        <f t="shared" si="0"/>
+        <v>6.8067386061541812</v>
+      </c>
+      <c r="C15" s="65">
+        <v>118.80000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="62">
+        <v>8.75</v>
+      </c>
+      <c r="B16" s="62">
+        <f t="shared" si="0"/>
+        <v>4.5378257374361199</v>
+      </c>
+      <c r="C16" s="65">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="63">
+        <v>10</v>
+      </c>
+      <c r="B17" s="63">
+        <f t="shared" si="0"/>
+        <v>2.0626480624709638</v>
+      </c>
+      <c r="C17" s="66">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17199,7 +17804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -17389,7 +17994,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F9:F72" si="4">(-$D$3+SQRT($D$3*$D$3-4*($D$2-E10)*$D$4))/(2*$D$4)</f>
+        <f t="shared" ref="F10:F72" si="4">(-$D$3+SQRT($D$3*$D$3-4*($D$2-E10)*$D$4))/(2*$D$4)</f>
         <v>0.20495097567963927</v>
       </c>
       <c r="G10" s="3">
@@ -29448,7 +30053,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40826.077598148149</v>
+        <v>40828.011431712963</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -29464,7 +30069,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40825.547602430554</v>
+        <v>40827.909661574071</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -29513,7 +30118,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -29529,7 +30134,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -29545,7 +30150,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -29561,7 +30166,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -29578,7 +30183,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455845</v>
+        <v>2455847</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -29612,7 +30217,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455838.4098495366</v>
+        <v>2455847.4096643515</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -29624,18 +30229,18 @@
         <v>43</v>
       </c>
       <c r="D11" s="30">
-        <f ca="1">Частоты!I7</f>
+        <f>Частоты!I7</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">IF(D11&lt;0.000001,D11*1000000000,IF(D11&lt;0.001,D11*1000000,IF(D11&lt;1,D11*1000,IF(D11&gt;1000000,D11/1000000,IF(D11&gt;1000,D11/1000,D11)))))</f>
+        <f>IF(D11&lt;0.000001,D11*1000000000,IF(D11&lt;0.001,D11*1000000,IF(D11&lt;1,D11*1000,IF(D11&gt;1000000,D11/1000000,IF(D11&gt;1000,D11/1000,D11)))))</f>
         <v>200</v>
       </c>
       <c r="G11" t="str">
-        <f ca="1">CONCATENATE(IF(D11&lt;0.000001,"n",IF(D11&lt;0.001,"u",IF(D11&lt;1,"m",IF(D11&gt;1000000,"M",IF(D11&gt;1000,"K",""))))),E11)</f>
+        <f>CONCATENATE(IF(D11&lt;0.000001,"n",IF(D11&lt;0.001,"u",IF(D11&lt;1,"m",IF(D11&gt;1000000,"M",IF(D11&gt;1000,"K",""))))),E11)</f>
         <v>ns</v>
       </c>
       <c r="I11" s="32"/>
@@ -38727,8 +39332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38776,10 +39381,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="57"/>
       <c r="G3" s="55" t="s">
         <v>104</v>
       </c>
@@ -38795,10 +39400,10 @@
       <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="34" t="s">
         <v>112</v>
       </c>
       <c r="F4" t="s">
@@ -38834,23 +39439,23 @@
         <v>13.3333333333333</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D6" si="0">F5*180/PI()</f>
+        <f>F5*180/PI()</f>
         <v>17.380265459725578</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E6" si="1">G5*360</f>
+        <f t="shared" ref="E5:E6" si="0">G5*360</f>
         <v>4.1666666666666562E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F6" si="2">2*H5/($F$2*$F$1*$F$1)</f>
+        <f t="shared" ref="F5:F6" si="1">2*H5/($F$2*$F$1*$F$1)</f>
         <v>0.30334285714285725</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G6" si="3">K5/360</f>
+        <f t="shared" ref="G5:G6" si="2">K5/360</f>
         <v>1.1574074074074045E-5</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="4">360*I5</f>
+        <f t="shared" ref="H5:H6" si="3">360*I5</f>
         <v>303.34285714285727</v>
       </c>
       <c r="I5">
@@ -38861,41 +39466,41 @@
         <v>0.83333333333333126</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K6" si="5">J5/200</f>
+        <f t="shared" ref="K5:K6" si="4">J5/200</f>
         <v>4.1666666666666562E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <f t="shared" ref="A6:A14" si="6">B6/$A$2</f>
+        <f t="shared" ref="A6:A14" si="5">B6/$A$2</f>
         <v>3125</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B14" si="7">1/C6</f>
+        <f t="shared" ref="B6:B14" si="6">1/C6</f>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C14" si="8">G6*360*200*16</f>
+        <f t="shared" ref="C6:C14" si="7">G6*360*200*16</f>
         <v>1600</v>
       </c>
       <c r="D6">
+        <f t="shared" ref="D5:D6" si="8">F6*180/PI()</f>
+        <v>15.771891077679758</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>15.771891077679758</v>
-      </c>
-      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F6">
+        <v>0.2752714285714285</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0.2752714285714285</v>
-      </c>
-      <c r="G6" s="1">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="3"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
         <v>275.27142857142849</v>
       </c>
       <c r="I6">
@@ -38905,21 +39510,21 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
+        <f t="shared" si="5"/>
+        <v>1250</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="6"/>
-        <v>1250</v>
-      </c>
-      <c r="B7" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="D7">
@@ -38955,15 +39560,15 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="B8" s="1">
         <f t="shared" si="6"/>
-        <v>625</v>
-      </c>
-      <c r="B8" s="1">
+        <v>1.25E-4</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="7"/>
-        <v>1.25E-4</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
       <c r="D8">
@@ -38999,15 +39604,15 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9">
+        <f t="shared" si="5"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="B9" s="1">
         <f t="shared" si="6"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="B9" s="1">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="7"/>
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="D9">
@@ -39043,15 +39648,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
+        <f t="shared" si="5"/>
+        <v>312.5</v>
+      </c>
+      <c r="B10" s="1">
         <f t="shared" si="6"/>
-        <v>312.5</v>
-      </c>
-      <c r="B10" s="1">
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="7"/>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
       <c r="D10">
@@ -39087,15 +39692,15 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
+        <f t="shared" si="5"/>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="6"/>
-        <v>250.00000000000003</v>
-      </c>
-      <c r="B11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="1">
         <f t="shared" si="7"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
       <c r="D11">
@@ -39131,15 +39736,15 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
+        <f t="shared" si="5"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="6"/>
-        <v>208.33333333333334</v>
-      </c>
-      <c r="B12" s="1">
+        <v>4.1666666666666665E-5</v>
+      </c>
+      <c r="C12" s="1">
         <f t="shared" si="7"/>
-        <v>4.1666666666666665E-5</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="D12">
@@ -39175,15 +39780,15 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
+        <f t="shared" si="5"/>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="6"/>
-        <v>178.57142857142858</v>
-      </c>
-      <c r="B13" s="1">
+        <v>3.5714285714285717E-5</v>
+      </c>
+      <c r="C13" s="1">
         <f t="shared" si="7"/>
-        <v>3.5714285714285717E-5</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="8"/>
         <v>28000</v>
       </c>
       <c r="D13">
@@ -39219,15 +39824,15 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
+        <f t="shared" si="5"/>
+        <v>156.25</v>
+      </c>
+      <c r="B14" s="1">
         <f t="shared" si="6"/>
-        <v>156.25</v>
-      </c>
-      <c r="B14" s="1">
+        <v>3.1250000000000001E-5</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" si="7"/>
-        <v>3.1250000000000001E-5</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="8"/>
         <v>32000</v>
       </c>
       <c r="D14">

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1249,6 +1249,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,13 +1271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9963,11 +9963,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="87816064"/>
-        <c:axId val="87817600"/>
+        <c:axId val="73326592"/>
+        <c:axId val="73328128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87816064"/>
+        <c:axId val="73326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9975,12 +9975,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87817600"/>
+        <c:crossAx val="73328128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87817600"/>
+        <c:axId val="73328128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9988,20 +9988,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87816064"/>
+        <c:crossAx val="73326592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14889,23 +14888,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88235392"/>
-        <c:axId val="88253568"/>
+        <c:axId val="73557504"/>
+        <c:axId val="73559040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88235392"/>
+        <c:axId val="73557504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88253568"/>
+        <c:crossAx val="73559040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88253568"/>
+        <c:axId val="73559040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14913,20 +14912,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88235392"/>
+        <c:crossAx val="73557504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15047,25 +15045,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98866688"/>
-        <c:axId val="98868224"/>
+        <c:axId val="73686400"/>
+        <c:axId val="73692288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98866688"/>
+        <c:axId val="73686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98868224"/>
+        <c:crossAx val="73692288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98868224"/>
+        <c:axId val="73692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15073,20 +15071,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98866688"/>
+        <c:crossAx val="73686400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15174,11 +15171,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96705920"/>
-        <c:axId val="96711808"/>
+        <c:axId val="73823744"/>
+        <c:axId val="73825280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96705920"/>
+        <c:axId val="73823744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15230,14 +15227,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96711808"/>
+        <c:crossAx val="73825280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96711808"/>
+        <c:axId val="73825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15273,7 +15270,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96705920"/>
+        <c:crossAx val="73823744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15287,13 +15284,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15393,11 +15389,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103187200"/>
-        <c:axId val="103188736"/>
+        <c:axId val="77089408"/>
+        <c:axId val="77095296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103187200"/>
+        <c:axId val="77089408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15419,14 +15415,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103188736"/>
+        <c:crossAx val="77095296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103188736"/>
+        <c:axId val="77095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15434,7 +15430,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103187200"/>
+        <c:crossAx val="77089408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15443,7 +15439,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15460,10 +15456,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.689032620922385E-2"/>
+          <c:x val="8.6890326209223878E-2"/>
           <c:y val="0.10794049215463787"/>
-          <c:w val="0.88197300337457818"/>
-          <c:h val="0.75905832731607237"/>
+          <c:w val="0.8819730033745784"/>
+          <c:h val="0.75905832731607259"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15562,11 +15558,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="48029056"/>
-        <c:axId val="48027520"/>
+        <c:axId val="77097600"/>
+        <c:axId val="77164928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48029056"/>
+        <c:axId val="77097600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15593,19 +15589,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.90812710911136107"/>
-              <c:y val="0.92953409208128457"/>
+              <c:x val="0.90812710911136096"/>
+              <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48027520"/>
+        <c:crossAx val="77164928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48027520"/>
+        <c:axId val="77164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15635,14 +15631,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.9444444444444441E-3"/>
-              <c:y val="4.466756065972103E-2"/>
+              <c:x val="6.9444444444444458E-3"/>
+              <c:y val="4.4667560659721037E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48029056"/>
+        <c:crossAx val="77097600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15651,7 +15647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16156,14 +16152,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="3:8">
       <c r="D3" t="s">
@@ -16297,16 +16293,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="55" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -16326,122 +16322,122 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="61">
+      <c r="A8" s="56">
         <v>4.1666666666666562E-3</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="57">
         <f>360*C8/($E$5*$E$4*$E$4*PI())</f>
         <v>17.380265459725582</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="59">
         <v>303.34285714285727</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="62">
+      <c r="A9" s="57">
         <v>0.5</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="57">
         <f t="shared" ref="B9:B17" si="0">360*C9/($E$5*$E$4*$E$4*PI())</f>
         <v>15.771891077679758</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="60">
         <v>275.27142857142849</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="62">
+      <c r="A10" s="57">
         <v>1.25</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="57">
         <f t="shared" si="0"/>
         <v>13.819742018555457</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="60">
         <v>241.20000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="62">
+      <c r="A11" s="57">
         <v>2.5</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="57">
         <f t="shared" si="0"/>
         <v>12.375888374825783</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="60">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="62">
+      <c r="A12" s="57">
         <v>3.75</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="57">
         <f t="shared" si="0"/>
         <v>10.932034731096108</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="60">
         <v>190.8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="62">
+      <c r="A13" s="57">
         <v>5</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="57">
         <f t="shared" si="0"/>
         <v>9.4881810873664332</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="60">
         <v>165.6</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="62">
+      <c r="A14" s="57">
         <v>6.25</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="57">
         <f t="shared" si="0"/>
         <v>8.2505922498838551</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="60">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="62">
+      <c r="A15" s="57">
         <v>7.5</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="57">
         <f t="shared" si="0"/>
         <v>6.8067386061541812</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="60">
         <v>118.80000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="62">
+      <c r="A16" s="57">
         <v>8.75</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="57">
         <f t="shared" si="0"/>
         <v>4.5378257374361199</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="60">
         <v>79.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="63">
+      <c r="A17" s="58">
         <v>10</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="58">
         <f t="shared" si="0"/>
         <v>2.0626480624709638</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="61">
         <v>36</v>
       </c>
     </row>
@@ -16499,12 +16495,12 @@
     <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="5"/>
@@ -30053,7 +30049,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40828.011431712963</v>
+        <v>40832.937512037039</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -30069,7 +30065,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40827.909661574071</v>
+        <v>40832.937512037039</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -30118,7 +30114,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -30134,7 +30130,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -30150,7 +30146,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -30166,7 +30162,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -30183,7 +30179,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455847</v>
+        <v>2455852</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -30217,7 +30213,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455847.4096643515</v>
+        <v>2455852.437511574</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -39381,14 +39377,14 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="64"/>
+      <c r="G3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -39484,7 +39480,7 @@
         <v>1600</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D5:D6" si="8">F6*180/PI()</f>
+        <f t="shared" ref="D6" si="8">F6*180/PI()</f>
         <v>15.771891077679758</v>
       </c>
       <c r="E6">

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="10545" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14355" windowHeight="10485" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="140">
   <si>
     <t>дни</t>
   </si>
@@ -691,11 +691,32 @@
   <si>
     <t>PWR</t>
   </si>
+  <si>
+    <t>на сколько шагов нужно сдивнуться</t>
+  </si>
+  <si>
+    <t>сколько времени это займет</t>
+  </si>
+  <si>
+    <t>решение квадратного уравнение</t>
+  </si>
+  <si>
+    <t>задано</t>
+  </si>
+  <si>
+    <t>угол за один шаг градусы</t>
+  </si>
+  <si>
+    <t>таблица a(V)</t>
+  </si>
+  <si>
+    <t>формула для построения таблицы на основаниии таблицы зависимости частоты шагов от момента на валу и массы и габаритов телескопа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -703,7 +724,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,18 +1378,34 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9963,40 +10000,57 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73326592"/>
-        <c:axId val="73328128"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42105088"/>
+        <c:axId val="42127360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73326592"/>
+        <c:axId val="42105088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73328128"/>
+        <c:crossAx val="42127360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73328128"/>
+        <c:axId val="42127360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73326592"/>
+        <c:crossAx val="42105088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -10008,12 +10062,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -14888,39 +14954,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73557504"/>
-        <c:axId val="73559040"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70267264"/>
+        <c:axId val="70268800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73557504"/>
+        <c:axId val="70267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73559040"/>
+        <c:crossAx val="70268800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73559040"/>
+        <c:axId val="70268800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73557504"/>
+        <c:crossAx val="70267264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -14932,12 +15015,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -15016,6 +15111,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15043,43 +15139,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73686400"/>
-        <c:axId val="73692288"/>
+        <c:smooth val="0"/>
+        <c:axId val="70199936"/>
+        <c:axId val="70205824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73686400"/>
+        <c:axId val="70199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73692288"/>
+        <c:crossAx val="70205824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73692288"/>
+        <c:axId val="70205824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73686400"/>
+        <c:crossAx val="70199936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15091,12 +15207,24 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15169,16 +15297,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73823744"/>
-        <c:axId val="73825280"/>
+        <c:smooth val="0"/>
+        <c:axId val="70243840"/>
+        <c:axId val="70245376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73823744"/>
+        <c:axId val="70243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -15227,17 +15366,19 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73825280"/>
+        <c:crossAx val="70245376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73825280"/>
+        <c:axId val="70245376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15269,8 +15410,10 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73823744"/>
+        <c:crossAx val="70243840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15284,8 +15427,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15297,13 +15443,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15387,20 +15544,32 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77089408"/>
-        <c:axId val="77095296"/>
+        <c:smooth val="0"/>
+        <c:axId val="71589248"/>
+        <c:axId val="71595136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77089408"/>
+        <c:axId val="71589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln cap="rnd"/>
@@ -15415,27 +15584,33 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77095296"/>
+        <c:crossAx val="71595136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77095296"/>
+        <c:axId val="71595136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77089408"/>
+        <c:crossAx val="71589248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15447,7 +15622,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -15464,6 +15649,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15558,14 +15744,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77097600"/>
-        <c:axId val="77164928"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91656576"/>
+        <c:axId val="91658496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77097600"/>
+        <c:axId val="91656576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -15593,18 +15788,22 @@
               <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77164928"/>
+        <c:crossAx val="91658496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77164928"/>
+        <c:axId val="91658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -15635,15 +15834,20 @@
               <c:y val="4.4667560659721037E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77097600"/>
+        <c:crossAx val="91656576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15928,6 +16132,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -15962,6 +16167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -16137,21 +16343,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
@@ -16161,7 +16367,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -16178,7 +16384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>86164.090540000005</v>
       </c>
@@ -16203,8 +16409,8 @@
         <v>9.0540000004693866</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="3" customFormat="1"/>
-    <row r="9" spans="3:8">
+    <row r="7" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>32768</v>
       </c>
@@ -16213,7 +16419,7 @@
         <v>3.0517578125E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>1/D10</f>
         <v>13.333333333333334</v>
@@ -16236,37 +16442,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="4"/>
       <c r="K2">
         <f>LINEST(C8:C17,A8:A17,1)</f>
-        <v>-24.007348514801848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+        <v>-24.007348514801858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -16276,7 +16482,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>107</v>
       </c>
@@ -16284,7 +16490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>106</v>
       </c>
@@ -16292,13 +16498,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="66"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>129</v>
       </c>
@@ -16321,7 +16527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>4.1666666666666562E-3</v>
       </c>
@@ -16333,7 +16539,7 @@
         <v>303.34285714285727</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>0.5</v>
       </c>
@@ -16345,7 +16551,7 @@
         <v>275.27142857142849</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>1.25</v>
       </c>
@@ -16357,7 +16563,7 @@
         <v>241.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>2.5</v>
       </c>
@@ -16369,7 +16575,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>3.75</v>
       </c>
@@ -16381,7 +16587,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>5</v>
       </c>
@@ -16393,7 +16599,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>6.25</v>
       </c>
@@ -16405,7 +16611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>7.5</v>
       </c>
@@ -16417,7 +16623,7 @@
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>8.75</v>
       </c>
@@ -16429,7 +16635,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58">
         <v>10</v>
       </c>
@@ -16452,14 +16658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -16474,25 +16680,25 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="63" t="s">
@@ -16502,13 +16708,13 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="18">
+    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
@@ -16519,7 +16725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -16541,7 +16747,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>25000000</v>
       </c>
@@ -16574,7 +16780,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>4</v>
       </c>
@@ -16597,7 +16803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>77</v>
       </c>
@@ -16609,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>78</v>
       </c>
@@ -16618,13 +16824,13 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H12">
         <f>0.000001/I7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
@@ -16638,13 +16844,13 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="22" t="s">
         <v>19</v>
       </c>
@@ -16655,7 +16861,7 @@
       <c r="J15" s="21"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
@@ -16693,7 +16899,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -16729,7 +16935,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
@@ -16767,7 +16973,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
@@ -16805,7 +17011,7 @@
         <v>Hz</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
@@ -16843,7 +17049,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
         <v>24</v>
       </c>
@@ -16881,7 +17087,7 @@
         <v>Ktact</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="27" t="s">
         <v>99</v>
       </c>
@@ -16919,7 +17125,7 @@
         <v>mtact</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
         <v>26</v>
       </c>
@@ -16957,7 +17163,7 @@
         <v>Mcomands</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
@@ -16995,7 +17201,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="15.75" thickBot="1">
+    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
@@ -17027,7 +17233,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1">
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="28" t="s">
         <v>28</v>
       </c>
@@ -17042,7 +17248,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="s">
         <v>14</v>
       </c>
@@ -17080,7 +17286,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
@@ -17116,7 +17322,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
@@ -17154,7 +17360,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
@@ -17192,7 +17398,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75" thickBot="1">
+    <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
@@ -17230,7 +17436,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="27" t="s">
         <v>24</v>
       </c>
@@ -17268,7 +17474,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="27" t="s">
         <v>99</v>
       </c>
@@ -17306,7 +17512,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="27" t="s">
         <v>26</v>
       </c>
@@ -17344,7 +17550,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
@@ -17376,10 +17582,10 @@
         <v>K</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="15.75" thickBot="1">
+    <row r="36" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="3:13" ht="15.75" thickBot="1">
+    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="28" t="s">
         <v>28</v>
       </c>
@@ -17394,7 +17600,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
@@ -17432,7 +17638,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
@@ -17468,7 +17674,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="40" spans="3:13">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
@@ -17506,7 +17712,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
@@ -17544,7 +17750,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="15.75" thickBot="1">
+    <row r="42" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
@@ -17582,7 +17788,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
@@ -17620,7 +17826,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="27" t="s">
         <v>99</v>
       </c>
@@ -17658,7 +17864,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="27" t="s">
         <v>26</v>
       </c>
@@ -17696,7 +17902,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="27" t="s">
         <v>31</v>
       </c>
@@ -17797,14 +18003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M407"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -17816,7 +18022,7 @@
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -17824,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -17832,7 +18038,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
@@ -17840,12 +18046,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -17857,7 +18063,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -17895,7 +18101,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -17933,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.2</v>
       </c>
@@ -17977,7 +18183,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.3</v>
       </c>
@@ -18021,7 +18227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.4</v>
       </c>
@@ -18065,7 +18271,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
@@ -18109,7 +18315,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0.6</v>
       </c>
@@ -18153,7 +18359,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0.7</v>
       </c>
@@ -18197,7 +18403,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
@@ -18241,7 +18447,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.9</v>
       </c>
@@ -18285,7 +18491,7 @@
         <v>9.9999999999999655E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -18329,7 +18535,7 @@
         <v>1.000000000000008E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -18373,7 +18579,7 @@
         <v>9.9999999999999412E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>1.2</v>
       </c>
@@ -18417,7 +18623,7 @@
         <v>9.9999999999999829E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>1.3</v>
       </c>
@@ -18461,7 +18667,7 @@
         <v>1.0000000000000057E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1.4</v>
       </c>
@@ -18505,7 +18711,7 @@
         <v>1.000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1.5</v>
       </c>
@@ -18549,7 +18755,7 @@
         <v>9.9999999999997452E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1.6</v>
       </c>
@@ -18593,7 +18799,7 @@
         <v>1.0000000000000122E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>1.7</v>
       </c>
@@ -18637,7 +18843,7 @@
         <v>1.0000000000000104E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>1.8</v>
       </c>
@@ -18681,7 +18887,7 @@
         <v>1.0000000000000162E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>1.9</v>
       </c>
@@ -18725,7 +18931,7 @@
         <v>9.999999999999688E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -18769,7 +18975,7 @@
         <v>1.0000000000000023E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>3.4960744879438729E-3</v>
@@ -18810,7 +19016,7 @@
         <v>9.9999999999998614E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>3.6620670770186989E-3</v>
@@ -18851,7 +19057,7 @@
         <v>1.000000000000059E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>3.8278311931459054E-3</v>
@@ -18892,7 +19098,7 @@
         <v>9.9999999999992369E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>3.9933821937865772E-3</v>
@@ -18933,7 +19139,7 @@
         <v>1.0000000000000668E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>4.1587337893224377E-3</v>
@@ -18974,7 +19180,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="33" spans="4:13">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>4.3238982802406454E-3</v>
@@ -19015,7 +19221,7 @@
         <v>1.0000000000000243E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:13">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.4888867521316964E-3</v>
@@ -19056,7 +19262,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="35" spans="4:13">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.6537092373243527E-3</v>
@@ -19097,7 +19303,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>4.8183748498798811E-3</v>
@@ -19138,7 +19344,7 @@
         <v>9.9999999999994885E-3</v>
       </c>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>4.9828918991234421E-3</v>
@@ -19179,7 +19385,7 @@
         <v>1.0000000000001076E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:13">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>5.1472679857416355E-3</v>
@@ -19220,7 +19426,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="39" spans="4:13">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>5.3115100836106759E-3</v>
@@ -19261,7 +19467,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:13">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>5.4756246098625226E-3</v>
@@ -19302,7 +19508,7 @@
         <v>9.99999999999889E-3</v>
       </c>
     </row>
-    <row r="41" spans="4:13">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>5.6396174851915705E-3</v>
@@ -19343,7 +19549,7 @@
         <v>1.0000000000001084E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:13">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>5.8034941860137593E-3</v>
@@ -19384,7 +19590,7 @@
         <v>1.0000000000000208E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:13">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>5.9672597897843004E-3</v>
@@ -19425,7 +19631,7 @@
         <v>9.9999999999988206E-3</v>
       </c>
     </row>
-    <row r="44" spans="4:13">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>6.1309190145398852E-3</v>
@@ -19466,7 +19672,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:13">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>6.2944762535402767E-3</v>
@@ -19507,7 +19713,7 @@
         <v>9.9999999999975022E-3</v>
       </c>
     </row>
-    <row r="46" spans="4:13">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>6.4579356057317882E-3</v>
@@ -19548,7 +19754,7 @@
         <v>1.0000000000002056E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:13">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>6.6213009026325114E-3</v>
@@ -19589,7 +19795,7 @@
         <v>9.999999999998543E-3</v>
       </c>
     </row>
-    <row r="48" spans="4:13">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>6.7845757321399868E-3</v>
@@ -19630,7 +19836,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:13">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>6.9477634596812349E-3</v>
@@ -19671,7 +19877,7 @@
         <v>9.9999999999979619E-3</v>
       </c>
     </row>
-    <row r="50" spans="4:13">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>7.1108672470589886E-3</v>
@@ -19712,7 +19918,7 @@
         <v>1.0000000000002037E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:13">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" s="3">
         <f t="shared" si="0"/>
         <v>7.2738900692936193E-3</v>
@@ -19753,7 +19959,7 @@
         <v>9.9999999999985864E-3</v>
       </c>
     </row>
-    <row r="52" spans="4:13">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D52" s="3">
         <f t="shared" si="0"/>
         <v>7.4368347297152759E-3</v>
@@ -19794,7 +20000,7 @@
         <v>1.000000000000051E-2</v>
       </c>
     </row>
-    <row r="53" spans="4:13">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D53" s="3">
         <f t="shared" si="0"/>
         <v>7.5997038735234647E-3</v>
@@ -19835,7 +20041,7 @@
         <v>1.0000000000000113E-2</v>
       </c>
     </row>
-    <row r="54" spans="4:13">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D54" s="3">
         <f t="shared" si="0"/>
         <v>7.7625000000000038E-3</v>
@@ -19876,7 +20082,7 @@
         <v>1.0000000000001778E-2</v>
       </c>
     </row>
-    <row r="55" spans="4:13">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" s="3">
         <f t="shared" si="0"/>
         <v>7.9252254735354133E-3</v>
@@ -19917,7 +20123,7 @@
         <v>9.9999999999960693E-3</v>
       </c>
     </row>
-    <row r="56" spans="4:13">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56" s="3">
         <f t="shared" si="0"/>
         <v>8.0878825336065663E-3</v>
@@ -19958,7 +20164,7 @@
         <v>1.0000000000003166E-2</v>
       </c>
     </row>
-    <row r="57" spans="4:13">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>8.2504733038250462E-3</v>
@@ -19999,7 +20205,7 @@
         <v>9.9999999999986367E-3</v>
       </c>
     </row>
-    <row r="58" spans="4:13">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>8.4129998001598455E-3</v>
@@ -20040,7 +20246,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:13">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>8.5754639384246663E-3</v>
@@ -20081,7 +20287,7 @@
         <v>9.9999999999975456E-3</v>
       </c>
     </row>
-    <row r="60" spans="4:13">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>8.7378675411086577E-3</v>
@@ -20122,7 +20328,7 @@
         <v>1.0000000000005367E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:13">
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="3">
         <f t="shared" si="0"/>
         <v>8.9002123436195662E-3</v>
@@ -20163,7 +20369,7 @@
         <v>9.9999999999952557E-3</v>
       </c>
     </row>
-    <row r="62" spans="4:13">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" s="3">
         <f t="shared" si="0"/>
         <v>9.0625000000000046E-3</v>
@@ -20204,7 +20410,7 @@
         <v>9.9999999999996082E-3</v>
       </c>
     </row>
-    <row r="63" spans="4:13">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" s="3">
         <f t="shared" si="0"/>
         <v>9.2247320881701008E-3</v>
@@ -20245,7 +20451,7 @@
         <v>1.0000000000003791E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:13">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" s="3">
         <f t="shared" si="0"/>
         <v>9.386910114743692E-3</v>
@@ -20286,7 +20492,7 @@
         <v>9.9999999999962272E-3</v>
       </c>
     </row>
-    <row r="65" spans="4:13">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" s="3">
         <f t="shared" si="0"/>
         <v>9.5490355194596567E-3</v>
@@ -20327,7 +20533,7 @@
         <v>1.0000000000004882E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:13">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="3">
         <f t="shared" si="0"/>
         <v>9.7111096792653791E-3</v>
@@ -20368,7 +20574,7 @@
         <v>9.9999999999957415E-3</v>
       </c>
     </row>
-    <row r="67" spans="4:13">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="3">
         <f t="shared" si="0"/>
         <v>9.8731339120850647E-3</v>
@@ -20409,7 +20615,7 @@
         <v>9.9999999999991224E-3</v>
       </c>
     </row>
-    <row r="68" spans="4:13">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="3">
         <f t="shared" si="0"/>
         <v>1.0035109480302241E-2</v>
@@ -20450,7 +20656,7 @@
         <v>1.0000000000004276E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:13">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="3">
         <f t="shared" si="0"/>
         <v>1.0197037593982409E-2</v>
@@ -20491,7 +20697,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="70" spans="4:13">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="3">
         <f t="shared" si="0"/>
         <v>1.035891941385921E-2</v>
@@ -20532,7 +20738,7 @@
         <v>1.000000000000169E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:13">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="3">
         <f t="shared" si="0"/>
         <v>1.0520756054104954E-2</v>
@@ -20573,7 +20779,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="72" spans="4:13">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="3">
         <f t="shared" si="0"/>
         <v>1.068254858490425E-2</v>
@@ -20614,7 +20820,7 @@
         <v>1.0000000000001482E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:13">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="3">
         <f t="shared" ref="D73:D136" si="9">$D$2+$D$3*F73+$D$4*F73*F73/2</f>
         <v>1.0844298034847591E-2</v>
@@ -20655,7 +20861,7 @@
         <v>1.0000000000004762E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:13">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="3">
         <f t="shared" si="9"/>
         <v>1.1006005393159999E-2</v>
@@ -20696,7 +20902,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="75" spans="4:13">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="3">
         <f t="shared" si="9"/>
         <v>1.1167671611778517E-2</v>
@@ -20737,7 +20943,7 @@
         <v>9.9999999999984285E-3</v>
       </c>
     </row>
-    <row r="76" spans="4:13">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="3">
         <f t="shared" si="9"/>
         <v>1.1329297607290748E-2</v>
@@ -20778,7 +20984,7 @@
         <v>1.0000000000002264E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:13">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="3">
         <f t="shared" si="9"/>
         <v>1.1490884262745762E-2</v>
@@ -20819,7 +21025,7 @@
         <v>9.9999999999953754E-3</v>
       </c>
     </row>
-    <row r="78" spans="4:13">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="3">
         <f t="shared" si="9"/>
         <v>1.1652432429347447E-2</v>
@@ -20860,7 +21066,7 @@
         <v>1.0000000000002403E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:13">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="3">
         <f t="shared" si="9"/>
         <v>1.181394292803945E-2</v>
@@ -20901,7 +21107,7 @@
         <v>9.9999999999961578E-3</v>
       </c>
     </row>
-    <row r="80" spans="4:13">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="3">
         <f t="shared" si="9"/>
         <v>1.197541655099019E-2</v>
@@ -20942,7 +21148,7 @@
         <v>1.0000000000009114E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:13">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="3">
         <f t="shared" si="9"/>
         <v>1.2136854062985376E-2</v>
@@ -20983,7 +21189,7 @@
         <v>9.9999999999888026E-3</v>
       </c>
     </row>
-    <row r="82" spans="4:13">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="3">
         <f t="shared" si="9"/>
         <v>1.2298256202735156E-2</v>
@@ -21024,7 +21230,7 @@
         <v>1.0000000000014388E-2</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="3">
         <f t="shared" si="9"/>
         <v>1.2459623684102028E-2</v>
@@ -21065,7 +21271,7 @@
         <v>9.9999999999889413E-3</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="3">
         <f t="shared" si="9"/>
         <v>1.2620957197255471E-2</v>
@@ -21106,7 +21312,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="85" spans="4:13">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="3">
         <f t="shared" si="9"/>
         <v>1.2782257409758441E-2</v>
@@ -21147,7 +21353,7 @@
         <v>9.999999999991906E-3</v>
       </c>
     </row>
-    <row r="86" spans="4:13">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86" s="3">
         <f t="shared" si="9"/>
         <v>1.294352496759067E-2</v>
@@ -21188,7 +21394,7 @@
         <v>1.0000000000005872E-2</v>
       </c>
     </row>
-    <row r="87" spans="4:13">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87" s="3">
         <f t="shared" si="9"/>
         <v>1.3104760496113128E-2</v>
@@ -21229,7 +21435,7 @@
         <v>1.0000000000002869E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:13">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88" s="3">
         <f t="shared" si="9"/>
         <v>1.3265964600977825E-2</v>
@@ -21270,7 +21476,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:13">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89" s="3">
         <f t="shared" si="9"/>
         <v>1.3427137868986583E-2</v>
@@ -21311,7 +21517,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="90" spans="4:13">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90" s="3">
         <f t="shared" si="9"/>
         <v>1.3588280868902356E-2</v>
@@ -21352,7 +21558,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="91" spans="4:13">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91" s="3">
         <f t="shared" si="9"/>
         <v>1.3749394152216109E-2</v>
@@ -21393,7 +21599,7 @@
         <v>1.0000000000000561E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:13">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92" s="3">
         <f t="shared" si="9"/>
         <v>1.3910478253872373E-2</v>
@@ -21434,7 +21640,7 @@
         <v>1.0000000000013921E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:13">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93" s="3">
         <f t="shared" si="9"/>
         <v>1.4071533692956025E-2</v>
@@ -21475,7 +21681,7 @@
         <v>9.9999999999878311E-3</v>
       </c>
     </row>
-    <row r="94" spans="4:13">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94" s="3">
         <f t="shared" si="9"/>
         <v>1.4232560973342842E-2</v>
@@ -21516,7 +21722,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="95" spans="4:13">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95" s="3">
         <f t="shared" si="9"/>
         <v>1.4393560584316189E-2</v>
@@ -21557,7 +21763,7 @@
         <v>1.0000000000004484E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:13">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96" s="3">
         <f t="shared" si="9"/>
         <v>1.455453300115186E-2</v>
@@ -21598,7 +21804,7 @@
         <v>9.9999999999941767E-3</v>
       </c>
     </row>
-    <row r="97" spans="4:13">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" s="3">
         <f t="shared" si="9"/>
         <v>1.4715478685673185E-2</v>
@@ -21639,7 +21845,7 @@
         <v>1.0000000000014754E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:13">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98" s="3">
         <f t="shared" si="9"/>
         <v>1.4876398086778132E-2</v>
@@ -21680,7 +21886,7 @@
         <v>9.99999999998228E-3</v>
       </c>
     </row>
-    <row r="99" spans="4:13">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99" s="3">
         <f t="shared" si="9"/>
         <v>1.5037291640940156E-2</v>
@@ -21721,7 +21927,7 @@
         <v>1.0000000000010036E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:13">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100" s="3">
         <f t="shared" si="9"/>
         <v>1.5198159772684378E-2</v>
@@ -21762,7 +21968,7 @@
         <v>9.9999999999990721E-3</v>
       </c>
     </row>
-    <row r="101" spans="4:13">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D101" s="3">
         <f t="shared" si="9"/>
         <v>1.5359002895040531E-2</v>
@@ -21803,7 +22009,7 @@
         <v>9.9999999999987564E-3</v>
       </c>
     </row>
-    <row r="102" spans="4:13">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102" s="3">
         <f t="shared" si="9"/>
         <v>1.551982140997412E-2</v>
@@ -21844,7 +22050,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="103" spans="4:13">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103" s="3">
         <f t="shared" si="9"/>
         <v>1.5680615708796919E-2</v>
@@ -21885,7 +22091,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="104" spans="4:13">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104" s="3">
         <f t="shared" si="9"/>
         <v>1.5841386172558179E-2</v>
@@ -21926,7 +22132,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:13">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" s="3">
         <f t="shared" si="9"/>
         <v>1.6002133172417523E-2</v>
@@ -21967,7 +22173,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106" s="3">
         <f t="shared" si="9"/>
         <v>1.6162857070000588E-2</v>
@@ -22008,7 +22214,7 @@
         <v>1.0000000000003475E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107" s="3">
         <f t="shared" si="9"/>
         <v>1.6323558217738395E-2</v>
@@ -22049,7 +22255,7 @@
         <v>1.0000000000005317E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108" s="3">
         <f t="shared" si="9"/>
         <v>1.6484236959191378E-2</v>
@@ -22090,7 +22296,7 @@
         <v>9.999999999993521E-3</v>
       </c>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109" s="3">
         <f t="shared" si="9"/>
         <v>1.6644893629358816E-2</v>
@@ -22116,7 +22322,7 @@
         <v>2.0050086084783047E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D110" s="3">
         <f t="shared" si="9"/>
         <v>1.6805528554974598E-2</v>
@@ -22142,7 +22348,7 @@
         <v>2.0049589328303915E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111" s="3">
         <f t="shared" si="9"/>
         <v>1.6966142054789891E-2</v>
@@ -22168,7 +22374,7 @@
         <v>2.0049102329354127E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112" s="3">
         <f t="shared" si="9"/>
         <v>1.7126734439843576E-2</v>
@@ -22194,7 +22400,7 @@
         <v>2.0048624802885179E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:9">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="3">
         <f t="shared" si="9"/>
         <v>1.7287306013721013E-2</v>
@@ -22220,7 +22426,7 @@
         <v>2.0048156474293862E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:9">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="3">
         <f t="shared" si="9"/>
         <v>1.7447857072801668E-2</v>
@@ -22246,7 +22452,7 @@
         <v>2.0047697081960775E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:9">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="3">
         <f t="shared" si="9"/>
         <v>1.760838790649635E-2</v>
@@ -22272,7 +22478,7 @@
         <v>2.004724637173631E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:9">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="3">
         <f t="shared" si="9"/>
         <v>1.776889879747446E-2</v>
@@ -22298,7 +22504,7 @@
         <v>2.0046804099856978E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:9">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="3">
         <f t="shared" si="9"/>
         <v>1.7929390021881847E-2</v>
@@ -22324,7 +22530,7 @@
         <v>2.0046370030705054E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:9">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="3">
         <f t="shared" si="9"/>
         <v>1.8089861849549579E-2</v>
@@ -22350,7 +22556,7 @@
         <v>2.0045943940032375E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:9">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="3">
         <f t="shared" si="9"/>
         <v>1.8250314544194346E-2</v>
@@ -22376,7 +22582,7 @@
         <v>2.0045525607998303E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:9">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="3">
         <f t="shared" si="9"/>
         <v>1.841074836361066E-2</v>
@@ -22402,7 +22608,7 @@
         <v>2.0045114825960924E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:9">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="3">
         <f t="shared" si="9"/>
         <v>1.8571163559855386E-2</v>
@@ -22428,7 +22634,7 @@
         <v>2.0044711390572102E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:9">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="3">
         <f t="shared" si="9"/>
         <v>1.8731560379424972E-2</v>
@@ -22454,7 +22660,7 @@
         <v>2.0044315106642122E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:9">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="3">
         <f t="shared" si="9"/>
         <v>1.8891939063425657E-2</v>
@@ -22480,7 +22686,7 @@
         <v>2.0043925785706799E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:9">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="3">
         <f t="shared" si="9"/>
         <v>1.9052299847737052E-2</v>
@@ -22506,7 +22712,7 @@
         <v>2.0043543246257026E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:9">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="3">
         <f t="shared" si="9"/>
         <v>1.9212642963169442E-2</v>
@@ -22532,7 +22738,7 @@
         <v>2.0043167311567713E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:9">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D126" s="3">
         <f t="shared" si="9"/>
         <v>1.9372968635614937E-2</v>
@@ -22558,7 +22764,7 @@
         <v>2.0042797813575489E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:9">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D127" s="3">
         <f t="shared" si="9"/>
         <v>1.953327708619303E-2</v>
@@ -22584,7 +22790,7 @@
         <v>2.0042434587018685E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:9">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D128" s="3">
         <f t="shared" si="9"/>
         <v>1.9693568531390541E-2</v>
@@ -22610,7 +22816,7 @@
         <v>2.0042077473813751E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:9">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="3">
         <f t="shared" si="9"/>
         <v>1.9853843183196357E-2</v>
@@ -22636,7 +22842,7 @@
         <v>2.0041726322266903E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:9">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="3">
         <f t="shared" si="9"/>
         <v>2.0014101249231243E-2</v>
@@ -22662,7 +22868,7 @@
         <v>2.0041380982173344E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:9">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="3">
         <f t="shared" si="9"/>
         <v>2.017434293287277E-2</v>
@@ -22688,7 +22894,7 @@
         <v>2.0041041311890492E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:9">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="3">
         <f t="shared" si="9"/>
         <v>2.0334568433375774E-2</v>
@@ -22714,7 +22920,7 @@
         <v>2.0040707172671063E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:9">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="3">
         <f t="shared" si="9"/>
         <v>2.0494777945988391E-2</v>
@@ -22740,7 +22946,7 @@
         <v>2.0040378430203929E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:9">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="3">
         <f t="shared" si="9"/>
         <v>2.0654971662063974E-2</v>
@@ -22766,7 +22972,7 @@
         <v>2.0040054955132183E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:9">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="3">
         <f t="shared" si="9"/>
         <v>2.0815149769168994E-2</v>
@@ -22792,7 +22998,7 @@
         <v>2.0039736621692193E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:9">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="3">
         <f t="shared" si="9"/>
         <v>2.0975312451187143E-2</v>
@@ -22818,7 +23024,7 @@
         <v>2.0039423307931386E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:9">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="3">
         <f t="shared" ref="D137:D200" si="18">$D$2+$D$3*F137+$D$4*F137*F137/2</f>
         <v>2.113545988841976E-2</v>
@@ -22844,7 +23050,7 @@
         <v>2.0039114896916427E-2</v>
       </c>
     </row>
-    <row r="138" spans="4:9">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D138" s="3">
         <f t="shared" si="18"/>
         <v>2.1295592257682815E-2</v>
@@ -22870,7 +23076,7 @@
         <v>2.0038811273598169E-2</v>
       </c>
     </row>
-    <row r="139" spans="4:9">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D139" s="3">
         <f t="shared" si="18"/>
         <v>2.145570973240047E-2</v>
@@ -22896,7 +23102,7 @@
         <v>2.0038512327793776E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:9">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D140" s="3">
         <f t="shared" si="18"/>
         <v>2.1615812482695517E-2</v>
@@ -22922,7 +23128,7 @@
         <v>2.0038217951991521E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:9">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D141" s="3">
         <f t="shared" si="18"/>
         <v>2.1775900675476668E-2</v>
@@ -22948,7 +23154,7 @@
         <v>2.0037928042680748E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:9">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D142" s="3">
         <f t="shared" si="18"/>
         <v>2.1935974474522946E-2</v>
@@ -22974,7 +23180,7 @@
         <v>2.0037642498141064E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:9">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D143" s="3">
         <f t="shared" si="18"/>
         <v>2.2096034040565236E-2</v>
@@ -23000,7 +23206,7 @@
         <v>2.0037361220907764E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:9">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D144" s="3">
         <f t="shared" si="18"/>
         <v>2.2256079531365078E-2</v>
@@ -23026,7 +23232,7 @@
         <v>2.0037084117387177E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:9">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" s="3">
         <f t="shared" si="18"/>
         <v>2.2416111101790974E-2</v>
@@ -23052,7 +23258,7 @@
         <v>2.0036811092575161E-2</v>
       </c>
     </row>
-    <row r="146" spans="4:9">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" s="3">
         <f t="shared" si="18"/>
         <v>2.2576128903892059E-2</v>
@@ -23078,7 +23284,7 @@
         <v>2.0036542059400773E-2</v>
       </c>
     </row>
-    <row r="147" spans="4:9">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" s="3">
         <f t="shared" si="18"/>
         <v>2.2736133086969486E-2</v>
@@ -23104,7 +23310,7 @@
         <v>2.0036276929708986E-2</v>
       </c>
     </row>
-    <row r="148" spans="4:9">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" s="3">
         <f t="shared" si="18"/>
         <v>2.2896123797645402E-2</v>
@@ -23130,7 +23336,7 @@
         <v>2.0036015620404156E-2</v>
       </c>
     </row>
-    <row r="149" spans="4:9">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D149" s="3">
         <f t="shared" si="18"/>
         <v>2.3056101179929813E-2</v>
@@ -23156,7 +23362,7 @@
         <v>2.0035758048213455E-2</v>
       </c>
     </row>
-    <row r="150" spans="4:9">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D150" s="3">
         <f t="shared" si="18"/>
         <v>2.3216065375285286E-2</v>
@@ -23182,7 +23388,7 @@
         <v>2.0035504133851294E-2</v>
       </c>
     </row>
-    <row r="151" spans="4:9">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D151" s="3">
         <f t="shared" si="18"/>
         <v>2.337601652268954E-2</v>
@@ -23208,7 +23414,7 @@
         <v>2.0035253800434697E-2</v>
       </c>
     </row>
-    <row r="152" spans="4:9">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D152" s="3">
         <f t="shared" si="18"/>
         <v>2.3535954758696159E-2</v>
@@ -23234,7 +23440,7 @@
         <v>2.0035006972531438E-2</v>
       </c>
     </row>
-    <row r="153" spans="4:9">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D153" s="3">
         <f t="shared" si="18"/>
         <v>2.3695880217493394E-2</v>
@@ -23260,7 +23466,7 @@
         <v>2.0034763576601278E-2</v>
       </c>
     </row>
-    <row r="154" spans="4:9">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D154" s="3">
         <f t="shared" si="18"/>
         <v>2.3855793030961085E-2</v>
@@ -23286,7 +23492,7 @@
         <v>2.0034523542483244E-2</v>
       </c>
     </row>
-    <row r="155" spans="4:9">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D155" s="3">
         <f t="shared" si="18"/>
         <v>2.401569332872593E-2</v>
@@ -23312,7 +23518,7 @@
         <v>2.0034286799543676E-2</v>
       </c>
     </row>
-    <row r="156" spans="4:9">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D156" s="3">
         <f t="shared" si="18"/>
         <v>2.4175581238214963E-2</v>
@@ -23338,7 +23544,7 @@
         <v>2.0034053282063067E-2</v>
       </c>
     </row>
-    <row r="157" spans="4:9">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D157" s="3">
         <f t="shared" si="18"/>
         <v>2.4335456884707476E-2</v>
@@ -23364,7 +23570,7 @@
         <v>2.0033822924131854E-2</v>
       </c>
     </row>
-    <row r="158" spans="4:9">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D158" s="3">
         <f t="shared" si="18"/>
         <v>2.4495320391385397E-2</v>
@@ -23390,7 +23596,7 @@
         <v>2.0033595660706307E-2</v>
       </c>
     </row>
-    <row r="159" spans="4:9">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D159" s="3">
         <f t="shared" si="18"/>
         <v>2.4655171879382064E-2</v>
@@ -23416,7 +23622,7 @@
         <v>2.0033371432242097E-2</v>
       </c>
     </row>
-    <row r="160" spans="4:9">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D160" s="3">
         <f t="shared" si="18"/>
         <v>2.4815011467829592E-2</v>
@@ -23442,7 +23648,7 @@
         <v>2.003315017721289E-2</v>
       </c>
     </row>
-    <row r="161" spans="4:9">
+    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D161" s="3">
         <f t="shared" si="18"/>
         <v>2.4974839273904984E-2</v>
@@ -23468,7 +23674,7 @@
         <v>2.0032931835319845E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:9">
+    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D162" s="3">
         <f t="shared" si="18"/>
         <v>2.5134655412874605E-2</v>
@@ -23494,7 +23700,7 @@
         <v>2.0032716351676232E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:9">
+    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D163" s="3">
         <f t="shared" si="18"/>
         <v>2.5294459998137588E-2</v>
@@ -23520,7 +23726,7 @@
         <v>2.0032503670256704E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:9">
+    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D164" s="3">
         <f t="shared" si="18"/>
         <v>2.5454253141267903E-2</v>
@@ -23546,7 +23752,7 @@
         <v>2.0032293735465959E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:9">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D165" s="3">
         <f t="shared" si="18"/>
         <v>2.5614034952055241E-2</v>
@@ -23572,7 +23778,7 @@
         <v>2.0032086495155192E-2</v>
       </c>
     </row>
-    <row r="166" spans="4:9">
+    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D166" s="3">
         <f t="shared" si="18"/>
         <v>2.5773805538544661E-2</v>
@@ -23598,7 +23804,7 @@
         <v>2.0031881897786836E-2</v>
       </c>
     </row>
-    <row r="167" spans="4:9">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D167" s="3">
         <f t="shared" si="18"/>
         <v>2.5933565007075186E-2</v>
@@ -23624,7 +23830,7 @@
         <v>2.0031679893501953E-2</v>
       </c>
     </row>
-    <row r="168" spans="4:9">
+    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D168" s="3">
         <f t="shared" si="18"/>
         <v>2.6093313462317268E-2</v>
@@ -23650,7 +23856,7 @@
         <v>2.0031480432637153E-2</v>
       </c>
     </row>
-    <row r="169" spans="4:9">
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D169" s="3">
         <f t="shared" si="18"/>
         <v>2.6253051007309253E-2</v>
@@ -23676,7 +23882,7 @@
         <v>2.003128346737788E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:9">
+    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D170" s="3">
         <f t="shared" si="18"/>
         <v>2.641277774349271E-2</v>
@@ -23702,7 +23908,7 @@
         <v>2.0031088952807717E-2</v>
       </c>
     </row>
-    <row r="171" spans="4:9">
+    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D171" s="3">
         <f t="shared" si="18"/>
         <v>2.6572493770746951E-2</v>
@@ -23728,7 +23934,7 @@
         <v>2.003089684029034E-2</v>
       </c>
     </row>
-    <row r="172" spans="4:9">
+    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D172" s="3">
         <f t="shared" si="18"/>
         <v>2.6732199187422447E-2</v>
@@ -23754,7 +23960,7 @@
         <v>2.0030707089338608E-2</v>
       </c>
     </row>
-    <row r="173" spans="4:9">
+    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D173" s="3">
         <f t="shared" si="18"/>
         <v>2.689189409037341E-2</v>
@@ -23780,7 +23986,7 @@
         <v>2.0030519653501222E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:9">
+    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D174" s="3">
         <f t="shared" si="18"/>
         <v>2.7051578574989472E-2</v>
@@ -23806,7 +24012,7 @@
         <v>2.0030334492970803E-2</v>
       </c>
     </row>
-    <row r="175" spans="4:9">
+    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D175" s="3">
         <f t="shared" si="18"/>
         <v>2.721125273522651E-2</v>
@@ -23832,7 +24038,7 @@
         <v>2.0030151564896844E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:9">
+    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D176" s="3">
         <f t="shared" si="18"/>
         <v>2.7370916663636599E-2</v>
@@ -23858,7 +24064,7 @@
         <v>2.0029970830943832E-2</v>
       </c>
     </row>
-    <row r="177" spans="4:9">
+    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D177" s="3">
         <f t="shared" si="18"/>
         <v>2.7530570451397281E-2</v>
@@ -23884,7 +24090,7 @@
         <v>2.0029792249053584E-2</v>
       </c>
     </row>
-    <row r="178" spans="4:9">
+    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D178" s="3">
         <f t="shared" si="18"/>
         <v>2.7690214188339869E-2</v>
@@ -23910,7 +24116,7 @@
         <v>2.0029615784425175E-2</v>
       </c>
     </row>
-    <row r="179" spans="4:9">
+    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D179" s="3">
         <f t="shared" si="18"/>
         <v>2.7849847962977205E-2</v>
@@ -23936,7 +24142,7 @@
         <v>2.0029441396710333E-2</v>
       </c>
     </row>
-    <row r="180" spans="4:9">
+    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D180" s="3">
         <f t="shared" si="18"/>
         <v>2.8009471862530548E-2</v>
@@ -23962,7 +24168,7 @@
         <v>2.0029269051673224E-2</v>
       </c>
     </row>
-    <row r="181" spans="4:9">
+    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D181" s="3">
         <f t="shared" si="18"/>
         <v>2.8169085972955796E-2</v>
@@ -23988,7 +24194,7 @@
         <v>2.0029098712029594E-2</v>
       </c>
     </row>
-    <row r="182" spans="4:9">
+    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D182" s="3">
         <f t="shared" si="18"/>
         <v>2.8328690378969082E-2</v>
@@ -24014,7 +24220,7 @@
         <v>2.0028930344385069E-2</v>
       </c>
     </row>
-    <row r="183" spans="4:9">
+    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D183" s="3">
         <f t="shared" si="18"/>
         <v>2.8488285164071623E-2</v>
@@ -24040,7 +24246,7 @@
         <v>2.0028763912750731E-2</v>
       </c>
     </row>
-    <row r="184" spans="4:9">
+    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D184" s="3">
         <f t="shared" si="18"/>
         <v>2.8647870410574015E-2</v>
@@ -24066,7 +24272,7 @@
         <v>2.0028599385456935E-2</v>
       </c>
     </row>
-    <row r="185" spans="4:9">
+    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D185" s="3">
         <f t="shared" si="18"/>
         <v>2.88074461996198E-2</v>
@@ -24092,7 +24298,7 @@
         <v>2.002843673047745E-2</v>
       </c>
     </row>
-    <row r="186" spans="4:9">
+    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D186" s="3">
         <f t="shared" si="18"/>
         <v>2.8967012611208567E-2</v>
@@ -24118,7 +24324,7 @@
         <v>2.0028275914609948E-2</v>
       </c>
     </row>
-    <row r="187" spans="4:9">
+    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D187" s="3">
         <f t="shared" si="18"/>
         <v>2.9126569724218385E-2</v>
@@ -24144,7 +24350,7 @@
         <v>2.0028116906870626E-2</v>
       </c>
     </row>
-    <row r="188" spans="4:9">
+    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D188" s="3">
         <f t="shared" si="18"/>
         <v>2.9286117616427666E-2</v>
@@ -24170,7 +24376,7 @@
         <v>2.0027959678689047E-2</v>
       </c>
     </row>
-    <row r="189" spans="4:9">
+    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D189" s="3">
         <f t="shared" si="18"/>
         <v>2.9445656364536558E-2</v>
@@ -24196,7 +24402,7 @@
         <v>2.0027804197332532E-2</v>
       </c>
     </row>
-    <row r="190" spans="4:9">
+    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D190" s="3">
         <f t="shared" si="18"/>
         <v>2.9605186044187676E-2</v>
@@ -24222,7 +24428,7 @@
         <v>2.0027650438752913E-2</v>
       </c>
     </row>
-    <row r="191" spans="4:9">
+    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D191" s="3">
         <f t="shared" si="18"/>
         <v>2.9764706729986521E-2</v>
@@ -24248,7 +24454,7 @@
         <v>2.0027498367581099E-2</v>
       </c>
     </row>
-    <row r="192" spans="4:9">
+    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D192" s="3">
         <f t="shared" si="18"/>
         <v>2.9924218495521168E-2</v>
@@ -24274,7 +24480,7 @@
         <v>2.0027347962773698E-2</v>
       </c>
     </row>
-    <row r="193" spans="4:9">
+    <row r="193" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D193" s="3">
         <f t="shared" si="18"/>
         <v>3.0083721413381642E-2</v>
@@ -24300,7 +24506,7 @@
         <v>2.002719919349787E-2</v>
       </c>
     </row>
-    <row r="194" spans="4:9">
+    <row r="194" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D194" s="3">
         <f t="shared" si="18"/>
         <v>3.0243215555178768E-2</v>
@@ -24326,7 +24532,7 @@
         <v>2.0027052033685606E-2</v>
       </c>
     </row>
-    <row r="195" spans="4:9">
+    <row r="195" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D195" s="3">
         <f t="shared" si="18"/>
         <v>3.0402700991562545E-2</v>
@@ -24352,7 +24558,7 @@
         <v>2.0026906457786597E-2</v>
       </c>
     </row>
-    <row r="196" spans="4:9">
+    <row r="196" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D196" s="3">
         <f t="shared" si="18"/>
         <v>3.0562177792240099E-2</v>
@@ -24378,7 +24584,7 @@
         <v>2.0026762440848563E-2</v>
       </c>
     </row>
-    <row r="197" spans="4:9">
+    <row r="197" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D197" s="3">
         <f t="shared" si="18"/>
         <v>3.0721646025993202E-2</v>
@@ -24404,7 +24610,7 @@
         <v>2.0026619957521433E-2</v>
       </c>
     </row>
-    <row r="198" spans="4:9">
+    <row r="198" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D198" s="3">
         <f t="shared" si="18"/>
         <v>3.0881105760695415E-2</v>
@@ -24430,7 +24636,7 @@
         <v>2.0026478982587036E-2</v>
       </c>
     </row>
-    <row r="199" spans="4:9">
+    <row r="199" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D199" s="3">
         <f t="shared" si="18"/>
         <v>3.1040557063328766E-2</v>
@@ -24456,7 +24662,7 @@
         <v>2.0026339492626895E-2</v>
       </c>
     </row>
-    <row r="200" spans="4:9">
+    <row r="200" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D200" s="3">
         <f t="shared" si="18"/>
         <v>3.1200000000000033E-2</v>
@@ -24482,7 +24688,7 @@
         <v>2.0026201465728491E-2</v>
       </c>
     </row>
-    <row r="201" spans="4:9">
+    <row r="201" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D201" s="3">
         <f t="shared" ref="D201:D264" si="24">$D$2+$D$3*F201+$D$4*F201*F201/2</f>
         <v>3.1359434635956689E-2</v>
@@ -24508,7 +24714,7 @@
         <v>2.0026064878070206E-2</v>
       </c>
     </row>
-    <row r="202" spans="4:9">
+    <row r="202" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D202" s="3">
         <f t="shared" si="24"/>
         <v>3.1518861035602488E-2</v>
@@ -24534,7 +24740,7 @@
         <v>2.0025929705904149E-2</v>
       </c>
     </row>
-    <row r="203" spans="4:9">
+    <row r="203" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D203" s="3">
         <f t="shared" si="24"/>
         <v>3.1678279262512654E-2</v>
@@ -24560,7 +24766,7 @@
         <v>2.0025795928402351E-2</v>
       </c>
     </row>
-    <row r="204" spans="4:9">
+    <row r="204" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D204" s="3">
         <f t="shared" si="24"/>
         <v>3.1837689379448683E-2</v>
@@ -24586,7 +24792,7 @@
         <v>2.002566352538742E-2</v>
       </c>
     </row>
-    <row r="205" spans="4:9">
+    <row r="205" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D205" s="3">
         <f t="shared" si="24"/>
         <v>3.1997091448372872E-2</v>
@@ -24612,7 +24818,7 @@
         <v>2.0025532474081648E-2</v>
       </c>
     </row>
-    <row r="206" spans="4:9">
+    <row r="206" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D206" s="3">
         <f t="shared" si="24"/>
         <v>3.2156485530462492E-2</v>
@@ -24638,7 +24844,7 @@
         <v>2.0025402755520373E-2</v>
       </c>
     </row>
-    <row r="207" spans="4:9">
+    <row r="207" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D207" s="3">
         <f t="shared" si="24"/>
         <v>3.2315871686123709E-2</v>
@@ -24664,7 +24870,7 @@
         <v>2.0025274345848457E-2</v>
       </c>
     </row>
-    <row r="208" spans="4:9">
+    <row r="208" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D208" s="3">
         <f t="shared" si="24"/>
         <v>3.2475249975005026E-2</v>
@@ -24690,7 +24896,7 @@
         <v>2.0025147228943364E-2</v>
       </c>
     </row>
-    <row r="209" spans="4:9">
+    <row r="209" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D209" s="3">
         <f t="shared" si="24"/>
         <v>3.2634620456010531E-2</v>
@@ -24716,7 +24922,7 @@
         <v>2.0025021385994338E-2</v>
       </c>
     </row>
-    <row r="210" spans="4:9">
+    <row r="210" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D210" s="3">
         <f t="shared" si="24"/>
         <v>3.2793983187312928E-2</v>
@@ -24742,7 +24948,7 @@
         <v>2.0024896794369487E-2</v>
       </c>
     </row>
-    <row r="211" spans="4:9">
+    <row r="211" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D211" s="3">
         <f t="shared" si="24"/>
         <v>3.295333822636607E-2</v>
@@ -24768,7 +24974,7 @@
         <v>2.0024773438082753E-2</v>
       </c>
     </row>
-    <row r="212" spans="4:9">
+    <row r="212" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D212" s="3">
         <f t="shared" si="24"/>
         <v>3.3112685629917447E-2</v>
@@ -24794,7 +25000,7 @@
         <v>2.0024651297816064E-2</v>
       </c>
     </row>
-    <row r="213" spans="4:9">
+    <row r="213" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D213" s="3">
         <f t="shared" si="24"/>
         <v>3.3272025454020186E-2</v>
@@ -24820,7 +25026,7 @@
         <v>2.0024530356208315E-2</v>
       </c>
     </row>
-    <row r="214" spans="4:9">
+    <row r="214" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D214" s="3">
         <f t="shared" si="24"/>
         <v>3.3431357754044953E-2</v>
@@ -24846,7 +25052,7 @@
         <v>2.0024410596060128E-2</v>
       </c>
     </row>
-    <row r="215" spans="4:9">
+    <row r="215" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D215" s="3">
         <f t="shared" si="24"/>
         <v>3.35906825846915E-2</v>
@@ -24872,7 +25078,7 @@
         <v>2.0024291998428381E-2</v>
       </c>
     </row>
-    <row r="216" spans="4:9">
+    <row r="216" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D216" s="3">
         <f t="shared" si="24"/>
         <v>3.3749999999999988E-2</v>
@@ -24898,7 +25104,7 @@
         <v>2.0024174549052972E-2</v>
       </c>
     </row>
-    <row r="217" spans="4:9">
+    <row r="217" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D217" s="3">
         <f t="shared" si="24"/>
         <v>3.3909310053362118E-2</v>
@@ -24924,7 +25130,7 @@
         <v>2.0024058228147318E-2</v>
       </c>
     </row>
-    <row r="218" spans="4:9">
+    <row r="218" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D218" s="3">
         <f t="shared" si="24"/>
         <v>3.4068612797531879E-2</v>
@@ -24950,7 +25156,7 @@
         <v>2.0023943023556163E-2</v>
       </c>
     </row>
-    <row r="219" spans="4:9">
+    <row r="219" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D219" s="3">
         <f t="shared" si="24"/>
         <v>3.4227908284636267E-2</v>
@@ -24976,7 +25182,7 @@
         <v>2.002382891447705E-2</v>
       </c>
     </row>
-    <row r="220" spans="4:9">
+    <row r="220" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D220" s="3">
         <f t="shared" si="24"/>
         <v>3.4387196566185586E-2</v>
@@ -25002,7 +25208,7 @@
         <v>2.0023715889778432E-2</v>
       </c>
     </row>
-    <row r="221" spans="4:9">
+    <row r="221" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D221" s="3">
         <f t="shared" si="24"/>
         <v>3.4546477693083652E-2</v>
@@ -25028,7 +25234,7 @@
         <v>2.0023603932398243E-2</v>
       </c>
     </row>
-    <row r="222" spans="4:9">
+    <row r="222" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D222" s="3">
         <f t="shared" si="24"/>
         <v>3.470575171563773E-2</v>
@@ -25054,7 +25260,7 @@
         <v>2.0023493025691199E-2</v>
       </c>
     </row>
-    <row r="223" spans="4:9">
+    <row r="223" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D223" s="3">
         <f t="shared" si="24"/>
         <v>3.4865018683568311E-2</v>
@@ -25080,7 +25286,7 @@
         <v>2.0023383157103822E-2</v>
       </c>
     </row>
-    <row r="224" spans="4:9">
+    <row r="224" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D224" s="3">
         <f t="shared" si="24"/>
         <v>3.5024278646018599E-2</v>
@@ -25106,7 +25312,7 @@
         <v>2.0023274310693083E-2</v>
       </c>
     </row>
-    <row r="225" spans="4:9">
+    <row r="225" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D225" s="3">
         <f t="shared" si="24"/>
         <v>3.5183531651563855E-2</v>
@@ -25132,7 +25338,7 @@
         <v>2.0023166474865208E-2</v>
       </c>
     </row>
-    <row r="226" spans="4:9">
+    <row r="226" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D226" s="3">
         <f t="shared" si="24"/>
         <v>3.534277774822063E-2</v>
@@ -25158,7 +25364,7 @@
         <v>2.0023059630663139E-2</v>
       </c>
     </row>
-    <row r="227" spans="4:9">
+    <row r="227" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D227" s="3">
         <f t="shared" si="24"/>
         <v>3.550201698345555E-2</v>
@@ -25184,7 +25390,7 @@
         <v>2.0022953770921729E-2</v>
       </c>
     </row>
-    <row r="228" spans="4:9">
+    <row r="228" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D228" s="3">
         <f t="shared" si="24"/>
         <v>3.5661249404194288E-2</v>
@@ -25210,7 +25416,7 @@
         <v>2.00228488760371E-2</v>
       </c>
     </row>
-    <row r="229" spans="4:9">
+    <row r="229" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D229" s="3">
         <f t="shared" si="24"/>
         <v>3.5820475056830031E-2</v>
@@ -25236,7 +25442,7 @@
         <v>2.0022744935639939E-2</v>
       </c>
     </row>
-    <row r="230" spans="4:9">
+    <row r="230" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D230" s="3">
         <f t="shared" si="24"/>
         <v>3.59796939872319E-2</v>
@@ -25262,7 +25468,7 @@
         <v>2.0022641939036547E-2</v>
       </c>
     </row>
-    <row r="231" spans="4:9">
+    <row r="231" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D231" s="3">
         <f t="shared" si="24"/>
         <v>3.6138906240753291E-2</v>
@@ -25288,7 +25494,7 @@
         <v>2.0022539868132037E-2</v>
       </c>
     </row>
-    <row r="232" spans="4:9">
+    <row r="232" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D232" s="3">
         <f t="shared" si="24"/>
         <v>3.6298111862239864E-2</v>
@@ -25314,7 +25520,7 @@
         <v>2.0022438715234406E-2</v>
       </c>
     </row>
-    <row r="233" spans="4:9">
+    <row r="233" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D233" s="3">
         <f t="shared" si="24"/>
         <v>3.6457310896037522E-2</v>
@@ -25340,7 +25546,7 @@
         <v>2.0022338465398089E-2</v>
       </c>
     </row>
-    <row r="234" spans="4:9">
+    <row r="234" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D234" s="3">
         <f t="shared" si="24"/>
         <v>3.6616503386000136E-2</v>
@@ -25366,7 +25572,7 @@
         <v>2.0022239106911727E-2</v>
       </c>
     </row>
-    <row r="235" spans="4:9">
+    <row r="235" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D235" s="3">
         <f t="shared" si="24"/>
         <v>3.6775689375497175E-2</v>
@@ -25392,7 +25598,7 @@
         <v>2.0022140630263023E-2</v>
       </c>
     </row>
-    <row r="236" spans="4:9">
+    <row r="236" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D236" s="3">
         <f t="shared" si="24"/>
         <v>3.6934868907421176E-2</v>
@@ -25418,7 +25624,7 @@
         <v>2.0022043019094538E-2</v>
       </c>
     </row>
-    <row r="237" spans="4:9">
+    <row r="237" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D237" s="3">
         <f t="shared" si="24"/>
         <v>3.7094042024195015E-2</v>
@@ -25444,7 +25650,7 @@
         <v>2.0021946267552201E-2</v>
       </c>
     </row>
-    <row r="238" spans="4:9">
+    <row r="238" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D238" s="3">
         <f t="shared" si="24"/>
         <v>3.7253208767779107E-2</v>
@@ -25470,7 +25676,7 @@
         <v>2.0021850359595555E-2</v>
       </c>
     </row>
-    <row r="239" spans="4:9">
+    <row r="239" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D239" s="3">
         <f t="shared" si="24"/>
         <v>3.741236917967844E-2</v>
@@ -25496,7 +25702,7 @@
         <v>2.0021755287907537E-2</v>
       </c>
     </row>
-    <row r="240" spans="4:9">
+    <row r="240" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D240" s="3">
         <f t="shared" si="24"/>
         <v>3.7571523300949435E-2</v>
@@ -25522,7 +25728,7 @@
         <v>2.0021661038628603E-2</v>
       </c>
     </row>
-    <row r="241" spans="4:9">
+    <row r="241" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D241" s="3">
         <f t="shared" si="24"/>
         <v>3.7730671172206721E-2</v>
@@ -25548,7 +25754,7 @@
         <v>2.0021567602906548E-2</v>
       </c>
     </row>
-    <row r="242" spans="4:9">
+    <row r="242" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D242" s="3">
         <f t="shared" si="24"/>
         <v>3.788981283362975E-2</v>
@@ -25574,7 +25780,7 @@
         <v>2.0021474970752275E-2</v>
       </c>
     </row>
-    <row r="243" spans="4:9">
+    <row r="243" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D243" s="3">
         <f t="shared" si="24"/>
         <v>3.8048948324969356E-2</v>
@@ -25600,7 +25806,7 @@
         <v>2.0021383128639422E-2</v>
       </c>
     </row>
-    <row r="244" spans="4:9">
+    <row r="244" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D244" s="3">
         <f t="shared" si="24"/>
         <v>3.8208077685554002E-2</v>
@@ -25626,7 +25832,7 @@
         <v>2.0021292071295181E-2</v>
       </c>
     </row>
-    <row r="245" spans="4:9">
+    <row r="245" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D245" s="3">
         <f t="shared" si="24"/>
         <v>3.8367200954296195E-2</v>
@@ -25652,7 +25858,7 @@
         <v>2.0021201783718023E-2</v>
       </c>
     </row>
-    <row r="246" spans="4:9">
+    <row r="246" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D246" s="3">
         <f t="shared" si="24"/>
         <v>3.8526318169698467E-2</v>
@@ -25678,7 +25884,7 @@
         <v>2.0021112261928646E-2</v>
       </c>
     </row>
-    <row r="247" spans="4:9">
+    <row r="247" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D247" s="3">
         <f t="shared" si="24"/>
         <v>3.8685429369859553E-2</v>
@@ -25704,7 +25910,7 @@
         <v>2.0021023488388967E-2</v>
       </c>
     </row>
-    <row r="248" spans="4:9">
+    <row r="248" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D248" s="3">
         <f t="shared" si="24"/>
         <v>3.8844534592480121E-2</v>
@@ -25730,7 +25936,7 @@
         <v>2.0020935462839839E-2</v>
       </c>
     </row>
-    <row r="249" spans="4:9">
+    <row r="249" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D249" s="3">
         <f t="shared" si="24"/>
         <v>3.9003633874868722E-2</v>
@@ -25756,7 +25962,7 @@
         <v>2.0020848168127631E-2</v>
       </c>
     </row>
-    <row r="250" spans="4:9">
+    <row r="250" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D250" s="3">
         <f t="shared" si="24"/>
         <v>3.9162727253947378E-2</v>
@@ -25782,7 +25988,7 @@
         <v>2.0020761600818556E-2</v>
       </c>
     </row>
-    <row r="251" spans="4:9">
+    <row r="251" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D251" s="3">
         <f t="shared" si="24"/>
         <v>3.9321814766257256E-2</v>
@@ -25808,7 +26014,7 @@
         <v>2.0020675746643145E-2</v>
       </c>
     </row>
-    <row r="252" spans="4:9">
+    <row r="252" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D252" s="3">
         <f t="shared" si="24"/>
         <v>3.9480896447964028E-2</v>
@@ -25834,7 +26040,7 @@
         <v>2.0020590602084117E-2</v>
       </c>
     </row>
-    <row r="253" spans="4:9">
+    <row r="253" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D253" s="3">
         <f t="shared" si="24"/>
         <v>3.9639972334863334E-2</v>
@@ -25860,7 +26066,7 @@
         <v>2.0020506155873967E-2</v>
       </c>
     </row>
-    <row r="254" spans="4:9">
+    <row r="254" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D254" s="3">
         <f t="shared" si="24"/>
         <v>3.979904246238606E-2</v>
@@ -25886,7 +26092,7 @@
         <v>2.0020422397377387E-2</v>
       </c>
     </row>
-    <row r="255" spans="4:9">
+    <row r="255" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D255" s="3">
         <f t="shared" si="24"/>
         <v>3.9958106865603513E-2</v>
@@ -25912,7 +26118,7 @@
         <v>2.0020339321203947E-2</v>
       </c>
     </row>
-    <row r="256" spans="4:9">
+    <row r="256" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D256" s="3">
         <f t="shared" si="24"/>
         <v>4.0117165579232443E-2</v>
@@ -25938,7 +26144,7 @@
         <v>2.0020256919307297E-2</v>
       </c>
     </row>
-    <row r="257" spans="4:9">
+    <row r="257" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D257" s="3">
         <f t="shared" si="24"/>
         <v>4.0276218637640145E-2</v>
@@ -25964,7 +26170,7 @@
         <v>2.0020175181960954E-2</v>
       </c>
     </row>
-    <row r="258" spans="4:9">
+    <row r="258" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D258" s="3">
         <f t="shared" si="24"/>
         <v>4.0435266074849284E-2</v>
@@ -25990,7 +26196,7 @@
         <v>2.0020094101019136E-2</v>
       </c>
     </row>
-    <row r="259" spans="4:9">
+    <row r="259" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D259" s="3">
         <f t="shared" si="24"/>
         <v>4.0594307924542779E-2</v>
@@ -26016,7 +26222,7 @@
         <v>2.0020013669087712E-2</v>
       </c>
     </row>
-    <row r="260" spans="4:9">
+    <row r="260" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D260" s="3">
         <f t="shared" si="24"/>
         <v>4.075334422006846E-2</v>
@@ -26042,7 +26248,7 @@
         <v>2.0019933879306822E-2</v>
       </c>
     </row>
-    <row r="261" spans="4:9">
+    <row r="261" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D261" s="3">
         <f t="shared" si="24"/>
         <v>4.0912374994443799E-2</v>
@@ -26068,7 +26274,7 @@
         <v>2.0019854721700116E-2</v>
       </c>
     </row>
-    <row r="262" spans="4:9">
+    <row r="262" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D262" s="3">
         <f t="shared" si="24"/>
         <v>4.1071400280360375E-2</v>
@@ -26094,7 +26300,7 @@
         <v>2.0019776193013261E-2</v>
       </c>
     </row>
-    <row r="263" spans="4:9">
+    <row r="263" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D263" s="3">
         <f t="shared" si="24"/>
         <v>4.123042011018848E-2</v>
@@ -26120,7 +26326,7 @@
         <v>2.0019698279804817E-2</v>
       </c>
     </row>
-    <row r="264" spans="4:9">
+    <row r="264" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D264" s="3">
         <f t="shared" si="24"/>
         <v>4.1389434515981399E-2</v>
@@ -26146,7 +26352,7 @@
         <v>2.0019620980983192E-2</v>
       </c>
     </row>
-    <row r="265" spans="4:9">
+    <row r="265" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D265" s="3">
         <f t="shared" ref="D265:D328" si="30">$D$2+$D$3*F265+$D$4*F265*F265/2</f>
         <v>4.1548443529479832E-2</v>
@@ -26172,7 +26378,7 @@
         <v>2.0019544284759872E-2</v>
       </c>
     </row>
-    <row r="266" spans="4:9">
+    <row r="266" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D266" s="3">
         <f t="shared" si="30"/>
         <v>4.1707447182116109E-2</v>
@@ -26198,7 +26404,7 @@
         <v>2.0019468185286174E-2</v>
       </c>
     </row>
-    <row r="267" spans="4:9">
+    <row r="267" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D267" s="3">
         <f t="shared" si="30"/>
         <v>4.186644550501837E-2</v>
@@ -26224,7 +26430,7 @@
         <v>2.0019392678049221E-2</v>
       </c>
     </row>
-    <row r="268" spans="4:9">
+    <row r="268" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D268" s="3">
         <f t="shared" si="30"/>
         <v>4.2025438529014657E-2</v>
@@ -26250,7 +26456,7 @@
         <v>2.0019317752393559E-2</v>
       </c>
     </row>
-    <row r="269" spans="4:9">
+    <row r="269" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D269" s="3">
         <f t="shared" si="30"/>
         <v>4.2184426284636978E-2</v>
@@ -26276,7 +26482,7 @@
         <v>2.0019243404765234E-2</v>
       </c>
     </row>
-    <row r="270" spans="4:9">
+    <row r="270" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D270" s="3">
         <f t="shared" si="30"/>
         <v>4.2343408802125226E-2</v>
@@ -26302,7 +26508,7 @@
         <v>2.0019169627650404E-2</v>
       </c>
     </row>
-    <row r="271" spans="4:9">
+    <row r="271" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D271" s="3">
         <f t="shared" si="30"/>
         <v>4.2502386111431159E-2</v>
@@ -26328,7 +26534,7 @@
         <v>2.0019096411623406E-2</v>
       </c>
     </row>
-    <row r="272" spans="4:9">
+    <row r="272" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D272" s="3">
         <f t="shared" si="30"/>
         <v>4.2661358242222135E-2</v>
@@ -26354,7 +26560,7 @@
         <v>2.0019023755097166E-2</v>
       </c>
     </row>
-    <row r="273" spans="4:9">
+    <row r="273" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D273" s="3">
         <f t="shared" si="30"/>
         <v>4.2820325223884917E-2</v>
@@ -26380,7 +26586,7 @@
         <v>2.0018951649193886E-2</v>
       </c>
     </row>
-    <row r="274" spans="4:9">
+    <row r="274" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D274" s="3">
         <f t="shared" si="30"/>
         <v>4.2979287085529422E-2</v>
@@ -26406,7 +26612,7 @@
         <v>2.001888008628918E-2</v>
       </c>
     </row>
-    <row r="275" spans="4:9">
+    <row r="275" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D275" s="3">
         <f t="shared" si="30"/>
         <v>4.313824385599227E-2</v>
@@ -26432,7 +26638,7 @@
         <v>2.0018809063496526E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:9">
+    <row r="276" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D276" s="3">
         <f t="shared" si="30"/>
         <v>4.3297195563840415E-2</v>
@@ -26458,7 +26664,7 @@
         <v>2.0018738572066E-2</v>
       </c>
     </row>
-    <row r="277" spans="4:9">
+    <row r="277" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D277" s="3">
         <f t="shared" si="30"/>
         <v>4.3456142237374693E-2</v>
@@ -26484,7 +26690,7 @@
         <v>2.0018668606625073E-2</v>
       </c>
     </row>
-    <row r="278" spans="4:9">
+    <row r="278" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D278" s="3">
         <f t="shared" si="30"/>
         <v>4.361508390463318E-2</v>
@@ -26510,7 +26716,7 @@
         <v>2.0018599163081022E-2</v>
       </c>
     </row>
-    <row r="279" spans="4:9">
+    <row r="279" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D279" s="3">
         <f t="shared" si="30"/>
         <v>4.3774020593394691E-2</v>
@@ -26536,7 +26742,7 @@
         <v>2.0018530233615744E-2</v>
       </c>
     </row>
-    <row r="280" spans="4:9">
+    <row r="280" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D280" s="3">
         <f t="shared" si="30"/>
         <v>4.3932952331182114E-2</v>
@@ -26562,7 +26768,7 @@
         <v>2.0018461812204128E-2</v>
       </c>
     </row>
-    <row r="281" spans="4:9">
+    <row r="281" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D281" s="3">
         <f t="shared" si="30"/>
         <v>4.4091879145265606E-2</v>
@@ -26588,7 +26794,7 @@
         <v>2.0018393896598624E-2</v>
       </c>
     </row>
-    <row r="282" spans="4:9">
+    <row r="282" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D282" s="3">
         <f t="shared" si="30"/>
         <v>4.4250801062665962E-2</v>
@@ -26614,7 +26820,7 @@
         <v>2.0018326475699705E-2</v>
       </c>
     </row>
-    <row r="283" spans="4:9">
+    <row r="283" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D283" s="3">
         <f t="shared" si="30"/>
         <v>4.4409718110157696E-2</v>
@@ -26640,7 +26846,7 @@
         <v>2.0018259550227225E-2</v>
       </c>
     </row>
-    <row r="284" spans="4:9">
+    <row r="284" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D284" s="3">
         <f t="shared" si="30"/>
         <v>4.456863031427221E-2</v>
@@ -26666,7 +26872,7 @@
         <v>2.0018193109879394E-2</v>
       </c>
     </row>
-    <row r="285" spans="4:9">
+    <row r="285" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D285" s="3">
         <f t="shared" si="30"/>
         <v>4.4727537701300911E-2</v>
@@ -26692,7 +26898,7 @@
         <v>2.0018127151165396E-2</v>
       </c>
     </row>
-    <row r="286" spans="4:9">
+    <row r="286" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D286" s="3">
         <f t="shared" si="30"/>
         <v>4.4886440297298123E-2</v>
@@ -26718,7 +26924,7 @@
         <v>2.00180616716308E-2</v>
       </c>
     </row>
-    <row r="287" spans="4:9">
+    <row r="287" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D287" s="3">
         <f t="shared" si="30"/>
         <v>4.5045338128084221E-2</v>
@@ -26744,7 +26950,7 @@
         <v>2.0017996659999291E-2</v>
       </c>
     </row>
-    <row r="288" spans="4:9">
+    <row r="288" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D288" s="3">
         <f t="shared" si="30"/>
         <v>4.5204231219248464E-2</v>
@@ -26770,7 +26976,7 @@
         <v>2.0017932115034567E-2</v>
       </c>
     </row>
-    <row r="289" spans="4:9">
+    <row r="289" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D289" s="3">
         <f t="shared" si="30"/>
         <v>4.5363119596151837E-2</v>
@@ -26796,7 +27002,7 @@
         <v>2.0017868036630609E-2</v>
       </c>
     </row>
-    <row r="290" spans="4:9">
+    <row r="290" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D290" s="3">
         <f t="shared" si="30"/>
         <v>4.5522003283930093E-2</v>
@@ -26822,7 +27028,7 @@
         <v>2.0017804405999196E-2</v>
       </c>
     </row>
-    <row r="291" spans="4:9">
+    <row r="291" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D291" s="3">
         <f t="shared" si="30"/>
         <v>4.5680882307496291E-2</v>
@@ -26848,7 +27054,7 @@
         <v>2.0017741232933636E-2</v>
       </c>
     </row>
-    <row r="292" spans="4:9">
+    <row r="292" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D292" s="3">
         <f t="shared" si="30"/>
         <v>4.5839756691543686E-2</v>
@@ -26874,7 +27080,7 @@
         <v>2.0017678507645933E-2</v>
       </c>
     </row>
-    <row r="293" spans="4:9">
+    <row r="293" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D293" s="3">
         <f t="shared" si="30"/>
         <v>4.5998626460548468E-2</v>
@@ -26900,7 +27106,7 @@
         <v>2.0017616218372652E-2</v>
       </c>
     </row>
-    <row r="294" spans="4:9">
+    <row r="294" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D294" s="3">
         <f t="shared" si="30"/>
         <v>4.6157491638772336E-2</v>
@@ -26926,7 +27132,7 @@
         <v>2.0017554370521506E-2</v>
       </c>
     </row>
-    <row r="295" spans="4:9">
+    <row r="295" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D295" s="3">
         <f t="shared" si="30"/>
         <v>4.631635225026514E-2</v>
@@ -26952,7 +27158,7 @@
         <v>2.0017492955661301E-2</v>
       </c>
     </row>
-    <row r="296" spans="4:9">
+    <row r="296" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D296" s="3">
         <f t="shared" si="30"/>
         <v>4.6475208318867464E-2</v>
@@ -26978,7 +27184,7 @@
         <v>2.0017431969352836E-2</v>
       </c>
     </row>
-    <row r="297" spans="4:9">
+    <row r="297" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D297" s="3">
         <f t="shared" si="30"/>
         <v>4.6634059868213264E-2</v>
@@ -27004,7 +27210,7 @@
         <v>2.0017371402900327E-2</v>
       </c>
     </row>
-    <row r="298" spans="4:9">
+    <row r="298" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D298" s="3">
         <f t="shared" si="30"/>
         <v>4.6792906921732172E-2</v>
@@ -27030,7 +27236,7 @@
         <v>2.0017311261525422E-2</v>
       </c>
     </row>
-    <row r="299" spans="4:9">
+    <row r="299" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D299" s="3">
         <f t="shared" si="30"/>
         <v>4.695174950265215E-2</v>
@@ -27056,7 +27262,7 @@
         <v>2.0017251529266717E-2</v>
       </c>
     </row>
-    <row r="300" spans="4:9">
+    <row r="300" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D300" s="3">
         <f t="shared" si="30"/>
         <v>4.7110587634001784E-2</v>
@@ -27082,7 +27288,7 @@
         <v>2.0017192212713999E-2</v>
       </c>
     </row>
-    <row r="301" spans="4:9">
+    <row r="301" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D301" s="3">
         <f t="shared" si="30"/>
         <v>4.7269421338612755E-2</v>
@@ -27108,7 +27314,7 @@
         <v>2.0017133300626405E-2</v>
       </c>
     </row>
-    <row r="302" spans="4:9">
+    <row r="302" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D302" s="3">
         <f t="shared" si="30"/>
         <v>4.7428250639122115E-2</v>
@@ -27134,7 +27340,7 @@
         <v>2.001707478985601E-2</v>
       </c>
     </row>
-    <row r="303" spans="4:9">
+    <row r="303" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D303" s="3">
         <f t="shared" si="30"/>
         <v>4.7587075557974673E-2</v>
@@ -27160,7 +27366,7 @@
         <v>2.0017016679567984E-2</v>
       </c>
     </row>
-    <row r="304" spans="4:9">
+    <row r="304" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D304" s="3">
         <f t="shared" si="30"/>
         <v>4.7745896117425204E-2</v>
@@ -27186,7 +27392,7 @@
         <v>2.0016958962126002E-2</v>
       </c>
     </row>
-    <row r="305" spans="4:9">
+    <row r="305" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D305" s="3">
         <f t="shared" si="30"/>
         <v>4.7904712339540773E-2</v>
@@ -27212,7 +27418,7 @@
         <v>2.0016901635152046E-2</v>
       </c>
     </row>
-    <row r="306" spans="4:9">
+    <row r="306" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D306" s="3">
         <f t="shared" si="30"/>
         <v>4.8063524246202881E-2</v>
@@ -27238,7 +27444,7 @@
         <v>2.0016844693305825E-2</v>
       </c>
     </row>
-    <row r="307" spans="4:9">
+    <row r="307" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D307" s="3">
         <f t="shared" si="30"/>
         <v>4.8222331859109631E-2</v>
@@ -27264,7 +27470,7 @@
         <v>2.0016788137347738E-2</v>
       </c>
     </row>
-    <row r="308" spans="4:9">
+    <row r="308" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D308" s="3">
         <f t="shared" si="30"/>
         <v>4.838113519977795E-2</v>
@@ -27290,7 +27496,7 @@
         <v>2.0016731955280559E-2</v>
       </c>
     </row>
-    <row r="309" spans="4:9">
+    <row r="309" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D309" s="3">
         <f t="shared" si="30"/>
         <v>4.8539934289545617E-2</v>
@@ -27316,7 +27522,7 @@
         <v>2.0016676152076803E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:9">
+    <row r="310" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D310" s="3">
         <f t="shared" si="30"/>
         <v>4.8698729149573398E-2</v>
@@ -27342,7 +27548,7 @@
         <v>2.0016620717108052E-2</v>
       </c>
     </row>
-    <row r="311" spans="4:9">
+    <row r="311" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D311" s="3">
         <f t="shared" si="30"/>
         <v>4.8857519800847092E-2</v>
@@ -27368,7 +27574,7 @@
         <v>2.0016565649745823E-2</v>
       </c>
     </row>
-    <row r="312" spans="4:9">
+    <row r="312" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D312" s="3">
         <f t="shared" si="30"/>
         <v>4.9016306264179507E-2</v>
@@ -27394,7 +27600,7 @@
         <v>2.0016510948482613E-2</v>
       </c>
     </row>
-    <row r="313" spans="4:9">
+    <row r="313" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D313" s="3">
         <f t="shared" si="30"/>
         <v>4.9175088560212493E-2</v>
@@ -27420,7 +27626,7 @@
         <v>2.0016456603944226E-2</v>
       </c>
     </row>
-    <row r="314" spans="4:9">
+    <row r="314" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D314" s="3">
         <f t="shared" si="30"/>
         <v>4.9333866709418875E-2</v>
@@ -27446,7 +27652,7 @@
         <v>2.0016402618449006E-2</v>
       </c>
     </row>
-    <row r="315" spans="4:9">
+    <row r="315" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D315" s="3">
         <f t="shared" si="30"/>
         <v>4.9492640732104416E-2</v>
@@ -27472,7 +27678,7 @@
         <v>2.0016348984063004E-2</v>
       </c>
     </row>
-    <row r="316" spans="4:9">
+    <row r="316" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D316" s="3">
         <f t="shared" si="30"/>
         <v>4.965141064840968E-2</v>
@@ -27498,7 +27704,7 @@
         <v>2.0016295701110451E-2</v>
       </c>
     </row>
-    <row r="317" spans="4:9">
+    <row r="317" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D317" s="3">
         <f t="shared" si="30"/>
         <v>4.9810176478311929E-2</v>
@@ -27524,7 +27730,7 @@
         <v>2.0016242764510347E-2</v>
       </c>
     </row>
-    <row r="318" spans="4:9">
+    <row r="318" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D318" s="3">
         <f t="shared" si="30"/>
         <v>4.9968938241626994E-2</v>
@@ -27550,7 +27756,7 @@
         <v>2.0016190167168362E-2</v>
       </c>
     </row>
-    <row r="319" spans="4:9">
+    <row r="319" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D319" s="3">
         <f t="shared" si="30"/>
         <v>5.0127695958011018E-2</v>
@@ -27576,7 +27782,7 @@
         <v>2.0016137915524996E-2</v>
       </c>
     </row>
-    <row r="320" spans="4:9">
+    <row r="320" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D320" s="3">
         <f t="shared" si="30"/>
         <v>5.0286449646962363E-2</v>
@@ -27602,7 +27808,7 @@
         <v>2.0016085993560886E-2</v>
       </c>
     </row>
-    <row r="321" spans="4:9">
+    <row r="321" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D321" s="3">
         <f t="shared" si="30"/>
         <v>5.0445199327823285E-2</v>
@@ -27628,7 +27834,7 @@
         <v>2.0016034407853579E-2</v>
       </c>
     </row>
-    <row r="322" spans="4:9">
+    <row r="322" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D322" s="3">
         <f t="shared" si="30"/>
         <v>5.0603945019781688E-2</v>
@@ -27654,7 +27860,7 @@
         <v>2.0015983153621551E-2</v>
       </c>
     </row>
-    <row r="323" spans="4:9">
+    <row r="323" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D323" s="3">
         <f t="shared" si="30"/>
         <v>5.0762686741872912E-2</v>
@@ -27680,7 +27886,7 @@
         <v>2.0015932223394407E-2</v>
       </c>
     </row>
-    <row r="324" spans="4:9">
+    <row r="324" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D324" s="3">
         <f t="shared" si="30"/>
         <v>5.09214245129814E-2</v>
@@ -27706,7 +27912,7 @@
         <v>2.0015881614768992E-2</v>
       </c>
     </row>
-    <row r="325" spans="4:9">
+    <row r="325" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D325" s="3">
         <f t="shared" si="30"/>
         <v>5.1080158351842257E-2</v>
@@ -27732,7 +27938,7 @@
         <v>2.0015831332748646E-2</v>
       </c>
     </row>
-    <row r="326" spans="4:9">
+    <row r="326" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D326" s="3">
         <f t="shared" si="30"/>
         <v>5.1238888277043058E-2</v>
@@ -27758,7 +27964,7 @@
         <v>2.0015781363607481E-2</v>
       </c>
     </row>
-    <row r="327" spans="4:9">
+    <row r="327" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D327" s="3">
         <f t="shared" si="30"/>
         <v>5.1397614307025399E-2</v>
@@ -27784,7 +27990,7 @@
         <v>2.0015731708511109E-2</v>
       </c>
     </row>
-    <row r="328" spans="4:9">
+    <row r="328" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D328" s="3">
         <f t="shared" si="30"/>
         <v>5.155633646008647E-2</v>
@@ -27810,7 +28016,7 @@
         <v>2.0015682367617183E-2</v>
       </c>
     </row>
-    <row r="329" spans="4:9">
+    <row r="329" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D329" s="3">
         <f t="shared" ref="D329:D392" si="36">$D$2+$D$3*F329+$D$4*F329*F329/2</f>
         <v>5.1715054754380645E-2</v>
@@ -27836,7 +28042,7 @@
         <v>2.0015633335149535E-2</v>
       </c>
     </row>
-    <row r="330" spans="4:9">
+    <row r="330" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D330" s="3">
         <f t="shared" si="36"/>
         <v>5.1873769207921146E-2</v>
@@ -27862,7 +28068,7 @@
         <v>2.0015584603583433E-2</v>
       </c>
     </row>
-    <row r="331" spans="4:9">
+    <row r="331" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D331" s="3">
         <f t="shared" si="36"/>
         <v>5.203247983858135E-2</v>
@@ -27888,7 +28094,7 @@
         <v>2.001553618419601E-2</v>
       </c>
     </row>
-    <row r="332" spans="4:9">
+    <row r="332" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D332" s="3">
         <f t="shared" si="36"/>
         <v>5.2191186664096542E-2</v>
@@ -27914,7 +28120,7 @@
         <v>2.0015488053344986E-2</v>
       </c>
     </row>
-    <row r="333" spans="4:9">
+    <row r="333" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D333" s="3">
         <f t="shared" si="36"/>
         <v>5.2349889702065264E-2</v>
@@ -27940,7 +28146,7 @@
         <v>2.0015440228704211E-2</v>
       </c>
     </row>
-    <row r="334" spans="4:9">
+    <row r="334" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D334" s="3">
         <f t="shared" si="36"/>
         <v>5.2508588969950823E-2</v>
@@ -27966,7 +28172,7 @@
         <v>2.0015392691926134E-2</v>
       </c>
     </row>
-    <row r="335" spans="4:9">
+    <row r="335" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D335" s="3">
         <f t="shared" si="36"/>
         <v>5.2667284485082719E-2</v>
@@ -27992,7 +28198,7 @@
         <v>2.0015345454810454E-2</v>
       </c>
     </row>
-    <row r="336" spans="4:9">
+    <row r="336" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D336" s="3">
         <f t="shared" si="36"/>
         <v>5.2825976264658112E-2</v>
@@ -28018,7 +28224,7 @@
         <v>2.0015298499924141E-2</v>
       </c>
     </row>
-    <row r="337" spans="4:9">
+    <row r="337" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D337" s="3">
         <f t="shared" si="36"/>
         <v>5.298466432574326E-2</v>
@@ -28044,7 +28250,7 @@
         <v>2.0015251830750307E-2</v>
       </c>
     </row>
-    <row r="338" spans="4:9">
+    <row r="338" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D338" s="3">
         <f t="shared" si="36"/>
         <v>5.3143348685274754E-2</v>
@@ -28070,7 +28276,7 @@
         <v>2.0015205455975647E-2</v>
       </c>
     </row>
-    <row r="339" spans="4:9">
+    <row r="339" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D339" s="3">
         <f t="shared" si="36"/>
         <v>5.3302029360061141E-2</v>
@@ -28096,7 +28302,7 @@
         <v>2.0015159347811725E-2</v>
       </c>
     </row>
-    <row r="340" spans="4:9">
+    <row r="340" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D340" s="3">
         <f t="shared" si="36"/>
         <v>5.346070636678403E-2</v>
@@ -28122,7 +28328,7 @@
         <v>2.0015113530241397E-2</v>
       </c>
     </row>
-    <row r="341" spans="4:9">
+    <row r="341" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D341" s="3">
         <f t="shared" si="36"/>
         <v>5.3619379721999628E-2</v>
@@ -28148,7 +28354,7 @@
         <v>2.0015067982011095E-2</v>
       </c>
     </row>
-    <row r="342" spans="4:9">
+    <row r="342" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D342" s="3">
         <f t="shared" si="36"/>
         <v>5.3778049442139916E-2</v>
@@ -28174,7 +28380,7 @@
         <v>2.0015022708190007E-2</v>
       </c>
     </row>
-    <row r="343" spans="4:9">
+    <row r="343" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D343" s="3">
         <f t="shared" si="36"/>
         <v>5.3936715543514008E-2</v>
@@ -28200,7 +28406,7 @@
         <v>2.0014977709273504E-2</v>
       </c>
     </row>
-    <row r="344" spans="4:9">
+    <row r="344" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D344" s="3">
         <f t="shared" si="36"/>
         <v>5.4095378042309454E-2</v>
@@ -28226,7 +28432,7 @@
         <v>2.001493297403081E-2</v>
       </c>
     </row>
-    <row r="345" spans="4:9">
+    <row r="345" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D345" s="3">
         <f t="shared" si="36"/>
         <v>5.425403695459341E-2</v>
@@ -28252,7 +28458,7 @@
         <v>2.0014888513073353E-2</v>
       </c>
     </row>
-    <row r="346" spans="4:9">
+    <row r="346" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D346" s="3">
         <f t="shared" si="36"/>
         <v>5.4412692296314062E-2</v>
@@ -28278,7 +28484,7 @@
         <v>2.0014844306101294E-2</v>
       </c>
     </row>
-    <row r="347" spans="4:9">
+    <row r="347" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D347" s="3">
         <f t="shared" si="36"/>
         <v>5.4571344083301651E-2</v>
@@ -28304,7 +28510,7 @@
         <v>2.00148003690893E-2</v>
       </c>
     </row>
-    <row r="348" spans="4:9">
+    <row r="348" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D348" s="3">
         <f t="shared" si="36"/>
         <v>5.4729992331269864E-2</v>
@@ -28330,7 +28536,7 @@
         <v>2.0014756684960184E-2</v>
       </c>
     </row>
-    <row r="349" spans="4:9">
+    <row r="349" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D349" s="3">
         <f t="shared" si="36"/>
         <v>5.4888637055816883E-2</v>
@@ -28356,7 +28562,7 @@
         <v>2.0014713264971926E-2</v>
       </c>
     </row>
-    <row r="350" spans="4:9">
+    <row r="350" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D350" s="3">
         <f t="shared" si="36"/>
         <v>5.5047278272426718E-2</v>
@@ -28382,7 +28588,7 @@
         <v>2.0014670092464232E-2</v>
       </c>
     </row>
-    <row r="351" spans="4:9">
+    <row r="351" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D351" s="3">
         <f t="shared" si="36"/>
         <v>5.5205915996470283E-2</v>
@@ -28408,7 +28614,7 @@
         <v>2.0014627175924005E-2</v>
       </c>
     </row>
-    <row r="352" spans="4:9">
+    <row r="352" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D352" s="3">
         <f t="shared" si="36"/>
         <v>5.5364550243206495E-2</v>
@@ -28434,7 +28640,7 @@
         <v>2.001458451390891E-2</v>
       </c>
     </row>
-    <row r="353" spans="4:9">
+    <row r="353" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D353" s="3">
         <f t="shared" si="36"/>
         <v>5.5523181027783572E-2</v>
@@ -28460,7 +28666,7 @@
         <v>2.0014542093630645E-2</v>
       </c>
     </row>
-    <row r="354" spans="4:9">
+    <row r="354" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D354" s="3">
         <f t="shared" si="36"/>
         <v>5.5681808365240053E-2</v>
@@ -28486,7 +28692,7 @@
         <v>2.0014499919203229E-2</v>
       </c>
     </row>
-    <row r="355" spans="4:9">
+    <row r="355" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D355" s="3">
         <f t="shared" si="36"/>
         <v>5.5840432270505884E-2</v>
@@ -28512,7 +28718,7 @@
         <v>2.0014457993984609E-2</v>
       </c>
     </row>
-    <row r="356" spans="4:9">
+    <row r="356" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D356" s="3">
         <f t="shared" si="36"/>
         <v>5.599905275840357E-2</v>
@@ -28538,7 +28744,7 @@
         <v>2.001441630625406E-2</v>
       </c>
     </row>
-    <row r="357" spans="4:9">
+    <row r="357" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D357" s="3">
         <f t="shared" si="36"/>
         <v>5.6157669843649213E-2</v>
@@ -28564,7 +28770,7 @@
         <v>2.0014374861614049E-2</v>
       </c>
     </row>
-    <row r="358" spans="4:9">
+    <row r="358" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D358" s="3">
         <f t="shared" si="36"/>
         <v>5.6316283540853641E-2</v>
@@ -28590,7 +28796,7 @@
         <v>2.0014333650520254E-2</v>
       </c>
     </row>
-    <row r="359" spans="4:9">
+    <row r="359" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D359" s="3">
         <f t="shared" si="36"/>
         <v>5.6474893864523368E-2</v>
@@ -28616,7 +28822,7 @@
         <v>2.0014292679612616E-2</v>
       </c>
     </row>
-    <row r="360" spans="4:9">
+    <row r="360" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D360" s="3">
         <f t="shared" si="36"/>
         <v>5.6633500829061705E-2</v>
@@ -28642,7 +28848,7 @@
         <v>2.0014251937560689E-2</v>
       </c>
     </row>
-    <row r="361" spans="4:9">
+    <row r="361" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D361" s="3">
         <f t="shared" si="36"/>
         <v>5.6792104448769774E-2</v>
@@ -28668,7 +28874,7 @@
         <v>2.0014211431845171E-2</v>
       </c>
     </row>
-    <row r="362" spans="4:9">
+    <row r="362" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D362" s="3">
         <f t="shared" si="36"/>
         <v>5.6950704737847503E-2</v>
@@ -28694,7 +28900,7 @@
         <v>2.0014171149016161E-2</v>
       </c>
     </row>
-    <row r="363" spans="4:9">
+    <row r="363" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D363" s="3">
         <f t="shared" si="36"/>
         <v>5.7109301710394592E-2</v>
@@ -28720,7 +28926,7 @@
         <v>2.0014131103740465E-2</v>
       </c>
     </row>
-    <row r="364" spans="4:9">
+    <row r="364" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D364" s="3">
         <f t="shared" si="36"/>
         <v>5.7267895380411576E-2</v>
@@ -28746,7 +28952,7 @@
         <v>2.0014091277321979E-2</v>
       </c>
     </row>
-    <row r="365" spans="4:9">
+    <row r="365" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D365" s="3">
         <f t="shared" si="36"/>
         <v>5.7426485761800788E-2</v>
@@ -28772,7 +28978,7 @@
         <v>2.0014051672230783E-2</v>
       </c>
     </row>
-    <row r="366" spans="4:9">
+    <row r="366" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D366" s="3">
         <f t="shared" si="36"/>
         <v>5.7585072868367261E-2</v>
@@ -28798,7 +29004,7 @@
         <v>2.0014012294774588E-2</v>
       </c>
     </row>
-    <row r="367" spans="4:9">
+    <row r="367" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D367" s="3">
         <f t="shared" si="36"/>
         <v>5.7743656713819688E-2</v>
@@ -28824,7 +29030,7 @@
         <v>2.0013973137230676E-2</v>
       </c>
     </row>
-    <row r="368" spans="4:9">
+    <row r="368" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D368" s="3">
         <f t="shared" si="36"/>
         <v>5.790223731177143E-2</v>
@@ -28850,7 +29056,7 @@
         <v>2.0013934195075422E-2</v>
       </c>
     </row>
-    <row r="369" spans="4:9">
+    <row r="369" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D369" s="3">
         <f t="shared" si="36"/>
         <v>5.8060814675741389E-2</v>
@@ -28876,7 +29082,7 @@
         <v>2.0013895469602534E-2</v>
       </c>
     </row>
-    <row r="370" spans="4:9">
+    <row r="370" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D370" s="3">
         <f t="shared" si="36"/>
         <v>5.8219388819154901E-2</v>
@@ -28902,7 +29108,7 @@
         <v>2.001385696222938E-2</v>
       </c>
     </row>
-    <row r="371" spans="4:9">
+    <row r="371" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D371" s="3">
         <f t="shared" si="36"/>
         <v>5.8377959755344676E-2</v>
@@ -28928,7 +29134,7 @@
         <v>2.0013818665890075E-2</v>
       </c>
     </row>
-    <row r="372" spans="4:9">
+    <row r="372" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D372" s="3">
         <f t="shared" si="36"/>
         <v>5.8536527497551755E-2</v>
@@ -28954,7 +29160,7 @@
         <v>2.0013780574259919E-2</v>
       </c>
     </row>
-    <row r="373" spans="4:9">
+    <row r="373" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D373" s="3">
         <f t="shared" si="36"/>
         <v>5.8695092058926222E-2</v>
@@ -28980,7 +29186,7 @@
         <v>2.0013742703877593E-2</v>
       </c>
     </row>
-    <row r="374" spans="4:9">
+    <row r="374" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D374" s="3">
         <f t="shared" si="36"/>
         <v>5.8853653452528229E-2</v>
@@ -29006,7 +29212,7 @@
         <v>2.0013705032425652E-2</v>
       </c>
     </row>
-    <row r="375" spans="4:9">
+    <row r="375" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D375" s="3">
         <f t="shared" si="36"/>
         <v>5.9012211691328788E-2</v>
@@ -29032,7 +29238,7 @@
         <v>2.0013667568049901E-2</v>
       </c>
     </row>
-    <row r="376" spans="4:9">
+    <row r="376" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D376" s="3">
         <f t="shared" si="36"/>
         <v>5.9170766788210628E-2</v>
@@ -29058,7 +29264,7 @@
         <v>2.00136303099815E-2</v>
       </c>
     </row>
-    <row r="377" spans="4:9">
+    <row r="377" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D377" s="3">
         <f t="shared" si="36"/>
         <v>5.9329318755969002E-2</v>
@@ -29084,7 +29290,7 @@
         <v>2.0013593259308814E-2</v>
       </c>
     </row>
-    <row r="378" spans="4:9">
+    <row r="378" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D378" s="3">
         <f t="shared" si="36"/>
         <v>5.9487867607312644E-2</v>
@@ -29110,7 +29316,7 @@
         <v>2.0013556395696613E-2</v>
       </c>
     </row>
-    <row r="379" spans="4:9">
+    <row r="379" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D379" s="3">
         <f t="shared" si="36"/>
         <v>5.9646413354864404E-2</v>
@@ -29136,7 +29342,7 @@
         <v>2.0013519745316927E-2</v>
       </c>
     </row>
-    <row r="380" spans="4:9">
+    <row r="380" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D380" s="3">
         <f t="shared" si="36"/>
         <v>5.9804956011162203E-2</v>
@@ -29162,7 +29368,7 @@
         <v>2.0013483284965414E-2</v>
       </c>
     </row>
-    <row r="381" spans="4:9">
+    <row r="381" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D381" s="3">
         <f t="shared" si="36"/>
         <v>5.9963495588659724E-2</v>
@@ -29188,7 +29394,7 @@
         <v>2.0013447024252236E-2</v>
       </c>
     </row>
-    <row r="382" spans="4:9">
+    <row r="382" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D382" s="3">
         <f t="shared" si="36"/>
         <v>6.0122032099727309E-2</v>
@@ -29214,7 +29420,7 @@
         <v>2.0013410956532234E-2</v>
       </c>
     </row>
-    <row r="383" spans="4:9">
+    <row r="383" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D383" s="3">
         <f t="shared" si="36"/>
         <v>6.0280565556652649E-2</v>
@@ -29240,7 +29446,7 @@
         <v>2.0013375081301243E-2</v>
       </c>
     </row>
-    <row r="384" spans="4:9">
+    <row r="384" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D384" s="3">
         <f t="shared" si="36"/>
         <v>6.0439095971641627E-2</v>
@@ -29266,7 +29472,7 @@
         <v>2.0013339396470004E-2</v>
       </c>
     </row>
-    <row r="385" spans="4:9">
+    <row r="385" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D385" s="3">
         <f t="shared" si="36"/>
         <v>6.0597623356818967E-2</v>
@@ -29292,7 +29498,7 @@
         <v>2.001330390806141E-2</v>
       </c>
     </row>
-    <row r="386" spans="4:9">
+    <row r="386" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D386" s="3">
         <f t="shared" si="36"/>
         <v>6.0756147724229138E-2</v>
@@ -29318,7 +29524,7 @@
         <v>2.0013268598821896E-2</v>
       </c>
     </row>
-    <row r="387" spans="4:9">
+    <row r="387" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D387" s="3">
         <f t="shared" si="36"/>
         <v>6.0914669085836995E-2</v>
@@ -29344,7 +29550,7 @@
         <v>2.0013233478922306E-2</v>
       </c>
     </row>
-    <row r="388" spans="4:9">
+    <row r="388" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D388" s="3">
         <f t="shared" si="36"/>
         <v>6.1073187453528494E-2</v>
@@ -29370,7 +29576,7 @@
         <v>2.0013198553280521E-2</v>
       </c>
     </row>
-    <row r="389" spans="4:9">
+    <row r="389" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D389" s="3">
         <f t="shared" si="36"/>
         <v>6.1231702839111508E-2</v>
@@ -29396,7 +29602,7 @@
         <v>2.0013163801341497E-2</v>
       </c>
     </row>
-    <row r="390" spans="4:9">
+    <row r="390" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D390" s="3">
         <f t="shared" si="36"/>
         <v>6.139021525431651E-2</v>
@@ -29422,7 +29628,7 @@
         <v>2.0013129232864156E-2</v>
       </c>
     </row>
-    <row r="391" spans="4:9">
+    <row r="391" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D391" s="3">
         <f t="shared" si="36"/>
         <v>6.1548724710797226E-2</v>
@@ -29448,7 +29654,7 @@
         <v>2.0013094850273888E-2</v>
       </c>
     </row>
-    <row r="392" spans="4:9">
+    <row r="392" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D392" s="3">
         <f t="shared" si="36"/>
         <v>6.17072312201314E-2</v>
@@ -29474,7 +29680,7 @@
         <v>2.0013060644804924E-2</v>
       </c>
     </row>
-    <row r="393" spans="4:9">
+    <row r="393" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D393" s="3">
         <f t="shared" ref="D393:D407" si="42">$D$2+$D$3*F393+$D$4*F393*F393/2</f>
         <v>6.1865734793821472E-2</v>
@@ -29500,7 +29706,7 @@
         <v>2.0013026615264828E-2</v>
       </c>
     </row>
-    <row r="394" spans="4:9">
+    <row r="394" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D394" s="3">
         <f t="shared" si="42"/>
         <v>6.2024235443295238E-2</v>
@@ -29526,7 +29732,7 @@
         <v>2.0012992767468436E-2</v>
       </c>
     </row>
-    <row r="395" spans="4:9">
+    <row r="395" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D395" s="3">
         <f t="shared" si="42"/>
         <v>6.2182733179906559E-2</v>
@@ -29552,7 +29758,7 @@
         <v>2.0012959090756996E-2</v>
       </c>
     </row>
-    <row r="396" spans="4:9">
+    <row r="396" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D396" s="3">
         <f t="shared" si="42"/>
         <v>6.2341228014935961E-2</v>
@@ -29578,7 +29784,7 @@
         <v>2.0012925593663411E-2</v>
       </c>
     </row>
-    <row r="397" spans="4:9">
+    <row r="397" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D397" s="3">
         <f t="shared" si="42"/>
         <v>6.249971995959145E-2</v>
@@ -29604,7 +29810,7 @@
         <v>2.0012892260483806E-2</v>
       </c>
     </row>
-    <row r="398" spans="4:9">
+    <row r="398" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D398" s="3">
         <f t="shared" si="42"/>
         <v>6.2658209025009001E-2</v>
@@ -29630,7 +29836,7 @@
         <v>2.0012859104043049E-2</v>
       </c>
     </row>
-    <row r="399" spans="4:9">
+    <row r="399" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D399" s="3">
         <f t="shared" si="42"/>
         <v>6.2816695222253208E-2</v>
@@ -29656,7 +29862,7 @@
         <v>2.0012826122081058E-2</v>
       </c>
     </row>
-    <row r="400" spans="4:9">
+    <row r="400" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D400" s="3">
         <f t="shared" si="42"/>
         <v>6.2975178562318074E-2</v>
@@ -29682,7 +29888,7 @@
         <v>2.0012793302326661E-2</v>
       </c>
     </row>
-    <row r="401" spans="4:9">
+    <row r="401" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D401" s="3">
         <f t="shared" si="42"/>
         <v>6.3133659056127528E-2</v>
@@ -29708,7 +29914,7 @@
         <v>2.0012760649599066E-2</v>
       </c>
     </row>
-    <row r="402" spans="4:9">
+    <row r="402" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D402" s="3">
         <f t="shared" si="42"/>
         <v>6.329213671453604E-2</v>
@@ -29734,7 +29940,7 @@
         <v>2.0012728166511146E-2</v>
       </c>
     </row>
-    <row r="403" spans="4:9">
+    <row r="403" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D403" s="3">
         <f t="shared" si="42"/>
         <v>6.3450611548329233E-2</v>
@@ -29760,7 +29966,7 @@
         <v>2.0012695850955775E-2</v>
       </c>
     </row>
-    <row r="404" spans="4:9">
+    <row r="404" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D404" s="3">
         <f t="shared" si="42"/>
         <v>6.3609083568224575E-2</v>
@@ -29786,7 +29992,7 @@
         <v>2.0012663695157595E-2</v>
       </c>
     </row>
-    <row r="405" spans="4:9">
+    <row r="405" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D405" s="3">
         <f t="shared" si="42"/>
         <v>6.3767552784871964E-2</v>
@@ -29812,7 +30018,7 @@
         <v>2.0012631695726681E-2</v>
       </c>
     </row>
-    <row r="406" spans="4:9">
+    <row r="406" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D406" s="3">
         <f t="shared" si="42"/>
         <v>6.3926019208854198E-2</v>
@@ -29838,7 +30044,7 @@
         <v>2.0012599872041164E-2</v>
       </c>
     </row>
-    <row r="407" spans="4:9">
+    <row r="407" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D407" s="3">
         <f t="shared" si="42"/>
         <v>6.4084482850687685E-2</v>
@@ -29872,19 +30078,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>500</v>
       </c>
@@ -29892,7 +30098,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -29900,7 +30106,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1500</v>
       </c>
@@ -29908,7 +30114,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2000</v>
       </c>
@@ -29916,7 +30122,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3500</v>
       </c>
@@ -29924,7 +30130,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5000</v>
       </c>
@@ -29932,7 +30138,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6000</v>
       </c>
@@ -29940,7 +30146,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>6500</v>
       </c>
@@ -29948,7 +30154,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>7000</v>
       </c>
@@ -29956,7 +30162,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>250</v>
       </c>
@@ -29964,7 +30170,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>500</v>
       </c>
@@ -29972,7 +30178,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>750</v>
       </c>
@@ -29980,7 +30186,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -29988,7 +30194,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1250</v>
       </c>
@@ -29996,7 +30202,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1500</v>
       </c>
@@ -30004,7 +30210,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1750</v>
       </c>
@@ -30012,7 +30218,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2000</v>
       </c>
@@ -30027,14 +30233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -30044,18 +30250,18 @@
     <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J1" s="40"/>
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40832.937512037039</v>
+        <v>40854.544553935186</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
       </c>
     </row>
-    <row r="2" spans="3:13">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D2" s="31"/>
       <c r="J2" s="43" t="s">
         <v>45</v>
@@ -30065,14 +30271,14 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40832.937512037039</v>
+        <v>40854.544553935186</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
         <v>36526.5</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J3" s="43" t="s">
         <v>46</v>
       </c>
@@ -30089,7 +30295,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J4" s="43" t="s">
         <v>47</v>
       </c>
@@ -30098,14 +30304,14 @@
       </c>
       <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J5" s="43" t="s">
         <v>48</v>
       </c>
@@ -30114,14 +30320,14 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J6" s="43" t="s">
         <v>49</v>
       </c>
@@ -30130,14 +30336,14 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J7" s="43" t="s">
         <v>50</v>
       </c>
@@ -30146,14 +30352,14 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J8" s="43" t="s">
         <v>51</v>
       </c>
@@ -30162,14 +30368,14 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J9" s="43" t="s">
         <v>52</v>
       </c>
@@ -30179,14 +30385,14 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455852</v>
+        <v>2455873</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="17.25">
+    <row r="10" spans="3:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -30213,14 +30419,14 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455852.437511574</v>
+        <v>2455873.0445486107</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="18.75" thickBot="1">
+    <row r="11" spans="3:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -30247,13 +30453,13 @@
         <v>2451545</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -30264,28 +30470,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="15.75">
+    <row r="20" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="8:8" ht="15.75">
+    <row r="21" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="8:8" ht="15.75">
+    <row r="22" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="8:8" ht="15.75">
+    <row r="23" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="8:8" ht="15.75">
+    <row r="24" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="8:8" ht="15.75">
+    <row r="25" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="8:8" ht="15.75">
+    <row r="26" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="8:8" ht="15.75">
+    <row r="27" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H27" s="33"/>
     </row>
   </sheetData>
@@ -30296,20 +30502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J312"/>
   <sheetViews>
     <sheetView topLeftCell="D265" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E275" sqref="E275:J284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -30323,7 +30529,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -30339,7 +30545,7 @@
         <v>1.8849555921538759E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -30353,7 +30559,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -30366,7 +30572,7 @@
         <v>628.31853071795865</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>60</v>
       </c>
@@ -30379,7 +30585,7 @@
         <v>9.6962736221907204E-4</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>62</v>
       </c>
@@ -30391,7 +30597,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>63</v>
       </c>
@@ -30403,7 +30609,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -30414,7 +30620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -30425,7 +30631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -30437,7 +30643,7 @@
         <v>157.07963267948966</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -30449,7 +30655,7 @@
         <v>125.66370614359172</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>68</v>
       </c>
@@ -30457,7 +30663,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -30473,7 +30679,7 @@
         <v>2.9977029137307184E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>76</v>
       </c>
@@ -30485,7 +30691,7 @@
         <v>5.995405827461437E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>74</v>
       </c>
@@ -30502,7 +30708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -30531,7 +30737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>2</v>
       </c>
@@ -30560,7 +30766,7 @@
         <v>100.14988424775395</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
@@ -30589,7 +30795,7 @@
         <v>100.29976310795108</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>4</v>
       </c>
@@ -30618,7 +30824,7 @@
         <v>100.44963119322823</v>
       </c>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>5</v>
       </c>
@@ -30647,7 +30853,7 @@
         <v>100.59948311660955</v>
       </c>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>6</v>
       </c>
@@ -30676,7 +30882,7 @@
         <v>100.74931349170011</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>7</v>
       </c>
@@ -30705,7 +30911,7 @@
         <v>100.89911693287952</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>8</v>
       </c>
@@ -30734,7 +30940,7 @@
         <v>101.04888805549558</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>9</v>
       </c>
@@ -30763,7 +30969,7 @@
         <v>101.19862147605771</v>
       </c>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>10</v>
       </c>
@@ -30792,7 +30998,7 @@
         <v>101.34831181243052</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>11</v>
       </c>
@@ -30821,7 +31027,7 @@
         <v>101.49795368402735</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>12</v>
       </c>
@@ -30850,7 +31056,7 @@
         <v>101.6475417120035</v>
       </c>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>13</v>
       </c>
@@ -30879,7 +31085,7 @@
         <v>101.79707051944973</v>
       </c>
     </row>
-    <row r="35" spans="4:10">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>14</v>
       </c>
@@ -30908,7 +31114,7 @@
         <v>101.94653473158544</v>
       </c>
     </row>
-    <row r="36" spans="4:10">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>15</v>
       </c>
@@ -30937,7 +31143,7 @@
         <v>102.09592897595191</v>
       </c>
     </row>
-    <row r="37" spans="4:10">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>16</v>
       </c>
@@ -30966,7 +31172,7 @@
         <v>102.24524788260538</v>
       </c>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>17</v>
       </c>
@@ -30995,7 +31201,7 @@
         <v>102.39448608431012</v>
       </c>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>18</v>
       </c>
@@ -31024,7 +31230,7 @@
         <v>102.54363821673128</v>
       </c>
     </row>
-    <row r="40" spans="4:10">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>19</v>
       </c>
@@ -31053,7 +31259,7 @@
         <v>102.69269891862778</v>
       </c>
     </row>
-    <row r="41" spans="4:10">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>20</v>
       </c>
@@ -31082,7 +31288,7 @@
         <v>102.84166283204497</v>
       </c>
     </row>
-    <row r="42" spans="4:10">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>21</v>
       </c>
@@ -31111,7 +31317,7 @@
         <v>102.99052460250726</v>
       </c>
     </row>
-    <row r="43" spans="4:10">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>22</v>
       </c>
@@ -31140,7 +31346,7 @@
         <v>103.13927887921058</v>
       </c>
     </row>
-    <row r="44" spans="4:10">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>23</v>
       </c>
@@ -31169,7 +31375,7 @@
         <v>103.28792031521463</v>
       </c>
     </row>
-    <row r="45" spans="4:10">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>24</v>
       </c>
@@ -31198,7 +31404,7 @@
         <v>103.43644356763525</v>
       </c>
     </row>
-    <row r="46" spans="4:10">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>25</v>
       </c>
@@ -31227,7 +31433,7 @@
         <v>103.58484329783627</v>
       </c>
     </row>
-    <row r="47" spans="4:10">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>26</v>
       </c>
@@ -31256,7 +31462,7 @@
         <v>103.73311417162155</v>
       </c>
     </row>
-    <row r="48" spans="4:10">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>27</v>
       </c>
@@ -31285,7 +31491,7 @@
         <v>103.88125085942664</v>
       </c>
     </row>
-    <row r="49" spans="4:10">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>28</v>
       </c>
@@ -31314,7 +31520,7 @@
         <v>104.02924803651041</v>
       </c>
     </row>
-    <row r="50" spans="4:10">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>29</v>
       </c>
@@ -31343,7 +31549,7 @@
         <v>104.17710038314637</v>
       </c>
     </row>
-    <row r="51" spans="4:10">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>30</v>
       </c>
@@ -31372,7 +31578,7 @@
         <v>104.32480258481395</v>
       </c>
     </row>
-    <row r="52" spans="4:10">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>31</v>
       </c>
@@ -31401,7 +31607,7 @@
         <v>104.47234933238953</v>
       </c>
     </row>
-    <row r="53" spans="4:10">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>32</v>
       </c>
@@ -31430,7 +31636,7 @@
         <v>104.61973532233721</v>
       </c>
     </row>
-    <row r="54" spans="4:10">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>33</v>
       </c>
@@ -31459,7 +31665,7 @@
         <v>104.76695525689952</v>
       </c>
     </row>
-    <row r="55" spans="4:10">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>34</v>
       </c>
@@ -31488,7 +31694,7 @@
         <v>104.91400384428781</v>
       </c>
     </row>
-    <row r="56" spans="4:10">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>35</v>
       </c>
@@ -31517,7 +31723,7 @@
         <v>105.06087579887244</v>
       </c>
     </row>
-    <row r="57" spans="4:10">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>36</v>
       </c>
@@ -31546,7 +31752,7 @@
         <v>105.20756584137284</v>
       </c>
     </row>
-    <row r="58" spans="4:10">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>37</v>
       </c>
@@ -31575,7 +31781,7 @@
         <v>105.3540686990472</v>
       </c>
     </row>
-    <row r="59" spans="4:10">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>38</v>
       </c>
@@ -31604,7 +31810,7 @@
         <v>105.50037910588206</v>
       </c>
     </row>
-    <row r="60" spans="4:10">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>39</v>
       </c>
@@ -31633,7 +31839,7 @@
         <v>105.64649180278151</v>
       </c>
     </row>
-    <row r="61" spans="4:10">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>40</v>
       </c>
@@ -31662,7 +31868,7 @@
         <v>105.79240153775635</v>
       </c>
     </row>
-    <row r="62" spans="4:10">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>41</v>
       </c>
@@ -31691,7 +31897,7 @@
         <v>105.93810306611272</v>
       </c>
     </row>
-    <row r="63" spans="4:10">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>42</v>
       </c>
@@ -31720,7 +31926,7 @@
         <v>106.08359115064079</v>
       </c>
     </row>
-    <row r="64" spans="4:10">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>43</v>
       </c>
@@ -31749,7 +31955,7 @@
         <v>106.22886056180283</v>
       </c>
     </row>
-    <row r="65" spans="4:10">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>44</v>
       </c>
@@ -31778,7 +31984,7 @@
         <v>106.37390607792139</v>
       </c>
     </row>
-    <row r="66" spans="4:10">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>45</v>
       </c>
@@ -31807,7 +32013,7 @@
         <v>106.51872248536677</v>
       </c>
     </row>
-    <row r="67" spans="4:10">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>46</v>
       </c>
@@ -31836,7 +32042,7 @@
         <v>106.66330457874457</v>
       </c>
     </row>
-    <row r="68" spans="4:10">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>47</v>
       </c>
@@ -31865,7 +32071,7 @@
         <v>106.8076471610828</v>
       </c>
     </row>
-    <row r="69" spans="4:10">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>48</v>
       </c>
@@ -31894,7 +32100,7 @@
         <v>106.95174504401858</v>
       </c>
     </row>
-    <row r="70" spans="4:10">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>49</v>
       </c>
@@ -31923,7 +32129,7 @@
         <v>107.09559304798474</v>
       </c>
     </row>
-    <row r="71" spans="4:10">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>50</v>
       </c>
@@ -31952,7 +32158,7 @@
         <v>107.23918600239594</v>
       </c>
     </row>
-    <row r="72" spans="4:10">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>51</v>
       </c>
@@ -31981,7 +32187,7 @@
         <v>107.38251874583452</v>
       </c>
     </row>
-    <row r="73" spans="4:10">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>52</v>
       </c>
@@ -32010,7 +32216,7 @@
         <v>107.52558612623609</v>
       </c>
     </row>
-    <row r="74" spans="4:10">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>53</v>
       </c>
@@ -32039,7 +32245,7 @@
         <v>107.66838300107464</v>
       </c>
     </row>
-    <row r="75" spans="4:10">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>54</v>
       </c>
@@ -32068,7 +32274,7 @@
         <v>107.81090423754745</v>
       </c>
     </row>
-    <row r="76" spans="4:10">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>55</v>
       </c>
@@ -32097,7 +32303,7 @@
         <v>107.95314471275955</v>
       </c>
     </row>
-    <row r="77" spans="4:10">
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>56</v>
       </c>
@@ -32126,7 +32332,7 @@
         <v>108.09509931390785</v>
       </c>
     </row>
-    <row r="78" spans="4:10">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>57</v>
       </c>
@@ -32155,7 +32361,7 @@
         <v>108.23676293846501</v>
       </c>
     </row>
-    <row r="79" spans="4:10">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>58</v>
       </c>
@@ -32184,7 +32390,7 @@
         <v>108.37813049436268</v>
       </c>
     </row>
-    <row r="80" spans="4:10">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>59</v>
       </c>
@@ -32213,7 +32419,7 @@
         <v>108.51919690017472</v>
       </c>
     </row>
-    <row r="81" spans="4:10">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>60</v>
       </c>
@@ -32242,7 +32448,7 @@
         <v>108.65995708529974</v>
       </c>
     </row>
-    <row r="82" spans="4:10">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>61</v>
       </c>
@@ -32271,7 +32477,7 @@
         <v>108.80040599014335</v>
       </c>
     </row>
-    <row r="83" spans="4:10">
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>62</v>
       </c>
@@ -32300,7 +32506,7 @@
         <v>108.94053856630012</v>
       </c>
     </row>
-    <row r="84" spans="4:10">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>63</v>
       </c>
@@ -32329,7 +32535,7 @@
         <v>109.08034977673493</v>
       </c>
     </row>
-    <row r="85" spans="4:10">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>64</v>
       </c>
@@ -32358,7 +32564,7 @@
         <v>109.21983459596413</v>
       </c>
     </row>
-    <row r="86" spans="4:10">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>65</v>
       </c>
@@ -32387,7 +32593,7 @@
         <v>109.3589880102361</v>
       </c>
     </row>
-    <row r="87" spans="4:10">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>66</v>
       </c>
@@ -32416,7 +32622,7 @@
         <v>109.49780501771153</v>
       </c>
     </row>
-    <row r="88" spans="4:10">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>67</v>
       </c>
@@ -32445,7 +32651,7 @@
         <v>109.63628062864312</v>
       </c>
     </row>
-    <row r="89" spans="4:10">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>68</v>
       </c>
@@ -32474,7 +32680,7 @@
         <v>109.77440986555506</v>
       </c>
     </row>
-    <row r="90" spans="4:10">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>69</v>
       </c>
@@ -32503,7 +32709,7 @@
         <v>109.91218776342185</v>
       </c>
     </row>
-    <row r="91" spans="4:10">
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>70</v>
       </c>
@@ -32532,7 +32738,7 @@
         <v>110.04960936984679</v>
       </c>
     </row>
-    <row r="92" spans="4:10">
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>71</v>
       </c>
@@ -32561,7 +32767,7 @@
         <v>110.18666974524002</v>
       </c>
     </row>
-    <row r="93" spans="4:10">
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>72</v>
       </c>
@@ -32590,7 +32796,7 @@
         <v>110.32336396299604</v>
       </c>
     </row>
-    <row r="94" spans="4:10">
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>73</v>
       </c>
@@ -32619,7 +32825,7 @@
         <v>110.45968710967078</v>
       </c>
     </row>
-    <row r="95" spans="4:10">
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>74</v>
       </c>
@@ -32648,7 +32854,7 @@
         <v>110.5956342851583</v>
       </c>
     </row>
-    <row r="96" spans="4:10">
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>75</v>
       </c>
@@ -32677,7 +32883,7 @@
         <v>110.73120060286679</v>
       </c>
     </row>
-    <row r="97" spans="4:10">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>76</v>
       </c>
@@ -32706,7 +32912,7 @@
         <v>110.86638118989435</v>
       </c>
     </row>
-    <row r="98" spans="4:10">
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>77</v>
       </c>
@@ -32735,7 +32941,7 @@
         <v>111.00117118720408</v>
       </c>
     </row>
-    <row r="99" spans="4:10">
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>78</v>
       </c>
@@ -32764,7 +32970,7 @@
         <v>111.13556574979869</v>
       </c>
     </row>
-    <row r="100" spans="4:10">
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>79</v>
       </c>
@@ -32793,7 +32999,7 @@
         <v>111.26956004689477</v>
       </c>
     </row>
-    <row r="101" spans="4:10">
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>80</v>
       </c>
@@ -32822,7 +33028,7 @@
         <v>111.40314926209632</v>
       </c>
     </row>
-    <row r="102" spans="4:10">
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>81</v>
       </c>
@@ -32851,7 +33057,7 @@
         <v>111.53632859356796</v>
       </c>
     </row>
-    <row r="103" spans="4:10">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>82</v>
       </c>
@@ -32880,7 +33086,7 @@
         <v>111.66909325420744</v>
       </c>
     </row>
-    <row r="104" spans="4:10">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>83</v>
       </c>
@@ -32909,7 +33115,7 @@
         <v>111.80143847181783</v>
       </c>
     </row>
-    <row r="105" spans="4:10">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>84</v>
       </c>
@@ -32938,7 +33144,7 @@
         <v>111.93335948927893</v>
       </c>
     </row>
-    <row r="106" spans="4:10">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>85</v>
       </c>
@@ -32967,7 +33173,7 @@
         <v>112.06485156471837</v>
       </c>
     </row>
-    <row r="107" spans="4:10">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>86</v>
       </c>
@@ -32996,7 +33202,7 @@
         <v>112.19590997168194</v>
       </c>
     </row>
-    <row r="108" spans="4:10">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>87</v>
       </c>
@@ -33025,7 +33231,7 @@
         <v>112.32652999930363</v>
       </c>
     </row>
-    <row r="109" spans="4:10">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>88</v>
       </c>
@@ -33054,7 +33260,7 @@
         <v>112.45670695247485</v>
       </c>
     </row>
-    <row r="110" spans="4:10">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>89</v>
       </c>
@@ -33083,7 +33289,7 @@
         <v>112.58643615201319</v>
       </c>
     </row>
-    <row r="111" spans="4:10">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>90</v>
       </c>
@@ -33112,7 +33318,7 @@
         <v>112.71571293483069</v>
       </c>
     </row>
-    <row r="112" spans="4:10">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>91</v>
       </c>
@@ -33141,7 +33347,7 @@
         <v>112.8445326541014</v>
       </c>
     </row>
-    <row r="113" spans="4:10">
+    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>92</v>
       </c>
@@ -33170,7 +33376,7 @@
         <v>112.97289067942842</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
+    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>93</v>
       </c>
@@ -33199,7 +33405,7 @@
         <v>113.10078239701032</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
+    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>94</v>
       </c>
@@ -33228,7 +33434,7 @@
         <v>113.22820320980703</v>
       </c>
     </row>
-    <row r="116" spans="4:10">
+    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>95</v>
       </c>
@@ -33257,7 +33463,7 @@
         <v>113.35514853770503</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
+    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>96</v>
       </c>
@@ -33286,7 +33492,7 @@
         <v>113.48161381768203</v>
       </c>
     </row>
-    <row r="118" spans="4:10">
+    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>97</v>
       </c>
@@ -33315,7 +33521,7 @@
         <v>113.60759450397092</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>98</v>
       </c>
@@ -33344,7 +33550,7 @@
         <v>113.73308606822322</v>
       </c>
     </row>
-    <row r="120" spans="4:10">
+    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>99</v>
       </c>
@@ -33373,7 +33579,7 @@
         <v>113.85808399967185</v>
       </c>
     </row>
-    <row r="121" spans="4:10">
+    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>100</v>
       </c>
@@ -33402,7 +33608,7 @@
         <v>113.98258380529323</v>
       </c>
     </row>
-    <row r="122" spans="4:10">
+    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>101</v>
       </c>
@@ -33431,7 +33637,7 @@
         <v>114.10658100996882</v>
       </c>
     </row>
-    <row r="123" spans="4:10">
+    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>102</v>
       </c>
@@ -33460,7 +33666,7 @@
         <v>114.23007115664598</v>
       </c>
     </row>
-    <row r="124" spans="4:10">
+    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>103</v>
       </c>
@@ -33489,7 +33695,7 @@
         <v>114.35304980649812</v>
       </c>
     </row>
-    <row r="125" spans="4:10">
+    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>104</v>
       </c>
@@ -33518,7 +33724,7 @@
         <v>114.47551253908431</v>
       </c>
     </row>
-    <row r="126" spans="4:10">
+    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>105</v>
       </c>
@@ -33547,7 +33753,7 @@
         <v>114.59745495250817</v>
       </c>
     </row>
-    <row r="127" spans="4:10">
+    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>106</v>
       </c>
@@ -33576,7 +33782,7 @@
         <v>114.71887266357606</v>
       </c>
     </row>
-    <row r="128" spans="4:10">
+    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>107</v>
       </c>
@@ -33605,7 +33811,7 @@
         <v>114.83976130795466</v>
       </c>
     </row>
-    <row r="129" spans="4:10">
+    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>108</v>
       </c>
@@ -33634,7 +33840,7 @@
         <v>114.96011654032782</v>
       </c>
     </row>
-    <row r="130" spans="4:10">
+    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>109</v>
       </c>
@@ -33663,7 +33869,7 @@
         <v>115.07993403455282</v>
       </c>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>110</v>
       </c>
@@ -33692,7 +33898,7 @@
         <v>115.19920948381576</v>
       </c>
     </row>
-    <row r="132" spans="4:10">
+    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>111</v>
       </c>
@@ -33721,7 +33927,7 @@
         <v>115.31793860078646</v>
       </c>
     </row>
-    <row r="133" spans="4:10">
+    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>112</v>
       </c>
@@ -33750,7 +33956,7 @@
         <v>115.43611711777254</v>
       </c>
     </row>
-    <row r="134" spans="4:10">
+    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>113</v>
       </c>
@@ -33779,7 +33985,7 @@
         <v>115.55374078687279</v>
       </c>
     </row>
-    <row r="135" spans="4:10">
+    <row r="135" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>114</v>
       </c>
@@ -33808,7 +34014,7 @@
         <v>115.67080538012993</v>
       </c>
     </row>
-    <row r="136" spans="4:10">
+    <row r="136" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>115</v>
       </c>
@@ -33837,7 +34043,7 @@
         <v>115.7873066896825</v>
       </c>
     </row>
-    <row r="137" spans="4:10">
+    <row r="137" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>116</v>
       </c>
@@ -33866,7 +34072,7 @@
         <v>115.90324052791617</v>
       </c>
     </row>
-    <row r="138" spans="4:10">
+    <row r="138" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>117</v>
       </c>
@@ -33895,7 +34101,7 @@
         <v>116.01860272761422</v>
       </c>
     </row>
-    <row r="139" spans="4:10">
+    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>118</v>
       </c>
@@ -33924,7 +34130,7 @@
         <v>116.13338914210742</v>
       </c>
     </row>
-    <row r="140" spans="4:10">
+    <row r="140" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>119</v>
       </c>
@@ -33953,7 +34159,7 @@
         <v>116.24759564542293</v>
       </c>
     </row>
-    <row r="141" spans="4:10">
+    <row r="141" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>120</v>
       </c>
@@ -33982,7 +34188,7 @@
         <v>116.36121813243273</v>
       </c>
     </row>
-    <row r="142" spans="4:10">
+    <row r="142" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>121</v>
       </c>
@@ -34011,7 +34217,7 @@
         <v>116.47425251900115</v>
       </c>
     </row>
-    <row r="143" spans="4:10">
+    <row r="143" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>122</v>
       </c>
@@ -34040,7 +34246,7 @@
         <v>116.58669474213167</v>
       </c>
     </row>
-    <row r="144" spans="4:10">
+    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>123</v>
       </c>
@@ -34069,7 +34275,7 @@
         <v>116.69854076011289</v>
       </c>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>124</v>
       </c>
@@ -34098,7 +34304,7 @@
         <v>116.80978655266397</v>
       </c>
     </row>
-    <row r="146" spans="4:10">
+    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>125</v>
       </c>
@@ -34127,7 +34333,7 @@
         <v>116.92042812107897</v>
       </c>
     </row>
-    <row r="147" spans="4:10">
+    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>126</v>
       </c>
@@ -34156,7 +34362,7 @@
         <v>117.03046148837069</v>
       </c>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>127</v>
       </c>
@@ -34185,7 +34391,7 @@
         <v>117.13988269941358</v>
       </c>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>128</v>
       </c>
@@ -34214,7 +34420,7 @@
         <v>117.24868782108591</v>
       </c>
     </row>
-    <row r="150" spans="4:10">
+    <row r="150" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>129</v>
       </c>
@@ -34243,7 +34449,7 @@
         <v>117.35687294241116</v>
       </c>
     </row>
-    <row r="151" spans="4:10">
+    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>130</v>
       </c>
@@ -34272,7 +34478,7 @@
         <v>117.46443417469857</v>
       </c>
     </row>
-    <row r="152" spans="4:10">
+    <row r="152" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>131</v>
       </c>
@@ -34301,7 +34507,7 @@
         <v>117.57136765168296</v>
       </c>
     </row>
-    <row r="153" spans="4:10">
+    <row r="153" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>132</v>
       </c>
@@ -34330,7 +34536,7 @@
         <v>117.67766952966365</v>
       </c>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>133</v>
       </c>
@@ -34359,7 +34565,7 @@
         <v>117.78333598764267</v>
       </c>
     </row>
-    <row r="155" spans="4:10">
+    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>134</v>
       </c>
@@ -34388,7 +34594,7 @@
         <v>117.88836322746209</v>
       </c>
     </row>
-    <row r="156" spans="4:10">
+    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>135</v>
       </c>
@@ -34417,7 +34623,7 @@
         <v>117.99274747394051</v>
       </c>
     </row>
-    <row r="157" spans="4:10">
+    <row r="157" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>136</v>
       </c>
@@ -34446,7 +34652,7 @@
         <v>118.09648497500882</v>
       </c>
     </row>
-    <row r="158" spans="4:10">
+    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>137</v>
       </c>
@@ -34475,7 +34681,7 @@
         <v>118.199572001845</v>
       </c>
     </row>
-    <row r="159" spans="4:10">
+    <row r="159" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>138</v>
       </c>
@@ -34504,7 +34710,7 @@
         <v>118.30200484900821</v>
       </c>
     </row>
-    <row r="160" spans="4:10">
+    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>139</v>
       </c>
@@ -34533,7 +34739,7 @@
         <v>118.40377983457195</v>
       </c>
     </row>
-    <row r="161" spans="4:10">
+    <row r="161" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>140</v>
       </c>
@@ -34562,7 +34768,7 @@
         <v>118.50489330025641</v>
       </c>
     </row>
-    <row r="162" spans="4:10">
+    <row r="162" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>141</v>
       </c>
@@ -34591,7 +34797,7 @@
         <v>118.60534161155999</v>
       </c>
     </row>
-    <row r="163" spans="4:10">
+    <row r="163" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>142</v>
       </c>
@@ -34620,7 +34826,7 @@
         <v>118.70512115788986</v>
       </c>
     </row>
-    <row r="164" spans="4:10">
+    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>143</v>
       </c>
@@ -34649,7 +34855,7 @@
         <v>118.80422835269188</v>
       </c>
     </row>
-    <row r="165" spans="4:10">
+    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>144</v>
       </c>
@@ -34678,7 +34884,7 @@
         <v>118.90265963357939</v>
       </c>
     </row>
-    <row r="166" spans="4:10">
+    <row r="166" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>145</v>
       </c>
@@ -34707,7 +34913,7 @@
         <v>119.00041146246132</v>
       </c>
     </row>
-    <row r="167" spans="4:10">
+    <row r="167" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>146</v>
       </c>
@@ -34736,7 +34942,7 @@
         <v>119.09748032566935</v>
       </c>
     </row>
-    <row r="168" spans="4:10">
+    <row r="168" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>147</v>
       </c>
@@ -34765,7 +34971,7 @@
         <v>119.19386273408423</v>
       </c>
     </row>
-    <row r="169" spans="4:10">
+    <row r="169" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>148</v>
       </c>
@@ -34794,7 +35000,7 @@
         <v>119.28955522326116</v>
       </c>
     </row>
-    <row r="170" spans="4:10">
+    <row r="170" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>149</v>
       </c>
@@ -34823,7 +35029,7 @@
         <v>119.38455435355436</v>
       </c>
     </row>
-    <row r="171" spans="4:10">
+    <row r="171" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>150</v>
       </c>
@@ -34852,7 +35058,7 @@
         <v>119.47885671024068</v>
       </c>
     </row>
-    <row r="172" spans="4:10">
+    <row r="172" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>151</v>
       </c>
@@ -34881,7 +35087,7 @@
         <v>119.57245890364231</v>
       </c>
     </row>
-    <row r="173" spans="4:10">
+    <row r="173" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>152</v>
       </c>
@@ -34910,7 +35116,7 @@
         <v>119.6653575692487</v>
       </c>
     </row>
-    <row r="174" spans="4:10">
+    <row r="174" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>153</v>
       </c>
@@ -34939,7 +35145,7 @@
         <v>119.75754936783744</v>
       </c>
     </row>
-    <row r="175" spans="4:10">
+    <row r="175" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>154</v>
       </c>
@@ -34968,7 +35174,7 @@
         <v>119.8490309855943</v>
       </c>
     </row>
-    <row r="176" spans="4:10">
+    <row r="176" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>155</v>
       </c>
@@ -34997,7 +35203,7 @@
         <v>119.93979913423235</v>
       </c>
     </row>
-    <row r="177" spans="4:10">
+    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>156</v>
       </c>
@@ -35026,7 +35232,7 @@
         <v>120.02985055111014</v>
       </c>
     </row>
-    <row r="178" spans="4:10">
+    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>157</v>
       </c>
@@ -35055,7 +35261,7 @@
         <v>120.11918199934901</v>
       </c>
     </row>
-    <row r="179" spans="4:10">
+    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>158</v>
       </c>
@@ -35084,7 +35290,7 @@
         <v>120.20779026794941</v>
       </c>
     </row>
-    <row r="180" spans="4:10">
+    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>159</v>
       </c>
@@ -35113,7 +35319,7 @@
         <v>120.29567217190632</v>
       </c>
     </row>
-    <row r="181" spans="4:10">
+    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>160</v>
       </c>
@@ -35142,7 +35348,7 @@
         <v>120.38282455232371</v>
       </c>
     </row>
-    <row r="182" spans="4:10">
+    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>161</v>
       </c>
@@ -35171,7 +35377,7 @@
         <v>120.46924427652819</v>
       </c>
     </row>
-    <row r="183" spans="4:10">
+    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>162</v>
       </c>
@@ -35200,7 +35406,7 @@
         <v>120.55492823818146</v>
       </c>
     </row>
-    <row r="184" spans="4:10">
+    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>163</v>
       </c>
@@ -35229,7 +35435,7 @@
         <v>120.6398733573921</v>
       </c>
     </row>
-    <row r="185" spans="4:10">
+    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>164</v>
       </c>
@@ -35258,7 +35464,7 @@
         <v>120.72407658082621</v>
       </c>
     </row>
-    <row r="186" spans="4:10">
+    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>165</v>
       </c>
@@ -35287,7 +35493,7 @@
         <v>120.80753488181713</v>
       </c>
     </row>
-    <row r="187" spans="4:10">
+    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>166</v>
       </c>
@@ -35316,7 +35522,7 @@
         <v>120.89024526047434</v>
       </c>
     </row>
-    <row r="188" spans="4:10">
+    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>167</v>
       </c>
@@ -35345,7 +35551,7 @@
         <v>120.9722047437912</v>
       </c>
     </row>
-    <row r="189" spans="4:10">
+    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>168</v>
       </c>
@@ -35374,7 +35580,7 @@
         <v>121.05341038575182</v>
       </c>
     </row>
-    <row r="190" spans="4:10">
+    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>169</v>
       </c>
@@ -35403,7 +35609,7 @@
         <v>121.133859267437</v>
       </c>
     </row>
-    <row r="191" spans="4:10">
+    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>170</v>
       </c>
@@ -35432,7 +35638,7 @@
         <v>121.21354849712911</v>
       </c>
     </row>
-    <row r="192" spans="4:10">
+    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>171</v>
       </c>
@@ -35461,7 +35667,7 @@
         <v>121.29247521041606</v>
       </c>
     </row>
-    <row r="193" spans="4:10">
+    <row r="193" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D193">
         <v>172</v>
       </c>
@@ -35490,7 +35696,7 @@
         <v>121.37063657029424</v>
       </c>
     </row>
-    <row r="194" spans="4:10">
+    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D194">
         <v>173</v>
       </c>
@@ -35519,7 +35725,7 @@
         <v>121.44802976727048</v>
       </c>
     </row>
-    <row r="195" spans="4:10">
+    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D195">
         <v>174</v>
       </c>
@@ -35548,7 +35754,7 @@
         <v>121.5246520194631</v>
       </c>
     </row>
-    <row r="196" spans="4:10">
+    <row r="196" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D196">
         <v>175</v>
       </c>
@@ -35577,7 +35783,7 @@
         <v>121.60050057270186</v>
       </c>
     </row>
-    <row r="197" spans="4:10">
+    <row r="197" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>176</v>
       </c>
@@ -35606,7 +35812,7 @@
         <v>121.67557270062692</v>
       </c>
     </row>
-    <row r="198" spans="4:10">
+    <row r="198" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>177</v>
       </c>
@@ -35635,7 +35841,7 @@
         <v>121.7498657047869</v>
       </c>
     </row>
-    <row r="199" spans="4:10">
+    <row r="199" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>178</v>
       </c>
@@ -35664,7 +35870,7 @@
         <v>121.82337691473587</v>
       </c>
     </row>
-    <row r="200" spans="4:10">
+    <row r="200" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>179</v>
       </c>
@@ -35693,7 +35899,7 @@
         <v>121.89610368812933</v>
       </c>
     </row>
-    <row r="201" spans="4:10">
+    <row r="201" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>180</v>
       </c>
@@ -35722,7 +35928,7 @@
         <v>121.96804341081915</v>
       </c>
     </row>
-    <row r="202" spans="4:10">
+    <row r="202" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D202">
         <v>181</v>
       </c>
@@ -35751,7 +35957,7 @@
         <v>122.03919349694756</v>
       </c>
     </row>
-    <row r="203" spans="4:10">
+    <row r="203" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D203">
         <v>182</v>
       </c>
@@ -35780,7 +35986,7 @@
         <v>122.10955138904018</v>
       </c>
     </row>
-    <row r="204" spans="4:10">
+    <row r="204" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D204">
         <v>183</v>
       </c>
@@ -35809,7 +36015,7 @@
         <v>122.17911455809777</v>
       </c>
     </row>
-    <row r="205" spans="4:10">
+    <row r="205" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D205">
         <v>184</v>
       </c>
@@ -35838,7 +36044,7 @@
         <v>122.24788050368731</v>
       </c>
     </row>
-    <row r="206" spans="4:10">
+    <row r="206" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D206">
         <v>185</v>
       </c>
@@ -35867,7 +36073,7 @@
         <v>122.31584675403178</v>
       </c>
     </row>
-    <row r="207" spans="4:10">
+    <row r="207" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D207">
         <v>186</v>
       </c>
@@ -35896,7 +36102,7 @@
         <v>122.38301086609906</v>
       </c>
     </row>
-    <row r="208" spans="4:10">
+    <row r="208" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D208">
         <v>187</v>
       </c>
@@ -35925,7 +36131,7 @@
         <v>122.44937042568964</v>
       </c>
     </row>
-    <row r="209" spans="4:10">
+    <row r="209" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>188</v>
       </c>
@@ -35954,7 +36160,7 @@
         <v>122.51492304752357</v>
       </c>
     </row>
-    <row r="210" spans="4:10">
+    <row r="210" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D210">
         <v>189</v>
       </c>
@@ -35983,7 +36189,7 @@
         <v>122.57966637532604</v>
       </c>
     </row>
-    <row r="211" spans="4:10">
+    <row r="211" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D211">
         <v>190</v>
       </c>
@@ -36012,7 +36218,7 @@
         <v>122.64359808191216</v>
       </c>
     </row>
-    <row r="212" spans="4:10">
+    <row r="212" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>191</v>
       </c>
@@ -36041,7 +36247,7 @@
         <v>122.70671586927058</v>
       </c>
     </row>
-    <row r="213" spans="4:10">
+    <row r="213" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D213">
         <v>192</v>
       </c>
@@ -36070,7 +36276,7 @@
         <v>122.76901746864613</v>
       </c>
     </row>
-    <row r="214" spans="4:10">
+    <row r="214" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D214">
         <v>193</v>
       </c>
@@ -36099,7 +36305,7 @@
         <v>122.8305006406213</v>
       </c>
     </row>
-    <row r="215" spans="4:10">
+    <row r="215" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D215">
         <v>194</v>
       </c>
@@ -36128,7 +36334,7 @@
         <v>122.89116317519678</v>
       </c>
     </row>
-    <row r="216" spans="4:10">
+    <row r="216" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D216">
         <v>195</v>
       </c>
@@ -36157,7 +36363,7 @@
         <v>122.95100289187093</v>
       </c>
     </row>
-    <row r="217" spans="4:10">
+    <row r="217" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D217">
         <v>196</v>
       </c>
@@ -36186,7 +36392,7 @@
         <v>123.01001763971809</v>
       </c>
     </row>
-    <row r="218" spans="4:10">
+    <row r="218" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D218">
         <v>197</v>
       </c>
@@ -36215,7 +36421,7 @@
         <v>123.06820529746592</v>
       </c>
     </row>
-    <row r="219" spans="4:10">
+    <row r="219" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D219">
         <v>198</v>
       </c>
@@ -36244,7 +36450,7 @@
         <v>123.1255637735717</v>
       </c>
     </row>
-    <row r="220" spans="4:10">
+    <row r="220" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D220">
         <v>199</v>
       </c>
@@ -36273,7 +36479,7 @@
         <v>123.1820910062974</v>
       </c>
     </row>
-    <row r="221" spans="4:10">
+    <row r="221" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D221">
         <v>200</v>
       </c>
@@ -36302,7 +36508,7 @@
         <v>123.23778496378389</v>
       </c>
     </row>
-    <row r="222" spans="4:10">
+    <row r="222" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D222">
         <v>201</v>
       </c>
@@ -36331,7 +36537,7 @@
         <v>123.29264364412394</v>
       </c>
     </row>
-    <row r="223" spans="4:10">
+    <row r="223" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>202</v>
       </c>
@@ -36360,7 +36566,7 @@
         <v>123.34666507543417</v>
       </c>
     </row>
-    <row r="224" spans="4:10">
+    <row r="224" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>203</v>
       </c>
@@ -36389,7 +36595,7 @@
         <v>123.39984731592594</v>
       </c>
     </row>
-    <row r="225" spans="4:10">
+    <row r="225" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>204</v>
       </c>
@@ -36418,7 +36624,7 @@
         <v>123.45218845397514</v>
       </c>
     </row>
-    <row r="226" spans="4:10">
+    <row r="226" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>205</v>
       </c>
@@ -36447,7 +36653,7 @@
         <v>123.50368660819088</v>
       </c>
     </row>
-    <row r="227" spans="4:10">
+    <row r="227" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>206</v>
       </c>
@@ -36476,7 +36682,7 @@
         <v>123.55433992748317</v>
       </c>
     </row>
-    <row r="228" spans="4:10">
+    <row r="228" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>207</v>
       </c>
@@ -36505,7 +36711,7 @@
         <v>123.60414659112944</v>
       </c>
     </row>
-    <row r="229" spans="4:10">
+    <row r="229" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>208</v>
       </c>
@@ -36534,7 +36740,7 @@
         <v>123.65310480883993</v>
       </c>
     </row>
-    <row r="230" spans="4:10">
+    <row r="230" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>209</v>
       </c>
@@ -36563,7 +36769,7 @@
         <v>123.70121282082212</v>
       </c>
     </row>
-    <row r="231" spans="4:10">
+    <row r="231" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>210</v>
       </c>
@@ -36592,7 +36798,7 @@
         <v>123.74846889784394</v>
       </c>
     </row>
-    <row r="232" spans="4:10">
+    <row r="232" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D232">
         <v>211</v>
       </c>
@@ -36621,7 +36827,7 @@
         <v>123.79487134129596</v>
       </c>
     </row>
-    <row r="233" spans="4:10">
+    <row r="233" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D233">
         <v>212</v>
       </c>
@@ -36650,7 +36856,7 @@
         <v>123.84041848325236</v>
       </c>
     </row>
-    <row r="234" spans="4:10">
+    <row r="234" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D234">
         <v>213</v>
       </c>
@@ -36679,7 +36885,7 @@
         <v>123.88510868653103</v>
       </c>
     </row>
-    <row r="235" spans="4:10">
+    <row r="235" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D235">
         <v>214</v>
       </c>
@@ -36708,7 +36914,7 @@
         <v>123.92894034475226</v>
       </c>
     </row>
-    <row r="236" spans="4:10">
+    <row r="236" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D236">
         <v>215</v>
       </c>
@@ -36737,7 +36943,7 @@
         <v>123.97191188239663</v>
       </c>
     </row>
-    <row r="237" spans="4:10">
+    <row r="237" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D237">
         <v>216</v>
       </c>
@@ -36766,7 +36972,7 @@
         <v>124.01402175486149</v>
       </c>
     </row>
-    <row r="238" spans="4:10">
+    <row r="238" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D238">
         <v>217</v>
       </c>
@@ -36795,7 +37001,7 @@
         <v>124.05526844851661</v>
       </c>
     </row>
-    <row r="239" spans="4:10">
+    <row r="239" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D239">
         <v>218</v>
       </c>
@@ -36824,7 +37030,7 @@
         <v>124.09565048075855</v>
       </c>
     </row>
-    <row r="240" spans="4:10">
+    <row r="240" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D240">
         <v>219</v>
       </c>
@@ -36853,7 +37059,7 @@
         <v>124.13516640006387</v>
       </c>
     </row>
-    <row r="241" spans="4:10">
+    <row r="241" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D241">
         <v>220</v>
       </c>
@@ -36882,7 +37088,7 @@
         <v>124.17381478604142</v>
       </c>
     </row>
-    <row r="242" spans="4:10">
+    <row r="242" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D242">
         <v>221</v>
       </c>
@@ -36911,7 +37117,7 @@
         <v>124.21159424948335</v>
       </c>
     </row>
-    <row r="243" spans="4:10">
+    <row r="243" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D243">
         <v>222</v>
       </c>
@@ -36940,7 +37146,7 @@
         <v>124.24850343241502</v>
       </c>
     </row>
-    <row r="244" spans="4:10">
+    <row r="244" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D244">
         <v>223</v>
       </c>
@@ -36969,7 +37175,7 @@
         <v>124.28454100814386</v>
       </c>
     </row>
-    <row r="245" spans="4:10">
+    <row r="245" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D245">
         <v>224</v>
       </c>
@@ -36998,7 +37204,7 @@
         <v>124.319705681307</v>
       </c>
     </row>
-    <row r="246" spans="4:10">
+    <row r="246" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D246">
         <v>225</v>
       </c>
@@ -37027,7 +37233,7 @@
         <v>124.35399618791789</v>
       </c>
     </row>
-    <row r="247" spans="4:10">
+    <row r="247" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D247">
         <v>226</v>
       </c>
@@ -37056,7 +37262,7 @@
         <v>124.38741129541171</v>
       </c>
     </row>
-    <row r="248" spans="4:10">
+    <row r="248" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D248">
         <v>227</v>
       </c>
@@ -37085,7 +37291,7 @@
         <v>124.41994980268963</v>
       </c>
     </row>
-    <row r="249" spans="4:10">
+    <row r="249" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D249">
         <v>228</v>
       </c>
@@ -37114,7 +37320,7 @@
         <v>124.45161054016208</v>
       </c>
     </row>
-    <row r="250" spans="4:10">
+    <row r="250" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D250">
         <v>229</v>
       </c>
@@ -37143,7 +37349,7 @@
         <v>124.48239236979069</v>
       </c>
     </row>
-    <row r="251" spans="4:10">
+    <row r="251" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D251">
         <v>230</v>
       </c>
@@ -37172,7 +37378,7 @@
         <v>124.51229418512929</v>
       </c>
     </row>
-    <row r="252" spans="4:10">
+    <row r="252" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D252">
         <v>231</v>
       </c>
@@ -37201,7 +37407,7 @@
         <v>124.54131491136357</v>
       </c>
     </row>
-    <row r="253" spans="4:10">
+    <row r="253" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D253">
         <v>232</v>
       </c>
@@ -37230,7 +37436,7 @@
         <v>124.56945350534986</v>
       </c>
     </row>
-    <row r="254" spans="4:10">
+    <row r="254" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D254">
         <v>233</v>
       </c>
@@ -37259,7 +37465,7 @@
         <v>124.59670895565245</v>
       </c>
     </row>
-    <row r="255" spans="4:10">
+    <row r="255" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D255">
         <v>234</v>
       </c>
@@ -37288,7 +37494,7 @@
         <v>124.6230802825801</v>
       </c>
     </row>
-    <row r="256" spans="4:10">
+    <row r="256" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D256">
         <v>235</v>
       </c>
@@ -37317,7 +37523,7 @@
         <v>124.64856653822119</v>
       </c>
     </row>
-    <row r="257" spans="4:10">
+    <row r="257" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D257">
         <v>236</v>
       </c>
@@ -37346,7 +37552,7 @@
         <v>124.67316680647775</v>
       </c>
     </row>
-    <row r="258" spans="4:10">
+    <row r="258" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D258">
         <v>237</v>
       </c>
@@ -37375,7 +37581,7 @@
         <v>124.6968802030985</v>
       </c>
     </row>
-    <row r="259" spans="4:10">
+    <row r="259" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D259">
         <v>238</v>
       </c>
@@ -37404,7 +37610,7 @@
         <v>124.71970587571052</v>
       </c>
     </row>
-    <row r="260" spans="4:10">
+    <row r="260" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D260">
         <v>239</v>
       </c>
@@ -37433,7 +37639,7 @@
         <v>124.74164300384994</v>
       </c>
     </row>
-    <row r="261" spans="4:10">
+    <row r="261" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D261">
         <v>240</v>
       </c>
@@ -37462,7 +37668,7 @@
         <v>124.76269079899147</v>
       </c>
     </row>
-    <row r="262" spans="4:10">
+    <row r="262" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D262">
         <v>241</v>
       </c>
@@ -37491,7 +37697,7 @@
         <v>124.78284850457666</v>
       </c>
     </row>
-    <row r="263" spans="4:10">
+    <row r="263" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D263">
         <v>242</v>
       </c>
@@ -37520,7 +37726,7 @@
         <v>124.80211539604115</v>
       </c>
     </row>
-    <row r="264" spans="4:10">
+    <row r="264" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D264">
         <v>243</v>
       </c>
@@ -37549,7 +37755,7 @@
         <v>124.82049078084069</v>
       </c>
     </row>
-    <row r="265" spans="4:10">
+    <row r="265" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D265">
         <v>244</v>
       </c>
@@ -37578,7 +37784,7 @@
         <v>124.83797399847606</v>
       </c>
     </row>
-    <row r="266" spans="4:10">
+    <row r="266" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D266">
         <v>245</v>
       </c>
@@ -37607,7 +37813,7 @@
         <v>124.85456442051679</v>
       </c>
     </row>
-    <row r="267" spans="4:10">
+    <row r="267" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D267">
         <v>246</v>
       </c>
@@ -37636,7 +37842,7 @@
         <v>124.87026145062377</v>
       </c>
     </row>
-    <row r="268" spans="4:10">
+    <row r="268" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D268">
         <v>247</v>
       </c>
@@ -37665,7 +37871,7 @@
         <v>124.88506452457064</v>
       </c>
     </row>
-    <row r="269" spans="4:10">
+    <row r="269" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D269">
         <v>248</v>
       </c>
@@ -37694,7 +37900,7 @@
         <v>124.89897311026411</v>
       </c>
     </row>
-    <row r="270" spans="4:10">
+    <row r="270" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D270">
         <v>249</v>
       </c>
@@ -37723,7 +37929,7 @@
         <v>124.91198670776308</v>
       </c>
     </row>
-    <row r="271" spans="4:10">
+    <row r="271" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D271">
         <v>250</v>
       </c>
@@ -37752,7 +37958,7 @@
         <v>124.92410484929661</v>
       </c>
     </row>
-    <row r="272" spans="4:10">
+    <row r="272" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D272">
         <v>251</v>
       </c>
@@ -37781,7 +37987,7 @@
         <v>124.93532709928073</v>
       </c>
     </row>
-    <row r="273" spans="4:10">
+    <row r="273" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>252</v>
       </c>
@@ -37810,7 +38016,7 @@
         <v>124.94565305433409</v>
       </c>
     </row>
-    <row r="274" spans="4:10">
+    <row r="274" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D274">
         <v>253</v>
       </c>
@@ -37839,7 +38045,7 @@
         <v>124.95508234329249</v>
       </c>
     </row>
-    <row r="275" spans="4:10">
+    <row r="275" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D275">
         <v>254</v>
       </c>
@@ -37868,7 +38074,7 @@
         <v>124.96361462722214</v>
       </c>
     </row>
-    <row r="276" spans="4:10">
+    <row r="276" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D276">
         <v>255</v>
       </c>
@@ -37897,7 +38103,7 @@
         <v>124.971249599432</v>
       </c>
     </row>
-    <row r="277" spans="4:10">
+    <row r="277" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D277">
         <v>256</v>
       </c>
@@ -37926,7 +38132,7 @@
         <v>124.97798698548461</v>
       </c>
     </row>
-    <row r="278" spans="4:10">
+    <row r="278" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D278">
         <v>257</v>
       </c>
@@ -37955,7 +38161,7 @@
         <v>124.98382654320608</v>
       </c>
     </row>
-    <row r="279" spans="4:10">
+    <row r="279" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D279">
         <v>258</v>
       </c>
@@ -37984,7 +38190,7 @@
         <v>124.9887680626948</v>
       </c>
     </row>
-    <row r="280" spans="4:10">
+    <row r="280" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D280">
         <v>259</v>
       </c>
@@ -38013,7 +38219,7 @@
         <v>124.99281136632891</v>
       </c>
     </row>
-    <row r="281" spans="4:10">
+    <row r="281" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D281">
         <v>260</v>
       </c>
@@ -38042,7 +38248,7 @@
         <v>124.99595630877275</v>
       </c>
     </row>
-    <row r="282" spans="4:10">
+    <row r="282" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D282">
         <v>261</v>
       </c>
@@ -38071,7 +38277,7 @@
         <v>124.99820277698201</v>
       </c>
     </row>
-    <row r="283" spans="4:10">
+    <row r="283" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>262</v>
       </c>
@@ -38100,7 +38306,7 @@
         <v>124.99955069020791</v>
       </c>
     </row>
-    <row r="284" spans="4:10">
+    <row r="284" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E284" s="50">
         <f t="shared" si="32"/>
         <v>89.999999999999503</v>
@@ -38126,7 +38332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="4:10">
+    <row r="285" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -38134,7 +38340,7 @@
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="4:10">
+    <row r="286" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -38142,7 +38348,7 @@
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="4:10">
+    <row r="287" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -38150,7 +38356,7 @@
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="4:10">
+    <row r="288" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -38158,7 +38364,7 @@
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="5:10">
+    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -38166,7 +38372,7 @@
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="5:10">
+    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -38174,7 +38380,7 @@
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="5:10">
+    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -38182,7 +38388,7 @@
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="5:10">
+    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -38190,7 +38396,7 @@
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="5:10">
+    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -38198,7 +38404,7 @@
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
     </row>
-    <row r="294" spans="5:10">
+    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -38206,7 +38412,7 @@
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" spans="5:10">
+    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -38214,7 +38420,7 @@
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" spans="5:10">
+    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -38222,7 +38428,7 @@
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="5:10">
+    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -38230,7 +38436,7 @@
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" spans="5:10">
+    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -38238,7 +38444,7 @@
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="5:10">
+    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -38246,7 +38452,7 @@
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
     </row>
-    <row r="300" spans="5:10">
+    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -38254,7 +38460,7 @@
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" spans="5:10">
+    <row r="301" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -38262,7 +38468,7 @@
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" spans="5:10">
+    <row r="302" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
@@ -38270,7 +38476,7 @@
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
     </row>
-    <row r="303" spans="5:10">
+    <row r="303" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -38278,7 +38484,7 @@
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" spans="5:10">
+    <row r="304" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -38286,7 +38492,7 @@
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" spans="5:10">
+    <row r="305" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -38294,7 +38500,7 @@
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" spans="5:10">
+    <row r="306" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -38302,7 +38508,7 @@
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
     </row>
-    <row r="307" spans="5:10">
+    <row r="307" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -38310,7 +38516,7 @@
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" spans="5:10">
+    <row r="308" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
@@ -38318,7 +38524,7 @@
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" spans="5:10">
+    <row r="309" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
@@ -38326,7 +38532,7 @@
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" spans="5:10">
+    <row r="310" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
@@ -38334,7 +38540,7 @@
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" spans="5:10">
+    <row r="311" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -38342,7 +38548,7 @@
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" spans="5:10">
+    <row r="312" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -38357,14 +38563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
@@ -38375,7 +38581,7 @@
     <col min="15" max="15" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="52">
         <v>40000000</v>
       </c>
@@ -38391,7 +38597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -38403,7 +38609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -38415,7 +38621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -38435,7 +38641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -38447,7 +38653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -38465,7 +38671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -38483,7 +38689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -38513,7 +38719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J12" s="52">
         <f>E$4/$B6</f>
         <v>3333333.3333333335</v>
@@ -38528,7 +38734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J13" s="52">
         <f>B4/16</f>
         <v>2500000</v>
@@ -38543,7 +38749,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
         <v>2</v>
@@ -38562,7 +38768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>40000000</v>
       </c>
@@ -38604,7 +38810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>C15/16</f>
         <v>0.625</v>
@@ -38635,7 +38841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4000000</v>
       </c>
@@ -38659,7 +38865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>C15/1</f>
         <v>10</v>
@@ -38680,7 +38886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F19">
         <f>$F$14/5</f>
         <v>0.4</v>
@@ -38693,7 +38899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F20">
         <f>$F$14/6</f>
         <v>0.33333333333333331</v>
@@ -38706,7 +38912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>$F$14/7</f>
         <v>0.2857142857142857</v>
@@ -38719,7 +38925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F22">
         <f>$F$14/8</f>
         <v>0.25</v>
@@ -38732,7 +38938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -38747,7 +38953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -38762,7 +38968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>16</v>
       </c>
@@ -38777,7 +38983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>64</v>
       </c>
@@ -38792,7 +38998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J27" s="52">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
@@ -38801,7 +39007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J28" s="52">
         <f t="shared" si="1"/>
         <v>89285.71428571429</v>
@@ -38810,7 +39016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J29" s="52">
         <f t="shared" si="1"/>
         <v>78125</v>
@@ -38826,14 +39032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -38843,7 +39049,7 @@
     <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
@@ -38851,7 +39057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -38889,7 +39095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -38927,7 +39133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C11*10*365*24*3600</f>
         <v>1261440000</v>
@@ -38977,7 +39183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>D12+C12</f>
         <v>1292976000</v>
@@ -39015,7 +39221,7 @@
         <v>42953307553792</v>
       </c>
     </row>
-    <row r="14" spans="3:17">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="O14" t="str">
         <f>DEC2HEX(O13)</f>
         <v>4E21B147</v>
@@ -39029,7 +39235,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1970</v>
       </c>
@@ -39038,7 +39244,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1971</v>
       </c>
@@ -39047,7 +39253,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1972</v>
       </c>
@@ -39056,7 +39262,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1973</v>
       </c>
@@ -39065,7 +39271,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1974</v>
       </c>
@@ -39074,7 +39280,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1975</v>
       </c>
@@ -39083,7 +39289,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1976</v>
       </c>
@@ -39092,7 +39298,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1977</v>
       </c>
@@ -39101,7 +39307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1978</v>
       </c>
@@ -39110,7 +39316,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1979</v>
       </c>
@@ -39119,7 +39325,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>1980</v>
       </c>
@@ -39128,7 +39334,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1981</v>
       </c>
@@ -39137,7 +39343,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>1982</v>
       </c>
@@ -39146,7 +39352,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>1983</v>
       </c>
@@ -39155,7 +39361,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1984</v>
       </c>
@@ -39164,7 +39370,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1985</v>
       </c>
@@ -39173,7 +39379,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>1986</v>
       </c>
@@ -39182,7 +39388,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>1987</v>
       </c>
@@ -39191,7 +39397,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>1988</v>
       </c>
@@ -39200,7 +39406,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1989</v>
       </c>
@@ -39209,7 +39415,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>1990</v>
       </c>
@@ -39218,7 +39424,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>1991</v>
       </c>
@@ -39227,7 +39433,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>1992</v>
       </c>
@@ -39236,7 +39442,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>1993</v>
       </c>
@@ -39245,7 +39451,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>1994</v>
       </c>
@@ -39254,7 +39460,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>1995</v>
       </c>
@@ -39263,7 +39469,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>1996</v>
       </c>
@@ -39272,7 +39478,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>1997</v>
       </c>
@@ -39281,7 +39487,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>1998</v>
       </c>
@@ -39290,7 +39496,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>1999</v>
       </c>
@@ -39299,7 +39505,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>2000</v>
       </c>
@@ -39308,7 +39514,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48">
         <f>SUM(D17:D47)</f>
         <v>11323</v>
@@ -39325,16 +39531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -39347,7 +39553,7 @@
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>107</v>
       </c>
@@ -39358,7 +39564,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>0.0000002</f>
         <v>1.9999999999999999E-7</v>
@@ -39376,7 +39582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" s="64" t="s">
         <v>108</v>
       </c>
@@ -39386,7 +39592,7 @@
       </c>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -39421,7 +39627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>B5/$A$2</f>
         <v>375000.00000000099</v>
@@ -39466,7 +39672,7 @@
         <v>4.1666666666666562E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A14" si="5">B6/$A$2</f>
         <v>3125</v>
@@ -39510,7 +39716,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>1250</v>
@@ -39554,7 +39760,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>625</v>
@@ -39598,7 +39804,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>416.66666666666669</v>
@@ -39642,7 +39848,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>312.5</v>
@@ -39686,7 +39892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>250.00000000000003</v>
@@ -39730,7 +39936,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>208.33333333333334</v>
@@ -39774,7 +39980,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>178.57142857142858</v>
@@ -39818,7 +40024,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>156.25</v>
@@ -39862,7 +40068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
@@ -39873,7 +40079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -39888,6 +40094,39 @@
       <c r="D17">
         <f>C17*60</f>
         <v>1.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1">
+        <f>360/(200*16)</f>
+        <v>0.1125</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14355" windowHeight="10485" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -10008,11 +10008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42105088"/>
-        <c:axId val="42127360"/>
+        <c:axId val="60795136"/>
+        <c:axId val="76361728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42105088"/>
+        <c:axId val="60795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10023,12 +10023,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42127360"/>
+        <c:crossAx val="76361728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42127360"/>
+        <c:axId val="76361728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10039,7 +10039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42105088"/>
+        <c:crossAx val="60795136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14962,11 +14962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70267264"/>
-        <c:axId val="70268800"/>
+        <c:axId val="61493632"/>
+        <c:axId val="61495168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70267264"/>
+        <c:axId val="61493632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14976,12 +14976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70268800"/>
+        <c:crossAx val="61495168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70268800"/>
+        <c:axId val="61495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14992,7 +14992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70267264"/>
+        <c:crossAx val="61493632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15151,11 +15151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70199936"/>
-        <c:axId val="70205824"/>
+        <c:axId val="76556928"/>
+        <c:axId val="76579200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70199936"/>
+        <c:axId val="76556928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15165,7 +15165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70205824"/>
+        <c:crossAx val="76579200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15173,7 +15173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70205824"/>
+        <c:axId val="76579200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15184,7 +15184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70199936"/>
+        <c:crossAx val="76556928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15309,11 +15309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70243840"/>
-        <c:axId val="70245376"/>
+        <c:axId val="76599296"/>
+        <c:axId val="76600832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70243840"/>
+        <c:axId val="76599296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15366,7 +15366,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70245376"/>
+        <c:crossAx val="76600832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15374,7 +15374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70245376"/>
+        <c:axId val="76600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15413,7 +15413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70243840"/>
+        <c:crossAx val="76599296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15458,8 +15458,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -15475,76 +15475,85 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист8!$J$7:$J$14</c:f>
+              <c:f>Лист8!$J$5:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.83333333333333126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1250</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1750</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист8!$I$7:$I$14</c:f>
+              <c:f>Лист8!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.84261904761904804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76464285714285696</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15554,13 +15563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="71589248"/>
-        <c:axId val="71595136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="71589248"/>
+        <c:axId val="37717888"/>
+        <c:axId val="77112064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15584,15 +15591,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71595136"/>
+        <c:crossAx val="77112064"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="71595136"/>
+        <c:axId val="77112064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15603,7 +15607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71589248"/>
+        <c:crossAx val="37717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15752,11 +15756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91656576"/>
-        <c:axId val="91658496"/>
+        <c:axId val="79868288"/>
+        <c:axId val="79870208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91656576"/>
+        <c:axId val="79868288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15794,12 +15798,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91658496"/>
+        <c:crossAx val="79870208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91658496"/>
+        <c:axId val="79870208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15840,7 +15844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91656576"/>
+        <c:crossAx val="79868288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15992,15 +15996,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30255,7 +30259,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40854.544553935186</v>
+        <v>40856.674126388891</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -30271,7 +30275,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40854.544553935186</v>
+        <v>40856.674126388891</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -30320,7 +30324,7 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
@@ -30336,7 +30340,7 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
@@ -30352,7 +30356,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -30368,7 +30372,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -30385,7 +30389,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455873</v>
+        <v>2455875</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -30419,7 +30423,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455873.0445486107</v>
+        <v>2455875.1741319443</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
@@ -39535,7 +39539,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -724,7 +724,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,24 +1388,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -10000,61 +9989,46 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="60795136"/>
-        <c:axId val="76361728"/>
+        <c:dLbls/>
+        <c:axId val="107562112"/>
+        <c:axId val="107563648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60795136"/>
+        <c:axId val="107562112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76361728"/>
+        <c:crossAx val="107563648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76361728"/>
+        <c:axId val="107563648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60795136"/>
+        <c:crossAx val="107562112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10062,24 +10036,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -14954,60 +14916,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="61493632"/>
-        <c:axId val="61495168"/>
+        <c:dLbls/>
+        <c:axId val="107654528"/>
+        <c:axId val="107656320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61493632"/>
+        <c:axId val="107654528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61495168"/>
+        <c:crossAx val="107656320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61495168"/>
+        <c:axId val="107656320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61493632"/>
+        <c:crossAx val="107654528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15015,24 +14962,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -15111,7 +15046,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15139,67 +15073,49 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="76556928"/>
-        <c:axId val="76579200"/>
+        <c:axId val="108189952"/>
+        <c:axId val="108474368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76556928"/>
+        <c:axId val="108189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76579200"/>
+        <c:crossAx val="108474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76579200"/>
+        <c:axId val="108474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76556928"/>
+        <c:crossAx val="108189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15207,24 +15123,12 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15297,27 +15201,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="76599296"/>
-        <c:axId val="76600832"/>
+        <c:axId val="108516096"/>
+        <c:axId val="108517632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76599296"/>
+        <c:axId val="108516096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -15366,19 +15260,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76600832"/>
+        <c:crossAx val="108517632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76600832"/>
+        <c:axId val="108517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15410,10 +15302,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76599296"/>
+        <c:crossAx val="108516096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15427,15 +15317,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15443,24 +15331,13 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15555,28 +15432,19 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="37717888"/>
-        <c:axId val="77112064"/>
+        <c:dLbls/>
+        <c:axId val="108652800"/>
+        <c:axId val="110821376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37717888"/>
+        <c:axId val="108652800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln cap="rnd"/>
@@ -15591,34 +15459,30 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77112064"/>
+        <c:crossAx val="110821376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77112064"/>
+        <c:axId val="110821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37717888"/>
+        <c:crossAx val="108652800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15626,17 +15490,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -15645,15 +15499,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6890326209223878E-2"/>
+          <c:x val="8.6890326209223892E-2"/>
           <c:y val="0.10794049215463787"/>
-          <c:w val="0.8819730033745784"/>
-          <c:h val="0.75905832731607259"/>
+          <c:w val="0.88197300337457862"/>
+          <c:h val="0.75905832731607281"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15748,23 +15601,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="79868288"/>
-        <c:axId val="79870208"/>
+        <c:dLbls/>
+        <c:axId val="110876928"/>
+        <c:axId val="110961024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79868288"/>
+        <c:axId val="110876928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -15788,26 +15633,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.90812710911136096"/>
+              <c:x val="0.90812710911136085"/>
               <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79870208"/>
+        <c:crossAx val="110961024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79870208"/>
+        <c:axId val="110961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -15834,28 +15675,24 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.9444444444444458E-3"/>
-              <c:y val="4.4667560659721037E-2"/>
+              <c:x val="6.9444444444444475E-3"/>
+              <c:y val="4.4667560659721051E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79868288"/>
+        <c:crossAx val="110876928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16136,7 +15973,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -16171,7 +16007,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -16347,21 +16182,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8">
       <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
@@ -16371,7 +16206,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -16388,7 +16223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8">
       <c r="C4">
         <v>86164.090540000005</v>
       </c>
@@ -16413,8 +16248,8 @@
         <v>9.0540000004693866</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" s="3" customFormat="1"/>
+    <row r="9" spans="3:8">
       <c r="C9">
         <v>32768</v>
       </c>
@@ -16423,7 +16258,7 @@
         <v>3.0517578125E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8">
       <c r="C10">
         <f>1/D10</f>
         <v>13.333333333333334</v>
@@ -16446,27 +16281,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="D1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="D2" t="s">
         <v>126</v>
       </c>
@@ -16476,7 +16311,7 @@
         <v>-24.007348514801858</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="C3" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -16486,7 +16321,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="D4" t="s">
         <v>107</v>
       </c>
@@ -16494,7 +16329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="D5" t="s">
         <v>106</v>
       </c>
@@ -16502,13 +16337,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="66"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="55" t="s">
         <v>129</v>
       </c>
@@ -16531,7 +16366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="56">
         <v>4.1666666666666562E-3</v>
       </c>
@@ -16543,7 +16378,7 @@
         <v>303.34285714285727</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="57">
         <v>0.5</v>
       </c>
@@ -16555,7 +16390,7 @@
         <v>275.27142857142849</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="57">
         <v>1.25</v>
       </c>
@@ -16567,7 +16402,7 @@
         <v>241.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="57">
         <v>2.5</v>
       </c>
@@ -16579,7 +16414,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="57">
         <v>3.75</v>
       </c>
@@ -16591,7 +16426,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="57">
         <v>5</v>
       </c>
@@ -16603,7 +16438,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="57">
         <v>6.25</v>
       </c>
@@ -16615,7 +16450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="57">
         <v>7.5</v>
       </c>
@@ -16627,7 +16462,7 @@
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="57">
         <v>8.75</v>
       </c>
@@ -16639,7 +16474,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="58">
         <v>10</v>
       </c>
@@ -16662,14 +16497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -16684,25 +16519,25 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="63" t="s">
@@ -16712,13 +16547,13 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="18">
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
@@ -16729,7 +16564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -16751,7 +16586,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="C8" s="7">
         <v>25000000</v>
       </c>
@@ -16784,7 +16619,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1">
       <c r="D9" s="4">
         <v>4</v>
       </c>
@@ -16807,34 +16642,34 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="D10" t="s">
         <v>77</v>
       </c>
       <c r="E10" t="str">
-        <f>DEC2HEX(E9-1)</f>
-        <v>4</v>
+        <f>DEC2HEX(E9-2)</f>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="D11" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>DEC2HEX(F9-1)</f>
-        <v>7F</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <f>DEC2HEX(F9-2)</f>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="H12">
         <f>0.000001/I7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1">
       <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
@@ -16848,13 +16683,13 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1">
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1">
       <c r="C15" s="22" t="s">
         <v>19</v>
       </c>
@@ -16865,7 +16700,7 @@
       <c r="J15" s="21"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
@@ -16903,7 +16738,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -16939,7 +16774,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13">
       <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
@@ -16977,7 +16812,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13">
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
@@ -17015,7 +16850,7 @@
         <v>Hz</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1">
       <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
@@ -17053,7 +16888,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13">
       <c r="C21" s="27" t="s">
         <v>24</v>
       </c>
@@ -17091,7 +16926,7 @@
         <v>Ktact</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13">
       <c r="C22" s="27" t="s">
         <v>99</v>
       </c>
@@ -17129,7 +16964,7 @@
         <v>mtact</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13">
       <c r="C23" s="27" t="s">
         <v>26</v>
       </c>
@@ -17167,7 +17002,7 @@
         <v>Mcomands</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13">
       <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
@@ -17205,7 +17040,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" ht="15.75" thickBot="1">
       <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
@@ -17237,7 +17072,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" ht="15.75" thickBot="1">
       <c r="C26" s="28" t="s">
         <v>28</v>
       </c>
@@ -17252,7 +17087,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13">
       <c r="C27" s="19" t="s">
         <v>14</v>
       </c>
@@ -17290,7 +17125,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13">
       <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
@@ -17326,7 +17161,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13">
       <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
@@ -17364,7 +17199,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13">
       <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
@@ -17402,7 +17237,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" ht="15.75" thickBot="1">
       <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
@@ -17440,7 +17275,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13">
       <c r="C32" s="27" t="s">
         <v>24</v>
       </c>
@@ -17478,7 +17313,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13">
       <c r="C33" s="27" t="s">
         <v>99</v>
       </c>
@@ -17516,7 +17351,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13">
       <c r="C34" s="27" t="s">
         <v>26</v>
       </c>
@@ -17554,7 +17389,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13">
       <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
@@ -17586,10 +17421,10 @@
         <v>K</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" ht="15.75" thickBot="1">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" ht="15.75" thickBot="1">
       <c r="C37" s="28" t="s">
         <v>28</v>
       </c>
@@ -17604,7 +17439,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13">
       <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
@@ -17642,7 +17477,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13">
       <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
@@ -17678,7 +17513,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13">
       <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
@@ -17716,7 +17551,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13">
       <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
@@ -17754,7 +17589,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" ht="15.75" thickBot="1">
       <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
@@ -17792,7 +17627,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13">
       <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
@@ -17830,7 +17665,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13">
       <c r="C44" s="27" t="s">
         <v>99</v>
       </c>
@@ -17868,7 +17703,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13">
       <c r="C45" s="27" t="s">
         <v>26</v>
       </c>
@@ -17906,7 +17741,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13">
       <c r="C46" s="27" t="s">
         <v>31</v>
       </c>
@@ -18001,20 +17836,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F8" formula="1"/>
+    <ignoredError sqref="F8 H8" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M407"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -18026,7 +17861,7 @@
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -18034,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -18042,7 +17877,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
@@ -18050,12 +17885,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -18067,7 +17902,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -18105,7 +17940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -18143,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="B9" s="3">
         <v>0.2</v>
       </c>
@@ -18187,7 +18022,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="3">
         <v>0.3</v>
       </c>
@@ -18231,7 +18066,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="B11" s="3">
         <v>0.4</v>
       </c>
@@ -18275,7 +18110,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
@@ -18319,7 +18154,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="B13" s="3">
         <v>0.6</v>
       </c>
@@ -18363,7 +18198,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" s="3">
         <v>0.7</v>
       </c>
@@ -18407,7 +18242,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
@@ -18451,7 +18286,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="B16" s="3">
         <v>0.9</v>
       </c>
@@ -18495,7 +18330,7 @@
         <v>9.9999999999999655E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -18539,7 +18374,7 @@
         <v>1.000000000000008E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -18583,7 +18418,7 @@
         <v>9.9999999999999412E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="3">
         <v>1.2</v>
       </c>
@@ -18627,7 +18462,7 @@
         <v>9.9999999999999829E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="3">
         <v>1.3</v>
       </c>
@@ -18671,7 +18506,7 @@
         <v>1.0000000000000057E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="3">
         <v>1.4</v>
       </c>
@@ -18715,7 +18550,7 @@
         <v>1.000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="3">
         <v>1.5</v>
       </c>
@@ -18759,7 +18594,7 @@
         <v>9.9999999999997452E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="3">
         <v>1.6</v>
       </c>
@@ -18803,7 +18638,7 @@
         <v>1.0000000000000122E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="3">
         <v>1.7</v>
       </c>
@@ -18847,7 +18682,7 @@
         <v>1.0000000000000104E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="3">
         <v>1.8</v>
       </c>
@@ -18891,7 +18726,7 @@
         <v>1.0000000000000162E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="3">
         <v>1.9</v>
       </c>
@@ -18935,7 +18770,7 @@
         <v>9.999999999999688E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -18979,7 +18814,7 @@
         <v>1.0000000000000023E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>3.4960744879438729E-3</v>
@@ -19020,7 +18855,7 @@
         <v>9.9999999999998614E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>3.6620670770186989E-3</v>
@@ -19061,7 +18896,7 @@
         <v>1.000000000000059E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>3.8278311931459054E-3</v>
@@ -19102,7 +18937,7 @@
         <v>9.9999999999992369E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>3.9933821937865772E-3</v>
@@ -19143,7 +18978,7 @@
         <v>1.0000000000000668E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>4.1587337893224377E-3</v>
@@ -19184,7 +19019,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:13">
       <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>4.3238982802406454E-3</v>
@@ -19225,7 +19060,7 @@
         <v>1.0000000000000243E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:13">
       <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.4888867521316964E-3</v>
@@ -19266,7 +19101,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:13">
       <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.6537092373243527E-3</v>
@@ -19307,7 +19142,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:13">
       <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>4.8183748498798811E-3</v>
@@ -19348,7 +19183,7 @@
         <v>9.9999999999994885E-3</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:13">
       <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>4.9828918991234421E-3</v>
@@ -19389,7 +19224,7 @@
         <v>1.0000000000001076E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:13">
       <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>5.1472679857416355E-3</v>
@@ -19430,7 +19265,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:13">
       <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>5.3115100836106759E-3</v>
@@ -19471,7 +19306,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13">
       <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>5.4756246098625226E-3</v>
@@ -19512,7 +19347,7 @@
         <v>9.99999999999889E-3</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13">
       <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>5.6396174851915705E-3</v>
@@ -19553,7 +19388,7 @@
         <v>1.0000000000001084E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:13">
       <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>5.8034941860137593E-3</v>
@@ -19594,7 +19429,7 @@
         <v>1.0000000000000208E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:13">
       <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>5.9672597897843004E-3</v>
@@ -19635,7 +19470,7 @@
         <v>9.9999999999988206E-3</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:13">
       <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>6.1309190145398852E-3</v>
@@ -19676,7 +19511,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:13">
       <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>6.2944762535402767E-3</v>
@@ -19717,7 +19552,7 @@
         <v>9.9999999999975022E-3</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:13">
       <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>6.4579356057317882E-3</v>
@@ -19758,7 +19593,7 @@
         <v>1.0000000000002056E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:13">
       <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>6.6213009026325114E-3</v>
@@ -19799,7 +19634,7 @@
         <v>9.999999999998543E-3</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:13">
       <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>6.7845757321399868E-3</v>
@@ -19840,7 +19675,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:13">
       <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>6.9477634596812349E-3</v>
@@ -19881,7 +19716,7 @@
         <v>9.9999999999979619E-3</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:13">
       <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>7.1108672470589886E-3</v>
@@ -19922,7 +19757,7 @@
         <v>1.0000000000002037E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:13">
       <c r="D51" s="3">
         <f t="shared" si="0"/>
         <v>7.2738900692936193E-3</v>
@@ -19963,7 +19798,7 @@
         <v>9.9999999999985864E-3</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:13">
       <c r="D52" s="3">
         <f t="shared" si="0"/>
         <v>7.4368347297152759E-3</v>
@@ -20004,7 +19839,7 @@
         <v>1.000000000000051E-2</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:13">
       <c r="D53" s="3">
         <f t="shared" si="0"/>
         <v>7.5997038735234647E-3</v>
@@ -20045,7 +19880,7 @@
         <v>1.0000000000000113E-2</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:13">
       <c r="D54" s="3">
         <f t="shared" si="0"/>
         <v>7.7625000000000038E-3</v>
@@ -20086,7 +19921,7 @@
         <v>1.0000000000001778E-2</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:13">
       <c r="D55" s="3">
         <f t="shared" si="0"/>
         <v>7.9252254735354133E-3</v>
@@ -20127,7 +19962,7 @@
         <v>9.9999999999960693E-3</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:13">
       <c r="D56" s="3">
         <f t="shared" si="0"/>
         <v>8.0878825336065663E-3</v>
@@ -20168,7 +20003,7 @@
         <v>1.0000000000003166E-2</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:13">
       <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>8.2504733038250462E-3</v>
@@ -20209,7 +20044,7 @@
         <v>9.9999999999986367E-3</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:13">
       <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>8.4129998001598455E-3</v>
@@ -20250,7 +20085,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13">
       <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>8.5754639384246663E-3</v>
@@ -20291,7 +20126,7 @@
         <v>9.9999999999975456E-3</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:13">
       <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>8.7378675411086577E-3</v>
@@ -20332,7 +20167,7 @@
         <v>1.0000000000005367E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:13">
       <c r="D61" s="3">
         <f t="shared" si="0"/>
         <v>8.9002123436195662E-3</v>
@@ -20373,7 +20208,7 @@
         <v>9.9999999999952557E-3</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:13">
       <c r="D62" s="3">
         <f t="shared" si="0"/>
         <v>9.0625000000000046E-3</v>
@@ -20414,7 +20249,7 @@
         <v>9.9999999999996082E-3</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13">
       <c r="D63" s="3">
         <f t="shared" si="0"/>
         <v>9.2247320881701008E-3</v>
@@ -20455,7 +20290,7 @@
         <v>1.0000000000003791E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13">
       <c r="D64" s="3">
         <f t="shared" si="0"/>
         <v>9.386910114743692E-3</v>
@@ -20496,7 +20331,7 @@
         <v>9.9999999999962272E-3</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:13">
       <c r="D65" s="3">
         <f t="shared" si="0"/>
         <v>9.5490355194596567E-3</v>
@@ -20537,7 +20372,7 @@
         <v>1.0000000000004882E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:13">
       <c r="D66" s="3">
         <f t="shared" si="0"/>
         <v>9.7111096792653791E-3</v>
@@ -20578,7 +20413,7 @@
         <v>9.9999999999957415E-3</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13">
       <c r="D67" s="3">
         <f t="shared" si="0"/>
         <v>9.8731339120850647E-3</v>
@@ -20619,7 +20454,7 @@
         <v>9.9999999999991224E-3</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13">
       <c r="D68" s="3">
         <f t="shared" si="0"/>
         <v>1.0035109480302241E-2</v>
@@ -20660,7 +20495,7 @@
         <v>1.0000000000004276E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13">
       <c r="D69" s="3">
         <f t="shared" si="0"/>
         <v>1.0197037593982409E-2</v>
@@ -20701,7 +20536,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13">
       <c r="D70" s="3">
         <f t="shared" si="0"/>
         <v>1.035891941385921E-2</v>
@@ -20742,7 +20577,7 @@
         <v>1.000000000000169E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:13">
       <c r="D71" s="3">
         <f t="shared" si="0"/>
         <v>1.0520756054104954E-2</v>
@@ -20783,7 +20618,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:13">
       <c r="D72" s="3">
         <f t="shared" si="0"/>
         <v>1.068254858490425E-2</v>
@@ -20824,7 +20659,7 @@
         <v>1.0000000000001482E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:13">
       <c r="D73" s="3">
         <f t="shared" ref="D73:D136" si="9">$D$2+$D$3*F73+$D$4*F73*F73/2</f>
         <v>1.0844298034847591E-2</v>
@@ -20865,7 +20700,7 @@
         <v>1.0000000000004762E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:13">
       <c r="D74" s="3">
         <f t="shared" si="9"/>
         <v>1.1006005393159999E-2</v>
@@ -20906,7 +20741,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:13">
       <c r="D75" s="3">
         <f t="shared" si="9"/>
         <v>1.1167671611778517E-2</v>
@@ -20947,7 +20782,7 @@
         <v>9.9999999999984285E-3</v>
       </c>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:13">
       <c r="D76" s="3">
         <f t="shared" si="9"/>
         <v>1.1329297607290748E-2</v>
@@ -20988,7 +20823,7 @@
         <v>1.0000000000002264E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:13">
       <c r="D77" s="3">
         <f t="shared" si="9"/>
         <v>1.1490884262745762E-2</v>
@@ -21029,7 +20864,7 @@
         <v>9.9999999999953754E-3</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13">
       <c r="D78" s="3">
         <f t="shared" si="9"/>
         <v>1.1652432429347447E-2</v>
@@ -21070,7 +20905,7 @@
         <v>1.0000000000002403E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13">
       <c r="D79" s="3">
         <f t="shared" si="9"/>
         <v>1.181394292803945E-2</v>
@@ -21111,7 +20946,7 @@
         <v>9.9999999999961578E-3</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13">
       <c r="D80" s="3">
         <f t="shared" si="9"/>
         <v>1.197541655099019E-2</v>
@@ -21152,7 +20987,7 @@
         <v>1.0000000000009114E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:13">
       <c r="D81" s="3">
         <f t="shared" si="9"/>
         <v>1.2136854062985376E-2</v>
@@ -21193,7 +21028,7 @@
         <v>9.9999999999888026E-3</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13">
       <c r="D82" s="3">
         <f t="shared" si="9"/>
         <v>1.2298256202735156E-2</v>
@@ -21234,7 +21069,7 @@
         <v>1.0000000000014388E-2</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13">
       <c r="D83" s="3">
         <f t="shared" si="9"/>
         <v>1.2459623684102028E-2</v>
@@ -21275,7 +21110,7 @@
         <v>9.9999999999889413E-3</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13">
       <c r="D84" s="3">
         <f t="shared" si="9"/>
         <v>1.2620957197255471E-2</v>
@@ -21316,7 +21151,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13">
       <c r="D85" s="3">
         <f t="shared" si="9"/>
         <v>1.2782257409758441E-2</v>
@@ -21357,7 +21192,7 @@
         <v>9.999999999991906E-3</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:13">
       <c r="D86" s="3">
         <f t="shared" si="9"/>
         <v>1.294352496759067E-2</v>
@@ -21398,7 +21233,7 @@
         <v>1.0000000000005872E-2</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:13">
       <c r="D87" s="3">
         <f t="shared" si="9"/>
         <v>1.3104760496113128E-2</v>
@@ -21439,7 +21274,7 @@
         <v>1.0000000000002869E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:13">
       <c r="D88" s="3">
         <f t="shared" si="9"/>
         <v>1.3265964600977825E-2</v>
@@ -21480,7 +21315,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:13">
       <c r="D89" s="3">
         <f t="shared" si="9"/>
         <v>1.3427137868986583E-2</v>
@@ -21521,7 +21356,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:13">
       <c r="D90" s="3">
         <f t="shared" si="9"/>
         <v>1.3588280868902356E-2</v>
@@ -21562,7 +21397,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:13">
       <c r="D91" s="3">
         <f t="shared" si="9"/>
         <v>1.3749394152216109E-2</v>
@@ -21603,7 +21438,7 @@
         <v>1.0000000000000561E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:13">
       <c r="D92" s="3">
         <f t="shared" si="9"/>
         <v>1.3910478253872373E-2</v>
@@ -21644,7 +21479,7 @@
         <v>1.0000000000013921E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:13">
       <c r="D93" s="3">
         <f t="shared" si="9"/>
         <v>1.4071533692956025E-2</v>
@@ -21685,7 +21520,7 @@
         <v>9.9999999999878311E-3</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:13">
       <c r="D94" s="3">
         <f t="shared" si="9"/>
         <v>1.4232560973342842E-2</v>
@@ -21726,7 +21561,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:13">
       <c r="D95" s="3">
         <f t="shared" si="9"/>
         <v>1.4393560584316189E-2</v>
@@ -21767,7 +21602,7 @@
         <v>1.0000000000004484E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:13">
       <c r="D96" s="3">
         <f t="shared" si="9"/>
         <v>1.455453300115186E-2</v>
@@ -21808,7 +21643,7 @@
         <v>9.9999999999941767E-3</v>
       </c>
     </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:13">
       <c r="D97" s="3">
         <f t="shared" si="9"/>
         <v>1.4715478685673185E-2</v>
@@ -21849,7 +21684,7 @@
         <v>1.0000000000014754E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:13">
       <c r="D98" s="3">
         <f t="shared" si="9"/>
         <v>1.4876398086778132E-2</v>
@@ -21890,7 +21725,7 @@
         <v>9.99999999998228E-3</v>
       </c>
     </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:13">
       <c r="D99" s="3">
         <f t="shared" si="9"/>
         <v>1.5037291640940156E-2</v>
@@ -21931,7 +21766,7 @@
         <v>1.0000000000010036E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:13">
       <c r="D100" s="3">
         <f t="shared" si="9"/>
         <v>1.5198159772684378E-2</v>
@@ -21972,7 +21807,7 @@
         <v>9.9999999999990721E-3</v>
       </c>
     </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:13">
       <c r="D101" s="3">
         <f t="shared" si="9"/>
         <v>1.5359002895040531E-2</v>
@@ -22013,7 +21848,7 @@
         <v>9.9999999999987564E-3</v>
       </c>
     </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:13">
       <c r="D102" s="3">
         <f t="shared" si="9"/>
         <v>1.551982140997412E-2</v>
@@ -22054,7 +21889,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:13">
       <c r="D103" s="3">
         <f t="shared" si="9"/>
         <v>1.5680615708796919E-2</v>
@@ -22095,7 +21930,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:13">
       <c r="D104" s="3">
         <f t="shared" si="9"/>
         <v>1.5841386172558179E-2</v>
@@ -22136,7 +21971,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:13">
       <c r="D105" s="3">
         <f t="shared" si="9"/>
         <v>1.6002133172417523E-2</v>
@@ -22177,7 +22012,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:13">
       <c r="D106" s="3">
         <f t="shared" si="9"/>
         <v>1.6162857070000588E-2</v>
@@ -22218,7 +22053,7 @@
         <v>1.0000000000003475E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:13">
       <c r="D107" s="3">
         <f t="shared" si="9"/>
         <v>1.6323558217738395E-2</v>
@@ -22259,7 +22094,7 @@
         <v>1.0000000000005317E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:13">
       <c r="D108" s="3">
         <f t="shared" si="9"/>
         <v>1.6484236959191378E-2</v>
@@ -22300,7 +22135,7 @@
         <v>9.999999999993521E-3</v>
       </c>
     </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:13">
       <c r="D109" s="3">
         <f t="shared" si="9"/>
         <v>1.6644893629358816E-2</v>
@@ -22326,7 +22161,7 @@
         <v>2.0050086084783047E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:13">
       <c r="D110" s="3">
         <f t="shared" si="9"/>
         <v>1.6805528554974598E-2</v>
@@ -22352,7 +22187,7 @@
         <v>2.0049589328303915E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:13">
       <c r="D111" s="3">
         <f t="shared" si="9"/>
         <v>1.6966142054789891E-2</v>
@@ -22378,7 +22213,7 @@
         <v>2.0049102329354127E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:13">
       <c r="D112" s="3">
         <f t="shared" si="9"/>
         <v>1.7126734439843576E-2</v>
@@ -22404,7 +22239,7 @@
         <v>2.0048624802885179E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9">
       <c r="D113" s="3">
         <f t="shared" si="9"/>
         <v>1.7287306013721013E-2</v>
@@ -22430,7 +22265,7 @@
         <v>2.0048156474293862E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9">
       <c r="D114" s="3">
         <f t="shared" si="9"/>
         <v>1.7447857072801668E-2</v>
@@ -22456,7 +22291,7 @@
         <v>2.0047697081960775E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9">
       <c r="D115" s="3">
         <f t="shared" si="9"/>
         <v>1.760838790649635E-2</v>
@@ -22482,7 +22317,7 @@
         <v>2.004724637173631E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9">
       <c r="D116" s="3">
         <f t="shared" si="9"/>
         <v>1.776889879747446E-2</v>
@@ -22508,7 +22343,7 @@
         <v>2.0046804099856978E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9">
       <c r="D117" s="3">
         <f t="shared" si="9"/>
         <v>1.7929390021881847E-2</v>
@@ -22534,7 +22369,7 @@
         <v>2.0046370030705054E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9">
       <c r="D118" s="3">
         <f t="shared" si="9"/>
         <v>1.8089861849549579E-2</v>
@@ -22560,7 +22395,7 @@
         <v>2.0045943940032375E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9">
       <c r="D119" s="3">
         <f t="shared" si="9"/>
         <v>1.8250314544194346E-2</v>
@@ -22586,7 +22421,7 @@
         <v>2.0045525607998303E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9">
       <c r="D120" s="3">
         <f t="shared" si="9"/>
         <v>1.841074836361066E-2</v>
@@ -22612,7 +22447,7 @@
         <v>2.0045114825960924E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9">
       <c r="D121" s="3">
         <f t="shared" si="9"/>
         <v>1.8571163559855386E-2</v>
@@ -22638,7 +22473,7 @@
         <v>2.0044711390572102E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9">
       <c r="D122" s="3">
         <f t="shared" si="9"/>
         <v>1.8731560379424972E-2</v>
@@ -22664,7 +22499,7 @@
         <v>2.0044315106642122E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9">
       <c r="D123" s="3">
         <f t="shared" si="9"/>
         <v>1.8891939063425657E-2</v>
@@ -22690,7 +22525,7 @@
         <v>2.0043925785706799E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9">
       <c r="D124" s="3">
         <f t="shared" si="9"/>
         <v>1.9052299847737052E-2</v>
@@ -22716,7 +22551,7 @@
         <v>2.0043543246257026E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9">
       <c r="D125" s="3">
         <f t="shared" si="9"/>
         <v>1.9212642963169442E-2</v>
@@ -22742,7 +22577,7 @@
         <v>2.0043167311567713E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9">
       <c r="D126" s="3">
         <f t="shared" si="9"/>
         <v>1.9372968635614937E-2</v>
@@ -22768,7 +22603,7 @@
         <v>2.0042797813575489E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9">
       <c r="D127" s="3">
         <f t="shared" si="9"/>
         <v>1.953327708619303E-2</v>
@@ -22794,7 +22629,7 @@
         <v>2.0042434587018685E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9">
       <c r="D128" s="3">
         <f t="shared" si="9"/>
         <v>1.9693568531390541E-2</v>
@@ -22820,7 +22655,7 @@
         <v>2.0042077473813751E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9">
       <c r="D129" s="3">
         <f t="shared" si="9"/>
         <v>1.9853843183196357E-2</v>
@@ -22846,7 +22681,7 @@
         <v>2.0041726322266903E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9">
       <c r="D130" s="3">
         <f t="shared" si="9"/>
         <v>2.0014101249231243E-2</v>
@@ -22872,7 +22707,7 @@
         <v>2.0041380982173344E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9">
       <c r="D131" s="3">
         <f t="shared" si="9"/>
         <v>2.017434293287277E-2</v>
@@ -22898,7 +22733,7 @@
         <v>2.0041041311890492E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9">
       <c r="D132" s="3">
         <f t="shared" si="9"/>
         <v>2.0334568433375774E-2</v>
@@ -22924,7 +22759,7 @@
         <v>2.0040707172671063E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9">
       <c r="D133" s="3">
         <f t="shared" si="9"/>
         <v>2.0494777945988391E-2</v>
@@ -22950,7 +22785,7 @@
         <v>2.0040378430203929E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9">
       <c r="D134" s="3">
         <f t="shared" si="9"/>
         <v>2.0654971662063974E-2</v>
@@ -22976,7 +22811,7 @@
         <v>2.0040054955132183E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9">
       <c r="D135" s="3">
         <f t="shared" si="9"/>
         <v>2.0815149769168994E-2</v>
@@ -23002,7 +22837,7 @@
         <v>2.0039736621692193E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9">
       <c r="D136" s="3">
         <f t="shared" si="9"/>
         <v>2.0975312451187143E-2</v>
@@ -23028,7 +22863,7 @@
         <v>2.0039423307931386E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9">
       <c r="D137" s="3">
         <f t="shared" ref="D137:D200" si="18">$D$2+$D$3*F137+$D$4*F137*F137/2</f>
         <v>2.113545988841976E-2</v>
@@ -23054,7 +22889,7 @@
         <v>2.0039114896916427E-2</v>
       </c>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:9">
       <c r="D138" s="3">
         <f t="shared" si="18"/>
         <v>2.1295592257682815E-2</v>
@@ -23080,7 +22915,7 @@
         <v>2.0038811273598169E-2</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:9">
       <c r="D139" s="3">
         <f t="shared" si="18"/>
         <v>2.145570973240047E-2</v>
@@ -23106,7 +22941,7 @@
         <v>2.0038512327793776E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:9">
       <c r="D140" s="3">
         <f t="shared" si="18"/>
         <v>2.1615812482695517E-2</v>
@@ -23132,7 +22967,7 @@
         <v>2.0038217951991521E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:9">
       <c r="D141" s="3">
         <f t="shared" si="18"/>
         <v>2.1775900675476668E-2</v>
@@ -23158,7 +22993,7 @@
         <v>2.0037928042680748E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:9">
       <c r="D142" s="3">
         <f t="shared" si="18"/>
         <v>2.1935974474522946E-2</v>
@@ -23184,7 +23019,7 @@
         <v>2.0037642498141064E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:9">
       <c r="D143" s="3">
         <f t="shared" si="18"/>
         <v>2.2096034040565236E-2</v>
@@ -23210,7 +23045,7 @@
         <v>2.0037361220907764E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:9">
       <c r="D144" s="3">
         <f t="shared" si="18"/>
         <v>2.2256079531365078E-2</v>
@@ -23236,7 +23071,7 @@
         <v>2.0037084117387177E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9">
       <c r="D145" s="3">
         <f t="shared" si="18"/>
         <v>2.2416111101790974E-2</v>
@@ -23262,7 +23097,7 @@
         <v>2.0036811092575161E-2</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9">
       <c r="D146" s="3">
         <f t="shared" si="18"/>
         <v>2.2576128903892059E-2</v>
@@ -23288,7 +23123,7 @@
         <v>2.0036542059400773E-2</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9">
       <c r="D147" s="3">
         <f t="shared" si="18"/>
         <v>2.2736133086969486E-2</v>
@@ -23314,7 +23149,7 @@
         <v>2.0036276929708986E-2</v>
       </c>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9">
       <c r="D148" s="3">
         <f t="shared" si="18"/>
         <v>2.2896123797645402E-2</v>
@@ -23340,7 +23175,7 @@
         <v>2.0036015620404156E-2</v>
       </c>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9">
       <c r="D149" s="3">
         <f t="shared" si="18"/>
         <v>2.3056101179929813E-2</v>
@@ -23366,7 +23201,7 @@
         <v>2.0035758048213455E-2</v>
       </c>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9">
       <c r="D150" s="3">
         <f t="shared" si="18"/>
         <v>2.3216065375285286E-2</v>
@@ -23392,7 +23227,7 @@
         <v>2.0035504133851294E-2</v>
       </c>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9">
       <c r="D151" s="3">
         <f t="shared" si="18"/>
         <v>2.337601652268954E-2</v>
@@ -23418,7 +23253,7 @@
         <v>2.0035253800434697E-2</v>
       </c>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9">
       <c r="D152" s="3">
         <f t="shared" si="18"/>
         <v>2.3535954758696159E-2</v>
@@ -23444,7 +23279,7 @@
         <v>2.0035006972531438E-2</v>
       </c>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9">
       <c r="D153" s="3">
         <f t="shared" si="18"/>
         <v>2.3695880217493394E-2</v>
@@ -23470,7 +23305,7 @@
         <v>2.0034763576601278E-2</v>
       </c>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9">
       <c r="D154" s="3">
         <f t="shared" si="18"/>
         <v>2.3855793030961085E-2</v>
@@ -23496,7 +23331,7 @@
         <v>2.0034523542483244E-2</v>
       </c>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9">
       <c r="D155" s="3">
         <f t="shared" si="18"/>
         <v>2.401569332872593E-2</v>
@@ -23522,7 +23357,7 @@
         <v>2.0034286799543676E-2</v>
       </c>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9">
       <c r="D156" s="3">
         <f t="shared" si="18"/>
         <v>2.4175581238214963E-2</v>
@@ -23548,7 +23383,7 @@
         <v>2.0034053282063067E-2</v>
       </c>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9">
       <c r="D157" s="3">
         <f t="shared" si="18"/>
         <v>2.4335456884707476E-2</v>
@@ -23574,7 +23409,7 @@
         <v>2.0033822924131854E-2</v>
       </c>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9">
       <c r="D158" s="3">
         <f t="shared" si="18"/>
         <v>2.4495320391385397E-2</v>
@@ -23600,7 +23435,7 @@
         <v>2.0033595660706307E-2</v>
       </c>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9">
       <c r="D159" s="3">
         <f t="shared" si="18"/>
         <v>2.4655171879382064E-2</v>
@@ -23626,7 +23461,7 @@
         <v>2.0033371432242097E-2</v>
       </c>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9">
       <c r="D160" s="3">
         <f t="shared" si="18"/>
         <v>2.4815011467829592E-2</v>
@@ -23652,7 +23487,7 @@
         <v>2.003315017721289E-2</v>
       </c>
     </row>
-    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9">
       <c r="D161" s="3">
         <f t="shared" si="18"/>
         <v>2.4974839273904984E-2</v>
@@ -23678,7 +23513,7 @@
         <v>2.0032931835319845E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9">
       <c r="D162" s="3">
         <f t="shared" si="18"/>
         <v>2.5134655412874605E-2</v>
@@ -23704,7 +23539,7 @@
         <v>2.0032716351676232E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9">
       <c r="D163" s="3">
         <f t="shared" si="18"/>
         <v>2.5294459998137588E-2</v>
@@ -23730,7 +23565,7 @@
         <v>2.0032503670256704E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9">
       <c r="D164" s="3">
         <f t="shared" si="18"/>
         <v>2.5454253141267903E-2</v>
@@ -23756,7 +23591,7 @@
         <v>2.0032293735465959E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9">
       <c r="D165" s="3">
         <f t="shared" si="18"/>
         <v>2.5614034952055241E-2</v>
@@ -23782,7 +23617,7 @@
         <v>2.0032086495155192E-2</v>
       </c>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:9">
       <c r="D166" s="3">
         <f t="shared" si="18"/>
         <v>2.5773805538544661E-2</v>
@@ -23808,7 +23643,7 @@
         <v>2.0031881897786836E-2</v>
       </c>
     </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:9">
       <c r="D167" s="3">
         <f t="shared" si="18"/>
         <v>2.5933565007075186E-2</v>
@@ -23834,7 +23669,7 @@
         <v>2.0031679893501953E-2</v>
       </c>
     </row>
-    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:9">
       <c r="D168" s="3">
         <f t="shared" si="18"/>
         <v>2.6093313462317268E-2</v>
@@ -23860,7 +23695,7 @@
         <v>2.0031480432637153E-2</v>
       </c>
     </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:9">
       <c r="D169" s="3">
         <f t="shared" si="18"/>
         <v>2.6253051007309253E-2</v>
@@ -23886,7 +23721,7 @@
         <v>2.003128346737788E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:9">
       <c r="D170" s="3">
         <f t="shared" si="18"/>
         <v>2.641277774349271E-2</v>
@@ -23912,7 +23747,7 @@
         <v>2.0031088952807717E-2</v>
       </c>
     </row>
-    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:9">
       <c r="D171" s="3">
         <f t="shared" si="18"/>
         <v>2.6572493770746951E-2</v>
@@ -23938,7 +23773,7 @@
         <v>2.003089684029034E-2</v>
       </c>
     </row>
-    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:9">
       <c r="D172" s="3">
         <f t="shared" si="18"/>
         <v>2.6732199187422447E-2</v>
@@ -23964,7 +23799,7 @@
         <v>2.0030707089338608E-2</v>
       </c>
     </row>
-    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:9">
       <c r="D173" s="3">
         <f t="shared" si="18"/>
         <v>2.689189409037341E-2</v>
@@ -23990,7 +23825,7 @@
         <v>2.0030519653501222E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:9">
       <c r="D174" s="3">
         <f t="shared" si="18"/>
         <v>2.7051578574989472E-2</v>
@@ -24016,7 +23851,7 @@
         <v>2.0030334492970803E-2</v>
       </c>
     </row>
-    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:9">
       <c r="D175" s="3">
         <f t="shared" si="18"/>
         <v>2.721125273522651E-2</v>
@@ -24042,7 +23877,7 @@
         <v>2.0030151564896844E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:9">
       <c r="D176" s="3">
         <f t="shared" si="18"/>
         <v>2.7370916663636599E-2</v>
@@ -24068,7 +23903,7 @@
         <v>2.0029970830943832E-2</v>
       </c>
     </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:9">
       <c r="D177" s="3">
         <f t="shared" si="18"/>
         <v>2.7530570451397281E-2</v>
@@ -24094,7 +23929,7 @@
         <v>2.0029792249053584E-2</v>
       </c>
     </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:9">
       <c r="D178" s="3">
         <f t="shared" si="18"/>
         <v>2.7690214188339869E-2</v>
@@ -24120,7 +23955,7 @@
         <v>2.0029615784425175E-2</v>
       </c>
     </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:9">
       <c r="D179" s="3">
         <f t="shared" si="18"/>
         <v>2.7849847962977205E-2</v>
@@ -24146,7 +23981,7 @@
         <v>2.0029441396710333E-2</v>
       </c>
     </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:9">
       <c r="D180" s="3">
         <f t="shared" si="18"/>
         <v>2.8009471862530548E-2</v>
@@ -24172,7 +24007,7 @@
         <v>2.0029269051673224E-2</v>
       </c>
     </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:9">
       <c r="D181" s="3">
         <f t="shared" si="18"/>
         <v>2.8169085972955796E-2</v>
@@ -24198,7 +24033,7 @@
         <v>2.0029098712029594E-2</v>
       </c>
     </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:9">
       <c r="D182" s="3">
         <f t="shared" si="18"/>
         <v>2.8328690378969082E-2</v>
@@ -24224,7 +24059,7 @@
         <v>2.0028930344385069E-2</v>
       </c>
     </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:9">
       <c r="D183" s="3">
         <f t="shared" si="18"/>
         <v>2.8488285164071623E-2</v>
@@ -24250,7 +24085,7 @@
         <v>2.0028763912750731E-2</v>
       </c>
     </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:9">
       <c r="D184" s="3">
         <f t="shared" si="18"/>
         <v>2.8647870410574015E-2</v>
@@ -24276,7 +24111,7 @@
         <v>2.0028599385456935E-2</v>
       </c>
     </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:9">
       <c r="D185" s="3">
         <f t="shared" si="18"/>
         <v>2.88074461996198E-2</v>
@@ -24302,7 +24137,7 @@
         <v>2.002843673047745E-2</v>
       </c>
     </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:9">
       <c r="D186" s="3">
         <f t="shared" si="18"/>
         <v>2.8967012611208567E-2</v>
@@ -24328,7 +24163,7 @@
         <v>2.0028275914609948E-2</v>
       </c>
     </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:9">
       <c r="D187" s="3">
         <f t="shared" si="18"/>
         <v>2.9126569724218385E-2</v>
@@ -24354,7 +24189,7 @@
         <v>2.0028116906870626E-2</v>
       </c>
     </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:9">
       <c r="D188" s="3">
         <f t="shared" si="18"/>
         <v>2.9286117616427666E-2</v>
@@ -24380,7 +24215,7 @@
         <v>2.0027959678689047E-2</v>
       </c>
     </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:9">
       <c r="D189" s="3">
         <f t="shared" si="18"/>
         <v>2.9445656364536558E-2</v>
@@ -24406,7 +24241,7 @@
         <v>2.0027804197332532E-2</v>
       </c>
     </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:9">
       <c r="D190" s="3">
         <f t="shared" si="18"/>
         <v>2.9605186044187676E-2</v>
@@ -24432,7 +24267,7 @@
         <v>2.0027650438752913E-2</v>
       </c>
     </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:9">
       <c r="D191" s="3">
         <f t="shared" si="18"/>
         <v>2.9764706729986521E-2</v>
@@ -24458,7 +24293,7 @@
         <v>2.0027498367581099E-2</v>
       </c>
     </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:9">
       <c r="D192" s="3">
         <f t="shared" si="18"/>
         <v>2.9924218495521168E-2</v>
@@ -24484,7 +24319,7 @@
         <v>2.0027347962773698E-2</v>
       </c>
     </row>
-    <row r="193" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:9">
       <c r="D193" s="3">
         <f t="shared" si="18"/>
         <v>3.0083721413381642E-2</v>
@@ -24510,7 +24345,7 @@
         <v>2.002719919349787E-2</v>
       </c>
     </row>
-    <row r="194" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:9">
       <c r="D194" s="3">
         <f t="shared" si="18"/>
         <v>3.0243215555178768E-2</v>
@@ -24536,7 +24371,7 @@
         <v>2.0027052033685606E-2</v>
       </c>
     </row>
-    <row r="195" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:9">
       <c r="D195" s="3">
         <f t="shared" si="18"/>
         <v>3.0402700991562545E-2</v>
@@ -24562,7 +24397,7 @@
         <v>2.0026906457786597E-2</v>
       </c>
     </row>
-    <row r="196" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:9">
       <c r="D196" s="3">
         <f t="shared" si="18"/>
         <v>3.0562177792240099E-2</v>
@@ -24588,7 +24423,7 @@
         <v>2.0026762440848563E-2</v>
       </c>
     </row>
-    <row r="197" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:9">
       <c r="D197" s="3">
         <f t="shared" si="18"/>
         <v>3.0721646025993202E-2</v>
@@ -24614,7 +24449,7 @@
         <v>2.0026619957521433E-2</v>
       </c>
     </row>
-    <row r="198" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:9">
       <c r="D198" s="3">
         <f t="shared" si="18"/>
         <v>3.0881105760695415E-2</v>
@@ -24640,7 +24475,7 @@
         <v>2.0026478982587036E-2</v>
       </c>
     </row>
-    <row r="199" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:9">
       <c r="D199" s="3">
         <f t="shared" si="18"/>
         <v>3.1040557063328766E-2</v>
@@ -24666,7 +24501,7 @@
         <v>2.0026339492626895E-2</v>
       </c>
     </row>
-    <row r="200" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:9">
       <c r="D200" s="3">
         <f t="shared" si="18"/>
         <v>3.1200000000000033E-2</v>
@@ -24692,7 +24527,7 @@
         <v>2.0026201465728491E-2</v>
       </c>
     </row>
-    <row r="201" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:9">
       <c r="D201" s="3">
         <f t="shared" ref="D201:D264" si="24">$D$2+$D$3*F201+$D$4*F201*F201/2</f>
         <v>3.1359434635956689E-2</v>
@@ -24718,7 +24553,7 @@
         <v>2.0026064878070206E-2</v>
       </c>
     </row>
-    <row r="202" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:9">
       <c r="D202" s="3">
         <f t="shared" si="24"/>
         <v>3.1518861035602488E-2</v>
@@ -24744,7 +24579,7 @@
         <v>2.0025929705904149E-2</v>
       </c>
     </row>
-    <row r="203" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:9">
       <c r="D203" s="3">
         <f t="shared" si="24"/>
         <v>3.1678279262512654E-2</v>
@@ -24770,7 +24605,7 @@
         <v>2.0025795928402351E-2</v>
       </c>
     </row>
-    <row r="204" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:9">
       <c r="D204" s="3">
         <f t="shared" si="24"/>
         <v>3.1837689379448683E-2</v>
@@ -24796,7 +24631,7 @@
         <v>2.002566352538742E-2</v>
       </c>
     </row>
-    <row r="205" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:9">
       <c r="D205" s="3">
         <f t="shared" si="24"/>
         <v>3.1997091448372872E-2</v>
@@ -24822,7 +24657,7 @@
         <v>2.0025532474081648E-2</v>
       </c>
     </row>
-    <row r="206" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:9">
       <c r="D206" s="3">
         <f t="shared" si="24"/>
         <v>3.2156485530462492E-2</v>
@@ -24848,7 +24683,7 @@
         <v>2.0025402755520373E-2</v>
       </c>
     </row>
-    <row r="207" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:9">
       <c r="D207" s="3">
         <f t="shared" si="24"/>
         <v>3.2315871686123709E-2</v>
@@ -24874,7 +24709,7 @@
         <v>2.0025274345848457E-2</v>
       </c>
     </row>
-    <row r="208" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:9">
       <c r="D208" s="3">
         <f t="shared" si="24"/>
         <v>3.2475249975005026E-2</v>
@@ -24900,7 +24735,7 @@
         <v>2.0025147228943364E-2</v>
       </c>
     </row>
-    <row r="209" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:9">
       <c r="D209" s="3">
         <f t="shared" si="24"/>
         <v>3.2634620456010531E-2</v>
@@ -24926,7 +24761,7 @@
         <v>2.0025021385994338E-2</v>
       </c>
     </row>
-    <row r="210" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:9">
       <c r="D210" s="3">
         <f t="shared" si="24"/>
         <v>3.2793983187312928E-2</v>
@@ -24952,7 +24787,7 @@
         <v>2.0024896794369487E-2</v>
       </c>
     </row>
-    <row r="211" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:9">
       <c r="D211" s="3">
         <f t="shared" si="24"/>
         <v>3.295333822636607E-2</v>
@@ -24978,7 +24813,7 @@
         <v>2.0024773438082753E-2</v>
       </c>
     </row>
-    <row r="212" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:9">
       <c r="D212" s="3">
         <f t="shared" si="24"/>
         <v>3.3112685629917447E-2</v>
@@ -25004,7 +24839,7 @@
         <v>2.0024651297816064E-2</v>
       </c>
     </row>
-    <row r="213" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:9">
       <c r="D213" s="3">
         <f t="shared" si="24"/>
         <v>3.3272025454020186E-2</v>
@@ -25030,7 +24865,7 @@
         <v>2.0024530356208315E-2</v>
       </c>
     </row>
-    <row r="214" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:9">
       <c r="D214" s="3">
         <f t="shared" si="24"/>
         <v>3.3431357754044953E-2</v>
@@ -25056,7 +24891,7 @@
         <v>2.0024410596060128E-2</v>
       </c>
     </row>
-    <row r="215" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:9">
       <c r="D215" s="3">
         <f t="shared" si="24"/>
         <v>3.35906825846915E-2</v>
@@ -25082,7 +24917,7 @@
         <v>2.0024291998428381E-2</v>
       </c>
     </row>
-    <row r="216" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:9">
       <c r="D216" s="3">
         <f t="shared" si="24"/>
         <v>3.3749999999999988E-2</v>
@@ -25108,7 +24943,7 @@
         <v>2.0024174549052972E-2</v>
       </c>
     </row>
-    <row r="217" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:9">
       <c r="D217" s="3">
         <f t="shared" si="24"/>
         <v>3.3909310053362118E-2</v>
@@ -25134,7 +24969,7 @@
         <v>2.0024058228147318E-2</v>
       </c>
     </row>
-    <row r="218" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:9">
       <c r="D218" s="3">
         <f t="shared" si="24"/>
         <v>3.4068612797531879E-2</v>
@@ -25160,7 +24995,7 @@
         <v>2.0023943023556163E-2</v>
       </c>
     </row>
-    <row r="219" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:9">
       <c r="D219" s="3">
         <f t="shared" si="24"/>
         <v>3.4227908284636267E-2</v>
@@ -25186,7 +25021,7 @@
         <v>2.002382891447705E-2</v>
       </c>
     </row>
-    <row r="220" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:9">
       <c r="D220" s="3">
         <f t="shared" si="24"/>
         <v>3.4387196566185586E-2</v>
@@ -25212,7 +25047,7 @@
         <v>2.0023715889778432E-2</v>
       </c>
     </row>
-    <row r="221" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:9">
       <c r="D221" s="3">
         <f t="shared" si="24"/>
         <v>3.4546477693083652E-2</v>
@@ -25238,7 +25073,7 @@
         <v>2.0023603932398243E-2</v>
       </c>
     </row>
-    <row r="222" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:9">
       <c r="D222" s="3">
         <f t="shared" si="24"/>
         <v>3.470575171563773E-2</v>
@@ -25264,7 +25099,7 @@
         <v>2.0023493025691199E-2</v>
       </c>
     </row>
-    <row r="223" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:9">
       <c r="D223" s="3">
         <f t="shared" si="24"/>
         <v>3.4865018683568311E-2</v>
@@ -25290,7 +25125,7 @@
         <v>2.0023383157103822E-2</v>
       </c>
     </row>
-    <row r="224" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:9">
       <c r="D224" s="3">
         <f t="shared" si="24"/>
         <v>3.5024278646018599E-2</v>
@@ -25316,7 +25151,7 @@
         <v>2.0023274310693083E-2</v>
       </c>
     </row>
-    <row r="225" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:9">
       <c r="D225" s="3">
         <f t="shared" si="24"/>
         <v>3.5183531651563855E-2</v>
@@ -25342,7 +25177,7 @@
         <v>2.0023166474865208E-2</v>
       </c>
     </row>
-    <row r="226" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:9">
       <c r="D226" s="3">
         <f t="shared" si="24"/>
         <v>3.534277774822063E-2</v>
@@ -25368,7 +25203,7 @@
         <v>2.0023059630663139E-2</v>
       </c>
     </row>
-    <row r="227" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:9">
       <c r="D227" s="3">
         <f t="shared" si="24"/>
         <v>3.550201698345555E-2</v>
@@ -25394,7 +25229,7 @@
         <v>2.0022953770921729E-2</v>
       </c>
     </row>
-    <row r="228" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:9">
       <c r="D228" s="3">
         <f t="shared" si="24"/>
         <v>3.5661249404194288E-2</v>
@@ -25420,7 +25255,7 @@
         <v>2.00228488760371E-2</v>
       </c>
     </row>
-    <row r="229" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:9">
       <c r="D229" s="3">
         <f t="shared" si="24"/>
         <v>3.5820475056830031E-2</v>
@@ -25446,7 +25281,7 @@
         <v>2.0022744935639939E-2</v>
       </c>
     </row>
-    <row r="230" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:9">
       <c r="D230" s="3">
         <f t="shared" si="24"/>
         <v>3.59796939872319E-2</v>
@@ -25472,7 +25307,7 @@
         <v>2.0022641939036547E-2</v>
       </c>
     </row>
-    <row r="231" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:9">
       <c r="D231" s="3">
         <f t="shared" si="24"/>
         <v>3.6138906240753291E-2</v>
@@ -25498,7 +25333,7 @@
         <v>2.0022539868132037E-2</v>
       </c>
     </row>
-    <row r="232" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:9">
       <c r="D232" s="3">
         <f t="shared" si="24"/>
         <v>3.6298111862239864E-2</v>
@@ -25524,7 +25359,7 @@
         <v>2.0022438715234406E-2</v>
       </c>
     </row>
-    <row r="233" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:9">
       <c r="D233" s="3">
         <f t="shared" si="24"/>
         <v>3.6457310896037522E-2</v>
@@ -25550,7 +25385,7 @@
         <v>2.0022338465398089E-2</v>
       </c>
     </row>
-    <row r="234" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:9">
       <c r="D234" s="3">
         <f t="shared" si="24"/>
         <v>3.6616503386000136E-2</v>
@@ -25576,7 +25411,7 @@
         <v>2.0022239106911727E-2</v>
       </c>
     </row>
-    <row r="235" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:9">
       <c r="D235" s="3">
         <f t="shared" si="24"/>
         <v>3.6775689375497175E-2</v>
@@ -25602,7 +25437,7 @@
         <v>2.0022140630263023E-2</v>
       </c>
     </row>
-    <row r="236" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:9">
       <c r="D236" s="3">
         <f t="shared" si="24"/>
         <v>3.6934868907421176E-2</v>
@@ -25628,7 +25463,7 @@
         <v>2.0022043019094538E-2</v>
       </c>
     </row>
-    <row r="237" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:9">
       <c r="D237" s="3">
         <f t="shared" si="24"/>
         <v>3.7094042024195015E-2</v>
@@ -25654,7 +25489,7 @@
         <v>2.0021946267552201E-2</v>
       </c>
     </row>
-    <row r="238" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:9">
       <c r="D238" s="3">
         <f t="shared" si="24"/>
         <v>3.7253208767779107E-2</v>
@@ -25680,7 +25515,7 @@
         <v>2.0021850359595555E-2</v>
       </c>
     </row>
-    <row r="239" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:9">
       <c r="D239" s="3">
         <f t="shared" si="24"/>
         <v>3.741236917967844E-2</v>
@@ -25706,7 +25541,7 @@
         <v>2.0021755287907537E-2</v>
       </c>
     </row>
-    <row r="240" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:9">
       <c r="D240" s="3">
         <f t="shared" si="24"/>
         <v>3.7571523300949435E-2</v>
@@ -25732,7 +25567,7 @@
         <v>2.0021661038628603E-2</v>
       </c>
     </row>
-    <row r="241" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:9">
       <c r="D241" s="3">
         <f t="shared" si="24"/>
         <v>3.7730671172206721E-2</v>
@@ -25758,7 +25593,7 @@
         <v>2.0021567602906548E-2</v>
       </c>
     </row>
-    <row r="242" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:9">
       <c r="D242" s="3">
         <f t="shared" si="24"/>
         <v>3.788981283362975E-2</v>
@@ -25784,7 +25619,7 @@
         <v>2.0021474970752275E-2</v>
       </c>
     </row>
-    <row r="243" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:9">
       <c r="D243" s="3">
         <f t="shared" si="24"/>
         <v>3.8048948324969356E-2</v>
@@ -25810,7 +25645,7 @@
         <v>2.0021383128639422E-2</v>
       </c>
     </row>
-    <row r="244" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:9">
       <c r="D244" s="3">
         <f t="shared" si="24"/>
         <v>3.8208077685554002E-2</v>
@@ -25836,7 +25671,7 @@
         <v>2.0021292071295181E-2</v>
       </c>
     </row>
-    <row r="245" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:9">
       <c r="D245" s="3">
         <f t="shared" si="24"/>
         <v>3.8367200954296195E-2</v>
@@ -25862,7 +25697,7 @@
         <v>2.0021201783718023E-2</v>
       </c>
     </row>
-    <row r="246" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:9">
       <c r="D246" s="3">
         <f t="shared" si="24"/>
         <v>3.8526318169698467E-2</v>
@@ -25888,7 +25723,7 @@
         <v>2.0021112261928646E-2</v>
       </c>
     </row>
-    <row r="247" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:9">
       <c r="D247" s="3">
         <f t="shared" si="24"/>
         <v>3.8685429369859553E-2</v>
@@ -25914,7 +25749,7 @@
         <v>2.0021023488388967E-2</v>
       </c>
     </row>
-    <row r="248" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:9">
       <c r="D248" s="3">
         <f t="shared" si="24"/>
         <v>3.8844534592480121E-2</v>
@@ -25940,7 +25775,7 @@
         <v>2.0020935462839839E-2</v>
       </c>
     </row>
-    <row r="249" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:9">
       <c r="D249" s="3">
         <f t="shared" si="24"/>
         <v>3.9003633874868722E-2</v>
@@ -25966,7 +25801,7 @@
         <v>2.0020848168127631E-2</v>
       </c>
     </row>
-    <row r="250" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:9">
       <c r="D250" s="3">
         <f t="shared" si="24"/>
         <v>3.9162727253947378E-2</v>
@@ -25992,7 +25827,7 @@
         <v>2.0020761600818556E-2</v>
       </c>
     </row>
-    <row r="251" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:9">
       <c r="D251" s="3">
         <f t="shared" si="24"/>
         <v>3.9321814766257256E-2</v>
@@ -26018,7 +25853,7 @@
         <v>2.0020675746643145E-2</v>
       </c>
     </row>
-    <row r="252" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:9">
       <c r="D252" s="3">
         <f t="shared" si="24"/>
         <v>3.9480896447964028E-2</v>
@@ -26044,7 +25879,7 @@
         <v>2.0020590602084117E-2</v>
       </c>
     </row>
-    <row r="253" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:9">
       <c r="D253" s="3">
         <f t="shared" si="24"/>
         <v>3.9639972334863334E-2</v>
@@ -26070,7 +25905,7 @@
         <v>2.0020506155873967E-2</v>
       </c>
     </row>
-    <row r="254" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:9">
       <c r="D254" s="3">
         <f t="shared" si="24"/>
         <v>3.979904246238606E-2</v>
@@ -26096,7 +25931,7 @@
         <v>2.0020422397377387E-2</v>
       </c>
     </row>
-    <row r="255" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:9">
       <c r="D255" s="3">
         <f t="shared" si="24"/>
         <v>3.9958106865603513E-2</v>
@@ -26122,7 +25957,7 @@
         <v>2.0020339321203947E-2</v>
       </c>
     </row>
-    <row r="256" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:9">
       <c r="D256" s="3">
         <f t="shared" si="24"/>
         <v>4.0117165579232443E-2</v>
@@ -26148,7 +25983,7 @@
         <v>2.0020256919307297E-2</v>
       </c>
     </row>
-    <row r="257" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:9">
       <c r="D257" s="3">
         <f t="shared" si="24"/>
         <v>4.0276218637640145E-2</v>
@@ -26174,7 +26009,7 @@
         <v>2.0020175181960954E-2</v>
       </c>
     </row>
-    <row r="258" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:9">
       <c r="D258" s="3">
         <f t="shared" si="24"/>
         <v>4.0435266074849284E-2</v>
@@ -26200,7 +26035,7 @@
         <v>2.0020094101019136E-2</v>
       </c>
     </row>
-    <row r="259" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:9">
       <c r="D259" s="3">
         <f t="shared" si="24"/>
         <v>4.0594307924542779E-2</v>
@@ -26226,7 +26061,7 @@
         <v>2.0020013669087712E-2</v>
       </c>
     </row>
-    <row r="260" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:9">
       <c r="D260" s="3">
         <f t="shared" si="24"/>
         <v>4.075334422006846E-2</v>
@@ -26252,7 +26087,7 @@
         <v>2.0019933879306822E-2</v>
       </c>
     </row>
-    <row r="261" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:9">
       <c r="D261" s="3">
         <f t="shared" si="24"/>
         <v>4.0912374994443799E-2</v>
@@ -26278,7 +26113,7 @@
         <v>2.0019854721700116E-2</v>
       </c>
     </row>
-    <row r="262" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:9">
       <c r="D262" s="3">
         <f t="shared" si="24"/>
         <v>4.1071400280360375E-2</v>
@@ -26304,7 +26139,7 @@
         <v>2.0019776193013261E-2</v>
       </c>
     </row>
-    <row r="263" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:9">
       <c r="D263" s="3">
         <f t="shared" si="24"/>
         <v>4.123042011018848E-2</v>
@@ -26330,7 +26165,7 @@
         <v>2.0019698279804817E-2</v>
       </c>
     </row>
-    <row r="264" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:9">
       <c r="D264" s="3">
         <f t="shared" si="24"/>
         <v>4.1389434515981399E-2</v>
@@ -26356,7 +26191,7 @@
         <v>2.0019620980983192E-2</v>
       </c>
     </row>
-    <row r="265" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:9">
       <c r="D265" s="3">
         <f t="shared" ref="D265:D328" si="30">$D$2+$D$3*F265+$D$4*F265*F265/2</f>
         <v>4.1548443529479832E-2</v>
@@ -26382,7 +26217,7 @@
         <v>2.0019544284759872E-2</v>
       </c>
     </row>
-    <row r="266" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:9">
       <c r="D266" s="3">
         <f t="shared" si="30"/>
         <v>4.1707447182116109E-2</v>
@@ -26408,7 +26243,7 @@
         <v>2.0019468185286174E-2</v>
       </c>
     </row>
-    <row r="267" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:9">
       <c r="D267" s="3">
         <f t="shared" si="30"/>
         <v>4.186644550501837E-2</v>
@@ -26434,7 +26269,7 @@
         <v>2.0019392678049221E-2</v>
       </c>
     </row>
-    <row r="268" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:9">
       <c r="D268" s="3">
         <f t="shared" si="30"/>
         <v>4.2025438529014657E-2</v>
@@ -26460,7 +26295,7 @@
         <v>2.0019317752393559E-2</v>
       </c>
     </row>
-    <row r="269" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:9">
       <c r="D269" s="3">
         <f t="shared" si="30"/>
         <v>4.2184426284636978E-2</v>
@@ -26486,7 +26321,7 @@
         <v>2.0019243404765234E-2</v>
       </c>
     </row>
-    <row r="270" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:9">
       <c r="D270" s="3">
         <f t="shared" si="30"/>
         <v>4.2343408802125226E-2</v>
@@ -26512,7 +26347,7 @@
         <v>2.0019169627650404E-2</v>
       </c>
     </row>
-    <row r="271" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:9">
       <c r="D271" s="3">
         <f t="shared" si="30"/>
         <v>4.2502386111431159E-2</v>
@@ -26538,7 +26373,7 @@
         <v>2.0019096411623406E-2</v>
       </c>
     </row>
-    <row r="272" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:9">
       <c r="D272" s="3">
         <f t="shared" si="30"/>
         <v>4.2661358242222135E-2</v>
@@ -26564,7 +26399,7 @@
         <v>2.0019023755097166E-2</v>
       </c>
     </row>
-    <row r="273" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:9">
       <c r="D273" s="3">
         <f t="shared" si="30"/>
         <v>4.2820325223884917E-2</v>
@@ -26590,7 +26425,7 @@
         <v>2.0018951649193886E-2</v>
       </c>
     </row>
-    <row r="274" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:9">
       <c r="D274" s="3">
         <f t="shared" si="30"/>
         <v>4.2979287085529422E-2</v>
@@ -26616,7 +26451,7 @@
         <v>2.001888008628918E-2</v>
       </c>
     </row>
-    <row r="275" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:9">
       <c r="D275" s="3">
         <f t="shared" si="30"/>
         <v>4.313824385599227E-2</v>
@@ -26642,7 +26477,7 @@
         <v>2.0018809063496526E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:9">
       <c r="D276" s="3">
         <f t="shared" si="30"/>
         <v>4.3297195563840415E-2</v>
@@ -26668,7 +26503,7 @@
         <v>2.0018738572066E-2</v>
       </c>
     </row>
-    <row r="277" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:9">
       <c r="D277" s="3">
         <f t="shared" si="30"/>
         <v>4.3456142237374693E-2</v>
@@ -26694,7 +26529,7 @@
         <v>2.0018668606625073E-2</v>
       </c>
     </row>
-    <row r="278" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:9">
       <c r="D278" s="3">
         <f t="shared" si="30"/>
         <v>4.361508390463318E-2</v>
@@ -26720,7 +26555,7 @@
         <v>2.0018599163081022E-2</v>
       </c>
     </row>
-    <row r="279" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:9">
       <c r="D279" s="3">
         <f t="shared" si="30"/>
         <v>4.3774020593394691E-2</v>
@@ -26746,7 +26581,7 @@
         <v>2.0018530233615744E-2</v>
       </c>
     </row>
-    <row r="280" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:9">
       <c r="D280" s="3">
         <f t="shared" si="30"/>
         <v>4.3932952331182114E-2</v>
@@ -26772,7 +26607,7 @@
         <v>2.0018461812204128E-2</v>
       </c>
     </row>
-    <row r="281" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:9">
       <c r="D281" s="3">
         <f t="shared" si="30"/>
         <v>4.4091879145265606E-2</v>
@@ -26798,7 +26633,7 @@
         <v>2.0018393896598624E-2</v>
       </c>
     </row>
-    <row r="282" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:9">
       <c r="D282" s="3">
         <f t="shared" si="30"/>
         <v>4.4250801062665962E-2</v>
@@ -26824,7 +26659,7 @@
         <v>2.0018326475699705E-2</v>
       </c>
     </row>
-    <row r="283" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:9">
       <c r="D283" s="3">
         <f t="shared" si="30"/>
         <v>4.4409718110157696E-2</v>
@@ -26850,7 +26685,7 @@
         <v>2.0018259550227225E-2</v>
       </c>
     </row>
-    <row r="284" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:9">
       <c r="D284" s="3">
         <f t="shared" si="30"/>
         <v>4.456863031427221E-2</v>
@@ -26876,7 +26711,7 @@
         <v>2.0018193109879394E-2</v>
       </c>
     </row>
-    <row r="285" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:9">
       <c r="D285" s="3">
         <f t="shared" si="30"/>
         <v>4.4727537701300911E-2</v>
@@ -26902,7 +26737,7 @@
         <v>2.0018127151165396E-2</v>
       </c>
     </row>
-    <row r="286" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:9">
       <c r="D286" s="3">
         <f t="shared" si="30"/>
         <v>4.4886440297298123E-2</v>
@@ -26928,7 +26763,7 @@
         <v>2.00180616716308E-2</v>
       </c>
     </row>
-    <row r="287" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:9">
       <c r="D287" s="3">
         <f t="shared" si="30"/>
         <v>4.5045338128084221E-2</v>
@@ -26954,7 +26789,7 @@
         <v>2.0017996659999291E-2</v>
       </c>
     </row>
-    <row r="288" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:9">
       <c r="D288" s="3">
         <f t="shared" si="30"/>
         <v>4.5204231219248464E-2</v>
@@ -26980,7 +26815,7 @@
         <v>2.0017932115034567E-2</v>
       </c>
     </row>
-    <row r="289" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:9">
       <c r="D289" s="3">
         <f t="shared" si="30"/>
         <v>4.5363119596151837E-2</v>
@@ -27006,7 +26841,7 @@
         <v>2.0017868036630609E-2</v>
       </c>
     </row>
-    <row r="290" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:9">
       <c r="D290" s="3">
         <f t="shared" si="30"/>
         <v>4.5522003283930093E-2</v>
@@ -27032,7 +26867,7 @@
         <v>2.0017804405999196E-2</v>
       </c>
     </row>
-    <row r="291" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:9">
       <c r="D291" s="3">
         <f t="shared" si="30"/>
         <v>4.5680882307496291E-2</v>
@@ -27058,7 +26893,7 @@
         <v>2.0017741232933636E-2</v>
       </c>
     </row>
-    <row r="292" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:9">
       <c r="D292" s="3">
         <f t="shared" si="30"/>
         <v>4.5839756691543686E-2</v>
@@ -27084,7 +26919,7 @@
         <v>2.0017678507645933E-2</v>
       </c>
     </row>
-    <row r="293" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:9">
       <c r="D293" s="3">
         <f t="shared" si="30"/>
         <v>4.5998626460548468E-2</v>
@@ -27110,7 +26945,7 @@
         <v>2.0017616218372652E-2</v>
       </c>
     </row>
-    <row r="294" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:9">
       <c r="D294" s="3">
         <f t="shared" si="30"/>
         <v>4.6157491638772336E-2</v>
@@ -27136,7 +26971,7 @@
         <v>2.0017554370521506E-2</v>
       </c>
     </row>
-    <row r="295" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:9">
       <c r="D295" s="3">
         <f t="shared" si="30"/>
         <v>4.631635225026514E-2</v>
@@ -27162,7 +26997,7 @@
         <v>2.0017492955661301E-2</v>
       </c>
     </row>
-    <row r="296" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:9">
       <c r="D296" s="3">
         <f t="shared" si="30"/>
         <v>4.6475208318867464E-2</v>
@@ -27188,7 +27023,7 @@
         <v>2.0017431969352836E-2</v>
       </c>
     </row>
-    <row r="297" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:9">
       <c r="D297" s="3">
         <f t="shared" si="30"/>
         <v>4.6634059868213264E-2</v>
@@ -27214,7 +27049,7 @@
         <v>2.0017371402900327E-2</v>
       </c>
     </row>
-    <row r="298" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:9">
       <c r="D298" s="3">
         <f t="shared" si="30"/>
         <v>4.6792906921732172E-2</v>
@@ -27240,7 +27075,7 @@
         <v>2.0017311261525422E-2</v>
       </c>
     </row>
-    <row r="299" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:9">
       <c r="D299" s="3">
         <f t="shared" si="30"/>
         <v>4.695174950265215E-2</v>
@@ -27266,7 +27101,7 @@
         <v>2.0017251529266717E-2</v>
       </c>
     </row>
-    <row r="300" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:9">
       <c r="D300" s="3">
         <f t="shared" si="30"/>
         <v>4.7110587634001784E-2</v>
@@ -27292,7 +27127,7 @@
         <v>2.0017192212713999E-2</v>
       </c>
     </row>
-    <row r="301" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:9">
       <c r="D301" s="3">
         <f t="shared" si="30"/>
         <v>4.7269421338612755E-2</v>
@@ -27318,7 +27153,7 @@
         <v>2.0017133300626405E-2</v>
       </c>
     </row>
-    <row r="302" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:9">
       <c r="D302" s="3">
         <f t="shared" si="30"/>
         <v>4.7428250639122115E-2</v>
@@ -27344,7 +27179,7 @@
         <v>2.001707478985601E-2</v>
       </c>
     </row>
-    <row r="303" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:9">
       <c r="D303" s="3">
         <f t="shared" si="30"/>
         <v>4.7587075557974673E-2</v>
@@ -27370,7 +27205,7 @@
         <v>2.0017016679567984E-2</v>
       </c>
     </row>
-    <row r="304" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:9">
       <c r="D304" s="3">
         <f t="shared" si="30"/>
         <v>4.7745896117425204E-2</v>
@@ -27396,7 +27231,7 @@
         <v>2.0016958962126002E-2</v>
       </c>
     </row>
-    <row r="305" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:9">
       <c r="D305" s="3">
         <f t="shared" si="30"/>
         <v>4.7904712339540773E-2</v>
@@ -27422,7 +27257,7 @@
         <v>2.0016901635152046E-2</v>
       </c>
     </row>
-    <row r="306" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:9">
       <c r="D306" s="3">
         <f t="shared" si="30"/>
         <v>4.8063524246202881E-2</v>
@@ -27448,7 +27283,7 @@
         <v>2.0016844693305825E-2</v>
       </c>
     </row>
-    <row r="307" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:9">
       <c r="D307" s="3">
         <f t="shared" si="30"/>
         <v>4.8222331859109631E-2</v>
@@ -27474,7 +27309,7 @@
         <v>2.0016788137347738E-2</v>
       </c>
     </row>
-    <row r="308" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:9">
       <c r="D308" s="3">
         <f t="shared" si="30"/>
         <v>4.838113519977795E-2</v>
@@ -27500,7 +27335,7 @@
         <v>2.0016731955280559E-2</v>
       </c>
     </row>
-    <row r="309" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:9">
       <c r="D309" s="3">
         <f t="shared" si="30"/>
         <v>4.8539934289545617E-2</v>
@@ -27526,7 +27361,7 @@
         <v>2.0016676152076803E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:9">
       <c r="D310" s="3">
         <f t="shared" si="30"/>
         <v>4.8698729149573398E-2</v>
@@ -27552,7 +27387,7 @@
         <v>2.0016620717108052E-2</v>
       </c>
     </row>
-    <row r="311" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:9">
       <c r="D311" s="3">
         <f t="shared" si="30"/>
         <v>4.8857519800847092E-2</v>
@@ -27578,7 +27413,7 @@
         <v>2.0016565649745823E-2</v>
       </c>
     </row>
-    <row r="312" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:9">
       <c r="D312" s="3">
         <f t="shared" si="30"/>
         <v>4.9016306264179507E-2</v>
@@ -27604,7 +27439,7 @@
         <v>2.0016510948482613E-2</v>
       </c>
     </row>
-    <row r="313" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:9">
       <c r="D313" s="3">
         <f t="shared" si="30"/>
         <v>4.9175088560212493E-2</v>
@@ -27630,7 +27465,7 @@
         <v>2.0016456603944226E-2</v>
       </c>
     </row>
-    <row r="314" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:9">
       <c r="D314" s="3">
         <f t="shared" si="30"/>
         <v>4.9333866709418875E-2</v>
@@ -27656,7 +27491,7 @@
         <v>2.0016402618449006E-2</v>
       </c>
     </row>
-    <row r="315" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:9">
       <c r="D315" s="3">
         <f t="shared" si="30"/>
         <v>4.9492640732104416E-2</v>
@@ -27682,7 +27517,7 @@
         <v>2.0016348984063004E-2</v>
       </c>
     </row>
-    <row r="316" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:9">
       <c r="D316" s="3">
         <f t="shared" si="30"/>
         <v>4.965141064840968E-2</v>
@@ -27708,7 +27543,7 @@
         <v>2.0016295701110451E-2</v>
       </c>
     </row>
-    <row r="317" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:9">
       <c r="D317" s="3">
         <f t="shared" si="30"/>
         <v>4.9810176478311929E-2</v>
@@ -27734,7 +27569,7 @@
         <v>2.0016242764510347E-2</v>
       </c>
     </row>
-    <row r="318" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:9">
       <c r="D318" s="3">
         <f t="shared" si="30"/>
         <v>4.9968938241626994E-2</v>
@@ -27760,7 +27595,7 @@
         <v>2.0016190167168362E-2</v>
       </c>
     </row>
-    <row r="319" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:9">
       <c r="D319" s="3">
         <f t="shared" si="30"/>
         <v>5.0127695958011018E-2</v>
@@ -27786,7 +27621,7 @@
         <v>2.0016137915524996E-2</v>
       </c>
     </row>
-    <row r="320" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:9">
       <c r="D320" s="3">
         <f t="shared" si="30"/>
         <v>5.0286449646962363E-2</v>
@@ -27812,7 +27647,7 @@
         <v>2.0016085993560886E-2</v>
       </c>
     </row>
-    <row r="321" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:9">
       <c r="D321" s="3">
         <f t="shared" si="30"/>
         <v>5.0445199327823285E-2</v>
@@ -27838,7 +27673,7 @@
         <v>2.0016034407853579E-2</v>
       </c>
     </row>
-    <row r="322" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:9">
       <c r="D322" s="3">
         <f t="shared" si="30"/>
         <v>5.0603945019781688E-2</v>
@@ -27864,7 +27699,7 @@
         <v>2.0015983153621551E-2</v>
       </c>
     </row>
-    <row r="323" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:9">
       <c r="D323" s="3">
         <f t="shared" si="30"/>
         <v>5.0762686741872912E-2</v>
@@ -27890,7 +27725,7 @@
         <v>2.0015932223394407E-2</v>
       </c>
     </row>
-    <row r="324" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:9">
       <c r="D324" s="3">
         <f t="shared" si="30"/>
         <v>5.09214245129814E-2</v>
@@ -27916,7 +27751,7 @@
         <v>2.0015881614768992E-2</v>
       </c>
     </row>
-    <row r="325" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:9">
       <c r="D325" s="3">
         <f t="shared" si="30"/>
         <v>5.1080158351842257E-2</v>
@@ -27942,7 +27777,7 @@
         <v>2.0015831332748646E-2</v>
       </c>
     </row>
-    <row r="326" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:9">
       <c r="D326" s="3">
         <f t="shared" si="30"/>
         <v>5.1238888277043058E-2</v>
@@ -27968,7 +27803,7 @@
         <v>2.0015781363607481E-2</v>
       </c>
     </row>
-    <row r="327" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:9">
       <c r="D327" s="3">
         <f t="shared" si="30"/>
         <v>5.1397614307025399E-2</v>
@@ -27994,7 +27829,7 @@
         <v>2.0015731708511109E-2</v>
       </c>
     </row>
-    <row r="328" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:9">
       <c r="D328" s="3">
         <f t="shared" si="30"/>
         <v>5.155633646008647E-2</v>
@@ -28020,7 +27855,7 @@
         <v>2.0015682367617183E-2</v>
       </c>
     </row>
-    <row r="329" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:9">
       <c r="D329" s="3">
         <f t="shared" ref="D329:D392" si="36">$D$2+$D$3*F329+$D$4*F329*F329/2</f>
         <v>5.1715054754380645E-2</v>
@@ -28046,7 +27881,7 @@
         <v>2.0015633335149535E-2</v>
       </c>
     </row>
-    <row r="330" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:9">
       <c r="D330" s="3">
         <f t="shared" si="36"/>
         <v>5.1873769207921146E-2</v>
@@ -28072,7 +27907,7 @@
         <v>2.0015584603583433E-2</v>
       </c>
     </row>
-    <row r="331" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:9">
       <c r="D331" s="3">
         <f t="shared" si="36"/>
         <v>5.203247983858135E-2</v>
@@ -28098,7 +27933,7 @@
         <v>2.001553618419601E-2</v>
       </c>
     </row>
-    <row r="332" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:9">
       <c r="D332" s="3">
         <f t="shared" si="36"/>
         <v>5.2191186664096542E-2</v>
@@ -28124,7 +27959,7 @@
         <v>2.0015488053344986E-2</v>
       </c>
     </row>
-    <row r="333" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:9">
       <c r="D333" s="3">
         <f t="shared" si="36"/>
         <v>5.2349889702065264E-2</v>
@@ -28150,7 +27985,7 @@
         <v>2.0015440228704211E-2</v>
       </c>
     </row>
-    <row r="334" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:9">
       <c r="D334" s="3">
         <f t="shared" si="36"/>
         <v>5.2508588969950823E-2</v>
@@ -28176,7 +28011,7 @@
         <v>2.0015392691926134E-2</v>
       </c>
     </row>
-    <row r="335" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:9">
       <c r="D335" s="3">
         <f t="shared" si="36"/>
         <v>5.2667284485082719E-2</v>
@@ -28202,7 +28037,7 @@
         <v>2.0015345454810454E-2</v>
       </c>
     </row>
-    <row r="336" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:9">
       <c r="D336" s="3">
         <f t="shared" si="36"/>
         <v>5.2825976264658112E-2</v>
@@ -28228,7 +28063,7 @@
         <v>2.0015298499924141E-2</v>
       </c>
     </row>
-    <row r="337" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:9">
       <c r="D337" s="3">
         <f t="shared" si="36"/>
         <v>5.298466432574326E-2</v>
@@ -28254,7 +28089,7 @@
         <v>2.0015251830750307E-2</v>
       </c>
     </row>
-    <row r="338" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:9">
       <c r="D338" s="3">
         <f t="shared" si="36"/>
         <v>5.3143348685274754E-2</v>
@@ -28280,7 +28115,7 @@
         <v>2.0015205455975647E-2</v>
       </c>
     </row>
-    <row r="339" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:9">
       <c r="D339" s="3">
         <f t="shared" si="36"/>
         <v>5.3302029360061141E-2</v>
@@ -28306,7 +28141,7 @@
         <v>2.0015159347811725E-2</v>
       </c>
     </row>
-    <row r="340" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:9">
       <c r="D340" s="3">
         <f t="shared" si="36"/>
         <v>5.346070636678403E-2</v>
@@ -28332,7 +28167,7 @@
         <v>2.0015113530241397E-2</v>
       </c>
     </row>
-    <row r="341" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:9">
       <c r="D341" s="3">
         <f t="shared" si="36"/>
         <v>5.3619379721999628E-2</v>
@@ -28358,7 +28193,7 @@
         <v>2.0015067982011095E-2</v>
       </c>
     </row>
-    <row r="342" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:9">
       <c r="D342" s="3">
         <f t="shared" si="36"/>
         <v>5.3778049442139916E-2</v>
@@ -28384,7 +28219,7 @@
         <v>2.0015022708190007E-2</v>
       </c>
     </row>
-    <row r="343" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:9">
       <c r="D343" s="3">
         <f t="shared" si="36"/>
         <v>5.3936715543514008E-2</v>
@@ -28410,7 +28245,7 @@
         <v>2.0014977709273504E-2</v>
       </c>
     </row>
-    <row r="344" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:9">
       <c r="D344" s="3">
         <f t="shared" si="36"/>
         <v>5.4095378042309454E-2</v>
@@ -28436,7 +28271,7 @@
         <v>2.001493297403081E-2</v>
       </c>
     </row>
-    <row r="345" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:9">
       <c r="D345" s="3">
         <f t="shared" si="36"/>
         <v>5.425403695459341E-2</v>
@@ -28462,7 +28297,7 @@
         <v>2.0014888513073353E-2</v>
       </c>
     </row>
-    <row r="346" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:9">
       <c r="D346" s="3">
         <f t="shared" si="36"/>
         <v>5.4412692296314062E-2</v>
@@ -28488,7 +28323,7 @@
         <v>2.0014844306101294E-2</v>
       </c>
     </row>
-    <row r="347" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:9">
       <c r="D347" s="3">
         <f t="shared" si="36"/>
         <v>5.4571344083301651E-2</v>
@@ -28514,7 +28349,7 @@
         <v>2.00148003690893E-2</v>
       </c>
     </row>
-    <row r="348" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:9">
       <c r="D348" s="3">
         <f t="shared" si="36"/>
         <v>5.4729992331269864E-2</v>
@@ -28540,7 +28375,7 @@
         <v>2.0014756684960184E-2</v>
       </c>
     </row>
-    <row r="349" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:9">
       <c r="D349" s="3">
         <f t="shared" si="36"/>
         <v>5.4888637055816883E-2</v>
@@ -28566,7 +28401,7 @@
         <v>2.0014713264971926E-2</v>
       </c>
     </row>
-    <row r="350" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:9">
       <c r="D350" s="3">
         <f t="shared" si="36"/>
         <v>5.5047278272426718E-2</v>
@@ -28592,7 +28427,7 @@
         <v>2.0014670092464232E-2</v>
       </c>
     </row>
-    <row r="351" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:9">
       <c r="D351" s="3">
         <f t="shared" si="36"/>
         <v>5.5205915996470283E-2</v>
@@ -28618,7 +28453,7 @@
         <v>2.0014627175924005E-2</v>
       </c>
     </row>
-    <row r="352" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:9">
       <c r="D352" s="3">
         <f t="shared" si="36"/>
         <v>5.5364550243206495E-2</v>
@@ -28644,7 +28479,7 @@
         <v>2.001458451390891E-2</v>
       </c>
     </row>
-    <row r="353" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:9">
       <c r="D353" s="3">
         <f t="shared" si="36"/>
         <v>5.5523181027783572E-2</v>
@@ -28670,7 +28505,7 @@
         <v>2.0014542093630645E-2</v>
       </c>
     </row>
-    <row r="354" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:9">
       <c r="D354" s="3">
         <f t="shared" si="36"/>
         <v>5.5681808365240053E-2</v>
@@ -28696,7 +28531,7 @@
         <v>2.0014499919203229E-2</v>
       </c>
     </row>
-    <row r="355" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:9">
       <c r="D355" s="3">
         <f t="shared" si="36"/>
         <v>5.5840432270505884E-2</v>
@@ -28722,7 +28557,7 @@
         <v>2.0014457993984609E-2</v>
       </c>
     </row>
-    <row r="356" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:9">
       <c r="D356" s="3">
         <f t="shared" si="36"/>
         <v>5.599905275840357E-2</v>
@@ -28748,7 +28583,7 @@
         <v>2.001441630625406E-2</v>
       </c>
     </row>
-    <row r="357" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:9">
       <c r="D357" s="3">
         <f t="shared" si="36"/>
         <v>5.6157669843649213E-2</v>
@@ -28774,7 +28609,7 @@
         <v>2.0014374861614049E-2</v>
       </c>
     </row>
-    <row r="358" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:9">
       <c r="D358" s="3">
         <f t="shared" si="36"/>
         <v>5.6316283540853641E-2</v>
@@ -28800,7 +28635,7 @@
         <v>2.0014333650520254E-2</v>
       </c>
     </row>
-    <row r="359" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:9">
       <c r="D359" s="3">
         <f t="shared" si="36"/>
         <v>5.6474893864523368E-2</v>
@@ -28826,7 +28661,7 @@
         <v>2.0014292679612616E-2</v>
       </c>
     </row>
-    <row r="360" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:9">
       <c r="D360" s="3">
         <f t="shared" si="36"/>
         <v>5.6633500829061705E-2</v>
@@ -28852,7 +28687,7 @@
         <v>2.0014251937560689E-2</v>
       </c>
     </row>
-    <row r="361" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:9">
       <c r="D361" s="3">
         <f t="shared" si="36"/>
         <v>5.6792104448769774E-2</v>
@@ -28878,7 +28713,7 @@
         <v>2.0014211431845171E-2</v>
       </c>
     </row>
-    <row r="362" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:9">
       <c r="D362" s="3">
         <f t="shared" si="36"/>
         <v>5.6950704737847503E-2</v>
@@ -28904,7 +28739,7 @@
         <v>2.0014171149016161E-2</v>
       </c>
     </row>
-    <row r="363" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:9">
       <c r="D363" s="3">
         <f t="shared" si="36"/>
         <v>5.7109301710394592E-2</v>
@@ -28930,7 +28765,7 @@
         <v>2.0014131103740465E-2</v>
       </c>
     </row>
-    <row r="364" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:9">
       <c r="D364" s="3">
         <f t="shared" si="36"/>
         <v>5.7267895380411576E-2</v>
@@ -28956,7 +28791,7 @@
         <v>2.0014091277321979E-2</v>
       </c>
     </row>
-    <row r="365" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:9">
       <c r="D365" s="3">
         <f t="shared" si="36"/>
         <v>5.7426485761800788E-2</v>
@@ -28982,7 +28817,7 @@
         <v>2.0014051672230783E-2</v>
       </c>
     </row>
-    <row r="366" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:9">
       <c r="D366" s="3">
         <f t="shared" si="36"/>
         <v>5.7585072868367261E-2</v>
@@ -29008,7 +28843,7 @@
         <v>2.0014012294774588E-2</v>
       </c>
     </row>
-    <row r="367" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:9">
       <c r="D367" s="3">
         <f t="shared" si="36"/>
         <v>5.7743656713819688E-2</v>
@@ -29034,7 +28869,7 @@
         <v>2.0013973137230676E-2</v>
       </c>
     </row>
-    <row r="368" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:9">
       <c r="D368" s="3">
         <f t="shared" si="36"/>
         <v>5.790223731177143E-2</v>
@@ -29060,7 +28895,7 @@
         <v>2.0013934195075422E-2</v>
       </c>
     </row>
-    <row r="369" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:9">
       <c r="D369" s="3">
         <f t="shared" si="36"/>
         <v>5.8060814675741389E-2</v>
@@ -29086,7 +28921,7 @@
         <v>2.0013895469602534E-2</v>
       </c>
     </row>
-    <row r="370" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:9">
       <c r="D370" s="3">
         <f t="shared" si="36"/>
         <v>5.8219388819154901E-2</v>
@@ -29112,7 +28947,7 @@
         <v>2.001385696222938E-2</v>
       </c>
     </row>
-    <row r="371" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:9">
       <c r="D371" s="3">
         <f t="shared" si="36"/>
         <v>5.8377959755344676E-2</v>
@@ -29138,7 +28973,7 @@
         <v>2.0013818665890075E-2</v>
       </c>
     </row>
-    <row r="372" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:9">
       <c r="D372" s="3">
         <f t="shared" si="36"/>
         <v>5.8536527497551755E-2</v>
@@ -29164,7 +28999,7 @@
         <v>2.0013780574259919E-2</v>
       </c>
     </row>
-    <row r="373" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:9">
       <c r="D373" s="3">
         <f t="shared" si="36"/>
         <v>5.8695092058926222E-2</v>
@@ -29190,7 +29025,7 @@
         <v>2.0013742703877593E-2</v>
       </c>
     </row>
-    <row r="374" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:9">
       <c r="D374" s="3">
         <f t="shared" si="36"/>
         <v>5.8853653452528229E-2</v>
@@ -29216,7 +29051,7 @@
         <v>2.0013705032425652E-2</v>
       </c>
     </row>
-    <row r="375" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:9">
       <c r="D375" s="3">
         <f t="shared" si="36"/>
         <v>5.9012211691328788E-2</v>
@@ -29242,7 +29077,7 @@
         <v>2.0013667568049901E-2</v>
       </c>
     </row>
-    <row r="376" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:9">
       <c r="D376" s="3">
         <f t="shared" si="36"/>
         <v>5.9170766788210628E-2</v>
@@ -29268,7 +29103,7 @@
         <v>2.00136303099815E-2</v>
       </c>
     </row>
-    <row r="377" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:9">
       <c r="D377" s="3">
         <f t="shared" si="36"/>
         <v>5.9329318755969002E-2</v>
@@ -29294,7 +29129,7 @@
         <v>2.0013593259308814E-2</v>
       </c>
     </row>
-    <row r="378" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:9">
       <c r="D378" s="3">
         <f t="shared" si="36"/>
         <v>5.9487867607312644E-2</v>
@@ -29320,7 +29155,7 @@
         <v>2.0013556395696613E-2</v>
       </c>
     </row>
-    <row r="379" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:9">
       <c r="D379" s="3">
         <f t="shared" si="36"/>
         <v>5.9646413354864404E-2</v>
@@ -29346,7 +29181,7 @@
         <v>2.0013519745316927E-2</v>
       </c>
     </row>
-    <row r="380" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:9">
       <c r="D380" s="3">
         <f t="shared" si="36"/>
         <v>5.9804956011162203E-2</v>
@@ -29372,7 +29207,7 @@
         <v>2.0013483284965414E-2</v>
       </c>
     </row>
-    <row r="381" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:9">
       <c r="D381" s="3">
         <f t="shared" si="36"/>
         <v>5.9963495588659724E-2</v>
@@ -29398,7 +29233,7 @@
         <v>2.0013447024252236E-2</v>
       </c>
     </row>
-    <row r="382" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:9">
       <c r="D382" s="3">
         <f t="shared" si="36"/>
         <v>6.0122032099727309E-2</v>
@@ -29424,7 +29259,7 @@
         <v>2.0013410956532234E-2</v>
       </c>
     </row>
-    <row r="383" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:9">
       <c r="D383" s="3">
         <f t="shared" si="36"/>
         <v>6.0280565556652649E-2</v>
@@ -29450,7 +29285,7 @@
         <v>2.0013375081301243E-2</v>
       </c>
     </row>
-    <row r="384" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:9">
       <c r="D384" s="3">
         <f t="shared" si="36"/>
         <v>6.0439095971641627E-2</v>
@@ -29476,7 +29311,7 @@
         <v>2.0013339396470004E-2</v>
       </c>
     </row>
-    <row r="385" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:9">
       <c r="D385" s="3">
         <f t="shared" si="36"/>
         <v>6.0597623356818967E-2</v>
@@ -29502,7 +29337,7 @@
         <v>2.001330390806141E-2</v>
       </c>
     </row>
-    <row r="386" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:9">
       <c r="D386" s="3">
         <f t="shared" si="36"/>
         <v>6.0756147724229138E-2</v>
@@ -29528,7 +29363,7 @@
         <v>2.0013268598821896E-2</v>
       </c>
     </row>
-    <row r="387" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:9">
       <c r="D387" s="3">
         <f t="shared" si="36"/>
         <v>6.0914669085836995E-2</v>
@@ -29554,7 +29389,7 @@
         <v>2.0013233478922306E-2</v>
       </c>
     </row>
-    <row r="388" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:9">
       <c r="D388" s="3">
         <f t="shared" si="36"/>
         <v>6.1073187453528494E-2</v>
@@ -29580,7 +29415,7 @@
         <v>2.0013198553280521E-2</v>
       </c>
     </row>
-    <row r="389" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:9">
       <c r="D389" s="3">
         <f t="shared" si="36"/>
         <v>6.1231702839111508E-2</v>
@@ -29606,7 +29441,7 @@
         <v>2.0013163801341497E-2</v>
       </c>
     </row>
-    <row r="390" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:9">
       <c r="D390" s="3">
         <f t="shared" si="36"/>
         <v>6.139021525431651E-2</v>
@@ -29632,7 +29467,7 @@
         <v>2.0013129232864156E-2</v>
       </c>
     </row>
-    <row r="391" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:9">
       <c r="D391" s="3">
         <f t="shared" si="36"/>
         <v>6.1548724710797226E-2</v>
@@ -29658,7 +29493,7 @@
         <v>2.0013094850273888E-2</v>
       </c>
     </row>
-    <row r="392" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:9">
       <c r="D392" s="3">
         <f t="shared" si="36"/>
         <v>6.17072312201314E-2</v>
@@ -29684,7 +29519,7 @@
         <v>2.0013060644804924E-2</v>
       </c>
     </row>
-    <row r="393" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:9">
       <c r="D393" s="3">
         <f t="shared" ref="D393:D407" si="42">$D$2+$D$3*F393+$D$4*F393*F393/2</f>
         <v>6.1865734793821472E-2</v>
@@ -29710,7 +29545,7 @@
         <v>2.0013026615264828E-2</v>
       </c>
     </row>
-    <row r="394" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:9">
       <c r="D394" s="3">
         <f t="shared" si="42"/>
         <v>6.2024235443295238E-2</v>
@@ -29736,7 +29571,7 @@
         <v>2.0012992767468436E-2</v>
       </c>
     </row>
-    <row r="395" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:9">
       <c r="D395" s="3">
         <f t="shared" si="42"/>
         <v>6.2182733179906559E-2</v>
@@ -29762,7 +29597,7 @@
         <v>2.0012959090756996E-2</v>
       </c>
     </row>
-    <row r="396" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:9">
       <c r="D396" s="3">
         <f t="shared" si="42"/>
         <v>6.2341228014935961E-2</v>
@@ -29788,7 +29623,7 @@
         <v>2.0012925593663411E-2</v>
       </c>
     </row>
-    <row r="397" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:9">
       <c r="D397" s="3">
         <f t="shared" si="42"/>
         <v>6.249971995959145E-2</v>
@@ -29814,7 +29649,7 @@
         <v>2.0012892260483806E-2</v>
       </c>
     </row>
-    <row r="398" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:9">
       <c r="D398" s="3">
         <f t="shared" si="42"/>
         <v>6.2658209025009001E-2</v>
@@ -29840,7 +29675,7 @@
         <v>2.0012859104043049E-2</v>
       </c>
     </row>
-    <row r="399" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:9">
       <c r="D399" s="3">
         <f t="shared" si="42"/>
         <v>6.2816695222253208E-2</v>
@@ -29866,7 +29701,7 @@
         <v>2.0012826122081058E-2</v>
       </c>
     </row>
-    <row r="400" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:9">
       <c r="D400" s="3">
         <f t="shared" si="42"/>
         <v>6.2975178562318074E-2</v>
@@ -29892,7 +29727,7 @@
         <v>2.0012793302326661E-2</v>
       </c>
     </row>
-    <row r="401" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:9">
       <c r="D401" s="3">
         <f t="shared" si="42"/>
         <v>6.3133659056127528E-2</v>
@@ -29918,7 +29753,7 @@
         <v>2.0012760649599066E-2</v>
       </c>
     </row>
-    <row r="402" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:9">
       <c r="D402" s="3">
         <f t="shared" si="42"/>
         <v>6.329213671453604E-2</v>
@@ -29944,7 +29779,7 @@
         <v>2.0012728166511146E-2</v>
       </c>
     </row>
-    <row r="403" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:9">
       <c r="D403" s="3">
         <f t="shared" si="42"/>
         <v>6.3450611548329233E-2</v>
@@ -29970,7 +29805,7 @@
         <v>2.0012695850955775E-2</v>
       </c>
     </row>
-    <row r="404" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:9">
       <c r="D404" s="3">
         <f t="shared" si="42"/>
         <v>6.3609083568224575E-2</v>
@@ -29996,7 +29831,7 @@
         <v>2.0012663695157595E-2</v>
       </c>
     </row>
-    <row r="405" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:9">
       <c r="D405" s="3">
         <f t="shared" si="42"/>
         <v>6.3767552784871964E-2</v>
@@ -30022,7 +29857,7 @@
         <v>2.0012631695726681E-2</v>
       </c>
     </row>
-    <row r="406" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:9">
       <c r="D406" s="3">
         <f t="shared" si="42"/>
         <v>6.3926019208854198E-2</v>
@@ -30048,7 +29883,7 @@
         <v>2.0012599872041164E-2</v>
       </c>
     </row>
-    <row r="407" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:9">
       <c r="D407" s="3">
         <f t="shared" si="42"/>
         <v>6.4084482850687685E-2</v>
@@ -30082,19 +29917,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4">
       <c r="C4">
         <v>500</v>
       </c>
@@ -30102,7 +29937,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -30110,7 +29945,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="C6">
         <v>1500</v>
       </c>
@@ -30118,7 +29953,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7">
         <v>2000</v>
       </c>
@@ -30126,7 +29961,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8">
         <v>3500</v>
       </c>
@@ -30134,7 +29969,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4">
       <c r="C9">
         <v>5000</v>
       </c>
@@ -30142,7 +29977,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4">
       <c r="C10">
         <v>6000</v>
       </c>
@@ -30150,7 +29985,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4">
       <c r="C11">
         <v>6500</v>
       </c>
@@ -30158,7 +29993,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4">
       <c r="C12">
         <v>7000</v>
       </c>
@@ -30166,7 +30001,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4">
       <c r="C15">
         <v>250</v>
       </c>
@@ -30174,7 +30009,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4">
       <c r="C16">
         <v>500</v>
       </c>
@@ -30182,7 +30017,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17">
         <v>750</v>
       </c>
@@ -30190,7 +30025,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -30198,7 +30033,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19">
         <v>1250</v>
       </c>
@@ -30206,7 +30041,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20">
         <v>1500</v>
       </c>
@@ -30214,7 +30049,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21">
         <v>1750</v>
       </c>
@@ -30222,7 +30057,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22">
         <v>2000</v>
       </c>
@@ -30237,14 +30072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -30254,18 +30089,18 @@
     <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13">
       <c r="J1" s="40"/>
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40856.674126388891</v>
+        <v>40860.934958680555</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
       </c>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13">
       <c r="D2" s="31"/>
       <c r="J2" s="43" t="s">
         <v>45</v>
@@ -30275,14 +30110,14 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40856.674126388891</v>
+        <v>40860.934958680555</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
         <v>36526.5</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13">
       <c r="J3" s="43" t="s">
         <v>46</v>
       </c>
@@ -30299,7 +30134,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13">
       <c r="J4" s="43" t="s">
         <v>47</v>
       </c>
@@ -30315,7 +30150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13">
       <c r="J5" s="43" t="s">
         <v>48</v>
       </c>
@@ -30324,14 +30159,14 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13">
       <c r="J6" s="43" t="s">
         <v>49</v>
       </c>
@@ -30340,14 +30175,14 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13">
       <c r="J7" s="43" t="s">
         <v>50</v>
       </c>
@@ -30356,14 +30191,14 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13">
       <c r="J8" s="43" t="s">
         <v>51</v>
       </c>
@@ -30372,14 +30207,14 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13">
       <c r="J9" s="43" t="s">
         <v>52</v>
       </c>
@@ -30389,14 +30224,14 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455875</v>
+        <v>2455879</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" ht="17.25">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -30423,14 +30258,14 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455875.1741319443</v>
+        <v>2455879.4349537035</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:13" ht="18.75" thickBot="1">
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -30457,13 +30292,13 @@
         <v>2451545</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13">
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13">
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -30474,28 +30309,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="15.75">
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:8" ht="15.75">
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:8" ht="15.75">
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:8" ht="15.75">
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:8" ht="15.75">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:8" ht="15.75">
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:8" ht="15.75">
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:8" ht="15.75">
       <c r="H27" s="33"/>
     </row>
   </sheetData>
@@ -30506,20 +30341,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:J312"/>
   <sheetViews>
     <sheetView topLeftCell="D265" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E275" sqref="E275:J284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -30533,7 +30368,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -30549,7 +30384,7 @@
         <v>1.8849555921538759E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -30563,7 +30398,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -30576,7 +30411,7 @@
         <v>628.31853071795865</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6">
       <c r="C9" t="s">
         <v>60</v>
       </c>
@@ -30589,7 +30424,7 @@
         <v>9.6962736221907204E-4</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6">
       <c r="C10" t="s">
         <v>62</v>
       </c>
@@ -30601,7 +30436,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6">
       <c r="C11" t="s">
         <v>63</v>
       </c>
@@ -30613,7 +30448,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -30624,7 +30459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -30635,7 +30470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -30647,7 +30482,7 @@
         <v>157.07963267948966</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -30659,7 +30494,7 @@
         <v>125.66370614359172</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10">
       <c r="C18" t="s">
         <v>68</v>
       </c>
@@ -30667,7 +30502,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -30683,7 +30518,7 @@
         <v>2.9977029137307184E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10">
       <c r="C20" t="s">
         <v>76</v>
       </c>
@@ -30695,7 +30530,7 @@
         <v>5.995405827461437E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10">
       <c r="F21" t="s">
         <v>74</v>
       </c>
@@ -30712,7 +30547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10">
       <c r="D22">
         <v>1</v>
       </c>
@@ -30741,7 +30576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10">
       <c r="D23">
         <v>2</v>
       </c>
@@ -30770,7 +30605,7 @@
         <v>100.14988424775395</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10">
       <c r="D24">
         <v>3</v>
       </c>
@@ -30799,7 +30634,7 @@
         <v>100.29976310795108</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10">
       <c r="D25">
         <v>4</v>
       </c>
@@ -30828,7 +30663,7 @@
         <v>100.44963119322823</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10">
       <c r="D26">
         <v>5</v>
       </c>
@@ -30857,7 +30692,7 @@
         <v>100.59948311660955</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10">
       <c r="D27">
         <v>6</v>
       </c>
@@ -30886,7 +30721,7 @@
         <v>100.74931349170011</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10">
       <c r="D28">
         <v>7</v>
       </c>
@@ -30915,7 +30750,7 @@
         <v>100.89911693287952</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10">
       <c r="D29">
         <v>8</v>
       </c>
@@ -30944,7 +30779,7 @@
         <v>101.04888805549558</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10">
       <c r="D30">
         <v>9</v>
       </c>
@@ -30973,7 +30808,7 @@
         <v>101.19862147605771</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10">
       <c r="D31">
         <v>10</v>
       </c>
@@ -31002,7 +30837,7 @@
         <v>101.34831181243052</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10">
       <c r="D32">
         <v>11</v>
       </c>
@@ -31031,7 +30866,7 @@
         <v>101.49795368402735</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10">
       <c r="D33">
         <v>12</v>
       </c>
@@ -31060,7 +30895,7 @@
         <v>101.6475417120035</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10">
       <c r="D34">
         <v>13</v>
       </c>
@@ -31089,7 +30924,7 @@
         <v>101.79707051944973</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10">
       <c r="D35">
         <v>14</v>
       </c>
@@ -31118,7 +30953,7 @@
         <v>101.94653473158544</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10">
       <c r="D36">
         <v>15</v>
       </c>
@@ -31147,7 +30982,7 @@
         <v>102.09592897595191</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10">
       <c r="D37">
         <v>16</v>
       </c>
@@ -31176,7 +31011,7 @@
         <v>102.24524788260538</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10">
       <c r="D38">
         <v>17</v>
       </c>
@@ -31205,7 +31040,7 @@
         <v>102.39448608431012</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10">
       <c r="D39">
         <v>18</v>
       </c>
@@ -31234,7 +31069,7 @@
         <v>102.54363821673128</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10">
       <c r="D40">
         <v>19</v>
       </c>
@@ -31263,7 +31098,7 @@
         <v>102.69269891862778</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10">
       <c r="D41">
         <v>20</v>
       </c>
@@ -31292,7 +31127,7 @@
         <v>102.84166283204497</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10">
       <c r="D42">
         <v>21</v>
       </c>
@@ -31321,7 +31156,7 @@
         <v>102.99052460250726</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10">
       <c r="D43">
         <v>22</v>
       </c>
@@ -31350,7 +31185,7 @@
         <v>103.13927887921058</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10">
       <c r="D44">
         <v>23</v>
       </c>
@@ -31379,7 +31214,7 @@
         <v>103.28792031521463</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10">
       <c r="D45">
         <v>24</v>
       </c>
@@ -31408,7 +31243,7 @@
         <v>103.43644356763525</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10">
       <c r="D46">
         <v>25</v>
       </c>
@@ -31437,7 +31272,7 @@
         <v>103.58484329783627</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10">
       <c r="D47">
         <v>26</v>
       </c>
@@ -31466,7 +31301,7 @@
         <v>103.73311417162155</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10">
       <c r="D48">
         <v>27</v>
       </c>
@@ -31495,7 +31330,7 @@
         <v>103.88125085942664</v>
       </c>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10">
       <c r="D49">
         <v>28</v>
       </c>
@@ -31524,7 +31359,7 @@
         <v>104.02924803651041</v>
       </c>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10">
       <c r="D50">
         <v>29</v>
       </c>
@@ -31553,7 +31388,7 @@
         <v>104.17710038314637</v>
       </c>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10">
       <c r="D51">
         <v>30</v>
       </c>
@@ -31582,7 +31417,7 @@
         <v>104.32480258481395</v>
       </c>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10">
       <c r="D52">
         <v>31</v>
       </c>
@@ -31611,7 +31446,7 @@
         <v>104.47234933238953</v>
       </c>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10">
       <c r="D53">
         <v>32</v>
       </c>
@@ -31640,7 +31475,7 @@
         <v>104.61973532233721</v>
       </c>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10">
       <c r="D54">
         <v>33</v>
       </c>
@@ -31669,7 +31504,7 @@
         <v>104.76695525689952</v>
       </c>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10">
       <c r="D55">
         <v>34</v>
       </c>
@@ -31698,7 +31533,7 @@
         <v>104.91400384428781</v>
       </c>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10">
       <c r="D56">
         <v>35</v>
       </c>
@@ -31727,7 +31562,7 @@
         <v>105.06087579887244</v>
       </c>
     </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10">
       <c r="D57">
         <v>36</v>
       </c>
@@ -31756,7 +31591,7 @@
         <v>105.20756584137284</v>
       </c>
     </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10">
       <c r="D58">
         <v>37</v>
       </c>
@@ -31785,7 +31620,7 @@
         <v>105.3540686990472</v>
       </c>
     </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10">
       <c r="D59">
         <v>38</v>
       </c>
@@ -31814,7 +31649,7 @@
         <v>105.50037910588206</v>
       </c>
     </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10">
       <c r="D60">
         <v>39</v>
       </c>
@@ -31843,7 +31678,7 @@
         <v>105.64649180278151</v>
       </c>
     </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10">
       <c r="D61">
         <v>40</v>
       </c>
@@ -31872,7 +31707,7 @@
         <v>105.79240153775635</v>
       </c>
     </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10">
       <c r="D62">
         <v>41</v>
       </c>
@@ -31901,7 +31736,7 @@
         <v>105.93810306611272</v>
       </c>
     </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10">
       <c r="D63">
         <v>42</v>
       </c>
@@ -31930,7 +31765,7 @@
         <v>106.08359115064079</v>
       </c>
     </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10">
       <c r="D64">
         <v>43</v>
       </c>
@@ -31959,7 +31794,7 @@
         <v>106.22886056180283</v>
       </c>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10">
       <c r="D65">
         <v>44</v>
       </c>
@@ -31988,7 +31823,7 @@
         <v>106.37390607792139</v>
       </c>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10">
       <c r="D66">
         <v>45</v>
       </c>
@@ -32017,7 +31852,7 @@
         <v>106.51872248536677</v>
       </c>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10">
       <c r="D67">
         <v>46</v>
       </c>
@@ -32046,7 +31881,7 @@
         <v>106.66330457874457</v>
       </c>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:10">
       <c r="D68">
         <v>47</v>
       </c>
@@ -32075,7 +31910,7 @@
         <v>106.8076471610828</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:10">
       <c r="D69">
         <v>48</v>
       </c>
@@ -32104,7 +31939,7 @@
         <v>106.95174504401858</v>
       </c>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:10">
       <c r="D70">
         <v>49</v>
       </c>
@@ -32133,7 +31968,7 @@
         <v>107.09559304798474</v>
       </c>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:10">
       <c r="D71">
         <v>50</v>
       </c>
@@ -32162,7 +31997,7 @@
         <v>107.23918600239594</v>
       </c>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:10">
       <c r="D72">
         <v>51</v>
       </c>
@@ -32191,7 +32026,7 @@
         <v>107.38251874583452</v>
       </c>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:10">
       <c r="D73">
         <v>52</v>
       </c>
@@ -32220,7 +32055,7 @@
         <v>107.52558612623609</v>
       </c>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:10">
       <c r="D74">
         <v>53</v>
       </c>
@@ -32249,7 +32084,7 @@
         <v>107.66838300107464</v>
       </c>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:10">
       <c r="D75">
         <v>54</v>
       </c>
@@ -32278,7 +32113,7 @@
         <v>107.81090423754745</v>
       </c>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:10">
       <c r="D76">
         <v>55</v>
       </c>
@@ -32307,7 +32142,7 @@
         <v>107.95314471275955</v>
       </c>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:10">
       <c r="D77">
         <v>56</v>
       </c>
@@ -32336,7 +32171,7 @@
         <v>108.09509931390785</v>
       </c>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:10">
       <c r="D78">
         <v>57</v>
       </c>
@@ -32365,7 +32200,7 @@
         <v>108.23676293846501</v>
       </c>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:10">
       <c r="D79">
         <v>58</v>
       </c>
@@ -32394,7 +32229,7 @@
         <v>108.37813049436268</v>
       </c>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:10">
       <c r="D80">
         <v>59</v>
       </c>
@@ -32423,7 +32258,7 @@
         <v>108.51919690017472</v>
       </c>
     </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:10">
       <c r="D81">
         <v>60</v>
       </c>
@@ -32452,7 +32287,7 @@
         <v>108.65995708529974</v>
       </c>
     </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10">
       <c r="D82">
         <v>61</v>
       </c>
@@ -32481,7 +32316,7 @@
         <v>108.80040599014335</v>
       </c>
     </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:10">
       <c r="D83">
         <v>62</v>
       </c>
@@ -32510,7 +32345,7 @@
         <v>108.94053856630012</v>
       </c>
     </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:10">
       <c r="D84">
         <v>63</v>
       </c>
@@ -32539,7 +32374,7 @@
         <v>109.08034977673493</v>
       </c>
     </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:10">
       <c r="D85">
         <v>64</v>
       </c>
@@ -32568,7 +32403,7 @@
         <v>109.21983459596413</v>
       </c>
     </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:10">
       <c r="D86">
         <v>65</v>
       </c>
@@ -32597,7 +32432,7 @@
         <v>109.3589880102361</v>
       </c>
     </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:10">
       <c r="D87">
         <v>66</v>
       </c>
@@ -32626,7 +32461,7 @@
         <v>109.49780501771153</v>
       </c>
     </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:10">
       <c r="D88">
         <v>67</v>
       </c>
@@ -32655,7 +32490,7 @@
         <v>109.63628062864312</v>
       </c>
     </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:10">
       <c r="D89">
         <v>68</v>
       </c>
@@ -32684,7 +32519,7 @@
         <v>109.77440986555506</v>
       </c>
     </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:10">
       <c r="D90">
         <v>69</v>
       </c>
@@ -32713,7 +32548,7 @@
         <v>109.91218776342185</v>
       </c>
     </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:10">
       <c r="D91">
         <v>70</v>
       </c>
@@ -32742,7 +32577,7 @@
         <v>110.04960936984679</v>
       </c>
     </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:10">
       <c r="D92">
         <v>71</v>
       </c>
@@ -32771,7 +32606,7 @@
         <v>110.18666974524002</v>
       </c>
     </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:10">
       <c r="D93">
         <v>72</v>
       </c>
@@ -32800,7 +32635,7 @@
         <v>110.32336396299604</v>
       </c>
     </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:10">
       <c r="D94">
         <v>73</v>
       </c>
@@ -32829,7 +32664,7 @@
         <v>110.45968710967078</v>
       </c>
     </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:10">
       <c r="D95">
         <v>74</v>
       </c>
@@ -32858,7 +32693,7 @@
         <v>110.5956342851583</v>
       </c>
     </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:10">
       <c r="D96">
         <v>75</v>
       </c>
@@ -32887,7 +32722,7 @@
         <v>110.73120060286679</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:10">
       <c r="D97">
         <v>76</v>
       </c>
@@ -32916,7 +32751,7 @@
         <v>110.86638118989435</v>
       </c>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:10">
       <c r="D98">
         <v>77</v>
       </c>
@@ -32945,7 +32780,7 @@
         <v>111.00117118720408</v>
       </c>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:10">
       <c r="D99">
         <v>78</v>
       </c>
@@ -32974,7 +32809,7 @@
         <v>111.13556574979869</v>
       </c>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:10">
       <c r="D100">
         <v>79</v>
       </c>
@@ -33003,7 +32838,7 @@
         <v>111.26956004689477</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:10">
       <c r="D101">
         <v>80</v>
       </c>
@@ -33032,7 +32867,7 @@
         <v>111.40314926209632</v>
       </c>
     </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:10">
       <c r="D102">
         <v>81</v>
       </c>
@@ -33061,7 +32896,7 @@
         <v>111.53632859356796</v>
       </c>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:10">
       <c r="D103">
         <v>82</v>
       </c>
@@ -33090,7 +32925,7 @@
         <v>111.66909325420744</v>
       </c>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:10">
       <c r="D104">
         <v>83</v>
       </c>
@@ -33119,7 +32954,7 @@
         <v>111.80143847181783</v>
       </c>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:10">
       <c r="D105">
         <v>84</v>
       </c>
@@ -33148,7 +32983,7 @@
         <v>111.93335948927893</v>
       </c>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:10">
       <c r="D106">
         <v>85</v>
       </c>
@@ -33177,7 +33012,7 @@
         <v>112.06485156471837</v>
       </c>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:10">
       <c r="D107">
         <v>86</v>
       </c>
@@ -33206,7 +33041,7 @@
         <v>112.19590997168194</v>
       </c>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:10">
       <c r="D108">
         <v>87</v>
       </c>
@@ -33235,7 +33070,7 @@
         <v>112.32652999930363</v>
       </c>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:10">
       <c r="D109">
         <v>88</v>
       </c>
@@ -33264,7 +33099,7 @@
         <v>112.45670695247485</v>
       </c>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:10">
       <c r="D110">
         <v>89</v>
       </c>
@@ -33293,7 +33128,7 @@
         <v>112.58643615201319</v>
       </c>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:10">
       <c r="D111">
         <v>90</v>
       </c>
@@ -33322,7 +33157,7 @@
         <v>112.71571293483069</v>
       </c>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:10">
       <c r="D112">
         <v>91</v>
       </c>
@@ -33351,7 +33186,7 @@
         <v>112.8445326541014</v>
       </c>
     </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:10">
       <c r="D113">
         <v>92</v>
       </c>
@@ -33380,7 +33215,7 @@
         <v>112.97289067942842</v>
       </c>
     </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:10">
       <c r="D114">
         <v>93</v>
       </c>
@@ -33409,7 +33244,7 @@
         <v>113.10078239701032</v>
       </c>
     </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:10">
       <c r="D115">
         <v>94</v>
       </c>
@@ -33438,7 +33273,7 @@
         <v>113.22820320980703</v>
       </c>
     </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:10">
       <c r="D116">
         <v>95</v>
       </c>
@@ -33467,7 +33302,7 @@
         <v>113.35514853770503</v>
       </c>
     </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:10">
       <c r="D117">
         <v>96</v>
       </c>
@@ -33496,7 +33331,7 @@
         <v>113.48161381768203</v>
       </c>
     </row>
-    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:10">
       <c r="D118">
         <v>97</v>
       </c>
@@ -33525,7 +33360,7 @@
         <v>113.60759450397092</v>
       </c>
     </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:10">
       <c r="D119">
         <v>98</v>
       </c>
@@ -33554,7 +33389,7 @@
         <v>113.73308606822322</v>
       </c>
     </row>
-    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:10">
       <c r="D120">
         <v>99</v>
       </c>
@@ -33583,7 +33418,7 @@
         <v>113.85808399967185</v>
       </c>
     </row>
-    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:10">
       <c r="D121">
         <v>100</v>
       </c>
@@ -33612,7 +33447,7 @@
         <v>113.98258380529323</v>
       </c>
     </row>
-    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:10">
       <c r="D122">
         <v>101</v>
       </c>
@@ -33641,7 +33476,7 @@
         <v>114.10658100996882</v>
       </c>
     </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:10">
       <c r="D123">
         <v>102</v>
       </c>
@@ -33670,7 +33505,7 @@
         <v>114.23007115664598</v>
       </c>
     </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:10">
       <c r="D124">
         <v>103</v>
       </c>
@@ -33699,7 +33534,7 @@
         <v>114.35304980649812</v>
       </c>
     </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:10">
       <c r="D125">
         <v>104</v>
       </c>
@@ -33728,7 +33563,7 @@
         <v>114.47551253908431</v>
       </c>
     </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:10">
       <c r="D126">
         <v>105</v>
       </c>
@@ -33757,7 +33592,7 @@
         <v>114.59745495250817</v>
       </c>
     </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:10">
       <c r="D127">
         <v>106</v>
       </c>
@@ -33786,7 +33621,7 @@
         <v>114.71887266357606</v>
       </c>
     </row>
-    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:10">
       <c r="D128">
         <v>107</v>
       </c>
@@ -33815,7 +33650,7 @@
         <v>114.83976130795466</v>
       </c>
     </row>
-    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:10">
       <c r="D129">
         <v>108</v>
       </c>
@@ -33844,7 +33679,7 @@
         <v>114.96011654032782</v>
       </c>
     </row>
-    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:10">
       <c r="D130">
         <v>109</v>
       </c>
@@ -33873,7 +33708,7 @@
         <v>115.07993403455282</v>
       </c>
     </row>
-    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:10">
       <c r="D131">
         <v>110</v>
       </c>
@@ -33902,7 +33737,7 @@
         <v>115.19920948381576</v>
       </c>
     </row>
-    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:10">
       <c r="D132">
         <v>111</v>
       </c>
@@ -33931,7 +33766,7 @@
         <v>115.31793860078646</v>
       </c>
     </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:10">
       <c r="D133">
         <v>112</v>
       </c>
@@ -33960,7 +33795,7 @@
         <v>115.43611711777254</v>
       </c>
     </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:10">
       <c r="D134">
         <v>113</v>
       </c>
@@ -33989,7 +33824,7 @@
         <v>115.55374078687279</v>
       </c>
     </row>
-    <row r="135" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:10">
       <c r="D135">
         <v>114</v>
       </c>
@@ -34018,7 +33853,7 @@
         <v>115.67080538012993</v>
       </c>
     </row>
-    <row r="136" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:10">
       <c r="D136">
         <v>115</v>
       </c>
@@ -34047,7 +33882,7 @@
         <v>115.7873066896825</v>
       </c>
     </row>
-    <row r="137" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:10">
       <c r="D137">
         <v>116</v>
       </c>
@@ -34076,7 +33911,7 @@
         <v>115.90324052791617</v>
       </c>
     </row>
-    <row r="138" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:10">
       <c r="D138">
         <v>117</v>
       </c>
@@ -34105,7 +33940,7 @@
         <v>116.01860272761422</v>
       </c>
     </row>
-    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:10">
       <c r="D139">
         <v>118</v>
       </c>
@@ -34134,7 +33969,7 @@
         <v>116.13338914210742</v>
       </c>
     </row>
-    <row r="140" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:10">
       <c r="D140">
         <v>119</v>
       </c>
@@ -34163,7 +33998,7 @@
         <v>116.24759564542293</v>
       </c>
     </row>
-    <row r="141" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:10">
       <c r="D141">
         <v>120</v>
       </c>
@@ -34192,7 +34027,7 @@
         <v>116.36121813243273</v>
       </c>
     </row>
-    <row r="142" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:10">
       <c r="D142">
         <v>121</v>
       </c>
@@ -34221,7 +34056,7 @@
         <v>116.47425251900115</v>
       </c>
     </row>
-    <row r="143" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:10">
       <c r="D143">
         <v>122</v>
       </c>
@@ -34250,7 +34085,7 @@
         <v>116.58669474213167</v>
       </c>
     </row>
-    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:10">
       <c r="D144">
         <v>123</v>
       </c>
@@ -34279,7 +34114,7 @@
         <v>116.69854076011289</v>
       </c>
     </row>
-    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:10">
       <c r="D145">
         <v>124</v>
       </c>
@@ -34308,7 +34143,7 @@
         <v>116.80978655266397</v>
       </c>
     </row>
-    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:10">
       <c r="D146">
         <v>125</v>
       </c>
@@ -34337,7 +34172,7 @@
         <v>116.92042812107897</v>
       </c>
     </row>
-    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:10">
       <c r="D147">
         <v>126</v>
       </c>
@@ -34366,7 +34201,7 @@
         <v>117.03046148837069</v>
       </c>
     </row>
-    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:10">
       <c r="D148">
         <v>127</v>
       </c>
@@ -34395,7 +34230,7 @@
         <v>117.13988269941358</v>
       </c>
     </row>
-    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:10">
       <c r="D149">
         <v>128</v>
       </c>
@@ -34424,7 +34259,7 @@
         <v>117.24868782108591</v>
       </c>
     </row>
-    <row r="150" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:10">
       <c r="D150">
         <v>129</v>
       </c>
@@ -34453,7 +34288,7 @@
         <v>117.35687294241116</v>
       </c>
     </row>
-    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:10">
       <c r="D151">
         <v>130</v>
       </c>
@@ -34482,7 +34317,7 @@
         <v>117.46443417469857</v>
       </c>
     </row>
-    <row r="152" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:10">
       <c r="D152">
         <v>131</v>
       </c>
@@ -34511,7 +34346,7 @@
         <v>117.57136765168296</v>
       </c>
     </row>
-    <row r="153" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:10">
       <c r="D153">
         <v>132</v>
       </c>
@@ -34540,7 +34375,7 @@
         <v>117.67766952966365</v>
       </c>
     </row>
-    <row r="154" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:10">
       <c r="D154">
         <v>133</v>
       </c>
@@ -34569,7 +34404,7 @@
         <v>117.78333598764267</v>
       </c>
     </row>
-    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:10">
       <c r="D155">
         <v>134</v>
       </c>
@@ -34598,7 +34433,7 @@
         <v>117.88836322746209</v>
       </c>
     </row>
-    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:10">
       <c r="D156">
         <v>135</v>
       </c>
@@ -34627,7 +34462,7 @@
         <v>117.99274747394051</v>
       </c>
     </row>
-    <row r="157" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:10">
       <c r="D157">
         <v>136</v>
       </c>
@@ -34656,7 +34491,7 @@
         <v>118.09648497500882</v>
       </c>
     </row>
-    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:10">
       <c r="D158">
         <v>137</v>
       </c>
@@ -34685,7 +34520,7 @@
         <v>118.199572001845</v>
       </c>
     </row>
-    <row r="159" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:10">
       <c r="D159">
         <v>138</v>
       </c>
@@ -34714,7 +34549,7 @@
         <v>118.30200484900821</v>
       </c>
     </row>
-    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:10">
       <c r="D160">
         <v>139</v>
       </c>
@@ -34743,7 +34578,7 @@
         <v>118.40377983457195</v>
       </c>
     </row>
-    <row r="161" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:10">
       <c r="D161">
         <v>140</v>
       </c>
@@ -34772,7 +34607,7 @@
         <v>118.50489330025641</v>
       </c>
     </row>
-    <row r="162" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:10">
       <c r="D162">
         <v>141</v>
       </c>
@@ -34801,7 +34636,7 @@
         <v>118.60534161155999</v>
       </c>
     </row>
-    <row r="163" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:10">
       <c r="D163">
         <v>142</v>
       </c>
@@ -34830,7 +34665,7 @@
         <v>118.70512115788986</v>
       </c>
     </row>
-    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:10">
       <c r="D164">
         <v>143</v>
       </c>
@@ -34859,7 +34694,7 @@
         <v>118.80422835269188</v>
       </c>
     </row>
-    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:10">
       <c r="D165">
         <v>144</v>
       </c>
@@ -34888,7 +34723,7 @@
         <v>118.90265963357939</v>
       </c>
     </row>
-    <row r="166" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:10">
       <c r="D166">
         <v>145</v>
       </c>
@@ -34917,7 +34752,7 @@
         <v>119.00041146246132</v>
       </c>
     </row>
-    <row r="167" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:10">
       <c r="D167">
         <v>146</v>
       </c>
@@ -34946,7 +34781,7 @@
         <v>119.09748032566935</v>
       </c>
     </row>
-    <row r="168" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:10">
       <c r="D168">
         <v>147</v>
       </c>
@@ -34975,7 +34810,7 @@
         <v>119.19386273408423</v>
       </c>
     </row>
-    <row r="169" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:10">
       <c r="D169">
         <v>148</v>
       </c>
@@ -35004,7 +34839,7 @@
         <v>119.28955522326116</v>
       </c>
     </row>
-    <row r="170" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:10">
       <c r="D170">
         <v>149</v>
       </c>
@@ -35033,7 +34868,7 @@
         <v>119.38455435355436</v>
       </c>
     </row>
-    <row r="171" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:10">
       <c r="D171">
         <v>150</v>
       </c>
@@ -35062,7 +34897,7 @@
         <v>119.47885671024068</v>
       </c>
     </row>
-    <row r="172" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:10">
       <c r="D172">
         <v>151</v>
       </c>
@@ -35091,7 +34926,7 @@
         <v>119.57245890364231</v>
       </c>
     </row>
-    <row r="173" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:10">
       <c r="D173">
         <v>152</v>
       </c>
@@ -35120,7 +34955,7 @@
         <v>119.6653575692487</v>
       </c>
     </row>
-    <row r="174" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:10">
       <c r="D174">
         <v>153</v>
       </c>
@@ -35149,7 +34984,7 @@
         <v>119.75754936783744</v>
       </c>
     </row>
-    <row r="175" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:10">
       <c r="D175">
         <v>154</v>
       </c>
@@ -35178,7 +35013,7 @@
         <v>119.8490309855943</v>
       </c>
     </row>
-    <row r="176" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:10">
       <c r="D176">
         <v>155</v>
       </c>
@@ -35207,7 +35042,7 @@
         <v>119.93979913423235</v>
       </c>
     </row>
-    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:10">
       <c r="D177">
         <v>156</v>
       </c>
@@ -35236,7 +35071,7 @@
         <v>120.02985055111014</v>
       </c>
     </row>
-    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:10">
       <c r="D178">
         <v>157</v>
       </c>
@@ -35265,7 +35100,7 @@
         <v>120.11918199934901</v>
       </c>
     </row>
-    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:10">
       <c r="D179">
         <v>158</v>
       </c>
@@ -35294,7 +35129,7 @@
         <v>120.20779026794941</v>
       </c>
     </row>
-    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:10">
       <c r="D180">
         <v>159</v>
       </c>
@@ -35323,7 +35158,7 @@
         <v>120.29567217190632</v>
       </c>
     </row>
-    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:10">
       <c r="D181">
         <v>160</v>
       </c>
@@ -35352,7 +35187,7 @@
         <v>120.38282455232371</v>
       </c>
     </row>
-    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:10">
       <c r="D182">
         <v>161</v>
       </c>
@@ -35381,7 +35216,7 @@
         <v>120.46924427652819</v>
       </c>
     </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:10">
       <c r="D183">
         <v>162</v>
       </c>
@@ -35410,7 +35245,7 @@
         <v>120.55492823818146</v>
       </c>
     </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:10">
       <c r="D184">
         <v>163</v>
       </c>
@@ -35439,7 +35274,7 @@
         <v>120.6398733573921</v>
       </c>
     </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:10">
       <c r="D185">
         <v>164</v>
       </c>
@@ -35468,7 +35303,7 @@
         <v>120.72407658082621</v>
       </c>
     </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:10">
       <c r="D186">
         <v>165</v>
       </c>
@@ -35497,7 +35332,7 @@
         <v>120.80753488181713</v>
       </c>
     </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:10">
       <c r="D187">
         <v>166</v>
       </c>
@@ -35526,7 +35361,7 @@
         <v>120.89024526047434</v>
       </c>
     </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:10">
       <c r="D188">
         <v>167</v>
       </c>
@@ -35555,7 +35390,7 @@
         <v>120.9722047437912</v>
       </c>
     </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:10">
       <c r="D189">
         <v>168</v>
       </c>
@@ -35584,7 +35419,7 @@
         <v>121.05341038575182</v>
       </c>
     </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:10">
       <c r="D190">
         <v>169</v>
       </c>
@@ -35613,7 +35448,7 @@
         <v>121.133859267437</v>
       </c>
     </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:10">
       <c r="D191">
         <v>170</v>
       </c>
@@ -35642,7 +35477,7 @@
         <v>121.21354849712911</v>
       </c>
     </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:10">
       <c r="D192">
         <v>171</v>
       </c>
@@ -35671,7 +35506,7 @@
         <v>121.29247521041606</v>
       </c>
     </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:10">
       <c r="D193">
         <v>172</v>
       </c>
@@ -35700,7 +35535,7 @@
         <v>121.37063657029424</v>
       </c>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:10">
       <c r="D194">
         <v>173</v>
       </c>
@@ -35729,7 +35564,7 @@
         <v>121.44802976727048</v>
       </c>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:10">
       <c r="D195">
         <v>174</v>
       </c>
@@ -35758,7 +35593,7 @@
         <v>121.5246520194631</v>
       </c>
     </row>
-    <row r="196" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:10">
       <c r="D196">
         <v>175</v>
       </c>
@@ -35787,7 +35622,7 @@
         <v>121.60050057270186</v>
       </c>
     </row>
-    <row r="197" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:10">
       <c r="D197">
         <v>176</v>
       </c>
@@ -35816,7 +35651,7 @@
         <v>121.67557270062692</v>
       </c>
     </row>
-    <row r="198" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:10">
       <c r="D198">
         <v>177</v>
       </c>
@@ -35845,7 +35680,7 @@
         <v>121.7498657047869</v>
       </c>
     </row>
-    <row r="199" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:10">
       <c r="D199">
         <v>178</v>
       </c>
@@ -35874,7 +35709,7 @@
         <v>121.82337691473587</v>
       </c>
     </row>
-    <row r="200" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:10">
       <c r="D200">
         <v>179</v>
       </c>
@@ -35903,7 +35738,7 @@
         <v>121.89610368812933</v>
       </c>
     </row>
-    <row r="201" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:10">
       <c r="D201">
         <v>180</v>
       </c>
@@ -35932,7 +35767,7 @@
         <v>121.96804341081915</v>
       </c>
     </row>
-    <row r="202" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:10">
       <c r="D202">
         <v>181</v>
       </c>
@@ -35961,7 +35796,7 @@
         <v>122.03919349694756</v>
       </c>
     </row>
-    <row r="203" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:10">
       <c r="D203">
         <v>182</v>
       </c>
@@ -35990,7 +35825,7 @@
         <v>122.10955138904018</v>
       </c>
     </row>
-    <row r="204" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:10">
       <c r="D204">
         <v>183</v>
       </c>
@@ -36019,7 +35854,7 @@
         <v>122.17911455809777</v>
       </c>
     </row>
-    <row r="205" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:10">
       <c r="D205">
         <v>184</v>
       </c>
@@ -36048,7 +35883,7 @@
         <v>122.24788050368731</v>
       </c>
     </row>
-    <row r="206" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:10">
       <c r="D206">
         <v>185</v>
       </c>
@@ -36077,7 +35912,7 @@
         <v>122.31584675403178</v>
       </c>
     </row>
-    <row r="207" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:10">
       <c r="D207">
         <v>186</v>
       </c>
@@ -36106,7 +35941,7 @@
         <v>122.38301086609906</v>
       </c>
     </row>
-    <row r="208" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:10">
       <c r="D208">
         <v>187</v>
       </c>
@@ -36135,7 +35970,7 @@
         <v>122.44937042568964</v>
       </c>
     </row>
-    <row r="209" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:10">
       <c r="D209">
         <v>188</v>
       </c>
@@ -36164,7 +35999,7 @@
         <v>122.51492304752357</v>
       </c>
     </row>
-    <row r="210" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:10">
       <c r="D210">
         <v>189</v>
       </c>
@@ -36193,7 +36028,7 @@
         <v>122.57966637532604</v>
       </c>
     </row>
-    <row r="211" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:10">
       <c r="D211">
         <v>190</v>
       </c>
@@ -36222,7 +36057,7 @@
         <v>122.64359808191216</v>
       </c>
     </row>
-    <row r="212" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:10">
       <c r="D212">
         <v>191</v>
       </c>
@@ -36251,7 +36086,7 @@
         <v>122.70671586927058</v>
       </c>
     </row>
-    <row r="213" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:10">
       <c r="D213">
         <v>192</v>
       </c>
@@ -36280,7 +36115,7 @@
         <v>122.76901746864613</v>
       </c>
     </row>
-    <row r="214" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:10">
       <c r="D214">
         <v>193</v>
       </c>
@@ -36309,7 +36144,7 @@
         <v>122.8305006406213</v>
       </c>
     </row>
-    <row r="215" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:10">
       <c r="D215">
         <v>194</v>
       </c>
@@ -36338,7 +36173,7 @@
         <v>122.89116317519678</v>
       </c>
     </row>
-    <row r="216" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:10">
       <c r="D216">
         <v>195</v>
       </c>
@@ -36367,7 +36202,7 @@
         <v>122.95100289187093</v>
       </c>
     </row>
-    <row r="217" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:10">
       <c r="D217">
         <v>196</v>
       </c>
@@ -36396,7 +36231,7 @@
         <v>123.01001763971809</v>
       </c>
     </row>
-    <row r="218" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:10">
       <c r="D218">
         <v>197</v>
       </c>
@@ -36425,7 +36260,7 @@
         <v>123.06820529746592</v>
       </c>
     </row>
-    <row r="219" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:10">
       <c r="D219">
         <v>198</v>
       </c>
@@ -36454,7 +36289,7 @@
         <v>123.1255637735717</v>
       </c>
     </row>
-    <row r="220" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:10">
       <c r="D220">
         <v>199</v>
       </c>
@@ -36483,7 +36318,7 @@
         <v>123.1820910062974</v>
       </c>
     </row>
-    <row r="221" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:10">
       <c r="D221">
         <v>200</v>
       </c>
@@ -36512,7 +36347,7 @@
         <v>123.23778496378389</v>
       </c>
     </row>
-    <row r="222" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:10">
       <c r="D222">
         <v>201</v>
       </c>
@@ -36541,7 +36376,7 @@
         <v>123.29264364412394</v>
       </c>
     </row>
-    <row r="223" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:10">
       <c r="D223">
         <v>202</v>
       </c>
@@ -36570,7 +36405,7 @@
         <v>123.34666507543417</v>
       </c>
     </row>
-    <row r="224" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:10">
       <c r="D224">
         <v>203</v>
       </c>
@@ -36599,7 +36434,7 @@
         <v>123.39984731592594</v>
       </c>
     </row>
-    <row r="225" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:10">
       <c r="D225">
         <v>204</v>
       </c>
@@ -36628,7 +36463,7 @@
         <v>123.45218845397514</v>
       </c>
     </row>
-    <row r="226" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:10">
       <c r="D226">
         <v>205</v>
       </c>
@@ -36657,7 +36492,7 @@
         <v>123.50368660819088</v>
       </c>
     </row>
-    <row r="227" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:10">
       <c r="D227">
         <v>206</v>
       </c>
@@ -36686,7 +36521,7 @@
         <v>123.55433992748317</v>
       </c>
     </row>
-    <row r="228" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:10">
       <c r="D228">
         <v>207</v>
       </c>
@@ -36715,7 +36550,7 @@
         <v>123.60414659112944</v>
       </c>
     </row>
-    <row r="229" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:10">
       <c r="D229">
         <v>208</v>
       </c>
@@ -36744,7 +36579,7 @@
         <v>123.65310480883993</v>
       </c>
     </row>
-    <row r="230" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:10">
       <c r="D230">
         <v>209</v>
       </c>
@@ -36773,7 +36608,7 @@
         <v>123.70121282082212</v>
       </c>
     </row>
-    <row r="231" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:10">
       <c r="D231">
         <v>210</v>
       </c>
@@ -36802,7 +36637,7 @@
         <v>123.74846889784394</v>
       </c>
     </row>
-    <row r="232" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:10">
       <c r="D232">
         <v>211</v>
       </c>
@@ -36831,7 +36666,7 @@
         <v>123.79487134129596</v>
       </c>
     </row>
-    <row r="233" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:10">
       <c r="D233">
         <v>212</v>
       </c>
@@ -36860,7 +36695,7 @@
         <v>123.84041848325236</v>
       </c>
     </row>
-    <row r="234" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:10">
       <c r="D234">
         <v>213</v>
       </c>
@@ -36889,7 +36724,7 @@
         <v>123.88510868653103</v>
       </c>
     </row>
-    <row r="235" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:10">
       <c r="D235">
         <v>214</v>
       </c>
@@ -36918,7 +36753,7 @@
         <v>123.92894034475226</v>
       </c>
     </row>
-    <row r="236" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:10">
       <c r="D236">
         <v>215</v>
       </c>
@@ -36947,7 +36782,7 @@
         <v>123.97191188239663</v>
       </c>
     </row>
-    <row r="237" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:10">
       <c r="D237">
         <v>216</v>
       </c>
@@ -36976,7 +36811,7 @@
         <v>124.01402175486149</v>
       </c>
     </row>
-    <row r="238" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:10">
       <c r="D238">
         <v>217</v>
       </c>
@@ -37005,7 +36840,7 @@
         <v>124.05526844851661</v>
       </c>
     </row>
-    <row r="239" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:10">
       <c r="D239">
         <v>218</v>
       </c>
@@ -37034,7 +36869,7 @@
         <v>124.09565048075855</v>
       </c>
     </row>
-    <row r="240" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:10">
       <c r="D240">
         <v>219</v>
       </c>
@@ -37063,7 +36898,7 @@
         <v>124.13516640006387</v>
       </c>
     </row>
-    <row r="241" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:10">
       <c r="D241">
         <v>220</v>
       </c>
@@ -37092,7 +36927,7 @@
         <v>124.17381478604142</v>
       </c>
     </row>
-    <row r="242" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:10">
       <c r="D242">
         <v>221</v>
       </c>
@@ -37121,7 +36956,7 @@
         <v>124.21159424948335</v>
       </c>
     </row>
-    <row r="243" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:10">
       <c r="D243">
         <v>222</v>
       </c>
@@ -37150,7 +36985,7 @@
         <v>124.24850343241502</v>
       </c>
     </row>
-    <row r="244" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:10">
       <c r="D244">
         <v>223</v>
       </c>
@@ -37179,7 +37014,7 @@
         <v>124.28454100814386</v>
       </c>
     </row>
-    <row r="245" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:10">
       <c r="D245">
         <v>224</v>
       </c>
@@ -37208,7 +37043,7 @@
         <v>124.319705681307</v>
       </c>
     </row>
-    <row r="246" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:10">
       <c r="D246">
         <v>225</v>
       </c>
@@ -37237,7 +37072,7 @@
         <v>124.35399618791789</v>
       </c>
     </row>
-    <row r="247" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:10">
       <c r="D247">
         <v>226</v>
       </c>
@@ -37266,7 +37101,7 @@
         <v>124.38741129541171</v>
       </c>
     </row>
-    <row r="248" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:10">
       <c r="D248">
         <v>227</v>
       </c>
@@ -37295,7 +37130,7 @@
         <v>124.41994980268963</v>
       </c>
     </row>
-    <row r="249" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:10">
       <c r="D249">
         <v>228</v>
       </c>
@@ -37324,7 +37159,7 @@
         <v>124.45161054016208</v>
       </c>
     </row>
-    <row r="250" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:10">
       <c r="D250">
         <v>229</v>
       </c>
@@ -37353,7 +37188,7 @@
         <v>124.48239236979069</v>
       </c>
     </row>
-    <row r="251" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:10">
       <c r="D251">
         <v>230</v>
       </c>
@@ -37382,7 +37217,7 @@
         <v>124.51229418512929</v>
       </c>
     </row>
-    <row r="252" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:10">
       <c r="D252">
         <v>231</v>
       </c>
@@ -37411,7 +37246,7 @@
         <v>124.54131491136357</v>
       </c>
     </row>
-    <row r="253" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:10">
       <c r="D253">
         <v>232</v>
       </c>
@@ -37440,7 +37275,7 @@
         <v>124.56945350534986</v>
       </c>
     </row>
-    <row r="254" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:10">
       <c r="D254">
         <v>233</v>
       </c>
@@ -37469,7 +37304,7 @@
         <v>124.59670895565245</v>
       </c>
     </row>
-    <row r="255" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:10">
       <c r="D255">
         <v>234</v>
       </c>
@@ -37498,7 +37333,7 @@
         <v>124.6230802825801</v>
       </c>
     </row>
-    <row r="256" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:10">
       <c r="D256">
         <v>235</v>
       </c>
@@ -37527,7 +37362,7 @@
         <v>124.64856653822119</v>
       </c>
     </row>
-    <row r="257" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:10">
       <c r="D257">
         <v>236</v>
       </c>
@@ -37556,7 +37391,7 @@
         <v>124.67316680647775</v>
       </c>
     </row>
-    <row r="258" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:10">
       <c r="D258">
         <v>237</v>
       </c>
@@ -37585,7 +37420,7 @@
         <v>124.6968802030985</v>
       </c>
     </row>
-    <row r="259" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:10">
       <c r="D259">
         <v>238</v>
       </c>
@@ -37614,7 +37449,7 @@
         <v>124.71970587571052</v>
       </c>
     </row>
-    <row r="260" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:10">
       <c r="D260">
         <v>239</v>
       </c>
@@ -37643,7 +37478,7 @@
         <v>124.74164300384994</v>
       </c>
     </row>
-    <row r="261" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:10">
       <c r="D261">
         <v>240</v>
       </c>
@@ -37672,7 +37507,7 @@
         <v>124.76269079899147</v>
       </c>
     </row>
-    <row r="262" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:10">
       <c r="D262">
         <v>241</v>
       </c>
@@ -37701,7 +37536,7 @@
         <v>124.78284850457666</v>
       </c>
     </row>
-    <row r="263" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:10">
       <c r="D263">
         <v>242</v>
       </c>
@@ -37730,7 +37565,7 @@
         <v>124.80211539604115</v>
       </c>
     </row>
-    <row r="264" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:10">
       <c r="D264">
         <v>243</v>
       </c>
@@ -37759,7 +37594,7 @@
         <v>124.82049078084069</v>
       </c>
     </row>
-    <row r="265" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:10">
       <c r="D265">
         <v>244</v>
       </c>
@@ -37788,7 +37623,7 @@
         <v>124.83797399847606</v>
       </c>
     </row>
-    <row r="266" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:10">
       <c r="D266">
         <v>245</v>
       </c>
@@ -37817,7 +37652,7 @@
         <v>124.85456442051679</v>
       </c>
     </row>
-    <row r="267" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:10">
       <c r="D267">
         <v>246</v>
       </c>
@@ -37846,7 +37681,7 @@
         <v>124.87026145062377</v>
       </c>
     </row>
-    <row r="268" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:10">
       <c r="D268">
         <v>247</v>
       </c>
@@ -37875,7 +37710,7 @@
         <v>124.88506452457064</v>
       </c>
     </row>
-    <row r="269" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:10">
       <c r="D269">
         <v>248</v>
       </c>
@@ -37904,7 +37739,7 @@
         <v>124.89897311026411</v>
       </c>
     </row>
-    <row r="270" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:10">
       <c r="D270">
         <v>249</v>
       </c>
@@ -37933,7 +37768,7 @@
         <v>124.91198670776308</v>
       </c>
     </row>
-    <row r="271" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:10">
       <c r="D271">
         <v>250</v>
       </c>
@@ -37962,7 +37797,7 @@
         <v>124.92410484929661</v>
       </c>
     </row>
-    <row r="272" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:10">
       <c r="D272">
         <v>251</v>
       </c>
@@ -37991,7 +37826,7 @@
         <v>124.93532709928073</v>
       </c>
     </row>
-    <row r="273" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:10">
       <c r="D273">
         <v>252</v>
       </c>
@@ -38020,7 +37855,7 @@
         <v>124.94565305433409</v>
       </c>
     </row>
-    <row r="274" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:10">
       <c r="D274">
         <v>253</v>
       </c>
@@ -38049,7 +37884,7 @@
         <v>124.95508234329249</v>
       </c>
     </row>
-    <row r="275" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:10">
       <c r="D275">
         <v>254</v>
       </c>
@@ -38078,7 +37913,7 @@
         <v>124.96361462722214</v>
       </c>
     </row>
-    <row r="276" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:10">
       <c r="D276">
         <v>255</v>
       </c>
@@ -38107,7 +37942,7 @@
         <v>124.971249599432</v>
       </c>
     </row>
-    <row r="277" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:10">
       <c r="D277">
         <v>256</v>
       </c>
@@ -38136,7 +37971,7 @@
         <v>124.97798698548461</v>
       </c>
     </row>
-    <row r="278" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:10">
       <c r="D278">
         <v>257</v>
       </c>
@@ -38165,7 +38000,7 @@
         <v>124.98382654320608</v>
       </c>
     </row>
-    <row r="279" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:10">
       <c r="D279">
         <v>258</v>
       </c>
@@ -38194,7 +38029,7 @@
         <v>124.9887680626948</v>
       </c>
     </row>
-    <row r="280" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:10">
       <c r="D280">
         <v>259</v>
       </c>
@@ -38223,7 +38058,7 @@
         <v>124.99281136632891</v>
       </c>
     </row>
-    <row r="281" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:10">
       <c r="D281">
         <v>260</v>
       </c>
@@ -38252,7 +38087,7 @@
         <v>124.99595630877275</v>
       </c>
     </row>
-    <row r="282" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:10">
       <c r="D282">
         <v>261</v>
       </c>
@@ -38281,7 +38116,7 @@
         <v>124.99820277698201</v>
       </c>
     </row>
-    <row r="283" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:10">
       <c r="D283">
         <v>262</v>
       </c>
@@ -38310,7 +38145,7 @@
         <v>124.99955069020791</v>
       </c>
     </row>
-    <row r="284" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:10">
       <c r="E284" s="50">
         <f t="shared" si="32"/>
         <v>89.999999999999503</v>
@@ -38336,7 +38171,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:10">
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -38344,7 +38179,7 @@
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:10">
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -38352,7 +38187,7 @@
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:10">
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -38360,7 +38195,7 @@
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:10">
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -38368,7 +38203,7 @@
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:10">
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -38376,7 +38211,7 @@
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:10">
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -38384,7 +38219,7 @@
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:10">
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -38392,7 +38227,7 @@
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:10">
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -38400,7 +38235,7 @@
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:10">
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -38408,7 +38243,7 @@
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
     </row>
-    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:10">
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -38416,7 +38251,7 @@
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:10">
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -38424,7 +38259,7 @@
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:10">
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -38432,7 +38267,7 @@
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:10">
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -38440,7 +38275,7 @@
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:10">
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -38448,7 +38283,7 @@
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:10">
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -38456,7 +38291,7 @@
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
     </row>
-    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:10">
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -38464,7 +38299,7 @@
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:10">
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -38472,7 +38307,7 @@
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:10">
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
@@ -38480,7 +38315,7 @@
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
     </row>
-    <row r="303" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:10">
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -38488,7 +38323,7 @@
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:10">
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -38496,7 +38331,7 @@
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:10">
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -38504,7 +38339,7 @@
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:10">
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -38512,7 +38347,7 @@
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
     </row>
-    <row r="307" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:10">
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -38520,7 +38355,7 @@
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:10">
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
@@ -38528,7 +38363,7 @@
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:10">
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
@@ -38536,7 +38371,7 @@
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:10">
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
@@ -38544,7 +38379,7 @@
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:10">
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -38552,7 +38387,7 @@
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:10">
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -38567,14 +38402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
@@ -38585,7 +38420,7 @@
     <col min="15" max="15" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="52">
         <v>40000000</v>
       </c>
@@ -38601,7 +38436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -38613,7 +38448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -38625,7 +38460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -38645,7 +38480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -38657,7 +38492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -38675,7 +38510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -38693,7 +38528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -38723,7 +38558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="J12" s="52">
         <f>E$4/$B6</f>
         <v>3333333.3333333335</v>
@@ -38738,7 +38573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="J13" s="52">
         <f>B4/16</f>
         <v>2500000</v>
@@ -38753,7 +38588,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1">
       <c r="F14">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
         <v>2</v>
@@ -38772,7 +38607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15">
         <v>40000000</v>
       </c>
@@ -38814,7 +38649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="D16">
         <f>C15/16</f>
         <v>0.625</v>
@@ -38845,7 +38680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>4000000</v>
       </c>
@@ -38869,7 +38704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="D18">
         <f>C15/1</f>
         <v>10</v>
@@ -38890,7 +38725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="F19">
         <f>$F$14/5</f>
         <v>0.4</v>
@@ -38903,7 +38738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="F20">
         <f>$F$14/6</f>
         <v>0.33333333333333331</v>
@@ -38916,7 +38751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="F21">
         <f>$F$14/7</f>
         <v>0.2857142857142857</v>
@@ -38929,7 +38764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="F22">
         <f>$F$14/8</f>
         <v>0.25</v>
@@ -38942,7 +38777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>1</v>
       </c>
@@ -38957,7 +38792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>4</v>
       </c>
@@ -38972,7 +38807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>16</v>
       </c>
@@ -38987,7 +38822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>64</v>
       </c>
@@ -39002,7 +38837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="J27" s="52">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
@@ -39011,7 +38846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="J28" s="52">
         <f t="shared" si="1"/>
         <v>89285.71428571429</v>
@@ -39020,7 +38855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="J29" s="52">
         <f t="shared" si="1"/>
         <v>78125</v>
@@ -39036,14 +38871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C8:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -39053,7 +38888,7 @@
     <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17">
       <c r="C8">
         <v>7</v>
       </c>
@@ -39061,7 +38896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -39099,7 +38934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17">
       <c r="C11">
         <v>4</v>
       </c>
@@ -39137,7 +38972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17">
       <c r="C12">
         <f>C11*10*365*24*3600</f>
         <v>1261440000</v>
@@ -39187,7 +39022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17">
       <c r="D13">
         <f>D12+C12</f>
         <v>1292976000</v>
@@ -39225,7 +39060,7 @@
         <v>42953307553792</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17">
       <c r="O14" t="str">
         <f>DEC2HEX(O13)</f>
         <v>4E21B147</v>
@@ -39239,7 +39074,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17">
         <v>1970</v>
       </c>
@@ -39248,7 +39083,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18">
         <v>1971</v>
       </c>
@@ -39257,7 +39092,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19">
         <v>1972</v>
       </c>
@@ -39266,7 +39101,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20">
         <v>1973</v>
       </c>
@@ -39275,7 +39110,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21">
         <v>1974</v>
       </c>
@@ -39284,7 +39119,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22">
         <v>1975</v>
       </c>
@@ -39293,7 +39128,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="C23">
         <v>1976</v>
       </c>
@@ -39302,7 +39137,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4">
       <c r="C24">
         <v>1977</v>
       </c>
@@ -39311,7 +39146,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4">
       <c r="C25">
         <v>1978</v>
       </c>
@@ -39320,7 +39155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="C26">
         <v>1979</v>
       </c>
@@ -39329,7 +39164,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4">
       <c r="C27">
         <v>1980</v>
       </c>
@@ -39338,7 +39173,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28">
         <v>1981</v>
       </c>
@@ -39347,7 +39182,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="C29">
         <v>1982</v>
       </c>
@@ -39356,7 +39191,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4">
       <c r="C30">
         <v>1983</v>
       </c>
@@ -39365,7 +39200,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4">
       <c r="C31">
         <v>1984</v>
       </c>
@@ -39374,7 +39209,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4">
       <c r="C32">
         <v>1985</v>
       </c>
@@ -39383,7 +39218,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33">
         <v>1986</v>
       </c>
@@ -39392,7 +39227,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34">
         <v>1987</v>
       </c>
@@ -39401,7 +39236,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35">
         <v>1988</v>
       </c>
@@ -39410,7 +39245,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36">
         <v>1989</v>
       </c>
@@ -39419,7 +39254,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37">
         <v>1990</v>
       </c>
@@ -39428,7 +39263,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38">
         <v>1991</v>
       </c>
@@ -39437,7 +39272,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="C39">
         <v>1992</v>
       </c>
@@ -39446,7 +39281,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="C40">
         <v>1993</v>
       </c>
@@ -39455,7 +39290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="C41">
         <v>1994</v>
       </c>
@@ -39464,7 +39299,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="C42">
         <v>1995</v>
       </c>
@@ -39473,7 +39308,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="C43">
         <v>1996</v>
       </c>
@@ -39482,7 +39317,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="C44">
         <v>1997</v>
       </c>
@@ -39491,7 +39326,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="C45">
         <v>1998</v>
       </c>
@@ -39500,7 +39335,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="C46">
         <v>1999</v>
       </c>
@@ -39509,7 +39344,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="C47">
         <v>2000</v>
       </c>
@@ -39518,7 +39353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="D48">
         <f>SUM(D17:D47)</f>
         <v>11323</v>
@@ -39535,14 +39370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
@@ -39557,7 +39392,7 @@
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="E1" t="s">
         <v>107</v>
       </c>
@@ -39568,7 +39403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2">
         <f>0.0000002</f>
         <v>1.9999999999999999E-7</v>
@@ -39586,7 +39421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="D3" s="64" t="s">
         <v>108</v>
       </c>
@@ -39596,7 +39431,7 @@
       </c>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -39631,7 +39466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <f>B5/$A$2</f>
         <v>375000.00000000099</v>
@@ -39676,7 +39511,7 @@
         <v>4.1666666666666562E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <f t="shared" ref="A6:A14" si="5">B6/$A$2</f>
         <v>3125</v>
@@ -39720,7 +39555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>1250</v>
@@ -39764,7 +39599,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>625</v>
@@ -39808,7 +39643,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>416.66666666666669</v>
@@ -39852,7 +39687,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>312.5</v>
@@ -39896,7 +39731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>250.00000000000003</v>
@@ -39940,7 +39775,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>208.33333333333334</v>
@@ -39984,7 +39819,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>178.57142857142858</v>
@@ -40028,7 +39863,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>156.25</v>
@@ -40072,7 +39907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
@@ -40083,7 +39918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -40100,7 +39935,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
@@ -40108,7 +39943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" s="1" t="s">
         <v>134</v>
       </c>
@@ -40116,7 +39951,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
         <v>138</v>
       </c>
@@ -40124,7 +39959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>137</v>
       </c>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
   <si>
     <t>дни</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>формула для построения таблицы на основаниии таблицы зависимости частоты шагов от момента на валу и массы и габаритов телескопа</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -9989,12 +9998,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="107562112"/>
-        <c:axId val="107563648"/>
+        <c:axId val="74601600"/>
+        <c:axId val="74603136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107562112"/>
+        <c:axId val="74601600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10002,12 +10010,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107563648"/>
+        <c:crossAx val="74603136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107563648"/>
+        <c:axId val="74603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10015,7 +10023,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107562112"/>
+        <c:crossAx val="74601600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10028,7 +10036,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14916,24 +14924,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="107654528"/>
-        <c:axId val="107656320"/>
+        <c:axId val="75013504"/>
+        <c:axId val="75015296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107654528"/>
+        <c:axId val="75013504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107656320"/>
+        <c:crossAx val="75015296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107656320"/>
+        <c:axId val="75015296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14941,7 +14948,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107654528"/>
+        <c:crossAx val="75013504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14954,7 +14961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15074,27 +15081,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="108189952"/>
-        <c:axId val="108474368"/>
+        <c:axId val="75168000"/>
+        <c:axId val="75182080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108189952"/>
+        <c:axId val="75168000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108474368"/>
+        <c:crossAx val="75182080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108474368"/>
+        <c:axId val="75182080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15102,7 +15108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108189952"/>
+        <c:crossAx val="75168000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15115,7 +15121,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15202,13 +15208,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="108516096"/>
-        <c:axId val="108517632"/>
+        <c:axId val="75219712"/>
+        <c:axId val="75221248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108516096"/>
+        <c:axId val="75219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15260,14 +15265,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108517632"/>
+        <c:crossAx val="75221248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108517632"/>
+        <c:axId val="75221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15303,7 +15308,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108516096"/>
+        <c:crossAx val="75219712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15323,7 +15328,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15432,12 +15437,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="108652800"/>
-        <c:axId val="110821376"/>
+        <c:axId val="75618560"/>
+        <c:axId val="75624448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108652800"/>
+        <c:axId val="75618560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15459,12 +15463,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110821376"/>
+        <c:crossAx val="75624448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110821376"/>
+        <c:axId val="75624448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15472,7 +15476,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108652800"/>
+        <c:crossAx val="75618560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15482,7 +15486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15499,10 +15503,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6890326209223892E-2"/>
+          <c:x val="8.6890326209223906E-2"/>
           <c:y val="0.10794049215463787"/>
-          <c:w val="0.88197300337457862"/>
-          <c:h val="0.75905832731607281"/>
+          <c:w val="0.88197300337457873"/>
+          <c:h val="0.75905832731607292"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15601,12 +15605,108 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="110876928"/>
-        <c:axId val="110961024"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист9!$E$9:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист9!$F$9:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.771891077679758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4881810873664332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист9!$E$9:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист9!$G$9:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.771891077679758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4881810873664332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="77908224"/>
+        <c:axId val="79430016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110876928"/>
+        <c:axId val="77908224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15633,19 +15733,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.90812710911136085"/>
+              <c:x val="0.90812710911136063"/>
               <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110961024"/>
+        <c:crossAx val="79430016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110961024"/>
+        <c:axId val="79430016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15675,14 +15775,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.9444444444444475E-3"/>
-              <c:y val="4.4667560659721051E-2"/>
+              <c:x val="6.9444444444444493E-3"/>
+              <c:y val="4.4667560659721064E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110876928"/>
+        <c:crossAx val="77908224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15692,7 +15792,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16284,8 +16384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16293,6 +16393,8 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
@@ -16353,18 +16455,6 @@
       <c r="C7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="56">
@@ -16377,6 +16467,15 @@
       <c r="C8" s="59">
         <v>303.34285714285727</v>
       </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="57">
@@ -16389,6 +16488,18 @@
       <c r="C9" s="60">
         <v>275.27142857142849</v>
       </c>
+      <c r="E9">
+        <f>A9</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f>B9</f>
+        <v>15.771891077679758</v>
+      </c>
+      <c r="G9">
+        <f>E9*G13+H13</f>
+        <v>15.771891077679758</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="57">
@@ -16401,6 +16512,18 @@
       <c r="C10" s="60">
         <v>241.20000000000002</v>
       </c>
+      <c r="E10">
+        <f>A13</f>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f>B13</f>
+        <v>9.4881810873664332</v>
+      </c>
+      <c r="G10">
+        <f>E10*G13+H13</f>
+        <v>9.4881810873664332</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="57">
@@ -16425,6 +16548,12 @@
       <c r="C12" s="60">
         <v>190.8</v>
       </c>
+      <c r="G12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="57">
@@ -16437,6 +16566,22 @@
       <c r="C13" s="60">
         <v>165.6</v>
       </c>
+      <c r="E13">
+        <f>E10-E9</f>
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <f>F10-F9</f>
+        <v>-6.2837099903133247</v>
+      </c>
+      <c r="G13">
+        <f>F13/E13</f>
+        <v>-1.3963799978474054</v>
+      </c>
+      <c r="H13">
+        <f>F9-E9*G13</f>
+        <v>16.47008107660346</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="57">
@@ -16448,6 +16593,14 @@
       </c>
       <c r="C14" s="60">
         <v>144</v>
+      </c>
+      <c r="G14">
+        <f>G13</f>
+        <v>-1.3963799978474054</v>
+      </c>
+      <c r="H14">
+        <f>H13*PI()/180</f>
+        <v>0.2874571428571428</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -16500,7 +16653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -30094,7 +30247,7 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40860.934958680555</v>
+        <v>40890.934665972221</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
@@ -30110,7 +30263,7 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40860.934958680555</v>
+        <v>40890.934665972221</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
@@ -30143,7 +30296,7 @@
       </c>
       <c r="L4" s="34">
         <f ca="1">MONTH(L2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4" s="15">
         <f>MONTH(M2)</f>
@@ -30191,7 +30344,7 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
@@ -30207,7 +30360,7 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
@@ -30224,7 +30377,7 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455879</v>
+        <v>2455910</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
@@ -30258,7 +30411,7 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455879.4349537035</v>
+        <v>2455910.4346643514</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Лист7" sheetId="9" r:id="rId8"/>
     <sheet name="Лист8" sheetId="10" r:id="rId9"/>
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="165">
   <si>
     <t>дни</t>
   </si>
@@ -721,11 +722,77 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>x = y*y</t>
+  </si>
+  <si>
+    <t>V=Adt</t>
+  </si>
+  <si>
+    <t>S=Vdt</t>
+  </si>
+  <si>
+    <t>dt=V/A</t>
+  </si>
+  <si>
+    <t>dt=S/V</t>
+  </si>
+  <si>
+    <t>V=S/dt</t>
+  </si>
+  <si>
+    <t>dt=S/Adt</t>
+  </si>
+  <si>
+    <t>dt=sqrt(S/A)</t>
+  </si>
+  <si>
+    <t>I=((M*R*R/4)+(M*L*L/12))/N</t>
+  </si>
+  <si>
+    <t>M-масса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-радиус </t>
+  </si>
+  <si>
+    <t>L-длинна</t>
+  </si>
+  <si>
+    <t>N-передаточное число</t>
+  </si>
+  <si>
+    <t>K =-0.000349812 * 200 * 180/PI)/I</t>
+  </si>
+  <si>
+    <t>B = 0.79962406 / I</t>
+  </si>
+  <si>
+    <t>A = K * V  + B</t>
+  </si>
+  <si>
+    <t>V = dX/dt</t>
+  </si>
+  <si>
+    <t>dX = PI/(180.0*200.0*16.0)</t>
+  </si>
+  <si>
+    <t>dt = (-V+sqrt(V*V - 2.0 * A* dX))/(A)</t>
+  </si>
+  <si>
+    <t>dt = (-V+sqrt(V*V - 2.0 * (K * V  + B)* dX))/(K * V  + B)</t>
+  </si>
+  <si>
+    <t>A*dt*dt/2 + V*dt + dX = 0</t>
+  </si>
+  <si>
+    <t>(K * V  + B)*dt*dt/2 + V*dt + dX = 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -733,7 +800,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1301,6 +1368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1397,13 +1465,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9998,41 +10077,57 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74601600"/>
-        <c:axId val="74603136"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75187328"/>
+        <c:axId val="75188864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74601600"/>
+        <c:axId val="75187328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74603136"/>
+        <c:crossAx val="75188864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74603136"/>
+        <c:axId val="75188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74601600"/>
+        <c:crossAx val="75187328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -10044,12 +10139,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -14924,40 +15031,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75013504"/>
-        <c:axId val="75015296"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75201536"/>
+        <c:axId val="79655680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75013504"/>
+        <c:axId val="75201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75015296"/>
+        <c:crossAx val="79655680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75015296"/>
+        <c:axId val="79655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75013504"/>
+        <c:crossAx val="75201536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -14969,12 +15092,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -15053,6 +15188,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15080,44 +15216,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75168000"/>
-        <c:axId val="75182080"/>
+        <c:smooth val="0"/>
+        <c:axId val="80246272"/>
+        <c:axId val="80247808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75168000"/>
+        <c:axId val="80246272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75182080"/>
+        <c:crossAx val="80247808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75182080"/>
+        <c:axId val="80247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75168000"/>
+        <c:crossAx val="80246272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15129,12 +15284,24 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15207,16 +15374,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75219712"/>
-        <c:axId val="75221248"/>
+        <c:smooth val="0"/>
+        <c:axId val="80259712"/>
+        <c:axId val="80261504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75219712"/>
+        <c:axId val="80259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -15265,17 +15443,19 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75221248"/>
+        <c:crossAx val="80261504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75221248"/>
+        <c:axId val="80261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15307,8 +15487,10 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75219712"/>
+        <c:crossAx val="80259712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15322,9 +15504,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15336,13 +15520,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15437,18 +15632,71 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75618560"/>
-        <c:axId val="75624448"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист8!$J$16:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист8!$K$16:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.76464285714285696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80865536"/>
+        <c:axId val="80637952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75618560"/>
+        <c:axId val="80865536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln cap="rnd"/>
@@ -15463,26 +15711,30 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75624448"/>
+        <c:crossAx val="80637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75624448"/>
+        <c:axId val="80637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75618560"/>
+        <c:crossAx val="80865536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -15494,7 +15746,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -15511,6 +15773,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15623,6 +15886,8 @@
             <c:trendlineType val="linear"/>
             <c:forward val="5"/>
             <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -15702,14 +15967,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77908224"/>
-        <c:axId val="79430016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82055168"/>
+        <c:axId val="82057088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77908224"/>
+        <c:axId val="82055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -15737,18 +16011,22 @@
               <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79430016"/>
+        <c:crossAx val="82057088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79430016"/>
+        <c:axId val="82057088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -15779,20 +16057,328 @@
               <c:y val="4.4667560659721064E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77908224"/>
+        <c:crossAx val="82055168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$6:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$6:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75232000"/>
+        <c:axId val="76135424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75232000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76135424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76135424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75232000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15932,16 +16518,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15981,6 +16567,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16073,6 +16694,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -16107,6 +16729,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -16282,21 +16905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
@@ -16306,7 +16929,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -16323,7 +16946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>86164.090540000005</v>
       </c>
@@ -16348,8 +16971,8 @@
         <v>9.0540000004693866</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="3" customFormat="1"/>
-    <row r="9" spans="3:8">
+    <row r="7" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>32768</v>
       </c>
@@ -16358,7 +16981,7 @@
         <v>3.0517578125E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>1/D10</f>
         <v>13.333333333333334</v>
@@ -16381,14 +17004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -16397,13 +17020,13 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>126</v>
       </c>
@@ -16413,7 +17036,7 @@
         <v>-24.007348514801858</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -16423,7 +17046,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>107</v>
       </c>
@@ -16431,7 +17054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>106</v>
       </c>
@@ -16439,13 +17062,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="66"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>129</v>
       </c>
@@ -16456,7 +17079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>4.1666666666666562E-3</v>
       </c>
@@ -16477,7 +17100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>0.5</v>
       </c>
@@ -16501,7 +17124,7 @@
         <v>15.771891077679758</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>1.25</v>
       </c>
@@ -16525,7 +17148,7 @@
         <v>9.4881810873664332</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>2.5</v>
       </c>
@@ -16537,7 +17160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>3.75</v>
       </c>
@@ -16555,7 +17178,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>5</v>
       </c>
@@ -16583,7 +17206,7 @@
         <v>16.47008107660346</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>6.25</v>
       </c>
@@ -16603,7 +17226,7 @@
         <v>0.2874571428571428</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>7.5</v>
       </c>
@@ -16615,7 +17238,7 @@
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>8.75</v>
       </c>
@@ -16627,7 +17250,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58">
         <v>10</v>
       </c>
@@ -16649,15 +17272,417 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>D6*D6</f>
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:C36" si="0">D7*D7</f>
+        <v>196</v>
+      </c>
+      <c r="D7">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -16672,25 +17697,25 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="63" t="s">
@@ -16700,13 +17725,13 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="18">
+    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
@@ -16717,7 +17742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -16739,7 +17764,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>25000000</v>
       </c>
@@ -16772,7 +17797,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>4</v>
       </c>
@@ -16795,7 +17820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>77</v>
       </c>
@@ -16807,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>78</v>
       </c>
@@ -16816,13 +17841,13 @@
         <v>7E</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H12">
         <f>0.000001/I7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
@@ -16836,13 +17861,13 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="22" t="s">
         <v>19</v>
       </c>
@@ -16853,7 +17878,7 @@
       <c r="J15" s="21"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
@@ -16891,7 +17916,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -16927,7 +17952,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
@@ -16965,7 +17990,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
@@ -17003,7 +18028,7 @@
         <v>Hz</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
@@ -17041,7 +18066,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="27" t="s">
         <v>24</v>
       </c>
@@ -17079,7 +18104,7 @@
         <v>Ktact</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="27" t="s">
         <v>99</v>
       </c>
@@ -17117,7 +18142,7 @@
         <v>mtact</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
         <v>26</v>
       </c>
@@ -17155,7 +18180,7 @@
         <v>Mcomands</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
@@ -17193,7 +18218,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="15.75" thickBot="1">
+    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
@@ -17225,7 +18250,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1">
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="28" t="s">
         <v>28</v>
       </c>
@@ -17240,7 +18265,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="s">
         <v>14</v>
       </c>
@@ -17278,7 +18303,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
@@ -17314,7 +18339,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
@@ -17352,7 +18377,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
@@ -17390,7 +18415,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75" thickBot="1">
+    <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
@@ -17428,7 +18453,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="27" t="s">
         <v>24</v>
       </c>
@@ -17466,7 +18491,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="27" t="s">
         <v>99</v>
       </c>
@@ -17504,7 +18529,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="27" t="s">
         <v>26</v>
       </c>
@@ -17542,7 +18567,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
@@ -17574,10 +18599,10 @@
         <v>K</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="15.75" thickBot="1">
+    <row r="36" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="3:13" ht="15.75" thickBot="1">
+    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="28" t="s">
         <v>28</v>
       </c>
@@ -17592,7 +18617,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
@@ -17630,7 +18655,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
@@ -17666,7 +18691,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="40" spans="3:13">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
@@ -17704,7 +18729,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
@@ -17742,7 +18767,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="15.75" thickBot="1">
+    <row r="42" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
@@ -17780,7 +18805,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
@@ -17818,7 +18843,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="27" t="s">
         <v>99</v>
       </c>
@@ -17856,7 +18881,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="27" t="s">
         <v>26</v>
       </c>
@@ -17894,7 +18919,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="27" t="s">
         <v>31</v>
       </c>
@@ -17995,14 +19020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M407"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -18014,7 +19039,7 @@
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -18022,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -18030,7 +19055,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
@@ -18038,12 +19063,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -18055,7 +19080,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -18093,7 +19118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -18131,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.2</v>
       </c>
@@ -18175,7 +19200,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.3</v>
       </c>
@@ -18219,7 +19244,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.4</v>
       </c>
@@ -18263,7 +19288,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
@@ -18307,7 +19332,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0.6</v>
       </c>
@@ -18351,7 +19376,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>0.7</v>
       </c>
@@ -18395,7 +19420,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
@@ -18439,7 +19464,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.9</v>
       </c>
@@ -18483,7 +19508,7 @@
         <v>9.9999999999999655E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -18527,7 +19552,7 @@
         <v>1.000000000000008E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -18571,7 +19596,7 @@
         <v>9.9999999999999412E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>1.2</v>
       </c>
@@ -18615,7 +19640,7 @@
         <v>9.9999999999999829E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>1.3</v>
       </c>
@@ -18659,7 +19684,7 @@
         <v>1.0000000000000057E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1.4</v>
       </c>
@@ -18703,7 +19728,7 @@
         <v>1.000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1.5</v>
       </c>
@@ -18747,7 +19772,7 @@
         <v>9.9999999999997452E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1.6</v>
       </c>
@@ -18791,7 +19816,7 @@
         <v>1.0000000000000122E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>1.7</v>
       </c>
@@ -18835,7 +19860,7 @@
         <v>1.0000000000000104E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>1.8</v>
       </c>
@@ -18879,7 +19904,7 @@
         <v>1.0000000000000162E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>1.9</v>
       </c>
@@ -18923,7 +19948,7 @@
         <v>9.999999999999688E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -18967,7 +19992,7 @@
         <v>1.0000000000000023E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>3.4960744879438729E-3</v>
@@ -19008,7 +20033,7 @@
         <v>9.9999999999998614E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>3.6620670770186989E-3</v>
@@ -19049,7 +20074,7 @@
         <v>1.000000000000059E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>3.8278311931459054E-3</v>
@@ -19090,7 +20115,7 @@
         <v>9.9999999999992369E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>3.9933821937865772E-3</v>
@@ -19131,7 +20156,7 @@
         <v>1.0000000000000668E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>4.1587337893224377E-3</v>
@@ -19172,7 +20197,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="33" spans="4:13">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>4.3238982802406454E-3</v>
@@ -19213,7 +20238,7 @@
         <v>1.0000000000000243E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:13">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.4888867521316964E-3</v>
@@ -19254,7 +20279,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="35" spans="4:13">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.6537092373243527E-3</v>
@@ -19295,7 +20320,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>4.8183748498798811E-3</v>
@@ -19336,7 +20361,7 @@
         <v>9.9999999999994885E-3</v>
       </c>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>4.9828918991234421E-3</v>
@@ -19377,7 +20402,7 @@
         <v>1.0000000000001076E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:13">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>5.1472679857416355E-3</v>
@@ -19418,7 +20443,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="39" spans="4:13">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>5.3115100836106759E-3</v>
@@ -19459,7 +20484,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:13">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>5.4756246098625226E-3</v>
@@ -19500,7 +20525,7 @@
         <v>9.99999999999889E-3</v>
       </c>
     </row>
-    <row r="41" spans="4:13">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>5.6396174851915705E-3</v>
@@ -19541,7 +20566,7 @@
         <v>1.0000000000001084E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:13">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>5.8034941860137593E-3</v>
@@ -19582,7 +20607,7 @@
         <v>1.0000000000000208E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:13">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>5.9672597897843004E-3</v>
@@ -19623,7 +20648,7 @@
         <v>9.9999999999988206E-3</v>
       </c>
     </row>
-    <row r="44" spans="4:13">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>6.1309190145398852E-3</v>
@@ -19664,7 +20689,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:13">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>6.2944762535402767E-3</v>
@@ -19705,7 +20730,7 @@
         <v>9.9999999999975022E-3</v>
       </c>
     </row>
-    <row r="46" spans="4:13">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>6.4579356057317882E-3</v>
@@ -19746,7 +20771,7 @@
         <v>1.0000000000002056E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:13">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>6.6213009026325114E-3</v>
@@ -19787,7 +20812,7 @@
         <v>9.999999999998543E-3</v>
       </c>
     </row>
-    <row r="48" spans="4:13">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>6.7845757321399868E-3</v>
@@ -19828,7 +20853,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:13">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>6.9477634596812349E-3</v>
@@ -19869,7 +20894,7 @@
         <v>9.9999999999979619E-3</v>
       </c>
     </row>
-    <row r="50" spans="4:13">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>7.1108672470589886E-3</v>
@@ -19910,7 +20935,7 @@
         <v>1.0000000000002037E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:13">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" s="3">
         <f t="shared" si="0"/>
         <v>7.2738900692936193E-3</v>
@@ -19951,7 +20976,7 @@
         <v>9.9999999999985864E-3</v>
       </c>
     </row>
-    <row r="52" spans="4:13">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D52" s="3">
         <f t="shared" si="0"/>
         <v>7.4368347297152759E-3</v>
@@ -19992,7 +21017,7 @@
         <v>1.000000000000051E-2</v>
       </c>
     </row>
-    <row r="53" spans="4:13">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D53" s="3">
         <f t="shared" si="0"/>
         <v>7.5997038735234647E-3</v>
@@ -20033,7 +21058,7 @@
         <v>1.0000000000000113E-2</v>
       </c>
     </row>
-    <row r="54" spans="4:13">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D54" s="3">
         <f t="shared" si="0"/>
         <v>7.7625000000000038E-3</v>
@@ -20074,7 +21099,7 @@
         <v>1.0000000000001778E-2</v>
       </c>
     </row>
-    <row r="55" spans="4:13">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" s="3">
         <f t="shared" si="0"/>
         <v>7.9252254735354133E-3</v>
@@ -20115,7 +21140,7 @@
         <v>9.9999999999960693E-3</v>
       </c>
     </row>
-    <row r="56" spans="4:13">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56" s="3">
         <f t="shared" si="0"/>
         <v>8.0878825336065663E-3</v>
@@ -20156,7 +21181,7 @@
         <v>1.0000000000003166E-2</v>
       </c>
     </row>
-    <row r="57" spans="4:13">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>8.2504733038250462E-3</v>
@@ -20197,7 +21222,7 @@
         <v>9.9999999999986367E-3</v>
       </c>
     </row>
-    <row r="58" spans="4:13">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>8.4129998001598455E-3</v>
@@ -20238,7 +21263,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:13">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>8.5754639384246663E-3</v>
@@ -20279,7 +21304,7 @@
         <v>9.9999999999975456E-3</v>
       </c>
     </row>
-    <row r="60" spans="4:13">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>8.7378675411086577E-3</v>
@@ -20320,7 +21345,7 @@
         <v>1.0000000000005367E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:13">
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="3">
         <f t="shared" si="0"/>
         <v>8.9002123436195662E-3</v>
@@ -20361,7 +21386,7 @@
         <v>9.9999999999952557E-3</v>
       </c>
     </row>
-    <row r="62" spans="4:13">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" s="3">
         <f t="shared" si="0"/>
         <v>9.0625000000000046E-3</v>
@@ -20402,7 +21427,7 @@
         <v>9.9999999999996082E-3</v>
       </c>
     </row>
-    <row r="63" spans="4:13">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" s="3">
         <f t="shared" si="0"/>
         <v>9.2247320881701008E-3</v>
@@ -20443,7 +21468,7 @@
         <v>1.0000000000003791E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:13">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" s="3">
         <f t="shared" si="0"/>
         <v>9.386910114743692E-3</v>
@@ -20484,7 +21509,7 @@
         <v>9.9999999999962272E-3</v>
       </c>
     </row>
-    <row r="65" spans="4:13">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" s="3">
         <f t="shared" si="0"/>
         <v>9.5490355194596567E-3</v>
@@ -20525,7 +21550,7 @@
         <v>1.0000000000004882E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:13">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="3">
         <f t="shared" si="0"/>
         <v>9.7111096792653791E-3</v>
@@ -20566,7 +21591,7 @@
         <v>9.9999999999957415E-3</v>
       </c>
     </row>
-    <row r="67" spans="4:13">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="3">
         <f t="shared" si="0"/>
         <v>9.8731339120850647E-3</v>
@@ -20607,7 +21632,7 @@
         <v>9.9999999999991224E-3</v>
       </c>
     </row>
-    <row r="68" spans="4:13">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="3">
         <f t="shared" si="0"/>
         <v>1.0035109480302241E-2</v>
@@ -20648,7 +21673,7 @@
         <v>1.0000000000004276E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:13">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="3">
         <f t="shared" si="0"/>
         <v>1.0197037593982409E-2</v>
@@ -20689,7 +21714,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="70" spans="4:13">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="3">
         <f t="shared" si="0"/>
         <v>1.035891941385921E-2</v>
@@ -20730,7 +21755,7 @@
         <v>1.000000000000169E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:13">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="3">
         <f t="shared" si="0"/>
         <v>1.0520756054104954E-2</v>
@@ -20771,7 +21796,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="72" spans="4:13">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="3">
         <f t="shared" si="0"/>
         <v>1.068254858490425E-2</v>
@@ -20812,7 +21837,7 @@
         <v>1.0000000000001482E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:13">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="3">
         <f t="shared" ref="D73:D136" si="9">$D$2+$D$3*F73+$D$4*F73*F73/2</f>
         <v>1.0844298034847591E-2</v>
@@ -20853,7 +21878,7 @@
         <v>1.0000000000004762E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:13">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="3">
         <f t="shared" si="9"/>
         <v>1.1006005393159999E-2</v>
@@ -20894,7 +21919,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="75" spans="4:13">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="3">
         <f t="shared" si="9"/>
         <v>1.1167671611778517E-2</v>
@@ -20935,7 +21960,7 @@
         <v>9.9999999999984285E-3</v>
       </c>
     </row>
-    <row r="76" spans="4:13">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="3">
         <f t="shared" si="9"/>
         <v>1.1329297607290748E-2</v>
@@ -20976,7 +22001,7 @@
         <v>1.0000000000002264E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:13">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="3">
         <f t="shared" si="9"/>
         <v>1.1490884262745762E-2</v>
@@ -21017,7 +22042,7 @@
         <v>9.9999999999953754E-3</v>
       </c>
     </row>
-    <row r="78" spans="4:13">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="3">
         <f t="shared" si="9"/>
         <v>1.1652432429347447E-2</v>
@@ -21058,7 +22083,7 @@
         <v>1.0000000000002403E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:13">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="3">
         <f t="shared" si="9"/>
         <v>1.181394292803945E-2</v>
@@ -21099,7 +22124,7 @@
         <v>9.9999999999961578E-3</v>
       </c>
     </row>
-    <row r="80" spans="4:13">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="3">
         <f t="shared" si="9"/>
         <v>1.197541655099019E-2</v>
@@ -21140,7 +22165,7 @@
         <v>1.0000000000009114E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:13">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="3">
         <f t="shared" si="9"/>
         <v>1.2136854062985376E-2</v>
@@ -21181,7 +22206,7 @@
         <v>9.9999999999888026E-3</v>
       </c>
     </row>
-    <row r="82" spans="4:13">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="3">
         <f t="shared" si="9"/>
         <v>1.2298256202735156E-2</v>
@@ -21222,7 +22247,7 @@
         <v>1.0000000000014388E-2</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="3">
         <f t="shared" si="9"/>
         <v>1.2459623684102028E-2</v>
@@ -21263,7 +22288,7 @@
         <v>9.9999999999889413E-3</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="3">
         <f t="shared" si="9"/>
         <v>1.2620957197255471E-2</v>
@@ -21304,7 +22329,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="85" spans="4:13">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="3">
         <f t="shared" si="9"/>
         <v>1.2782257409758441E-2</v>
@@ -21345,7 +22370,7 @@
         <v>9.999999999991906E-3</v>
       </c>
     </row>
-    <row r="86" spans="4:13">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86" s="3">
         <f t="shared" si="9"/>
         <v>1.294352496759067E-2</v>
@@ -21386,7 +22411,7 @@
         <v>1.0000000000005872E-2</v>
       </c>
     </row>
-    <row r="87" spans="4:13">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87" s="3">
         <f t="shared" si="9"/>
         <v>1.3104760496113128E-2</v>
@@ -21427,7 +22452,7 @@
         <v>1.0000000000002869E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:13">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88" s="3">
         <f t="shared" si="9"/>
         <v>1.3265964600977825E-2</v>
@@ -21468,7 +22493,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:13">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89" s="3">
         <f t="shared" si="9"/>
         <v>1.3427137868986583E-2</v>
@@ -21509,7 +22534,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="90" spans="4:13">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90" s="3">
         <f t="shared" si="9"/>
         <v>1.3588280868902356E-2</v>
@@ -21550,7 +22575,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="91" spans="4:13">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91" s="3">
         <f t="shared" si="9"/>
         <v>1.3749394152216109E-2</v>
@@ -21591,7 +22616,7 @@
         <v>1.0000000000000561E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:13">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92" s="3">
         <f t="shared" si="9"/>
         <v>1.3910478253872373E-2</v>
@@ -21632,7 +22657,7 @@
         <v>1.0000000000013921E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:13">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93" s="3">
         <f t="shared" si="9"/>
         <v>1.4071533692956025E-2</v>
@@ -21673,7 +22698,7 @@
         <v>9.9999999999878311E-3</v>
       </c>
     </row>
-    <row r="94" spans="4:13">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94" s="3">
         <f t="shared" si="9"/>
         <v>1.4232560973342842E-2</v>
@@ -21714,7 +22739,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="95" spans="4:13">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95" s="3">
         <f t="shared" si="9"/>
         <v>1.4393560584316189E-2</v>
@@ -21755,7 +22780,7 @@
         <v>1.0000000000004484E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:13">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96" s="3">
         <f t="shared" si="9"/>
         <v>1.455453300115186E-2</v>
@@ -21796,7 +22821,7 @@
         <v>9.9999999999941767E-3</v>
       </c>
     </row>
-    <row r="97" spans="4:13">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" s="3">
         <f t="shared" si="9"/>
         <v>1.4715478685673185E-2</v>
@@ -21837,7 +22862,7 @@
         <v>1.0000000000014754E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:13">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98" s="3">
         <f t="shared" si="9"/>
         <v>1.4876398086778132E-2</v>
@@ -21878,7 +22903,7 @@
         <v>9.99999999998228E-3</v>
       </c>
     </row>
-    <row r="99" spans="4:13">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99" s="3">
         <f t="shared" si="9"/>
         <v>1.5037291640940156E-2</v>
@@ -21919,7 +22944,7 @@
         <v>1.0000000000010036E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:13">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100" s="3">
         <f t="shared" si="9"/>
         <v>1.5198159772684378E-2</v>
@@ -21960,7 +22985,7 @@
         <v>9.9999999999990721E-3</v>
       </c>
     </row>
-    <row r="101" spans="4:13">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D101" s="3">
         <f t="shared" si="9"/>
         <v>1.5359002895040531E-2</v>
@@ -22001,7 +23026,7 @@
         <v>9.9999999999987564E-3</v>
       </c>
     </row>
-    <row r="102" spans="4:13">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102" s="3">
         <f t="shared" si="9"/>
         <v>1.551982140997412E-2</v>
@@ -22042,7 +23067,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="103" spans="4:13">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103" s="3">
         <f t="shared" si="9"/>
         <v>1.5680615708796919E-2</v>
@@ -22083,7 +23108,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="104" spans="4:13">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104" s="3">
         <f t="shared" si="9"/>
         <v>1.5841386172558179E-2</v>
@@ -22124,7 +23149,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:13">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" s="3">
         <f t="shared" si="9"/>
         <v>1.6002133172417523E-2</v>
@@ -22165,7 +23190,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106" s="3">
         <f t="shared" si="9"/>
         <v>1.6162857070000588E-2</v>
@@ -22206,7 +23231,7 @@
         <v>1.0000000000003475E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107" s="3">
         <f t="shared" si="9"/>
         <v>1.6323558217738395E-2</v>
@@ -22247,7 +23272,7 @@
         <v>1.0000000000005317E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108" s="3">
         <f t="shared" si="9"/>
         <v>1.6484236959191378E-2</v>
@@ -22288,7 +23313,7 @@
         <v>9.999999999993521E-3</v>
       </c>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109" s="3">
         <f t="shared" si="9"/>
         <v>1.6644893629358816E-2</v>
@@ -22314,7 +23339,7 @@
         <v>2.0050086084783047E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D110" s="3">
         <f t="shared" si="9"/>
         <v>1.6805528554974598E-2</v>
@@ -22340,7 +23365,7 @@
         <v>2.0049589328303915E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111" s="3">
         <f t="shared" si="9"/>
         <v>1.6966142054789891E-2</v>
@@ -22366,7 +23391,7 @@
         <v>2.0049102329354127E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112" s="3">
         <f t="shared" si="9"/>
         <v>1.7126734439843576E-2</v>
@@ -22392,7 +23417,7 @@
         <v>2.0048624802885179E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:9">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="3">
         <f t="shared" si="9"/>
         <v>1.7287306013721013E-2</v>
@@ -22418,7 +23443,7 @@
         <v>2.0048156474293862E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:9">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="3">
         <f t="shared" si="9"/>
         <v>1.7447857072801668E-2</v>
@@ -22444,7 +23469,7 @@
         <v>2.0047697081960775E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:9">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="3">
         <f t="shared" si="9"/>
         <v>1.760838790649635E-2</v>
@@ -22470,7 +23495,7 @@
         <v>2.004724637173631E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:9">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="3">
         <f t="shared" si="9"/>
         <v>1.776889879747446E-2</v>
@@ -22496,7 +23521,7 @@
         <v>2.0046804099856978E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:9">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="3">
         <f t="shared" si="9"/>
         <v>1.7929390021881847E-2</v>
@@ -22522,7 +23547,7 @@
         <v>2.0046370030705054E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:9">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="3">
         <f t="shared" si="9"/>
         <v>1.8089861849549579E-2</v>
@@ -22548,7 +23573,7 @@
         <v>2.0045943940032375E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:9">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="3">
         <f t="shared" si="9"/>
         <v>1.8250314544194346E-2</v>
@@ -22574,7 +23599,7 @@
         <v>2.0045525607998303E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:9">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="3">
         <f t="shared" si="9"/>
         <v>1.841074836361066E-2</v>
@@ -22600,7 +23625,7 @@
         <v>2.0045114825960924E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:9">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="3">
         <f t="shared" si="9"/>
         <v>1.8571163559855386E-2</v>
@@ -22626,7 +23651,7 @@
         <v>2.0044711390572102E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:9">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="3">
         <f t="shared" si="9"/>
         <v>1.8731560379424972E-2</v>
@@ -22652,7 +23677,7 @@
         <v>2.0044315106642122E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:9">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="3">
         <f t="shared" si="9"/>
         <v>1.8891939063425657E-2</v>
@@ -22678,7 +23703,7 @@
         <v>2.0043925785706799E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:9">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="3">
         <f t="shared" si="9"/>
         <v>1.9052299847737052E-2</v>
@@ -22704,7 +23729,7 @@
         <v>2.0043543246257026E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:9">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="3">
         <f t="shared" si="9"/>
         <v>1.9212642963169442E-2</v>
@@ -22730,7 +23755,7 @@
         <v>2.0043167311567713E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:9">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D126" s="3">
         <f t="shared" si="9"/>
         <v>1.9372968635614937E-2</v>
@@ -22756,7 +23781,7 @@
         <v>2.0042797813575489E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:9">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D127" s="3">
         <f t="shared" si="9"/>
         <v>1.953327708619303E-2</v>
@@ -22782,7 +23807,7 @@
         <v>2.0042434587018685E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:9">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D128" s="3">
         <f t="shared" si="9"/>
         <v>1.9693568531390541E-2</v>
@@ -22808,7 +23833,7 @@
         <v>2.0042077473813751E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:9">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="3">
         <f t="shared" si="9"/>
         <v>1.9853843183196357E-2</v>
@@ -22834,7 +23859,7 @@
         <v>2.0041726322266903E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:9">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="3">
         <f t="shared" si="9"/>
         <v>2.0014101249231243E-2</v>
@@ -22860,7 +23885,7 @@
         <v>2.0041380982173344E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:9">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="3">
         <f t="shared" si="9"/>
         <v>2.017434293287277E-2</v>
@@ -22886,7 +23911,7 @@
         <v>2.0041041311890492E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:9">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="3">
         <f t="shared" si="9"/>
         <v>2.0334568433375774E-2</v>
@@ -22912,7 +23937,7 @@
         <v>2.0040707172671063E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:9">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="3">
         <f t="shared" si="9"/>
         <v>2.0494777945988391E-2</v>
@@ -22938,7 +23963,7 @@
         <v>2.0040378430203929E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:9">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="3">
         <f t="shared" si="9"/>
         <v>2.0654971662063974E-2</v>
@@ -22964,7 +23989,7 @@
         <v>2.0040054955132183E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:9">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="3">
         <f t="shared" si="9"/>
         <v>2.0815149769168994E-2</v>
@@ -22990,7 +24015,7 @@
         <v>2.0039736621692193E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:9">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="3">
         <f t="shared" si="9"/>
         <v>2.0975312451187143E-2</v>
@@ -23016,7 +24041,7 @@
         <v>2.0039423307931386E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:9">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="3">
         <f t="shared" ref="D137:D200" si="18">$D$2+$D$3*F137+$D$4*F137*F137/2</f>
         <v>2.113545988841976E-2</v>
@@ -23042,7 +24067,7 @@
         <v>2.0039114896916427E-2</v>
       </c>
     </row>
-    <row r="138" spans="4:9">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D138" s="3">
         <f t="shared" si="18"/>
         <v>2.1295592257682815E-2</v>
@@ -23068,7 +24093,7 @@
         <v>2.0038811273598169E-2</v>
       </c>
     </row>
-    <row r="139" spans="4:9">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D139" s="3">
         <f t="shared" si="18"/>
         <v>2.145570973240047E-2</v>
@@ -23094,7 +24119,7 @@
         <v>2.0038512327793776E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:9">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D140" s="3">
         <f t="shared" si="18"/>
         <v>2.1615812482695517E-2</v>
@@ -23120,7 +24145,7 @@
         <v>2.0038217951991521E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:9">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D141" s="3">
         <f t="shared" si="18"/>
         <v>2.1775900675476668E-2</v>
@@ -23146,7 +24171,7 @@
         <v>2.0037928042680748E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:9">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D142" s="3">
         <f t="shared" si="18"/>
         <v>2.1935974474522946E-2</v>
@@ -23172,7 +24197,7 @@
         <v>2.0037642498141064E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:9">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D143" s="3">
         <f t="shared" si="18"/>
         <v>2.2096034040565236E-2</v>
@@ -23198,7 +24223,7 @@
         <v>2.0037361220907764E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:9">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D144" s="3">
         <f t="shared" si="18"/>
         <v>2.2256079531365078E-2</v>
@@ -23224,7 +24249,7 @@
         <v>2.0037084117387177E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:9">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" s="3">
         <f t="shared" si="18"/>
         <v>2.2416111101790974E-2</v>
@@ -23250,7 +24275,7 @@
         <v>2.0036811092575161E-2</v>
       </c>
     </row>
-    <row r="146" spans="4:9">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" s="3">
         <f t="shared" si="18"/>
         <v>2.2576128903892059E-2</v>
@@ -23276,7 +24301,7 @@
         <v>2.0036542059400773E-2</v>
       </c>
     </row>
-    <row r="147" spans="4:9">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" s="3">
         <f t="shared" si="18"/>
         <v>2.2736133086969486E-2</v>
@@ -23302,7 +24327,7 @@
         <v>2.0036276929708986E-2</v>
       </c>
     </row>
-    <row r="148" spans="4:9">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" s="3">
         <f t="shared" si="18"/>
         <v>2.2896123797645402E-2</v>
@@ -23328,7 +24353,7 @@
         <v>2.0036015620404156E-2</v>
       </c>
     </row>
-    <row r="149" spans="4:9">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D149" s="3">
         <f t="shared" si="18"/>
         <v>2.3056101179929813E-2</v>
@@ -23354,7 +24379,7 @@
         <v>2.0035758048213455E-2</v>
       </c>
     </row>
-    <row r="150" spans="4:9">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D150" s="3">
         <f t="shared" si="18"/>
         <v>2.3216065375285286E-2</v>
@@ -23380,7 +24405,7 @@
         <v>2.0035504133851294E-2</v>
       </c>
     </row>
-    <row r="151" spans="4:9">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D151" s="3">
         <f t="shared" si="18"/>
         <v>2.337601652268954E-2</v>
@@ -23406,7 +24431,7 @@
         <v>2.0035253800434697E-2</v>
       </c>
     </row>
-    <row r="152" spans="4:9">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D152" s="3">
         <f t="shared" si="18"/>
         <v>2.3535954758696159E-2</v>
@@ -23432,7 +24457,7 @@
         <v>2.0035006972531438E-2</v>
       </c>
     </row>
-    <row r="153" spans="4:9">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D153" s="3">
         <f t="shared" si="18"/>
         <v>2.3695880217493394E-2</v>
@@ -23458,7 +24483,7 @@
         <v>2.0034763576601278E-2</v>
       </c>
     </row>
-    <row r="154" spans="4:9">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D154" s="3">
         <f t="shared" si="18"/>
         <v>2.3855793030961085E-2</v>
@@ -23484,7 +24509,7 @@
         <v>2.0034523542483244E-2</v>
       </c>
     </row>
-    <row r="155" spans="4:9">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D155" s="3">
         <f t="shared" si="18"/>
         <v>2.401569332872593E-2</v>
@@ -23510,7 +24535,7 @@
         <v>2.0034286799543676E-2</v>
       </c>
     </row>
-    <row r="156" spans="4:9">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D156" s="3">
         <f t="shared" si="18"/>
         <v>2.4175581238214963E-2</v>
@@ -23536,7 +24561,7 @@
         <v>2.0034053282063067E-2</v>
       </c>
     </row>
-    <row r="157" spans="4:9">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D157" s="3">
         <f t="shared" si="18"/>
         <v>2.4335456884707476E-2</v>
@@ -23562,7 +24587,7 @@
         <v>2.0033822924131854E-2</v>
       </c>
     </row>
-    <row r="158" spans="4:9">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D158" s="3">
         <f t="shared" si="18"/>
         <v>2.4495320391385397E-2</v>
@@ -23588,7 +24613,7 @@
         <v>2.0033595660706307E-2</v>
       </c>
     </row>
-    <row r="159" spans="4:9">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D159" s="3">
         <f t="shared" si="18"/>
         <v>2.4655171879382064E-2</v>
@@ -23614,7 +24639,7 @@
         <v>2.0033371432242097E-2</v>
       </c>
     </row>
-    <row r="160" spans="4:9">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D160" s="3">
         <f t="shared" si="18"/>
         <v>2.4815011467829592E-2</v>
@@ -23640,7 +24665,7 @@
         <v>2.003315017721289E-2</v>
       </c>
     </row>
-    <row r="161" spans="4:9">
+    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D161" s="3">
         <f t="shared" si="18"/>
         <v>2.4974839273904984E-2</v>
@@ -23666,7 +24691,7 @@
         <v>2.0032931835319845E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:9">
+    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D162" s="3">
         <f t="shared" si="18"/>
         <v>2.5134655412874605E-2</v>
@@ -23692,7 +24717,7 @@
         <v>2.0032716351676232E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:9">
+    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D163" s="3">
         <f t="shared" si="18"/>
         <v>2.5294459998137588E-2</v>
@@ -23718,7 +24743,7 @@
         <v>2.0032503670256704E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:9">
+    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D164" s="3">
         <f t="shared" si="18"/>
         <v>2.5454253141267903E-2</v>
@@ -23744,7 +24769,7 @@
         <v>2.0032293735465959E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:9">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D165" s="3">
         <f t="shared" si="18"/>
         <v>2.5614034952055241E-2</v>
@@ -23770,7 +24795,7 @@
         <v>2.0032086495155192E-2</v>
       </c>
     </row>
-    <row r="166" spans="4:9">
+    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D166" s="3">
         <f t="shared" si="18"/>
         <v>2.5773805538544661E-2</v>
@@ -23796,7 +24821,7 @@
         <v>2.0031881897786836E-2</v>
       </c>
     </row>
-    <row r="167" spans="4:9">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D167" s="3">
         <f t="shared" si="18"/>
         <v>2.5933565007075186E-2</v>
@@ -23822,7 +24847,7 @@
         <v>2.0031679893501953E-2</v>
       </c>
     </row>
-    <row r="168" spans="4:9">
+    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D168" s="3">
         <f t="shared" si="18"/>
         <v>2.6093313462317268E-2</v>
@@ -23848,7 +24873,7 @@
         <v>2.0031480432637153E-2</v>
       </c>
     </row>
-    <row r="169" spans="4:9">
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D169" s="3">
         <f t="shared" si="18"/>
         <v>2.6253051007309253E-2</v>
@@ -23874,7 +24899,7 @@
         <v>2.003128346737788E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:9">
+    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D170" s="3">
         <f t="shared" si="18"/>
         <v>2.641277774349271E-2</v>
@@ -23900,7 +24925,7 @@
         <v>2.0031088952807717E-2</v>
       </c>
     </row>
-    <row r="171" spans="4:9">
+    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D171" s="3">
         <f t="shared" si="18"/>
         <v>2.6572493770746951E-2</v>
@@ -23926,7 +24951,7 @@
         <v>2.003089684029034E-2</v>
       </c>
     </row>
-    <row r="172" spans="4:9">
+    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D172" s="3">
         <f t="shared" si="18"/>
         <v>2.6732199187422447E-2</v>
@@ -23952,7 +24977,7 @@
         <v>2.0030707089338608E-2</v>
       </c>
     </row>
-    <row r="173" spans="4:9">
+    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D173" s="3">
         <f t="shared" si="18"/>
         <v>2.689189409037341E-2</v>
@@ -23978,7 +25003,7 @@
         <v>2.0030519653501222E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:9">
+    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D174" s="3">
         <f t="shared" si="18"/>
         <v>2.7051578574989472E-2</v>
@@ -24004,7 +25029,7 @@
         <v>2.0030334492970803E-2</v>
       </c>
     </row>
-    <row r="175" spans="4:9">
+    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D175" s="3">
         <f t="shared" si="18"/>
         <v>2.721125273522651E-2</v>
@@ -24030,7 +25055,7 @@
         <v>2.0030151564896844E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:9">
+    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D176" s="3">
         <f t="shared" si="18"/>
         <v>2.7370916663636599E-2</v>
@@ -24056,7 +25081,7 @@
         <v>2.0029970830943832E-2</v>
       </c>
     </row>
-    <row r="177" spans="4:9">
+    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D177" s="3">
         <f t="shared" si="18"/>
         <v>2.7530570451397281E-2</v>
@@ -24082,7 +25107,7 @@
         <v>2.0029792249053584E-2</v>
       </c>
     </row>
-    <row r="178" spans="4:9">
+    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D178" s="3">
         <f t="shared" si="18"/>
         <v>2.7690214188339869E-2</v>
@@ -24108,7 +25133,7 @@
         <v>2.0029615784425175E-2</v>
       </c>
     </row>
-    <row r="179" spans="4:9">
+    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D179" s="3">
         <f t="shared" si="18"/>
         <v>2.7849847962977205E-2</v>
@@ -24134,7 +25159,7 @@
         <v>2.0029441396710333E-2</v>
       </c>
     </row>
-    <row r="180" spans="4:9">
+    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D180" s="3">
         <f t="shared" si="18"/>
         <v>2.8009471862530548E-2</v>
@@ -24160,7 +25185,7 @@
         <v>2.0029269051673224E-2</v>
       </c>
     </row>
-    <row r="181" spans="4:9">
+    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D181" s="3">
         <f t="shared" si="18"/>
         <v>2.8169085972955796E-2</v>
@@ -24186,7 +25211,7 @@
         <v>2.0029098712029594E-2</v>
       </c>
     </row>
-    <row r="182" spans="4:9">
+    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D182" s="3">
         <f t="shared" si="18"/>
         <v>2.8328690378969082E-2</v>
@@ -24212,7 +25237,7 @@
         <v>2.0028930344385069E-2</v>
       </c>
     </row>
-    <row r="183" spans="4:9">
+    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D183" s="3">
         <f t="shared" si="18"/>
         <v>2.8488285164071623E-2</v>
@@ -24238,7 +25263,7 @@
         <v>2.0028763912750731E-2</v>
       </c>
     </row>
-    <row r="184" spans="4:9">
+    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D184" s="3">
         <f t="shared" si="18"/>
         <v>2.8647870410574015E-2</v>
@@ -24264,7 +25289,7 @@
         <v>2.0028599385456935E-2</v>
       </c>
     </row>
-    <row r="185" spans="4:9">
+    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D185" s="3">
         <f t="shared" si="18"/>
         <v>2.88074461996198E-2</v>
@@ -24290,7 +25315,7 @@
         <v>2.002843673047745E-2</v>
       </c>
     </row>
-    <row r="186" spans="4:9">
+    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D186" s="3">
         <f t="shared" si="18"/>
         <v>2.8967012611208567E-2</v>
@@ -24316,7 +25341,7 @@
         <v>2.0028275914609948E-2</v>
       </c>
     </row>
-    <row r="187" spans="4:9">
+    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D187" s="3">
         <f t="shared" si="18"/>
         <v>2.9126569724218385E-2</v>
@@ -24342,7 +25367,7 @@
         <v>2.0028116906870626E-2</v>
       </c>
     </row>
-    <row r="188" spans="4:9">
+    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D188" s="3">
         <f t="shared" si="18"/>
         <v>2.9286117616427666E-2</v>
@@ -24368,7 +25393,7 @@
         <v>2.0027959678689047E-2</v>
       </c>
     </row>
-    <row r="189" spans="4:9">
+    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D189" s="3">
         <f t="shared" si="18"/>
         <v>2.9445656364536558E-2</v>
@@ -24394,7 +25419,7 @@
         <v>2.0027804197332532E-2</v>
       </c>
     </row>
-    <row r="190" spans="4:9">
+    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D190" s="3">
         <f t="shared" si="18"/>
         <v>2.9605186044187676E-2</v>
@@ -24420,7 +25445,7 @@
         <v>2.0027650438752913E-2</v>
       </c>
     </row>
-    <row r="191" spans="4:9">
+    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D191" s="3">
         <f t="shared" si="18"/>
         <v>2.9764706729986521E-2</v>
@@ -24446,7 +25471,7 @@
         <v>2.0027498367581099E-2</v>
       </c>
     </row>
-    <row r="192" spans="4:9">
+    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D192" s="3">
         <f t="shared" si="18"/>
         <v>2.9924218495521168E-2</v>
@@ -24472,7 +25497,7 @@
         <v>2.0027347962773698E-2</v>
       </c>
     </row>
-    <row r="193" spans="4:9">
+    <row r="193" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D193" s="3">
         <f t="shared" si="18"/>
         <v>3.0083721413381642E-2</v>
@@ -24498,7 +25523,7 @@
         <v>2.002719919349787E-2</v>
       </c>
     </row>
-    <row r="194" spans="4:9">
+    <row r="194" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D194" s="3">
         <f t="shared" si="18"/>
         <v>3.0243215555178768E-2</v>
@@ -24524,7 +25549,7 @@
         <v>2.0027052033685606E-2</v>
       </c>
     </row>
-    <row r="195" spans="4:9">
+    <row r="195" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D195" s="3">
         <f t="shared" si="18"/>
         <v>3.0402700991562545E-2</v>
@@ -24550,7 +25575,7 @@
         <v>2.0026906457786597E-2</v>
       </c>
     </row>
-    <row r="196" spans="4:9">
+    <row r="196" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D196" s="3">
         <f t="shared" si="18"/>
         <v>3.0562177792240099E-2</v>
@@ -24576,7 +25601,7 @@
         <v>2.0026762440848563E-2</v>
       </c>
     </row>
-    <row r="197" spans="4:9">
+    <row r="197" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D197" s="3">
         <f t="shared" si="18"/>
         <v>3.0721646025993202E-2</v>
@@ -24602,7 +25627,7 @@
         <v>2.0026619957521433E-2</v>
       </c>
     </row>
-    <row r="198" spans="4:9">
+    <row r="198" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D198" s="3">
         <f t="shared" si="18"/>
         <v>3.0881105760695415E-2</v>
@@ -24628,7 +25653,7 @@
         <v>2.0026478982587036E-2</v>
       </c>
     </row>
-    <row r="199" spans="4:9">
+    <row r="199" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D199" s="3">
         <f t="shared" si="18"/>
         <v>3.1040557063328766E-2</v>
@@ -24654,7 +25679,7 @@
         <v>2.0026339492626895E-2</v>
       </c>
     </row>
-    <row r="200" spans="4:9">
+    <row r="200" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D200" s="3">
         <f t="shared" si="18"/>
         <v>3.1200000000000033E-2</v>
@@ -24680,7 +25705,7 @@
         <v>2.0026201465728491E-2</v>
       </c>
     </row>
-    <row r="201" spans="4:9">
+    <row r="201" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D201" s="3">
         <f t="shared" ref="D201:D264" si="24">$D$2+$D$3*F201+$D$4*F201*F201/2</f>
         <v>3.1359434635956689E-2</v>
@@ -24706,7 +25731,7 @@
         <v>2.0026064878070206E-2</v>
       </c>
     </row>
-    <row r="202" spans="4:9">
+    <row r="202" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D202" s="3">
         <f t="shared" si="24"/>
         <v>3.1518861035602488E-2</v>
@@ -24732,7 +25757,7 @@
         <v>2.0025929705904149E-2</v>
       </c>
     </row>
-    <row r="203" spans="4:9">
+    <row r="203" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D203" s="3">
         <f t="shared" si="24"/>
         <v>3.1678279262512654E-2</v>
@@ -24758,7 +25783,7 @@
         <v>2.0025795928402351E-2</v>
       </c>
     </row>
-    <row r="204" spans="4:9">
+    <row r="204" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D204" s="3">
         <f t="shared" si="24"/>
         <v>3.1837689379448683E-2</v>
@@ -24784,7 +25809,7 @@
         <v>2.002566352538742E-2</v>
       </c>
     </row>
-    <row r="205" spans="4:9">
+    <row r="205" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D205" s="3">
         <f t="shared" si="24"/>
         <v>3.1997091448372872E-2</v>
@@ -24810,7 +25835,7 @@
         <v>2.0025532474081648E-2</v>
       </c>
     </row>
-    <row r="206" spans="4:9">
+    <row r="206" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D206" s="3">
         <f t="shared" si="24"/>
         <v>3.2156485530462492E-2</v>
@@ -24836,7 +25861,7 @@
         <v>2.0025402755520373E-2</v>
       </c>
     </row>
-    <row r="207" spans="4:9">
+    <row r="207" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D207" s="3">
         <f t="shared" si="24"/>
         <v>3.2315871686123709E-2</v>
@@ -24862,7 +25887,7 @@
         <v>2.0025274345848457E-2</v>
       </c>
     </row>
-    <row r="208" spans="4:9">
+    <row r="208" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D208" s="3">
         <f t="shared" si="24"/>
         <v>3.2475249975005026E-2</v>
@@ -24888,7 +25913,7 @@
         <v>2.0025147228943364E-2</v>
       </c>
     </row>
-    <row r="209" spans="4:9">
+    <row r="209" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D209" s="3">
         <f t="shared" si="24"/>
         <v>3.2634620456010531E-2</v>
@@ -24914,7 +25939,7 @@
         <v>2.0025021385994338E-2</v>
       </c>
     </row>
-    <row r="210" spans="4:9">
+    <row r="210" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D210" s="3">
         <f t="shared" si="24"/>
         <v>3.2793983187312928E-2</v>
@@ -24940,7 +25965,7 @@
         <v>2.0024896794369487E-2</v>
       </c>
     </row>
-    <row r="211" spans="4:9">
+    <row r="211" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D211" s="3">
         <f t="shared" si="24"/>
         <v>3.295333822636607E-2</v>
@@ -24966,7 +25991,7 @@
         <v>2.0024773438082753E-2</v>
       </c>
     </row>
-    <row r="212" spans="4:9">
+    <row r="212" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D212" s="3">
         <f t="shared" si="24"/>
         <v>3.3112685629917447E-2</v>
@@ -24992,7 +26017,7 @@
         <v>2.0024651297816064E-2</v>
       </c>
     </row>
-    <row r="213" spans="4:9">
+    <row r="213" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D213" s="3">
         <f t="shared" si="24"/>
         <v>3.3272025454020186E-2</v>
@@ -25018,7 +26043,7 @@
         <v>2.0024530356208315E-2</v>
       </c>
     </row>
-    <row r="214" spans="4:9">
+    <row r="214" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D214" s="3">
         <f t="shared" si="24"/>
         <v>3.3431357754044953E-2</v>
@@ -25044,7 +26069,7 @@
         <v>2.0024410596060128E-2</v>
       </c>
     </row>
-    <row r="215" spans="4:9">
+    <row r="215" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D215" s="3">
         <f t="shared" si="24"/>
         <v>3.35906825846915E-2</v>
@@ -25070,7 +26095,7 @@
         <v>2.0024291998428381E-2</v>
       </c>
     </row>
-    <row r="216" spans="4:9">
+    <row r="216" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D216" s="3">
         <f t="shared" si="24"/>
         <v>3.3749999999999988E-2</v>
@@ -25096,7 +26121,7 @@
         <v>2.0024174549052972E-2</v>
       </c>
     </row>
-    <row r="217" spans="4:9">
+    <row r="217" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D217" s="3">
         <f t="shared" si="24"/>
         <v>3.3909310053362118E-2</v>
@@ -25122,7 +26147,7 @@
         <v>2.0024058228147318E-2</v>
       </c>
     </row>
-    <row r="218" spans="4:9">
+    <row r="218" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D218" s="3">
         <f t="shared" si="24"/>
         <v>3.4068612797531879E-2</v>
@@ -25148,7 +26173,7 @@
         <v>2.0023943023556163E-2</v>
       </c>
     </row>
-    <row r="219" spans="4:9">
+    <row r="219" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D219" s="3">
         <f t="shared" si="24"/>
         <v>3.4227908284636267E-2</v>
@@ -25174,7 +26199,7 @@
         <v>2.002382891447705E-2</v>
       </c>
     </row>
-    <row r="220" spans="4:9">
+    <row r="220" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D220" s="3">
         <f t="shared" si="24"/>
         <v>3.4387196566185586E-2</v>
@@ -25200,7 +26225,7 @@
         <v>2.0023715889778432E-2</v>
       </c>
     </row>
-    <row r="221" spans="4:9">
+    <row r="221" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D221" s="3">
         <f t="shared" si="24"/>
         <v>3.4546477693083652E-2</v>
@@ -25226,7 +26251,7 @@
         <v>2.0023603932398243E-2</v>
       </c>
     </row>
-    <row r="222" spans="4:9">
+    <row r="222" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D222" s="3">
         <f t="shared" si="24"/>
         <v>3.470575171563773E-2</v>
@@ -25252,7 +26277,7 @@
         <v>2.0023493025691199E-2</v>
       </c>
     </row>
-    <row r="223" spans="4:9">
+    <row r="223" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D223" s="3">
         <f t="shared" si="24"/>
         <v>3.4865018683568311E-2</v>
@@ -25278,7 +26303,7 @@
         <v>2.0023383157103822E-2</v>
       </c>
     </row>
-    <row r="224" spans="4:9">
+    <row r="224" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D224" s="3">
         <f t="shared" si="24"/>
         <v>3.5024278646018599E-2</v>
@@ -25304,7 +26329,7 @@
         <v>2.0023274310693083E-2</v>
       </c>
     </row>
-    <row r="225" spans="4:9">
+    <row r="225" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D225" s="3">
         <f t="shared" si="24"/>
         <v>3.5183531651563855E-2</v>
@@ -25330,7 +26355,7 @@
         <v>2.0023166474865208E-2</v>
       </c>
     </row>
-    <row r="226" spans="4:9">
+    <row r="226" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D226" s="3">
         <f t="shared" si="24"/>
         <v>3.534277774822063E-2</v>
@@ -25356,7 +26381,7 @@
         <v>2.0023059630663139E-2</v>
       </c>
     </row>
-    <row r="227" spans="4:9">
+    <row r="227" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D227" s="3">
         <f t="shared" si="24"/>
         <v>3.550201698345555E-2</v>
@@ -25382,7 +26407,7 @@
         <v>2.0022953770921729E-2</v>
       </c>
     </row>
-    <row r="228" spans="4:9">
+    <row r="228" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D228" s="3">
         <f t="shared" si="24"/>
         <v>3.5661249404194288E-2</v>
@@ -25408,7 +26433,7 @@
         <v>2.00228488760371E-2</v>
       </c>
     </row>
-    <row r="229" spans="4:9">
+    <row r="229" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D229" s="3">
         <f t="shared" si="24"/>
         <v>3.5820475056830031E-2</v>
@@ -25434,7 +26459,7 @@
         <v>2.0022744935639939E-2</v>
       </c>
     </row>
-    <row r="230" spans="4:9">
+    <row r="230" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D230" s="3">
         <f t="shared" si="24"/>
         <v>3.59796939872319E-2</v>
@@ -25460,7 +26485,7 @@
         <v>2.0022641939036547E-2</v>
       </c>
     </row>
-    <row r="231" spans="4:9">
+    <row r="231" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D231" s="3">
         <f t="shared" si="24"/>
         <v>3.6138906240753291E-2</v>
@@ -25486,7 +26511,7 @@
         <v>2.0022539868132037E-2</v>
       </c>
     </row>
-    <row r="232" spans="4:9">
+    <row r="232" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D232" s="3">
         <f t="shared" si="24"/>
         <v>3.6298111862239864E-2</v>
@@ -25512,7 +26537,7 @@
         <v>2.0022438715234406E-2</v>
       </c>
     </row>
-    <row r="233" spans="4:9">
+    <row r="233" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D233" s="3">
         <f t="shared" si="24"/>
         <v>3.6457310896037522E-2</v>
@@ -25538,7 +26563,7 @@
         <v>2.0022338465398089E-2</v>
       </c>
     </row>
-    <row r="234" spans="4:9">
+    <row r="234" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D234" s="3">
         <f t="shared" si="24"/>
         <v>3.6616503386000136E-2</v>
@@ -25564,7 +26589,7 @@
         <v>2.0022239106911727E-2</v>
       </c>
     </row>
-    <row r="235" spans="4:9">
+    <row r="235" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D235" s="3">
         <f t="shared" si="24"/>
         <v>3.6775689375497175E-2</v>
@@ -25590,7 +26615,7 @@
         <v>2.0022140630263023E-2</v>
       </c>
     </row>
-    <row r="236" spans="4:9">
+    <row r="236" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D236" s="3">
         <f t="shared" si="24"/>
         <v>3.6934868907421176E-2</v>
@@ -25616,7 +26641,7 @@
         <v>2.0022043019094538E-2</v>
       </c>
     </row>
-    <row r="237" spans="4:9">
+    <row r="237" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D237" s="3">
         <f t="shared" si="24"/>
         <v>3.7094042024195015E-2</v>
@@ -25642,7 +26667,7 @@
         <v>2.0021946267552201E-2</v>
       </c>
     </row>
-    <row r="238" spans="4:9">
+    <row r="238" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D238" s="3">
         <f t="shared" si="24"/>
         <v>3.7253208767779107E-2</v>
@@ -25668,7 +26693,7 @@
         <v>2.0021850359595555E-2</v>
       </c>
     </row>
-    <row r="239" spans="4:9">
+    <row r="239" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D239" s="3">
         <f t="shared" si="24"/>
         <v>3.741236917967844E-2</v>
@@ -25694,7 +26719,7 @@
         <v>2.0021755287907537E-2</v>
       </c>
     </row>
-    <row r="240" spans="4:9">
+    <row r="240" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D240" s="3">
         <f t="shared" si="24"/>
         <v>3.7571523300949435E-2</v>
@@ -25720,7 +26745,7 @@
         <v>2.0021661038628603E-2</v>
       </c>
     </row>
-    <row r="241" spans="4:9">
+    <row r="241" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D241" s="3">
         <f t="shared" si="24"/>
         <v>3.7730671172206721E-2</v>
@@ -25746,7 +26771,7 @@
         <v>2.0021567602906548E-2</v>
       </c>
     </row>
-    <row r="242" spans="4:9">
+    <row r="242" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D242" s="3">
         <f t="shared" si="24"/>
         <v>3.788981283362975E-2</v>
@@ -25772,7 +26797,7 @@
         <v>2.0021474970752275E-2</v>
       </c>
     </row>
-    <row r="243" spans="4:9">
+    <row r="243" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D243" s="3">
         <f t="shared" si="24"/>
         <v>3.8048948324969356E-2</v>
@@ -25798,7 +26823,7 @@
         <v>2.0021383128639422E-2</v>
       </c>
     </row>
-    <row r="244" spans="4:9">
+    <row r="244" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D244" s="3">
         <f t="shared" si="24"/>
         <v>3.8208077685554002E-2</v>
@@ -25824,7 +26849,7 @@
         <v>2.0021292071295181E-2</v>
       </c>
     </row>
-    <row r="245" spans="4:9">
+    <row r="245" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D245" s="3">
         <f t="shared" si="24"/>
         <v>3.8367200954296195E-2</v>
@@ -25850,7 +26875,7 @@
         <v>2.0021201783718023E-2</v>
       </c>
     </row>
-    <row r="246" spans="4:9">
+    <row r="246" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D246" s="3">
         <f t="shared" si="24"/>
         <v>3.8526318169698467E-2</v>
@@ -25876,7 +26901,7 @@
         <v>2.0021112261928646E-2</v>
       </c>
     </row>
-    <row r="247" spans="4:9">
+    <row r="247" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D247" s="3">
         <f t="shared" si="24"/>
         <v>3.8685429369859553E-2</v>
@@ -25902,7 +26927,7 @@
         <v>2.0021023488388967E-2</v>
       </c>
     </row>
-    <row r="248" spans="4:9">
+    <row r="248" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D248" s="3">
         <f t="shared" si="24"/>
         <v>3.8844534592480121E-2</v>
@@ -25928,7 +26953,7 @@
         <v>2.0020935462839839E-2</v>
       </c>
     </row>
-    <row r="249" spans="4:9">
+    <row r="249" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D249" s="3">
         <f t="shared" si="24"/>
         <v>3.9003633874868722E-2</v>
@@ -25954,7 +26979,7 @@
         <v>2.0020848168127631E-2</v>
       </c>
     </row>
-    <row r="250" spans="4:9">
+    <row r="250" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D250" s="3">
         <f t="shared" si="24"/>
         <v>3.9162727253947378E-2</v>
@@ -25980,7 +27005,7 @@
         <v>2.0020761600818556E-2</v>
       </c>
     </row>
-    <row r="251" spans="4:9">
+    <row r="251" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D251" s="3">
         <f t="shared" si="24"/>
         <v>3.9321814766257256E-2</v>
@@ -26006,7 +27031,7 @@
         <v>2.0020675746643145E-2</v>
       </c>
     </row>
-    <row r="252" spans="4:9">
+    <row r="252" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D252" s="3">
         <f t="shared" si="24"/>
         <v>3.9480896447964028E-2</v>
@@ -26032,7 +27057,7 @@
         <v>2.0020590602084117E-2</v>
       </c>
     </row>
-    <row r="253" spans="4:9">
+    <row r="253" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D253" s="3">
         <f t="shared" si="24"/>
         <v>3.9639972334863334E-2</v>
@@ -26058,7 +27083,7 @@
         <v>2.0020506155873967E-2</v>
       </c>
     </row>
-    <row r="254" spans="4:9">
+    <row r="254" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D254" s="3">
         <f t="shared" si="24"/>
         <v>3.979904246238606E-2</v>
@@ -26084,7 +27109,7 @@
         <v>2.0020422397377387E-2</v>
       </c>
     </row>
-    <row r="255" spans="4:9">
+    <row r="255" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D255" s="3">
         <f t="shared" si="24"/>
         <v>3.9958106865603513E-2</v>
@@ -26110,7 +27135,7 @@
         <v>2.0020339321203947E-2</v>
       </c>
     </row>
-    <row r="256" spans="4:9">
+    <row r="256" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D256" s="3">
         <f t="shared" si="24"/>
         <v>4.0117165579232443E-2</v>
@@ -26136,7 +27161,7 @@
         <v>2.0020256919307297E-2</v>
       </c>
     </row>
-    <row r="257" spans="4:9">
+    <row r="257" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D257" s="3">
         <f t="shared" si="24"/>
         <v>4.0276218637640145E-2</v>
@@ -26162,7 +27187,7 @@
         <v>2.0020175181960954E-2</v>
       </c>
     </row>
-    <row r="258" spans="4:9">
+    <row r="258" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D258" s="3">
         <f t="shared" si="24"/>
         <v>4.0435266074849284E-2</v>
@@ -26188,7 +27213,7 @@
         <v>2.0020094101019136E-2</v>
       </c>
     </row>
-    <row r="259" spans="4:9">
+    <row r="259" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D259" s="3">
         <f t="shared" si="24"/>
         <v>4.0594307924542779E-2</v>
@@ -26214,7 +27239,7 @@
         <v>2.0020013669087712E-2</v>
       </c>
     </row>
-    <row r="260" spans="4:9">
+    <row r="260" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D260" s="3">
         <f t="shared" si="24"/>
         <v>4.075334422006846E-2</v>
@@ -26240,7 +27265,7 @@
         <v>2.0019933879306822E-2</v>
       </c>
     </row>
-    <row r="261" spans="4:9">
+    <row r="261" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D261" s="3">
         <f t="shared" si="24"/>
         <v>4.0912374994443799E-2</v>
@@ -26266,7 +27291,7 @@
         <v>2.0019854721700116E-2</v>
       </c>
     </row>
-    <row r="262" spans="4:9">
+    <row r="262" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D262" s="3">
         <f t="shared" si="24"/>
         <v>4.1071400280360375E-2</v>
@@ -26292,7 +27317,7 @@
         <v>2.0019776193013261E-2</v>
       </c>
     </row>
-    <row r="263" spans="4:9">
+    <row r="263" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D263" s="3">
         <f t="shared" si="24"/>
         <v>4.123042011018848E-2</v>
@@ -26318,7 +27343,7 @@
         <v>2.0019698279804817E-2</v>
       </c>
     </row>
-    <row r="264" spans="4:9">
+    <row r="264" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D264" s="3">
         <f t="shared" si="24"/>
         <v>4.1389434515981399E-2</v>
@@ -26344,7 +27369,7 @@
         <v>2.0019620980983192E-2</v>
       </c>
     </row>
-    <row r="265" spans="4:9">
+    <row r="265" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D265" s="3">
         <f t="shared" ref="D265:D328" si="30">$D$2+$D$3*F265+$D$4*F265*F265/2</f>
         <v>4.1548443529479832E-2</v>
@@ -26370,7 +27395,7 @@
         <v>2.0019544284759872E-2</v>
       </c>
     </row>
-    <row r="266" spans="4:9">
+    <row r="266" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D266" s="3">
         <f t="shared" si="30"/>
         <v>4.1707447182116109E-2</v>
@@ -26396,7 +27421,7 @@
         <v>2.0019468185286174E-2</v>
       </c>
     </row>
-    <row r="267" spans="4:9">
+    <row r="267" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D267" s="3">
         <f t="shared" si="30"/>
         <v>4.186644550501837E-2</v>
@@ -26422,7 +27447,7 @@
         <v>2.0019392678049221E-2</v>
       </c>
     </row>
-    <row r="268" spans="4:9">
+    <row r="268" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D268" s="3">
         <f t="shared" si="30"/>
         <v>4.2025438529014657E-2</v>
@@ -26448,7 +27473,7 @@
         <v>2.0019317752393559E-2</v>
       </c>
     </row>
-    <row r="269" spans="4:9">
+    <row r="269" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D269" s="3">
         <f t="shared" si="30"/>
         <v>4.2184426284636978E-2</v>
@@ -26474,7 +27499,7 @@
         <v>2.0019243404765234E-2</v>
       </c>
     </row>
-    <row r="270" spans="4:9">
+    <row r="270" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D270" s="3">
         <f t="shared" si="30"/>
         <v>4.2343408802125226E-2</v>
@@ -26500,7 +27525,7 @@
         <v>2.0019169627650404E-2</v>
       </c>
     </row>
-    <row r="271" spans="4:9">
+    <row r="271" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D271" s="3">
         <f t="shared" si="30"/>
         <v>4.2502386111431159E-2</v>
@@ -26526,7 +27551,7 @@
         <v>2.0019096411623406E-2</v>
       </c>
     </row>
-    <row r="272" spans="4:9">
+    <row r="272" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D272" s="3">
         <f t="shared" si="30"/>
         <v>4.2661358242222135E-2</v>
@@ -26552,7 +27577,7 @@
         <v>2.0019023755097166E-2</v>
       </c>
     </row>
-    <row r="273" spans="4:9">
+    <row r="273" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D273" s="3">
         <f t="shared" si="30"/>
         <v>4.2820325223884917E-2</v>
@@ -26578,7 +27603,7 @@
         <v>2.0018951649193886E-2</v>
       </c>
     </row>
-    <row r="274" spans="4:9">
+    <row r="274" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D274" s="3">
         <f t="shared" si="30"/>
         <v>4.2979287085529422E-2</v>
@@ -26604,7 +27629,7 @@
         <v>2.001888008628918E-2</v>
       </c>
     </row>
-    <row r="275" spans="4:9">
+    <row r="275" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D275" s="3">
         <f t="shared" si="30"/>
         <v>4.313824385599227E-2</v>
@@ -26630,7 +27655,7 @@
         <v>2.0018809063496526E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:9">
+    <row r="276" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D276" s="3">
         <f t="shared" si="30"/>
         <v>4.3297195563840415E-2</v>
@@ -26656,7 +27681,7 @@
         <v>2.0018738572066E-2</v>
       </c>
     </row>
-    <row r="277" spans="4:9">
+    <row r="277" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D277" s="3">
         <f t="shared" si="30"/>
         <v>4.3456142237374693E-2</v>
@@ -26682,7 +27707,7 @@
         <v>2.0018668606625073E-2</v>
       </c>
     </row>
-    <row r="278" spans="4:9">
+    <row r="278" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D278" s="3">
         <f t="shared" si="30"/>
         <v>4.361508390463318E-2</v>
@@ -26708,7 +27733,7 @@
         <v>2.0018599163081022E-2</v>
       </c>
     </row>
-    <row r="279" spans="4:9">
+    <row r="279" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D279" s="3">
         <f t="shared" si="30"/>
         <v>4.3774020593394691E-2</v>
@@ -26734,7 +27759,7 @@
         <v>2.0018530233615744E-2</v>
       </c>
     </row>
-    <row r="280" spans="4:9">
+    <row r="280" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D280" s="3">
         <f t="shared" si="30"/>
         <v>4.3932952331182114E-2</v>
@@ -26760,7 +27785,7 @@
         <v>2.0018461812204128E-2</v>
       </c>
     </row>
-    <row r="281" spans="4:9">
+    <row r="281" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D281" s="3">
         <f t="shared" si="30"/>
         <v>4.4091879145265606E-2</v>
@@ -26786,7 +27811,7 @@
         <v>2.0018393896598624E-2</v>
       </c>
     </row>
-    <row r="282" spans="4:9">
+    <row r="282" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D282" s="3">
         <f t="shared" si="30"/>
         <v>4.4250801062665962E-2</v>
@@ -26812,7 +27837,7 @@
         <v>2.0018326475699705E-2</v>
       </c>
     </row>
-    <row r="283" spans="4:9">
+    <row r="283" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D283" s="3">
         <f t="shared" si="30"/>
         <v>4.4409718110157696E-2</v>
@@ -26838,7 +27863,7 @@
         <v>2.0018259550227225E-2</v>
       </c>
     </row>
-    <row r="284" spans="4:9">
+    <row r="284" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D284" s="3">
         <f t="shared" si="30"/>
         <v>4.456863031427221E-2</v>
@@ -26864,7 +27889,7 @@
         <v>2.0018193109879394E-2</v>
       </c>
     </row>
-    <row r="285" spans="4:9">
+    <row r="285" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D285" s="3">
         <f t="shared" si="30"/>
         <v>4.4727537701300911E-2</v>
@@ -26890,7 +27915,7 @@
         <v>2.0018127151165396E-2</v>
       </c>
     </row>
-    <row r="286" spans="4:9">
+    <row r="286" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D286" s="3">
         <f t="shared" si="30"/>
         <v>4.4886440297298123E-2</v>
@@ -26916,7 +27941,7 @@
         <v>2.00180616716308E-2</v>
       </c>
     </row>
-    <row r="287" spans="4:9">
+    <row r="287" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D287" s="3">
         <f t="shared" si="30"/>
         <v>4.5045338128084221E-2</v>
@@ -26942,7 +27967,7 @@
         <v>2.0017996659999291E-2</v>
       </c>
     </row>
-    <row r="288" spans="4:9">
+    <row r="288" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D288" s="3">
         <f t="shared" si="30"/>
         <v>4.5204231219248464E-2</v>
@@ -26968,7 +27993,7 @@
         <v>2.0017932115034567E-2</v>
       </c>
     </row>
-    <row r="289" spans="4:9">
+    <row r="289" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D289" s="3">
         <f t="shared" si="30"/>
         <v>4.5363119596151837E-2</v>
@@ -26994,7 +28019,7 @@
         <v>2.0017868036630609E-2</v>
       </c>
     </row>
-    <row r="290" spans="4:9">
+    <row r="290" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D290" s="3">
         <f t="shared" si="30"/>
         <v>4.5522003283930093E-2</v>
@@ -27020,7 +28045,7 @@
         <v>2.0017804405999196E-2</v>
       </c>
     </row>
-    <row r="291" spans="4:9">
+    <row r="291" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D291" s="3">
         <f t="shared" si="30"/>
         <v>4.5680882307496291E-2</v>
@@ -27046,7 +28071,7 @@
         <v>2.0017741232933636E-2</v>
       </c>
     </row>
-    <row r="292" spans="4:9">
+    <row r="292" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D292" s="3">
         <f t="shared" si="30"/>
         <v>4.5839756691543686E-2</v>
@@ -27072,7 +28097,7 @@
         <v>2.0017678507645933E-2</v>
       </c>
     </row>
-    <row r="293" spans="4:9">
+    <row r="293" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D293" s="3">
         <f t="shared" si="30"/>
         <v>4.5998626460548468E-2</v>
@@ -27098,7 +28123,7 @@
         <v>2.0017616218372652E-2</v>
       </c>
     </row>
-    <row r="294" spans="4:9">
+    <row r="294" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D294" s="3">
         <f t="shared" si="30"/>
         <v>4.6157491638772336E-2</v>
@@ -27124,7 +28149,7 @@
         <v>2.0017554370521506E-2</v>
       </c>
     </row>
-    <row r="295" spans="4:9">
+    <row r="295" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D295" s="3">
         <f t="shared" si="30"/>
         <v>4.631635225026514E-2</v>
@@ -27150,7 +28175,7 @@
         <v>2.0017492955661301E-2</v>
       </c>
     </row>
-    <row r="296" spans="4:9">
+    <row r="296" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D296" s="3">
         <f t="shared" si="30"/>
         <v>4.6475208318867464E-2</v>
@@ -27176,7 +28201,7 @@
         <v>2.0017431969352836E-2</v>
       </c>
     </row>
-    <row r="297" spans="4:9">
+    <row r="297" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D297" s="3">
         <f t="shared" si="30"/>
         <v>4.6634059868213264E-2</v>
@@ -27202,7 +28227,7 @@
         <v>2.0017371402900327E-2</v>
       </c>
     </row>
-    <row r="298" spans="4:9">
+    <row r="298" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D298" s="3">
         <f t="shared" si="30"/>
         <v>4.6792906921732172E-2</v>
@@ -27228,7 +28253,7 @@
         <v>2.0017311261525422E-2</v>
       </c>
     </row>
-    <row r="299" spans="4:9">
+    <row r="299" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D299" s="3">
         <f t="shared" si="30"/>
         <v>4.695174950265215E-2</v>
@@ -27254,7 +28279,7 @@
         <v>2.0017251529266717E-2</v>
       </c>
     </row>
-    <row r="300" spans="4:9">
+    <row r="300" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D300" s="3">
         <f t="shared" si="30"/>
         <v>4.7110587634001784E-2</v>
@@ -27280,7 +28305,7 @@
         <v>2.0017192212713999E-2</v>
       </c>
     </row>
-    <row r="301" spans="4:9">
+    <row r="301" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D301" s="3">
         <f t="shared" si="30"/>
         <v>4.7269421338612755E-2</v>
@@ -27306,7 +28331,7 @@
         <v>2.0017133300626405E-2</v>
       </c>
     </row>
-    <row r="302" spans="4:9">
+    <row r="302" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D302" s="3">
         <f t="shared" si="30"/>
         <v>4.7428250639122115E-2</v>
@@ -27332,7 +28357,7 @@
         <v>2.001707478985601E-2</v>
       </c>
     </row>
-    <row r="303" spans="4:9">
+    <row r="303" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D303" s="3">
         <f t="shared" si="30"/>
         <v>4.7587075557974673E-2</v>
@@ -27358,7 +28383,7 @@
         <v>2.0017016679567984E-2</v>
       </c>
     </row>
-    <row r="304" spans="4:9">
+    <row r="304" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D304" s="3">
         <f t="shared" si="30"/>
         <v>4.7745896117425204E-2</v>
@@ -27384,7 +28409,7 @@
         <v>2.0016958962126002E-2</v>
       </c>
     </row>
-    <row r="305" spans="4:9">
+    <row r="305" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D305" s="3">
         <f t="shared" si="30"/>
         <v>4.7904712339540773E-2</v>
@@ -27410,7 +28435,7 @@
         <v>2.0016901635152046E-2</v>
       </c>
     </row>
-    <row r="306" spans="4:9">
+    <row r="306" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D306" s="3">
         <f t="shared" si="30"/>
         <v>4.8063524246202881E-2</v>
@@ -27436,7 +28461,7 @@
         <v>2.0016844693305825E-2</v>
       </c>
     </row>
-    <row r="307" spans="4:9">
+    <row r="307" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D307" s="3">
         <f t="shared" si="30"/>
         <v>4.8222331859109631E-2</v>
@@ -27462,7 +28487,7 @@
         <v>2.0016788137347738E-2</v>
       </c>
     </row>
-    <row r="308" spans="4:9">
+    <row r="308" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D308" s="3">
         <f t="shared" si="30"/>
         <v>4.838113519977795E-2</v>
@@ -27488,7 +28513,7 @@
         <v>2.0016731955280559E-2</v>
       </c>
     </row>
-    <row r="309" spans="4:9">
+    <row r="309" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D309" s="3">
         <f t="shared" si="30"/>
         <v>4.8539934289545617E-2</v>
@@ -27514,7 +28539,7 @@
         <v>2.0016676152076803E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:9">
+    <row r="310" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D310" s="3">
         <f t="shared" si="30"/>
         <v>4.8698729149573398E-2</v>
@@ -27540,7 +28565,7 @@
         <v>2.0016620717108052E-2</v>
       </c>
     </row>
-    <row r="311" spans="4:9">
+    <row r="311" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D311" s="3">
         <f t="shared" si="30"/>
         <v>4.8857519800847092E-2</v>
@@ -27566,7 +28591,7 @@
         <v>2.0016565649745823E-2</v>
       </c>
     </row>
-    <row r="312" spans="4:9">
+    <row r="312" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D312" s="3">
         <f t="shared" si="30"/>
         <v>4.9016306264179507E-2</v>
@@ -27592,7 +28617,7 @@
         <v>2.0016510948482613E-2</v>
       </c>
     </row>
-    <row r="313" spans="4:9">
+    <row r="313" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D313" s="3">
         <f t="shared" si="30"/>
         <v>4.9175088560212493E-2</v>
@@ -27618,7 +28643,7 @@
         <v>2.0016456603944226E-2</v>
       </c>
     </row>
-    <row r="314" spans="4:9">
+    <row r="314" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D314" s="3">
         <f t="shared" si="30"/>
         <v>4.9333866709418875E-2</v>
@@ -27644,7 +28669,7 @@
         <v>2.0016402618449006E-2</v>
       </c>
     </row>
-    <row r="315" spans="4:9">
+    <row r="315" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D315" s="3">
         <f t="shared" si="30"/>
         <v>4.9492640732104416E-2</v>
@@ -27670,7 +28695,7 @@
         <v>2.0016348984063004E-2</v>
       </c>
     </row>
-    <row r="316" spans="4:9">
+    <row r="316" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D316" s="3">
         <f t="shared" si="30"/>
         <v>4.965141064840968E-2</v>
@@ -27696,7 +28721,7 @@
         <v>2.0016295701110451E-2</v>
       </c>
     </row>
-    <row r="317" spans="4:9">
+    <row r="317" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D317" s="3">
         <f t="shared" si="30"/>
         <v>4.9810176478311929E-2</v>
@@ -27722,7 +28747,7 @@
         <v>2.0016242764510347E-2</v>
       </c>
     </row>
-    <row r="318" spans="4:9">
+    <row r="318" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D318" s="3">
         <f t="shared" si="30"/>
         <v>4.9968938241626994E-2</v>
@@ -27748,7 +28773,7 @@
         <v>2.0016190167168362E-2</v>
       </c>
     </row>
-    <row r="319" spans="4:9">
+    <row r="319" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D319" s="3">
         <f t="shared" si="30"/>
         <v>5.0127695958011018E-2</v>
@@ -27774,7 +28799,7 @@
         <v>2.0016137915524996E-2</v>
       </c>
     </row>
-    <row r="320" spans="4:9">
+    <row r="320" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D320" s="3">
         <f t="shared" si="30"/>
         <v>5.0286449646962363E-2</v>
@@ -27800,7 +28825,7 @@
         <v>2.0016085993560886E-2</v>
       </c>
     </row>
-    <row r="321" spans="4:9">
+    <row r="321" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D321" s="3">
         <f t="shared" si="30"/>
         <v>5.0445199327823285E-2</v>
@@ -27826,7 +28851,7 @@
         <v>2.0016034407853579E-2</v>
       </c>
     </row>
-    <row r="322" spans="4:9">
+    <row r="322" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D322" s="3">
         <f t="shared" si="30"/>
         <v>5.0603945019781688E-2</v>
@@ -27852,7 +28877,7 @@
         <v>2.0015983153621551E-2</v>
       </c>
     </row>
-    <row r="323" spans="4:9">
+    <row r="323" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D323" s="3">
         <f t="shared" si="30"/>
         <v>5.0762686741872912E-2</v>
@@ -27878,7 +28903,7 @@
         <v>2.0015932223394407E-2</v>
       </c>
     </row>
-    <row r="324" spans="4:9">
+    <row r="324" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D324" s="3">
         <f t="shared" si="30"/>
         <v>5.09214245129814E-2</v>
@@ -27904,7 +28929,7 @@
         <v>2.0015881614768992E-2</v>
       </c>
     </row>
-    <row r="325" spans="4:9">
+    <row r="325" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D325" s="3">
         <f t="shared" si="30"/>
         <v>5.1080158351842257E-2</v>
@@ -27930,7 +28955,7 @@
         <v>2.0015831332748646E-2</v>
       </c>
     </row>
-    <row r="326" spans="4:9">
+    <row r="326" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D326" s="3">
         <f t="shared" si="30"/>
         <v>5.1238888277043058E-2</v>
@@ -27956,7 +28981,7 @@
         <v>2.0015781363607481E-2</v>
       </c>
     </row>
-    <row r="327" spans="4:9">
+    <row r="327" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D327" s="3">
         <f t="shared" si="30"/>
         <v>5.1397614307025399E-2</v>
@@ -27982,7 +29007,7 @@
         <v>2.0015731708511109E-2</v>
       </c>
     </row>
-    <row r="328" spans="4:9">
+    <row r="328" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D328" s="3">
         <f t="shared" si="30"/>
         <v>5.155633646008647E-2</v>
@@ -28008,7 +29033,7 @@
         <v>2.0015682367617183E-2</v>
       </c>
     </row>
-    <row r="329" spans="4:9">
+    <row r="329" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D329" s="3">
         <f t="shared" ref="D329:D392" si="36">$D$2+$D$3*F329+$D$4*F329*F329/2</f>
         <v>5.1715054754380645E-2</v>
@@ -28034,7 +29059,7 @@
         <v>2.0015633335149535E-2</v>
       </c>
     </row>
-    <row r="330" spans="4:9">
+    <row r="330" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D330" s="3">
         <f t="shared" si="36"/>
         <v>5.1873769207921146E-2</v>
@@ -28060,7 +29085,7 @@
         <v>2.0015584603583433E-2</v>
       </c>
     </row>
-    <row r="331" spans="4:9">
+    <row r="331" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D331" s="3">
         <f t="shared" si="36"/>
         <v>5.203247983858135E-2</v>
@@ -28086,7 +29111,7 @@
         <v>2.001553618419601E-2</v>
       </c>
     </row>
-    <row r="332" spans="4:9">
+    <row r="332" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D332" s="3">
         <f t="shared" si="36"/>
         <v>5.2191186664096542E-2</v>
@@ -28112,7 +29137,7 @@
         <v>2.0015488053344986E-2</v>
       </c>
     </row>
-    <row r="333" spans="4:9">
+    <row r="333" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D333" s="3">
         <f t="shared" si="36"/>
         <v>5.2349889702065264E-2</v>
@@ -28138,7 +29163,7 @@
         <v>2.0015440228704211E-2</v>
       </c>
     </row>
-    <row r="334" spans="4:9">
+    <row r="334" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D334" s="3">
         <f t="shared" si="36"/>
         <v>5.2508588969950823E-2</v>
@@ -28164,7 +29189,7 @@
         <v>2.0015392691926134E-2</v>
       </c>
     </row>
-    <row r="335" spans="4:9">
+    <row r="335" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D335" s="3">
         <f t="shared" si="36"/>
         <v>5.2667284485082719E-2</v>
@@ -28190,7 +29215,7 @@
         <v>2.0015345454810454E-2</v>
       </c>
     </row>
-    <row r="336" spans="4:9">
+    <row r="336" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D336" s="3">
         <f t="shared" si="36"/>
         <v>5.2825976264658112E-2</v>
@@ -28216,7 +29241,7 @@
         <v>2.0015298499924141E-2</v>
       </c>
     </row>
-    <row r="337" spans="4:9">
+    <row r="337" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D337" s="3">
         <f t="shared" si="36"/>
         <v>5.298466432574326E-2</v>
@@ -28242,7 +29267,7 @@
         <v>2.0015251830750307E-2</v>
       </c>
     </row>
-    <row r="338" spans="4:9">
+    <row r="338" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D338" s="3">
         <f t="shared" si="36"/>
         <v>5.3143348685274754E-2</v>
@@ -28268,7 +29293,7 @@
         <v>2.0015205455975647E-2</v>
       </c>
     </row>
-    <row r="339" spans="4:9">
+    <row r="339" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D339" s="3">
         <f t="shared" si="36"/>
         <v>5.3302029360061141E-2</v>
@@ -28294,7 +29319,7 @@
         <v>2.0015159347811725E-2</v>
       </c>
     </row>
-    <row r="340" spans="4:9">
+    <row r="340" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D340" s="3">
         <f t="shared" si="36"/>
         <v>5.346070636678403E-2</v>
@@ -28320,7 +29345,7 @@
         <v>2.0015113530241397E-2</v>
       </c>
     </row>
-    <row r="341" spans="4:9">
+    <row r="341" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D341" s="3">
         <f t="shared" si="36"/>
         <v>5.3619379721999628E-2</v>
@@ -28346,7 +29371,7 @@
         <v>2.0015067982011095E-2</v>
       </c>
     </row>
-    <row r="342" spans="4:9">
+    <row r="342" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D342" s="3">
         <f t="shared" si="36"/>
         <v>5.3778049442139916E-2</v>
@@ -28372,7 +29397,7 @@
         <v>2.0015022708190007E-2</v>
       </c>
     </row>
-    <row r="343" spans="4:9">
+    <row r="343" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D343" s="3">
         <f t="shared" si="36"/>
         <v>5.3936715543514008E-2</v>
@@ -28398,7 +29423,7 @@
         <v>2.0014977709273504E-2</v>
       </c>
     </row>
-    <row r="344" spans="4:9">
+    <row r="344" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D344" s="3">
         <f t="shared" si="36"/>
         <v>5.4095378042309454E-2</v>
@@ -28424,7 +29449,7 @@
         <v>2.001493297403081E-2</v>
       </c>
     </row>
-    <row r="345" spans="4:9">
+    <row r="345" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D345" s="3">
         <f t="shared" si="36"/>
         <v>5.425403695459341E-2</v>
@@ -28450,7 +29475,7 @@
         <v>2.0014888513073353E-2</v>
       </c>
     </row>
-    <row r="346" spans="4:9">
+    <row r="346" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D346" s="3">
         <f t="shared" si="36"/>
         <v>5.4412692296314062E-2</v>
@@ -28476,7 +29501,7 @@
         <v>2.0014844306101294E-2</v>
       </c>
     </row>
-    <row r="347" spans="4:9">
+    <row r="347" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D347" s="3">
         <f t="shared" si="36"/>
         <v>5.4571344083301651E-2</v>
@@ -28502,7 +29527,7 @@
         <v>2.00148003690893E-2</v>
       </c>
     </row>
-    <row r="348" spans="4:9">
+    <row r="348" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D348" s="3">
         <f t="shared" si="36"/>
         <v>5.4729992331269864E-2</v>
@@ -28528,7 +29553,7 @@
         <v>2.0014756684960184E-2</v>
       </c>
     </row>
-    <row r="349" spans="4:9">
+    <row r="349" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D349" s="3">
         <f t="shared" si="36"/>
         <v>5.4888637055816883E-2</v>
@@ -28554,7 +29579,7 @@
         <v>2.0014713264971926E-2</v>
       </c>
     </row>
-    <row r="350" spans="4:9">
+    <row r="350" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D350" s="3">
         <f t="shared" si="36"/>
         <v>5.5047278272426718E-2</v>
@@ -28580,7 +29605,7 @@
         <v>2.0014670092464232E-2</v>
       </c>
     </row>
-    <row r="351" spans="4:9">
+    <row r="351" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D351" s="3">
         <f t="shared" si="36"/>
         <v>5.5205915996470283E-2</v>
@@ -28606,7 +29631,7 @@
         <v>2.0014627175924005E-2</v>
       </c>
     </row>
-    <row r="352" spans="4:9">
+    <row r="352" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D352" s="3">
         <f t="shared" si="36"/>
         <v>5.5364550243206495E-2</v>
@@ -28632,7 +29657,7 @@
         <v>2.001458451390891E-2</v>
       </c>
     </row>
-    <row r="353" spans="4:9">
+    <row r="353" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D353" s="3">
         <f t="shared" si="36"/>
         <v>5.5523181027783572E-2</v>
@@ -28658,7 +29683,7 @@
         <v>2.0014542093630645E-2</v>
       </c>
     </row>
-    <row r="354" spans="4:9">
+    <row r="354" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D354" s="3">
         <f t="shared" si="36"/>
         <v>5.5681808365240053E-2</v>
@@ -28684,7 +29709,7 @@
         <v>2.0014499919203229E-2</v>
       </c>
     </row>
-    <row r="355" spans="4:9">
+    <row r="355" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D355" s="3">
         <f t="shared" si="36"/>
         <v>5.5840432270505884E-2</v>
@@ -28710,7 +29735,7 @@
         <v>2.0014457993984609E-2</v>
       </c>
     </row>
-    <row r="356" spans="4:9">
+    <row r="356" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D356" s="3">
         <f t="shared" si="36"/>
         <v>5.599905275840357E-2</v>
@@ -28736,7 +29761,7 @@
         <v>2.001441630625406E-2</v>
       </c>
     </row>
-    <row r="357" spans="4:9">
+    <row r="357" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D357" s="3">
         <f t="shared" si="36"/>
         <v>5.6157669843649213E-2</v>
@@ -28762,7 +29787,7 @@
         <v>2.0014374861614049E-2</v>
       </c>
     </row>
-    <row r="358" spans="4:9">
+    <row r="358" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D358" s="3">
         <f t="shared" si="36"/>
         <v>5.6316283540853641E-2</v>
@@ -28788,7 +29813,7 @@
         <v>2.0014333650520254E-2</v>
       </c>
     </row>
-    <row r="359" spans="4:9">
+    <row r="359" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D359" s="3">
         <f t="shared" si="36"/>
         <v>5.6474893864523368E-2</v>
@@ -28814,7 +29839,7 @@
         <v>2.0014292679612616E-2</v>
       </c>
     </row>
-    <row r="360" spans="4:9">
+    <row r="360" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D360" s="3">
         <f t="shared" si="36"/>
         <v>5.6633500829061705E-2</v>
@@ -28840,7 +29865,7 @@
         <v>2.0014251937560689E-2</v>
       </c>
     </row>
-    <row r="361" spans="4:9">
+    <row r="361" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D361" s="3">
         <f t="shared" si="36"/>
         <v>5.6792104448769774E-2</v>
@@ -28866,7 +29891,7 @@
         <v>2.0014211431845171E-2</v>
       </c>
     </row>
-    <row r="362" spans="4:9">
+    <row r="362" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D362" s="3">
         <f t="shared" si="36"/>
         <v>5.6950704737847503E-2</v>
@@ -28892,7 +29917,7 @@
         <v>2.0014171149016161E-2</v>
       </c>
     </row>
-    <row r="363" spans="4:9">
+    <row r="363" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D363" s="3">
         <f t="shared" si="36"/>
         <v>5.7109301710394592E-2</v>
@@ -28918,7 +29943,7 @@
         <v>2.0014131103740465E-2</v>
       </c>
     </row>
-    <row r="364" spans="4:9">
+    <row r="364" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D364" s="3">
         <f t="shared" si="36"/>
         <v>5.7267895380411576E-2</v>
@@ -28944,7 +29969,7 @@
         <v>2.0014091277321979E-2</v>
       </c>
     </row>
-    <row r="365" spans="4:9">
+    <row r="365" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D365" s="3">
         <f t="shared" si="36"/>
         <v>5.7426485761800788E-2</v>
@@ -28970,7 +29995,7 @@
         <v>2.0014051672230783E-2</v>
       </c>
     </row>
-    <row r="366" spans="4:9">
+    <row r="366" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D366" s="3">
         <f t="shared" si="36"/>
         <v>5.7585072868367261E-2</v>
@@ -28996,7 +30021,7 @@
         <v>2.0014012294774588E-2</v>
       </c>
     </row>
-    <row r="367" spans="4:9">
+    <row r="367" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D367" s="3">
         <f t="shared" si="36"/>
         <v>5.7743656713819688E-2</v>
@@ -29022,7 +30047,7 @@
         <v>2.0013973137230676E-2</v>
       </c>
     </row>
-    <row r="368" spans="4:9">
+    <row r="368" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D368" s="3">
         <f t="shared" si="36"/>
         <v>5.790223731177143E-2</v>
@@ -29048,7 +30073,7 @@
         <v>2.0013934195075422E-2</v>
       </c>
     </row>
-    <row r="369" spans="4:9">
+    <row r="369" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D369" s="3">
         <f t="shared" si="36"/>
         <v>5.8060814675741389E-2</v>
@@ -29074,7 +30099,7 @@
         <v>2.0013895469602534E-2</v>
       </c>
     </row>
-    <row r="370" spans="4:9">
+    <row r="370" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D370" s="3">
         <f t="shared" si="36"/>
         <v>5.8219388819154901E-2</v>
@@ -29100,7 +30125,7 @@
         <v>2.001385696222938E-2</v>
       </c>
     </row>
-    <row r="371" spans="4:9">
+    <row r="371" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D371" s="3">
         <f t="shared" si="36"/>
         <v>5.8377959755344676E-2</v>
@@ -29126,7 +30151,7 @@
         <v>2.0013818665890075E-2</v>
       </c>
     </row>
-    <row r="372" spans="4:9">
+    <row r="372" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D372" s="3">
         <f t="shared" si="36"/>
         <v>5.8536527497551755E-2</v>
@@ -29152,7 +30177,7 @@
         <v>2.0013780574259919E-2</v>
       </c>
     </row>
-    <row r="373" spans="4:9">
+    <row r="373" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D373" s="3">
         <f t="shared" si="36"/>
         <v>5.8695092058926222E-2</v>
@@ -29178,7 +30203,7 @@
         <v>2.0013742703877593E-2</v>
       </c>
     </row>
-    <row r="374" spans="4:9">
+    <row r="374" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D374" s="3">
         <f t="shared" si="36"/>
         <v>5.8853653452528229E-2</v>
@@ -29204,7 +30229,7 @@
         <v>2.0013705032425652E-2</v>
       </c>
     </row>
-    <row r="375" spans="4:9">
+    <row r="375" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D375" s="3">
         <f t="shared" si="36"/>
         <v>5.9012211691328788E-2</v>
@@ -29230,7 +30255,7 @@
         <v>2.0013667568049901E-2</v>
       </c>
     </row>
-    <row r="376" spans="4:9">
+    <row r="376" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D376" s="3">
         <f t="shared" si="36"/>
         <v>5.9170766788210628E-2</v>
@@ -29256,7 +30281,7 @@
         <v>2.00136303099815E-2</v>
       </c>
     </row>
-    <row r="377" spans="4:9">
+    <row r="377" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D377" s="3">
         <f t="shared" si="36"/>
         <v>5.9329318755969002E-2</v>
@@ -29282,7 +30307,7 @@
         <v>2.0013593259308814E-2</v>
       </c>
     </row>
-    <row r="378" spans="4:9">
+    <row r="378" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D378" s="3">
         <f t="shared" si="36"/>
         <v>5.9487867607312644E-2</v>
@@ -29308,7 +30333,7 @@
         <v>2.0013556395696613E-2</v>
       </c>
     </row>
-    <row r="379" spans="4:9">
+    <row r="379" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D379" s="3">
         <f t="shared" si="36"/>
         <v>5.9646413354864404E-2</v>
@@ -29334,7 +30359,7 @@
         <v>2.0013519745316927E-2</v>
       </c>
     </row>
-    <row r="380" spans="4:9">
+    <row r="380" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D380" s="3">
         <f t="shared" si="36"/>
         <v>5.9804956011162203E-2</v>
@@ -29360,7 +30385,7 @@
         <v>2.0013483284965414E-2</v>
       </c>
     </row>
-    <row r="381" spans="4:9">
+    <row r="381" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D381" s="3">
         <f t="shared" si="36"/>
         <v>5.9963495588659724E-2</v>
@@ -29386,7 +30411,7 @@
         <v>2.0013447024252236E-2</v>
       </c>
     </row>
-    <row r="382" spans="4:9">
+    <row r="382" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D382" s="3">
         <f t="shared" si="36"/>
         <v>6.0122032099727309E-2</v>
@@ -29412,7 +30437,7 @@
         <v>2.0013410956532234E-2</v>
       </c>
     </row>
-    <row r="383" spans="4:9">
+    <row r="383" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D383" s="3">
         <f t="shared" si="36"/>
         <v>6.0280565556652649E-2</v>
@@ -29438,7 +30463,7 @@
         <v>2.0013375081301243E-2</v>
       </c>
     </row>
-    <row r="384" spans="4:9">
+    <row r="384" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D384" s="3">
         <f t="shared" si="36"/>
         <v>6.0439095971641627E-2</v>
@@ -29464,7 +30489,7 @@
         <v>2.0013339396470004E-2</v>
       </c>
     </row>
-    <row r="385" spans="4:9">
+    <row r="385" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D385" s="3">
         <f t="shared" si="36"/>
         <v>6.0597623356818967E-2</v>
@@ -29490,7 +30515,7 @@
         <v>2.001330390806141E-2</v>
       </c>
     </row>
-    <row r="386" spans="4:9">
+    <row r="386" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D386" s="3">
         <f t="shared" si="36"/>
         <v>6.0756147724229138E-2</v>
@@ -29516,7 +30541,7 @@
         <v>2.0013268598821896E-2</v>
       </c>
     </row>
-    <row r="387" spans="4:9">
+    <row r="387" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D387" s="3">
         <f t="shared" si="36"/>
         <v>6.0914669085836995E-2</v>
@@ -29542,7 +30567,7 @@
         <v>2.0013233478922306E-2</v>
       </c>
     </row>
-    <row r="388" spans="4:9">
+    <row r="388" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D388" s="3">
         <f t="shared" si="36"/>
         <v>6.1073187453528494E-2</v>
@@ -29568,7 +30593,7 @@
         <v>2.0013198553280521E-2</v>
       </c>
     </row>
-    <row r="389" spans="4:9">
+    <row r="389" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D389" s="3">
         <f t="shared" si="36"/>
         <v>6.1231702839111508E-2</v>
@@ -29594,7 +30619,7 @@
         <v>2.0013163801341497E-2</v>
       </c>
     </row>
-    <row r="390" spans="4:9">
+    <row r="390" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D390" s="3">
         <f t="shared" si="36"/>
         <v>6.139021525431651E-2</v>
@@ -29620,7 +30645,7 @@
         <v>2.0013129232864156E-2</v>
       </c>
     </row>
-    <row r="391" spans="4:9">
+    <row r="391" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D391" s="3">
         <f t="shared" si="36"/>
         <v>6.1548724710797226E-2</v>
@@ -29646,7 +30671,7 @@
         <v>2.0013094850273888E-2</v>
       </c>
     </row>
-    <row r="392" spans="4:9">
+    <row r="392" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D392" s="3">
         <f t="shared" si="36"/>
         <v>6.17072312201314E-2</v>
@@ -29672,7 +30697,7 @@
         <v>2.0013060644804924E-2</v>
       </c>
     </row>
-    <row r="393" spans="4:9">
+    <row r="393" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D393" s="3">
         <f t="shared" ref="D393:D407" si="42">$D$2+$D$3*F393+$D$4*F393*F393/2</f>
         <v>6.1865734793821472E-2</v>
@@ -29698,7 +30723,7 @@
         <v>2.0013026615264828E-2</v>
       </c>
     </row>
-    <row r="394" spans="4:9">
+    <row r="394" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D394" s="3">
         <f t="shared" si="42"/>
         <v>6.2024235443295238E-2</v>
@@ -29724,7 +30749,7 @@
         <v>2.0012992767468436E-2</v>
       </c>
     </row>
-    <row r="395" spans="4:9">
+    <row r="395" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D395" s="3">
         <f t="shared" si="42"/>
         <v>6.2182733179906559E-2</v>
@@ -29750,7 +30775,7 @@
         <v>2.0012959090756996E-2</v>
       </c>
     </row>
-    <row r="396" spans="4:9">
+    <row r="396" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D396" s="3">
         <f t="shared" si="42"/>
         <v>6.2341228014935961E-2</v>
@@ -29776,7 +30801,7 @@
         <v>2.0012925593663411E-2</v>
       </c>
     </row>
-    <row r="397" spans="4:9">
+    <row r="397" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D397" s="3">
         <f t="shared" si="42"/>
         <v>6.249971995959145E-2</v>
@@ -29802,7 +30827,7 @@
         <v>2.0012892260483806E-2</v>
       </c>
     </row>
-    <row r="398" spans="4:9">
+    <row r="398" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D398" s="3">
         <f t="shared" si="42"/>
         <v>6.2658209025009001E-2</v>
@@ -29828,7 +30853,7 @@
         <v>2.0012859104043049E-2</v>
       </c>
     </row>
-    <row r="399" spans="4:9">
+    <row r="399" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D399" s="3">
         <f t="shared" si="42"/>
         <v>6.2816695222253208E-2</v>
@@ -29854,7 +30879,7 @@
         <v>2.0012826122081058E-2</v>
       </c>
     </row>
-    <row r="400" spans="4:9">
+    <row r="400" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D400" s="3">
         <f t="shared" si="42"/>
         <v>6.2975178562318074E-2</v>
@@ -29880,7 +30905,7 @@
         <v>2.0012793302326661E-2</v>
       </c>
     </row>
-    <row r="401" spans="4:9">
+    <row r="401" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D401" s="3">
         <f t="shared" si="42"/>
         <v>6.3133659056127528E-2</v>
@@ -29906,7 +30931,7 @@
         <v>2.0012760649599066E-2</v>
       </c>
     </row>
-    <row r="402" spans="4:9">
+    <row r="402" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D402" s="3">
         <f t="shared" si="42"/>
         <v>6.329213671453604E-2</v>
@@ -29932,7 +30957,7 @@
         <v>2.0012728166511146E-2</v>
       </c>
     </row>
-    <row r="403" spans="4:9">
+    <row r="403" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D403" s="3">
         <f t="shared" si="42"/>
         <v>6.3450611548329233E-2</v>
@@ -29958,7 +30983,7 @@
         <v>2.0012695850955775E-2</v>
       </c>
     </row>
-    <row r="404" spans="4:9">
+    <row r="404" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D404" s="3">
         <f t="shared" si="42"/>
         <v>6.3609083568224575E-2</v>
@@ -29984,7 +31009,7 @@
         <v>2.0012663695157595E-2</v>
       </c>
     </row>
-    <row r="405" spans="4:9">
+    <row r="405" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D405" s="3">
         <f t="shared" si="42"/>
         <v>6.3767552784871964E-2</v>
@@ -30010,7 +31035,7 @@
         <v>2.0012631695726681E-2</v>
       </c>
     </row>
-    <row r="406" spans="4:9">
+    <row r="406" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D406" s="3">
         <f t="shared" si="42"/>
         <v>6.3926019208854198E-2</v>
@@ -30036,7 +31061,7 @@
         <v>2.0012599872041164E-2</v>
       </c>
     </row>
-    <row r="407" spans="4:9">
+    <row r="407" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D407" s="3">
         <f t="shared" si="42"/>
         <v>6.4084482850687685E-2</v>
@@ -30070,19 +31095,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>500</v>
       </c>
@@ -30090,7 +31115,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -30098,7 +31123,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1500</v>
       </c>
@@ -30106,7 +31131,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2000</v>
       </c>
@@ -30114,7 +31139,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3500</v>
       </c>
@@ -30122,7 +31147,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5000</v>
       </c>
@@ -30130,7 +31155,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6000</v>
       </c>
@@ -30138,7 +31163,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>6500</v>
       </c>
@@ -30146,7 +31171,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>7000</v>
       </c>
@@ -30154,7 +31179,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>250</v>
       </c>
@@ -30162,7 +31187,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>500</v>
       </c>
@@ -30170,7 +31195,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>750</v>
       </c>
@@ -30178,7 +31203,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -30186,7 +31211,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1250</v>
       </c>
@@ -30194,7 +31219,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1500</v>
       </c>
@@ -30202,7 +31227,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1750</v>
       </c>
@@ -30210,7 +31235,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2000</v>
       </c>
@@ -30225,14 +31250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -30242,18 +31267,18 @@
     <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J1" s="40"/>
       <c r="K1" s="41"/>
       <c r="L1" s="41">
         <f ca="1">NOW()</f>
-        <v>40890.934665972221</v>
+        <v>40891.550905902775</v>
       </c>
       <c r="M1" s="42">
         <v>36526.5</v>
       </c>
     </row>
-    <row r="2" spans="3:13">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D2" s="31"/>
       <c r="J2" s="43" t="s">
         <v>45</v>
@@ -30263,14 +31288,14 @@
       </c>
       <c r="L2" s="35">
         <f ca="1">L1</f>
-        <v>40890.934665972221</v>
+        <v>40891.550905902775</v>
       </c>
       <c r="M2" s="44">
         <f>M1</f>
         <v>36526.5</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J3" s="43" t="s">
         <v>46</v>
       </c>
@@ -30287,7 +31312,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J4" s="43" t="s">
         <v>47</v>
       </c>
@@ -30303,7 +31328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J5" s="43" t="s">
         <v>48</v>
       </c>
@@ -30312,14 +31337,14 @@
       </c>
       <c r="L5" s="34">
         <f ca="1">DAY(L2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="15">
         <f>DAY(M2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J6" s="43" t="s">
         <v>49</v>
       </c>
@@ -30328,14 +31353,14 @@
       </c>
       <c r="L6" s="34">
         <f ca="1">HOUR(L2)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M6" s="15">
         <f>HOUR(M2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J7" s="43" t="s">
         <v>50</v>
       </c>
@@ -30344,14 +31369,14 @@
       </c>
       <c r="L7" s="34">
         <f ca="1">MINUTE(L2)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M7" s="15">
         <f>MINUTE(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J8" s="43" t="s">
         <v>51</v>
       </c>
@@ -30360,14 +31385,14 @@
       </c>
       <c r="L8" s="34">
         <f ca="1">SECOND(L2)</f>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M8" s="15">
         <f>SECOND(M2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J9" s="43" t="s">
         <v>52</v>
       </c>
@@ -30377,14 +31402,14 @@
       </c>
       <c r="L9" s="34">
         <f ca="1">TRUNC((1461*(L3+4800+(L4-14)/12))/4+(367*(L4-2-12*((L4-14)/12)))/12-3*((L3+4900+(L4-14)/12)/100)/4+L5-32075)</f>
-        <v>2455910</v>
+        <v>2455911</v>
       </c>
       <c r="M9" s="15">
         <f>TRUNC((1461*(M3+4800+(M4-14)/12))/4+(367*(M4-2-12*((M4-14)/12)))/12-3*((M3+4900+(M4-14)/12)/100)/4+M5-32075)</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="17.25">
+    <row r="10" spans="3:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -30411,14 +31436,14 @@
       </c>
       <c r="L10" s="37">
         <f ca="1">L9+(L6-12)/24+L7/1440+L8/86400</f>
-        <v>2455910.4346643514</v>
+        <v>2455911.0509027774</v>
       </c>
       <c r="M10" s="45">
         <f>M9+(M6-12)/24+M7/1440+M8/86400</f>
         <v>2451545</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="18.75" thickBot="1">
+    <row r="11" spans="3:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -30445,13 +31470,13 @@
         <v>2451545</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -30462,28 +31487,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="15.75">
+    <row r="20" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="8:8" ht="15.75">
+    <row r="21" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="8:8" ht="15.75">
+    <row r="22" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="8:8" ht="15.75">
+    <row r="23" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="8:8" ht="15.75">
+    <row r="24" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="8:8" ht="15.75">
+    <row r="25" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="8:8" ht="15.75">
+    <row r="26" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="8:8" ht="15.75">
+    <row r="27" spans="8:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="H27" s="33"/>
     </row>
   </sheetData>
@@ -30494,20 +31519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:J312"/>
   <sheetViews>
     <sheetView topLeftCell="D265" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E275" sqref="E275:J284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -30521,7 +31546,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -30537,7 +31562,7 @@
         <v>1.8849555921538759E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -30551,7 +31576,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -30564,7 +31589,7 @@
         <v>628.31853071795865</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>60</v>
       </c>
@@ -30577,7 +31602,7 @@
         <v>9.6962736221907204E-4</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>62</v>
       </c>
@@ -30589,7 +31614,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>63</v>
       </c>
@@ -30601,7 +31626,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -30612,7 +31637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -30623,7 +31648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -30635,7 +31660,7 @@
         <v>157.07963267948966</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -30647,7 +31672,7 @@
         <v>125.66370614359172</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>68</v>
       </c>
@@ -30655,7 +31680,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -30671,7 +31696,7 @@
         <v>2.9977029137307184E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>76</v>
       </c>
@@ -30683,7 +31708,7 @@
         <v>5.995405827461437E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>74</v>
       </c>
@@ -30700,7 +31725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -30729,7 +31754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>2</v>
       </c>
@@ -30758,7 +31783,7 @@
         <v>100.14988424775395</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
@@ -30787,7 +31812,7 @@
         <v>100.29976310795108</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>4</v>
       </c>
@@ -30816,7 +31841,7 @@
         <v>100.44963119322823</v>
       </c>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>5</v>
       </c>
@@ -30845,7 +31870,7 @@
         <v>100.59948311660955</v>
       </c>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>6</v>
       </c>
@@ -30874,7 +31899,7 @@
         <v>100.74931349170011</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>7</v>
       </c>
@@ -30903,7 +31928,7 @@
         <v>100.89911693287952</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>8</v>
       </c>
@@ -30932,7 +31957,7 @@
         <v>101.04888805549558</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>9</v>
       </c>
@@ -30961,7 +31986,7 @@
         <v>101.19862147605771</v>
       </c>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>10</v>
       </c>
@@ -30990,7 +32015,7 @@
         <v>101.34831181243052</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>11</v>
       </c>
@@ -31019,7 +32044,7 @@
         <v>101.49795368402735</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>12</v>
       </c>
@@ -31048,7 +32073,7 @@
         <v>101.6475417120035</v>
       </c>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>13</v>
       </c>
@@ -31077,7 +32102,7 @@
         <v>101.79707051944973</v>
       </c>
     </row>
-    <row r="35" spans="4:10">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>14</v>
       </c>
@@ -31106,7 +32131,7 @@
         <v>101.94653473158544</v>
       </c>
     </row>
-    <row r="36" spans="4:10">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>15</v>
       </c>
@@ -31135,7 +32160,7 @@
         <v>102.09592897595191</v>
       </c>
     </row>
-    <row r="37" spans="4:10">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>16</v>
       </c>
@@ -31164,7 +32189,7 @@
         <v>102.24524788260538</v>
       </c>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>17</v>
       </c>
@@ -31193,7 +32218,7 @@
         <v>102.39448608431012</v>
       </c>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>18</v>
       </c>
@@ -31222,7 +32247,7 @@
         <v>102.54363821673128</v>
       </c>
     </row>
-    <row r="40" spans="4:10">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>19</v>
       </c>
@@ -31251,7 +32276,7 @@
         <v>102.69269891862778</v>
       </c>
     </row>
-    <row r="41" spans="4:10">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>20</v>
       </c>
@@ -31280,7 +32305,7 @@
         <v>102.84166283204497</v>
       </c>
     </row>
-    <row r="42" spans="4:10">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>21</v>
       </c>
@@ -31309,7 +32334,7 @@
         <v>102.99052460250726</v>
       </c>
     </row>
-    <row r="43" spans="4:10">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>22</v>
       </c>
@@ -31338,7 +32363,7 @@
         <v>103.13927887921058</v>
       </c>
     </row>
-    <row r="44" spans="4:10">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>23</v>
       </c>
@@ -31367,7 +32392,7 @@
         <v>103.28792031521463</v>
       </c>
     </row>
-    <row r="45" spans="4:10">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>24</v>
       </c>
@@ -31396,7 +32421,7 @@
         <v>103.43644356763525</v>
       </c>
     </row>
-    <row r="46" spans="4:10">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>25</v>
       </c>
@@ -31425,7 +32450,7 @@
         <v>103.58484329783627</v>
       </c>
     </row>
-    <row r="47" spans="4:10">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>26</v>
       </c>
@@ -31454,7 +32479,7 @@
         <v>103.73311417162155</v>
       </c>
     </row>
-    <row r="48" spans="4:10">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>27</v>
       </c>
@@ -31483,7 +32508,7 @@
         <v>103.88125085942664</v>
       </c>
     </row>
-    <row r="49" spans="4:10">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>28</v>
       </c>
@@ -31512,7 +32537,7 @@
         <v>104.02924803651041</v>
       </c>
     </row>
-    <row r="50" spans="4:10">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>29</v>
       </c>
@@ -31541,7 +32566,7 @@
         <v>104.17710038314637</v>
       </c>
     </row>
-    <row r="51" spans="4:10">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>30</v>
       </c>
@@ -31570,7 +32595,7 @@
         <v>104.32480258481395</v>
       </c>
     </row>
-    <row r="52" spans="4:10">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>31</v>
       </c>
@@ -31599,7 +32624,7 @@
         <v>104.47234933238953</v>
       </c>
     </row>
-    <row r="53" spans="4:10">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>32</v>
       </c>
@@ -31628,7 +32653,7 @@
         <v>104.61973532233721</v>
       </c>
     </row>
-    <row r="54" spans="4:10">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>33</v>
       </c>
@@ -31657,7 +32682,7 @@
         <v>104.76695525689952</v>
       </c>
     </row>
-    <row r="55" spans="4:10">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>34</v>
       </c>
@@ -31686,7 +32711,7 @@
         <v>104.91400384428781</v>
       </c>
     </row>
-    <row r="56" spans="4:10">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>35</v>
       </c>
@@ -31715,7 +32740,7 @@
         <v>105.06087579887244</v>
       </c>
     </row>
-    <row r="57" spans="4:10">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>36</v>
       </c>
@@ -31744,7 +32769,7 @@
         <v>105.20756584137284</v>
       </c>
     </row>
-    <row r="58" spans="4:10">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>37</v>
       </c>
@@ -31773,7 +32798,7 @@
         <v>105.3540686990472</v>
       </c>
     </row>
-    <row r="59" spans="4:10">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>38</v>
       </c>
@@ -31802,7 +32827,7 @@
         <v>105.50037910588206</v>
       </c>
     </row>
-    <row r="60" spans="4:10">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>39</v>
       </c>
@@ -31831,7 +32856,7 @@
         <v>105.64649180278151</v>
       </c>
     </row>
-    <row r="61" spans="4:10">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>40</v>
       </c>
@@ -31860,7 +32885,7 @@
         <v>105.79240153775635</v>
       </c>
     </row>
-    <row r="62" spans="4:10">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>41</v>
       </c>
@@ -31889,7 +32914,7 @@
         <v>105.93810306611272</v>
       </c>
     </row>
-    <row r="63" spans="4:10">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>42</v>
       </c>
@@ -31918,7 +32943,7 @@
         <v>106.08359115064079</v>
       </c>
     </row>
-    <row r="64" spans="4:10">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>43</v>
       </c>
@@ -31947,7 +32972,7 @@
         <v>106.22886056180283</v>
       </c>
     </row>
-    <row r="65" spans="4:10">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>44</v>
       </c>
@@ -31976,7 +33001,7 @@
         <v>106.37390607792139</v>
       </c>
     </row>
-    <row r="66" spans="4:10">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>45</v>
       </c>
@@ -32005,7 +33030,7 @@
         <v>106.51872248536677</v>
       </c>
     </row>
-    <row r="67" spans="4:10">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>46</v>
       </c>
@@ -32034,7 +33059,7 @@
         <v>106.66330457874457</v>
       </c>
     </row>
-    <row r="68" spans="4:10">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>47</v>
       </c>
@@ -32063,7 +33088,7 @@
         <v>106.8076471610828</v>
       </c>
     </row>
-    <row r="69" spans="4:10">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>48</v>
       </c>
@@ -32092,7 +33117,7 @@
         <v>106.95174504401858</v>
       </c>
     </row>
-    <row r="70" spans="4:10">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>49</v>
       </c>
@@ -32121,7 +33146,7 @@
         <v>107.09559304798474</v>
       </c>
     </row>
-    <row r="71" spans="4:10">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>50</v>
       </c>
@@ -32150,7 +33175,7 @@
         <v>107.23918600239594</v>
       </c>
     </row>
-    <row r="72" spans="4:10">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>51</v>
       </c>
@@ -32179,7 +33204,7 @@
         <v>107.38251874583452</v>
       </c>
     </row>
-    <row r="73" spans="4:10">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>52</v>
       </c>
@@ -32208,7 +33233,7 @@
         <v>107.52558612623609</v>
       </c>
     </row>
-    <row r="74" spans="4:10">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>53</v>
       </c>
@@ -32237,7 +33262,7 @@
         <v>107.66838300107464</v>
       </c>
     </row>
-    <row r="75" spans="4:10">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>54</v>
       </c>
@@ -32266,7 +33291,7 @@
         <v>107.81090423754745</v>
       </c>
     </row>
-    <row r="76" spans="4:10">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>55</v>
       </c>
@@ -32295,7 +33320,7 @@
         <v>107.95314471275955</v>
       </c>
     </row>
-    <row r="77" spans="4:10">
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>56</v>
       </c>
@@ -32324,7 +33349,7 @@
         <v>108.09509931390785</v>
       </c>
     </row>
-    <row r="78" spans="4:10">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>57</v>
       </c>
@@ -32353,7 +33378,7 @@
         <v>108.23676293846501</v>
       </c>
     </row>
-    <row r="79" spans="4:10">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>58</v>
       </c>
@@ -32382,7 +33407,7 @@
         <v>108.37813049436268</v>
       </c>
     </row>
-    <row r="80" spans="4:10">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>59</v>
       </c>
@@ -32411,7 +33436,7 @@
         <v>108.51919690017472</v>
       </c>
     </row>
-    <row r="81" spans="4:10">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>60</v>
       </c>
@@ -32440,7 +33465,7 @@
         <v>108.65995708529974</v>
       </c>
     </row>
-    <row r="82" spans="4:10">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>61</v>
       </c>
@@ -32469,7 +33494,7 @@
         <v>108.80040599014335</v>
       </c>
     </row>
-    <row r="83" spans="4:10">
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>62</v>
       </c>
@@ -32498,7 +33523,7 @@
         <v>108.94053856630012</v>
       </c>
     </row>
-    <row r="84" spans="4:10">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>63</v>
       </c>
@@ -32527,7 +33552,7 @@
         <v>109.08034977673493</v>
       </c>
     </row>
-    <row r="85" spans="4:10">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>64</v>
       </c>
@@ -32556,7 +33581,7 @@
         <v>109.21983459596413</v>
       </c>
     </row>
-    <row r="86" spans="4:10">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>65</v>
       </c>
@@ -32585,7 +33610,7 @@
         <v>109.3589880102361</v>
       </c>
     </row>
-    <row r="87" spans="4:10">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>66</v>
       </c>
@@ -32614,7 +33639,7 @@
         <v>109.49780501771153</v>
       </c>
     </row>
-    <row r="88" spans="4:10">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>67</v>
       </c>
@@ -32643,7 +33668,7 @@
         <v>109.63628062864312</v>
       </c>
     </row>
-    <row r="89" spans="4:10">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>68</v>
       </c>
@@ -32672,7 +33697,7 @@
         <v>109.77440986555506</v>
       </c>
     </row>
-    <row r="90" spans="4:10">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>69</v>
       </c>
@@ -32701,7 +33726,7 @@
         <v>109.91218776342185</v>
       </c>
     </row>
-    <row r="91" spans="4:10">
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>70</v>
       </c>
@@ -32730,7 +33755,7 @@
         <v>110.04960936984679</v>
       </c>
     </row>
-    <row r="92" spans="4:10">
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>71</v>
       </c>
@@ -32759,7 +33784,7 @@
         <v>110.18666974524002</v>
       </c>
     </row>
-    <row r="93" spans="4:10">
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>72</v>
       </c>
@@ -32788,7 +33813,7 @@
         <v>110.32336396299604</v>
       </c>
     </row>
-    <row r="94" spans="4:10">
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>73</v>
       </c>
@@ -32817,7 +33842,7 @@
         <v>110.45968710967078</v>
       </c>
     </row>
-    <row r="95" spans="4:10">
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>74</v>
       </c>
@@ -32846,7 +33871,7 @@
         <v>110.5956342851583</v>
       </c>
     </row>
-    <row r="96" spans="4:10">
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>75</v>
       </c>
@@ -32875,7 +33900,7 @@
         <v>110.73120060286679</v>
       </c>
     </row>
-    <row r="97" spans="4:10">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>76</v>
       </c>
@@ -32904,7 +33929,7 @@
         <v>110.86638118989435</v>
       </c>
     </row>
-    <row r="98" spans="4:10">
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>77</v>
       </c>
@@ -32933,7 +33958,7 @@
         <v>111.00117118720408</v>
       </c>
     </row>
-    <row r="99" spans="4:10">
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>78</v>
       </c>
@@ -32962,7 +33987,7 @@
         <v>111.13556574979869</v>
       </c>
     </row>
-    <row r="100" spans="4:10">
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>79</v>
       </c>
@@ -32991,7 +34016,7 @@
         <v>111.26956004689477</v>
       </c>
     </row>
-    <row r="101" spans="4:10">
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>80</v>
       </c>
@@ -33020,7 +34045,7 @@
         <v>111.40314926209632</v>
       </c>
     </row>
-    <row r="102" spans="4:10">
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>81</v>
       </c>
@@ -33049,7 +34074,7 @@
         <v>111.53632859356796</v>
       </c>
     </row>
-    <row r="103" spans="4:10">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>82</v>
       </c>
@@ -33078,7 +34103,7 @@
         <v>111.66909325420744</v>
       </c>
     </row>
-    <row r="104" spans="4:10">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>83</v>
       </c>
@@ -33107,7 +34132,7 @@
         <v>111.80143847181783</v>
       </c>
     </row>
-    <row r="105" spans="4:10">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>84</v>
       </c>
@@ -33136,7 +34161,7 @@
         <v>111.93335948927893</v>
       </c>
     </row>
-    <row r="106" spans="4:10">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>85</v>
       </c>
@@ -33165,7 +34190,7 @@
         <v>112.06485156471837</v>
       </c>
     </row>
-    <row r="107" spans="4:10">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>86</v>
       </c>
@@ -33194,7 +34219,7 @@
         <v>112.19590997168194</v>
       </c>
     </row>
-    <row r="108" spans="4:10">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>87</v>
       </c>
@@ -33223,7 +34248,7 @@
         <v>112.32652999930363</v>
       </c>
     </row>
-    <row r="109" spans="4:10">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>88</v>
       </c>
@@ -33252,7 +34277,7 @@
         <v>112.45670695247485</v>
       </c>
     </row>
-    <row r="110" spans="4:10">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>89</v>
       </c>
@@ -33281,7 +34306,7 @@
         <v>112.58643615201319</v>
       </c>
     </row>
-    <row r="111" spans="4:10">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>90</v>
       </c>
@@ -33310,7 +34335,7 @@
         <v>112.71571293483069</v>
       </c>
     </row>
-    <row r="112" spans="4:10">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>91</v>
       </c>
@@ -33339,7 +34364,7 @@
         <v>112.8445326541014</v>
       </c>
     </row>
-    <row r="113" spans="4:10">
+    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>92</v>
       </c>
@@ -33368,7 +34393,7 @@
         <v>112.97289067942842</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
+    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>93</v>
       </c>
@@ -33397,7 +34422,7 @@
         <v>113.10078239701032</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
+    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>94</v>
       </c>
@@ -33426,7 +34451,7 @@
         <v>113.22820320980703</v>
       </c>
     </row>
-    <row r="116" spans="4:10">
+    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>95</v>
       </c>
@@ -33455,7 +34480,7 @@
         <v>113.35514853770503</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
+    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>96</v>
       </c>
@@ -33484,7 +34509,7 @@
         <v>113.48161381768203</v>
       </c>
     </row>
-    <row r="118" spans="4:10">
+    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>97</v>
       </c>
@@ -33513,7 +34538,7 @@
         <v>113.60759450397092</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>98</v>
       </c>
@@ -33542,7 +34567,7 @@
         <v>113.73308606822322</v>
       </c>
     </row>
-    <row r="120" spans="4:10">
+    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>99</v>
       </c>
@@ -33571,7 +34596,7 @@
         <v>113.85808399967185</v>
       </c>
     </row>
-    <row r="121" spans="4:10">
+    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>100</v>
       </c>
@@ -33600,7 +34625,7 @@
         <v>113.98258380529323</v>
       </c>
     </row>
-    <row r="122" spans="4:10">
+    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>101</v>
       </c>
@@ -33629,7 +34654,7 @@
         <v>114.10658100996882</v>
       </c>
     </row>
-    <row r="123" spans="4:10">
+    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>102</v>
       </c>
@@ -33658,7 +34683,7 @@
         <v>114.23007115664598</v>
       </c>
     </row>
-    <row r="124" spans="4:10">
+    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>103</v>
       </c>
@@ -33687,7 +34712,7 @@
         <v>114.35304980649812</v>
       </c>
     </row>
-    <row r="125" spans="4:10">
+    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>104</v>
       </c>
@@ -33716,7 +34741,7 @@
         <v>114.47551253908431</v>
       </c>
     </row>
-    <row r="126" spans="4:10">
+    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>105</v>
       </c>
@@ -33745,7 +34770,7 @@
         <v>114.59745495250817</v>
       </c>
     </row>
-    <row r="127" spans="4:10">
+    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>106</v>
       </c>
@@ -33774,7 +34799,7 @@
         <v>114.71887266357606</v>
       </c>
     </row>
-    <row r="128" spans="4:10">
+    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>107</v>
       </c>
@@ -33803,7 +34828,7 @@
         <v>114.83976130795466</v>
       </c>
     </row>
-    <row r="129" spans="4:10">
+    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>108</v>
       </c>
@@ -33832,7 +34857,7 @@
         <v>114.96011654032782</v>
       </c>
     </row>
-    <row r="130" spans="4:10">
+    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>109</v>
       </c>
@@ -33861,7 +34886,7 @@
         <v>115.07993403455282</v>
       </c>
     </row>
-    <row r="131" spans="4:10">
+    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>110</v>
       </c>
@@ -33890,7 +34915,7 @@
         <v>115.19920948381576</v>
       </c>
     </row>
-    <row r="132" spans="4:10">
+    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>111</v>
       </c>
@@ -33919,7 +34944,7 @@
         <v>115.31793860078646</v>
       </c>
     </row>
-    <row r="133" spans="4:10">
+    <row r="133" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>112</v>
       </c>
@@ -33948,7 +34973,7 @@
         <v>115.43611711777254</v>
       </c>
     </row>
-    <row r="134" spans="4:10">
+    <row r="134" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>113</v>
       </c>
@@ -33977,7 +35002,7 @@
         <v>115.55374078687279</v>
       </c>
     </row>
-    <row r="135" spans="4:10">
+    <row r="135" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>114</v>
       </c>
@@ -34006,7 +35031,7 @@
         <v>115.67080538012993</v>
       </c>
     </row>
-    <row r="136" spans="4:10">
+    <row r="136" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>115</v>
       </c>
@@ -34035,7 +35060,7 @@
         <v>115.7873066896825</v>
       </c>
     </row>
-    <row r="137" spans="4:10">
+    <row r="137" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>116</v>
       </c>
@@ -34064,7 +35089,7 @@
         <v>115.90324052791617</v>
       </c>
     </row>
-    <row r="138" spans="4:10">
+    <row r="138" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>117</v>
       </c>
@@ -34093,7 +35118,7 @@
         <v>116.01860272761422</v>
       </c>
     </row>
-    <row r="139" spans="4:10">
+    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>118</v>
       </c>
@@ -34122,7 +35147,7 @@
         <v>116.13338914210742</v>
       </c>
     </row>
-    <row r="140" spans="4:10">
+    <row r="140" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>119</v>
       </c>
@@ -34151,7 +35176,7 @@
         <v>116.24759564542293</v>
       </c>
     </row>
-    <row r="141" spans="4:10">
+    <row r="141" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>120</v>
       </c>
@@ -34180,7 +35205,7 @@
         <v>116.36121813243273</v>
       </c>
     </row>
-    <row r="142" spans="4:10">
+    <row r="142" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>121</v>
       </c>
@@ -34209,7 +35234,7 @@
         <v>116.47425251900115</v>
       </c>
     </row>
-    <row r="143" spans="4:10">
+    <row r="143" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>122</v>
       </c>
@@ -34238,7 +35263,7 @@
         <v>116.58669474213167</v>
       </c>
     </row>
-    <row r="144" spans="4:10">
+    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>123</v>
       </c>
@@ -34267,7 +35292,7 @@
         <v>116.69854076011289</v>
       </c>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>124</v>
       </c>
@@ -34296,7 +35321,7 @@
         <v>116.80978655266397</v>
       </c>
     </row>
-    <row r="146" spans="4:10">
+    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>125</v>
       </c>
@@ -34325,7 +35350,7 @@
         <v>116.92042812107897</v>
       </c>
     </row>
-    <row r="147" spans="4:10">
+    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>126</v>
       </c>
@@ -34354,7 +35379,7 @@
         <v>117.03046148837069</v>
       </c>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>127</v>
       </c>
@@ -34383,7 +35408,7 @@
         <v>117.13988269941358</v>
       </c>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>128</v>
       </c>
@@ -34412,7 +35437,7 @@
         <v>117.24868782108591</v>
       </c>
     </row>
-    <row r="150" spans="4:10">
+    <row r="150" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>129</v>
       </c>
@@ -34441,7 +35466,7 @@
         <v>117.35687294241116</v>
       </c>
     </row>
-    <row r="151" spans="4:10">
+    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>130</v>
       </c>
@@ -34470,7 +35495,7 @@
         <v>117.46443417469857</v>
       </c>
     </row>
-    <row r="152" spans="4:10">
+    <row r="152" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>131</v>
       </c>
@@ -34499,7 +35524,7 @@
         <v>117.57136765168296</v>
       </c>
     </row>
-    <row r="153" spans="4:10">
+    <row r="153" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>132</v>
       </c>
@@ -34528,7 +35553,7 @@
         <v>117.67766952966365</v>
       </c>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>133</v>
       </c>
@@ -34557,7 +35582,7 @@
         <v>117.78333598764267</v>
       </c>
     </row>
-    <row r="155" spans="4:10">
+    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>134</v>
       </c>
@@ -34586,7 +35611,7 @@
         <v>117.88836322746209</v>
       </c>
     </row>
-    <row r="156" spans="4:10">
+    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>135</v>
       </c>
@@ -34615,7 +35640,7 @@
         <v>117.99274747394051</v>
       </c>
     </row>
-    <row r="157" spans="4:10">
+    <row r="157" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>136</v>
       </c>
@@ -34644,7 +35669,7 @@
         <v>118.09648497500882</v>
       </c>
     </row>
-    <row r="158" spans="4:10">
+    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>137</v>
       </c>
@@ -34673,7 +35698,7 @@
         <v>118.199572001845</v>
       </c>
     </row>
-    <row r="159" spans="4:10">
+    <row r="159" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>138</v>
       </c>
@@ -34702,7 +35727,7 @@
         <v>118.30200484900821</v>
       </c>
     </row>
-    <row r="160" spans="4:10">
+    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>139</v>
       </c>
@@ -34731,7 +35756,7 @@
         <v>118.40377983457195</v>
       </c>
     </row>
-    <row r="161" spans="4:10">
+    <row r="161" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>140</v>
       </c>
@@ -34760,7 +35785,7 @@
         <v>118.50489330025641</v>
       </c>
     </row>
-    <row r="162" spans="4:10">
+    <row r="162" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>141</v>
       </c>
@@ -34789,7 +35814,7 @@
         <v>118.60534161155999</v>
       </c>
     </row>
-    <row r="163" spans="4:10">
+    <row r="163" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>142</v>
       </c>
@@ -34818,7 +35843,7 @@
         <v>118.70512115788986</v>
       </c>
     </row>
-    <row r="164" spans="4:10">
+    <row r="164" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>143</v>
       </c>
@@ -34847,7 +35872,7 @@
         <v>118.80422835269188</v>
       </c>
     </row>
-    <row r="165" spans="4:10">
+    <row r="165" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>144</v>
       </c>
@@ -34876,7 +35901,7 @@
         <v>118.90265963357939</v>
       </c>
     </row>
-    <row r="166" spans="4:10">
+    <row r="166" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>145</v>
       </c>
@@ -34905,7 +35930,7 @@
         <v>119.00041146246132</v>
       </c>
     </row>
-    <row r="167" spans="4:10">
+    <row r="167" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>146</v>
       </c>
@@ -34934,7 +35959,7 @@
         <v>119.09748032566935</v>
       </c>
     </row>
-    <row r="168" spans="4:10">
+    <row r="168" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>147</v>
       </c>
@@ -34963,7 +35988,7 @@
         <v>119.19386273408423</v>
       </c>
     </row>
-    <row r="169" spans="4:10">
+    <row r="169" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>148</v>
       </c>
@@ -34992,7 +36017,7 @@
         <v>119.28955522326116</v>
       </c>
     </row>
-    <row r="170" spans="4:10">
+    <row r="170" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>149</v>
       </c>
@@ -35021,7 +36046,7 @@
         <v>119.38455435355436</v>
       </c>
     </row>
-    <row r="171" spans="4:10">
+    <row r="171" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>150</v>
       </c>
@@ -35050,7 +36075,7 @@
         <v>119.47885671024068</v>
       </c>
     </row>
-    <row r="172" spans="4:10">
+    <row r="172" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>151</v>
       </c>
@@ -35079,7 +36104,7 @@
         <v>119.57245890364231</v>
       </c>
     </row>
-    <row r="173" spans="4:10">
+    <row r="173" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>152</v>
       </c>
@@ -35108,7 +36133,7 @@
         <v>119.6653575692487</v>
       </c>
     </row>
-    <row r="174" spans="4:10">
+    <row r="174" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>153</v>
       </c>
@@ -35137,7 +36162,7 @@
         <v>119.75754936783744</v>
       </c>
     </row>
-    <row r="175" spans="4:10">
+    <row r="175" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>154</v>
       </c>
@@ -35166,7 +36191,7 @@
         <v>119.8490309855943</v>
       </c>
     </row>
-    <row r="176" spans="4:10">
+    <row r="176" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>155</v>
       </c>
@@ -35195,7 +36220,7 @@
         <v>119.93979913423235</v>
       </c>
     </row>
-    <row r="177" spans="4:10">
+    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>156</v>
       </c>
@@ -35224,7 +36249,7 @@
         <v>120.02985055111014</v>
       </c>
     </row>
-    <row r="178" spans="4:10">
+    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>157</v>
       </c>
@@ -35253,7 +36278,7 @@
         <v>120.11918199934901</v>
       </c>
     </row>
-    <row r="179" spans="4:10">
+    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>158</v>
       </c>
@@ -35282,7 +36307,7 @@
         <v>120.20779026794941</v>
       </c>
     </row>
-    <row r="180" spans="4:10">
+    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>159</v>
       </c>
@@ -35311,7 +36336,7 @@
         <v>120.29567217190632</v>
       </c>
     </row>
-    <row r="181" spans="4:10">
+    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>160</v>
       </c>
@@ -35340,7 +36365,7 @@
         <v>120.38282455232371</v>
       </c>
     </row>
-    <row r="182" spans="4:10">
+    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>161</v>
       </c>
@@ -35369,7 +36394,7 @@
         <v>120.46924427652819</v>
       </c>
     </row>
-    <row r="183" spans="4:10">
+    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>162</v>
       </c>
@@ -35398,7 +36423,7 @@
         <v>120.55492823818146</v>
       </c>
     </row>
-    <row r="184" spans="4:10">
+    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>163</v>
       </c>
@@ -35427,7 +36452,7 @@
         <v>120.6398733573921</v>
       </c>
     </row>
-    <row r="185" spans="4:10">
+    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>164</v>
       </c>
@@ -35456,7 +36481,7 @@
         <v>120.72407658082621</v>
       </c>
     </row>
-    <row r="186" spans="4:10">
+    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>165</v>
       </c>
@@ -35485,7 +36510,7 @@
         <v>120.80753488181713</v>
       </c>
     </row>
-    <row r="187" spans="4:10">
+    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>166</v>
       </c>
@@ -35514,7 +36539,7 @@
         <v>120.89024526047434</v>
       </c>
     </row>
-    <row r="188" spans="4:10">
+    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>167</v>
       </c>
@@ -35543,7 +36568,7 @@
         <v>120.9722047437912</v>
       </c>
     </row>
-    <row r="189" spans="4:10">
+    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>168</v>
       </c>
@@ -35572,7 +36597,7 @@
         <v>121.05341038575182</v>
       </c>
     </row>
-    <row r="190" spans="4:10">
+    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>169</v>
       </c>
@@ -35601,7 +36626,7 @@
         <v>121.133859267437</v>
       </c>
     </row>
-    <row r="191" spans="4:10">
+    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>170</v>
       </c>
@@ -35630,7 +36655,7 @@
         <v>121.21354849712911</v>
       </c>
     </row>
-    <row r="192" spans="4:10">
+    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>171</v>
       </c>
@@ -35659,7 +36684,7 @@
         <v>121.29247521041606</v>
       </c>
     </row>
-    <row r="193" spans="4:10">
+    <row r="193" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D193">
         <v>172</v>
       </c>
@@ -35688,7 +36713,7 @@
         <v>121.37063657029424</v>
       </c>
     </row>
-    <row r="194" spans="4:10">
+    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D194">
         <v>173</v>
       </c>
@@ -35717,7 +36742,7 @@
         <v>121.44802976727048</v>
       </c>
     </row>
-    <row r="195" spans="4:10">
+    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D195">
         <v>174</v>
       </c>
@@ -35746,7 +36771,7 @@
         <v>121.5246520194631</v>
       </c>
     </row>
-    <row r="196" spans="4:10">
+    <row r="196" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D196">
         <v>175</v>
       </c>
@@ -35775,7 +36800,7 @@
         <v>121.60050057270186</v>
       </c>
     </row>
-    <row r="197" spans="4:10">
+    <row r="197" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>176</v>
       </c>
@@ -35804,7 +36829,7 @@
         <v>121.67557270062692</v>
       </c>
     </row>
-    <row r="198" spans="4:10">
+    <row r="198" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>177</v>
       </c>
@@ -35833,7 +36858,7 @@
         <v>121.7498657047869</v>
       </c>
     </row>
-    <row r="199" spans="4:10">
+    <row r="199" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>178</v>
       </c>
@@ -35862,7 +36887,7 @@
         <v>121.82337691473587</v>
       </c>
     </row>
-    <row r="200" spans="4:10">
+    <row r="200" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>179</v>
       </c>
@@ -35891,7 +36916,7 @@
         <v>121.89610368812933</v>
       </c>
     </row>
-    <row r="201" spans="4:10">
+    <row r="201" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>180</v>
       </c>
@@ -35920,7 +36945,7 @@
         <v>121.96804341081915</v>
       </c>
     </row>
-    <row r="202" spans="4:10">
+    <row r="202" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D202">
         <v>181</v>
       </c>
@@ -35949,7 +36974,7 @@
         <v>122.03919349694756</v>
       </c>
     </row>
-    <row r="203" spans="4:10">
+    <row r="203" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D203">
         <v>182</v>
       </c>
@@ -35978,7 +37003,7 @@
         <v>122.10955138904018</v>
       </c>
     </row>
-    <row r="204" spans="4:10">
+    <row r="204" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D204">
         <v>183</v>
       </c>
@@ -36007,7 +37032,7 @@
         <v>122.17911455809777</v>
       </c>
     </row>
-    <row r="205" spans="4:10">
+    <row r="205" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D205">
         <v>184</v>
       </c>
@@ -36036,7 +37061,7 @@
         <v>122.24788050368731</v>
       </c>
     </row>
-    <row r="206" spans="4:10">
+    <row r="206" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D206">
         <v>185</v>
       </c>
@@ -36065,7 +37090,7 @@
         <v>122.31584675403178</v>
       </c>
     </row>
-    <row r="207" spans="4:10">
+    <row r="207" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D207">
         <v>186</v>
       </c>
@@ -36094,7 +37119,7 @@
         <v>122.38301086609906</v>
       </c>
     </row>
-    <row r="208" spans="4:10">
+    <row r="208" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D208">
         <v>187</v>
       </c>
@@ -36123,7 +37148,7 @@
         <v>122.44937042568964</v>
       </c>
     </row>
-    <row r="209" spans="4:10">
+    <row r="209" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>188</v>
       </c>
@@ -36152,7 +37177,7 @@
         <v>122.51492304752357</v>
       </c>
     </row>
-    <row r="210" spans="4:10">
+    <row r="210" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D210">
         <v>189</v>
       </c>
@@ -36181,7 +37206,7 @@
         <v>122.57966637532604</v>
       </c>
     </row>
-    <row r="211" spans="4:10">
+    <row r="211" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D211">
         <v>190</v>
       </c>
@@ -36210,7 +37235,7 @@
         <v>122.64359808191216</v>
       </c>
     </row>
-    <row r="212" spans="4:10">
+    <row r="212" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>191</v>
       </c>
@@ -36239,7 +37264,7 @@
         <v>122.70671586927058</v>
       </c>
     </row>
-    <row r="213" spans="4:10">
+    <row r="213" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D213">
         <v>192</v>
       </c>
@@ -36268,7 +37293,7 @@
         <v>122.76901746864613</v>
       </c>
     </row>
-    <row r="214" spans="4:10">
+    <row r="214" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D214">
         <v>193</v>
       </c>
@@ -36297,7 +37322,7 @@
         <v>122.8305006406213</v>
       </c>
     </row>
-    <row r="215" spans="4:10">
+    <row r="215" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D215">
         <v>194</v>
       </c>
@@ -36326,7 +37351,7 @@
         <v>122.89116317519678</v>
       </c>
     </row>
-    <row r="216" spans="4:10">
+    <row r="216" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D216">
         <v>195</v>
       </c>
@@ -36355,7 +37380,7 @@
         <v>122.95100289187093</v>
       </c>
     </row>
-    <row r="217" spans="4:10">
+    <row r="217" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D217">
         <v>196</v>
       </c>
@@ -36384,7 +37409,7 @@
         <v>123.01001763971809</v>
       </c>
     </row>
-    <row r="218" spans="4:10">
+    <row r="218" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D218">
         <v>197</v>
       </c>
@@ -36413,7 +37438,7 @@
         <v>123.06820529746592</v>
       </c>
     </row>
-    <row r="219" spans="4:10">
+    <row r="219" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D219">
         <v>198</v>
       </c>
@@ -36442,7 +37467,7 @@
         <v>123.1255637735717</v>
       </c>
     </row>
-    <row r="220" spans="4:10">
+    <row r="220" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D220">
         <v>199</v>
       </c>
@@ -36471,7 +37496,7 @@
         <v>123.1820910062974</v>
       </c>
     </row>
-    <row r="221" spans="4:10">
+    <row r="221" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D221">
         <v>200</v>
       </c>
@@ -36500,7 +37525,7 @@
         <v>123.23778496378389</v>
       </c>
     </row>
-    <row r="222" spans="4:10">
+    <row r="222" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D222">
         <v>201</v>
       </c>
@@ -36529,7 +37554,7 @@
         <v>123.29264364412394</v>
       </c>
     </row>
-    <row r="223" spans="4:10">
+    <row r="223" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>202</v>
       </c>
@@ -36558,7 +37583,7 @@
         <v>123.34666507543417</v>
       </c>
     </row>
-    <row r="224" spans="4:10">
+    <row r="224" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>203</v>
       </c>
@@ -36587,7 +37612,7 @@
         <v>123.39984731592594</v>
       </c>
     </row>
-    <row r="225" spans="4:10">
+    <row r="225" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>204</v>
       </c>
@@ -36616,7 +37641,7 @@
         <v>123.45218845397514</v>
       </c>
     </row>
-    <row r="226" spans="4:10">
+    <row r="226" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>205</v>
       </c>
@@ -36645,7 +37670,7 @@
         <v>123.50368660819088</v>
       </c>
     </row>
-    <row r="227" spans="4:10">
+    <row r="227" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>206</v>
       </c>
@@ -36674,7 +37699,7 @@
         <v>123.55433992748317</v>
       </c>
     </row>
-    <row r="228" spans="4:10">
+    <row r="228" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>207</v>
       </c>
@@ -36703,7 +37728,7 @@
         <v>123.60414659112944</v>
       </c>
     </row>
-    <row r="229" spans="4:10">
+    <row r="229" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>208</v>
       </c>
@@ -36732,7 +37757,7 @@
         <v>123.65310480883993</v>
       </c>
     </row>
-    <row r="230" spans="4:10">
+    <row r="230" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>209</v>
       </c>
@@ -36761,7 +37786,7 @@
         <v>123.70121282082212</v>
       </c>
     </row>
-    <row r="231" spans="4:10">
+    <row r="231" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>210</v>
       </c>
@@ -36790,7 +37815,7 @@
         <v>123.74846889784394</v>
       </c>
     </row>
-    <row r="232" spans="4:10">
+    <row r="232" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D232">
         <v>211</v>
       </c>
@@ -36819,7 +37844,7 @@
         <v>123.79487134129596</v>
       </c>
     </row>
-    <row r="233" spans="4:10">
+    <row r="233" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D233">
         <v>212</v>
       </c>
@@ -36848,7 +37873,7 @@
         <v>123.84041848325236</v>
       </c>
     </row>
-    <row r="234" spans="4:10">
+    <row r="234" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D234">
         <v>213</v>
       </c>
@@ -36877,7 +37902,7 @@
         <v>123.88510868653103</v>
       </c>
     </row>
-    <row r="235" spans="4:10">
+    <row r="235" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D235">
         <v>214</v>
       </c>
@@ -36906,7 +37931,7 @@
         <v>123.92894034475226</v>
       </c>
     </row>
-    <row r="236" spans="4:10">
+    <row r="236" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D236">
         <v>215</v>
       </c>
@@ -36935,7 +37960,7 @@
         <v>123.97191188239663</v>
       </c>
     </row>
-    <row r="237" spans="4:10">
+    <row r="237" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D237">
         <v>216</v>
       </c>
@@ -36964,7 +37989,7 @@
         <v>124.01402175486149</v>
       </c>
     </row>
-    <row r="238" spans="4:10">
+    <row r="238" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D238">
         <v>217</v>
       </c>
@@ -36993,7 +38018,7 @@
         <v>124.05526844851661</v>
       </c>
     </row>
-    <row r="239" spans="4:10">
+    <row r="239" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D239">
         <v>218</v>
       </c>
@@ -37022,7 +38047,7 @@
         <v>124.09565048075855</v>
       </c>
     </row>
-    <row r="240" spans="4:10">
+    <row r="240" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D240">
         <v>219</v>
       </c>
@@ -37051,7 +38076,7 @@
         <v>124.13516640006387</v>
       </c>
     </row>
-    <row r="241" spans="4:10">
+    <row r="241" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D241">
         <v>220</v>
       </c>
@@ -37080,7 +38105,7 @@
         <v>124.17381478604142</v>
       </c>
     </row>
-    <row r="242" spans="4:10">
+    <row r="242" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D242">
         <v>221</v>
       </c>
@@ -37109,7 +38134,7 @@
         <v>124.21159424948335</v>
       </c>
     </row>
-    <row r="243" spans="4:10">
+    <row r="243" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D243">
         <v>222</v>
       </c>
@@ -37138,7 +38163,7 @@
         <v>124.24850343241502</v>
       </c>
     </row>
-    <row r="244" spans="4:10">
+    <row r="244" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D244">
         <v>223</v>
       </c>
@@ -37167,7 +38192,7 @@
         <v>124.28454100814386</v>
       </c>
     </row>
-    <row r="245" spans="4:10">
+    <row r="245" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D245">
         <v>224</v>
       </c>
@@ -37196,7 +38221,7 @@
         <v>124.319705681307</v>
       </c>
     </row>
-    <row r="246" spans="4:10">
+    <row r="246" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D246">
         <v>225</v>
       </c>
@@ -37225,7 +38250,7 @@
         <v>124.35399618791789</v>
       </c>
     </row>
-    <row r="247" spans="4:10">
+    <row r="247" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D247">
         <v>226</v>
       </c>
@@ -37254,7 +38279,7 @@
         <v>124.38741129541171</v>
       </c>
     </row>
-    <row r="248" spans="4:10">
+    <row r="248" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D248">
         <v>227</v>
       </c>
@@ -37283,7 +38308,7 @@
         <v>124.41994980268963</v>
       </c>
     </row>
-    <row r="249" spans="4:10">
+    <row r="249" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D249">
         <v>228</v>
       </c>
@@ -37312,7 +38337,7 @@
         <v>124.45161054016208</v>
       </c>
     </row>
-    <row r="250" spans="4:10">
+    <row r="250" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D250">
         <v>229</v>
       </c>
@@ -37341,7 +38366,7 @@
         <v>124.48239236979069</v>
       </c>
     </row>
-    <row r="251" spans="4:10">
+    <row r="251" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D251">
         <v>230</v>
       </c>
@@ -37370,7 +38395,7 @@
         <v>124.51229418512929</v>
       </c>
     </row>
-    <row r="252" spans="4:10">
+    <row r="252" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D252">
         <v>231</v>
       </c>
@@ -37399,7 +38424,7 @@
         <v>124.54131491136357</v>
       </c>
     </row>
-    <row r="253" spans="4:10">
+    <row r="253" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D253">
         <v>232</v>
       </c>
@@ -37428,7 +38453,7 @@
         <v>124.56945350534986</v>
       </c>
     </row>
-    <row r="254" spans="4:10">
+    <row r="254" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D254">
         <v>233</v>
       </c>
@@ -37457,7 +38482,7 @@
         <v>124.59670895565245</v>
       </c>
     </row>
-    <row r="255" spans="4:10">
+    <row r="255" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D255">
         <v>234</v>
       </c>
@@ -37486,7 +38511,7 @@
         <v>124.6230802825801</v>
       </c>
     </row>
-    <row r="256" spans="4:10">
+    <row r="256" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D256">
         <v>235</v>
       </c>
@@ -37515,7 +38540,7 @@
         <v>124.64856653822119</v>
       </c>
     </row>
-    <row r="257" spans="4:10">
+    <row r="257" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D257">
         <v>236</v>
       </c>
@@ -37544,7 +38569,7 @@
         <v>124.67316680647775</v>
       </c>
     </row>
-    <row r="258" spans="4:10">
+    <row r="258" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D258">
         <v>237</v>
       </c>
@@ -37573,7 +38598,7 @@
         <v>124.6968802030985</v>
       </c>
     </row>
-    <row r="259" spans="4:10">
+    <row r="259" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D259">
         <v>238</v>
       </c>
@@ -37602,7 +38627,7 @@
         <v>124.71970587571052</v>
       </c>
     </row>
-    <row r="260" spans="4:10">
+    <row r="260" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D260">
         <v>239</v>
       </c>
@@ -37631,7 +38656,7 @@
         <v>124.74164300384994</v>
       </c>
     </row>
-    <row r="261" spans="4:10">
+    <row r="261" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D261">
         <v>240</v>
       </c>
@@ -37660,7 +38685,7 @@
         <v>124.76269079899147</v>
       </c>
     </row>
-    <row r="262" spans="4:10">
+    <row r="262" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D262">
         <v>241</v>
       </c>
@@ -37689,7 +38714,7 @@
         <v>124.78284850457666</v>
       </c>
     </row>
-    <row r="263" spans="4:10">
+    <row r="263" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D263">
         <v>242</v>
       </c>
@@ -37718,7 +38743,7 @@
         <v>124.80211539604115</v>
       </c>
     </row>
-    <row r="264" spans="4:10">
+    <row r="264" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D264">
         <v>243</v>
       </c>
@@ -37747,7 +38772,7 @@
         <v>124.82049078084069</v>
       </c>
     </row>
-    <row r="265" spans="4:10">
+    <row r="265" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D265">
         <v>244</v>
       </c>
@@ -37776,7 +38801,7 @@
         <v>124.83797399847606</v>
       </c>
     </row>
-    <row r="266" spans="4:10">
+    <row r="266" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D266">
         <v>245</v>
       </c>
@@ -37805,7 +38830,7 @@
         <v>124.85456442051679</v>
       </c>
     </row>
-    <row r="267" spans="4:10">
+    <row r="267" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D267">
         <v>246</v>
       </c>
@@ -37834,7 +38859,7 @@
         <v>124.87026145062377</v>
       </c>
     </row>
-    <row r="268" spans="4:10">
+    <row r="268" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D268">
         <v>247</v>
       </c>
@@ -37863,7 +38888,7 @@
         <v>124.88506452457064</v>
       </c>
     </row>
-    <row r="269" spans="4:10">
+    <row r="269" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D269">
         <v>248</v>
       </c>
@@ -37892,7 +38917,7 @@
         <v>124.89897311026411</v>
       </c>
     </row>
-    <row r="270" spans="4:10">
+    <row r="270" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D270">
         <v>249</v>
       </c>
@@ -37921,7 +38946,7 @@
         <v>124.91198670776308</v>
       </c>
     </row>
-    <row r="271" spans="4:10">
+    <row r="271" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D271">
         <v>250</v>
       </c>
@@ -37950,7 +38975,7 @@
         <v>124.92410484929661</v>
       </c>
     </row>
-    <row r="272" spans="4:10">
+    <row r="272" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D272">
         <v>251</v>
       </c>
@@ -37979,7 +39004,7 @@
         <v>124.93532709928073</v>
       </c>
     </row>
-    <row r="273" spans="4:10">
+    <row r="273" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>252</v>
       </c>
@@ -38008,7 +39033,7 @@
         <v>124.94565305433409</v>
       </c>
     </row>
-    <row r="274" spans="4:10">
+    <row r="274" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D274">
         <v>253</v>
       </c>
@@ -38037,7 +39062,7 @@
         <v>124.95508234329249</v>
       </c>
     </row>
-    <row r="275" spans="4:10">
+    <row r="275" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D275">
         <v>254</v>
       </c>
@@ -38066,7 +39091,7 @@
         <v>124.96361462722214</v>
       </c>
     </row>
-    <row r="276" spans="4:10">
+    <row r="276" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D276">
         <v>255</v>
       </c>
@@ -38095,7 +39120,7 @@
         <v>124.971249599432</v>
       </c>
     </row>
-    <row r="277" spans="4:10">
+    <row r="277" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D277">
         <v>256</v>
       </c>
@@ -38124,7 +39149,7 @@
         <v>124.97798698548461</v>
       </c>
     </row>
-    <row r="278" spans="4:10">
+    <row r="278" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D278">
         <v>257</v>
       </c>
@@ -38153,7 +39178,7 @@
         <v>124.98382654320608</v>
       </c>
     </row>
-    <row r="279" spans="4:10">
+    <row r="279" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D279">
         <v>258</v>
       </c>
@@ -38182,7 +39207,7 @@
         <v>124.9887680626948</v>
       </c>
     </row>
-    <row r="280" spans="4:10">
+    <row r="280" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D280">
         <v>259</v>
       </c>
@@ -38211,7 +39236,7 @@
         <v>124.99281136632891</v>
       </c>
     </row>
-    <row r="281" spans="4:10">
+    <row r="281" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D281">
         <v>260</v>
       </c>
@@ -38240,7 +39265,7 @@
         <v>124.99595630877275</v>
       </c>
     </row>
-    <row r="282" spans="4:10">
+    <row r="282" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D282">
         <v>261</v>
       </c>
@@ -38269,7 +39294,7 @@
         <v>124.99820277698201</v>
       </c>
     </row>
-    <row r="283" spans="4:10">
+    <row r="283" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>262</v>
       </c>
@@ -38298,7 +39323,7 @@
         <v>124.99955069020791</v>
       </c>
     </row>
-    <row r="284" spans="4:10">
+    <row r="284" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E284" s="50">
         <f t="shared" si="32"/>
         <v>89.999999999999503</v>
@@ -38324,7 +39349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="4:10">
+    <row r="285" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -38332,7 +39357,7 @@
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="4:10">
+    <row r="286" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -38340,7 +39365,7 @@
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="4:10">
+    <row r="287" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -38348,7 +39373,7 @@
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="4:10">
+    <row r="288" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -38356,7 +39381,7 @@
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="5:10">
+    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -38364,7 +39389,7 @@
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="5:10">
+    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -38372,7 +39397,7 @@
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="5:10">
+    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -38380,7 +39405,7 @@
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="5:10">
+    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -38388,7 +39413,7 @@
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="5:10">
+    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -38396,7 +39421,7 @@
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
     </row>
-    <row r="294" spans="5:10">
+    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -38404,7 +39429,7 @@
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" spans="5:10">
+    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -38412,7 +39437,7 @@
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" spans="5:10">
+    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -38420,7 +39445,7 @@
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="5:10">
+    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -38428,7 +39453,7 @@
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" spans="5:10">
+    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -38436,7 +39461,7 @@
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="5:10">
+    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -38444,7 +39469,7 @@
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
     </row>
-    <row r="300" spans="5:10">
+    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -38452,7 +39477,7 @@
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" spans="5:10">
+    <row r="301" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -38460,7 +39485,7 @@
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" spans="5:10">
+    <row r="302" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
@@ -38468,7 +39493,7 @@
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
     </row>
-    <row r="303" spans="5:10">
+    <row r="303" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -38476,7 +39501,7 @@
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" spans="5:10">
+    <row r="304" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -38484,7 +39509,7 @@
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" spans="5:10">
+    <row r="305" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -38492,7 +39517,7 @@
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" spans="5:10">
+    <row r="306" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -38500,7 +39525,7 @@
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
     </row>
-    <row r="307" spans="5:10">
+    <row r="307" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -38508,7 +39533,7 @@
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" spans="5:10">
+    <row r="308" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
@@ -38516,7 +39541,7 @@
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" spans="5:10">
+    <row r="309" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
@@ -38524,7 +39549,7 @@
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" spans="5:10">
+    <row r="310" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
@@ -38532,7 +39557,7 @@
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" spans="5:10">
+    <row r="311" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -38540,7 +39565,7 @@
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" spans="5:10">
+    <row r="312" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -38555,14 +39580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
@@ -38573,7 +39598,7 @@
     <col min="15" max="15" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="52">
         <v>40000000</v>
       </c>
@@ -38589,7 +39614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -38601,7 +39626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -38613,7 +39638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -38633,7 +39658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -38645,7 +39670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -38663,7 +39688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -38681,7 +39706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -38711,7 +39736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J12" s="52">
         <f>E$4/$B6</f>
         <v>3333333.3333333335</v>
@@ -38726,7 +39751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J13" s="52">
         <f>B4/16</f>
         <v>2500000</v>
@@ -38741,7 +39766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>IF(AND((E18&gt;=1),(E18&lt;=8)),E18,IF(AND((E17&gt;=1),(E17&lt;=8)),E17,IF(AND((E16&gt;=1),(E16&lt;=8)),E16,IF(AND((E15&gt;=1),(E15&lt;=8)),E15,0))))</f>
         <v>2</v>
@@ -38760,7 +39785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>40000000</v>
       </c>
@@ -38802,7 +39827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>C15/16</f>
         <v>0.625</v>
@@ -38833,7 +39858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4000000</v>
       </c>
@@ -38857,7 +39882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>C15/1</f>
         <v>10</v>
@@ -38878,7 +39903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F19">
         <f>$F$14/5</f>
         <v>0.4</v>
@@ -38891,7 +39916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F20">
         <f>$F$14/6</f>
         <v>0.33333333333333331</v>
@@ -38904,7 +39929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>$F$14/7</f>
         <v>0.2857142857142857</v>
@@ -38917,7 +39942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F22">
         <f>$F$14/8</f>
         <v>0.25</v>
@@ -38930,7 +39955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -38945,7 +39970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -38960,7 +39985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>16</v>
       </c>
@@ -38975,7 +40000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>64</v>
       </c>
@@ -38990,7 +40015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J27" s="52">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
@@ -38999,7 +40024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J28" s="52">
         <f t="shared" si="1"/>
         <v>89285.71428571429</v>
@@ -39008,7 +40033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J29" s="52">
         <f t="shared" si="1"/>
         <v>78125</v>
@@ -39024,14 +40049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -39041,7 +40066,7 @@
     <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
@@ -39049,7 +40074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -39087,7 +40112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -39125,7 +40150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C11*10*365*24*3600</f>
         <v>1261440000</v>
@@ -39175,7 +40200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>D12+C12</f>
         <v>1292976000</v>
@@ -39213,7 +40238,7 @@
         <v>42953307553792</v>
       </c>
     </row>
-    <row r="14" spans="3:17">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="O14" t="str">
         <f>DEC2HEX(O13)</f>
         <v>4E21B147</v>
@@ -39227,7 +40252,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1970</v>
       </c>
@@ -39236,7 +40261,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1971</v>
       </c>
@@ -39245,7 +40270,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1972</v>
       </c>
@@ -39254,7 +40279,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1973</v>
       </c>
@@ -39263,7 +40288,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1974</v>
       </c>
@@ -39272,7 +40297,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1975</v>
       </c>
@@ -39281,7 +40306,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1976</v>
       </c>
@@ -39290,7 +40315,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1977</v>
       </c>
@@ -39299,7 +40324,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1978</v>
       </c>
@@ -39308,7 +40333,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1979</v>
       </c>
@@ -39317,7 +40342,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>1980</v>
       </c>
@@ -39326,7 +40351,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1981</v>
       </c>
@@ -39335,7 +40360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>1982</v>
       </c>
@@ -39344,7 +40369,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>1983</v>
       </c>
@@ -39353,7 +40378,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1984</v>
       </c>
@@ -39362,7 +40387,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1985</v>
       </c>
@@ -39371,7 +40396,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>1986</v>
       </c>
@@ -39380,7 +40405,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>1987</v>
       </c>
@@ -39389,7 +40414,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>1988</v>
       </c>
@@ -39398,7 +40423,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1989</v>
       </c>
@@ -39407,7 +40432,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>1990</v>
       </c>
@@ -39416,7 +40441,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>1991</v>
       </c>
@@ -39425,7 +40450,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>1992</v>
       </c>
@@ -39434,7 +40459,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>1993</v>
       </c>
@@ -39443,7 +40468,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>1994</v>
       </c>
@@ -39452,7 +40477,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>1995</v>
       </c>
@@ -39461,7 +40486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>1996</v>
       </c>
@@ -39470,7 +40495,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>1997</v>
       </c>
@@ -39479,7 +40504,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>1998</v>
       </c>
@@ -39488,7 +40513,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>1999</v>
       </c>
@@ -39497,7 +40522,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>2000</v>
       </c>
@@ -39506,7 +40531,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48">
         <f>SUM(D17:D47)</f>
         <v>11323</v>
@@ -39523,14 +40548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
@@ -39543,9 +40568,10 @@
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>107</v>
       </c>
@@ -39556,7 +40582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>0.0000002</f>
         <v>1.9999999999999999E-7</v>
@@ -39574,7 +40600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="64" t="s">
         <v>108</v>
       </c>
@@ -39584,7 +40610,7 @@
       </c>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -39619,7 +40645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>B5/$A$2</f>
         <v>375000.00000000099</v>
@@ -39664,7 +40690,7 @@
         <v>4.1666666666666562E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A14" si="5">B6/$A$2</f>
         <v>3125</v>
@@ -39708,7 +40734,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>1250</v>
@@ -39752,7 +40778,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>625</v>
@@ -39796,7 +40822,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>416.66666666666669</v>
@@ -39840,7 +40866,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>312.5</v>
@@ -39884,7 +40910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>250.00000000000003</v>
@@ -39928,7 +40954,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>208.33333333333334</v>
@@ -39972,7 +40998,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>178.57142857142858</v>
@@ -40016,7 +41042,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>156.25</v>
@@ -40060,7 +41086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
@@ -40070,8 +41096,19 @@
       <c r="D16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <f>I6</f>
+        <v>0.76464285714285696</v>
+      </c>
+      <c r="L16">
+        <f>J16*L20+M20</f>
+        <v>0.76464285714285696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -40087,16 +41124,53 @@
         <f>C17*60</f>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <f>I14</f>
+        <v>0.1</v>
+      </c>
+      <c r="L17">
+        <f>J17*L20+M20</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>J17-J16</f>
+        <v>1900</v>
+      </c>
+      <c r="K20">
+        <f>K17-K16</f>
+        <v>-0.66464285714285698</v>
+      </c>
+      <c r="L20">
+        <f>K20/J20</f>
+        <v>-3.4981203007518791E-4</v>
+      </c>
+      <c r="M20">
+        <f>K16-J16*L20</f>
+        <v>0.79962406015037579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="L21">
+        <f>L20</f>
+        <v>-3.4981203007518791E-4</v>
+      </c>
+      <c r="M21">
+        <f>M20*PI()/180</f>
+        <v>1.3956072627789242E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>134</v>
       </c>
@@ -40104,7 +41178,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>138</v>
       </c>
@@ -40112,7 +41186,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>

--- a/trunk/Расчеты.xlsx
+++ b/trunk/Расчеты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="14355" windowHeight="10425" firstSheet="1" activeTab="10"/>
@@ -19,7 +19,7 @@
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
     <sheet name="Лист2" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
   <si>
     <t>дни</t>
   </si>
@@ -788,11 +788,17 @@
   <si>
     <t>(K * V  + B)*dt*dt/2 + V*dt + dX = 0</t>
   </si>
+  <si>
+    <t>A*dt*dt/2 + V*dt + dX = X</t>
+  </si>
+  <si>
+    <t>X' = A*dt+V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -800,7 +806,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,6 +1359,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1368,7 +1375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1465,24 +1471,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -10077,61 +10072,46 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="75187328"/>
-        <c:axId val="75188864"/>
+        <c:dLbls/>
+        <c:axId val="90600960"/>
+        <c:axId val="90602496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75187328"/>
+        <c:axId val="90600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75188864"/>
+        <c:crossAx val="90602496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75188864"/>
+        <c:axId val="90602496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75187328"/>
+        <c:crossAx val="90600960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10139,24 +10119,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15031,60 +14999,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="75201536"/>
-        <c:axId val="79655680"/>
+        <c:dLbls/>
+        <c:axId val="91807744"/>
+        <c:axId val="91809280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75201536"/>
+        <c:axId val="91807744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79655680"/>
+        <c:crossAx val="91809280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79655680"/>
+        <c:axId val="91809280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75201536"/>
+        <c:crossAx val="91807744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15092,24 +15045,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -15188,7 +15129,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15216,67 +15156,49 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="80246272"/>
-        <c:axId val="80247808"/>
+        <c:axId val="92134016"/>
+        <c:axId val="92299648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80246272"/>
+        <c:axId val="92134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80247808"/>
+        <c:crossAx val="92299648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80247808"/>
+        <c:axId val="92299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80246272"/>
+        <c:crossAx val="92134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15284,24 +15206,12 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15374,27 +15284,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="80259712"/>
-        <c:axId val="80261504"/>
+        <c:axId val="92337280"/>
+        <c:axId val="92338816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80259712"/>
+        <c:axId val="92337280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -15443,19 +15343,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80261504"/>
+        <c:crossAx val="92338816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80261504"/>
+        <c:axId val="92338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15487,10 +15385,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80259712"/>
+        <c:crossAx val="92337280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15504,15 +15400,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15520,24 +15414,13 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15675,28 +15558,19 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="80865536"/>
-        <c:axId val="80637952"/>
+        <c:dLbls/>
+        <c:axId val="102375424"/>
+        <c:axId val="102376960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80865536"/>
+        <c:axId val="102375424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln cap="rnd"/>
@@ -15711,34 +15585,30 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80637952"/>
+        <c:crossAx val="102376960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80637952"/>
+        <c:axId val="102376960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80865536"/>
+        <c:crossAx val="102375424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15746,17 +15616,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -15765,15 +15625,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6890326209223906E-2"/>
+          <c:x val="8.6890326209223934E-2"/>
           <c:y val="0.10794049215463787"/>
-          <c:w val="0.88197300337457873"/>
-          <c:h val="0.75905832731607292"/>
+          <c:w val="0.88197300337457885"/>
+          <c:h val="0.75905832731607303"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -15886,8 +15745,6 @@
             <c:trendlineType val="linear"/>
             <c:forward val="5"/>
             <c:backward val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -15967,23 +15824,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="82055168"/>
-        <c:axId val="82057088"/>
+        <c:dLbls/>
+        <c:axId val="104033280"/>
+        <c:axId val="104055936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82055168"/>
+        <c:axId val="104033280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -16007,26 +15856,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.90812710911136063"/>
+              <c:x val="0.90812710911136041"/>
               <c:y val="0.92953409208128468"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82057088"/>
+        <c:crossAx val="104055936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82057088"/>
+        <c:axId val="104055936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -16053,28 +15898,24 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.9444444444444493E-3"/>
-              <c:y val="4.4667560659721064E-2"/>
+              <c:x val="6.9444444444444501E-3"/>
+              <c:y val="4.4667560659721078E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82055168"/>
+        <c:crossAx val="104033280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16082,28 +15923,15 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -16322,47 +16150,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="75232000"/>
-        <c:axId val="76135424"/>
+        <c:dLbls/>
+        <c:axId val="104080512"/>
+        <c:axId val="104082048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75232000"/>
+        <c:axId val="104080512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76135424"/>
+        <c:crossAx val="104082048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76135424"/>
+        <c:axId val="104082048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75232000"/>
+        <c:crossAx val="104080512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16370,15 +16184,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16694,7 +16506,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -16729,7 +16540,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -16905,31 +16715,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="62" t="s">
+    <row r="2" spans="3:8">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="3:8">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -16946,7 +16756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8">
       <c r="C4">
         <v>86164.090540000005</v>
       </c>
@@ -16971,8 +16781,8 @@
         <v>9.0540000004693866</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" s="3" customFormat="1"/>
+    <row r="9" spans="3:8">
       <c r="C9">
         <v>32768</v>
       </c>
@@ -16981,7 +16791,7 @@
         <v>3.0517578125E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8">
       <c r="C10">
         <f>1/D10</f>
         <v>13.333333333333334</v>
@@ -17004,14 +16814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -17020,13 +16830,13 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="D1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="D2" t="s">
         <v>126</v>
       </c>
@@ -17036,7 +16846,7 @@
         <v>-24.007348514801858</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="C3" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -17046,7 +16856,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="D4" t="s">
         <v>107</v>
       </c>
@@ -17054,7 +16864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="D5" t="s">
         <v>106</v>
       </c>
@@ -17062,13 +16872,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="55" t="s">
         <v>129</v>
       </c>
@@ -17079,7 +16889,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="56">
         <v>4.1666666666666562E-3</v>
       </c>
@@ -17100,7 +16910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="57">
         <v>0.5</v>
       </c>
@@ -17124,7 +16934,7 @@
         <v>15.771891077679758</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="57">
         <v>1.25</v>
       </c>
@@ -17148,7 +16958,7 @@
         <v>9.4881810873664332</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="57">
         <v>2.5</v>
       </c>
@@ -17160,7 +16970,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="57">
         <v>3.75</v>
       </c>
@@ -17178,7 +16988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="57">
         <v>5</v>
       </c>
@@ -17206,7 +17016,7 @@
         <v>16.47008107660346</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="57">
         <v>6.25</v>
       </c>
@@ -17226,7 +17036,7 @@
         <v>0.2874571428571428</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="57">
         <v>7.5</v>
       </c>
@@ -17238,7 +17048,7 @@
         <v>118.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="57">
         <v>8.75</v>
       </c>
@@ -17250,7 +17060,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="58">
         <v>10</v>
       </c>
@@ -17273,20 +17083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12">
       <c r="C3" t="s">
         <v>143</v>
       </c>
@@ -17303,7 +17113,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12">
       <c r="I4" t="s">
         <v>145</v>
       </c>
@@ -17314,7 +17124,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -17322,7 +17132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12">
       <c r="C6">
         <f>D6*D6</f>
         <v>225</v>
@@ -17331,7 +17141,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12">
       <c r="C7">
         <f t="shared" ref="C7:C36" si="0">D7*D7</f>
         <v>196</v>
@@ -17340,7 +17150,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12">
       <c r="C8">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -17349,7 +17159,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12">
       <c r="C9">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -17358,7 +17168,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -17367,7 +17177,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12">
       <c r="C11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -17376,7 +17186,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12">
       <c r="C12">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -17385,7 +17195,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -17394,7 +17204,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12">
       <c r="C14">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -17403,7 +17213,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12">
       <c r="C15">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -17412,7 +17222,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12">
       <c r="C16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -17421,7 +17231,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17430,7 +17240,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17439,7 +17249,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17448,7 +17258,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -17457,7 +17267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17466,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -17475,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="C23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17484,7 +17294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4">
       <c r="C24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17493,7 +17303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4">
       <c r="C25">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17502,7 +17312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="C26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -17511,7 +17321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4">
       <c r="C27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -17520,7 +17330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -17529,7 +17339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -17538,7 +17348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -17547,7 +17357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -17556,7 +17366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -17565,7 +17375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4">
       <c r="C33">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -17574,7 +17384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4">
       <c r="C34">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -17583,7 +17393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4">
       <c r="C35">
         <f t="shared" si="0"/>
         <v>196</v>
@@ -17592,7 +17402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4">
       <c r="C36">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -17601,65 +17411,71 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4">
       <c r="C41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4">
       <c r="C42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4">
       <c r="C43" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4">
       <c r="C44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4">
       <c r="C45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4">
       <c r="C46" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="67" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" s="62" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4">
       <c r="C48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15">
       <c r="C49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15">
       <c r="C50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15">
       <c r="C51" t="s">
         <v>161</v>
       </c>
       <c r="H51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
       <c r="C52" t="s">
         <v>162</v>
       </c>
@@ -17675,14 +17491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -17697,41 +17513,41 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="18">
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
@@ -17742,7 +17558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -17764,7 +17580,7 @@
         <v>1.5999999999999999E-6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="C8" s="7">
         <v>25000000</v>
       </c>
@@ -17797,7 +17613,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1">
       <c r="D9" s="4">
         <v>4</v>
       </c>
@@ -17820,7 +17636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="D10" t="s">
         <v>77</v>
       </c>
@@ -17832,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="D11" t="s">
         <v>78</v>
       </c>
@@ -17841,13 +17657,13 @@
         <v>7E</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="H12">
         <f>0.000001/I7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1">
       <c r="D13" s="7">
         <f>(D9*E9*G9)</f>
         <v>40</v>
@@ -17861,13 +17677,13 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1">
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1">
       <c r="C15" s="22" t="s">
         <v>19</v>
       </c>
@@ -17878,7 +17694,7 @@
       <c r="J15" s="21"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
@@ -17916,7 +17732,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -17952,7 +17768,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13">
       <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
@@ -17990,7 +17806,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13">
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
@@ -18028,7 +17844,7 @@
         <v>Hz</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" ht="15.75" thickBot="1">
       <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
@@ -18066,7 +17882,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13">
       <c r="C21" s="27" t="s">
         <v>24</v>
       </c>
@@ -18104,7 +17920,7 @@
         <v>Ktact</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13">
       <c r="C22" s="27" t="s">
         <v>99</v>
       </c>
@@ -18142,7 +17958,7 @@
         <v>mtact</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13">
       <c r="C23" s="27" t="s">
         <v>26</v>
       </c>
@@ -18180,7 +17996,7 @@
         <v>Mcomands</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13">
       <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
@@ -18218,7 +18034,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" ht="15.75" thickBot="1">
       <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
@@ -18250,7 +18066,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" ht="15.75" thickBot="1">
       <c r="C26" s="28" t="s">
         <v>28</v>
       </c>
@@ -18265,7 +18081,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13">
       <c r="C27" s="19" t="s">
         <v>14</v>
       </c>
@@ -18303,7 +18119,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13">
       <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
@@ -18339,7 +18155,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13">
       <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
@@ -18377,7 +18193,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13">
       <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
@@ -18415,7 +18231,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" ht="15.75" thickBot="1">
       <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
@@ -18453,7 +18269,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13">
       <c r="C32" s="27" t="s">
         <v>24</v>
       </c>
@@ -18491,7 +18307,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13">
       <c r="C33" s="27" t="s">
         <v>99</v>
       </c>
@@ -18529,7 +18345,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13">
       <c r="C34" s="27" t="s">
         <v>26</v>
       </c>
@@ -18567,7 +18383,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13">
       <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
@@ -18599,10 +18415,10 @@
         <v>K</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" ht="15.75" thickBot="1">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" ht="15.75" thickBot="1">
       <c r="C37" s="28" t="s">
         <v>28</v>
       </c>
@@ -18617,7 +18433,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13">
       <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
@@ -18655,7 +18471,7 @@
         <v>Kstep</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13">
       <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
@@ -18691,7 +18507,7 @@
         <v>˚</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13">
       <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
@@ -18729,7 +18545,7 @@
         <v>ms</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13">
       <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
@@ -18767,7 +18583,7 @@
         <v>KHz</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13" ht="15.75" thickBot="1">
       <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
@@ -18805,7 +18621,7 @@
         <v>us</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13">
       <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
@@ -18843,7 +18659,7 @@
         <v>tact</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13">
       <c r="C44" s="27" t="s">
         <v>99</v>
       </c>
@@ -18881,7 +18697,7 @@
         <v>utact</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13">
       <c r="C45" s="27" t="s">
         <v>26</v>
       </c>
@@ -18919,7 +18735,7 @@
         <v>Kcomands</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13">
       <c r="C46" s="27" t="s">
         <v>31</v>
       </c>
@@ -19020,14 +18836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M407"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -19039,7 +18855,7 @@
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -19047,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -19055,7 +18871,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
@@ -19063,12 +18879,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -19080,7 +18896,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -19118,7 +18934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -19156,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="B9" s="3">
         <v>0.2</v>
       </c>
@@ -19200,7 +19016,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="3">
         <v>0.3</v>
       </c>
@@ -19244,7 +19060,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="B11" s="3">
         <v>0.4</v>
       </c>
@@ -19288,7 +19104,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
@@ -19332,7 +19148,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="B13" s="3">
         <v>0.6</v>
       </c>
@@ -19376,7 +19192,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" s="3">
         <v>0.7</v>
       </c>
@@ -19420,7 +19236,7 @@
         <v>9.9999999999999846E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="B15" s="3">
         <v>0.8</v>
       </c>
@@ -19464,7 +19280,7 @@
         <v>1.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="B16" s="3">
         <v>0.9</v>
       </c>
@@ -19508,7 +19324,7 @@
         <v>9.9999999999999655E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -19552,7 +19368,7 @@
         <v>1.000000000000008E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -19596,7 +19412,7 @@
         <v>9.9999999999999412E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="3">
         <v>1.2</v>
       </c>
@@ -19640,7 +19456,7 @@
         <v>9.9999999999999829E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="3">
         <v>1.3</v>
       </c>
@@ -19684,7 +19500,7 @@
         <v>1.0000000000000057E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="3">
         <v>1.4</v>
       </c>
@@ -19728,7 +19544,7 @@
         <v>1.000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="3">
         <v>1.5</v>
       </c>
@@ -19772,7 +19588,7 @@
         <v>9.9999999999997452E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="3">
         <v>1.6</v>
       </c>
@@ -19816,7 +19632,7 @@
         <v>1.0000000000000122E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="3">
         <v>1.7</v>
       </c>
@@ -19860,7 +19676,7 @@
         <v>1.0000000000000104E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="3">
         <v>1.8</v>
       </c>
@@ -19904,7 +19720,7 @@
         <v>1.0000000000000162E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="3">
         <v>1.9</v>
       </c>
@@ -19948,7 +19764,7 @@
         <v>9.999999999999688E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -19992,7 +19808,7 @@
         <v>1.0000000000000023E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>3.4960744879438729E-3</v>
@@ -20033,7 +19849,7 @@
         <v>9.9999999999998614E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>3.6620670770186989E-3</v>
@@ -20074,7 +19890,7 @@
         <v>1.000000000000059E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>3.8278311931459054E-3</v>
@@ -20115,7 +19931,7 @@
         <v>9.9999999999992369E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>3.9933821937865772E-3</v>
@@ -20156,7 +19972,7 @@
         <v>1.0000000000000668E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>4.1587337893224377E-3</v>
@@ -20197,7 +20013,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:13">
       <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>4.3238982802406454E-3</v>
@@ -20238,7 +20054,7 @@
         <v>1.0000000000000243E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:13">
       <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.4888867521316964E-3</v>
@@ -20279,7 +20095,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:13">
       <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.6537092373243527E-3</v>
@@ -20320,7 +20136,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:13">
       <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>4.8183748498798811E-3</v>
@@ -20361,7 +20177,7 @@
         <v>9.9999999999994885E-3</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:13">
       <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>4.9828918991234421E-3</v>
@@ -20402,7 +20218,7 @@
         <v>1.0000000000001076E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:13">
       <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>5.1472679857416355E-3</v>
@@ -20443,7 +20259,7 @@
         <v>9.9999999999995839E-3</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:13">
       <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>5.3115100836106759E-3</v>
@@ -20484,7 +20300,7 @@
         <v>1.0000000000000278E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13">
       <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>5.4756246098625226E-3</v>
@@ -20525,7 +20341,7 @@
         <v>9.99999999999889E-3</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13">
       <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>5.6396174851915705E-3</v>
@@ -20566,7 +20382,7 @@
         <v>1.0000000000001084E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:13">
       <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>5.8034941860137593E-3</v>
@@ -20607,7 +20423,7 @@
         <v>1.0000000000000208E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:13">
       <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>5.9672597897843004E-3</v>
@@ -20648,7 +20464,7 @@
         <v>9.9999999999988206E-3</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:13">
       <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>6.1309190145398852E-3</v>
@@ -20689,7 +20505,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:13">
       <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>6.2944762535402767E-3</v>
@@ -20730,7 +20546,7 @@
         <v>9.9999999999975022E-3</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:13">
       <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>6.4579356057317882E-3</v>
@@ -20771,7 +20587,7 @@
         <v>1.0000000000002056E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:13">
       <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>6.6213009026325114E-3</v>
@@ -20812,7 +20628,7 @@
         <v>9.999999999998543E-3</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:13">
       <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>6.7845757321399868E-3</v>
@@ -20853,7 +20669,7 @@
         <v>1.0000000000001666E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:13">
       <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>6.9477634596812349E-3</v>
@@ -20894,7 +20710,7 @@
         <v>9.9999999999979619E-3</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:13">
       <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>7.1108672470589886E-3</v>
@@ -20935,7 +20751,7 @@
         <v>1.0000000000002037E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:13">
       <c r="D51" s="3">
         <f t="shared" si="0"/>
         <v>7.2738900692936193E-3</v>
@@ -20976,7 +20792,7 @@
         <v>9.9999999999985864E-3</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:13">
       <c r="D52" s="3">
         <f t="shared" si="0"/>
         <v>7.4368347297152759E-3</v>
@@ -21017,7 +20833,7 @@
         <v>1.000000000000051E-2</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:13">
       <c r="D53" s="3">
         <f t="shared" si="0"/>
         <v>7.5997038735234647E-3</v>
@@ -21058,7 +20874,7 @@
         <v>1.0000000000000113E-2</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:13">
       <c r="D54" s="3">
         <f t="shared" si="0"/>
         <v>7.7625000000000038E-3</v>
@@ -21099,7 +20915,7 @@
         <v>1.0000000000001778E-2</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:13">
       <c r="D55" s="3">
         <f t="shared" si="0"/>
         <v>7.9252254735354133E-3</v>
@@ -21140,7 +20956,7 @@
         <v>9.9999999999960693E-3</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:13">
       <c r="D56" s="3">
         <f t="shared" si="0"/>
         <v>8.0878825336065663E-3</v>
@@ -21181,7 +20997,7 @@
         <v>1.0000000000003166E-2</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:13">
       <c r="D57" s="3">
         <f t="shared" si="0"/>
         <v>8.2504733038250462E-3</v>
@@ -21222,7 +21038,7 @@
         <v>9.9999999999986367E-3</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:13">
       <c r="D58" s="3">
         <f t="shared" si="0"/>
         <v>8.4129998001598455E-3</v>
@@ -21263,7 +21079,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13">
       <c r="D59" s="3">
         <f t="shared" si="0"/>
         <v>8.5754639384246663E-3</v>
@@ -21304,7 +21120,7 @@
         <v>9.9999999999975456E-3</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:13">
       <c r="D60" s="3">
         <f t="shared" si="0"/>
         <v>8.7378675411086577E-3</v>
@@ -21345,7 +21161,7 @@
         <v>1.0000000000005367E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:13">
       <c r="D61" s="3">
         <f t="shared" si="0"/>
         <v>8.9002123436195662E-3</v>
@@ -21386,7 +21202,7 @@
         <v>9.9999999999952557E-3</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:13">
       <c r="D62" s="3">
         <f t="shared" si="0"/>
         <v>9.0625000000000046E-3</v>
@@ -21427,7 +21243,7 @@
         <v>9.9999999999996082E-3</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13">
       <c r="D63" s="3">
         <f t="shared" si="0"/>
         <v>9.2247320881701008E-3</v>
@@ -21468,7 +21284,7 @@
         <v>1.0000000000003791E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13">
       <c r="D64" s="3">
         <f t="shared" si="0"/>
         <v>9.386910114743692E-3</v>
@@ -21509,7 +21325,7 @@
         <v>9.9999999999962272E-3</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:13">
       <c r="D65" s="3">
         <f t="shared" si="0"/>
         <v>9.5490355194596567E-3</v>
@@ -21550,7 +21366,7 @@
         <v>1.0000000000004882E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:13">
       <c r="D66" s="3">
         <f t="shared" si="0"/>
         <v>9.7111096792653791E-3</v>
@@ -21591,7 +21407,7 @@
         <v>9.9999999999957415E-3</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13">
       <c r="D67" s="3">
         <f t="shared" si="0"/>
         <v>9.8731339120850647E-3</v>
@@ -21632,7 +21448,7 @@
         <v>9.9999999999991224E-3</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13">
       <c r="D68" s="3">
         <f t="shared" si="0"/>
         <v>1.0035109480302241E-2</v>
@@ -21673,7 +21489,7 @@
         <v>1.0000000000004276E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13">
       <c r="D69" s="3">
         <f t="shared" si="0"/>
         <v>1.0197037593982409E-2</v>
@@ -21714,7 +21530,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13">
       <c r="D70" s="3">
         <f t="shared" si="0"/>
         <v>1.035891941385921E-2</v>
@@ -21755,7 +21571,7 @@
         <v>1.000000000000169E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:13">
       <c r="D71" s="3">
         <f t="shared" si="0"/>
         <v>1.0520756054104954E-2</v>
@@ -21796,7 +21612,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:13">
       <c r="D72" s="3">
         <f t="shared" si="0"/>
         <v>1.068254858490425E-2</v>
@@ -21837,7 +21653,7 @@
         <v>1.0000000000001482E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:13">
       <c r="D73" s="3">
         <f t="shared" ref="D73:D136" si="9">$D$2+$D$3*F73+$D$4*F73*F73/2</f>
         <v>1.0844298034847591E-2</v>
@@ -21878,7 +21694,7 @@
         <v>1.0000000000004762E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:13">
       <c r="D74" s="3">
         <f t="shared" si="9"/>
         <v>1.1006005393159999E-2</v>
@@ -21919,7 +21735,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:13">
       <c r="D75" s="3">
         <f t="shared" si="9"/>
         <v>1.1167671611778517E-2</v>
@@ -21960,7 +21776,7 @@
         <v>9.9999999999984285E-3</v>
       </c>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:13">
       <c r="D76" s="3">
         <f t="shared" si="9"/>
         <v>1.1329297607290748E-2</v>
@@ -22001,7 +21817,7 @@
         <v>1.0000000000002264E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:13">
       <c r="D77" s="3">
         <f t="shared" si="9"/>
         <v>1.1490884262745762E-2</v>
@@ -22042,7 +21858,7 @@
         <v>9.9999999999953754E-3</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13">
       <c r="D78" s="3">
         <f t="shared" si="9"/>
         <v>1.1652432429347447E-2</v>
@@ -22083,7 +21899,7 @@
         <v>1.0000000000002403E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13">
       <c r="D79" s="3">
         <f t="shared" si="9"/>
         <v>1.181394292803945E-2</v>
@@ -22124,7 +21940,7 @@
         <v>9.9999999999961578E-3</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13">
       <c r="D80" s="3">
         <f t="shared" si="9"/>
         <v>1.197541655099019E-2</v>
@@ -22165,7 +21981,7 @@
         <v>1.0000000000009114E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:13">
       <c r="D81" s="3">
         <f t="shared" si="9"/>
         <v>1.2136854062985376E-2</v>
@@ -22206,7 +22022,7 @@
         <v>9.9999999999888026E-3</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13">
       <c r="D82" s="3">
         <f t="shared" si="9"/>
         <v>1.2298256202735156E-2</v>
@@ -22247,7 +22063,7 @@
         <v>1.0000000000014388E-2</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13">
       <c r="D83" s="3">
         <f t="shared" si="9"/>
         <v>1.2459623684102028E-2</v>
@@ -22288,7 +22104,7 @@
         <v>9.9999999999889413E-3</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13">
       <c r="D84" s="3">
         <f t="shared" si="9"/>
         <v>1.2620957197255471E-2</v>
@@ -22329,7 +22145,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13">
       <c r="D85" s="3">
         <f t="shared" si="9"/>
         <v>1.2782257409758441E-2</v>
@@ -22370,7 +22186,7 @@
         <v>9.999999999991906E-3</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:13">
       <c r="D86" s="3">
         <f t="shared" si="9"/>
         <v>1.294352496759067E-2</v>
@@ -22411,7 +22227,7 @@
         <v>1.0000000000005872E-2</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:13">
       <c r="D87" s="3">
         <f t="shared" si="9"/>
         <v>1.3104760496113128E-2</v>
@@ -22452,7 +22268,7 @@
         <v>1.0000000000002869E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:13">
       <c r="D88" s="3">
         <f t="shared" si="9"/>
         <v>1.3265964600977825E-2</v>
@@ -22493,7 +22309,7 @@
         <v>1.0000000000000599E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:13">
       <c r="D89" s="3">
         <f t="shared" si="9"/>
         <v>1.3427137868986583E-2</v>
@@ -22534,7 +22350,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:13">
       <c r="D90" s="3">
         <f t="shared" si="9"/>
         <v>1.3588280868902356E-2</v>
@@ -22575,7 +22391,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:13">
       <c r="D91" s="3">
         <f t="shared" si="9"/>
         <v>1.3749394152216109E-2</v>
@@ -22616,7 +22432,7 @@
         <v>1.0000000000000561E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:13">
       <c r="D92" s="3">
         <f t="shared" si="9"/>
         <v>1.3910478253872373E-2</v>
@@ -22657,7 +22473,7 @@
         <v>1.0000000000013921E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:13">
       <c r="D93" s="3">
         <f t="shared" si="9"/>
         <v>1.4071533692956025E-2</v>
@@ -22698,7 +22514,7 @@
         <v>9.9999999999878311E-3</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:13">
       <c r="D94" s="3">
         <f t="shared" si="9"/>
         <v>1.4232560973342842E-2</v>
@@ -22739,7 +22555,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:13">
       <c r="D95" s="3">
         <f t="shared" si="9"/>
         <v>1.4393560584316189E-2</v>
@@ -22780,7 +22596,7 @@
         <v>1.0000000000004484E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:13">
       <c r="D96" s="3">
         <f t="shared" si="9"/>
         <v>1.455453300115186E-2</v>
@@ -22821,7 +22637,7 @@
         <v>9.9999999999941767E-3</v>
       </c>
     </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:13">
       <c r="D97" s="3">
         <f t="shared" si="9"/>
         <v>1.4715478685673185E-2</v>
@@ -22862,7 +22678,7 @@
         <v>1.0000000000014754E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:13">
       <c r="D98" s="3">
         <f t="shared" si="9"/>
         <v>1.4876398086778132E-2</v>
@@ -22903,7 +22719,7 @@
         <v>9.99999999998228E-3</v>
       </c>
     </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:13">
       <c r="D99" s="3">
         <f t="shared" si="9"/>
         <v>1.5037291640940156E-2</v>
@@ -22944,7 +22760,7 @@
         <v>1.0000000000010036E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:13">
       <c r="D100" s="3">
         <f t="shared" si="9"/>
         <v>1.5198159772684378E-2</v>
@@ -22985,7 +22801,7 @@
         <v>9.9999999999990721E-3</v>
       </c>
     </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:13">
       <c r="D101" s="3">
         <f t="shared" si="9"/>
         <v>1.5359002895040531E-2</v>
@@ -23026,7 +22842,7 @@
         <v>9.9999999999987564E-3</v>
       </c>
     </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:13">
       <c r="D102" s="3">
         <f t="shared" si="9"/>
         <v>1.551982140997412E-2</v>
@@ -23067,7 +22883,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:13">
       <c r="D103" s="3">
         <f t="shared" si="9"/>
         <v>1.5680615708796919E-2</v>
@@ -23108,7 +22924,7 @@
         <v>9.9999999999989334E-3</v>
       </c>
     </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:13">
       <c r="D104" s="3">
         <f t="shared" si="9"/>
         <v>1.5841386172558179E-2</v>
@@ -23149,7 +22965,7 @@
         <v>1.0000000000004623E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:13">
       <c r="D105" s="3">
         <f t="shared" si="9"/>
         <v>1.6002133172417523E-2</v>
@@ -23190,7 +23006,7 @@
         <v>9.9999999999933822E-3</v>
       </c>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:13">
       <c r="D106" s="3">
         <f t="shared" si="9"/>
         <v>1.6162857070000588E-2</v>
@@ -23231,7 +23047,7 @@
         <v>1.0000000000003475E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:13">
       <c r="D107" s="3">
         <f t="shared" si="9"/>
         <v>1.6323558217738395E-2</v>
@@ -23272,7 +23088,7 @@
         <v>1.0000000000005317E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:13">
       <c r="D108" s="3">
         <f t="shared" si="9"/>
         <v>1.6484236959191378E-2</v>
@@ -23313,7 +23129,7 @@
         <v>9.999999999993521E-3</v>
       </c>
     </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:13">
       <c r="D109" s="3">
         <f t="shared" si="9"/>
         <v>1.6644893629358816E-2</v>
@@ -23339,7 +23155,7 @@
         <v>2.0050086084783047E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:13">
       <c r="D110" s="3">
         <f t="shared" si="9"/>
         <v>1.6805528554974598E-2</v>
@@ -23365,7 +23181,7 @@
         <v>2.0049589328303915E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:13">
       <c r="D111" s="3">
         <f t="shared" si="9"/>
         <v>1.6966142054789891E-2</v>
@@ -23391,7 +23207,7 @@
         <v>2.0049102329354127E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:13">
       <c r="D112" s="3">
         <f t="shared" si="9"/>
         <v>1.7126734439843576E-2</v>
@@ -23417,7 +23233,7 @@
         <v>2.0048624802885179E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9">
       <c r="D113" s="3">
         <f t="shared" si="9"/>
         <v>1.7287306013721013E-2</v>
@@ -23443,7 +23259,7 @@
         <v>2.0048156474293862E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9">
       <c r="D114" s="3">
         <f t="shared" si="9"/>
         <v>1.7447857072801668E-2</v>
@@ -23469,7 +23285,7 @@
         <v>2.0047697081960775E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9">
       <c r="D115" s="3">
         <f t="shared" si="9"/>
         <v>1.760838790649635E-2</v>
@@ -23495,7 +23311,7 @@
         <v>2.004724637173631E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9">
       <c r="D116" s="3">
         <f t="shared" si="9"/>
         <v>1.776889879747446E-2</v>
@@ -23521,7 +23337,7 @@
         <v>2.0046804099856978E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9">
       <c r="D117" s="3">
         <f t="shared" si="9"/>
         <v>1.7929390021881847E-2</v>
@@ -23547,7 +23363,7 @@
         <v>2.0046370030705054E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9">
       <c r="D118" s="3">
         <f t="shared" si="9"/>
         <v>1.8089861849549579E-2</v>
@@ -23573,7 +23389,7 @@
         <v>2.0045943940032375E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9">
       <c r="D119" s="3">
         <f t="shared" si="9"/>
         <v>1.8250314544194346E-2</v>
@@ -23599,7 +23415,7 @@
         <v>2.0045525607998303E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9">
       <c r="D120" s="3">
         <f t="shared" si="9"/>
         <v>1.841074836361066E-2</v>
@@ -23625,7 +23441,7 @@
         <v>2.0045114825960924E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9">
       <c r="D121" s="3">
         <f t="shared" si="9"/>
         <v>1.8571163559855386E-2</v>
@@ -23651,7 +23467,7 @@
         <v>2.0044711390572102E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9">
       <c r="D122" s="3">
         <f t="shared" si="9"/>
         <v>1.8731560379424972E-2</v>
@@ -23677,7 +23493,7 @@
         <v>2.0044315106642122E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9">
       <c r="D123" s="3">
         <f t="shared" si="9"/>
         <v>1.8891939063425657E-2</v>
@@ -23703,7 +23519,7 @@
         <v>2.0043925785706799E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9">
       <c r="D124" s="3">
         <f t="shared" si="9"/>
         <v>1.9052299847737052E-2</v>
@@ -23729,7 +23545,7 @@
         <v>2.0043543246257026E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9">
       <c r="D125" s="3">
         <f t="shared" si="9"/>
         <v>1.9212642963169442E-2</v>
@@ -23755,7 +23571,7 @@
         <v>2.0043167311567713E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9">
       <c r="D126" s="3">
         <f t="shared" si="9"/>
         <v>1.9372968635614937E-2</v>
@@ -23781,7 +23597,7 @@
         <v>2.0042797813575489E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9">
       <c r="D127" s="3">
         <f t="shared" si="9"/>
         <v>1.953327708619303E-2</v>
@@ -23807,7 +23623,7 @@
         <v>2.0042434587018685E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9">
       <c r="D128" s="3">
         <f t="shared" si="9"/>
         <v>1.9693568531390541E-2</v>
@@ -23833,7 +23649,7 @@
         <v>2.0042077473813751E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9">
       <c r="D129" s="3">
         <f t="shared" si="9"/>
         <v>1.9853843183196357E-2</v>
@@ -23859,7 +23675,7 @@
         <v>2.0041726322266903E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9">
       <c r="D130" s="3">
         <f t="shared" si="9"/>
         <v>2.0014101249231243E-2</v>
@@ -23885,7 +23701,7 @@
         <v>2.0041380982173344E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9">
       <c r="D131" s="3">
         <f t="shared" si="9"/>
         <v>2.017434293287277E-2</v>
@@ -23911,7 +23727,7 @@
         <v>2.0041041311890492E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9">
       <c r="D132" s="3">
         <f t="shared" si="9"/>
         <v>2.0334568433375774E-2</v>
@@ -23937,7 +23753,7 @@
         <v>2.0040707172671063E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9">
       <c r="D133" s="3">
         <f t="shared" si="9"/>
         <v>2.0494777945988391E-2</v>
@@ -23963,7 +23779,7 @@
         <v>2.0040378430203929E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9">
       <c r="D134" s="3">
         <f t="shared" si="9"/>
         <v>2.0654971662063974E-2</v>
@@ -23989,7 +23805,7 @@
         <v>2.0040054955132183E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9">
       <c r="D135" s="3">
         <f t="shared" si="9"/>
         <v>2.0815149769168994E-2</v>
@@ -24015,7 +23831,7 @@
         <v>2.0039736621692193E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9">
       <c r="D136" s="3">
         <f t="shared" si="9"/>
         <v>2.0975312451187143E-2</v>
@@ -24041,7 +23857,7 @@
         <v>2.0039423307931386E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9">
       <c r="D137" s="3">
         <f t="shared" ref="D137:D200" si="18">$D$2+$D$3*F137+$D$4*F137*F137/2</f>
         <v>2.113545988841976E-2</v>
@@ -24067,7 +23883,7 @@
         <v>2.0039114896916427E-2</v>
       </c>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:9">
       <c r="D138" s="3">
         <f t="shared" si="18"/>
         <v>2.1295592257682815E-2</v>
@@ -24093,7 +23909,7 @@
         <v>2.0038811273598169E-2</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:9">
       <c r="D139" s="3">
         <f t="shared" si="18"/>
         <v>2.145570973240047E-2</v>
@@ -24119,7 +23935,7 @@
         <v>2.0038512327793776E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:9">
       <c r="D140" s="3">
         <f t="shared" si="18"/>
         <v>2.1615812482695517E-2</v>
@@ -24145,7 +23961,7 @@
         <v>2.0038217951991521E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:9">
       <c r="D141" s="3">
         <f t="shared" si="18"/>
         <v>2.1775900675476668E-2</v>
@@ -24171,7 +23987,7 @@
         <v>2.0037928042680748E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:9">
       <c r="D142" s="3">
         <f t="shared" si="18"/>
         <v>2.1935974474522946E-2</v>
@@ -24197,7 +24013,7 @@
         <v>2.0037642498141064E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:9">
       <c r="D143" s="3">
         <f t="shared" si="18"/>
         <v>2.2096034040565236E-2</v>
@@ -24223,7 +24039,7 @@
         <v>2.0037361220907764E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:9">
       <c r="D144" s="3">
         <f t="shared" si="18"/>
         <v>2.2256079531365078E-2</v>
@@ -24249,7 +24065,7 @@
         <v>2.0037084117387177E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9">
       <c r="D145" s="3">
         <f t="shared" si="18"/>
         <v>2.2416111101790974E-2</v>
@@ -24275,7 +24091,7 @@
         <v>2.0036811092575161E-2</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9">
       <c r="D146" s="3">
         <f t="shared" si="18"/>
         <v>2.2576128903892059E-2</v>
@@ -24301,7 +24117,7 @@
         <v>2.0036542059400773E-2</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9">
       <c r="D147" s="3">
         <f t="shared" si="18"/>
         <v>2.2736133086969486E-2</v>
@@ -24327,7 +24143,7 @@
         <v>2.0036276929708986E-2</v>
       </c>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9">
       <c r="D148" s="3">
         <f t="shared" si="18"/>
         <v>2.2896123797645402E-2</v>
@@ -24353,7 +24169,7 @@
         <v>2.0036015620404156E-2</v>
       </c>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9">
       <c r="D149" s="3">
         <f t="shared" si="18"/>
         <v>2.3056101179929813E-2</v>
@@ -24379,7 +24195,7 @@
         <v>2.0035758048213455E-2</v>
       </c>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9">
       <c r="D150" s="3">
         <f t="shared" si="18"/>
         <v>2.3216065375285286E-2</v>
@@ -24405,7 +24221,7 @@
         <v>2.0035504133851294E-2</v>
       </c>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9">
       <c r="D151" s="3">
         <f t="shared" si="18"/>
         <v>2.337601652268954E-2</v>
@@ -24431,7 +24247,7 @@
         <v>2.0035253800434697E-2</v>
       </c>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9">
       <c r="D152" s="3">
         <f t="shared" si="18"/>
         <v>2.3535954758696159E-2</v>
@@ -24457,7 +24273,7 @@
         <v>2.0035006972531438E-2</v>
       </c>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9">
       <c r="D153" s="3">
         <f t="shared" si="18"/>
         <v>2.3695880217493394E-2</v>
@@ -24483,7 +24299,7 @@
         <v>2.0034763576601278E-2</v>
       </c>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9">
       <c r="D154" s="3">
         <f t="shared" si="18"/>
         <v>2.3855793030961085E-2</v>
@@ -24509,7 +24325,7 @@
         <v>2.0034523542483244E-2</v>
       </c>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9">
       <c r="D155" s="3">
         <f t="shared" si="18"/>
         <v>2.401569332872593E-2</v>
@@ -24535,7 +24351,7 @@
         <v>2.0034286799543676E-2</v>
       </c>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9">
       <c r="D156" s="3">
         <f t="shared" si="18"/>
         <v>2.4175581238214963E-2</v>
@@ -24561,7 +24377,7 @@
         <v>2.0034053282063067E-2</v>
       </c>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9">
       <c r="D157" s="3">
         <f t="shared" si="18"/>
         <v>2.4335456884707476E-2</v>
@@ -24587,7 +24403,7 @@
         <v>2.0033822924131854E-2</v>
       </c>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9">
       <c r="D158" s="3">
         <f t="shared" si="18"/>
         <v>2.4495320391385397E-2</v>
@@ -24613,7 +24429,7 @@
         <v>2.0033595660706307E-2</v>
       </c>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9">
       <c r="D159" s="3">
         <f t="shared" si="18"/>
         <v>2.4655171879382064E-2</v>
@@ -24639,7 +24455,7 @@
         <v>2.0033371432242097E-2</v>
       </c>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9">
       <c r="D160" s="3">
         <f t="shared" si="18"/>
         <v>2.4815011467829592E-2</v>
@@ -24665,7 +24481,7 @@
         <v>2.003315017721289E-2</v>
       </c>
     </row>
-    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9">
       <c r="D161" s="3">
         <f t="shared" si="18"/>
         <v>2.4974839273904984E-2</v>
@@ -24691,7 +24507,7 @@
         <v>2.0032931835319845E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9">
       <c r="D162" s="3">
         <f t="shared" si="18"/>
         <v>2.5134655412874605E-2</v>
@@ -24717,7 +24533,7 @@
         <v>2.0032716351676232E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9">
       <c r="D163" s="3">
         <f t="shared" si="18"/>
         <v>2.5294459998137588E-2</v>
@@ -24743,7 +24559,7 @@
         <v>2.0032503670256704E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9">
       <c r="D164" s="3">
         <f t="shared" si="18"/>
         <v>2.5454253141267903E-2</v>
@@ -24769,7 +24585,7 @@
         <v>2.0032293735465959E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9">
       <c r="D165" s="3">
         <f t="shared" si="18"/>
         <v>2.5614034952055241E-2</v>
@@ -24795,7 +24611,7 @@
         <v>2.0032086495155192E-2</v>
       </c>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:9">
       <c r="D166" s="3">
         <f t="shared" si="18"/>
         <v>2.5773805538544661E-2</v>
@@ -24821,7 +24637,7 @@
         <v>2.0031881897786836E-2</v>
       </c>
     </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:9">
       <c r="D167" s="3">
         <f t="shared" si="18"/>
         <v>2.5933565007075186E-2</v>
@@ -24847,7 +24663,7 @@
         <v>2.0031679893501953E-2</v>
       </c>
     </row>
-    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:9">
       <c r="D168" s="3">
         <f t="shared" si="18"/>
         <v>2.6093313462317268E-2</v>
@@ -24873,7 +24689,7 @@
         <v>2.0031480432637153E-2</v>
       </c>
     </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:9">
       <c r="D169" s="3">
         <f t="shared" si="18"/>
         <v>2.6253051007309253E-2</v>
@@ -24899,7 +24715,7 @@
         <v>2.003128346737788E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:9">
       <c r="D170" s="3">
         <f t="shared" si="18"/>
         <v>2.641277774349271E-2</v>
@@ -24925,7 +24741,7 @@
         <v>2.0031088952807717E-2</v>
       </c>
     </row>
-    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:9">
       <c r="D171" s="3">
         <f t="shared" si="18"/>
         <v>2.6572493770746951E-2</v>
@@ -24951,7 +24767,7 @@
         <v>2.003089684029034E-2</v>
       </c>
     </row>
-    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:9">
       <c r="D172" s="3">
         <f t="shared" si="18"/>
         <v>2.6732199187422447E-2</v>
@@ -24977,7 +24793,7 @@
         <v>2.0030707089338608E-2</v>
       </c>
     </row>
-    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:9">
       <c r="D173" s="3">
         <f t="shared" si="18"/>
         <v>2.689189409037341E-2</v>
@@ -25003,7 +24819,7 @@
         <v>2.0030519653501222E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:9">
       <c r="D174" s="3">
         <f t="shared" si="18"/>
         <v>2.7051578574989472E-2</v>
@@ -25029,7 +24845,7 @@
         <v>2.0030334492970803E-2</v>
       </c>
     </row>
-    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:9">
       <c r="D175" s="3">
         <f t="shared" si="18"/>
         <v>2.721125273522651E-2</v>
@@ -25055,7 +24871,7 @@
         <v>2.0030151564896844E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:9">
       <c r="D176" s="3">
         <f t="shared" si="18"/>
         <v>2.7370916663636599E-2</v>
@@ -25081,7 +24897,7 @@
         <v>2.0029970830943832E-2</v>
       </c>
     </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:9">
       <c r="D177" s="3">
         <f t="shared" si="18"/>
         <v>2.7530570451397281E-2</v>
@@ -25107,7 +24923,7 @@
         <v>2.0029792249053584E-2</v>
       </c>
     </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:9">
       <c r="D178" s="3">
         <f t="shared" si="18"/>
         <v>2.7690214188339869E-2</v>
@@ -25133,7 +24949,7 @@
         <v>2.0029615784425175E-2</v>
       </c>
     </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:9">
       <c r="D179" s="3">
         <f t="shared" si="18"/>
         <v>2.7849847962977205E-2</v>
@@ -25159,7 +24975,7 @@
         <v>2.0029441396710333E-2</v>
       </c>
     </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:9">
       <c r="D180" s="3">
         <f t="shared" si="18"/>
         <v>2.8009471862530548E-2</v>
@@ -25185,7 +25001,7 @@
         <v>2.0029269051673224E-2</v>
       </c>
     </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:9">
       <c r="D181" s="3">
         <f t="shared" si="18"/>
         <v>2.8169085972955796E-2</v>
@@ -25211,7 +25027,7 @@
         <v>2.0029098712029594E-2</v>
       </c>
     </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:9">
       <c r="D182" s="3">
         <f t="shared" si="18"/>
         <v>2.8328690378969082E-2</v>
@@ -25237,7 +25053,7 @@
         <v>2.0028930344385069E-2</v>
       </c>
     </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:9">
       <c r="D183" s="3">
         <f t="shared" si="18"/>
         <v>2.8488285164071623E-2</v>
@@ -25263,7 +25079,7 @@
         <v>2.0028763912750731E-2</v>
       </c>
     </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:9">
       <c r="D184" s="3">
         <f t="shared" si="18"/>
         <v>2.8647870410574015E-2</v>
@@ -25289,7 +25105,7 @@
         <v>2.0028599385456935E-2</v>
       </c>
     </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:9">
       <c r="D185" s="3">
         <f t="shared" si="18"/>
         <v>2.88074461996198E-2</v>
@@ -25315,7 +25131,7 @@
         <v>2.002843673047745E-2</v>
       </c>
     </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:9">
       <c r="D186" s="3">
         <f t="shared" si="18"/>
         <v>2.8967012611208567E-2</v>
@@ -25341,7 +25157,7 @@
         <v>2.0028275914609948E-2</v>
       </c>
     </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:9">
       <c r="D187" s="3">
         <f t="shared" si="18"/>
         <v>2.9126569724218385E-2</v>
@@ -25367,7 +25183,7 @@
         <v>2.0028116906870626E-2</v>
       </c>
     </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:9">
       <c r="D188" s="3">
         <f t="shared" si="18"/>
         <v>2.9286117616427666E-2</v>
@@ -25393,7 +25209,7 @@
         <v>2.0027959678689047E-2</v>
       </c>
     </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:9">
       <c r="D189" s="3">
         <f t="shared" si="18"/>
         <v>2.9445656364536558E-2</v>
@@ -25419,7 +25235,7 @@
         <v>2.0027804197332532E-2</v>
       </c>
     </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:9">
       <c r="D190" s="3">
         <f t="shared" si="18"/>
         <v>2.9605186044187676E-2</v>
@@ -25445,7 +25261,7 @@
         <v>2.0027650438752913E-2</v>
       </c>
     </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:9">
       <c r="D191" s="3">
         <f t="shared" si="18"/>
         <v>2.9764706729986521E-2</v>
@@ -25471,7 +25287,7 @@
         <v>2.0027498367581099E-2</v>
       </c>
     </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:9">
       <c r="D192" s="3">
         <f t="shared" si="18"/>
         <v>2.9924218495521168E-2</v>
@@ -25497,7 +25313,7 @@
         <v>2.0027347962773698E-2</v>
       </c>
     </row>
-    <row r="193" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:9">
       <c r="D193" s="3">
         <f t="shared" si="18"/>
         <v>3.0083721413381642E-2</v>
@@ -25523,7 +25339,7 @@
         <v>2.002719919349787E-2</v>
       </c>
     </row>
-    <row r="194" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:9">
       <c r="D194" s="3">
         <f t="shared" si="18"/>
         <v>3.0243215555178768E-2</v>
@@ -25549,7 +25365,7 @@
         <v>2.0027052033685606E-2</v>
       </c>
     </row>
-    <row r="195" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:9">
       <c r="D195" s="3">
         <f t="shared" si="18"/>
         <v>3.0402700991562545E-2</v>
@@ -25575,7 +25391,7 @@
         <v>2.0026906457786597E-2</v>
       </c>
     </row>
-    <row r="196" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:9">
       <c r="D196" s="3">
         <f t="shared" si="18"/>
         <v>3.0562177792240099E-2</v>
@@ -25601,7 +25417,7 @@
         <v>2.0026762440848563E-2</v>
       </c>
     </row>
-    <row r="197" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:9">
       <c r="D197" s="3">
         <f t="shared" si="18"/>
         <v>3.0721646025993202E-2</v>
@@ -25627,7 +25443,7 @@
         <v>2.0026619957521433E-2</v>
       </c>
     </row>
-    <row r="198" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:9">
       <c r="D198" s="3">
         <f t="shared" si="18"/>
         <v>3.0881105760695415E-2</v>
@@ -25653,7 +25469,7 @@
         <v>2.0026478982587036E-2</v>
       </c>
     </row>
-    <row r="199" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:9">
       <c r="D199" s="3">
         <f t="shared" si="18"/>
         <v>3.1040557063328766E-2</v>
@@ -25679,7 +25495,7 @@
         <v>2.0026339492626895E-2</v>
       </c>
     </row>
-    <row r="200" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:9">
       <c r="D200" s="3">
         <f t="shared" si="18"/>
         <v>3.1200000000000033E-2</v>
@@ -25705,7 +25521,7 @@
         <v>2.0026201465728491E-2</v>
       </c>
     </row>
-    <row r="201" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:9">
       <c r="D201" s="3">
         <f t="shared" ref="D201:D264" si="24">$D$2+$D$3*F201+$D$4*F201*F201/2</f>
         <v>3.1359434635956689E-2</v>
@@ -25731,7 +25547,7 @@
         <v>2.0026064878070206E-2</v>
       </c>
     </row>
-    <row r="202" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:9">
       <c r="D202" s="3">
         <f t="shared" si="24"/>
         <v>3.1518861035602488E-2</v>
@@ -25757,7 +25573,7 @@
         <v>2.0025929705904149E-2</v>
       </c>
     </row>
-    <row r="203" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:9">
       <c r="D203" s="3">
         <f t="shared" si="24"/>
         <v>3.1678279262512654E-2</v>
@@ -25783,7 +25599,7 @@
         <v>2.0025795928402351E-2</v>
       </c>
     </row>
-    <row r="204" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:9">
       <c r="D204" s="3">
         <f t="shared" si="24"/>
         <v>3.1837689379448683E-2</v>
@@ -25809,7 +25625,7 @@
         <v>2.002566352538742E-2</v>
       </c>
     </row>
-    <row r="205" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:9">
       <c r="D205" s="3">
         <f t="shared" si="24"/>
         <v>3.1997091448372872E-2</v>
@@ -25835,7 +25651,7 @@
         <v>2.0025532474081648E-2</v>
       </c>
     </row>
-    <row r="206" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:9">
       <c r="D206" s="3">
         <f t="shared" si="24"/>
         <v>3.2156485530462492E-2</v>
@@ -25861,7 +25677,7 @@
         <v>2.0025402755520373E-2</v>
       </c>
     </row>
-    <row r="207" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:9">
       <c r="D207" s="3">
         <f t="shared" si="24"/>
         <v>3.2315871686123709E-2</v>
@@ -25887,7 +25703,7 @@
         <v>2.0025274345848457E-2</v>
       </c>
     </row>
-    <row r="208" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:9">
       <c r="D208" s="3">
         <f t="shared" si="24"/>
         <v>3.2475249975005026E-2</v>
@@ -25913,7 +25729,7 @@
         <v>2.0025147228943364E-2</v>
       </c>
     </row>
-    <row r="209" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:9">
       <c r="D209" s="3">
         <f t="shared" si="24"/>
         <v>3.2634620456010531E-2</v>
@@ -25939,7 +25755,7 @@
         <v>2.0025021385994338E-2</v>
       </c>
     </row>
-    <row r="210" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:9">
       <c r="D210" s="3">
         <f t="shared" si="24"/>
         <v>3.2793983187312928E-2</v>
@@ -25965,7 +25781,7 @@
         <v>2.0024896794369487E-2</v>
       </c>
     </row>
-    <row r="211" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:9">
       <c r="D211" s="3">
         <f t="shared" si="24"/>
         <v>3.295333822636607E-2</v>
@@ -25991,7 +25807,7 @@
         <v>2.0024773438082753E-2</v>
       </c>
     </row>
-    <row r="212" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:9">
       <c r="D212" s="3">
         <f t="shared" si="24"/>
         <v>3.3112685629917447E-2</v>
@@ -26017,7 +25833,7 @@
         <v>2.0024651297816064E-2</v>
       </c>
     </row>
-    <row r="213" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:9">
       <c r="D213" s="3">
         <f t="shared" si="24"/>
         <v>3.3272025454020186E-2</v>
@@ -26043,7 +25859,7 @@
         <v>2.0024530356208315E-2</v>
       </c>
     </row>
-    <row r="214" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:9">
       <c r="D214" s="3">
         <f t="shared" si="24"/>
         <v>3.3431357754044953E-2</v>
@@ -26069,7 +25885,7 @@
         <v>2.0024410596060128E-2</v>
       </c>
     </row>
-    <row r="215" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:9">
       <c r="D215" s="3">
         <f t="shared" si="24"/>
         <v>3.35906825846915E-2</v>
@@ -26095,7 +25911,7 @@
         <v>2.0024291998428381E-2</v>
       </c>
     </row>
-    <row r="216" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:9">
       <c r="D216" s="3">
         <f t="shared" si="24"/>
         <v>3.3749999999999988E-2</v>
@@ -26121,7 +25937,7 @@
         <v>2.0024174549052972E-2</v>
       </c>
     </row>
-    <row r="217" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:9">
       <c r="D217" s="3">
         <f t="shared" si="24"/>
         <v>3.3909310053362118E-2</v>
@@ -26147,7 +25963,7 @@
         <v>2.0024058228147318E-2</v>
       </c>
     </row>
-    <row r="218" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:9">
       <c r="D218" s="3">
         <f t="shared" si="24"/>
         <v>3.4068612797531879E-2</v>
@@ -26173,7 +25989,7 @@
         <v>2.0023943023556163E-2</v>
       </c>
     </row>
-    <row r="219" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:9">
       <c r="D219" s="3">
         <f t="shared" si="24"/>
         <v>3.4227908284636267E-2</v>
@@ -26199,7 +26015,7 @@
         <v>2.002382891447705E-2</v>
       </c>
     </row>
-    <row r="220" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:9">
       <c r="D220" s="3">
         <f t="shared" si="24"/>
         <v>3.4387196566185586E-2</v>
@@ -26225,7 +26041,7 @@
         <v>2.0023715889778432E-2</v>
       </c>
     </row>
-    <row r="221" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:9">
       <c r="D221" s="3">
         <f t="shared" si="24"/>
         <v>3.4546477693083652E-2</v>
@@ -26251,7 +26067,7 @@
         <v>2.0023603932398243E-2</v>
       </c>
     </row>
-    <row r="222" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:9">
       <c r="D222" s="3">
         <f t="shared" si="24"/>
         <v>3.470575171563773E-2</v>
@@ -26277,7 +26093,7 @@
         <v>2.0023493025691199E-2</v>
       </c>
     </row>
-    <row r="223" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:9">
       <c r="D223" s="3">
         <f t="shared" si="24"/>
         <v>3.4865018683568311E-2</v>
@@ -26303,7 +26119,7 @@
         <v>2.0023383157103822E-2</v>
       </c>
     </row>
-    <row r="224" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:9">
       <c r="D224" s="3">
         <f t="shared" si="24"/>
         <v>3.5024278646018599E-2</v>
@@ -26329,7 +26145,7 @@
         <v>2.0023274310693083E-2</v>
       </c>
     </row>
-    <row r="225" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:9">
       <c r="D225" s="3">
         <f t="shared" si="24"/>
         <v>3.5183531651563855E-2</v>
@@ -26355,7 +26171,7 @@
         <v>2.0023166474865208E-2</v>
       </c>
     </row>
-    <row r="226" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:9">
       <c r="D226" s="3">
         <f t="shared" si="24"/>
         <v>3.534277774822063E-2</v>
@@ -26381,7 +26197,7 @@
         <v>2.0023059630663139E-2</v>
       </c>
     </row>
-    <row r="227" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:9">
       <c r="D227" s="3">
         <f t="shared" si="24"/>
         <v>3.550201698345555E-2</v>
@@ -26407,7 +26223,7 @@
         <v>2.0022953770921729E-2</v>
       </c>
     </row>
-    <row r="228" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:9">
       <c r="D228" s="3">
         <f t="shared" si="24"/>
         <v>3.5661249404194288E-2</v>
@@ -26433,7 +26249,7 @@
         <v>2.00228488760371E-2</v>
       </c>
     </row>
-    <row r="229" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:9">
       <c r="D229" s="3">
         <f t="shared" si="24"/>
         <v>3.5820475056830031E-2</v>
@@ -26459,7 +26275,7 @@
         <v>2.0022744935639939E-2</v>
       </c>
     </row>
-    <row r="230" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:9">
       <c r="D230" s="3">
         <f t="shared" si="24"/>
         <v>3.59796939872319E-2</v>
@@ -26485,7 +26301,7 @@
         <v>2.0022641939036547E-2</v>
       </c>
     </row>
-    <row r="231" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:9">
       <c r="D231" s="3">
         <f t="shared" si="24"/>
         <v>3.6138906240753291E-2</v>
@@ -26511,7 +26327,7 @@
         <v>2.0022539868132037E-2</v>
       </c>
     </row>
-    <row r="232" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:9">
       <c r="D232" s="3">
         <f t="shared" si="24"/>
         <v>3.6298111862239864E-2</v>
@@ -26537,7 +26353,7 @@
         <v>2.0022438715234406E-2</v>
       </c>
     </row>
-    <row r="233" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:9">
       <c r="D233" s="3">
         <f t="shared" si="24"/>
         <v>3.6457310896037522E-2</v>
@@ -26563,7 +26379,7 @@
         <v>2.0022338465398089E-2</v>
       </c>
     </row>
-    <row r="234" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:9">
       <c r="D234" s="3">
         <f t="shared" si="24"/>
         <v>3.6616503386000136E-2</v>
@@ -26589,7 +26405,7 @@
         <v>2.0022239106911727E-2</v>
       </c>
     </row>
-    <row r="235" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:9">
       <c r="D235" s="3">
         <f t="shared" si="24"/>
         <v>3.6775689375497175E-2</v>
@@ -26615,7 +26431,7 @@
         <v>2.0022140630263023E-2</v>
       </c>
     </row>
-    <row r="236" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:9">
       <c r="D236" s="3">
         <f t="shared" si="24"/>
         <v>3.6934868907421176E-2</v>
@@ -26641,7 +26457,7 @@
         <v>2.0022043019094538E-2</v>
       </c>
     </row>
-    <row r="237" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:9">
       <c r="D237" s="3">
         <f t="shared" si="24"/>
         <v>3.7094042024195015E-2</v>
@@ -26667,7 +26483,7 @@
         <v>2.0021946267552201E-2</v>
       </c>
     </row>
-    <row r="238" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:9">
       <c r="D238" s="3">
         <f t="shared" si="24"/>
         <v>3.7253208767779107E-2</v>
@@ -26693,7 +26509,7 @@
         <v>2.0021850359595555E-2</v>
       </c>
     </row>
-    <row r="239" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:9">
       <c r="D239" s="3">
         <f t="shared" si="24"/>
         <v>3.741236917967844E-2</v>
@@ -26719,7 +26535,7 @@
         <v>2.0021755287907537E-2</v>
       </c>
     </row>
-    <row r="240" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:9">
       <c r="D240" s="3">
         <f t="shared" si="24"/>
         <v>3.7571523300949435E-2</v>
@@ -26745,7 +26561,7 @@
         <v>2.0021661038628603E-2</v>
       </c>
     </row>
-    <row r="241" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:9">
       <c r="D241" s="3">
         <f t="shared" si="24"/>
         <v>3.7730671172206721E-2</v>
@@ -26771,7 +26587,7 @@
         <v>2.0021567602906548E-2</v>
       </c>
     </row>
-    <row r="242" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:9">
       <c r="D242" s="3">
         <f t="shared" si="24"/>
         <v>3.788981283362975E-2</v>
@@ -26797,7 +26613,7 @@
         <v>2.0021474970752275E-2</v>
       </c>
     </row>
-    <row r="243" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:9">
       <c r="D243" s="3">
         <f t="shared" si="24"/>
         <v>3.8048948324969356E-2</v>
@@ -26823,7 +26639,7 @@
         <v>2.0021383128639422E-2</v>
       </c>
     </row>
-    <row r="244" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:9">
       <c r="D244" s="3">
         <f t="shared" si="24"/>
         <v>3.8208077685554002E-2</v>
@@ -26849,7 +26665,7 @@
         <v>2.0021292071295181E-2</v>
       </c>
     </row>
-    <row r="245" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:9">
       <c r="D245" s="3">
         <f t="shared" si="24"/>
         <v>3.8367200954296195E-2</v>
@@ -26875,7 +26691,7 @@
         <v>2.0021201783718023E-2</v>
       </c>
     </row>
-    <row r="246" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:9">
       <c r="D246" s="3">
         <f t="shared" si="24"/>
         <v>3.8526318169698467E-2</v>
@@ -26901,7 +26717,7 @@
         <v>2.0021112261928646E-2</v>
       </c>
     </row>
-    <row r="247" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:9">
       <c r="D247" s="3">
         <f t="shared" si="24"/>
         <v>3.8685429369859553E-2</v>
@@ -26927,7 +26743,7 @@
         <v>2.0021023488388967E-2</v>
       </c>
     </row>
-    <row r="248" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:9">
       <c r="D248" s="3">
         <f t="shared" si="24"/>
         <v>3.8844534592480121E-2</v>
@@ -26953,7 +26769,7 @@
         <v>2.0020935462839839E-2</v>
       </c>
     </row>
-    <row r="249" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:9">
       <c r="D249" s="3">
         <f t="shared" si="24"/>
         <v>3.9003633874868722E-2</v>
@@ -26979,7 +26795,7 @@
         <v>2.0020848168127631E-2</v>
       </c>
     </row>
-    <row r="250" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:9">
       <c r="D250" s="3">
         <f t="shared" si="24"/>
         <v>3.9162727253947378E-2</v>
@@ -27005,7 +26821,7 @@
         <v>2.0020761600818556E-2</v>
       </c>
     </row>
-    <row r="251" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:9">
       <c r="D251" s="3">
         <f t="shared" si="24"/>
         <v>3.9321814766257256E-2</v>
@@ -27031,7 +26847,7 @@
         <v>2.0020675746643145E-2</v>
       </c>
     </row>
-    <row r="252" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:9">
       <c r="D252" s="3">
         <f t="shared" si="24"/>
         <v>3.9480896447964028E-2</v>
@@ -27057,7 +26873,7 @@
         <v>2.0020590602084117E-2</v>
       </c>
     </row>
-    <row r="253" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:9">
       <c r="D253" s="3">
         <f t="shared" si="24"/>
         <v>3.9639972334863334E-2</v>
@@ -27083,7 +26899,7 @@
         <v>2.0020506155873967E-2</v>
       </c>
     </row>
-    <row r="254" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:9">
       <c r="D254" s="3">
         <f t="shared" si="24"/>
         <v>3.979904246238606E-2</v>
@@ -27109,7 +26925,7 @@
         <v>2.0020422397377387E-2</v>
       </c>
     </row>
-    <row r="255" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:9">
       <c r="D255" s="3">
         <f t="shared" si="24"/>
         <v>3.9958106865603513E-2</v>
@@ -27135,7 +26951,7 @@
         <v>2.0020339321203947E-2</v>
       </c>
     </row>
-    <row r="256" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:9">
       <c r="D256" s="3">
         <f t="shared" si="24"/>
         <v>4.0117165579232443E-2</v>
@@ -27161,7 +26977,7 @@
         <v>2.0020256919307297E-2</v>
       </c>
     </row>
-    <row r="257" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:9">
       <c r="D257" s="3">
         <f t="shared" si="24"/>
         <v>4.0276218637640145E-2</v>
@@ -27187,7 +27003,7 @@
         <v>2.0020175181960954E-2</v>
       </c>
     </row>
-    <row r="258" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:9">
       <c r="D258" s="3">
         <f t="shared" si="24"/>
         <v>4.0435266074849284E-2</v>
@@ -27213,7 +27029,7 @@
         <v>2.0020094101019136E-2</v>
       </c>
     </row>
-    <row r="259" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:9">
       <c r="D259" s="3">
         <f t="shared" si="24"/>
         <v>4.0594307924542779E-2</v>
@@ -27239,7 +27055,7 @@
         <v>2.0020013669087712E-2</v>
       </c>
     </row>
-    <row r="260" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:9">
       <c r="D260" s="3">
         <f t="shared" si="24"/>
         <v>4.075334422006846E-2</v>
@@ -27265,7 +27081,7 @@
         <v>2.0019933879306822E-2</v>
       </c>
     </row>
-    <row r="261" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:9">
       <c r="D261" s="3">
         <f t="shared" si="24"/>
         <v>4.0912374994443799E-2</v>
@@ -27291,7 +27107,7 @@
         <v>2.0019854721700116E-2</v>
       </c>
     </row>
-    <row r="262" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:9">
       <c r="D262" s="3">
         <f t="shared" si="24"/>
         <v>4.1071400280360375E-2</v>
@@ -27317,7 +27133,7 @@
         <v>2.0019776193013261E-2</v>
       </c>
     </row>
-    <row r="263" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:9">
       <c r="D263" s="3">
         <f t="shared" si="24"/>
         <v>4.123042011018848E-2</v>
@@ -27343,7 +27159,7 @@
         <v>2.0019698279804817E-2</v>
       </c>
     </row>
-    <row r="264" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:9">
       <c r="D264" s="3">
         <f t="shared" si="24"/>
         <v>4.1389434515981399E-2</v>
@@ -27369,7 +27185,7 @@
         <v>2.0019620980983192E-2</v>
       </c>
     </row>
-    <row r="265" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:9">
       <c r="D265" s="3">
         <f t="shared" ref="D265:D328" si="30">$D$2+$D$3*F265+$D$4*F265*F265/2</f>
         <v>4.1548443529479832E-2</v>
@@ -27395,7 +27211,7 @@
         <v>2.0019544284759872E-2</v>
       </c>
     </row>
-    <row r="266" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:9">
       <c r="D266" s="3">
         <f t="shared" si="30"/>
         <v>4.1707447182116109E-2</v>
@@ -27421,7 +27237,7 @@
         <v>2.0019468185286174E-2</v>
       </c>
     </row>
-    <row r="267" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:9">
       <c r="D267" s="3">
         <f t="shared" si="30"/>
         <v>4.186644550501837E-2</v>
@@ -27447,7 +27263,7 @@
         <v>2.0019392678049221E-2</v>
       </c>
     </row>
-    <row r="268" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:9">
       <c r="D268" s="3">
         <f t="shared" si="30"/>
         <v>4.2025438529014657E-2</v>
@@ -27473,7 +27289,7 @@
         <v>2.0019317752393559E-2</v>
       </c>
     </row>
-    <row r="269" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:9">
       <c r="D269" s="3">
         <f t="shared" si="30"/>
         <v>4.2184426284636978E-2</v>
@@ -27499,7 +27315,7 @@
         <v>2.0019243404765234E-2</v>
       </c>
     </row>
-    <row r="270" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:9">
       <c r="D270" s="3">
         <f t="shared" si="30"/>
         <v>4.2343408802125226E-2</v>
@@ -27525,7 +27341,7 @@
         <v>2.0019169627650404E-2</v>
       </c>
     </row>
-    <row r="271" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:9">
       <c r="D271" s="3">
         <f t="shared" si="30"/>
         <v>4.2502386111431159E-2</v>
@@ -27551,7 +27367,7 @@
         <v>2.0019096411623406E-2</v>
       </c>
     </row>
-    <row r="272" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:9">
       <c r="D272" s="3">
         <f t="shared" si="30"/>
         <v>4.2661358242222135E-2</v>
@@ -27577,7 +27393,7 @@
         <v>2.0019023755097166E-2</v>
       </c>
     </row>
-    <row r="273" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:9">
       <c r="D273" s="3">
         <f t="shared" si="30"/>
         <v>4.2820325223884917E-2</v>
@@ -27603,7 +27419,7 @@
         <v>2.0018951649193886E-2</v>
       </c>
     </row>
-    <row r="274" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:9">
       <c r="D274" s="3">
         <f t="shared" si="30"/>
         <v>4.2979287085529422E-2</v>
@@ -27629,7 +27445,7 @@
         <v>2.001888008628918E-2</v>
       </c>
     </row>
-    <row r="275" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:9">
       <c r="D275" s="3">
         <f t="shared" si="30"/>
         <v>4.313824385599227E-2</v>
@@ -27655,7 +27471,7 @@
         <v>2.0018809063496526E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:9">
       <c r="D276" s="3">
         <f t="shared" si="30"/>
         <v>4.3297195563840415E-2</v>
@@ -27681,7 +27497,7 @@
         <v>2.0018738572066E-2</v>
       </c>
     </row>
-    <row r="277" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:9">
       <c r="D277" s="3">
         <f t="shared" si="30"/>
         <v>4.3456142237374693E-2</v>
@@ -27707,7 +27523,7 @@
         <v>2.0018668606625073E-2</v>
       </c>
     </row>
-    <row r="278" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:9">
       <c r="D278" s="3">
         <f t="shared" si="30"/>
         <v>4.361508390463318E-2</v>
@@ -27733,7 +27549,7 @@
         <v>2.0018599163081022E-2</v>
       </c>
     </row>
-    <row r="279" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:9">
       <c r="D279" s="3">
         <f t="shared" si="30"/>
         <v>4.3774020593394691E-2</v>
@@ -27759,7 +27575,7 @@
         <v>2.0018530233615744E-2</v>
       </c>
     </row>
-    <row r="280" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:9">
       <c r="D280" s="3">
         <f t="shared" si="30"/>
         <v>4.3932952331182114E-2</v>
@@ -27785,7 +27601,7 @@
         <v>2.0018461812204128E-2</v>
       </c>
     </row>
-    <row r="281" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:9">
       <c r="D281" s="3">
         <f t="shared" si="30"/>
         <v>4.4091879145265606E-2</v>
@@ -27811,7 +27627,7 @@
         <v>2.0018393896598624E-2</v>
       </c>
     </row>
-    <row r="282" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:9">
       <c r="D282" s="3">
         <f t="shared" si="30"/>
         <v>4.4250801062665962E-2</v>
@@ -27837,7 +27653,7 @@
         <v>2.0018326475699705E-2</v>
       </c>
     </row>
-    <row r="283" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:9">
       <c r="D283" s="3">
         <f t="shared" si="30"/>
         <v>4.4409718110157696E-2</v>
@@ -27863,7 +27679,7 @@
         <v>2.0018259550227225E-2</v>
       </c>
     </row>
-    <row r="284" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:9">
       <c r="D284" s="3">
         <f t="shared" si="30"/>
         <v>4.456863031427221E-2</v>
@@ -27889,7 +27705,7 @@
         <v>2.0018193109879394E-2</v>
       </c>
     </row>
-    <row r="285" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:9">
       <c r="D285" s="3">
         <f t="shared" si="30"/>
         <v>4.4727537701300911E-2</v>
@@ -27915,7 +27731,7 @@
         <v>2.0018127151165396E-2</v>
       </c>
     </row>
-    <row r="286" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:9">
       <c r="D286" s="3">
         <f t="shared" si="30"/>
         <v>4.4886440297298123E-2</v>
@@ -27941,7 +27757,7 @@
         <v>2.00180616716308E-2</v>
       </c>
     </row>
-    <row r="287" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:9">
       <c r="D287" s="3">
         <f t="shared" si="30"/>
         <v>4.5045338128084221E-2</v>
@@ -27967,7 +27783,7 @@
         <v>2.0017996659999291E-2</v>
       </c>
     </row>
-    <row r="288" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:9">
       <c r="D288" s="3">
         <f t="shared" si="30"/>
         <v>4.5204231219248464E-2</v>
@@ -27993,7 +27809,7 @@
         <v>2.0017932115034567E-2</v>
       </c>
     </row>
-    <row r="289" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:9">
       <c r="D289" s="3">
         <f t="shared" si="30"/>
         <v>4.5363119596151837E-2</v>
@@ -28019,7 +27835,7 @@
         <v>2.0017868036630609E-2</v>
       </c>
     </row>
-    <row r="290" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:9">
       <c r="D290" s="3">
         <f t="shared" si="30"/>
         <v>4.5522003283930093E-2</v>
@@ -28045,7 +27861,7 @@
         <v>2.0017804405999196E-2</v>
       </c>
     </row>
-    <row r="291" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:9">
       <c r="D291" s="3">
         <f t="shared" si="30"/>
         <v>4.5680882307496291E-2</v>
@@ -28071,7 +27887,7 @@
         <v>2.0017741232933636E-2</v>
       </c>
     </row>
-    <row r="292" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:9">
       <c r="D292" s="3">
         <f t="shared" si="30"/>
         <v>4.5839756691543686E-2</v>
@@ -28097,7 +27913,7 @@
         <v>2.0017678507645933E-2</v>
       </c>
     </row>
-    <row r="293" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:9">
       <c r="D293" s="3">
         <f t="shared" si="30"/>
         <v>4.5998626460548468E-2</v>
@@ -28123,7 +27939,7 @@
         <v>2.0017616218372652E-2</v>
       </c>
     </row>
-    <row r="294" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:9">
       <c r="D294" s="3">
         <f t="shared" si="30"/>
         <v>4.6157491638772336E-2</v>
@@ -28149,7 +27965,7 @@
         <v>2.0017554370521506E-2</v>
       </c>
     </row>
-    <row r="295" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:9">
       <c r="D295" s="3">
         <f t="shared" si="30"/>
         <v>4.631635225026514E-2</v>
@@ -28175,7 +27991,7 @@
         <v>2.0017492955661301E-2</v>
       </c>
     </row>
-    <row r="296" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:9">
       <c r="D296" s="3">
         <f t="shared" si="30"/>
         <v>4.6475208318867464E-2</v>
@@ -28201,7 +28017,7 @@
         <v>2.0017431969352836E-2</v>
       </c>
     </row>
-    <row r="297" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:9">
       <c r="D297" s="3">
         <f t="shared" si="30"/>
         <v>4.6634059868213264E-2</v>
@@ -28227,7 +28043,7 @@
         <v>2.0017371402900327E-2</v>
       </c>
     </row>
-    <row r="298" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:9">
       <c r="D298" s="3">
         <f t="shared" si="30"/>
         <v>4.6792906921732172E-2</v>
@@ -28253,7 +28069,7 @@
         <v>2.0017311261525422E-2</v>
       </c>
     </row>
-    <row r="299" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:9">
       <c r="D299" s="3">
         <f t="shared" si="30"/>
         <v>4.695174950265215E-2</v>
@@ -28279,7 +28095,7 @@
         <v>2.0017251529266717E-2</v>
       </c>
     </row>
-    <row r="300" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:9">
       <c r="D300" s="3">
         <f t="shared" si="30"/>
         <v>4.7110587634001784E-2</v>
@@ -28305,7 +28121,7 @@
         <v>2.0017192212713999E-2</v>
       </c>
     </row>
-    <row r="301" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:9">
       <c r="D301" s="3">
         <f t="shared" si="30"/>
         <v>4.7269421338612755E-2</v>
@@ -28331,7 +28147,7 @@
         <v>2.0017133300626405E-2</v>
       </c>
     </row>
-    <row r="302" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:9">
       <c r="D302" s="3">
         <f t="shared" si="30"/>
         <v>4.7428250639122115E-2</v>
@@ -28357,7 +28173,7 @@
         <v>2.001707478985601E-2</v>
       </c>
     </row>
-    <row r="303" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:9">
       <c r="D303" s="3">
         <f t="shared" si="30"/>
         <v>4.7587075557974673E-2</v>
@@ -28383,7 +28199,7 @@
         <v>2.0017016679567984E-2</v>
       </c>
     </row>
-    <row r="304" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:9">
       <c r="D304" s="3">
         <f t="shared" si="30"/>
         <v>4.7745896117425204E-2</v>
@@ -28409,7 +28225,7 @@
         <v>2.0016958962126002E-2</v>
       </c>
     </row>
-    <row r="305" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:9">
       <c r="D305" s="3">
         <f t="shared" si="30"/>
         <v>4.7904712339540773E-2</v>
@@ -28435,7 +28251,7 @@
         <v>2.0016901635152046E-2</v>
       </c>
     </row>
-    <row r="306" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:9">
       <c r="D306" s="3">
         <f t="shared" si="30"/>
         <v>4.8063524246202881E-2</v>
@@ -28461,7 +28277,7 @@
         <v>2.0016844693305825E-2</v>
       </c>
     </row>
-    <row r="307" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:9">
       <c r="D307" s="3">
         <f t="shared" si="30"/>
         <v>4.8222331859109631E-2</v>
@@ -28487,7 +28303,7 @@
         <v>2.0016788137347738E-2</v>
       </c>
     </row>
-    <row r="308" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:9">
       <c r="D308" s="3">
         <f t="shared" si="30"/>
         <v>4.838113519977795E-2</v>
@@ -28513,7 +28329,7 @@
         <v>2.0016731955280559E-2</v>
       </c>
     </row>
-    <row r="309" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:9">
       <c r="D309" s="3">
         <f t="shared" si="30"/>
         <v>4.8539934289545617E-2</v>
@@ -28539,7 +28355,7 @@
         <v>2.0016676152076803E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:9">
       <c r="D310" s="3">
         <f t="shared" si="30"/>
         <v>4.8698729149573398E-2</v>
@@ -28565,7 +28381,7 @@
         <v>2.0016620717108052E-2</v>
       </c>
     </row>
-    <row r="311" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:9">
       <c r="D311" s="3">
         <f t="shared" si="30"/>
         <v>4.8857519800847092E-2</v>
@@ -28591,7 +28407,7 @@
         <v>2.0016565649745823E-2</v>
       </c>
     </row>
-    <row r="312" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:9">
       <c r="D312" s="3">
         <f t="shared" si="30"/>
         <v>4.9016306264179507E-2</v>
@@ -28617,7 +28433,7 @@
         <v>2.0016510948482613E-2</v>
       </c>
     </row>
-    <row r="313" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:9">
       <c r="D313" s="3">
         <f t="shared" si="30"/>
         <v>4.9175088560212493E-2</v>
@@ -28643,7 +28459,7 @@
         <v>2.0016456603944226E-2</v>
       </c>
     </row>
-    <row r="314" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:9">
       <c r="D314" s="3">
         <f t="shared" si="30"/>
         <v>4.9333866709418875E-2</v>
@@ -28669,7 +28485,7 @@
         <v>2.0016402618449006E-2</v>
       </c>
     </row>
-    <row r="315" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:9">
       <c r="D315" s="3">
         <f t="shared" si="30"/>
         <v>4.9492640732104416E-2</v>
@@ -28695,7 +28511,7 @@
         <v>2.0016348984063004E-2</v>
       </c>
     </row>
-    <row r="316" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:9">
       <c r="D316" s="3">
         <f t="shared" si="30"/>
         <v>4.965141064840968E-2</v>
@@ -28721,7 +28537,7 @@
         <v>2.0016295701110451E-2</v>
       </c>
     </row>
-    <row r="317" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:9">
       <c r="D3